--- a/documentacao/mechspot_ata.xlsx
+++ b/documentacao/mechspot_ata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documentos\SPTECH\Upload GitHub\projeto-pi-sprint-1\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39F951A-39E8-4DB7-9A96-97C7E75D3980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0413059-06F7-471B-97ED-42A8EB30898D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4545F592-9151-46FC-8F7A-0131C129BBC9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="149">
   <si>
     <t>OK</t>
   </si>
@@ -750,6 +750,43 @@
   </si>
   <si>
     <t>MELHORIAS NA DASHBOARD</t>
+  </si>
+  <si>
+    <t>ACRESCESNTAR/ATUALIZAR O BACKLOG</t>
+  </si>
+  <si>
+    <t>COMEÇO DA INTEGRAÇÃO</t>
+  </si>
+  <si>
+    <t>FINALIZAÇÃO DA DOCUMENTAÇÃO</t>
+  </si>
+  <si>
+    <t>SCRIPT ALTERADO</t>
+  </si>
+  <si>
+    <t>PLANOS PARA A SEMANA DE FOLGA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF32746D"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t>DATA:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  07/10/2024     |     LISTA DE PRESENÇA</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1127,15 +1164,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1143,6 +1171,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1898,6 +1935,51 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>415917</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>35593</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1573013" cy="1611635"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagem 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078F7D91-AB64-4D79-89D8-1CC469F73D65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028238" y="80753164"/>
+          <a:ext cx="1573013" cy="1611635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2218,10 +2300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5446F9-8A09-4B91-82C6-8FD7102DEAC7}">
-  <dimension ref="A1:V423"/>
+  <dimension ref="A1:V450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S428" sqref="S428"/>
+    <sheetView tabSelected="1" topLeftCell="A431" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E431" sqref="E431:O431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2230,10 +2312,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -4611,7 +4693,7 @@
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
-      <c r="L114" s="31" t="s">
+      <c r="L114" s="32" t="s">
         <v>11</v>
       </c>
       <c r="M114" s="15"/>
@@ -4707,7 +4789,7 @@
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
-      <c r="L118" s="31" t="s">
+      <c r="L118" s="32" t="s">
         <v>11</v>
       </c>
       <c r="M118" s="15"/>
@@ -5749,12 +5831,12 @@
       </c>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
-      <c r="L169" s="31" t="s">
+      <c r="L169" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M169" s="31"/>
-      <c r="N169" s="31"/>
-      <c r="O169" s="31"/>
+      <c r="M169" s="32"/>
+      <c r="N169" s="32"/>
+      <c r="O169" s="32"/>
       <c r="P169" s="1"/>
     </row>
     <row r="170" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6783,12 +6865,12 @@
       </c>
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
-      <c r="L219" s="31" t="s">
+      <c r="L219" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M219" s="31"/>
-      <c r="N219" s="31"/>
-      <c r="O219" s="31"/>
+      <c r="M219" s="32"/>
+      <c r="N219" s="32"/>
+      <c r="O219" s="32"/>
       <c r="P219" s="1"/>
     </row>
     <row r="220" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6805,12 +6887,12 @@
       </c>
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
-      <c r="L220" s="31" t="s">
+      <c r="L220" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M220" s="31"/>
-      <c r="N220" s="31"/>
-      <c r="O220" s="31"/>
+      <c r="M220" s="32"/>
+      <c r="N220" s="32"/>
+      <c r="O220" s="32"/>
       <c r="P220" s="1"/>
     </row>
     <row r="221" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7882,13 +7964,13 @@
       <c r="N269" s="5"/>
       <c r="O269" s="5"/>
       <c r="P269" s="1"/>
-      <c r="Q269" s="32" t="s">
+      <c r="Q269" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="R269" s="32"/>
-      <c r="S269" s="32"/>
-      <c r="T269" s="32"/>
-      <c r="U269" s="32"/>
+      <c r="R269" s="29"/>
+      <c r="S269" s="29"/>
+      <c r="T269" s="29"/>
+      <c r="U269" s="29"/>
       <c r="V269" s="1"/>
     </row>
     <row r="270" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7905,18 +7987,18 @@
       </c>
       <c r="J270" s="4"/>
       <c r="K270" s="4"/>
-      <c r="L270" s="31" t="s">
+      <c r="L270" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M270" s="31"/>
-      <c r="N270" s="31"/>
-      <c r="O270" s="31"/>
+      <c r="M270" s="32"/>
+      <c r="N270" s="32"/>
+      <c r="O270" s="32"/>
       <c r="P270" s="1"/>
-      <c r="Q270" s="33"/>
-      <c r="R270" s="33"/>
-      <c r="S270" s="33"/>
-      <c r="T270" s="33"/>
-      <c r="U270" s="33"/>
+      <c r="Q270" s="30"/>
+      <c r="R270" s="30"/>
+      <c r="S270" s="30"/>
+      <c r="T270" s="30"/>
+      <c r="U270" s="30"/>
       <c r="V270" s="1"/>
     </row>
     <row r="271" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7933,18 +8015,18 @@
       </c>
       <c r="J271" s="4"/>
       <c r="K271" s="4"/>
-      <c r="L271" s="31" t="s">
+      <c r="L271" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M271" s="31"/>
-      <c r="N271" s="31"/>
-      <c r="O271" s="31"/>
+      <c r="M271" s="32"/>
+      <c r="N271" s="32"/>
+      <c r="O271" s="32"/>
       <c r="P271" s="1"/>
-      <c r="Q271" s="33"/>
-      <c r="R271" s="33"/>
-      <c r="S271" s="33"/>
-      <c r="T271" s="33"/>
-      <c r="U271" s="33"/>
+      <c r="Q271" s="30"/>
+      <c r="R271" s="30"/>
+      <c r="S271" s="30"/>
+      <c r="T271" s="30"/>
+      <c r="U271" s="30"/>
       <c r="V271" s="1"/>
     </row>
     <row r="272" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7968,13 +8050,13 @@
       <c r="N272" s="15"/>
       <c r="O272" s="15"/>
       <c r="P272" s="1"/>
-      <c r="Q272" s="33" t="s">
+      <c r="Q272" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="R272" s="33"/>
-      <c r="S272" s="33"/>
-      <c r="T272" s="33"/>
-      <c r="U272" s="33"/>
+      <c r="R272" s="30"/>
+      <c r="S272" s="30"/>
+      <c r="T272" s="30"/>
+      <c r="U272" s="30"/>
       <c r="V272" s="1"/>
     </row>
     <row r="273" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8002,11 +8084,11 @@
       <c r="N273" s="15"/>
       <c r="O273" s="15"/>
       <c r="P273" s="1"/>
-      <c r="Q273" s="33"/>
-      <c r="R273" s="33"/>
-      <c r="S273" s="33"/>
-      <c r="T273" s="33"/>
-      <c r="U273" s="33"/>
+      <c r="Q273" s="30"/>
+      <c r="R273" s="30"/>
+      <c r="S273" s="30"/>
+      <c r="T273" s="30"/>
+      <c r="U273" s="30"/>
       <c r="V273" s="1"/>
     </row>
     <row r="274" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8034,11 +8116,11 @@
       <c r="N274" s="15"/>
       <c r="O274" s="15"/>
       <c r="P274" s="1"/>
-      <c r="Q274" s="33"/>
-      <c r="R274" s="33"/>
-      <c r="S274" s="33"/>
-      <c r="T274" s="33"/>
-      <c r="U274" s="33"/>
+      <c r="Q274" s="30"/>
+      <c r="R274" s="30"/>
+      <c r="S274" s="30"/>
+      <c r="T274" s="30"/>
+      <c r="U274" s="30"/>
       <c r="V274" s="1"/>
     </row>
     <row r="275" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8055,20 +8137,20 @@
       </c>
       <c r="J275" s="4"/>
       <c r="K275" s="4"/>
-      <c r="L275" s="31" t="s">
+      <c r="L275" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M275" s="31"/>
-      <c r="N275" s="31"/>
-      <c r="O275" s="31"/>
+      <c r="M275" s="32"/>
+      <c r="N275" s="32"/>
+      <c r="O275" s="32"/>
       <c r="P275" s="1"/>
-      <c r="Q275" s="33" t="s">
+      <c r="Q275" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="R275" s="33"/>
-      <c r="S275" s="33"/>
-      <c r="T275" s="33"/>
-      <c r="U275" s="33"/>
+      <c r="R275" s="30"/>
+      <c r="S275" s="30"/>
+      <c r="T275" s="30"/>
+      <c r="U275" s="30"/>
       <c r="V275" s="1"/>
     </row>
     <row r="276" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8088,11 +8170,11 @@
       <c r="N276" s="4"/>
       <c r="O276" s="4"/>
       <c r="P276" s="1"/>
-      <c r="Q276" s="33"/>
-      <c r="R276" s="33"/>
-      <c r="S276" s="33"/>
-      <c r="T276" s="33"/>
-      <c r="U276" s="33"/>
+      <c r="Q276" s="30"/>
+      <c r="R276" s="30"/>
+      <c r="S276" s="30"/>
+      <c r="T276" s="30"/>
+      <c r="U276" s="30"/>
       <c r="V276" s="1"/>
     </row>
     <row r="277" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8114,11 +8196,11 @@
       <c r="N277" s="16"/>
       <c r="O277" s="16"/>
       <c r="P277" s="1"/>
-      <c r="Q277" s="33"/>
-      <c r="R277" s="33"/>
-      <c r="S277" s="33"/>
-      <c r="T277" s="33"/>
-      <c r="U277" s="33"/>
+      <c r="Q277" s="30"/>
+      <c r="R277" s="30"/>
+      <c r="S277" s="30"/>
+      <c r="T277" s="30"/>
+      <c r="U277" s="30"/>
       <c r="V277" s="1"/>
     </row>
     <row r="278" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8150,13 +8232,13 @@
       </c>
       <c r="O278" s="20"/>
       <c r="P278" s="1"/>
-      <c r="Q278" s="33" t="s">
+      <c r="Q278" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="R278" s="33"/>
-      <c r="S278" s="33"/>
-      <c r="T278" s="33"/>
-      <c r="U278" s="33"/>
+      <c r="R278" s="30"/>
+      <c r="S278" s="30"/>
+      <c r="T278" s="30"/>
+      <c r="U278" s="30"/>
       <c r="V278" s="1"/>
     </row>
     <row r="279" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8184,11 +8266,11 @@
       </c>
       <c r="O279" s="11"/>
       <c r="P279" s="1"/>
-      <c r="Q279" s="33"/>
-      <c r="R279" s="33"/>
-      <c r="S279" s="33"/>
-      <c r="T279" s="33"/>
-      <c r="U279" s="33"/>
+      <c r="Q279" s="30"/>
+      <c r="R279" s="30"/>
+      <c r="S279" s="30"/>
+      <c r="T279" s="30"/>
+      <c r="U279" s="30"/>
       <c r="V279" s="1"/>
     </row>
     <row r="280" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8216,11 +8298,11 @@
       </c>
       <c r="O280" s="11"/>
       <c r="P280" s="1"/>
-      <c r="Q280" s="33"/>
-      <c r="R280" s="33"/>
-      <c r="S280" s="33"/>
-      <c r="T280" s="33"/>
-      <c r="U280" s="33"/>
+      <c r="Q280" s="30"/>
+      <c r="R280" s="30"/>
+      <c r="S280" s="30"/>
+      <c r="T280" s="30"/>
+      <c r="U280" s="30"/>
       <c r="V280" s="1"/>
     </row>
     <row r="281" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8248,11 +8330,11 @@
       </c>
       <c r="O281" s="11"/>
       <c r="P281" s="1"/>
-      <c r="Q281" s="33"/>
-      <c r="R281" s="33"/>
-      <c r="S281" s="33"/>
-      <c r="T281" s="33"/>
-      <c r="U281" s="33"/>
+      <c r="Q281" s="30"/>
+      <c r="R281" s="30"/>
+      <c r="S281" s="30"/>
+      <c r="T281" s="30"/>
+      <c r="U281" s="30"/>
       <c r="V281" s="1"/>
     </row>
     <row r="282" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8284,11 +8366,11 @@
       </c>
       <c r="O282" s="11"/>
       <c r="P282" s="1"/>
-      <c r="Q282" s="33"/>
-      <c r="R282" s="33"/>
-      <c r="S282" s="33"/>
-      <c r="T282" s="33"/>
-      <c r="U282" s="33"/>
+      <c r="Q282" s="30"/>
+      <c r="R282" s="30"/>
+      <c r="S282" s="30"/>
+      <c r="T282" s="30"/>
+      <c r="U282" s="30"/>
       <c r="V282" s="1"/>
     </row>
     <row r="283" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8308,11 +8390,11 @@
       <c r="N283" s="11"/>
       <c r="O283" s="11"/>
       <c r="P283" s="1"/>
-      <c r="Q283" s="33"/>
-      <c r="R283" s="33"/>
-      <c r="S283" s="33"/>
-      <c r="T283" s="33"/>
-      <c r="U283" s="33"/>
+      <c r="Q283" s="30"/>
+      <c r="R283" s="30"/>
+      <c r="S283" s="30"/>
+      <c r="T283" s="30"/>
+      <c r="U283" s="30"/>
       <c r="V283" s="1"/>
     </row>
     <row r="284" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8332,11 +8414,11 @@
       <c r="N284" s="11"/>
       <c r="O284" s="11"/>
       <c r="P284" s="1"/>
-      <c r="Q284" s="33"/>
-      <c r="R284" s="33"/>
-      <c r="S284" s="33"/>
-      <c r="T284" s="33"/>
-      <c r="U284" s="33"/>
+      <c r="Q284" s="30"/>
+      <c r="R284" s="30"/>
+      <c r="S284" s="30"/>
+      <c r="T284" s="30"/>
+      <c r="U284" s="30"/>
       <c r="V284" s="1"/>
     </row>
     <row r="285" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8356,11 +8438,11 @@
       <c r="N285" s="11"/>
       <c r="O285" s="11"/>
       <c r="P285" s="1"/>
-      <c r="Q285" s="33"/>
-      <c r="R285" s="33"/>
-      <c r="S285" s="33"/>
-      <c r="T285" s="33"/>
-      <c r="U285" s="33"/>
+      <c r="Q285" s="30"/>
+      <c r="R285" s="30"/>
+      <c r="S285" s="30"/>
+      <c r="T285" s="30"/>
+      <c r="U285" s="30"/>
       <c r="V285" s="1"/>
     </row>
     <row r="286" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8384,11 +8466,11 @@
       <c r="N286" s="11"/>
       <c r="O286" s="11"/>
       <c r="P286" s="1"/>
-      <c r="Q286" s="33"/>
-      <c r="R286" s="33"/>
-      <c r="S286" s="33"/>
-      <c r="T286" s="33"/>
-      <c r="U286" s="33"/>
+      <c r="Q286" s="30"/>
+      <c r="R286" s="30"/>
+      <c r="S286" s="30"/>
+      <c r="T286" s="30"/>
+      <c r="U286" s="30"/>
       <c r="V286" s="1"/>
     </row>
     <row r="287" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8408,11 +8490,11 @@
       <c r="N287" s="11"/>
       <c r="O287" s="11"/>
       <c r="P287" s="1"/>
-      <c r="Q287" s="33"/>
-      <c r="R287" s="33"/>
-      <c r="S287" s="33"/>
-      <c r="T287" s="33"/>
-      <c r="U287" s="33"/>
+      <c r="Q287" s="30"/>
+      <c r="R287" s="30"/>
+      <c r="S287" s="30"/>
+      <c r="T287" s="30"/>
+      <c r="U287" s="30"/>
       <c r="V287" s="1"/>
     </row>
     <row r="288" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8432,11 +8514,11 @@
       <c r="N288" s="11"/>
       <c r="O288" s="11"/>
       <c r="P288" s="1"/>
-      <c r="Q288" s="33"/>
-      <c r="R288" s="33"/>
-      <c r="S288" s="33"/>
-      <c r="T288" s="33"/>
-      <c r="U288" s="33"/>
+      <c r="Q288" s="30"/>
+      <c r="R288" s="30"/>
+      <c r="S288" s="30"/>
+      <c r="T288" s="30"/>
+      <c r="U288" s="30"/>
       <c r="V288" s="1"/>
     </row>
     <row r="289" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8456,11 +8538,11 @@
       <c r="N289" s="11"/>
       <c r="O289" s="11"/>
       <c r="P289" s="1"/>
-      <c r="Q289" s="33"/>
-      <c r="R289" s="33"/>
-      <c r="S289" s="33"/>
-      <c r="T289" s="33"/>
-      <c r="U289" s="33"/>
+      <c r="Q289" s="30"/>
+      <c r="R289" s="30"/>
+      <c r="S289" s="30"/>
+      <c r="T289" s="30"/>
+      <c r="U289" s="30"/>
       <c r="V289" s="1"/>
     </row>
     <row r="290" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8484,11 +8566,11 @@
       <c r="N290" s="11"/>
       <c r="O290" s="11"/>
       <c r="P290" s="1"/>
-      <c r="Q290" s="33"/>
-      <c r="R290" s="33"/>
-      <c r="S290" s="33"/>
-      <c r="T290" s="33"/>
-      <c r="U290" s="33"/>
+      <c r="Q290" s="30"/>
+      <c r="R290" s="30"/>
+      <c r="S290" s="30"/>
+      <c r="T290" s="30"/>
+      <c r="U290" s="30"/>
       <c r="V290" s="1"/>
     </row>
     <row r="291" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8508,11 +8590,11 @@
       <c r="N291" s="11"/>
       <c r="O291" s="11"/>
       <c r="P291" s="1"/>
-      <c r="Q291" s="34"/>
-      <c r="R291" s="34"/>
-      <c r="S291" s="34"/>
-      <c r="T291" s="34"/>
-      <c r="U291" s="34"/>
+      <c r="Q291" s="31"/>
+      <c r="R291" s="31"/>
+      <c r="S291" s="31"/>
+      <c r="T291" s="31"/>
+      <c r="U291" s="31"/>
       <c r="V291" s="1"/>
     </row>
     <row r="292" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11327,190 +11409,1266 @@
       <c r="O423" s="4"/>
       <c r="P423" s="1"/>
     </row>
+    <row r="425" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A425" s="21"/>
+      <c r="B425" s="22"/>
+      <c r="C425" s="22"/>
+      <c r="D425" s="22"/>
+      <c r="E425" s="2"/>
+      <c r="F425" s="3"/>
+      <c r="G425" s="3"/>
+      <c r="H425" s="3"/>
+      <c r="I425" s="3"/>
+      <c r="J425" s="3"/>
+      <c r="K425" s="3"/>
+      <c r="L425" s="3"/>
+      <c r="M425" s="3"/>
+      <c r="N425" s="3"/>
+      <c r="O425" s="3"/>
+      <c r="P425" s="1"/>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A426" s="21"/>
+      <c r="B426" s="22"/>
+      <c r="C426" s="22"/>
+      <c r="D426" s="22"/>
+      <c r="E426" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F426" s="23"/>
+      <c r="G426" s="23"/>
+      <c r="H426" s="23"/>
+      <c r="I426" s="23"/>
+      <c r="J426" s="23"/>
+      <c r="K426" s="23"/>
+      <c r="L426" s="23"/>
+      <c r="M426" s="23"/>
+      <c r="N426" s="23"/>
+      <c r="O426" s="23"/>
+      <c r="P426" s="1"/>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A427" s="21"/>
+      <c r="B427" s="22"/>
+      <c r="C427" s="22"/>
+      <c r="D427" s="22"/>
+      <c r="E427" s="23"/>
+      <c r="F427" s="23"/>
+      <c r="G427" s="23"/>
+      <c r="H427" s="23"/>
+      <c r="I427" s="23"/>
+      <c r="J427" s="23"/>
+      <c r="K427" s="23"/>
+      <c r="L427" s="23"/>
+      <c r="M427" s="23"/>
+      <c r="N427" s="23"/>
+      <c r="O427" s="23"/>
+      <c r="P427" s="1"/>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A428" s="21"/>
+      <c r="B428" s="22"/>
+      <c r="C428" s="22"/>
+      <c r="D428" s="22"/>
+      <c r="E428" s="23"/>
+      <c r="F428" s="23"/>
+      <c r="G428" s="23"/>
+      <c r="H428" s="23"/>
+      <c r="I428" s="23"/>
+      <c r="J428" s="23"/>
+      <c r="K428" s="23"/>
+      <c r="L428" s="23"/>
+      <c r="M428" s="23"/>
+      <c r="N428" s="23"/>
+      <c r="O428" s="23"/>
+      <c r="P428" s="1"/>
+    </row>
+    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A429" s="21"/>
+      <c r="B429" s="22"/>
+      <c r="C429" s="22"/>
+      <c r="D429" s="22"/>
+      <c r="E429" s="23"/>
+      <c r="F429" s="23"/>
+      <c r="G429" s="23"/>
+      <c r="H429" s="23"/>
+      <c r="I429" s="23"/>
+      <c r="J429" s="23"/>
+      <c r="K429" s="23"/>
+      <c r="L429" s="23"/>
+      <c r="M429" s="23"/>
+      <c r="N429" s="23"/>
+      <c r="O429" s="23"/>
+      <c r="P429" s="1"/>
+    </row>
+    <row r="430" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A430" s="21"/>
+      <c r="B430" s="22"/>
+      <c r="C430" s="22"/>
+      <c r="D430" s="22"/>
+      <c r="E430" s="24"/>
+      <c r="F430" s="24"/>
+      <c r="G430" s="24"/>
+      <c r="H430" s="24"/>
+      <c r="I430" s="24"/>
+      <c r="J430" s="24"/>
+      <c r="K430" s="24"/>
+      <c r="L430" s="24"/>
+      <c r="M430" s="24"/>
+      <c r="N430" s="24"/>
+      <c r="O430" s="24"/>
+      <c r="P430" s="1"/>
+    </row>
+    <row r="431" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A431" s="21"/>
+      <c r="B431" s="22"/>
+      <c r="C431" s="22"/>
+      <c r="D431" s="22"/>
+      <c r="E431" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F431" s="25"/>
+      <c r="G431" s="25"/>
+      <c r="H431" s="25"/>
+      <c r="I431" s="25"/>
+      <c r="J431" s="25"/>
+      <c r="K431" s="25"/>
+      <c r="L431" s="25"/>
+      <c r="M431" s="25"/>
+      <c r="N431" s="25"/>
+      <c r="O431" s="25"/>
+      <c r="P431" s="1"/>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A432" s="21"/>
+      <c r="B432" s="22"/>
+      <c r="C432" s="22"/>
+      <c r="D432" s="22"/>
+      <c r="E432" s="4"/>
+      <c r="F432" s="5"/>
+      <c r="G432" s="5"/>
+      <c r="H432" s="5"/>
+      <c r="I432" s="5"/>
+      <c r="J432" s="5"/>
+      <c r="K432" s="5"/>
+      <c r="L432" s="5"/>
+      <c r="M432" s="5"/>
+      <c r="N432" s="5"/>
+      <c r="O432" s="5"/>
+      <c r="P432" s="1"/>
+    </row>
+    <row r="433" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A433" s="21"/>
+      <c r="B433" s="22"/>
+      <c r="C433" s="22"/>
+      <c r="D433" s="22"/>
+      <c r="E433" s="4"/>
+      <c r="F433" s="4"/>
+      <c r="G433" s="4"/>
+      <c r="H433" s="4"/>
+      <c r="I433" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J433" s="4"/>
+      <c r="K433" s="4"/>
+      <c r="L433" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M433" s="15"/>
+      <c r="N433" s="15"/>
+      <c r="O433" s="15"/>
+      <c r="P433" s="1"/>
+    </row>
+    <row r="434" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A434" s="3"/>
+      <c r="B434" s="3"/>
+      <c r="C434" s="3"/>
+      <c r="D434" s="3"/>
+      <c r="E434" s="4"/>
+      <c r="F434" s="4"/>
+      <c r="G434" s="4"/>
+      <c r="H434" s="4"/>
+      <c r="I434" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J434" s="4"/>
+      <c r="K434" s="4"/>
+      <c r="L434" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M434" s="15"/>
+      <c r="N434" s="15"/>
+      <c r="O434" s="15"/>
+      <c r="P434" s="1"/>
+    </row>
+    <row r="435" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A435" s="3"/>
+      <c r="B435" s="3"/>
+      <c r="C435" s="3"/>
+      <c r="D435" s="3"/>
+      <c r="E435" s="4"/>
+      <c r="F435" s="4"/>
+      <c r="G435" s="4"/>
+      <c r="H435" s="4"/>
+      <c r="I435" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J435" s="4"/>
+      <c r="K435" s="4"/>
+      <c r="L435" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M435" s="15"/>
+      <c r="N435" s="15"/>
+      <c r="O435" s="15"/>
+      <c r="P435" s="1"/>
+    </row>
+    <row r="436" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A436" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B436" s="27"/>
+      <c r="C436" s="28"/>
+      <c r="D436" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E436" s="27"/>
+      <c r="F436" s="28"/>
+      <c r="G436" s="4"/>
+      <c r="H436" s="4"/>
+      <c r="I436" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J436" s="4"/>
+      <c r="K436" s="4"/>
+      <c r="L436" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M436" s="15"/>
+      <c r="N436" s="15"/>
+      <c r="O436" s="15"/>
+      <c r="P436" s="1"/>
+    </row>
+    <row r="437" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A437" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B437" s="6"/>
+      <c r="C437" s="6"/>
+      <c r="D437" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E437" s="6"/>
+      <c r="F437" s="6"/>
+      <c r="G437" s="4"/>
+      <c r="H437" s="4"/>
+      <c r="I437" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J437" s="4"/>
+      <c r="K437" s="4"/>
+      <c r="L437" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M437" s="15"/>
+      <c r="N437" s="15"/>
+      <c r="O437" s="15"/>
+      <c r="P437" s="1"/>
+    </row>
+    <row r="438" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A438" s="6"/>
+      <c r="B438" s="6"/>
+      <c r="C438" s="6"/>
+      <c r="D438" s="6"/>
+      <c r="E438" s="6"/>
+      <c r="F438" s="6"/>
+      <c r="G438" s="4"/>
+      <c r="H438" s="4"/>
+      <c r="I438" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J438" s="4"/>
+      <c r="K438" s="4"/>
+      <c r="L438" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M438" s="15"/>
+      <c r="N438" s="15"/>
+      <c r="O438" s="15"/>
+      <c r="P438" s="1"/>
+    </row>
+    <row r="439" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A439" s="6"/>
+      <c r="B439" s="6"/>
+      <c r="C439" s="6"/>
+      <c r="D439" s="6"/>
+      <c r="E439" s="6"/>
+      <c r="F439" s="6"/>
+      <c r="G439" s="4"/>
+      <c r="H439" s="4"/>
+      <c r="I439" s="4"/>
+      <c r="J439" s="4"/>
+      <c r="K439" s="4"/>
+      <c r="L439" s="4"/>
+      <c r="M439" s="4"/>
+      <c r="N439" s="4"/>
+      <c r="O439" s="4"/>
+      <c r="P439" s="1"/>
+    </row>
+    <row r="440" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A440" s="6"/>
+      <c r="B440" s="6"/>
+      <c r="C440" s="6"/>
+      <c r="D440" s="6"/>
+      <c r="E440" s="6"/>
+      <c r="F440" s="6"/>
+      <c r="G440" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H440" s="16"/>
+      <c r="I440" s="16"/>
+      <c r="J440" s="16"/>
+      <c r="K440" s="16"/>
+      <c r="L440" s="16"/>
+      <c r="M440" s="16"/>
+      <c r="N440" s="16"/>
+      <c r="O440" s="16"/>
+      <c r="P440" s="1"/>
+    </row>
+    <row r="441" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A441" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B441" s="6"/>
+      <c r="C441" s="6"/>
+      <c r="D441" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E441" s="6"/>
+      <c r="F441" s="6"/>
+      <c r="G441" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H441" s="18"/>
+      <c r="I441" s="19"/>
+      <c r="J441" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K441" s="20"/>
+      <c r="L441" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M441" s="20"/>
+      <c r="N441" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O441" s="20"/>
+      <c r="P441" s="1"/>
+    </row>
+    <row r="442" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A442" s="6"/>
+      <c r="B442" s="6"/>
+      <c r="C442" s="6"/>
+      <c r="D442" s="6"/>
+      <c r="E442" s="6"/>
+      <c r="F442" s="6"/>
+      <c r="G442" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H442" s="8"/>
+      <c r="I442" s="9"/>
+      <c r="J442" s="10">
+        <v>45568</v>
+      </c>
+      <c r="K442" s="11"/>
+      <c r="L442" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M442" s="11"/>
+      <c r="N442" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O442" s="11"/>
+      <c r="P442" s="1"/>
+    </row>
+    <row r="443" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A443" s="6"/>
+      <c r="B443" s="6"/>
+      <c r="C443" s="6"/>
+      <c r="D443" s="6"/>
+      <c r="E443" s="6"/>
+      <c r="F443" s="6"/>
+      <c r="G443" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H443" s="8"/>
+      <c r="I443" s="9"/>
+      <c r="J443" s="10">
+        <v>45568</v>
+      </c>
+      <c r="K443" s="11"/>
+      <c r="L443" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M443" s="11"/>
+      <c r="N443" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O443" s="11"/>
+      <c r="P443" s="1"/>
+    </row>
+    <row r="444" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A444" s="6"/>
+      <c r="B444" s="6"/>
+      <c r="C444" s="6"/>
+      <c r="D444" s="6"/>
+      <c r="E444" s="6"/>
+      <c r="F444" s="6"/>
+      <c r="G444" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H444" s="8"/>
+      <c r="I444" s="9"/>
+      <c r="J444" s="10">
+        <v>45568</v>
+      </c>
+      <c r="K444" s="11"/>
+      <c r="L444" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M444" s="11"/>
+      <c r="N444" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O444" s="11"/>
+      <c r="P444" s="1"/>
+    </row>
+    <row r="445" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A445" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B445" s="6"/>
+      <c r="C445" s="6"/>
+      <c r="D445" s="6"/>
+      <c r="E445" s="6"/>
+      <c r="F445" s="6"/>
+      <c r="G445" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H445" s="8"/>
+      <c r="I445" s="9"/>
+      <c r="J445" s="10">
+        <v>45568</v>
+      </c>
+      <c r="K445" s="11"/>
+      <c r="L445" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M445" s="11"/>
+      <c r="N445" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O445" s="11"/>
+      <c r="P445" s="1"/>
+    </row>
+    <row r="446" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A446" s="6"/>
+      <c r="B446" s="6"/>
+      <c r="C446" s="6"/>
+      <c r="D446" s="6"/>
+      <c r="E446" s="6"/>
+      <c r="F446" s="6"/>
+      <c r="G446" s="7"/>
+      <c r="H446" s="8"/>
+      <c r="I446" s="9"/>
+      <c r="J446" s="10"/>
+      <c r="K446" s="11"/>
+      <c r="L446" s="11"/>
+      <c r="M446" s="11"/>
+      <c r="N446" s="11"/>
+      <c r="O446" s="11"/>
+      <c r="P446" s="1"/>
+    </row>
+    <row r="447" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A447" s="6"/>
+      <c r="B447" s="6"/>
+      <c r="C447" s="6"/>
+      <c r="D447" s="6"/>
+      <c r="E447" s="6"/>
+      <c r="F447" s="6"/>
+      <c r="G447" s="7"/>
+      <c r="H447" s="8"/>
+      <c r="I447" s="9"/>
+      <c r="J447" s="10"/>
+      <c r="K447" s="11"/>
+      <c r="L447" s="11"/>
+      <c r="M447" s="11"/>
+      <c r="N447" s="11"/>
+      <c r="O447" s="11"/>
+      <c r="P447" s="1"/>
+    </row>
+    <row r="448" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A448" s="6"/>
+      <c r="B448" s="6"/>
+      <c r="C448" s="6"/>
+      <c r="D448" s="6"/>
+      <c r="E448" s="6"/>
+      <c r="F448" s="6"/>
+      <c r="G448" s="12"/>
+      <c r="H448" s="13"/>
+      <c r="I448" s="14"/>
+      <c r="J448" s="11"/>
+      <c r="K448" s="11"/>
+      <c r="L448" s="11"/>
+      <c r="M448" s="11"/>
+      <c r="N448" s="11"/>
+      <c r="O448" s="11"/>
+      <c r="P448" s="1"/>
+    </row>
+    <row r="449" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="3"/>
+      <c r="B449" s="3"/>
+      <c r="C449" s="3"/>
+      <c r="D449" s="3"/>
+      <c r="E449" s="4"/>
+      <c r="F449" s="4"/>
+      <c r="G449" s="4"/>
+      <c r="H449" s="4"/>
+      <c r="I449" s="4"/>
+      <c r="J449" s="4"/>
+      <c r="K449" s="4"/>
+      <c r="L449" s="4"/>
+      <c r="M449" s="4"/>
+      <c r="N449" s="4"/>
+      <c r="O449" s="4"/>
+      <c r="P449" s="1"/>
+    </row>
+    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A450" s="3"/>
+      <c r="B450" s="3"/>
+      <c r="C450" s="3"/>
+      <c r="D450" s="3"/>
+      <c r="E450" s="4"/>
+      <c r="F450" s="4"/>
+      <c r="G450" s="4"/>
+      <c r="H450" s="4"/>
+      <c r="I450" s="4"/>
+      <c r="J450" s="4"/>
+      <c r="K450" s="4"/>
+      <c r="L450" s="4"/>
+      <c r="M450" s="4"/>
+      <c r="N450" s="4"/>
+      <c r="O450" s="4"/>
+      <c r="P450" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="861">
-    <mergeCell ref="A418:C421"/>
-    <mergeCell ref="D418:F421"/>
-    <mergeCell ref="G418:I418"/>
-    <mergeCell ref="J418:K418"/>
-    <mergeCell ref="L418:M418"/>
-    <mergeCell ref="N418:O418"/>
-    <mergeCell ref="G419:I419"/>
-    <mergeCell ref="J419:K419"/>
-    <mergeCell ref="L419:M419"/>
-    <mergeCell ref="N419:O419"/>
-    <mergeCell ref="G420:I420"/>
-    <mergeCell ref="J420:K420"/>
-    <mergeCell ref="L420:M420"/>
-    <mergeCell ref="N420:O420"/>
-    <mergeCell ref="G421:I421"/>
-    <mergeCell ref="J421:K421"/>
-    <mergeCell ref="L421:M421"/>
-    <mergeCell ref="N421:O421"/>
-    <mergeCell ref="A410:C413"/>
-    <mergeCell ref="D410:F413"/>
-    <mergeCell ref="L410:O410"/>
-    <mergeCell ref="L411:O411"/>
-    <mergeCell ref="G413:O413"/>
-    <mergeCell ref="A414:C417"/>
-    <mergeCell ref="D414:F417"/>
-    <mergeCell ref="G414:I414"/>
-    <mergeCell ref="J414:K414"/>
-    <mergeCell ref="L414:M414"/>
-    <mergeCell ref="N414:O414"/>
-    <mergeCell ref="G415:I415"/>
-    <mergeCell ref="J415:K415"/>
-    <mergeCell ref="L415:M415"/>
-    <mergeCell ref="N415:O415"/>
-    <mergeCell ref="G416:I416"/>
-    <mergeCell ref="J416:K416"/>
-    <mergeCell ref="L416:M416"/>
-    <mergeCell ref="N416:O416"/>
-    <mergeCell ref="G417:I417"/>
-    <mergeCell ref="J417:K417"/>
-    <mergeCell ref="L417:M417"/>
-    <mergeCell ref="N417:O417"/>
-    <mergeCell ref="A398:D406"/>
-    <mergeCell ref="E399:O402"/>
-    <mergeCell ref="E403:O403"/>
-    <mergeCell ref="E404:O404"/>
-    <mergeCell ref="L406:O406"/>
-    <mergeCell ref="L407:O407"/>
-    <mergeCell ref="L408:O408"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="D409:F409"/>
-    <mergeCell ref="L409:O409"/>
-    <mergeCell ref="A392:C395"/>
-    <mergeCell ref="D392:F395"/>
-    <mergeCell ref="G392:I392"/>
-    <mergeCell ref="J392:K392"/>
-    <mergeCell ref="L392:M392"/>
-    <mergeCell ref="N392:O392"/>
-    <mergeCell ref="G393:I393"/>
-    <mergeCell ref="J393:K393"/>
-    <mergeCell ref="L393:M393"/>
-    <mergeCell ref="N393:O393"/>
-    <mergeCell ref="G394:I394"/>
-    <mergeCell ref="J394:K394"/>
-    <mergeCell ref="L394:M394"/>
-    <mergeCell ref="N394:O394"/>
-    <mergeCell ref="G395:I395"/>
-    <mergeCell ref="J395:K395"/>
-    <mergeCell ref="L395:M395"/>
-    <mergeCell ref="N395:O395"/>
-    <mergeCell ref="A384:C387"/>
-    <mergeCell ref="D384:F387"/>
-    <mergeCell ref="L384:O384"/>
-    <mergeCell ref="L385:O385"/>
-    <mergeCell ref="G387:O387"/>
-    <mergeCell ref="A388:C391"/>
-    <mergeCell ref="D388:F391"/>
-    <mergeCell ref="G388:I388"/>
-    <mergeCell ref="J388:K388"/>
-    <mergeCell ref="L388:M388"/>
-    <mergeCell ref="N388:O388"/>
-    <mergeCell ref="G389:I389"/>
-    <mergeCell ref="J389:K389"/>
-    <mergeCell ref="L389:M389"/>
-    <mergeCell ref="N389:O389"/>
-    <mergeCell ref="G390:I390"/>
-    <mergeCell ref="J390:K390"/>
-    <mergeCell ref="L390:M390"/>
-    <mergeCell ref="N390:O390"/>
-    <mergeCell ref="G391:I391"/>
-    <mergeCell ref="J391:K391"/>
-    <mergeCell ref="L391:M391"/>
-    <mergeCell ref="N391:O391"/>
-    <mergeCell ref="A372:D380"/>
-    <mergeCell ref="E373:O376"/>
-    <mergeCell ref="E377:O377"/>
-    <mergeCell ref="E378:O378"/>
-    <mergeCell ref="L380:O380"/>
-    <mergeCell ref="L381:O381"/>
-    <mergeCell ref="L382:O382"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="D383:F383"/>
-    <mergeCell ref="L383:O383"/>
-    <mergeCell ref="A340:C343"/>
-    <mergeCell ref="D340:F343"/>
-    <mergeCell ref="G340:I340"/>
-    <mergeCell ref="J340:K340"/>
-    <mergeCell ref="L340:M340"/>
-    <mergeCell ref="N340:O340"/>
-    <mergeCell ref="G341:I341"/>
-    <mergeCell ref="J341:K341"/>
-    <mergeCell ref="L341:M341"/>
-    <mergeCell ref="N341:O341"/>
-    <mergeCell ref="G342:I342"/>
-    <mergeCell ref="J342:K342"/>
-    <mergeCell ref="L342:M342"/>
-    <mergeCell ref="N342:O342"/>
-    <mergeCell ref="G343:I343"/>
-    <mergeCell ref="J343:K343"/>
-    <mergeCell ref="L343:M343"/>
-    <mergeCell ref="N343:O343"/>
-    <mergeCell ref="A332:C335"/>
-    <mergeCell ref="D332:F335"/>
-    <mergeCell ref="L332:O332"/>
-    <mergeCell ref="L333:O333"/>
-    <mergeCell ref="G335:O335"/>
-    <mergeCell ref="A336:C339"/>
-    <mergeCell ref="D336:F339"/>
-    <mergeCell ref="G336:I336"/>
-    <mergeCell ref="J336:K336"/>
-    <mergeCell ref="L336:M336"/>
-    <mergeCell ref="N336:O336"/>
-    <mergeCell ref="G337:I337"/>
-    <mergeCell ref="J337:K337"/>
-    <mergeCell ref="L337:M337"/>
-    <mergeCell ref="N337:O337"/>
-    <mergeCell ref="G338:I338"/>
-    <mergeCell ref="J338:K338"/>
-    <mergeCell ref="L338:M338"/>
-    <mergeCell ref="N338:O338"/>
-    <mergeCell ref="G339:I339"/>
-    <mergeCell ref="J339:K339"/>
-    <mergeCell ref="L339:M339"/>
-    <mergeCell ref="N339:O339"/>
-    <mergeCell ref="A320:D328"/>
-    <mergeCell ref="E321:O324"/>
-    <mergeCell ref="E325:O325"/>
-    <mergeCell ref="E326:O326"/>
-    <mergeCell ref="L328:O328"/>
-    <mergeCell ref="L329:O329"/>
-    <mergeCell ref="L330:O330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="D331:F331"/>
-    <mergeCell ref="L331:O331"/>
-    <mergeCell ref="Q266:U267"/>
-    <mergeCell ref="Q269:U271"/>
-    <mergeCell ref="Q272:U274"/>
-    <mergeCell ref="Q275:U277"/>
-    <mergeCell ref="Q278:U280"/>
-    <mergeCell ref="Q281:U283"/>
-    <mergeCell ref="Q284:U286"/>
-    <mergeCell ref="Q287:U289"/>
-    <mergeCell ref="Q290:U291"/>
-    <mergeCell ref="G292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="L292:M292"/>
-    <mergeCell ref="N292:O292"/>
-    <mergeCell ref="G293:I293"/>
-    <mergeCell ref="J293:K293"/>
-    <mergeCell ref="L293:M293"/>
-    <mergeCell ref="N293:O293"/>
-    <mergeCell ref="G289:I289"/>
-    <mergeCell ref="J289:K289"/>
-    <mergeCell ref="L289:M289"/>
-    <mergeCell ref="N289:O289"/>
-    <mergeCell ref="G290:I290"/>
-    <mergeCell ref="J290:K290"/>
-    <mergeCell ref="L290:M290"/>
-    <mergeCell ref="N290:O290"/>
-    <mergeCell ref="G291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="L291:M291"/>
-    <mergeCell ref="N291:O291"/>
+  <mergeCells count="912">
+    <mergeCell ref="A445:C448"/>
+    <mergeCell ref="D445:F448"/>
+    <mergeCell ref="G445:I445"/>
+    <mergeCell ref="J445:K445"/>
+    <mergeCell ref="L445:M445"/>
+    <mergeCell ref="N445:O445"/>
+    <mergeCell ref="G446:I446"/>
+    <mergeCell ref="J446:K446"/>
+    <mergeCell ref="L446:M446"/>
+    <mergeCell ref="N446:O446"/>
+    <mergeCell ref="G447:I447"/>
+    <mergeCell ref="J447:K447"/>
+    <mergeCell ref="L447:M447"/>
+    <mergeCell ref="N447:O447"/>
+    <mergeCell ref="G448:I448"/>
+    <mergeCell ref="J448:K448"/>
+    <mergeCell ref="L448:M448"/>
+    <mergeCell ref="N448:O448"/>
+    <mergeCell ref="A437:C440"/>
+    <mergeCell ref="D437:F440"/>
+    <mergeCell ref="L437:O437"/>
+    <mergeCell ref="L438:O438"/>
+    <mergeCell ref="G440:O440"/>
+    <mergeCell ref="A441:C444"/>
+    <mergeCell ref="D441:F444"/>
+    <mergeCell ref="G441:I441"/>
+    <mergeCell ref="J441:K441"/>
+    <mergeCell ref="L441:M441"/>
+    <mergeCell ref="N441:O441"/>
+    <mergeCell ref="G442:I442"/>
+    <mergeCell ref="J442:K442"/>
+    <mergeCell ref="L442:M442"/>
+    <mergeCell ref="N442:O442"/>
+    <mergeCell ref="G443:I443"/>
+    <mergeCell ref="J443:K443"/>
+    <mergeCell ref="L443:M443"/>
+    <mergeCell ref="N443:O443"/>
+    <mergeCell ref="G444:I444"/>
+    <mergeCell ref="J444:K444"/>
+    <mergeCell ref="L444:M444"/>
+    <mergeCell ref="N444:O444"/>
+    <mergeCell ref="A425:D433"/>
+    <mergeCell ref="E426:O429"/>
+    <mergeCell ref="E430:O430"/>
+    <mergeCell ref="E431:O431"/>
+    <mergeCell ref="L433:O433"/>
+    <mergeCell ref="L434:O434"/>
+    <mergeCell ref="L435:O435"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="D436:F436"/>
+    <mergeCell ref="L436:O436"/>
+    <mergeCell ref="A366:C369"/>
+    <mergeCell ref="D366:F369"/>
+    <mergeCell ref="G366:I366"/>
+    <mergeCell ref="J366:K366"/>
+    <mergeCell ref="L366:M366"/>
+    <mergeCell ref="N366:O366"/>
+    <mergeCell ref="G367:I367"/>
+    <mergeCell ref="J367:K367"/>
+    <mergeCell ref="L367:M367"/>
+    <mergeCell ref="N367:O367"/>
+    <mergeCell ref="G368:I368"/>
+    <mergeCell ref="J368:K368"/>
+    <mergeCell ref="L368:M368"/>
+    <mergeCell ref="N368:O368"/>
+    <mergeCell ref="G369:I369"/>
+    <mergeCell ref="J369:K369"/>
+    <mergeCell ref="L369:M369"/>
+    <mergeCell ref="N369:O369"/>
+    <mergeCell ref="A358:C361"/>
+    <mergeCell ref="D358:F361"/>
+    <mergeCell ref="L358:O358"/>
+    <mergeCell ref="L359:O359"/>
+    <mergeCell ref="G361:O361"/>
+    <mergeCell ref="A362:C365"/>
+    <mergeCell ref="D362:F365"/>
+    <mergeCell ref="G362:I362"/>
+    <mergeCell ref="J362:K362"/>
+    <mergeCell ref="L362:M362"/>
+    <mergeCell ref="N362:O362"/>
+    <mergeCell ref="G363:I363"/>
+    <mergeCell ref="J363:K363"/>
+    <mergeCell ref="L363:M363"/>
+    <mergeCell ref="N363:O363"/>
+    <mergeCell ref="G364:I364"/>
+    <mergeCell ref="J364:K364"/>
+    <mergeCell ref="L364:M364"/>
+    <mergeCell ref="N364:O364"/>
+    <mergeCell ref="G365:I365"/>
+    <mergeCell ref="J365:K365"/>
+    <mergeCell ref="L365:M365"/>
+    <mergeCell ref="N365:O365"/>
+    <mergeCell ref="A346:D354"/>
+    <mergeCell ref="E347:O350"/>
+    <mergeCell ref="E351:O351"/>
+    <mergeCell ref="E352:O352"/>
+    <mergeCell ref="L354:O354"/>
+    <mergeCell ref="L355:O355"/>
+    <mergeCell ref="L356:O356"/>
+    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="D357:F357"/>
+    <mergeCell ref="L357:O357"/>
+    <mergeCell ref="A314:C317"/>
+    <mergeCell ref="D314:F317"/>
+    <mergeCell ref="G314:I314"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="L314:M314"/>
+    <mergeCell ref="N314:O314"/>
+    <mergeCell ref="G315:I315"/>
+    <mergeCell ref="J315:K315"/>
+    <mergeCell ref="L315:M315"/>
+    <mergeCell ref="N315:O315"/>
+    <mergeCell ref="G316:I316"/>
+    <mergeCell ref="J316:K316"/>
+    <mergeCell ref="L316:M316"/>
+    <mergeCell ref="N316:O316"/>
+    <mergeCell ref="G317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="L317:M317"/>
+    <mergeCell ref="N317:O317"/>
+    <mergeCell ref="A306:C309"/>
+    <mergeCell ref="D306:F309"/>
+    <mergeCell ref="L306:O306"/>
+    <mergeCell ref="L307:O307"/>
+    <mergeCell ref="G309:O309"/>
+    <mergeCell ref="A310:C313"/>
+    <mergeCell ref="D310:F313"/>
+    <mergeCell ref="G310:I310"/>
+    <mergeCell ref="J310:K310"/>
+    <mergeCell ref="L310:M310"/>
+    <mergeCell ref="N310:O310"/>
+    <mergeCell ref="G311:I311"/>
+    <mergeCell ref="J311:K311"/>
+    <mergeCell ref="L311:M311"/>
+    <mergeCell ref="N311:O311"/>
+    <mergeCell ref="G312:I312"/>
+    <mergeCell ref="J312:K312"/>
+    <mergeCell ref="L312:M312"/>
+    <mergeCell ref="N312:O312"/>
+    <mergeCell ref="G313:I313"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="L313:M313"/>
+    <mergeCell ref="N313:O313"/>
+    <mergeCell ref="A294:D302"/>
+    <mergeCell ref="E295:O298"/>
+    <mergeCell ref="E299:O299"/>
+    <mergeCell ref="E300:O300"/>
+    <mergeCell ref="L302:O302"/>
+    <mergeCell ref="L303:O303"/>
+    <mergeCell ref="L304:O304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="D305:F305"/>
+    <mergeCell ref="L305:O305"/>
+    <mergeCell ref="A256:C259"/>
+    <mergeCell ref="D256:F259"/>
+    <mergeCell ref="G256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="L256:M256"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="G257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="L257:M257"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="G258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="L258:M258"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="G259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="L259:M259"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="A248:C251"/>
+    <mergeCell ref="D248:F251"/>
+    <mergeCell ref="L248:O248"/>
+    <mergeCell ref="L249:O249"/>
+    <mergeCell ref="G251:O251"/>
+    <mergeCell ref="A252:C255"/>
+    <mergeCell ref="D252:F255"/>
+    <mergeCell ref="G252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="L252:M252"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="G253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="L253:M253"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="G254:I254"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="L254:M254"/>
+    <mergeCell ref="N254:O254"/>
+    <mergeCell ref="G255:I255"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="L255:M255"/>
+    <mergeCell ref="N255:O255"/>
+    <mergeCell ref="A236:D244"/>
+    <mergeCell ref="E237:O240"/>
+    <mergeCell ref="E241:O241"/>
+    <mergeCell ref="E242:O242"/>
+    <mergeCell ref="L244:O244"/>
+    <mergeCell ref="L245:O245"/>
+    <mergeCell ref="L246:O246"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="D247:F247"/>
+    <mergeCell ref="L247:O247"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="E6:O6"/>
+    <mergeCell ref="E7:O7"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="A1:D9"/>
+    <mergeCell ref="E2:O5"/>
+    <mergeCell ref="A13:C16"/>
+    <mergeCell ref="A17:C20"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="D17:F20"/>
+    <mergeCell ref="A21:C24"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A27:D35"/>
+    <mergeCell ref="E28:O31"/>
+    <mergeCell ref="E32:O32"/>
+    <mergeCell ref="E33:O33"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D21:F24"/>
+    <mergeCell ref="A43:C46"/>
+    <mergeCell ref="D43:F46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="A39:C42"/>
+    <mergeCell ref="D39:F42"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A53:D61"/>
+    <mergeCell ref="E54:O57"/>
+    <mergeCell ref="E58:O58"/>
+    <mergeCell ref="E59:O59"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="A47:C50"/>
+    <mergeCell ref="D47:F50"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="A65:C68"/>
+    <mergeCell ref="D65:F68"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="G68:O68"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A69:C72"/>
+    <mergeCell ref="D69:F72"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A79:D87"/>
+    <mergeCell ref="E80:O83"/>
+    <mergeCell ref="E84:O84"/>
+    <mergeCell ref="E85:O85"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A73:C76"/>
+    <mergeCell ref="D73:F76"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="A91:C94"/>
+    <mergeCell ref="D91:F94"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="G94:O94"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A95:C98"/>
+    <mergeCell ref="D95:F98"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A105:D113"/>
+    <mergeCell ref="E106:O109"/>
+    <mergeCell ref="E110:O110"/>
+    <mergeCell ref="E111:O111"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A99:C102"/>
+    <mergeCell ref="D99:F102"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="A117:C120"/>
+    <mergeCell ref="D117:F120"/>
+    <mergeCell ref="L117:O117"/>
+    <mergeCell ref="L118:O118"/>
+    <mergeCell ref="G120:O120"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A121:C124"/>
+    <mergeCell ref="D121:F124"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A131:D139"/>
+    <mergeCell ref="E132:O135"/>
+    <mergeCell ref="E136:O136"/>
+    <mergeCell ref="E137:O137"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A125:C128"/>
+    <mergeCell ref="D125:F128"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="L142:O142"/>
+    <mergeCell ref="A143:C146"/>
+    <mergeCell ref="D143:F146"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="G146:O146"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="G150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="A147:C150"/>
+    <mergeCell ref="D147:F150"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A157:D165"/>
+    <mergeCell ref="E158:O161"/>
+    <mergeCell ref="E162:O162"/>
+    <mergeCell ref="E163:O163"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="L166:O166"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="A151:C154"/>
+    <mergeCell ref="D151:F154"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="A169:C172"/>
+    <mergeCell ref="D169:F172"/>
+    <mergeCell ref="L169:O169"/>
+    <mergeCell ref="L170:O170"/>
+    <mergeCell ref="G172:O172"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="L175:M175"/>
+    <mergeCell ref="N175:O175"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="L176:M176"/>
+    <mergeCell ref="N176:O176"/>
+    <mergeCell ref="A173:C176"/>
+    <mergeCell ref="D173:F176"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="N173:O173"/>
+    <mergeCell ref="G174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="L174:M174"/>
+    <mergeCell ref="N174:O174"/>
+    <mergeCell ref="A184:D192"/>
+    <mergeCell ref="E185:O188"/>
+    <mergeCell ref="E189:O189"/>
+    <mergeCell ref="E190:O190"/>
+    <mergeCell ref="L192:O192"/>
+    <mergeCell ref="L193:O193"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="G180:I180"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="L180:M180"/>
+    <mergeCell ref="N180:O180"/>
+    <mergeCell ref="A177:C180"/>
+    <mergeCell ref="D177:F180"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="L177:M177"/>
+    <mergeCell ref="N177:O177"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="L178:M178"/>
+    <mergeCell ref="N178:O178"/>
+    <mergeCell ref="L194:O194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="L195:O195"/>
+    <mergeCell ref="A196:C199"/>
+    <mergeCell ref="D196:F199"/>
+    <mergeCell ref="L196:O196"/>
+    <mergeCell ref="L197:O197"/>
+    <mergeCell ref="G199:O199"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="L202:M202"/>
+    <mergeCell ref="N202:O202"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="L203:M203"/>
+    <mergeCell ref="N203:O203"/>
+    <mergeCell ref="A200:C203"/>
+    <mergeCell ref="D200:F203"/>
+    <mergeCell ref="G200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="L200:M200"/>
+    <mergeCell ref="N200:O200"/>
+    <mergeCell ref="G201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="L201:M201"/>
+    <mergeCell ref="N201:O201"/>
+    <mergeCell ref="A210:D218"/>
+    <mergeCell ref="E211:O214"/>
+    <mergeCell ref="E215:O215"/>
+    <mergeCell ref="E216:O216"/>
+    <mergeCell ref="L218:O218"/>
+    <mergeCell ref="L219:O219"/>
+    <mergeCell ref="G206:I206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="N206:O206"/>
+    <mergeCell ref="G207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="N207:O207"/>
+    <mergeCell ref="A204:C207"/>
+    <mergeCell ref="D204:F207"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="L204:M204"/>
+    <mergeCell ref="N204:O204"/>
+    <mergeCell ref="G205:I205"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="L205:M205"/>
+    <mergeCell ref="N205:O205"/>
+    <mergeCell ref="L220:O220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="L221:O221"/>
+    <mergeCell ref="A222:C225"/>
+    <mergeCell ref="D222:F225"/>
+    <mergeCell ref="L222:O222"/>
+    <mergeCell ref="L223:O223"/>
+    <mergeCell ref="G225:O225"/>
+    <mergeCell ref="G228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="L228:M228"/>
+    <mergeCell ref="N228:O228"/>
+    <mergeCell ref="G229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="L229:M229"/>
+    <mergeCell ref="N229:O229"/>
+    <mergeCell ref="A226:C229"/>
+    <mergeCell ref="D226:F229"/>
+    <mergeCell ref="G226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="L226:M226"/>
+    <mergeCell ref="N226:O226"/>
+    <mergeCell ref="G227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="L227:M227"/>
+    <mergeCell ref="N227:O227"/>
+    <mergeCell ref="G232:I232"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="L232:M232"/>
+    <mergeCell ref="N232:O232"/>
+    <mergeCell ref="G233:I233"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="L233:M233"/>
+    <mergeCell ref="N233:O233"/>
+    <mergeCell ref="A230:C233"/>
+    <mergeCell ref="D230:F233"/>
+    <mergeCell ref="G230:I230"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="L230:M230"/>
+    <mergeCell ref="N230:O230"/>
+    <mergeCell ref="G231:I231"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="L231:M231"/>
+    <mergeCell ref="N231:O231"/>
+    <mergeCell ref="A262:D270"/>
+    <mergeCell ref="E263:O266"/>
+    <mergeCell ref="E267:O267"/>
+    <mergeCell ref="E268:O268"/>
+    <mergeCell ref="L270:O270"/>
+    <mergeCell ref="L271:O271"/>
+    <mergeCell ref="L272:O272"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="D273:F273"/>
+    <mergeCell ref="L273:O273"/>
+    <mergeCell ref="A274:C277"/>
+    <mergeCell ref="D274:F277"/>
+    <mergeCell ref="L274:O274"/>
+    <mergeCell ref="L275:O275"/>
+    <mergeCell ref="G277:O277"/>
+    <mergeCell ref="A278:C281"/>
+    <mergeCell ref="D278:F281"/>
+    <mergeCell ref="G278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="L278:M278"/>
+    <mergeCell ref="N278:O278"/>
+    <mergeCell ref="G279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="L279:M279"/>
+    <mergeCell ref="N279:O279"/>
+    <mergeCell ref="A282:C285"/>
+    <mergeCell ref="D282:F285"/>
+    <mergeCell ref="G280:I280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="L280:M280"/>
+    <mergeCell ref="N281:O281"/>
+    <mergeCell ref="G281:I281"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="L281:M281"/>
+    <mergeCell ref="N282:O282"/>
+    <mergeCell ref="G282:I282"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="L282:M282"/>
+    <mergeCell ref="G283:I283"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="L283:M283"/>
+    <mergeCell ref="N283:O283"/>
+    <mergeCell ref="N280:O280"/>
     <mergeCell ref="A286:C289"/>
     <mergeCell ref="D286:F289"/>
     <mergeCell ref="A290:C293"/>
@@ -11535,661 +12693,188 @@
     <mergeCell ref="J288:K288"/>
     <mergeCell ref="L288:M288"/>
     <mergeCell ref="N288:O288"/>
-    <mergeCell ref="A282:C285"/>
-    <mergeCell ref="D282:F285"/>
-    <mergeCell ref="G280:I280"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="L280:M280"/>
-    <mergeCell ref="N281:O281"/>
-    <mergeCell ref="G281:I281"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="L281:M281"/>
-    <mergeCell ref="N282:O282"/>
-    <mergeCell ref="G282:I282"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="L282:M282"/>
-    <mergeCell ref="G283:I283"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="L283:M283"/>
-    <mergeCell ref="N283:O283"/>
-    <mergeCell ref="N280:O280"/>
-    <mergeCell ref="A274:C277"/>
-    <mergeCell ref="D274:F277"/>
-    <mergeCell ref="L274:O274"/>
-    <mergeCell ref="L275:O275"/>
-    <mergeCell ref="G277:O277"/>
-    <mergeCell ref="A278:C281"/>
-    <mergeCell ref="D278:F281"/>
-    <mergeCell ref="G278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="L278:M278"/>
-    <mergeCell ref="N278:O278"/>
-    <mergeCell ref="G279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="L279:M279"/>
-    <mergeCell ref="N279:O279"/>
-    <mergeCell ref="A262:D270"/>
-    <mergeCell ref="E263:O266"/>
-    <mergeCell ref="E267:O267"/>
-    <mergeCell ref="E268:O268"/>
-    <mergeCell ref="L270:O270"/>
-    <mergeCell ref="L271:O271"/>
-    <mergeCell ref="L272:O272"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="D273:F273"/>
-    <mergeCell ref="L273:O273"/>
-    <mergeCell ref="G232:I232"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="L232:M232"/>
-    <mergeCell ref="N232:O232"/>
-    <mergeCell ref="G233:I233"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="L233:M233"/>
-    <mergeCell ref="N233:O233"/>
-    <mergeCell ref="A230:C233"/>
-    <mergeCell ref="D230:F233"/>
-    <mergeCell ref="G230:I230"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="L230:M230"/>
-    <mergeCell ref="N230:O230"/>
-    <mergeCell ref="G231:I231"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="L231:M231"/>
-    <mergeCell ref="N231:O231"/>
-    <mergeCell ref="G228:I228"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="L228:M228"/>
-    <mergeCell ref="N228:O228"/>
-    <mergeCell ref="G229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="L229:M229"/>
-    <mergeCell ref="N229:O229"/>
-    <mergeCell ref="A226:C229"/>
-    <mergeCell ref="D226:F229"/>
-    <mergeCell ref="G226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="L226:M226"/>
-    <mergeCell ref="N226:O226"/>
-    <mergeCell ref="G227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="L227:M227"/>
-    <mergeCell ref="N227:O227"/>
-    <mergeCell ref="L220:O220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="L221:O221"/>
-    <mergeCell ref="A222:C225"/>
-    <mergeCell ref="D222:F225"/>
-    <mergeCell ref="L222:O222"/>
-    <mergeCell ref="L223:O223"/>
-    <mergeCell ref="G225:O225"/>
-    <mergeCell ref="A210:D218"/>
-    <mergeCell ref="E211:O214"/>
-    <mergeCell ref="E215:O215"/>
-    <mergeCell ref="E216:O216"/>
-    <mergeCell ref="L218:O218"/>
-    <mergeCell ref="L219:O219"/>
-    <mergeCell ref="G206:I206"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="N206:O206"/>
-    <mergeCell ref="G207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="A204:C207"/>
-    <mergeCell ref="D204:F207"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="L204:M204"/>
-    <mergeCell ref="N204:O204"/>
-    <mergeCell ref="G205:I205"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="L205:M205"/>
-    <mergeCell ref="N205:O205"/>
-    <mergeCell ref="G202:I202"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="L202:M202"/>
-    <mergeCell ref="N202:O202"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="L203:M203"/>
-    <mergeCell ref="N203:O203"/>
-    <mergeCell ref="A200:C203"/>
-    <mergeCell ref="D200:F203"/>
-    <mergeCell ref="G200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="L200:M200"/>
-    <mergeCell ref="N200:O200"/>
-    <mergeCell ref="G201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="L201:M201"/>
-    <mergeCell ref="N201:O201"/>
-    <mergeCell ref="L194:O194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="L195:O195"/>
-    <mergeCell ref="A196:C199"/>
-    <mergeCell ref="D196:F199"/>
-    <mergeCell ref="L196:O196"/>
-    <mergeCell ref="L197:O197"/>
-    <mergeCell ref="G199:O199"/>
-    <mergeCell ref="A184:D192"/>
-    <mergeCell ref="E185:O188"/>
-    <mergeCell ref="E189:O189"/>
-    <mergeCell ref="E190:O190"/>
-    <mergeCell ref="L192:O192"/>
-    <mergeCell ref="L193:O193"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="G180:I180"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="L180:M180"/>
-    <mergeCell ref="N180:O180"/>
-    <mergeCell ref="A177:C180"/>
-    <mergeCell ref="D177:F180"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="L177:M177"/>
-    <mergeCell ref="N177:O177"/>
-    <mergeCell ref="G178:I178"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="L178:M178"/>
-    <mergeCell ref="N178:O178"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="L175:M175"/>
-    <mergeCell ref="N175:O175"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="L176:M176"/>
-    <mergeCell ref="N176:O176"/>
-    <mergeCell ref="A173:C176"/>
-    <mergeCell ref="D173:F176"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="L173:M173"/>
-    <mergeCell ref="N173:O173"/>
-    <mergeCell ref="G174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="L174:M174"/>
-    <mergeCell ref="N174:O174"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="A169:C172"/>
-    <mergeCell ref="D169:F172"/>
-    <mergeCell ref="L169:O169"/>
-    <mergeCell ref="L170:O170"/>
-    <mergeCell ref="G172:O172"/>
-    <mergeCell ref="A157:D165"/>
-    <mergeCell ref="E158:O161"/>
-    <mergeCell ref="E162:O162"/>
-    <mergeCell ref="E163:O163"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="L166:O166"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="A151:C154"/>
-    <mergeCell ref="D151:F154"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="G149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="G150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="A147:C150"/>
-    <mergeCell ref="D147:F150"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="L147:M147"/>
-    <mergeCell ref="N147:O147"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="L148:M148"/>
-    <mergeCell ref="N148:O148"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="L142:O142"/>
-    <mergeCell ref="A143:C146"/>
-    <mergeCell ref="D143:F146"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="G146:O146"/>
-    <mergeCell ref="A131:D139"/>
-    <mergeCell ref="E132:O135"/>
-    <mergeCell ref="E136:O136"/>
-    <mergeCell ref="E137:O137"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="L128:M128"/>
-    <mergeCell ref="N128:O128"/>
-    <mergeCell ref="A125:C128"/>
-    <mergeCell ref="D125:F128"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="L125:M125"/>
-    <mergeCell ref="N125:O125"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="L126:M126"/>
-    <mergeCell ref="N126:O126"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:M124"/>
-    <mergeCell ref="N124:O124"/>
-    <mergeCell ref="A121:C124"/>
-    <mergeCell ref="D121:F124"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="L121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="L122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="A117:C120"/>
-    <mergeCell ref="D117:F120"/>
-    <mergeCell ref="L117:O117"/>
-    <mergeCell ref="L118:O118"/>
-    <mergeCell ref="G120:O120"/>
-    <mergeCell ref="A105:D113"/>
-    <mergeCell ref="E106:O109"/>
-    <mergeCell ref="E110:O110"/>
-    <mergeCell ref="E111:O111"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="A99:C102"/>
-    <mergeCell ref="D99:F102"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="A95:C98"/>
-    <mergeCell ref="D95:F98"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="L89:O89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="A91:C94"/>
-    <mergeCell ref="D91:F94"/>
-    <mergeCell ref="L91:O91"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="G94:O94"/>
-    <mergeCell ref="A79:D87"/>
-    <mergeCell ref="E80:O83"/>
-    <mergeCell ref="E84:O84"/>
-    <mergeCell ref="E85:O85"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="A73:C76"/>
-    <mergeCell ref="D73:F76"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="A69:C72"/>
-    <mergeCell ref="D69:F72"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="A65:C68"/>
-    <mergeCell ref="D65:F68"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="G68:O68"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="A53:D61"/>
-    <mergeCell ref="E54:O57"/>
-    <mergeCell ref="E58:O58"/>
-    <mergeCell ref="E59:O59"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="A47:C50"/>
-    <mergeCell ref="D47:F50"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="A43:C46"/>
-    <mergeCell ref="D43:F46"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="A39:C42"/>
-    <mergeCell ref="D39:F42"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="G42:O42"/>
-    <mergeCell ref="A27:D35"/>
-    <mergeCell ref="E28:O31"/>
-    <mergeCell ref="E32:O32"/>
-    <mergeCell ref="E33:O33"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D21:F24"/>
-    <mergeCell ref="A13:C16"/>
-    <mergeCell ref="A17:C20"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="D17:F20"/>
-    <mergeCell ref="A21:C24"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="E6:O6"/>
-    <mergeCell ref="E7:O7"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="A1:D9"/>
-    <mergeCell ref="E2:O5"/>
-    <mergeCell ref="A236:D244"/>
-    <mergeCell ref="E237:O240"/>
-    <mergeCell ref="E241:O241"/>
-    <mergeCell ref="E242:O242"/>
-    <mergeCell ref="L244:O244"/>
-    <mergeCell ref="L245:O245"/>
-    <mergeCell ref="L246:O246"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="D247:F247"/>
-    <mergeCell ref="L247:O247"/>
-    <mergeCell ref="A248:C251"/>
-    <mergeCell ref="D248:F251"/>
-    <mergeCell ref="L248:O248"/>
-    <mergeCell ref="L249:O249"/>
-    <mergeCell ref="G251:O251"/>
-    <mergeCell ref="A252:C255"/>
-    <mergeCell ref="D252:F255"/>
-    <mergeCell ref="G252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="L252:M252"/>
-    <mergeCell ref="N252:O252"/>
-    <mergeCell ref="G253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="L253:M253"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="G254:I254"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="L254:M254"/>
-    <mergeCell ref="N254:O254"/>
-    <mergeCell ref="G255:I255"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="L255:M255"/>
-    <mergeCell ref="N255:O255"/>
-    <mergeCell ref="A256:C259"/>
-    <mergeCell ref="D256:F259"/>
-    <mergeCell ref="G256:I256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="L256:M256"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="G257:I257"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="L257:M257"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="G258:I258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="L258:M258"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="G259:I259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="L259:M259"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="A294:D302"/>
-    <mergeCell ref="E295:O298"/>
-    <mergeCell ref="E299:O299"/>
-    <mergeCell ref="E300:O300"/>
-    <mergeCell ref="L302:O302"/>
-    <mergeCell ref="L303:O303"/>
-    <mergeCell ref="L304:O304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="D305:F305"/>
-    <mergeCell ref="L305:O305"/>
-    <mergeCell ref="A306:C309"/>
-    <mergeCell ref="D306:F309"/>
-    <mergeCell ref="L306:O306"/>
-    <mergeCell ref="L307:O307"/>
-    <mergeCell ref="G309:O309"/>
-    <mergeCell ref="A310:C313"/>
-    <mergeCell ref="D310:F313"/>
-    <mergeCell ref="G310:I310"/>
-    <mergeCell ref="J310:K310"/>
-    <mergeCell ref="L310:M310"/>
-    <mergeCell ref="N310:O310"/>
-    <mergeCell ref="G311:I311"/>
-    <mergeCell ref="J311:K311"/>
-    <mergeCell ref="L311:M311"/>
-    <mergeCell ref="N311:O311"/>
-    <mergeCell ref="G312:I312"/>
-    <mergeCell ref="J312:K312"/>
-    <mergeCell ref="L312:M312"/>
-    <mergeCell ref="N312:O312"/>
-    <mergeCell ref="G313:I313"/>
-    <mergeCell ref="J313:K313"/>
-    <mergeCell ref="L313:M313"/>
-    <mergeCell ref="N313:O313"/>
-    <mergeCell ref="A314:C317"/>
-    <mergeCell ref="D314:F317"/>
-    <mergeCell ref="G314:I314"/>
-    <mergeCell ref="J314:K314"/>
-    <mergeCell ref="L314:M314"/>
-    <mergeCell ref="N314:O314"/>
-    <mergeCell ref="G315:I315"/>
-    <mergeCell ref="J315:K315"/>
-    <mergeCell ref="L315:M315"/>
-    <mergeCell ref="N315:O315"/>
-    <mergeCell ref="G316:I316"/>
-    <mergeCell ref="J316:K316"/>
-    <mergeCell ref="L316:M316"/>
-    <mergeCell ref="N316:O316"/>
-    <mergeCell ref="G317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="L317:M317"/>
-    <mergeCell ref="N317:O317"/>
-    <mergeCell ref="A346:D354"/>
-    <mergeCell ref="E347:O350"/>
-    <mergeCell ref="E351:O351"/>
-    <mergeCell ref="E352:O352"/>
-    <mergeCell ref="L354:O354"/>
-    <mergeCell ref="L355:O355"/>
-    <mergeCell ref="L356:O356"/>
-    <mergeCell ref="A357:C357"/>
-    <mergeCell ref="D357:F357"/>
-    <mergeCell ref="L357:O357"/>
-    <mergeCell ref="A358:C361"/>
-    <mergeCell ref="D358:F361"/>
-    <mergeCell ref="L358:O358"/>
-    <mergeCell ref="L359:O359"/>
-    <mergeCell ref="G361:O361"/>
-    <mergeCell ref="A362:C365"/>
-    <mergeCell ref="D362:F365"/>
-    <mergeCell ref="G362:I362"/>
-    <mergeCell ref="J362:K362"/>
-    <mergeCell ref="L362:M362"/>
-    <mergeCell ref="N362:O362"/>
-    <mergeCell ref="G363:I363"/>
-    <mergeCell ref="J363:K363"/>
-    <mergeCell ref="L363:M363"/>
-    <mergeCell ref="N363:O363"/>
-    <mergeCell ref="G364:I364"/>
-    <mergeCell ref="J364:K364"/>
-    <mergeCell ref="L364:M364"/>
-    <mergeCell ref="N364:O364"/>
-    <mergeCell ref="G365:I365"/>
-    <mergeCell ref="J365:K365"/>
-    <mergeCell ref="L365:M365"/>
-    <mergeCell ref="N365:O365"/>
-    <mergeCell ref="A366:C369"/>
-    <mergeCell ref="D366:F369"/>
-    <mergeCell ref="G366:I366"/>
-    <mergeCell ref="J366:K366"/>
-    <mergeCell ref="L366:M366"/>
-    <mergeCell ref="N366:O366"/>
-    <mergeCell ref="G367:I367"/>
-    <mergeCell ref="J367:K367"/>
-    <mergeCell ref="L367:M367"/>
-    <mergeCell ref="N367:O367"/>
-    <mergeCell ref="G368:I368"/>
-    <mergeCell ref="J368:K368"/>
-    <mergeCell ref="L368:M368"/>
-    <mergeCell ref="N368:O368"/>
-    <mergeCell ref="G369:I369"/>
-    <mergeCell ref="J369:K369"/>
-    <mergeCell ref="L369:M369"/>
-    <mergeCell ref="N369:O369"/>
+    <mergeCell ref="G292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="L292:M292"/>
+    <mergeCell ref="N292:O292"/>
+    <mergeCell ref="G293:I293"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="L293:M293"/>
+    <mergeCell ref="N293:O293"/>
+    <mergeCell ref="G289:I289"/>
+    <mergeCell ref="J289:K289"/>
+    <mergeCell ref="L289:M289"/>
+    <mergeCell ref="N289:O289"/>
+    <mergeCell ref="G290:I290"/>
+    <mergeCell ref="J290:K290"/>
+    <mergeCell ref="L290:M290"/>
+    <mergeCell ref="N290:O290"/>
+    <mergeCell ref="G291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="L291:M291"/>
+    <mergeCell ref="N291:O291"/>
+    <mergeCell ref="Q266:U267"/>
+    <mergeCell ref="Q269:U271"/>
+    <mergeCell ref="Q272:U274"/>
+    <mergeCell ref="Q275:U277"/>
+    <mergeCell ref="Q278:U280"/>
+    <mergeCell ref="Q281:U283"/>
+    <mergeCell ref="Q284:U286"/>
+    <mergeCell ref="Q287:U289"/>
+    <mergeCell ref="Q290:U291"/>
+    <mergeCell ref="A320:D328"/>
+    <mergeCell ref="E321:O324"/>
+    <mergeCell ref="E325:O325"/>
+    <mergeCell ref="E326:O326"/>
+    <mergeCell ref="L328:O328"/>
+    <mergeCell ref="L329:O329"/>
+    <mergeCell ref="L330:O330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="D331:F331"/>
+    <mergeCell ref="L331:O331"/>
+    <mergeCell ref="A332:C335"/>
+    <mergeCell ref="D332:F335"/>
+    <mergeCell ref="L332:O332"/>
+    <mergeCell ref="L333:O333"/>
+    <mergeCell ref="G335:O335"/>
+    <mergeCell ref="A336:C339"/>
+    <mergeCell ref="D336:F339"/>
+    <mergeCell ref="G336:I336"/>
+    <mergeCell ref="J336:K336"/>
+    <mergeCell ref="L336:M336"/>
+    <mergeCell ref="N336:O336"/>
+    <mergeCell ref="G337:I337"/>
+    <mergeCell ref="J337:K337"/>
+    <mergeCell ref="L337:M337"/>
+    <mergeCell ref="N337:O337"/>
+    <mergeCell ref="G338:I338"/>
+    <mergeCell ref="J338:K338"/>
+    <mergeCell ref="L338:M338"/>
+    <mergeCell ref="N338:O338"/>
+    <mergeCell ref="G339:I339"/>
+    <mergeCell ref="J339:K339"/>
+    <mergeCell ref="L339:M339"/>
+    <mergeCell ref="N339:O339"/>
+    <mergeCell ref="A340:C343"/>
+    <mergeCell ref="D340:F343"/>
+    <mergeCell ref="G340:I340"/>
+    <mergeCell ref="J340:K340"/>
+    <mergeCell ref="L340:M340"/>
+    <mergeCell ref="N340:O340"/>
+    <mergeCell ref="G341:I341"/>
+    <mergeCell ref="J341:K341"/>
+    <mergeCell ref="L341:M341"/>
+    <mergeCell ref="N341:O341"/>
+    <mergeCell ref="G342:I342"/>
+    <mergeCell ref="J342:K342"/>
+    <mergeCell ref="L342:M342"/>
+    <mergeCell ref="N342:O342"/>
+    <mergeCell ref="G343:I343"/>
+    <mergeCell ref="J343:K343"/>
+    <mergeCell ref="L343:M343"/>
+    <mergeCell ref="N343:O343"/>
+    <mergeCell ref="A372:D380"/>
+    <mergeCell ref="E373:O376"/>
+    <mergeCell ref="E377:O377"/>
+    <mergeCell ref="E378:O378"/>
+    <mergeCell ref="L380:O380"/>
+    <mergeCell ref="L381:O381"/>
+    <mergeCell ref="L382:O382"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="D383:F383"/>
+    <mergeCell ref="L383:O383"/>
+    <mergeCell ref="A384:C387"/>
+    <mergeCell ref="D384:F387"/>
+    <mergeCell ref="L384:O384"/>
+    <mergeCell ref="L385:O385"/>
+    <mergeCell ref="G387:O387"/>
+    <mergeCell ref="A388:C391"/>
+    <mergeCell ref="D388:F391"/>
+    <mergeCell ref="G388:I388"/>
+    <mergeCell ref="J388:K388"/>
+    <mergeCell ref="L388:M388"/>
+    <mergeCell ref="N388:O388"/>
+    <mergeCell ref="G389:I389"/>
+    <mergeCell ref="J389:K389"/>
+    <mergeCell ref="L389:M389"/>
+    <mergeCell ref="N389:O389"/>
+    <mergeCell ref="G390:I390"/>
+    <mergeCell ref="J390:K390"/>
+    <mergeCell ref="L390:M390"/>
+    <mergeCell ref="N390:O390"/>
+    <mergeCell ref="G391:I391"/>
+    <mergeCell ref="J391:K391"/>
+    <mergeCell ref="L391:M391"/>
+    <mergeCell ref="N391:O391"/>
+    <mergeCell ref="A392:C395"/>
+    <mergeCell ref="D392:F395"/>
+    <mergeCell ref="G392:I392"/>
+    <mergeCell ref="J392:K392"/>
+    <mergeCell ref="L392:M392"/>
+    <mergeCell ref="N392:O392"/>
+    <mergeCell ref="G393:I393"/>
+    <mergeCell ref="J393:K393"/>
+    <mergeCell ref="L393:M393"/>
+    <mergeCell ref="N393:O393"/>
+    <mergeCell ref="G394:I394"/>
+    <mergeCell ref="J394:K394"/>
+    <mergeCell ref="L394:M394"/>
+    <mergeCell ref="N394:O394"/>
+    <mergeCell ref="G395:I395"/>
+    <mergeCell ref="J395:K395"/>
+    <mergeCell ref="L395:M395"/>
+    <mergeCell ref="N395:O395"/>
+    <mergeCell ref="A398:D406"/>
+    <mergeCell ref="E399:O402"/>
+    <mergeCell ref="E403:O403"/>
+    <mergeCell ref="E404:O404"/>
+    <mergeCell ref="L406:O406"/>
+    <mergeCell ref="L407:O407"/>
+    <mergeCell ref="L408:O408"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="D409:F409"/>
+    <mergeCell ref="L409:O409"/>
+    <mergeCell ref="A410:C413"/>
+    <mergeCell ref="D410:F413"/>
+    <mergeCell ref="L410:O410"/>
+    <mergeCell ref="L411:O411"/>
+    <mergeCell ref="G413:O413"/>
+    <mergeCell ref="A414:C417"/>
+    <mergeCell ref="D414:F417"/>
+    <mergeCell ref="G414:I414"/>
+    <mergeCell ref="J414:K414"/>
+    <mergeCell ref="L414:M414"/>
+    <mergeCell ref="N414:O414"/>
+    <mergeCell ref="G415:I415"/>
+    <mergeCell ref="J415:K415"/>
+    <mergeCell ref="L415:M415"/>
+    <mergeCell ref="N415:O415"/>
+    <mergeCell ref="G416:I416"/>
+    <mergeCell ref="J416:K416"/>
+    <mergeCell ref="L416:M416"/>
+    <mergeCell ref="N416:O416"/>
+    <mergeCell ref="G417:I417"/>
+    <mergeCell ref="J417:K417"/>
+    <mergeCell ref="L417:M417"/>
+    <mergeCell ref="N417:O417"/>
+    <mergeCell ref="A418:C421"/>
+    <mergeCell ref="D418:F421"/>
+    <mergeCell ref="G418:I418"/>
+    <mergeCell ref="J418:K418"/>
+    <mergeCell ref="L418:M418"/>
+    <mergeCell ref="N418:O418"/>
+    <mergeCell ref="G419:I419"/>
+    <mergeCell ref="J419:K419"/>
+    <mergeCell ref="L419:M419"/>
+    <mergeCell ref="N419:O419"/>
+    <mergeCell ref="G420:I420"/>
+    <mergeCell ref="J420:K420"/>
+    <mergeCell ref="L420:M420"/>
+    <mergeCell ref="N420:O420"/>
+    <mergeCell ref="G421:I421"/>
+    <mergeCell ref="J421:K421"/>
+    <mergeCell ref="L421:M421"/>
+    <mergeCell ref="N421:O421"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12198,11 +12883,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12388,26 +13074,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A20BDE-ACAC-49A0-A051-6F5B010A8CC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12431,9 +13108,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A20BDE-ACAC-49A0-A051-6F5B010A8CC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentacao/mechspot_ata.xlsx
+++ b/documentacao/mechspot_ata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documentos\SPTECH\Upload GitHub\projeto-pi-sprint-1\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0413059-06F7-471B-97ED-42A8EB30898D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157D9F26-A21F-4FB5-9373-A246A6EBE2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4545F592-9151-46FC-8F7A-0131C129BBC9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="154">
   <si>
     <t>OK</t>
   </si>
@@ -787,6 +787,40 @@
       </rPr>
       <t xml:space="preserve">  07/10/2024     |     LISTA DE PRESENÇA</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF32746D"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t>DATA:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  08/10/2024     |     LISTA DE PRESENÇA</t>
+    </r>
+  </si>
+  <si>
+    <t>REVISÃO DA ATUALIZAÇÃO DO BACKLOG</t>
+  </si>
+  <si>
+    <t>CONECTAR MYSQL NA VM</t>
+  </si>
+  <si>
+    <t>FINALIZAR A INTEGRAÇÃO</t>
+  </si>
+  <si>
+    <t>TELA ""RELATÓRIOS" DA DASHBOARD</t>
   </si>
 </sst>
 </file>
@@ -1164,6 +1198,15 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,15 +1214,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1190,8 +1224,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF32746D"/>
       <color rgb="FFF0F0F0"/>
-      <color rgb="FF32746D"/>
       <color rgb="FF9EC5AB"/>
       <color rgb="FF104F55"/>
       <color rgb="FF103E43"/>
@@ -1980,6 +2014,51 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>415917</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>35593</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1573013" cy="1611635"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagem 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845DAE08-4A3B-41FD-9FF7-AC7944F170FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1029750" y="87559760"/>
+          <a:ext cx="1573013" cy="1611635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2300,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5446F9-8A09-4B91-82C6-8FD7102DEAC7}">
-  <dimension ref="A1:V450"/>
+  <dimension ref="A1:V476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E431" sqref="E431:O431"/>
+    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q463" sqref="Q463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,10 +2391,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -4693,7 +4772,7 @@
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
-      <c r="L114" s="32" t="s">
+      <c r="L114" s="31" t="s">
         <v>11</v>
       </c>
       <c r="M114" s="15"/>
@@ -4789,7 +4868,7 @@
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
-      <c r="L118" s="32" t="s">
+      <c r="L118" s="31" t="s">
         <v>11</v>
       </c>
       <c r="M118" s="15"/>
@@ -5831,12 +5910,12 @@
       </c>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
-      <c r="L169" s="32" t="s">
+      <c r="L169" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M169" s="32"/>
-      <c r="N169" s="32"/>
-      <c r="O169" s="32"/>
+      <c r="M169" s="31"/>
+      <c r="N169" s="31"/>
+      <c r="O169" s="31"/>
       <c r="P169" s="1"/>
     </row>
     <row r="170" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6865,12 +6944,12 @@
       </c>
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
-      <c r="L219" s="32" t="s">
+      <c r="L219" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M219" s="32"/>
-      <c r="N219" s="32"/>
-      <c r="O219" s="32"/>
+      <c r="M219" s="31"/>
+      <c r="N219" s="31"/>
+      <c r="O219" s="31"/>
       <c r="P219" s="1"/>
     </row>
     <row r="220" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6887,12 +6966,12 @@
       </c>
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
-      <c r="L220" s="32" t="s">
+      <c r="L220" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M220" s="32"/>
-      <c r="N220" s="32"/>
-      <c r="O220" s="32"/>
+      <c r="M220" s="31"/>
+      <c r="N220" s="31"/>
+      <c r="O220" s="31"/>
       <c r="P220" s="1"/>
     </row>
     <row r="221" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7964,13 +8043,13 @@
       <c r="N269" s="5"/>
       <c r="O269" s="5"/>
       <c r="P269" s="1"/>
-      <c r="Q269" s="29" t="s">
+      <c r="Q269" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="R269" s="29"/>
-      <c r="S269" s="29"/>
-      <c r="T269" s="29"/>
-      <c r="U269" s="29"/>
+      <c r="R269" s="32"/>
+      <c r="S269" s="32"/>
+      <c r="T269" s="32"/>
+      <c r="U269" s="32"/>
       <c r="V269" s="1"/>
     </row>
     <row r="270" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7987,18 +8066,18 @@
       </c>
       <c r="J270" s="4"/>
       <c r="K270" s="4"/>
-      <c r="L270" s="32" t="s">
+      <c r="L270" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M270" s="32"/>
-      <c r="N270" s="32"/>
-      <c r="O270" s="32"/>
+      <c r="M270" s="31"/>
+      <c r="N270" s="31"/>
+      <c r="O270" s="31"/>
       <c r="P270" s="1"/>
-      <c r="Q270" s="30"/>
-      <c r="R270" s="30"/>
-      <c r="S270" s="30"/>
-      <c r="T270" s="30"/>
-      <c r="U270" s="30"/>
+      <c r="Q270" s="33"/>
+      <c r="R270" s="33"/>
+      <c r="S270" s="33"/>
+      <c r="T270" s="33"/>
+      <c r="U270" s="33"/>
       <c r="V270" s="1"/>
     </row>
     <row r="271" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8015,18 +8094,18 @@
       </c>
       <c r="J271" s="4"/>
       <c r="K271" s="4"/>
-      <c r="L271" s="32" t="s">
+      <c r="L271" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M271" s="32"/>
-      <c r="N271" s="32"/>
-      <c r="O271" s="32"/>
+      <c r="M271" s="31"/>
+      <c r="N271" s="31"/>
+      <c r="O271" s="31"/>
       <c r="P271" s="1"/>
-      <c r="Q271" s="30"/>
-      <c r="R271" s="30"/>
-      <c r="S271" s="30"/>
-      <c r="T271" s="30"/>
-      <c r="U271" s="30"/>
+      <c r="Q271" s="33"/>
+      <c r="R271" s="33"/>
+      <c r="S271" s="33"/>
+      <c r="T271" s="33"/>
+      <c r="U271" s="33"/>
       <c r="V271" s="1"/>
     </row>
     <row r="272" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8050,13 +8129,13 @@
       <c r="N272" s="15"/>
       <c r="O272" s="15"/>
       <c r="P272" s="1"/>
-      <c r="Q272" s="30" t="s">
+      <c r="Q272" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="R272" s="30"/>
-      <c r="S272" s="30"/>
-      <c r="T272" s="30"/>
-      <c r="U272" s="30"/>
+      <c r="R272" s="33"/>
+      <c r="S272" s="33"/>
+      <c r="T272" s="33"/>
+      <c r="U272" s="33"/>
       <c r="V272" s="1"/>
     </row>
     <row r="273" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8084,11 +8163,11 @@
       <c r="N273" s="15"/>
       <c r="O273" s="15"/>
       <c r="P273" s="1"/>
-      <c r="Q273" s="30"/>
-      <c r="R273" s="30"/>
-      <c r="S273" s="30"/>
-      <c r="T273" s="30"/>
-      <c r="U273" s="30"/>
+      <c r="Q273" s="33"/>
+      <c r="R273" s="33"/>
+      <c r="S273" s="33"/>
+      <c r="T273" s="33"/>
+      <c r="U273" s="33"/>
       <c r="V273" s="1"/>
     </row>
     <row r="274" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8116,11 +8195,11 @@
       <c r="N274" s="15"/>
       <c r="O274" s="15"/>
       <c r="P274" s="1"/>
-      <c r="Q274" s="30"/>
-      <c r="R274" s="30"/>
-      <c r="S274" s="30"/>
-      <c r="T274" s="30"/>
-      <c r="U274" s="30"/>
+      <c r="Q274" s="33"/>
+      <c r="R274" s="33"/>
+      <c r="S274" s="33"/>
+      <c r="T274" s="33"/>
+      <c r="U274" s="33"/>
       <c r="V274" s="1"/>
     </row>
     <row r="275" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8137,20 +8216,20 @@
       </c>
       <c r="J275" s="4"/>
       <c r="K275" s="4"/>
-      <c r="L275" s="32" t="s">
+      <c r="L275" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M275" s="32"/>
-      <c r="N275" s="32"/>
-      <c r="O275" s="32"/>
+      <c r="M275" s="31"/>
+      <c r="N275" s="31"/>
+      <c r="O275" s="31"/>
       <c r="P275" s="1"/>
-      <c r="Q275" s="30" t="s">
+      <c r="Q275" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="R275" s="30"/>
-      <c r="S275" s="30"/>
-      <c r="T275" s="30"/>
-      <c r="U275" s="30"/>
+      <c r="R275" s="33"/>
+      <c r="S275" s="33"/>
+      <c r="T275" s="33"/>
+      <c r="U275" s="33"/>
       <c r="V275" s="1"/>
     </row>
     <row r="276" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8170,11 +8249,11 @@
       <c r="N276" s="4"/>
       <c r="O276" s="4"/>
       <c r="P276" s="1"/>
-      <c r="Q276" s="30"/>
-      <c r="R276" s="30"/>
-      <c r="S276" s="30"/>
-      <c r="T276" s="30"/>
-      <c r="U276" s="30"/>
+      <c r="Q276" s="33"/>
+      <c r="R276" s="33"/>
+      <c r="S276" s="33"/>
+      <c r="T276" s="33"/>
+      <c r="U276" s="33"/>
       <c r="V276" s="1"/>
     </row>
     <row r="277" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8196,11 +8275,11 @@
       <c r="N277" s="16"/>
       <c r="O277" s="16"/>
       <c r="P277" s="1"/>
-      <c r="Q277" s="30"/>
-      <c r="R277" s="30"/>
-      <c r="S277" s="30"/>
-      <c r="T277" s="30"/>
-      <c r="U277" s="30"/>
+      <c r="Q277" s="33"/>
+      <c r="R277" s="33"/>
+      <c r="S277" s="33"/>
+      <c r="T277" s="33"/>
+      <c r="U277" s="33"/>
       <c r="V277" s="1"/>
     </row>
     <row r="278" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8232,13 +8311,13 @@
       </c>
       <c r="O278" s="20"/>
       <c r="P278" s="1"/>
-      <c r="Q278" s="30" t="s">
+      <c r="Q278" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="R278" s="30"/>
-      <c r="S278" s="30"/>
-      <c r="T278" s="30"/>
-      <c r="U278" s="30"/>
+      <c r="R278" s="33"/>
+      <c r="S278" s="33"/>
+      <c r="T278" s="33"/>
+      <c r="U278" s="33"/>
       <c r="V278" s="1"/>
     </row>
     <row r="279" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8266,11 +8345,11 @@
       </c>
       <c r="O279" s="11"/>
       <c r="P279" s="1"/>
-      <c r="Q279" s="30"/>
-      <c r="R279" s="30"/>
-      <c r="S279" s="30"/>
-      <c r="T279" s="30"/>
-      <c r="U279" s="30"/>
+      <c r="Q279" s="33"/>
+      <c r="R279" s="33"/>
+      <c r="S279" s="33"/>
+      <c r="T279" s="33"/>
+      <c r="U279" s="33"/>
       <c r="V279" s="1"/>
     </row>
     <row r="280" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8298,11 +8377,11 @@
       </c>
       <c r="O280" s="11"/>
       <c r="P280" s="1"/>
-      <c r="Q280" s="30"/>
-      <c r="R280" s="30"/>
-      <c r="S280" s="30"/>
-      <c r="T280" s="30"/>
-      <c r="U280" s="30"/>
+      <c r="Q280" s="33"/>
+      <c r="R280" s="33"/>
+      <c r="S280" s="33"/>
+      <c r="T280" s="33"/>
+      <c r="U280" s="33"/>
       <c r="V280" s="1"/>
     </row>
     <row r="281" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8330,11 +8409,11 @@
       </c>
       <c r="O281" s="11"/>
       <c r="P281" s="1"/>
-      <c r="Q281" s="30"/>
-      <c r="R281" s="30"/>
-      <c r="S281" s="30"/>
-      <c r="T281" s="30"/>
-      <c r="U281" s="30"/>
+      <c r="Q281" s="33"/>
+      <c r="R281" s="33"/>
+      <c r="S281" s="33"/>
+      <c r="T281" s="33"/>
+      <c r="U281" s="33"/>
       <c r="V281" s="1"/>
     </row>
     <row r="282" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8366,11 +8445,11 @@
       </c>
       <c r="O282" s="11"/>
       <c r="P282" s="1"/>
-      <c r="Q282" s="30"/>
-      <c r="R282" s="30"/>
-      <c r="S282" s="30"/>
-      <c r="T282" s="30"/>
-      <c r="U282" s="30"/>
+      <c r="Q282" s="33"/>
+      <c r="R282" s="33"/>
+      <c r="S282" s="33"/>
+      <c r="T282" s="33"/>
+      <c r="U282" s="33"/>
       <c r="V282" s="1"/>
     </row>
     <row r="283" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8390,11 +8469,11 @@
       <c r="N283" s="11"/>
       <c r="O283" s="11"/>
       <c r="P283" s="1"/>
-      <c r="Q283" s="30"/>
-      <c r="R283" s="30"/>
-      <c r="S283" s="30"/>
-      <c r="T283" s="30"/>
-      <c r="U283" s="30"/>
+      <c r="Q283" s="33"/>
+      <c r="R283" s="33"/>
+      <c r="S283" s="33"/>
+      <c r="T283" s="33"/>
+      <c r="U283" s="33"/>
       <c r="V283" s="1"/>
     </row>
     <row r="284" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8414,11 +8493,11 @@
       <c r="N284" s="11"/>
       <c r="O284" s="11"/>
       <c r="P284" s="1"/>
-      <c r="Q284" s="30"/>
-      <c r="R284" s="30"/>
-      <c r="S284" s="30"/>
-      <c r="T284" s="30"/>
-      <c r="U284" s="30"/>
+      <c r="Q284" s="33"/>
+      <c r="R284" s="33"/>
+      <c r="S284" s="33"/>
+      <c r="T284" s="33"/>
+      <c r="U284" s="33"/>
       <c r="V284" s="1"/>
     </row>
     <row r="285" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8438,11 +8517,11 @@
       <c r="N285" s="11"/>
       <c r="O285" s="11"/>
       <c r="P285" s="1"/>
-      <c r="Q285" s="30"/>
-      <c r="R285" s="30"/>
-      <c r="S285" s="30"/>
-      <c r="T285" s="30"/>
-      <c r="U285" s="30"/>
+      <c r="Q285" s="33"/>
+      <c r="R285" s="33"/>
+      <c r="S285" s="33"/>
+      <c r="T285" s="33"/>
+      <c r="U285" s="33"/>
       <c r="V285" s="1"/>
     </row>
     <row r="286" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8466,11 +8545,11 @@
       <c r="N286" s="11"/>
       <c r="O286" s="11"/>
       <c r="P286" s="1"/>
-      <c r="Q286" s="30"/>
-      <c r="R286" s="30"/>
-      <c r="S286" s="30"/>
-      <c r="T286" s="30"/>
-      <c r="U286" s="30"/>
+      <c r="Q286" s="33"/>
+      <c r="R286" s="33"/>
+      <c r="S286" s="33"/>
+      <c r="T286" s="33"/>
+      <c r="U286" s="33"/>
       <c r="V286" s="1"/>
     </row>
     <row r="287" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8490,11 +8569,11 @@
       <c r="N287" s="11"/>
       <c r="O287" s="11"/>
       <c r="P287" s="1"/>
-      <c r="Q287" s="30"/>
-      <c r="R287" s="30"/>
-      <c r="S287" s="30"/>
-      <c r="T287" s="30"/>
-      <c r="U287" s="30"/>
+      <c r="Q287" s="33"/>
+      <c r="R287" s="33"/>
+      <c r="S287" s="33"/>
+      <c r="T287" s="33"/>
+      <c r="U287" s="33"/>
       <c r="V287" s="1"/>
     </row>
     <row r="288" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8514,11 +8593,11 @@
       <c r="N288" s="11"/>
       <c r="O288" s="11"/>
       <c r="P288" s="1"/>
-      <c r="Q288" s="30"/>
-      <c r="R288" s="30"/>
-      <c r="S288" s="30"/>
-      <c r="T288" s="30"/>
-      <c r="U288" s="30"/>
+      <c r="Q288" s="33"/>
+      <c r="R288" s="33"/>
+      <c r="S288" s="33"/>
+      <c r="T288" s="33"/>
+      <c r="U288" s="33"/>
       <c r="V288" s="1"/>
     </row>
     <row r="289" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8538,11 +8617,11 @@
       <c r="N289" s="11"/>
       <c r="O289" s="11"/>
       <c r="P289" s="1"/>
-      <c r="Q289" s="30"/>
-      <c r="R289" s="30"/>
-      <c r="S289" s="30"/>
-      <c r="T289" s="30"/>
-      <c r="U289" s="30"/>
+      <c r="Q289" s="33"/>
+      <c r="R289" s="33"/>
+      <c r="S289" s="33"/>
+      <c r="T289" s="33"/>
+      <c r="U289" s="33"/>
       <c r="V289" s="1"/>
     </row>
     <row r="290" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8566,11 +8645,11 @@
       <c r="N290" s="11"/>
       <c r="O290" s="11"/>
       <c r="P290" s="1"/>
-      <c r="Q290" s="30"/>
-      <c r="R290" s="30"/>
-      <c r="S290" s="30"/>
-      <c r="T290" s="30"/>
-      <c r="U290" s="30"/>
+      <c r="Q290" s="33"/>
+      <c r="R290" s="33"/>
+      <c r="S290" s="33"/>
+      <c r="T290" s="33"/>
+      <c r="U290" s="33"/>
       <c r="V290" s="1"/>
     </row>
     <row r="291" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8590,11 +8669,11 @@
       <c r="N291" s="11"/>
       <c r="O291" s="11"/>
       <c r="P291" s="1"/>
-      <c r="Q291" s="31"/>
-      <c r="R291" s="31"/>
-      <c r="S291" s="31"/>
-      <c r="T291" s="31"/>
-      <c r="U291" s="31"/>
+      <c r="Q291" s="34"/>
+      <c r="R291" s="34"/>
+      <c r="S291" s="34"/>
+      <c r="T291" s="34"/>
+      <c r="U291" s="34"/>
       <c r="V291" s="1"/>
     </row>
     <row r="292" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11961,222 +12040,1283 @@
       <c r="O450" s="4"/>
       <c r="P450" s="1"/>
     </row>
+    <row r="451" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A451" s="21"/>
+      <c r="B451" s="22"/>
+      <c r="C451" s="22"/>
+      <c r="D451" s="22"/>
+      <c r="E451" s="2"/>
+      <c r="F451" s="3"/>
+      <c r="G451" s="3"/>
+      <c r="H451" s="3"/>
+      <c r="I451" s="3"/>
+      <c r="J451" s="3"/>
+      <c r="K451" s="3"/>
+      <c r="L451" s="3"/>
+      <c r="M451" s="3"/>
+      <c r="N451" s="3"/>
+      <c r="O451" s="3"/>
+      <c r="P451" s="1"/>
+    </row>
+    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A452" s="21"/>
+      <c r="B452" s="22"/>
+      <c r="C452" s="22"/>
+      <c r="D452" s="22"/>
+      <c r="E452" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F452" s="23"/>
+      <c r="G452" s="23"/>
+      <c r="H452" s="23"/>
+      <c r="I452" s="23"/>
+      <c r="J452" s="23"/>
+      <c r="K452" s="23"/>
+      <c r="L452" s="23"/>
+      <c r="M452" s="23"/>
+      <c r="N452" s="23"/>
+      <c r="O452" s="23"/>
+      <c r="P452" s="1"/>
+    </row>
+    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A453" s="21"/>
+      <c r="B453" s="22"/>
+      <c r="C453" s="22"/>
+      <c r="D453" s="22"/>
+      <c r="E453" s="23"/>
+      <c r="F453" s="23"/>
+      <c r="G453" s="23"/>
+      <c r="H453" s="23"/>
+      <c r="I453" s="23"/>
+      <c r="J453" s="23"/>
+      <c r="K453" s="23"/>
+      <c r="L453" s="23"/>
+      <c r="M453" s="23"/>
+      <c r="N453" s="23"/>
+      <c r="O453" s="23"/>
+      <c r="P453" s="1"/>
+    </row>
+    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A454" s="21"/>
+      <c r="B454" s="22"/>
+      <c r="C454" s="22"/>
+      <c r="D454" s="22"/>
+      <c r="E454" s="23"/>
+      <c r="F454" s="23"/>
+      <c r="G454" s="23"/>
+      <c r="H454" s="23"/>
+      <c r="I454" s="23"/>
+      <c r="J454" s="23"/>
+      <c r="K454" s="23"/>
+      <c r="L454" s="23"/>
+      <c r="M454" s="23"/>
+      <c r="N454" s="23"/>
+      <c r="O454" s="23"/>
+      <c r="P454" s="1"/>
+    </row>
+    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A455" s="21"/>
+      <c r="B455" s="22"/>
+      <c r="C455" s="22"/>
+      <c r="D455" s="22"/>
+      <c r="E455" s="23"/>
+      <c r="F455" s="23"/>
+      <c r="G455" s="23"/>
+      <c r="H455" s="23"/>
+      <c r="I455" s="23"/>
+      <c r="J455" s="23"/>
+      <c r="K455" s="23"/>
+      <c r="L455" s="23"/>
+      <c r="M455" s="23"/>
+      <c r="N455" s="23"/>
+      <c r="O455" s="23"/>
+      <c r="P455" s="1"/>
+    </row>
+    <row r="456" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A456" s="21"/>
+      <c r="B456" s="22"/>
+      <c r="C456" s="22"/>
+      <c r="D456" s="22"/>
+      <c r="E456" s="24"/>
+      <c r="F456" s="24"/>
+      <c r="G456" s="24"/>
+      <c r="H456" s="24"/>
+      <c r="I456" s="24"/>
+      <c r="J456" s="24"/>
+      <c r="K456" s="24"/>
+      <c r="L456" s="24"/>
+      <c r="M456" s="24"/>
+      <c r="N456" s="24"/>
+      <c r="O456" s="24"/>
+      <c r="P456" s="1"/>
+    </row>
+    <row r="457" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A457" s="21"/>
+      <c r="B457" s="22"/>
+      <c r="C457" s="22"/>
+      <c r="D457" s="22"/>
+      <c r="E457" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F457" s="25"/>
+      <c r="G457" s="25"/>
+      <c r="H457" s="25"/>
+      <c r="I457" s="25"/>
+      <c r="J457" s="25"/>
+      <c r="K457" s="25"/>
+      <c r="L457" s="25"/>
+      <c r="M457" s="25"/>
+      <c r="N457" s="25"/>
+      <c r="O457" s="25"/>
+      <c r="P457" s="1"/>
+    </row>
+    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A458" s="21"/>
+      <c r="B458" s="22"/>
+      <c r="C458" s="22"/>
+      <c r="D458" s="22"/>
+      <c r="E458" s="4"/>
+      <c r="F458" s="5"/>
+      <c r="G458" s="5"/>
+      <c r="H458" s="5"/>
+      <c r="I458" s="5"/>
+      <c r="J458" s="5"/>
+      <c r="K458" s="5"/>
+      <c r="L458" s="5"/>
+      <c r="M458" s="5"/>
+      <c r="N458" s="5"/>
+      <c r="O458" s="5"/>
+      <c r="P458" s="1"/>
+    </row>
+    <row r="459" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A459" s="21"/>
+      <c r="B459" s="22"/>
+      <c r="C459" s="22"/>
+      <c r="D459" s="22"/>
+      <c r="E459" s="4"/>
+      <c r="F459" s="4"/>
+      <c r="G459" s="4"/>
+      <c r="H459" s="4"/>
+      <c r="I459" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J459" s="4"/>
+      <c r="K459" s="4"/>
+      <c r="L459" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M459" s="15"/>
+      <c r="N459" s="15"/>
+      <c r="O459" s="15"/>
+      <c r="P459" s="1"/>
+    </row>
+    <row r="460" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A460" s="3"/>
+      <c r="B460" s="3"/>
+      <c r="C460" s="3"/>
+      <c r="D460" s="3"/>
+      <c r="E460" s="4"/>
+      <c r="F460" s="4"/>
+      <c r="G460" s="4"/>
+      <c r="H460" s="4"/>
+      <c r="I460" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J460" s="4"/>
+      <c r="K460" s="4"/>
+      <c r="L460" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M460" s="15"/>
+      <c r="N460" s="15"/>
+      <c r="O460" s="15"/>
+      <c r="P460" s="1"/>
+    </row>
+    <row r="461" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A461" s="3"/>
+      <c r="B461" s="3"/>
+      <c r="C461" s="3"/>
+      <c r="D461" s="3"/>
+      <c r="E461" s="4"/>
+      <c r="F461" s="4"/>
+      <c r="G461" s="4"/>
+      <c r="H461" s="4"/>
+      <c r="I461" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J461" s="4"/>
+      <c r="K461" s="4"/>
+      <c r="L461" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M461" s="15"/>
+      <c r="N461" s="15"/>
+      <c r="O461" s="15"/>
+      <c r="P461" s="1"/>
+    </row>
+    <row r="462" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A462" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B462" s="27"/>
+      <c r="C462" s="28"/>
+      <c r="D462" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E462" s="27"/>
+      <c r="F462" s="28"/>
+      <c r="G462" s="4"/>
+      <c r="H462" s="4"/>
+      <c r="I462" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J462" s="4"/>
+      <c r="K462" s="4"/>
+      <c r="L462" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M462" s="15"/>
+      <c r="N462" s="15"/>
+      <c r="O462" s="15"/>
+      <c r="P462" s="1"/>
+    </row>
+    <row r="463" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B463" s="6"/>
+      <c r="C463" s="6"/>
+      <c r="D463" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E463" s="6"/>
+      <c r="F463" s="6"/>
+      <c r="G463" s="4"/>
+      <c r="H463" s="4"/>
+      <c r="I463" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J463" s="4"/>
+      <c r="K463" s="4"/>
+      <c r="L463" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M463" s="15"/>
+      <c r="N463" s="15"/>
+      <c r="O463" s="15"/>
+      <c r="P463" s="1"/>
+    </row>
+    <row r="464" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="6"/>
+      <c r="B464" s="6"/>
+      <c r="C464" s="6"/>
+      <c r="D464" s="6"/>
+      <c r="E464" s="6"/>
+      <c r="F464" s="6"/>
+      <c r="G464" s="4"/>
+      <c r="H464" s="4"/>
+      <c r="I464" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J464" s="4"/>
+      <c r="K464" s="4"/>
+      <c r="L464" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M464" s="15"/>
+      <c r="N464" s="15"/>
+      <c r="O464" s="15"/>
+      <c r="P464" s="1"/>
+    </row>
+    <row r="465" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="6"/>
+      <c r="B465" s="6"/>
+      <c r="C465" s="6"/>
+      <c r="D465" s="6"/>
+      <c r="E465" s="6"/>
+      <c r="F465" s="6"/>
+      <c r="G465" s="4"/>
+      <c r="H465" s="4"/>
+      <c r="I465" s="4"/>
+      <c r="J465" s="4"/>
+      <c r="K465" s="4"/>
+      <c r="L465" s="4"/>
+      <c r="M465" s="4"/>
+      <c r="N465" s="4"/>
+      <c r="O465" s="4"/>
+      <c r="P465" s="1"/>
+    </row>
+    <row r="466" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A466" s="6"/>
+      <c r="B466" s="6"/>
+      <c r="C466" s="6"/>
+      <c r="D466" s="6"/>
+      <c r="E466" s="6"/>
+      <c r="F466" s="6"/>
+      <c r="G466" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H466" s="16"/>
+      <c r="I466" s="16"/>
+      <c r="J466" s="16"/>
+      <c r="K466" s="16"/>
+      <c r="L466" s="16"/>
+      <c r="M466" s="16"/>
+      <c r="N466" s="16"/>
+      <c r="O466" s="16"/>
+      <c r="P466" s="1"/>
+    </row>
+    <row r="467" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B467" s="6"/>
+      <c r="C467" s="6"/>
+      <c r="D467" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E467" s="6"/>
+      <c r="F467" s="6"/>
+      <c r="G467" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H467" s="18"/>
+      <c r="I467" s="19"/>
+      <c r="J467" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K467" s="20"/>
+      <c r="L467" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M467" s="20"/>
+      <c r="N467" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O467" s="20"/>
+      <c r="P467" s="1"/>
+    </row>
+    <row r="468" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="6"/>
+      <c r="B468" s="6"/>
+      <c r="C468" s="6"/>
+      <c r="D468" s="6"/>
+      <c r="E468" s="6"/>
+      <c r="F468" s="6"/>
+      <c r="G468" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H468" s="8"/>
+      <c r="I468" s="9"/>
+      <c r="J468" s="10">
+        <v>45568</v>
+      </c>
+      <c r="K468" s="11"/>
+      <c r="L468" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M468" s="11"/>
+      <c r="N468" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O468" s="11"/>
+      <c r="P468" s="1"/>
+    </row>
+    <row r="469" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="6"/>
+      <c r="B469" s="6"/>
+      <c r="C469" s="6"/>
+      <c r="D469" s="6"/>
+      <c r="E469" s="6"/>
+      <c r="F469" s="6"/>
+      <c r="G469" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H469" s="8"/>
+      <c r="I469" s="9"/>
+      <c r="J469" s="10">
+        <v>45568</v>
+      </c>
+      <c r="K469" s="11"/>
+      <c r="L469" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M469" s="11"/>
+      <c r="N469" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O469" s="11"/>
+      <c r="P469" s="1"/>
+    </row>
+    <row r="470" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A470" s="6"/>
+      <c r="B470" s="6"/>
+      <c r="C470" s="6"/>
+      <c r="D470" s="6"/>
+      <c r="E470" s="6"/>
+      <c r="F470" s="6"/>
+      <c r="G470" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H470" s="8"/>
+      <c r="I470" s="9"/>
+      <c r="J470" s="10">
+        <v>45568</v>
+      </c>
+      <c r="K470" s="11"/>
+      <c r="L470" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M470" s="11"/>
+      <c r="N470" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O470" s="11"/>
+      <c r="P470" s="1"/>
+    </row>
+    <row r="471" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="6"/>
+      <c r="B471" s="6"/>
+      <c r="C471" s="6"/>
+      <c r="D471" s="6"/>
+      <c r="E471" s="6"/>
+      <c r="F471" s="6"/>
+      <c r="G471" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H471" s="8"/>
+      <c r="I471" s="9"/>
+      <c r="J471" s="10">
+        <v>45568</v>
+      </c>
+      <c r="K471" s="11"/>
+      <c r="L471" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M471" s="11"/>
+      <c r="N471" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O471" s="11"/>
+      <c r="P471" s="1"/>
+    </row>
+    <row r="472" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A472" s="6"/>
+      <c r="B472" s="6"/>
+      <c r="C472" s="6"/>
+      <c r="D472" s="6"/>
+      <c r="E472" s="6"/>
+      <c r="F472" s="6"/>
+      <c r="G472" s="7"/>
+      <c r="H472" s="8"/>
+      <c r="I472" s="9"/>
+      <c r="J472" s="10"/>
+      <c r="K472" s="11"/>
+      <c r="L472" s="11"/>
+      <c r="M472" s="11"/>
+      <c r="N472" s="11"/>
+      <c r="O472" s="11"/>
+      <c r="P472" s="1"/>
+    </row>
+    <row r="473" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A473" s="6"/>
+      <c r="B473" s="6"/>
+      <c r="C473" s="6"/>
+      <c r="D473" s="6"/>
+      <c r="E473" s="6"/>
+      <c r="F473" s="6"/>
+      <c r="G473" s="7"/>
+      <c r="H473" s="8"/>
+      <c r="I473" s="9"/>
+      <c r="J473" s="10"/>
+      <c r="K473" s="11"/>
+      <c r="L473" s="11"/>
+      <c r="M473" s="11"/>
+      <c r="N473" s="11"/>
+      <c r="O473" s="11"/>
+      <c r="P473" s="1"/>
+    </row>
+    <row r="474" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="6"/>
+      <c r="B474" s="6"/>
+      <c r="C474" s="6"/>
+      <c r="D474" s="6"/>
+      <c r="E474" s="6"/>
+      <c r="F474" s="6"/>
+      <c r="G474" s="12"/>
+      <c r="H474" s="13"/>
+      <c r="I474" s="14"/>
+      <c r="J474" s="11"/>
+      <c r="K474" s="11"/>
+      <c r="L474" s="11"/>
+      <c r="M474" s="11"/>
+      <c r="N474" s="11"/>
+      <c r="O474" s="11"/>
+      <c r="P474" s="1"/>
+    </row>
+    <row r="475" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="3"/>
+      <c r="B475" s="3"/>
+      <c r="C475" s="3"/>
+      <c r="D475" s="3"/>
+      <c r="E475" s="4"/>
+      <c r="F475" s="4"/>
+      <c r="G475" s="4"/>
+      <c r="H475" s="4"/>
+      <c r="I475" s="4"/>
+      <c r="J475" s="4"/>
+      <c r="K475" s="4"/>
+      <c r="L475" s="4"/>
+      <c r="M475" s="4"/>
+      <c r="N475" s="4"/>
+      <c r="O475" s="4"/>
+      <c r="P475" s="1"/>
+    </row>
+    <row r="476" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A476" s="3"/>
+      <c r="B476" s="3"/>
+      <c r="C476" s="3"/>
+      <c r="D476" s="3"/>
+      <c r="E476" s="4"/>
+      <c r="F476" s="4"/>
+      <c r="G476" s="4"/>
+      <c r="H476" s="4"/>
+      <c r="I476" s="4"/>
+      <c r="J476" s="4"/>
+      <c r="K476" s="4"/>
+      <c r="L476" s="4"/>
+      <c r="M476" s="4"/>
+      <c r="N476" s="4"/>
+      <c r="O476" s="4"/>
+      <c r="P476" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="912">
-    <mergeCell ref="A445:C448"/>
-    <mergeCell ref="D445:F448"/>
-    <mergeCell ref="G445:I445"/>
-    <mergeCell ref="J445:K445"/>
-    <mergeCell ref="L445:M445"/>
-    <mergeCell ref="N445:O445"/>
-    <mergeCell ref="G446:I446"/>
-    <mergeCell ref="J446:K446"/>
-    <mergeCell ref="L446:M446"/>
-    <mergeCell ref="N446:O446"/>
-    <mergeCell ref="G447:I447"/>
-    <mergeCell ref="J447:K447"/>
-    <mergeCell ref="L447:M447"/>
-    <mergeCell ref="N447:O447"/>
-    <mergeCell ref="G448:I448"/>
-    <mergeCell ref="J448:K448"/>
-    <mergeCell ref="L448:M448"/>
-    <mergeCell ref="N448:O448"/>
-    <mergeCell ref="A437:C440"/>
-    <mergeCell ref="D437:F440"/>
-    <mergeCell ref="L437:O437"/>
-    <mergeCell ref="L438:O438"/>
-    <mergeCell ref="G440:O440"/>
-    <mergeCell ref="A441:C444"/>
-    <mergeCell ref="D441:F444"/>
-    <mergeCell ref="G441:I441"/>
-    <mergeCell ref="J441:K441"/>
-    <mergeCell ref="L441:M441"/>
-    <mergeCell ref="N441:O441"/>
-    <mergeCell ref="G442:I442"/>
-    <mergeCell ref="J442:K442"/>
-    <mergeCell ref="L442:M442"/>
-    <mergeCell ref="N442:O442"/>
-    <mergeCell ref="G443:I443"/>
-    <mergeCell ref="J443:K443"/>
-    <mergeCell ref="L443:M443"/>
-    <mergeCell ref="N443:O443"/>
-    <mergeCell ref="G444:I444"/>
-    <mergeCell ref="J444:K444"/>
-    <mergeCell ref="L444:M444"/>
-    <mergeCell ref="N444:O444"/>
-    <mergeCell ref="A425:D433"/>
-    <mergeCell ref="E426:O429"/>
-    <mergeCell ref="E430:O430"/>
-    <mergeCell ref="E431:O431"/>
-    <mergeCell ref="L433:O433"/>
-    <mergeCell ref="L434:O434"/>
-    <mergeCell ref="L435:O435"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="D436:F436"/>
-    <mergeCell ref="L436:O436"/>
-    <mergeCell ref="A366:C369"/>
-    <mergeCell ref="D366:F369"/>
-    <mergeCell ref="G366:I366"/>
-    <mergeCell ref="J366:K366"/>
-    <mergeCell ref="L366:M366"/>
-    <mergeCell ref="N366:O366"/>
-    <mergeCell ref="G367:I367"/>
-    <mergeCell ref="J367:K367"/>
-    <mergeCell ref="L367:M367"/>
-    <mergeCell ref="N367:O367"/>
-    <mergeCell ref="G368:I368"/>
-    <mergeCell ref="J368:K368"/>
-    <mergeCell ref="L368:M368"/>
-    <mergeCell ref="N368:O368"/>
-    <mergeCell ref="G369:I369"/>
-    <mergeCell ref="J369:K369"/>
-    <mergeCell ref="L369:M369"/>
-    <mergeCell ref="N369:O369"/>
-    <mergeCell ref="A358:C361"/>
-    <mergeCell ref="D358:F361"/>
-    <mergeCell ref="L358:O358"/>
-    <mergeCell ref="L359:O359"/>
-    <mergeCell ref="G361:O361"/>
-    <mergeCell ref="A362:C365"/>
-    <mergeCell ref="D362:F365"/>
-    <mergeCell ref="G362:I362"/>
-    <mergeCell ref="J362:K362"/>
-    <mergeCell ref="L362:M362"/>
-    <mergeCell ref="N362:O362"/>
-    <mergeCell ref="G363:I363"/>
-    <mergeCell ref="J363:K363"/>
-    <mergeCell ref="L363:M363"/>
-    <mergeCell ref="N363:O363"/>
-    <mergeCell ref="G364:I364"/>
-    <mergeCell ref="J364:K364"/>
-    <mergeCell ref="L364:M364"/>
-    <mergeCell ref="N364:O364"/>
-    <mergeCell ref="G365:I365"/>
-    <mergeCell ref="J365:K365"/>
-    <mergeCell ref="L365:M365"/>
-    <mergeCell ref="N365:O365"/>
-    <mergeCell ref="A346:D354"/>
-    <mergeCell ref="E347:O350"/>
-    <mergeCell ref="E351:O351"/>
-    <mergeCell ref="E352:O352"/>
-    <mergeCell ref="L354:O354"/>
-    <mergeCell ref="L355:O355"/>
-    <mergeCell ref="L356:O356"/>
-    <mergeCell ref="A357:C357"/>
-    <mergeCell ref="D357:F357"/>
-    <mergeCell ref="L357:O357"/>
-    <mergeCell ref="A314:C317"/>
-    <mergeCell ref="D314:F317"/>
-    <mergeCell ref="G314:I314"/>
-    <mergeCell ref="J314:K314"/>
-    <mergeCell ref="L314:M314"/>
-    <mergeCell ref="N314:O314"/>
-    <mergeCell ref="G315:I315"/>
-    <mergeCell ref="J315:K315"/>
-    <mergeCell ref="L315:M315"/>
-    <mergeCell ref="N315:O315"/>
-    <mergeCell ref="G316:I316"/>
-    <mergeCell ref="J316:K316"/>
-    <mergeCell ref="L316:M316"/>
-    <mergeCell ref="N316:O316"/>
-    <mergeCell ref="G317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="L317:M317"/>
-    <mergeCell ref="N317:O317"/>
-    <mergeCell ref="A306:C309"/>
-    <mergeCell ref="D306:F309"/>
-    <mergeCell ref="L306:O306"/>
-    <mergeCell ref="L307:O307"/>
-    <mergeCell ref="G309:O309"/>
-    <mergeCell ref="A310:C313"/>
-    <mergeCell ref="D310:F313"/>
-    <mergeCell ref="G310:I310"/>
-    <mergeCell ref="J310:K310"/>
-    <mergeCell ref="L310:M310"/>
-    <mergeCell ref="N310:O310"/>
-    <mergeCell ref="G311:I311"/>
-    <mergeCell ref="J311:K311"/>
-    <mergeCell ref="L311:M311"/>
-    <mergeCell ref="N311:O311"/>
-    <mergeCell ref="G312:I312"/>
-    <mergeCell ref="J312:K312"/>
-    <mergeCell ref="L312:M312"/>
-    <mergeCell ref="N312:O312"/>
-    <mergeCell ref="G313:I313"/>
-    <mergeCell ref="J313:K313"/>
-    <mergeCell ref="L313:M313"/>
-    <mergeCell ref="N313:O313"/>
-    <mergeCell ref="A294:D302"/>
-    <mergeCell ref="E295:O298"/>
-    <mergeCell ref="E299:O299"/>
-    <mergeCell ref="E300:O300"/>
-    <mergeCell ref="L302:O302"/>
-    <mergeCell ref="L303:O303"/>
-    <mergeCell ref="L304:O304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="D305:F305"/>
-    <mergeCell ref="L305:O305"/>
-    <mergeCell ref="A256:C259"/>
-    <mergeCell ref="D256:F259"/>
-    <mergeCell ref="G256:I256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="L256:M256"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="G257:I257"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="L257:M257"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="G258:I258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="L258:M258"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="G259:I259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="L259:M259"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="A248:C251"/>
-    <mergeCell ref="D248:F251"/>
-    <mergeCell ref="L248:O248"/>
-    <mergeCell ref="L249:O249"/>
-    <mergeCell ref="G251:O251"/>
-    <mergeCell ref="A252:C255"/>
-    <mergeCell ref="D252:F255"/>
-    <mergeCell ref="G252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="L252:M252"/>
-    <mergeCell ref="N252:O252"/>
-    <mergeCell ref="G253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="L253:M253"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="G254:I254"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="L254:M254"/>
-    <mergeCell ref="N254:O254"/>
-    <mergeCell ref="G255:I255"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="L255:M255"/>
-    <mergeCell ref="N255:O255"/>
-    <mergeCell ref="A236:D244"/>
-    <mergeCell ref="E237:O240"/>
-    <mergeCell ref="E241:O241"/>
-    <mergeCell ref="E242:O242"/>
-    <mergeCell ref="L244:O244"/>
-    <mergeCell ref="L245:O245"/>
-    <mergeCell ref="L246:O246"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="D247:F247"/>
-    <mergeCell ref="L247:O247"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="E6:O6"/>
-    <mergeCell ref="E7:O7"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="A1:D9"/>
-    <mergeCell ref="E2:O5"/>
+  <mergeCells count="963">
+    <mergeCell ref="A471:C474"/>
+    <mergeCell ref="D471:F474"/>
+    <mergeCell ref="G471:I471"/>
+    <mergeCell ref="J471:K471"/>
+    <mergeCell ref="L471:M471"/>
+    <mergeCell ref="N471:O471"/>
+    <mergeCell ref="G472:I472"/>
+    <mergeCell ref="J472:K472"/>
+    <mergeCell ref="L472:M472"/>
+    <mergeCell ref="N472:O472"/>
+    <mergeCell ref="G473:I473"/>
+    <mergeCell ref="J473:K473"/>
+    <mergeCell ref="L473:M473"/>
+    <mergeCell ref="N473:O473"/>
+    <mergeCell ref="G474:I474"/>
+    <mergeCell ref="J474:K474"/>
+    <mergeCell ref="L474:M474"/>
+    <mergeCell ref="N474:O474"/>
+    <mergeCell ref="A463:C466"/>
+    <mergeCell ref="D463:F466"/>
+    <mergeCell ref="L463:O463"/>
+    <mergeCell ref="L464:O464"/>
+    <mergeCell ref="G466:O466"/>
+    <mergeCell ref="A467:C470"/>
+    <mergeCell ref="D467:F470"/>
+    <mergeCell ref="G467:I467"/>
+    <mergeCell ref="J467:K467"/>
+    <mergeCell ref="L467:M467"/>
+    <mergeCell ref="N467:O467"/>
+    <mergeCell ref="G468:I468"/>
+    <mergeCell ref="J468:K468"/>
+    <mergeCell ref="L468:M468"/>
+    <mergeCell ref="N468:O468"/>
+    <mergeCell ref="G469:I469"/>
+    <mergeCell ref="J469:K469"/>
+    <mergeCell ref="L469:M469"/>
+    <mergeCell ref="N469:O469"/>
+    <mergeCell ref="G470:I470"/>
+    <mergeCell ref="J470:K470"/>
+    <mergeCell ref="L470:M470"/>
+    <mergeCell ref="N470:O470"/>
+    <mergeCell ref="A451:D459"/>
+    <mergeCell ref="E452:O455"/>
+    <mergeCell ref="E456:O456"/>
+    <mergeCell ref="E457:O457"/>
+    <mergeCell ref="L459:O459"/>
+    <mergeCell ref="L460:O460"/>
+    <mergeCell ref="L461:O461"/>
+    <mergeCell ref="A462:C462"/>
+    <mergeCell ref="D462:F462"/>
+    <mergeCell ref="L462:O462"/>
+    <mergeCell ref="A418:C421"/>
+    <mergeCell ref="D418:F421"/>
+    <mergeCell ref="G418:I418"/>
+    <mergeCell ref="J418:K418"/>
+    <mergeCell ref="L418:M418"/>
+    <mergeCell ref="N418:O418"/>
+    <mergeCell ref="G419:I419"/>
+    <mergeCell ref="J419:K419"/>
+    <mergeCell ref="L419:M419"/>
+    <mergeCell ref="N419:O419"/>
+    <mergeCell ref="G420:I420"/>
+    <mergeCell ref="J420:K420"/>
+    <mergeCell ref="L420:M420"/>
+    <mergeCell ref="N420:O420"/>
+    <mergeCell ref="G421:I421"/>
+    <mergeCell ref="J421:K421"/>
+    <mergeCell ref="L421:M421"/>
+    <mergeCell ref="N421:O421"/>
+    <mergeCell ref="A410:C413"/>
+    <mergeCell ref="D410:F413"/>
+    <mergeCell ref="L410:O410"/>
+    <mergeCell ref="L411:O411"/>
+    <mergeCell ref="G413:O413"/>
+    <mergeCell ref="A414:C417"/>
+    <mergeCell ref="D414:F417"/>
+    <mergeCell ref="G414:I414"/>
+    <mergeCell ref="J414:K414"/>
+    <mergeCell ref="L414:M414"/>
+    <mergeCell ref="N414:O414"/>
+    <mergeCell ref="G415:I415"/>
+    <mergeCell ref="J415:K415"/>
+    <mergeCell ref="L415:M415"/>
+    <mergeCell ref="N415:O415"/>
+    <mergeCell ref="G416:I416"/>
+    <mergeCell ref="J416:K416"/>
+    <mergeCell ref="L416:M416"/>
+    <mergeCell ref="N416:O416"/>
+    <mergeCell ref="G417:I417"/>
+    <mergeCell ref="J417:K417"/>
+    <mergeCell ref="L417:M417"/>
+    <mergeCell ref="N417:O417"/>
+    <mergeCell ref="A398:D406"/>
+    <mergeCell ref="E399:O402"/>
+    <mergeCell ref="E403:O403"/>
+    <mergeCell ref="E404:O404"/>
+    <mergeCell ref="L406:O406"/>
+    <mergeCell ref="L407:O407"/>
+    <mergeCell ref="L408:O408"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="D409:F409"/>
+    <mergeCell ref="L409:O409"/>
+    <mergeCell ref="A392:C395"/>
+    <mergeCell ref="D392:F395"/>
+    <mergeCell ref="G392:I392"/>
+    <mergeCell ref="J392:K392"/>
+    <mergeCell ref="L392:M392"/>
+    <mergeCell ref="N392:O392"/>
+    <mergeCell ref="G393:I393"/>
+    <mergeCell ref="J393:K393"/>
+    <mergeCell ref="L393:M393"/>
+    <mergeCell ref="N393:O393"/>
+    <mergeCell ref="G394:I394"/>
+    <mergeCell ref="J394:K394"/>
+    <mergeCell ref="L394:M394"/>
+    <mergeCell ref="N394:O394"/>
+    <mergeCell ref="G395:I395"/>
+    <mergeCell ref="J395:K395"/>
+    <mergeCell ref="L395:M395"/>
+    <mergeCell ref="N395:O395"/>
+    <mergeCell ref="A384:C387"/>
+    <mergeCell ref="D384:F387"/>
+    <mergeCell ref="L384:O384"/>
+    <mergeCell ref="L385:O385"/>
+    <mergeCell ref="G387:O387"/>
+    <mergeCell ref="A388:C391"/>
+    <mergeCell ref="D388:F391"/>
+    <mergeCell ref="G388:I388"/>
+    <mergeCell ref="J388:K388"/>
+    <mergeCell ref="L388:M388"/>
+    <mergeCell ref="N388:O388"/>
+    <mergeCell ref="G389:I389"/>
+    <mergeCell ref="J389:K389"/>
+    <mergeCell ref="L389:M389"/>
+    <mergeCell ref="N389:O389"/>
+    <mergeCell ref="G390:I390"/>
+    <mergeCell ref="J390:K390"/>
+    <mergeCell ref="L390:M390"/>
+    <mergeCell ref="N390:O390"/>
+    <mergeCell ref="G391:I391"/>
+    <mergeCell ref="J391:K391"/>
+    <mergeCell ref="L391:M391"/>
+    <mergeCell ref="N391:O391"/>
+    <mergeCell ref="A372:D380"/>
+    <mergeCell ref="E373:O376"/>
+    <mergeCell ref="E377:O377"/>
+    <mergeCell ref="E378:O378"/>
+    <mergeCell ref="L380:O380"/>
+    <mergeCell ref="L381:O381"/>
+    <mergeCell ref="L382:O382"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="D383:F383"/>
+    <mergeCell ref="L383:O383"/>
+    <mergeCell ref="A340:C343"/>
+    <mergeCell ref="D340:F343"/>
+    <mergeCell ref="G340:I340"/>
+    <mergeCell ref="J340:K340"/>
+    <mergeCell ref="L340:M340"/>
+    <mergeCell ref="N340:O340"/>
+    <mergeCell ref="G341:I341"/>
+    <mergeCell ref="J341:K341"/>
+    <mergeCell ref="L341:M341"/>
+    <mergeCell ref="N341:O341"/>
+    <mergeCell ref="G342:I342"/>
+    <mergeCell ref="J342:K342"/>
+    <mergeCell ref="L342:M342"/>
+    <mergeCell ref="N342:O342"/>
+    <mergeCell ref="G343:I343"/>
+    <mergeCell ref="J343:K343"/>
+    <mergeCell ref="L343:M343"/>
+    <mergeCell ref="N343:O343"/>
+    <mergeCell ref="A332:C335"/>
+    <mergeCell ref="D332:F335"/>
+    <mergeCell ref="L332:O332"/>
+    <mergeCell ref="L333:O333"/>
+    <mergeCell ref="G335:O335"/>
+    <mergeCell ref="A336:C339"/>
+    <mergeCell ref="D336:F339"/>
+    <mergeCell ref="G336:I336"/>
+    <mergeCell ref="J336:K336"/>
+    <mergeCell ref="L336:M336"/>
+    <mergeCell ref="N336:O336"/>
+    <mergeCell ref="G337:I337"/>
+    <mergeCell ref="J337:K337"/>
+    <mergeCell ref="L337:M337"/>
+    <mergeCell ref="N337:O337"/>
+    <mergeCell ref="G338:I338"/>
+    <mergeCell ref="J338:K338"/>
+    <mergeCell ref="L338:M338"/>
+    <mergeCell ref="N338:O338"/>
+    <mergeCell ref="G339:I339"/>
+    <mergeCell ref="J339:K339"/>
+    <mergeCell ref="L339:M339"/>
+    <mergeCell ref="N339:O339"/>
+    <mergeCell ref="A320:D328"/>
+    <mergeCell ref="E321:O324"/>
+    <mergeCell ref="E325:O325"/>
+    <mergeCell ref="E326:O326"/>
+    <mergeCell ref="L328:O328"/>
+    <mergeCell ref="L329:O329"/>
+    <mergeCell ref="L330:O330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="D331:F331"/>
+    <mergeCell ref="L331:O331"/>
+    <mergeCell ref="Q266:U267"/>
+    <mergeCell ref="Q269:U271"/>
+    <mergeCell ref="Q272:U274"/>
+    <mergeCell ref="Q275:U277"/>
+    <mergeCell ref="Q278:U280"/>
+    <mergeCell ref="Q281:U283"/>
+    <mergeCell ref="Q284:U286"/>
+    <mergeCell ref="Q287:U289"/>
+    <mergeCell ref="Q290:U291"/>
+    <mergeCell ref="G292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="L292:M292"/>
+    <mergeCell ref="N292:O292"/>
+    <mergeCell ref="G293:I293"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="L293:M293"/>
+    <mergeCell ref="N293:O293"/>
+    <mergeCell ref="G289:I289"/>
+    <mergeCell ref="J289:K289"/>
+    <mergeCell ref="L289:M289"/>
+    <mergeCell ref="N289:O289"/>
+    <mergeCell ref="G290:I290"/>
+    <mergeCell ref="J290:K290"/>
+    <mergeCell ref="L290:M290"/>
+    <mergeCell ref="N290:O290"/>
+    <mergeCell ref="G291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="L291:M291"/>
+    <mergeCell ref="N291:O291"/>
+    <mergeCell ref="A286:C289"/>
+    <mergeCell ref="D286:F289"/>
+    <mergeCell ref="A290:C293"/>
+    <mergeCell ref="D290:F293"/>
+    <mergeCell ref="G284:I284"/>
+    <mergeCell ref="J284:K284"/>
+    <mergeCell ref="L284:M284"/>
+    <mergeCell ref="N284:O284"/>
+    <mergeCell ref="G285:I285"/>
+    <mergeCell ref="J285:K285"/>
+    <mergeCell ref="L285:M285"/>
+    <mergeCell ref="N285:O285"/>
+    <mergeCell ref="G286:I286"/>
+    <mergeCell ref="J286:K286"/>
+    <mergeCell ref="L286:M286"/>
+    <mergeCell ref="N286:O286"/>
+    <mergeCell ref="G287:I287"/>
+    <mergeCell ref="J287:K287"/>
+    <mergeCell ref="L287:M287"/>
+    <mergeCell ref="N287:O287"/>
+    <mergeCell ref="G288:I288"/>
+    <mergeCell ref="J288:K288"/>
+    <mergeCell ref="L288:M288"/>
+    <mergeCell ref="N288:O288"/>
+    <mergeCell ref="A282:C285"/>
+    <mergeCell ref="D282:F285"/>
+    <mergeCell ref="G280:I280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="L280:M280"/>
+    <mergeCell ref="N281:O281"/>
+    <mergeCell ref="G281:I281"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="L281:M281"/>
+    <mergeCell ref="N282:O282"/>
+    <mergeCell ref="G282:I282"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="L282:M282"/>
+    <mergeCell ref="G283:I283"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="L283:M283"/>
+    <mergeCell ref="N283:O283"/>
+    <mergeCell ref="N280:O280"/>
+    <mergeCell ref="A274:C277"/>
+    <mergeCell ref="D274:F277"/>
+    <mergeCell ref="L274:O274"/>
+    <mergeCell ref="L275:O275"/>
+    <mergeCell ref="G277:O277"/>
+    <mergeCell ref="A278:C281"/>
+    <mergeCell ref="D278:F281"/>
+    <mergeCell ref="G278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="L278:M278"/>
+    <mergeCell ref="N278:O278"/>
+    <mergeCell ref="G279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="L279:M279"/>
+    <mergeCell ref="N279:O279"/>
+    <mergeCell ref="A262:D270"/>
+    <mergeCell ref="E263:O266"/>
+    <mergeCell ref="E267:O267"/>
+    <mergeCell ref="E268:O268"/>
+    <mergeCell ref="L270:O270"/>
+    <mergeCell ref="L271:O271"/>
+    <mergeCell ref="L272:O272"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="D273:F273"/>
+    <mergeCell ref="L273:O273"/>
+    <mergeCell ref="G232:I232"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="L232:M232"/>
+    <mergeCell ref="N232:O232"/>
+    <mergeCell ref="G233:I233"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="L233:M233"/>
+    <mergeCell ref="N233:O233"/>
+    <mergeCell ref="A230:C233"/>
+    <mergeCell ref="D230:F233"/>
+    <mergeCell ref="G230:I230"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="L230:M230"/>
+    <mergeCell ref="N230:O230"/>
+    <mergeCell ref="G231:I231"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="L231:M231"/>
+    <mergeCell ref="N231:O231"/>
+    <mergeCell ref="G228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="L228:M228"/>
+    <mergeCell ref="N228:O228"/>
+    <mergeCell ref="G229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="L229:M229"/>
+    <mergeCell ref="N229:O229"/>
+    <mergeCell ref="A226:C229"/>
+    <mergeCell ref="D226:F229"/>
+    <mergeCell ref="G226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="L226:M226"/>
+    <mergeCell ref="N226:O226"/>
+    <mergeCell ref="G227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="L227:M227"/>
+    <mergeCell ref="N227:O227"/>
+    <mergeCell ref="L220:O220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="L221:O221"/>
+    <mergeCell ref="A222:C225"/>
+    <mergeCell ref="D222:F225"/>
+    <mergeCell ref="L222:O222"/>
+    <mergeCell ref="L223:O223"/>
+    <mergeCell ref="G225:O225"/>
+    <mergeCell ref="A210:D218"/>
+    <mergeCell ref="E211:O214"/>
+    <mergeCell ref="E215:O215"/>
+    <mergeCell ref="E216:O216"/>
+    <mergeCell ref="L218:O218"/>
+    <mergeCell ref="L219:O219"/>
+    <mergeCell ref="G206:I206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="N206:O206"/>
+    <mergeCell ref="G207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="N207:O207"/>
+    <mergeCell ref="A204:C207"/>
+    <mergeCell ref="D204:F207"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="L204:M204"/>
+    <mergeCell ref="N204:O204"/>
+    <mergeCell ref="G205:I205"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="L205:M205"/>
+    <mergeCell ref="N205:O205"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="L202:M202"/>
+    <mergeCell ref="N202:O202"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="L203:M203"/>
+    <mergeCell ref="N203:O203"/>
+    <mergeCell ref="A200:C203"/>
+    <mergeCell ref="D200:F203"/>
+    <mergeCell ref="G200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="L200:M200"/>
+    <mergeCell ref="N200:O200"/>
+    <mergeCell ref="G201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="L201:M201"/>
+    <mergeCell ref="N201:O201"/>
+    <mergeCell ref="L194:O194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="L195:O195"/>
+    <mergeCell ref="A196:C199"/>
+    <mergeCell ref="D196:F199"/>
+    <mergeCell ref="L196:O196"/>
+    <mergeCell ref="L197:O197"/>
+    <mergeCell ref="G199:O199"/>
+    <mergeCell ref="A184:D192"/>
+    <mergeCell ref="E185:O188"/>
+    <mergeCell ref="E189:O189"/>
+    <mergeCell ref="E190:O190"/>
+    <mergeCell ref="L192:O192"/>
+    <mergeCell ref="L193:O193"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="G180:I180"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="L180:M180"/>
+    <mergeCell ref="N180:O180"/>
+    <mergeCell ref="A177:C180"/>
+    <mergeCell ref="D177:F180"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="L177:M177"/>
+    <mergeCell ref="N177:O177"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="L178:M178"/>
+    <mergeCell ref="N178:O178"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="L175:M175"/>
+    <mergeCell ref="N175:O175"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="L176:M176"/>
+    <mergeCell ref="N176:O176"/>
+    <mergeCell ref="A173:C176"/>
+    <mergeCell ref="D173:F176"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="N173:O173"/>
+    <mergeCell ref="G174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="L174:M174"/>
+    <mergeCell ref="N174:O174"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="A169:C172"/>
+    <mergeCell ref="D169:F172"/>
+    <mergeCell ref="L169:O169"/>
+    <mergeCell ref="L170:O170"/>
+    <mergeCell ref="G172:O172"/>
+    <mergeCell ref="A157:D165"/>
+    <mergeCell ref="E158:O161"/>
+    <mergeCell ref="E162:O162"/>
+    <mergeCell ref="E163:O163"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="L166:O166"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="A151:C154"/>
+    <mergeCell ref="D151:F154"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="G150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="A147:C150"/>
+    <mergeCell ref="D147:F150"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="L142:O142"/>
+    <mergeCell ref="A143:C146"/>
+    <mergeCell ref="D143:F146"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="G146:O146"/>
+    <mergeCell ref="A131:D139"/>
+    <mergeCell ref="E132:O135"/>
+    <mergeCell ref="E136:O136"/>
+    <mergeCell ref="E137:O137"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A125:C128"/>
+    <mergeCell ref="D125:F128"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A121:C124"/>
+    <mergeCell ref="D121:F124"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="A117:C120"/>
+    <mergeCell ref="D117:F120"/>
+    <mergeCell ref="L117:O117"/>
+    <mergeCell ref="L118:O118"/>
+    <mergeCell ref="G120:O120"/>
+    <mergeCell ref="A105:D113"/>
+    <mergeCell ref="E106:O109"/>
+    <mergeCell ref="E110:O110"/>
+    <mergeCell ref="E111:O111"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A99:C102"/>
+    <mergeCell ref="D99:F102"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A95:C98"/>
+    <mergeCell ref="D95:F98"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="A91:C94"/>
+    <mergeCell ref="D91:F94"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="G94:O94"/>
+    <mergeCell ref="A79:D87"/>
+    <mergeCell ref="E80:O83"/>
+    <mergeCell ref="E84:O84"/>
+    <mergeCell ref="E85:O85"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A73:C76"/>
+    <mergeCell ref="D73:F76"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A69:C72"/>
+    <mergeCell ref="D69:F72"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="A65:C68"/>
+    <mergeCell ref="D65:F68"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="G68:O68"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A53:D61"/>
+    <mergeCell ref="E54:O57"/>
+    <mergeCell ref="E58:O58"/>
+    <mergeCell ref="E59:O59"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="A47:C50"/>
+    <mergeCell ref="D47:F50"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="A43:C46"/>
+    <mergeCell ref="D43:F46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="A39:C42"/>
+    <mergeCell ref="D39:F42"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="A27:D35"/>
+    <mergeCell ref="E28:O31"/>
+    <mergeCell ref="E32:O32"/>
+    <mergeCell ref="E33:O33"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D21:F24"/>
     <mergeCell ref="A13:C16"/>
     <mergeCell ref="A17:C20"/>
     <mergeCell ref="D13:F16"/>
@@ -12201,680 +13341,220 @@
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A27:D35"/>
-    <mergeCell ref="E28:O31"/>
-    <mergeCell ref="E32:O32"/>
-    <mergeCell ref="E33:O33"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D21:F24"/>
-    <mergeCell ref="A43:C46"/>
-    <mergeCell ref="D43:F46"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="A39:C42"/>
-    <mergeCell ref="D39:F42"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="G42:O42"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="A53:D61"/>
-    <mergeCell ref="E54:O57"/>
-    <mergeCell ref="E58:O58"/>
-    <mergeCell ref="E59:O59"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="A47:C50"/>
-    <mergeCell ref="D47:F50"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="A65:C68"/>
-    <mergeCell ref="D65:F68"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="G68:O68"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="A69:C72"/>
-    <mergeCell ref="D69:F72"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="A79:D87"/>
-    <mergeCell ref="E80:O83"/>
-    <mergeCell ref="E84:O84"/>
-    <mergeCell ref="E85:O85"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="A73:C76"/>
-    <mergeCell ref="D73:F76"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="L89:O89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="A91:C94"/>
-    <mergeCell ref="D91:F94"/>
-    <mergeCell ref="L91:O91"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="G94:O94"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="A95:C98"/>
-    <mergeCell ref="D95:F98"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="A105:D113"/>
-    <mergeCell ref="E106:O109"/>
-    <mergeCell ref="E110:O110"/>
-    <mergeCell ref="E111:O111"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="A99:C102"/>
-    <mergeCell ref="D99:F102"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="A117:C120"/>
-    <mergeCell ref="D117:F120"/>
-    <mergeCell ref="L117:O117"/>
-    <mergeCell ref="L118:O118"/>
-    <mergeCell ref="G120:O120"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:M124"/>
-    <mergeCell ref="N124:O124"/>
-    <mergeCell ref="A121:C124"/>
-    <mergeCell ref="D121:F124"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="L121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="L122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="A131:D139"/>
-    <mergeCell ref="E132:O135"/>
-    <mergeCell ref="E136:O136"/>
-    <mergeCell ref="E137:O137"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="L128:M128"/>
-    <mergeCell ref="N128:O128"/>
-    <mergeCell ref="A125:C128"/>
-    <mergeCell ref="D125:F128"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="L125:M125"/>
-    <mergeCell ref="N125:O125"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="L126:M126"/>
-    <mergeCell ref="N126:O126"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="L142:O142"/>
-    <mergeCell ref="A143:C146"/>
-    <mergeCell ref="D143:F146"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="G146:O146"/>
-    <mergeCell ref="G149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="G150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="A147:C150"/>
-    <mergeCell ref="D147:F150"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="L147:M147"/>
-    <mergeCell ref="N147:O147"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="L148:M148"/>
-    <mergeCell ref="N148:O148"/>
-    <mergeCell ref="A157:D165"/>
-    <mergeCell ref="E158:O161"/>
-    <mergeCell ref="E162:O162"/>
-    <mergeCell ref="E163:O163"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="L166:O166"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="A151:C154"/>
-    <mergeCell ref="D151:F154"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="A169:C172"/>
-    <mergeCell ref="D169:F172"/>
-    <mergeCell ref="L169:O169"/>
-    <mergeCell ref="L170:O170"/>
-    <mergeCell ref="G172:O172"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="L175:M175"/>
-    <mergeCell ref="N175:O175"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="L176:M176"/>
-    <mergeCell ref="N176:O176"/>
-    <mergeCell ref="A173:C176"/>
-    <mergeCell ref="D173:F176"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="L173:M173"/>
-    <mergeCell ref="N173:O173"/>
-    <mergeCell ref="G174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="L174:M174"/>
-    <mergeCell ref="N174:O174"/>
-    <mergeCell ref="A184:D192"/>
-    <mergeCell ref="E185:O188"/>
-    <mergeCell ref="E189:O189"/>
-    <mergeCell ref="E190:O190"/>
-    <mergeCell ref="L192:O192"/>
-    <mergeCell ref="L193:O193"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="G180:I180"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="L180:M180"/>
-    <mergeCell ref="N180:O180"/>
-    <mergeCell ref="A177:C180"/>
-    <mergeCell ref="D177:F180"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="L177:M177"/>
-    <mergeCell ref="N177:O177"/>
-    <mergeCell ref="G178:I178"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="L178:M178"/>
-    <mergeCell ref="N178:O178"/>
-    <mergeCell ref="L194:O194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="L195:O195"/>
-    <mergeCell ref="A196:C199"/>
-    <mergeCell ref="D196:F199"/>
-    <mergeCell ref="L196:O196"/>
-    <mergeCell ref="L197:O197"/>
-    <mergeCell ref="G199:O199"/>
-    <mergeCell ref="G202:I202"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="L202:M202"/>
-    <mergeCell ref="N202:O202"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="L203:M203"/>
-    <mergeCell ref="N203:O203"/>
-    <mergeCell ref="A200:C203"/>
-    <mergeCell ref="D200:F203"/>
-    <mergeCell ref="G200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="L200:M200"/>
-    <mergeCell ref="N200:O200"/>
-    <mergeCell ref="G201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="L201:M201"/>
-    <mergeCell ref="N201:O201"/>
-    <mergeCell ref="A210:D218"/>
-    <mergeCell ref="E211:O214"/>
-    <mergeCell ref="E215:O215"/>
-    <mergeCell ref="E216:O216"/>
-    <mergeCell ref="L218:O218"/>
-    <mergeCell ref="L219:O219"/>
-    <mergeCell ref="G206:I206"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="N206:O206"/>
-    <mergeCell ref="G207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="A204:C207"/>
-    <mergeCell ref="D204:F207"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="L204:M204"/>
-    <mergeCell ref="N204:O204"/>
-    <mergeCell ref="G205:I205"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="L205:M205"/>
-    <mergeCell ref="N205:O205"/>
-    <mergeCell ref="L220:O220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="L221:O221"/>
-    <mergeCell ref="A222:C225"/>
-    <mergeCell ref="D222:F225"/>
-    <mergeCell ref="L222:O222"/>
-    <mergeCell ref="L223:O223"/>
-    <mergeCell ref="G225:O225"/>
-    <mergeCell ref="G228:I228"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="L228:M228"/>
-    <mergeCell ref="N228:O228"/>
-    <mergeCell ref="G229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="L229:M229"/>
-    <mergeCell ref="N229:O229"/>
-    <mergeCell ref="A226:C229"/>
-    <mergeCell ref="D226:F229"/>
-    <mergeCell ref="G226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="L226:M226"/>
-    <mergeCell ref="N226:O226"/>
-    <mergeCell ref="G227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="L227:M227"/>
-    <mergeCell ref="N227:O227"/>
-    <mergeCell ref="G232:I232"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="L232:M232"/>
-    <mergeCell ref="N232:O232"/>
-    <mergeCell ref="G233:I233"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="L233:M233"/>
-    <mergeCell ref="N233:O233"/>
-    <mergeCell ref="A230:C233"/>
-    <mergeCell ref="D230:F233"/>
-    <mergeCell ref="G230:I230"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="L230:M230"/>
-    <mergeCell ref="N230:O230"/>
-    <mergeCell ref="G231:I231"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="L231:M231"/>
-    <mergeCell ref="N231:O231"/>
-    <mergeCell ref="A262:D270"/>
-    <mergeCell ref="E263:O266"/>
-    <mergeCell ref="E267:O267"/>
-    <mergeCell ref="E268:O268"/>
-    <mergeCell ref="L270:O270"/>
-    <mergeCell ref="L271:O271"/>
-    <mergeCell ref="L272:O272"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="D273:F273"/>
-    <mergeCell ref="L273:O273"/>
-    <mergeCell ref="A274:C277"/>
-    <mergeCell ref="D274:F277"/>
-    <mergeCell ref="L274:O274"/>
-    <mergeCell ref="L275:O275"/>
-    <mergeCell ref="G277:O277"/>
-    <mergeCell ref="A278:C281"/>
-    <mergeCell ref="D278:F281"/>
-    <mergeCell ref="G278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="L278:M278"/>
-    <mergeCell ref="N278:O278"/>
-    <mergeCell ref="G279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="L279:M279"/>
-    <mergeCell ref="N279:O279"/>
-    <mergeCell ref="A282:C285"/>
-    <mergeCell ref="D282:F285"/>
-    <mergeCell ref="G280:I280"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="L280:M280"/>
-    <mergeCell ref="N281:O281"/>
-    <mergeCell ref="G281:I281"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="L281:M281"/>
-    <mergeCell ref="N282:O282"/>
-    <mergeCell ref="G282:I282"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="L282:M282"/>
-    <mergeCell ref="G283:I283"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="L283:M283"/>
-    <mergeCell ref="N283:O283"/>
-    <mergeCell ref="N280:O280"/>
-    <mergeCell ref="A286:C289"/>
-    <mergeCell ref="D286:F289"/>
-    <mergeCell ref="A290:C293"/>
-    <mergeCell ref="D290:F293"/>
-    <mergeCell ref="G284:I284"/>
-    <mergeCell ref="J284:K284"/>
-    <mergeCell ref="L284:M284"/>
-    <mergeCell ref="N284:O284"/>
-    <mergeCell ref="G285:I285"/>
-    <mergeCell ref="J285:K285"/>
-    <mergeCell ref="L285:M285"/>
-    <mergeCell ref="N285:O285"/>
-    <mergeCell ref="G286:I286"/>
-    <mergeCell ref="J286:K286"/>
-    <mergeCell ref="L286:M286"/>
-    <mergeCell ref="N286:O286"/>
-    <mergeCell ref="G287:I287"/>
-    <mergeCell ref="J287:K287"/>
-    <mergeCell ref="L287:M287"/>
-    <mergeCell ref="N287:O287"/>
-    <mergeCell ref="G288:I288"/>
-    <mergeCell ref="J288:K288"/>
-    <mergeCell ref="L288:M288"/>
-    <mergeCell ref="N288:O288"/>
-    <mergeCell ref="G292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="L292:M292"/>
-    <mergeCell ref="N292:O292"/>
-    <mergeCell ref="G293:I293"/>
-    <mergeCell ref="J293:K293"/>
-    <mergeCell ref="L293:M293"/>
-    <mergeCell ref="N293:O293"/>
-    <mergeCell ref="G289:I289"/>
-    <mergeCell ref="J289:K289"/>
-    <mergeCell ref="L289:M289"/>
-    <mergeCell ref="N289:O289"/>
-    <mergeCell ref="G290:I290"/>
-    <mergeCell ref="J290:K290"/>
-    <mergeCell ref="L290:M290"/>
-    <mergeCell ref="N290:O290"/>
-    <mergeCell ref="G291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="L291:M291"/>
-    <mergeCell ref="N291:O291"/>
-    <mergeCell ref="Q266:U267"/>
-    <mergeCell ref="Q269:U271"/>
-    <mergeCell ref="Q272:U274"/>
-    <mergeCell ref="Q275:U277"/>
-    <mergeCell ref="Q278:U280"/>
-    <mergeCell ref="Q281:U283"/>
-    <mergeCell ref="Q284:U286"/>
-    <mergeCell ref="Q287:U289"/>
-    <mergeCell ref="Q290:U291"/>
-    <mergeCell ref="A320:D328"/>
-    <mergeCell ref="E321:O324"/>
-    <mergeCell ref="E325:O325"/>
-    <mergeCell ref="E326:O326"/>
-    <mergeCell ref="L328:O328"/>
-    <mergeCell ref="L329:O329"/>
-    <mergeCell ref="L330:O330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="D331:F331"/>
-    <mergeCell ref="L331:O331"/>
-    <mergeCell ref="A332:C335"/>
-    <mergeCell ref="D332:F335"/>
-    <mergeCell ref="L332:O332"/>
-    <mergeCell ref="L333:O333"/>
-    <mergeCell ref="G335:O335"/>
-    <mergeCell ref="A336:C339"/>
-    <mergeCell ref="D336:F339"/>
-    <mergeCell ref="G336:I336"/>
-    <mergeCell ref="J336:K336"/>
-    <mergeCell ref="L336:M336"/>
-    <mergeCell ref="N336:O336"/>
-    <mergeCell ref="G337:I337"/>
-    <mergeCell ref="J337:K337"/>
-    <mergeCell ref="L337:M337"/>
-    <mergeCell ref="N337:O337"/>
-    <mergeCell ref="G338:I338"/>
-    <mergeCell ref="J338:K338"/>
-    <mergeCell ref="L338:M338"/>
-    <mergeCell ref="N338:O338"/>
-    <mergeCell ref="G339:I339"/>
-    <mergeCell ref="J339:K339"/>
-    <mergeCell ref="L339:M339"/>
-    <mergeCell ref="N339:O339"/>
-    <mergeCell ref="A340:C343"/>
-    <mergeCell ref="D340:F343"/>
-    <mergeCell ref="G340:I340"/>
-    <mergeCell ref="J340:K340"/>
-    <mergeCell ref="L340:M340"/>
-    <mergeCell ref="N340:O340"/>
-    <mergeCell ref="G341:I341"/>
-    <mergeCell ref="J341:K341"/>
-    <mergeCell ref="L341:M341"/>
-    <mergeCell ref="N341:O341"/>
-    <mergeCell ref="G342:I342"/>
-    <mergeCell ref="J342:K342"/>
-    <mergeCell ref="L342:M342"/>
-    <mergeCell ref="N342:O342"/>
-    <mergeCell ref="G343:I343"/>
-    <mergeCell ref="J343:K343"/>
-    <mergeCell ref="L343:M343"/>
-    <mergeCell ref="N343:O343"/>
-    <mergeCell ref="A372:D380"/>
-    <mergeCell ref="E373:O376"/>
-    <mergeCell ref="E377:O377"/>
-    <mergeCell ref="E378:O378"/>
-    <mergeCell ref="L380:O380"/>
-    <mergeCell ref="L381:O381"/>
-    <mergeCell ref="L382:O382"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="D383:F383"/>
-    <mergeCell ref="L383:O383"/>
-    <mergeCell ref="A384:C387"/>
-    <mergeCell ref="D384:F387"/>
-    <mergeCell ref="L384:O384"/>
-    <mergeCell ref="L385:O385"/>
-    <mergeCell ref="G387:O387"/>
-    <mergeCell ref="A388:C391"/>
-    <mergeCell ref="D388:F391"/>
-    <mergeCell ref="G388:I388"/>
-    <mergeCell ref="J388:K388"/>
-    <mergeCell ref="L388:M388"/>
-    <mergeCell ref="N388:O388"/>
-    <mergeCell ref="G389:I389"/>
-    <mergeCell ref="J389:K389"/>
-    <mergeCell ref="L389:M389"/>
-    <mergeCell ref="N389:O389"/>
-    <mergeCell ref="G390:I390"/>
-    <mergeCell ref="J390:K390"/>
-    <mergeCell ref="L390:M390"/>
-    <mergeCell ref="N390:O390"/>
-    <mergeCell ref="G391:I391"/>
-    <mergeCell ref="J391:K391"/>
-    <mergeCell ref="L391:M391"/>
-    <mergeCell ref="N391:O391"/>
-    <mergeCell ref="A392:C395"/>
-    <mergeCell ref="D392:F395"/>
-    <mergeCell ref="G392:I392"/>
-    <mergeCell ref="J392:K392"/>
-    <mergeCell ref="L392:M392"/>
-    <mergeCell ref="N392:O392"/>
-    <mergeCell ref="G393:I393"/>
-    <mergeCell ref="J393:K393"/>
-    <mergeCell ref="L393:M393"/>
-    <mergeCell ref="N393:O393"/>
-    <mergeCell ref="G394:I394"/>
-    <mergeCell ref="J394:K394"/>
-    <mergeCell ref="L394:M394"/>
-    <mergeCell ref="N394:O394"/>
-    <mergeCell ref="G395:I395"/>
-    <mergeCell ref="J395:K395"/>
-    <mergeCell ref="L395:M395"/>
-    <mergeCell ref="N395:O395"/>
-    <mergeCell ref="A398:D406"/>
-    <mergeCell ref="E399:O402"/>
-    <mergeCell ref="E403:O403"/>
-    <mergeCell ref="E404:O404"/>
-    <mergeCell ref="L406:O406"/>
-    <mergeCell ref="L407:O407"/>
-    <mergeCell ref="L408:O408"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="D409:F409"/>
-    <mergeCell ref="L409:O409"/>
-    <mergeCell ref="A410:C413"/>
-    <mergeCell ref="D410:F413"/>
-    <mergeCell ref="L410:O410"/>
-    <mergeCell ref="L411:O411"/>
-    <mergeCell ref="G413:O413"/>
-    <mergeCell ref="A414:C417"/>
-    <mergeCell ref="D414:F417"/>
-    <mergeCell ref="G414:I414"/>
-    <mergeCell ref="J414:K414"/>
-    <mergeCell ref="L414:M414"/>
-    <mergeCell ref="N414:O414"/>
-    <mergeCell ref="G415:I415"/>
-    <mergeCell ref="J415:K415"/>
-    <mergeCell ref="L415:M415"/>
-    <mergeCell ref="N415:O415"/>
-    <mergeCell ref="G416:I416"/>
-    <mergeCell ref="J416:K416"/>
-    <mergeCell ref="L416:M416"/>
-    <mergeCell ref="N416:O416"/>
-    <mergeCell ref="G417:I417"/>
-    <mergeCell ref="J417:K417"/>
-    <mergeCell ref="L417:M417"/>
-    <mergeCell ref="N417:O417"/>
-    <mergeCell ref="A418:C421"/>
-    <mergeCell ref="D418:F421"/>
-    <mergeCell ref="G418:I418"/>
-    <mergeCell ref="J418:K418"/>
-    <mergeCell ref="L418:M418"/>
-    <mergeCell ref="N418:O418"/>
-    <mergeCell ref="G419:I419"/>
-    <mergeCell ref="J419:K419"/>
-    <mergeCell ref="L419:M419"/>
-    <mergeCell ref="N419:O419"/>
-    <mergeCell ref="G420:I420"/>
-    <mergeCell ref="J420:K420"/>
-    <mergeCell ref="L420:M420"/>
-    <mergeCell ref="N420:O420"/>
-    <mergeCell ref="G421:I421"/>
-    <mergeCell ref="J421:K421"/>
-    <mergeCell ref="L421:M421"/>
-    <mergeCell ref="N421:O421"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="E6:O6"/>
+    <mergeCell ref="E7:O7"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="A1:D9"/>
+    <mergeCell ref="E2:O5"/>
+    <mergeCell ref="A236:D244"/>
+    <mergeCell ref="E237:O240"/>
+    <mergeCell ref="E241:O241"/>
+    <mergeCell ref="E242:O242"/>
+    <mergeCell ref="L244:O244"/>
+    <mergeCell ref="L245:O245"/>
+    <mergeCell ref="L246:O246"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="D247:F247"/>
+    <mergeCell ref="L247:O247"/>
+    <mergeCell ref="A248:C251"/>
+    <mergeCell ref="D248:F251"/>
+    <mergeCell ref="L248:O248"/>
+    <mergeCell ref="L249:O249"/>
+    <mergeCell ref="G251:O251"/>
+    <mergeCell ref="A252:C255"/>
+    <mergeCell ref="D252:F255"/>
+    <mergeCell ref="G252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="L252:M252"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="G253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="L253:M253"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="G254:I254"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="L254:M254"/>
+    <mergeCell ref="N254:O254"/>
+    <mergeCell ref="G255:I255"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="L255:M255"/>
+    <mergeCell ref="N255:O255"/>
+    <mergeCell ref="A256:C259"/>
+    <mergeCell ref="D256:F259"/>
+    <mergeCell ref="G256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="L256:M256"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="G257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="L257:M257"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="G258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="L258:M258"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="G259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="L259:M259"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="A294:D302"/>
+    <mergeCell ref="E295:O298"/>
+    <mergeCell ref="E299:O299"/>
+    <mergeCell ref="E300:O300"/>
+    <mergeCell ref="L302:O302"/>
+    <mergeCell ref="L303:O303"/>
+    <mergeCell ref="L304:O304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="D305:F305"/>
+    <mergeCell ref="L305:O305"/>
+    <mergeCell ref="A306:C309"/>
+    <mergeCell ref="D306:F309"/>
+    <mergeCell ref="L306:O306"/>
+    <mergeCell ref="L307:O307"/>
+    <mergeCell ref="G309:O309"/>
+    <mergeCell ref="A310:C313"/>
+    <mergeCell ref="D310:F313"/>
+    <mergeCell ref="G310:I310"/>
+    <mergeCell ref="J310:K310"/>
+    <mergeCell ref="L310:M310"/>
+    <mergeCell ref="N310:O310"/>
+    <mergeCell ref="G311:I311"/>
+    <mergeCell ref="J311:K311"/>
+    <mergeCell ref="L311:M311"/>
+    <mergeCell ref="N311:O311"/>
+    <mergeCell ref="G312:I312"/>
+    <mergeCell ref="J312:K312"/>
+    <mergeCell ref="L312:M312"/>
+    <mergeCell ref="N312:O312"/>
+    <mergeCell ref="G313:I313"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="L313:M313"/>
+    <mergeCell ref="N313:O313"/>
+    <mergeCell ref="A314:C317"/>
+    <mergeCell ref="D314:F317"/>
+    <mergeCell ref="G314:I314"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="L314:M314"/>
+    <mergeCell ref="N314:O314"/>
+    <mergeCell ref="G315:I315"/>
+    <mergeCell ref="J315:K315"/>
+    <mergeCell ref="L315:M315"/>
+    <mergeCell ref="N315:O315"/>
+    <mergeCell ref="G316:I316"/>
+    <mergeCell ref="J316:K316"/>
+    <mergeCell ref="L316:M316"/>
+    <mergeCell ref="N316:O316"/>
+    <mergeCell ref="G317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="L317:M317"/>
+    <mergeCell ref="N317:O317"/>
+    <mergeCell ref="A346:D354"/>
+    <mergeCell ref="E347:O350"/>
+    <mergeCell ref="E351:O351"/>
+    <mergeCell ref="E352:O352"/>
+    <mergeCell ref="L354:O354"/>
+    <mergeCell ref="L355:O355"/>
+    <mergeCell ref="L356:O356"/>
+    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="D357:F357"/>
+    <mergeCell ref="L357:O357"/>
+    <mergeCell ref="A358:C361"/>
+    <mergeCell ref="D358:F361"/>
+    <mergeCell ref="L358:O358"/>
+    <mergeCell ref="L359:O359"/>
+    <mergeCell ref="G361:O361"/>
+    <mergeCell ref="A362:C365"/>
+    <mergeCell ref="D362:F365"/>
+    <mergeCell ref="G362:I362"/>
+    <mergeCell ref="J362:K362"/>
+    <mergeCell ref="L362:M362"/>
+    <mergeCell ref="N362:O362"/>
+    <mergeCell ref="G363:I363"/>
+    <mergeCell ref="J363:K363"/>
+    <mergeCell ref="L363:M363"/>
+    <mergeCell ref="N363:O363"/>
+    <mergeCell ref="G364:I364"/>
+    <mergeCell ref="J364:K364"/>
+    <mergeCell ref="L364:M364"/>
+    <mergeCell ref="N364:O364"/>
+    <mergeCell ref="G365:I365"/>
+    <mergeCell ref="J365:K365"/>
+    <mergeCell ref="L365:M365"/>
+    <mergeCell ref="N365:O365"/>
+    <mergeCell ref="A366:C369"/>
+    <mergeCell ref="D366:F369"/>
+    <mergeCell ref="G366:I366"/>
+    <mergeCell ref="J366:K366"/>
+    <mergeCell ref="L366:M366"/>
+    <mergeCell ref="N366:O366"/>
+    <mergeCell ref="G367:I367"/>
+    <mergeCell ref="J367:K367"/>
+    <mergeCell ref="L367:M367"/>
+    <mergeCell ref="N367:O367"/>
+    <mergeCell ref="G368:I368"/>
+    <mergeCell ref="J368:K368"/>
+    <mergeCell ref="L368:M368"/>
+    <mergeCell ref="N368:O368"/>
+    <mergeCell ref="G369:I369"/>
+    <mergeCell ref="J369:K369"/>
+    <mergeCell ref="L369:M369"/>
+    <mergeCell ref="N369:O369"/>
+    <mergeCell ref="A425:D433"/>
+    <mergeCell ref="E426:O429"/>
+    <mergeCell ref="E430:O430"/>
+    <mergeCell ref="E431:O431"/>
+    <mergeCell ref="L433:O433"/>
+    <mergeCell ref="L434:O434"/>
+    <mergeCell ref="L435:O435"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="D436:F436"/>
+    <mergeCell ref="L436:O436"/>
+    <mergeCell ref="A437:C440"/>
+    <mergeCell ref="D437:F440"/>
+    <mergeCell ref="L437:O437"/>
+    <mergeCell ref="L438:O438"/>
+    <mergeCell ref="G440:O440"/>
+    <mergeCell ref="A441:C444"/>
+    <mergeCell ref="D441:F444"/>
+    <mergeCell ref="G441:I441"/>
+    <mergeCell ref="J441:K441"/>
+    <mergeCell ref="L441:M441"/>
+    <mergeCell ref="N441:O441"/>
+    <mergeCell ref="G442:I442"/>
+    <mergeCell ref="J442:K442"/>
+    <mergeCell ref="L442:M442"/>
+    <mergeCell ref="N442:O442"/>
+    <mergeCell ref="G443:I443"/>
+    <mergeCell ref="J443:K443"/>
+    <mergeCell ref="L443:M443"/>
+    <mergeCell ref="N443:O443"/>
+    <mergeCell ref="G444:I444"/>
+    <mergeCell ref="J444:K444"/>
+    <mergeCell ref="L444:M444"/>
+    <mergeCell ref="N444:O444"/>
+    <mergeCell ref="A445:C448"/>
+    <mergeCell ref="D445:F448"/>
+    <mergeCell ref="G445:I445"/>
+    <mergeCell ref="J445:K445"/>
+    <mergeCell ref="L445:M445"/>
+    <mergeCell ref="N445:O445"/>
+    <mergeCell ref="G446:I446"/>
+    <mergeCell ref="J446:K446"/>
+    <mergeCell ref="L446:M446"/>
+    <mergeCell ref="N446:O446"/>
+    <mergeCell ref="G447:I447"/>
+    <mergeCell ref="J447:K447"/>
+    <mergeCell ref="L447:M447"/>
+    <mergeCell ref="N447:O447"/>
+    <mergeCell ref="G448:I448"/>
+    <mergeCell ref="J448:K448"/>
+    <mergeCell ref="L448:M448"/>
+    <mergeCell ref="N448:O448"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12883,12 +13563,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13074,17 +13753,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A20BDE-ACAC-49A0-A051-6F5B010A8CC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13108,17 +13796,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A20BDE-ACAC-49A0-A051-6F5B010A8CC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentacao/mechspot_ata.xlsx
+++ b/documentacao/mechspot_ata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documentos\SPTECH\Upload GitHub\projeto-pi-sprint-1\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157D9F26-A21F-4FB5-9373-A246A6EBE2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB93C31E-942B-4157-96ED-56F2D26DEACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4545F592-9151-46FC-8F7A-0131C129BBC9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="158">
   <si>
     <t>OK</t>
   </si>
@@ -821,6 +821,18 @@
   </si>
   <si>
     <t>TELA ""RELATÓRIOS" DA DASHBOARD</t>
+  </si>
+  <si>
+    <t>ANDAMENTO DA INTEGRAÇÃO DO SITE</t>
+  </si>
+  <si>
+    <t>FINALIZAR A INTEGRAÇÃO, E FAZER PEQUENAS MUDANÇAS</t>
+  </si>
+  <si>
+    <t>MELHORIAS NO SITE DA DASHBOARD</t>
+  </si>
+  <si>
+    <t>PESQUISAR SOBRE QUAIS OS MELHORES GRÁFICOS E KPI A SEREM UTILIZADAS</t>
   </si>
 </sst>
 </file>
@@ -1198,15 +1210,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1214,6 +1217,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2059,6 +2071,51 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>415917</xdr:colOff>
+      <xdr:row>477</xdr:row>
+      <xdr:rowOff>35593</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1573013" cy="1611635"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagem 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B28E64-2DCD-466A-B012-37F9CA95E014}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1029750" y="92946676"/>
+          <a:ext cx="1573013" cy="1611635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2379,10 +2436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5446F9-8A09-4B91-82C6-8FD7102DEAC7}">
-  <dimension ref="A1:V476"/>
+  <dimension ref="A1:V502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q463" sqref="Q463"/>
+    <sheetView tabSelected="1" topLeftCell="A483" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D497" sqref="D497:F500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,10 +2448,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -4772,7 +4829,7 @@
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
-      <c r="L114" s="31" t="s">
+      <c r="L114" s="32" t="s">
         <v>11</v>
       </c>
       <c r="M114" s="15"/>
@@ -4868,7 +4925,7 @@
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
-      <c r="L118" s="31" t="s">
+      <c r="L118" s="32" t="s">
         <v>11</v>
       </c>
       <c r="M118" s="15"/>
@@ -5910,12 +5967,12 @@
       </c>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
-      <c r="L169" s="31" t="s">
+      <c r="L169" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M169" s="31"/>
-      <c r="N169" s="31"/>
-      <c r="O169" s="31"/>
+      <c r="M169" s="32"/>
+      <c r="N169" s="32"/>
+      <c r="O169" s="32"/>
       <c r="P169" s="1"/>
     </row>
     <row r="170" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6944,12 +7001,12 @@
       </c>
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
-      <c r="L219" s="31" t="s">
+      <c r="L219" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M219" s="31"/>
-      <c r="N219" s="31"/>
-      <c r="O219" s="31"/>
+      <c r="M219" s="32"/>
+      <c r="N219" s="32"/>
+      <c r="O219" s="32"/>
       <c r="P219" s="1"/>
     </row>
     <row r="220" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6966,12 +7023,12 @@
       </c>
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
-      <c r="L220" s="31" t="s">
+      <c r="L220" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M220" s="31"/>
-      <c r="N220" s="31"/>
-      <c r="O220" s="31"/>
+      <c r="M220" s="32"/>
+      <c r="N220" s="32"/>
+      <c r="O220" s="32"/>
       <c r="P220" s="1"/>
     </row>
     <row r="221" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8043,13 +8100,13 @@
       <c r="N269" s="5"/>
       <c r="O269" s="5"/>
       <c r="P269" s="1"/>
-      <c r="Q269" s="32" t="s">
+      <c r="Q269" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="R269" s="32"/>
-      <c r="S269" s="32"/>
-      <c r="T269" s="32"/>
-      <c r="U269" s="32"/>
+      <c r="R269" s="29"/>
+      <c r="S269" s="29"/>
+      <c r="T269" s="29"/>
+      <c r="U269" s="29"/>
       <c r="V269" s="1"/>
     </row>
     <row r="270" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8066,18 +8123,18 @@
       </c>
       <c r="J270" s="4"/>
       <c r="K270" s="4"/>
-      <c r="L270" s="31" t="s">
+      <c r="L270" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M270" s="31"/>
-      <c r="N270" s="31"/>
-      <c r="O270" s="31"/>
+      <c r="M270" s="32"/>
+      <c r="N270" s="32"/>
+      <c r="O270" s="32"/>
       <c r="P270" s="1"/>
-      <c r="Q270" s="33"/>
-      <c r="R270" s="33"/>
-      <c r="S270" s="33"/>
-      <c r="T270" s="33"/>
-      <c r="U270" s="33"/>
+      <c r="Q270" s="30"/>
+      <c r="R270" s="30"/>
+      <c r="S270" s="30"/>
+      <c r="T270" s="30"/>
+      <c r="U270" s="30"/>
       <c r="V270" s="1"/>
     </row>
     <row r="271" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8094,18 +8151,18 @@
       </c>
       <c r="J271" s="4"/>
       <c r="K271" s="4"/>
-      <c r="L271" s="31" t="s">
+      <c r="L271" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M271" s="31"/>
-      <c r="N271" s="31"/>
-      <c r="O271" s="31"/>
+      <c r="M271" s="32"/>
+      <c r="N271" s="32"/>
+      <c r="O271" s="32"/>
       <c r="P271" s="1"/>
-      <c r="Q271" s="33"/>
-      <c r="R271" s="33"/>
-      <c r="S271" s="33"/>
-      <c r="T271" s="33"/>
-      <c r="U271" s="33"/>
+      <c r="Q271" s="30"/>
+      <c r="R271" s="30"/>
+      <c r="S271" s="30"/>
+      <c r="T271" s="30"/>
+      <c r="U271" s="30"/>
       <c r="V271" s="1"/>
     </row>
     <row r="272" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8129,13 +8186,13 @@
       <c r="N272" s="15"/>
       <c r="O272" s="15"/>
       <c r="P272" s="1"/>
-      <c r="Q272" s="33" t="s">
+      <c r="Q272" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="R272" s="33"/>
-      <c r="S272" s="33"/>
-      <c r="T272" s="33"/>
-      <c r="U272" s="33"/>
+      <c r="R272" s="30"/>
+      <c r="S272" s="30"/>
+      <c r="T272" s="30"/>
+      <c r="U272" s="30"/>
       <c r="V272" s="1"/>
     </row>
     <row r="273" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8163,11 +8220,11 @@
       <c r="N273" s="15"/>
       <c r="O273" s="15"/>
       <c r="P273" s="1"/>
-      <c r="Q273" s="33"/>
-      <c r="R273" s="33"/>
-      <c r="S273" s="33"/>
-      <c r="T273" s="33"/>
-      <c r="U273" s="33"/>
+      <c r="Q273" s="30"/>
+      <c r="R273" s="30"/>
+      <c r="S273" s="30"/>
+      <c r="T273" s="30"/>
+      <c r="U273" s="30"/>
       <c r="V273" s="1"/>
     </row>
     <row r="274" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8195,11 +8252,11 @@
       <c r="N274" s="15"/>
       <c r="O274" s="15"/>
       <c r="P274" s="1"/>
-      <c r="Q274" s="33"/>
-      <c r="R274" s="33"/>
-      <c r="S274" s="33"/>
-      <c r="T274" s="33"/>
-      <c r="U274" s="33"/>
+      <c r="Q274" s="30"/>
+      <c r="R274" s="30"/>
+      <c r="S274" s="30"/>
+      <c r="T274" s="30"/>
+      <c r="U274" s="30"/>
       <c r="V274" s="1"/>
     </row>
     <row r="275" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8216,20 +8273,20 @@
       </c>
       <c r="J275" s="4"/>
       <c r="K275" s="4"/>
-      <c r="L275" s="31" t="s">
+      <c r="L275" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M275" s="31"/>
-      <c r="N275" s="31"/>
-      <c r="O275" s="31"/>
+      <c r="M275" s="32"/>
+      <c r="N275" s="32"/>
+      <c r="O275" s="32"/>
       <c r="P275" s="1"/>
-      <c r="Q275" s="33" t="s">
+      <c r="Q275" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="R275" s="33"/>
-      <c r="S275" s="33"/>
-      <c r="T275" s="33"/>
-      <c r="U275" s="33"/>
+      <c r="R275" s="30"/>
+      <c r="S275" s="30"/>
+      <c r="T275" s="30"/>
+      <c r="U275" s="30"/>
       <c r="V275" s="1"/>
     </row>
     <row r="276" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8249,11 +8306,11 @@
       <c r="N276" s="4"/>
       <c r="O276" s="4"/>
       <c r="P276" s="1"/>
-      <c r="Q276" s="33"/>
-      <c r="R276" s="33"/>
-      <c r="S276" s="33"/>
-      <c r="T276" s="33"/>
-      <c r="U276" s="33"/>
+      <c r="Q276" s="30"/>
+      <c r="R276" s="30"/>
+      <c r="S276" s="30"/>
+      <c r="T276" s="30"/>
+      <c r="U276" s="30"/>
       <c r="V276" s="1"/>
     </row>
     <row r="277" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8275,11 +8332,11 @@
       <c r="N277" s="16"/>
       <c r="O277" s="16"/>
       <c r="P277" s="1"/>
-      <c r="Q277" s="33"/>
-      <c r="R277" s="33"/>
-      <c r="S277" s="33"/>
-      <c r="T277" s="33"/>
-      <c r="U277" s="33"/>
+      <c r="Q277" s="30"/>
+      <c r="R277" s="30"/>
+      <c r="S277" s="30"/>
+      <c r="T277" s="30"/>
+      <c r="U277" s="30"/>
       <c r="V277" s="1"/>
     </row>
     <row r="278" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8311,13 +8368,13 @@
       </c>
       <c r="O278" s="20"/>
       <c r="P278" s="1"/>
-      <c r="Q278" s="33" t="s">
+      <c r="Q278" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="R278" s="33"/>
-      <c r="S278" s="33"/>
-      <c r="T278" s="33"/>
-      <c r="U278" s="33"/>
+      <c r="R278" s="30"/>
+      <c r="S278" s="30"/>
+      <c r="T278" s="30"/>
+      <c r="U278" s="30"/>
       <c r="V278" s="1"/>
     </row>
     <row r="279" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8345,11 +8402,11 @@
       </c>
       <c r="O279" s="11"/>
       <c r="P279" s="1"/>
-      <c r="Q279" s="33"/>
-      <c r="R279" s="33"/>
-      <c r="S279" s="33"/>
-      <c r="T279" s="33"/>
-      <c r="U279" s="33"/>
+      <c r="Q279" s="30"/>
+      <c r="R279" s="30"/>
+      <c r="S279" s="30"/>
+      <c r="T279" s="30"/>
+      <c r="U279" s="30"/>
       <c r="V279" s="1"/>
     </row>
     <row r="280" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8377,11 +8434,11 @@
       </c>
       <c r="O280" s="11"/>
       <c r="P280" s="1"/>
-      <c r="Q280" s="33"/>
-      <c r="R280" s="33"/>
-      <c r="S280" s="33"/>
-      <c r="T280" s="33"/>
-      <c r="U280" s="33"/>
+      <c r="Q280" s="30"/>
+      <c r="R280" s="30"/>
+      <c r="S280" s="30"/>
+      <c r="T280" s="30"/>
+      <c r="U280" s="30"/>
       <c r="V280" s="1"/>
     </row>
     <row r="281" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8409,11 +8466,11 @@
       </c>
       <c r="O281" s="11"/>
       <c r="P281" s="1"/>
-      <c r="Q281" s="33"/>
-      <c r="R281" s="33"/>
-      <c r="S281" s="33"/>
-      <c r="T281" s="33"/>
-      <c r="U281" s="33"/>
+      <c r="Q281" s="30"/>
+      <c r="R281" s="30"/>
+      <c r="S281" s="30"/>
+      <c r="T281" s="30"/>
+      <c r="U281" s="30"/>
       <c r="V281" s="1"/>
     </row>
     <row r="282" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8445,11 +8502,11 @@
       </c>
       <c r="O282" s="11"/>
       <c r="P282" s="1"/>
-      <c r="Q282" s="33"/>
-      <c r="R282" s="33"/>
-      <c r="S282" s="33"/>
-      <c r="T282" s="33"/>
-      <c r="U282" s="33"/>
+      <c r="Q282" s="30"/>
+      <c r="R282" s="30"/>
+      <c r="S282" s="30"/>
+      <c r="T282" s="30"/>
+      <c r="U282" s="30"/>
       <c r="V282" s="1"/>
     </row>
     <row r="283" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8469,11 +8526,11 @@
       <c r="N283" s="11"/>
       <c r="O283" s="11"/>
       <c r="P283" s="1"/>
-      <c r="Q283" s="33"/>
-      <c r="R283" s="33"/>
-      <c r="S283" s="33"/>
-      <c r="T283" s="33"/>
-      <c r="U283" s="33"/>
+      <c r="Q283" s="30"/>
+      <c r="R283" s="30"/>
+      <c r="S283" s="30"/>
+      <c r="T283" s="30"/>
+      <c r="U283" s="30"/>
       <c r="V283" s="1"/>
     </row>
     <row r="284" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8493,11 +8550,11 @@
       <c r="N284" s="11"/>
       <c r="O284" s="11"/>
       <c r="P284" s="1"/>
-      <c r="Q284" s="33"/>
-      <c r="R284" s="33"/>
-      <c r="S284" s="33"/>
-      <c r="T284" s="33"/>
-      <c r="U284" s="33"/>
+      <c r="Q284" s="30"/>
+      <c r="R284" s="30"/>
+      <c r="S284" s="30"/>
+      <c r="T284" s="30"/>
+      <c r="U284" s="30"/>
       <c r="V284" s="1"/>
     </row>
     <row r="285" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8517,11 +8574,11 @@
       <c r="N285" s="11"/>
       <c r="O285" s="11"/>
       <c r="P285" s="1"/>
-      <c r="Q285" s="33"/>
-      <c r="R285" s="33"/>
-      <c r="S285" s="33"/>
-      <c r="T285" s="33"/>
-      <c r="U285" s="33"/>
+      <c r="Q285" s="30"/>
+      <c r="R285" s="30"/>
+      <c r="S285" s="30"/>
+      <c r="T285" s="30"/>
+      <c r="U285" s="30"/>
       <c r="V285" s="1"/>
     </row>
     <row r="286" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8545,11 +8602,11 @@
       <c r="N286" s="11"/>
       <c r="O286" s="11"/>
       <c r="P286" s="1"/>
-      <c r="Q286" s="33"/>
-      <c r="R286" s="33"/>
-      <c r="S286" s="33"/>
-      <c r="T286" s="33"/>
-      <c r="U286" s="33"/>
+      <c r="Q286" s="30"/>
+      <c r="R286" s="30"/>
+      <c r="S286" s="30"/>
+      <c r="T286" s="30"/>
+      <c r="U286" s="30"/>
       <c r="V286" s="1"/>
     </row>
     <row r="287" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8569,11 +8626,11 @@
       <c r="N287" s="11"/>
       <c r="O287" s="11"/>
       <c r="P287" s="1"/>
-      <c r="Q287" s="33"/>
-      <c r="R287" s="33"/>
-      <c r="S287" s="33"/>
-      <c r="T287" s="33"/>
-      <c r="U287" s="33"/>
+      <c r="Q287" s="30"/>
+      <c r="R287" s="30"/>
+      <c r="S287" s="30"/>
+      <c r="T287" s="30"/>
+      <c r="U287" s="30"/>
       <c r="V287" s="1"/>
     </row>
     <row r="288" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8593,11 +8650,11 @@
       <c r="N288" s="11"/>
       <c r="O288" s="11"/>
       <c r="P288" s="1"/>
-      <c r="Q288" s="33"/>
-      <c r="R288" s="33"/>
-      <c r="S288" s="33"/>
-      <c r="T288" s="33"/>
-      <c r="U288" s="33"/>
+      <c r="Q288" s="30"/>
+      <c r="R288" s="30"/>
+      <c r="S288" s="30"/>
+      <c r="T288" s="30"/>
+      <c r="U288" s="30"/>
       <c r="V288" s="1"/>
     </row>
     <row r="289" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8617,11 +8674,11 @@
       <c r="N289" s="11"/>
       <c r="O289" s="11"/>
       <c r="P289" s="1"/>
-      <c r="Q289" s="33"/>
-      <c r="R289" s="33"/>
-      <c r="S289" s="33"/>
-      <c r="T289" s="33"/>
-      <c r="U289" s="33"/>
+      <c r="Q289" s="30"/>
+      <c r="R289" s="30"/>
+      <c r="S289" s="30"/>
+      <c r="T289" s="30"/>
+      <c r="U289" s="30"/>
       <c r="V289" s="1"/>
     </row>
     <row r="290" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8645,11 +8702,11 @@
       <c r="N290" s="11"/>
       <c r="O290" s="11"/>
       <c r="P290" s="1"/>
-      <c r="Q290" s="33"/>
-      <c r="R290" s="33"/>
-      <c r="S290" s="33"/>
-      <c r="T290" s="33"/>
-      <c r="U290" s="33"/>
+      <c r="Q290" s="30"/>
+      <c r="R290" s="30"/>
+      <c r="S290" s="30"/>
+      <c r="T290" s="30"/>
+      <c r="U290" s="30"/>
       <c r="V290" s="1"/>
     </row>
     <row r="291" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8669,11 +8726,11 @@
       <c r="N291" s="11"/>
       <c r="O291" s="11"/>
       <c r="P291" s="1"/>
-      <c r="Q291" s="34"/>
-      <c r="R291" s="34"/>
-      <c r="S291" s="34"/>
-      <c r="T291" s="34"/>
-      <c r="U291" s="34"/>
+      <c r="Q291" s="31"/>
+      <c r="R291" s="31"/>
+      <c r="S291" s="31"/>
+      <c r="T291" s="31"/>
+      <c r="U291" s="31"/>
       <c r="V291" s="1"/>
     </row>
     <row r="292" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12590,241 +12647,1315 @@
       <c r="O476" s="4"/>
       <c r="P476" s="1"/>
     </row>
+    <row r="477" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A477" s="21"/>
+      <c r="B477" s="22"/>
+      <c r="C477" s="22"/>
+      <c r="D477" s="22"/>
+      <c r="E477" s="2"/>
+      <c r="F477" s="3"/>
+      <c r="G477" s="3"/>
+      <c r="H477" s="3"/>
+      <c r="I477" s="3"/>
+      <c r="J477" s="3"/>
+      <c r="K477" s="3"/>
+      <c r="L477" s="3"/>
+      <c r="M477" s="3"/>
+      <c r="N477" s="3"/>
+      <c r="O477" s="3"/>
+      <c r="P477" s="1"/>
+    </row>
+    <row r="478" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A478" s="21"/>
+      <c r="B478" s="22"/>
+      <c r="C478" s="22"/>
+      <c r="D478" s="22"/>
+      <c r="E478" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F478" s="23"/>
+      <c r="G478" s="23"/>
+      <c r="H478" s="23"/>
+      <c r="I478" s="23"/>
+      <c r="J478" s="23"/>
+      <c r="K478" s="23"/>
+      <c r="L478" s="23"/>
+      <c r="M478" s="23"/>
+      <c r="N478" s="23"/>
+      <c r="O478" s="23"/>
+      <c r="P478" s="1"/>
+    </row>
+    <row r="479" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A479" s="21"/>
+      <c r="B479" s="22"/>
+      <c r="C479" s="22"/>
+      <c r="D479" s="22"/>
+      <c r="E479" s="23"/>
+      <c r="F479" s="23"/>
+      <c r="G479" s="23"/>
+      <c r="H479" s="23"/>
+      <c r="I479" s="23"/>
+      <c r="J479" s="23"/>
+      <c r="K479" s="23"/>
+      <c r="L479" s="23"/>
+      <c r="M479" s="23"/>
+      <c r="N479" s="23"/>
+      <c r="O479" s="23"/>
+      <c r="P479" s="1"/>
+    </row>
+    <row r="480" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A480" s="21"/>
+      <c r="B480" s="22"/>
+      <c r="C480" s="22"/>
+      <c r="D480" s="22"/>
+      <c r="E480" s="23"/>
+      <c r="F480" s="23"/>
+      <c r="G480" s="23"/>
+      <c r="H480" s="23"/>
+      <c r="I480" s="23"/>
+      <c r="J480" s="23"/>
+      <c r="K480" s="23"/>
+      <c r="L480" s="23"/>
+      <c r="M480" s="23"/>
+      <c r="N480" s="23"/>
+      <c r="O480" s="23"/>
+      <c r="P480" s="1"/>
+    </row>
+    <row r="481" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A481" s="21"/>
+      <c r="B481" s="22"/>
+      <c r="C481" s="22"/>
+      <c r="D481" s="22"/>
+      <c r="E481" s="23"/>
+      <c r="F481" s="23"/>
+      <c r="G481" s="23"/>
+      <c r="H481" s="23"/>
+      <c r="I481" s="23"/>
+      <c r="J481" s="23"/>
+      <c r="K481" s="23"/>
+      <c r="L481" s="23"/>
+      <c r="M481" s="23"/>
+      <c r="N481" s="23"/>
+      <c r="O481" s="23"/>
+      <c r="P481" s="1"/>
+    </row>
+    <row r="482" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A482" s="21"/>
+      <c r="B482" s="22"/>
+      <c r="C482" s="22"/>
+      <c r="D482" s="22"/>
+      <c r="E482" s="24"/>
+      <c r="F482" s="24"/>
+      <c r="G482" s="24"/>
+      <c r="H482" s="24"/>
+      <c r="I482" s="24"/>
+      <c r="J482" s="24"/>
+      <c r="K482" s="24"/>
+      <c r="L482" s="24"/>
+      <c r="M482" s="24"/>
+      <c r="N482" s="24"/>
+      <c r="O482" s="24"/>
+      <c r="P482" s="1"/>
+    </row>
+    <row r="483" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A483" s="21"/>
+      <c r="B483" s="22"/>
+      <c r="C483" s="22"/>
+      <c r="D483" s="22"/>
+      <c r="E483" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F483" s="25"/>
+      <c r="G483" s="25"/>
+      <c r="H483" s="25"/>
+      <c r="I483" s="25"/>
+      <c r="J483" s="25"/>
+      <c r="K483" s="25"/>
+      <c r="L483" s="25"/>
+      <c r="M483" s="25"/>
+      <c r="N483" s="25"/>
+      <c r="O483" s="25"/>
+      <c r="P483" s="1"/>
+    </row>
+    <row r="484" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A484" s="21"/>
+      <c r="B484" s="22"/>
+      <c r="C484" s="22"/>
+      <c r="D484" s="22"/>
+      <c r="E484" s="4"/>
+      <c r="F484" s="5"/>
+      <c r="G484" s="5"/>
+      <c r="H484" s="5"/>
+      <c r="I484" s="5"/>
+      <c r="J484" s="5"/>
+      <c r="K484" s="5"/>
+      <c r="L484" s="5"/>
+      <c r="M484" s="5"/>
+      <c r="N484" s="5"/>
+      <c r="O484" s="5"/>
+      <c r="P484" s="1"/>
+    </row>
+    <row r="485" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A485" s="21"/>
+      <c r="B485" s="22"/>
+      <c r="C485" s="22"/>
+      <c r="D485" s="22"/>
+      <c r="E485" s="4"/>
+      <c r="F485" s="4"/>
+      <c r="G485" s="4"/>
+      <c r="H485" s="4"/>
+      <c r="I485" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J485" s="4"/>
+      <c r="K485" s="4"/>
+      <c r="L485" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M485" s="15"/>
+      <c r="N485" s="15"/>
+      <c r="O485" s="15"/>
+      <c r="P485" s="1"/>
+    </row>
+    <row r="486" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A486" s="3"/>
+      <c r="B486" s="3"/>
+      <c r="C486" s="3"/>
+      <c r="D486" s="3"/>
+      <c r="E486" s="4"/>
+      <c r="F486" s="4"/>
+      <c r="G486" s="4"/>
+      <c r="H486" s="4"/>
+      <c r="I486" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J486" s="4"/>
+      <c r="K486" s="4"/>
+      <c r="L486" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M486" s="15"/>
+      <c r="N486" s="15"/>
+      <c r="O486" s="15"/>
+      <c r="P486" s="1"/>
+    </row>
+    <row r="487" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A487" s="3"/>
+      <c r="B487" s="3"/>
+      <c r="C487" s="3"/>
+      <c r="D487" s="3"/>
+      <c r="E487" s="4"/>
+      <c r="F487" s="4"/>
+      <c r="G487" s="4"/>
+      <c r="H487" s="4"/>
+      <c r="I487" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J487" s="4"/>
+      <c r="K487" s="4"/>
+      <c r="L487" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M487" s="15"/>
+      <c r="N487" s="15"/>
+      <c r="O487" s="15"/>
+      <c r="P487" s="1"/>
+    </row>
+    <row r="488" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A488" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B488" s="27"/>
+      <c r="C488" s="28"/>
+      <c r="D488" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E488" s="27"/>
+      <c r="F488" s="28"/>
+      <c r="G488" s="4"/>
+      <c r="H488" s="4"/>
+      <c r="I488" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J488" s="4"/>
+      <c r="K488" s="4"/>
+      <c r="L488" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M488" s="15"/>
+      <c r="N488" s="15"/>
+      <c r="O488" s="15"/>
+      <c r="P488" s="1"/>
+    </row>
+    <row r="489" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A489" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B489" s="6"/>
+      <c r="C489" s="6"/>
+      <c r="D489" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E489" s="6"/>
+      <c r="F489" s="6"/>
+      <c r="G489" s="4"/>
+      <c r="H489" s="4"/>
+      <c r="I489" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J489" s="4"/>
+      <c r="K489" s="4"/>
+      <c r="L489" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M489" s="15"/>
+      <c r="N489" s="15"/>
+      <c r="O489" s="15"/>
+      <c r="P489" s="1"/>
+    </row>
+    <row r="490" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A490" s="6"/>
+      <c r="B490" s="6"/>
+      <c r="C490" s="6"/>
+      <c r="D490" s="6"/>
+      <c r="E490" s="6"/>
+      <c r="F490" s="6"/>
+      <c r="G490" s="4"/>
+      <c r="H490" s="4"/>
+      <c r="I490" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J490" s="4"/>
+      <c r="K490" s="4"/>
+      <c r="L490" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M490" s="15"/>
+      <c r="N490" s="15"/>
+      <c r="O490" s="15"/>
+      <c r="P490" s="1"/>
+    </row>
+    <row r="491" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A491" s="6"/>
+      <c r="B491" s="6"/>
+      <c r="C491" s="6"/>
+      <c r="D491" s="6"/>
+      <c r="E491" s="6"/>
+      <c r="F491" s="6"/>
+      <c r="G491" s="4"/>
+      <c r="H491" s="4"/>
+      <c r="I491" s="4"/>
+      <c r="J491" s="4"/>
+      <c r="K491" s="4"/>
+      <c r="L491" s="4"/>
+      <c r="M491" s="4"/>
+      <c r="N491" s="4"/>
+      <c r="O491" s="4"/>
+      <c r="P491" s="1"/>
+    </row>
+    <row r="492" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A492" s="6"/>
+      <c r="B492" s="6"/>
+      <c r="C492" s="6"/>
+      <c r="D492" s="6"/>
+      <c r="E492" s="6"/>
+      <c r="F492" s="6"/>
+      <c r="G492" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H492" s="16"/>
+      <c r="I492" s="16"/>
+      <c r="J492" s="16"/>
+      <c r="K492" s="16"/>
+      <c r="L492" s="16"/>
+      <c r="M492" s="16"/>
+      <c r="N492" s="16"/>
+      <c r="O492" s="16"/>
+      <c r="P492" s="1"/>
+    </row>
+    <row r="493" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A493" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B493" s="6"/>
+      <c r="C493" s="6"/>
+      <c r="D493" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E493" s="6"/>
+      <c r="F493" s="6"/>
+      <c r="G493" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H493" s="18"/>
+      <c r="I493" s="19"/>
+      <c r="J493" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K493" s="20"/>
+      <c r="L493" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M493" s="20"/>
+      <c r="N493" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O493" s="20"/>
+      <c r="P493" s="1"/>
+    </row>
+    <row r="494" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A494" s="6"/>
+      <c r="B494" s="6"/>
+      <c r="C494" s="6"/>
+      <c r="D494" s="6"/>
+      <c r="E494" s="6"/>
+      <c r="F494" s="6"/>
+      <c r="G494" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H494" s="8"/>
+      <c r="I494" s="9"/>
+      <c r="J494" s="10">
+        <v>45568</v>
+      </c>
+      <c r="K494" s="11"/>
+      <c r="L494" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M494" s="11"/>
+      <c r="N494" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O494" s="11"/>
+      <c r="P494" s="1"/>
+    </row>
+    <row r="495" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A495" s="6"/>
+      <c r="B495" s="6"/>
+      <c r="C495" s="6"/>
+      <c r="D495" s="6"/>
+      <c r="E495" s="6"/>
+      <c r="F495" s="6"/>
+      <c r="G495" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H495" s="8"/>
+      <c r="I495" s="9"/>
+      <c r="J495" s="10">
+        <v>45568</v>
+      </c>
+      <c r="K495" s="11"/>
+      <c r="L495" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M495" s="11"/>
+      <c r="N495" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O495" s="11"/>
+      <c r="P495" s="1"/>
+    </row>
+    <row r="496" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A496" s="6"/>
+      <c r="B496" s="6"/>
+      <c r="C496" s="6"/>
+      <c r="D496" s="6"/>
+      <c r="E496" s="6"/>
+      <c r="F496" s="6"/>
+      <c r="G496" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H496" s="8"/>
+      <c r="I496" s="9"/>
+      <c r="J496" s="10">
+        <v>45568</v>
+      </c>
+      <c r="K496" s="11"/>
+      <c r="L496" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M496" s="11"/>
+      <c r="N496" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O496" s="11"/>
+      <c r="P496" s="1"/>
+    </row>
+    <row r="497" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A497" s="6"/>
+      <c r="B497" s="6"/>
+      <c r="C497" s="6"/>
+      <c r="D497" s="6"/>
+      <c r="E497" s="6"/>
+      <c r="F497" s="6"/>
+      <c r="G497" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H497" s="8"/>
+      <c r="I497" s="9"/>
+      <c r="J497" s="10">
+        <v>45568</v>
+      </c>
+      <c r="K497" s="11"/>
+      <c r="L497" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M497" s="11"/>
+      <c r="N497" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O497" s="11"/>
+      <c r="P497" s="1"/>
+    </row>
+    <row r="498" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A498" s="6"/>
+      <c r="B498" s="6"/>
+      <c r="C498" s="6"/>
+      <c r="D498" s="6"/>
+      <c r="E498" s="6"/>
+      <c r="F498" s="6"/>
+      <c r="G498" s="7"/>
+      <c r="H498" s="8"/>
+      <c r="I498" s="9"/>
+      <c r="J498" s="10"/>
+      <c r="K498" s="11"/>
+      <c r="L498" s="11"/>
+      <c r="M498" s="11"/>
+      <c r="N498" s="11"/>
+      <c r="O498" s="11"/>
+      <c r="P498" s="1"/>
+    </row>
+    <row r="499" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A499" s="6"/>
+      <c r="B499" s="6"/>
+      <c r="C499" s="6"/>
+      <c r="D499" s="6"/>
+      <c r="E499" s="6"/>
+      <c r="F499" s="6"/>
+      <c r="G499" s="7"/>
+      <c r="H499" s="8"/>
+      <c r="I499" s="9"/>
+      <c r="J499" s="10"/>
+      <c r="K499" s="11"/>
+      <c r="L499" s="11"/>
+      <c r="M499" s="11"/>
+      <c r="N499" s="11"/>
+      <c r="O499" s="11"/>
+      <c r="P499" s="1"/>
+    </row>
+    <row r="500" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A500" s="6"/>
+      <c r="B500" s="6"/>
+      <c r="C500" s="6"/>
+      <c r="D500" s="6"/>
+      <c r="E500" s="6"/>
+      <c r="F500" s="6"/>
+      <c r="G500" s="12"/>
+      <c r="H500" s="13"/>
+      <c r="I500" s="14"/>
+      <c r="J500" s="11"/>
+      <c r="K500" s="11"/>
+      <c r="L500" s="11"/>
+      <c r="M500" s="11"/>
+      <c r="N500" s="11"/>
+      <c r="O500" s="11"/>
+      <c r="P500" s="1"/>
+    </row>
+    <row r="501" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="3"/>
+      <c r="B501" s="3"/>
+      <c r="C501" s="3"/>
+      <c r="D501" s="3"/>
+      <c r="E501" s="4"/>
+      <c r="F501" s="4"/>
+      <c r="G501" s="4"/>
+      <c r="H501" s="4"/>
+      <c r="I501" s="4"/>
+      <c r="J501" s="4"/>
+      <c r="K501" s="4"/>
+      <c r="L501" s="4"/>
+      <c r="M501" s="4"/>
+      <c r="N501" s="4"/>
+      <c r="O501" s="4"/>
+      <c r="P501" s="1"/>
+    </row>
+    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A502" s="3"/>
+      <c r="B502" s="3"/>
+      <c r="C502" s="3"/>
+      <c r="D502" s="3"/>
+      <c r="E502" s="4"/>
+      <c r="F502" s="4"/>
+      <c r="G502" s="4"/>
+      <c r="H502" s="4"/>
+      <c r="I502" s="4"/>
+      <c r="J502" s="4"/>
+      <c r="K502" s="4"/>
+      <c r="L502" s="4"/>
+      <c r="M502" s="4"/>
+      <c r="N502" s="4"/>
+      <c r="O502" s="4"/>
+      <c r="P502" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="963">
-    <mergeCell ref="A471:C474"/>
-    <mergeCell ref="D471:F474"/>
-    <mergeCell ref="G471:I471"/>
-    <mergeCell ref="J471:K471"/>
-    <mergeCell ref="L471:M471"/>
-    <mergeCell ref="N471:O471"/>
-    <mergeCell ref="G472:I472"/>
-    <mergeCell ref="J472:K472"/>
-    <mergeCell ref="L472:M472"/>
-    <mergeCell ref="N472:O472"/>
-    <mergeCell ref="G473:I473"/>
-    <mergeCell ref="J473:K473"/>
-    <mergeCell ref="L473:M473"/>
-    <mergeCell ref="N473:O473"/>
-    <mergeCell ref="G474:I474"/>
-    <mergeCell ref="J474:K474"/>
-    <mergeCell ref="L474:M474"/>
-    <mergeCell ref="N474:O474"/>
-    <mergeCell ref="A463:C466"/>
-    <mergeCell ref="D463:F466"/>
-    <mergeCell ref="L463:O463"/>
-    <mergeCell ref="L464:O464"/>
-    <mergeCell ref="G466:O466"/>
-    <mergeCell ref="A467:C470"/>
-    <mergeCell ref="D467:F470"/>
-    <mergeCell ref="G467:I467"/>
-    <mergeCell ref="J467:K467"/>
-    <mergeCell ref="L467:M467"/>
-    <mergeCell ref="N467:O467"/>
-    <mergeCell ref="G468:I468"/>
-    <mergeCell ref="J468:K468"/>
-    <mergeCell ref="L468:M468"/>
-    <mergeCell ref="N468:O468"/>
-    <mergeCell ref="G469:I469"/>
-    <mergeCell ref="J469:K469"/>
-    <mergeCell ref="L469:M469"/>
-    <mergeCell ref="N469:O469"/>
-    <mergeCell ref="G470:I470"/>
-    <mergeCell ref="J470:K470"/>
-    <mergeCell ref="L470:M470"/>
-    <mergeCell ref="N470:O470"/>
-    <mergeCell ref="A451:D459"/>
-    <mergeCell ref="E452:O455"/>
-    <mergeCell ref="E456:O456"/>
-    <mergeCell ref="E457:O457"/>
-    <mergeCell ref="L459:O459"/>
-    <mergeCell ref="L460:O460"/>
-    <mergeCell ref="L461:O461"/>
-    <mergeCell ref="A462:C462"/>
-    <mergeCell ref="D462:F462"/>
-    <mergeCell ref="L462:O462"/>
-    <mergeCell ref="A418:C421"/>
-    <mergeCell ref="D418:F421"/>
-    <mergeCell ref="G418:I418"/>
-    <mergeCell ref="J418:K418"/>
-    <mergeCell ref="L418:M418"/>
-    <mergeCell ref="N418:O418"/>
-    <mergeCell ref="G419:I419"/>
-    <mergeCell ref="J419:K419"/>
-    <mergeCell ref="L419:M419"/>
-    <mergeCell ref="N419:O419"/>
-    <mergeCell ref="G420:I420"/>
-    <mergeCell ref="J420:K420"/>
-    <mergeCell ref="L420:M420"/>
-    <mergeCell ref="N420:O420"/>
-    <mergeCell ref="G421:I421"/>
-    <mergeCell ref="J421:K421"/>
-    <mergeCell ref="L421:M421"/>
-    <mergeCell ref="N421:O421"/>
-    <mergeCell ref="A410:C413"/>
-    <mergeCell ref="D410:F413"/>
-    <mergeCell ref="L410:O410"/>
-    <mergeCell ref="L411:O411"/>
-    <mergeCell ref="G413:O413"/>
-    <mergeCell ref="A414:C417"/>
-    <mergeCell ref="D414:F417"/>
-    <mergeCell ref="G414:I414"/>
-    <mergeCell ref="J414:K414"/>
-    <mergeCell ref="L414:M414"/>
-    <mergeCell ref="N414:O414"/>
-    <mergeCell ref="G415:I415"/>
-    <mergeCell ref="J415:K415"/>
-    <mergeCell ref="L415:M415"/>
-    <mergeCell ref="N415:O415"/>
-    <mergeCell ref="G416:I416"/>
-    <mergeCell ref="J416:K416"/>
-    <mergeCell ref="L416:M416"/>
-    <mergeCell ref="N416:O416"/>
-    <mergeCell ref="G417:I417"/>
-    <mergeCell ref="J417:K417"/>
-    <mergeCell ref="L417:M417"/>
-    <mergeCell ref="N417:O417"/>
-    <mergeCell ref="A398:D406"/>
-    <mergeCell ref="E399:O402"/>
-    <mergeCell ref="E403:O403"/>
-    <mergeCell ref="E404:O404"/>
-    <mergeCell ref="L406:O406"/>
-    <mergeCell ref="L407:O407"/>
-    <mergeCell ref="L408:O408"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="D409:F409"/>
-    <mergeCell ref="L409:O409"/>
-    <mergeCell ref="A392:C395"/>
-    <mergeCell ref="D392:F395"/>
-    <mergeCell ref="G392:I392"/>
-    <mergeCell ref="J392:K392"/>
-    <mergeCell ref="L392:M392"/>
-    <mergeCell ref="N392:O392"/>
-    <mergeCell ref="G393:I393"/>
-    <mergeCell ref="J393:K393"/>
-    <mergeCell ref="L393:M393"/>
-    <mergeCell ref="N393:O393"/>
-    <mergeCell ref="G394:I394"/>
-    <mergeCell ref="J394:K394"/>
-    <mergeCell ref="L394:M394"/>
-    <mergeCell ref="N394:O394"/>
-    <mergeCell ref="G395:I395"/>
-    <mergeCell ref="J395:K395"/>
-    <mergeCell ref="L395:M395"/>
-    <mergeCell ref="N395:O395"/>
-    <mergeCell ref="A384:C387"/>
-    <mergeCell ref="D384:F387"/>
-    <mergeCell ref="L384:O384"/>
-    <mergeCell ref="L385:O385"/>
-    <mergeCell ref="G387:O387"/>
-    <mergeCell ref="A388:C391"/>
-    <mergeCell ref="D388:F391"/>
-    <mergeCell ref="G388:I388"/>
-    <mergeCell ref="J388:K388"/>
-    <mergeCell ref="L388:M388"/>
-    <mergeCell ref="N388:O388"/>
-    <mergeCell ref="G389:I389"/>
-    <mergeCell ref="J389:K389"/>
-    <mergeCell ref="L389:M389"/>
-    <mergeCell ref="N389:O389"/>
-    <mergeCell ref="G390:I390"/>
-    <mergeCell ref="J390:K390"/>
-    <mergeCell ref="L390:M390"/>
-    <mergeCell ref="N390:O390"/>
-    <mergeCell ref="G391:I391"/>
-    <mergeCell ref="J391:K391"/>
-    <mergeCell ref="L391:M391"/>
-    <mergeCell ref="N391:O391"/>
-    <mergeCell ref="A372:D380"/>
-    <mergeCell ref="E373:O376"/>
-    <mergeCell ref="E377:O377"/>
-    <mergeCell ref="E378:O378"/>
-    <mergeCell ref="L380:O380"/>
-    <mergeCell ref="L381:O381"/>
-    <mergeCell ref="L382:O382"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="D383:F383"/>
-    <mergeCell ref="L383:O383"/>
-    <mergeCell ref="A340:C343"/>
-    <mergeCell ref="D340:F343"/>
-    <mergeCell ref="G340:I340"/>
-    <mergeCell ref="J340:K340"/>
-    <mergeCell ref="L340:M340"/>
-    <mergeCell ref="N340:O340"/>
-    <mergeCell ref="G341:I341"/>
-    <mergeCell ref="J341:K341"/>
-    <mergeCell ref="L341:M341"/>
-    <mergeCell ref="N341:O341"/>
-    <mergeCell ref="G342:I342"/>
-    <mergeCell ref="J342:K342"/>
-    <mergeCell ref="L342:M342"/>
-    <mergeCell ref="N342:O342"/>
-    <mergeCell ref="G343:I343"/>
-    <mergeCell ref="J343:K343"/>
-    <mergeCell ref="L343:M343"/>
-    <mergeCell ref="N343:O343"/>
-    <mergeCell ref="A332:C335"/>
-    <mergeCell ref="D332:F335"/>
-    <mergeCell ref="L332:O332"/>
-    <mergeCell ref="L333:O333"/>
-    <mergeCell ref="G335:O335"/>
-    <mergeCell ref="A336:C339"/>
-    <mergeCell ref="D336:F339"/>
-    <mergeCell ref="G336:I336"/>
-    <mergeCell ref="J336:K336"/>
-    <mergeCell ref="L336:M336"/>
-    <mergeCell ref="N336:O336"/>
-    <mergeCell ref="G337:I337"/>
-    <mergeCell ref="J337:K337"/>
-    <mergeCell ref="L337:M337"/>
-    <mergeCell ref="N337:O337"/>
-    <mergeCell ref="G338:I338"/>
-    <mergeCell ref="J338:K338"/>
-    <mergeCell ref="L338:M338"/>
-    <mergeCell ref="N338:O338"/>
-    <mergeCell ref="G339:I339"/>
-    <mergeCell ref="J339:K339"/>
-    <mergeCell ref="L339:M339"/>
-    <mergeCell ref="N339:O339"/>
-    <mergeCell ref="A320:D328"/>
-    <mergeCell ref="E321:O324"/>
-    <mergeCell ref="E325:O325"/>
-    <mergeCell ref="E326:O326"/>
-    <mergeCell ref="L328:O328"/>
-    <mergeCell ref="L329:O329"/>
-    <mergeCell ref="L330:O330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="D331:F331"/>
-    <mergeCell ref="L331:O331"/>
-    <mergeCell ref="Q266:U267"/>
-    <mergeCell ref="Q269:U271"/>
-    <mergeCell ref="Q272:U274"/>
-    <mergeCell ref="Q275:U277"/>
-    <mergeCell ref="Q278:U280"/>
-    <mergeCell ref="Q281:U283"/>
-    <mergeCell ref="Q284:U286"/>
-    <mergeCell ref="Q287:U289"/>
-    <mergeCell ref="Q290:U291"/>
-    <mergeCell ref="G292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="L292:M292"/>
-    <mergeCell ref="N292:O292"/>
-    <mergeCell ref="G293:I293"/>
-    <mergeCell ref="J293:K293"/>
-    <mergeCell ref="L293:M293"/>
-    <mergeCell ref="N293:O293"/>
-    <mergeCell ref="G289:I289"/>
-    <mergeCell ref="J289:K289"/>
-    <mergeCell ref="L289:M289"/>
-    <mergeCell ref="N289:O289"/>
-    <mergeCell ref="G290:I290"/>
-    <mergeCell ref="J290:K290"/>
-    <mergeCell ref="L290:M290"/>
-    <mergeCell ref="N290:O290"/>
-    <mergeCell ref="G291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="L291:M291"/>
-    <mergeCell ref="N291:O291"/>
+  <mergeCells count="1014">
+    <mergeCell ref="A497:C500"/>
+    <mergeCell ref="D497:F500"/>
+    <mergeCell ref="G497:I497"/>
+    <mergeCell ref="J497:K497"/>
+    <mergeCell ref="L497:M497"/>
+    <mergeCell ref="N497:O497"/>
+    <mergeCell ref="G498:I498"/>
+    <mergeCell ref="J498:K498"/>
+    <mergeCell ref="L498:M498"/>
+    <mergeCell ref="N498:O498"/>
+    <mergeCell ref="G499:I499"/>
+    <mergeCell ref="J499:K499"/>
+    <mergeCell ref="L499:M499"/>
+    <mergeCell ref="N499:O499"/>
+    <mergeCell ref="G500:I500"/>
+    <mergeCell ref="J500:K500"/>
+    <mergeCell ref="L500:M500"/>
+    <mergeCell ref="N500:O500"/>
+    <mergeCell ref="A489:C492"/>
+    <mergeCell ref="D489:F492"/>
+    <mergeCell ref="L489:O489"/>
+    <mergeCell ref="L490:O490"/>
+    <mergeCell ref="G492:O492"/>
+    <mergeCell ref="A493:C496"/>
+    <mergeCell ref="D493:F496"/>
+    <mergeCell ref="G493:I493"/>
+    <mergeCell ref="J493:K493"/>
+    <mergeCell ref="L493:M493"/>
+    <mergeCell ref="N493:O493"/>
+    <mergeCell ref="G494:I494"/>
+    <mergeCell ref="J494:K494"/>
+    <mergeCell ref="L494:M494"/>
+    <mergeCell ref="N494:O494"/>
+    <mergeCell ref="G495:I495"/>
+    <mergeCell ref="J495:K495"/>
+    <mergeCell ref="L495:M495"/>
+    <mergeCell ref="N495:O495"/>
+    <mergeCell ref="G496:I496"/>
+    <mergeCell ref="J496:K496"/>
+    <mergeCell ref="L496:M496"/>
+    <mergeCell ref="N496:O496"/>
+    <mergeCell ref="A477:D485"/>
+    <mergeCell ref="E478:O481"/>
+    <mergeCell ref="E482:O482"/>
+    <mergeCell ref="E483:O483"/>
+    <mergeCell ref="L485:O485"/>
+    <mergeCell ref="L486:O486"/>
+    <mergeCell ref="L487:O487"/>
+    <mergeCell ref="A488:C488"/>
+    <mergeCell ref="D488:F488"/>
+    <mergeCell ref="L488:O488"/>
+    <mergeCell ref="A445:C448"/>
+    <mergeCell ref="D445:F448"/>
+    <mergeCell ref="G445:I445"/>
+    <mergeCell ref="J445:K445"/>
+    <mergeCell ref="L445:M445"/>
+    <mergeCell ref="N445:O445"/>
+    <mergeCell ref="G446:I446"/>
+    <mergeCell ref="J446:K446"/>
+    <mergeCell ref="L446:M446"/>
+    <mergeCell ref="N446:O446"/>
+    <mergeCell ref="G447:I447"/>
+    <mergeCell ref="J447:K447"/>
+    <mergeCell ref="L447:M447"/>
+    <mergeCell ref="N447:O447"/>
+    <mergeCell ref="G448:I448"/>
+    <mergeCell ref="J448:K448"/>
+    <mergeCell ref="L448:M448"/>
+    <mergeCell ref="N448:O448"/>
+    <mergeCell ref="A437:C440"/>
+    <mergeCell ref="D437:F440"/>
+    <mergeCell ref="L437:O437"/>
+    <mergeCell ref="L438:O438"/>
+    <mergeCell ref="G440:O440"/>
+    <mergeCell ref="A441:C444"/>
+    <mergeCell ref="D441:F444"/>
+    <mergeCell ref="G441:I441"/>
+    <mergeCell ref="J441:K441"/>
+    <mergeCell ref="L441:M441"/>
+    <mergeCell ref="N441:O441"/>
+    <mergeCell ref="G442:I442"/>
+    <mergeCell ref="J442:K442"/>
+    <mergeCell ref="L442:M442"/>
+    <mergeCell ref="N442:O442"/>
+    <mergeCell ref="G443:I443"/>
+    <mergeCell ref="J443:K443"/>
+    <mergeCell ref="L443:M443"/>
+    <mergeCell ref="N443:O443"/>
+    <mergeCell ref="G444:I444"/>
+    <mergeCell ref="J444:K444"/>
+    <mergeCell ref="L444:M444"/>
+    <mergeCell ref="N444:O444"/>
+    <mergeCell ref="A425:D433"/>
+    <mergeCell ref="E426:O429"/>
+    <mergeCell ref="E430:O430"/>
+    <mergeCell ref="E431:O431"/>
+    <mergeCell ref="L433:O433"/>
+    <mergeCell ref="L434:O434"/>
+    <mergeCell ref="L435:O435"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="D436:F436"/>
+    <mergeCell ref="L436:O436"/>
+    <mergeCell ref="A366:C369"/>
+    <mergeCell ref="D366:F369"/>
+    <mergeCell ref="G366:I366"/>
+    <mergeCell ref="J366:K366"/>
+    <mergeCell ref="L366:M366"/>
+    <mergeCell ref="N366:O366"/>
+    <mergeCell ref="G367:I367"/>
+    <mergeCell ref="J367:K367"/>
+    <mergeCell ref="L367:M367"/>
+    <mergeCell ref="N367:O367"/>
+    <mergeCell ref="G368:I368"/>
+    <mergeCell ref="J368:K368"/>
+    <mergeCell ref="L368:M368"/>
+    <mergeCell ref="N368:O368"/>
+    <mergeCell ref="G369:I369"/>
+    <mergeCell ref="J369:K369"/>
+    <mergeCell ref="L369:M369"/>
+    <mergeCell ref="N369:O369"/>
+    <mergeCell ref="A358:C361"/>
+    <mergeCell ref="D358:F361"/>
+    <mergeCell ref="L358:O358"/>
+    <mergeCell ref="L359:O359"/>
+    <mergeCell ref="G361:O361"/>
+    <mergeCell ref="A362:C365"/>
+    <mergeCell ref="D362:F365"/>
+    <mergeCell ref="G362:I362"/>
+    <mergeCell ref="J362:K362"/>
+    <mergeCell ref="L362:M362"/>
+    <mergeCell ref="N362:O362"/>
+    <mergeCell ref="G363:I363"/>
+    <mergeCell ref="J363:K363"/>
+    <mergeCell ref="L363:M363"/>
+    <mergeCell ref="N363:O363"/>
+    <mergeCell ref="G364:I364"/>
+    <mergeCell ref="J364:K364"/>
+    <mergeCell ref="L364:M364"/>
+    <mergeCell ref="N364:O364"/>
+    <mergeCell ref="G365:I365"/>
+    <mergeCell ref="J365:K365"/>
+    <mergeCell ref="L365:M365"/>
+    <mergeCell ref="N365:O365"/>
+    <mergeCell ref="A346:D354"/>
+    <mergeCell ref="E347:O350"/>
+    <mergeCell ref="E351:O351"/>
+    <mergeCell ref="E352:O352"/>
+    <mergeCell ref="L354:O354"/>
+    <mergeCell ref="L355:O355"/>
+    <mergeCell ref="L356:O356"/>
+    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="D357:F357"/>
+    <mergeCell ref="L357:O357"/>
+    <mergeCell ref="A314:C317"/>
+    <mergeCell ref="D314:F317"/>
+    <mergeCell ref="G314:I314"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="L314:M314"/>
+    <mergeCell ref="N314:O314"/>
+    <mergeCell ref="G315:I315"/>
+    <mergeCell ref="J315:K315"/>
+    <mergeCell ref="L315:M315"/>
+    <mergeCell ref="N315:O315"/>
+    <mergeCell ref="G316:I316"/>
+    <mergeCell ref="J316:K316"/>
+    <mergeCell ref="L316:M316"/>
+    <mergeCell ref="N316:O316"/>
+    <mergeCell ref="G317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="L317:M317"/>
+    <mergeCell ref="N317:O317"/>
+    <mergeCell ref="A306:C309"/>
+    <mergeCell ref="D306:F309"/>
+    <mergeCell ref="L306:O306"/>
+    <mergeCell ref="L307:O307"/>
+    <mergeCell ref="G309:O309"/>
+    <mergeCell ref="A310:C313"/>
+    <mergeCell ref="D310:F313"/>
+    <mergeCell ref="G310:I310"/>
+    <mergeCell ref="J310:K310"/>
+    <mergeCell ref="L310:M310"/>
+    <mergeCell ref="N310:O310"/>
+    <mergeCell ref="G311:I311"/>
+    <mergeCell ref="J311:K311"/>
+    <mergeCell ref="L311:M311"/>
+    <mergeCell ref="N311:O311"/>
+    <mergeCell ref="G312:I312"/>
+    <mergeCell ref="J312:K312"/>
+    <mergeCell ref="L312:M312"/>
+    <mergeCell ref="N312:O312"/>
+    <mergeCell ref="G313:I313"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="L313:M313"/>
+    <mergeCell ref="N313:O313"/>
+    <mergeCell ref="A294:D302"/>
+    <mergeCell ref="E295:O298"/>
+    <mergeCell ref="E299:O299"/>
+    <mergeCell ref="E300:O300"/>
+    <mergeCell ref="L302:O302"/>
+    <mergeCell ref="L303:O303"/>
+    <mergeCell ref="L304:O304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="D305:F305"/>
+    <mergeCell ref="L305:O305"/>
+    <mergeCell ref="A256:C259"/>
+    <mergeCell ref="D256:F259"/>
+    <mergeCell ref="G256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="L256:M256"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="G257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="L257:M257"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="G258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="L258:M258"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="G259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="L259:M259"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="A248:C251"/>
+    <mergeCell ref="D248:F251"/>
+    <mergeCell ref="L248:O248"/>
+    <mergeCell ref="L249:O249"/>
+    <mergeCell ref="G251:O251"/>
+    <mergeCell ref="A252:C255"/>
+    <mergeCell ref="D252:F255"/>
+    <mergeCell ref="G252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="L252:M252"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="G253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="L253:M253"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="G254:I254"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="L254:M254"/>
+    <mergeCell ref="N254:O254"/>
+    <mergeCell ref="G255:I255"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="L255:M255"/>
+    <mergeCell ref="N255:O255"/>
+    <mergeCell ref="A236:D244"/>
+    <mergeCell ref="E237:O240"/>
+    <mergeCell ref="E241:O241"/>
+    <mergeCell ref="E242:O242"/>
+    <mergeCell ref="L244:O244"/>
+    <mergeCell ref="L245:O245"/>
+    <mergeCell ref="L246:O246"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="D247:F247"/>
+    <mergeCell ref="L247:O247"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="E6:O6"/>
+    <mergeCell ref="E7:O7"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="A1:D9"/>
+    <mergeCell ref="E2:O5"/>
+    <mergeCell ref="A13:C16"/>
+    <mergeCell ref="A17:C20"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="D17:F20"/>
+    <mergeCell ref="A21:C24"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A27:D35"/>
+    <mergeCell ref="E28:O31"/>
+    <mergeCell ref="E32:O32"/>
+    <mergeCell ref="E33:O33"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D21:F24"/>
+    <mergeCell ref="A43:C46"/>
+    <mergeCell ref="D43:F46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="A39:C42"/>
+    <mergeCell ref="D39:F42"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A53:D61"/>
+    <mergeCell ref="E54:O57"/>
+    <mergeCell ref="E58:O58"/>
+    <mergeCell ref="E59:O59"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="A47:C50"/>
+    <mergeCell ref="D47:F50"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="A65:C68"/>
+    <mergeCell ref="D65:F68"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="G68:O68"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A69:C72"/>
+    <mergeCell ref="D69:F72"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A79:D87"/>
+    <mergeCell ref="E80:O83"/>
+    <mergeCell ref="E84:O84"/>
+    <mergeCell ref="E85:O85"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A73:C76"/>
+    <mergeCell ref="D73:F76"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="A91:C94"/>
+    <mergeCell ref="D91:F94"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="G94:O94"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A95:C98"/>
+    <mergeCell ref="D95:F98"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A105:D113"/>
+    <mergeCell ref="E106:O109"/>
+    <mergeCell ref="E110:O110"/>
+    <mergeCell ref="E111:O111"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A99:C102"/>
+    <mergeCell ref="D99:F102"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="A117:C120"/>
+    <mergeCell ref="D117:F120"/>
+    <mergeCell ref="L117:O117"/>
+    <mergeCell ref="L118:O118"/>
+    <mergeCell ref="G120:O120"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A121:C124"/>
+    <mergeCell ref="D121:F124"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A131:D139"/>
+    <mergeCell ref="E132:O135"/>
+    <mergeCell ref="E136:O136"/>
+    <mergeCell ref="E137:O137"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A125:C128"/>
+    <mergeCell ref="D125:F128"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="L142:O142"/>
+    <mergeCell ref="A143:C146"/>
+    <mergeCell ref="D143:F146"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="G146:O146"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="G150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="A147:C150"/>
+    <mergeCell ref="D147:F150"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A157:D165"/>
+    <mergeCell ref="E158:O161"/>
+    <mergeCell ref="E162:O162"/>
+    <mergeCell ref="E163:O163"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="L166:O166"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="A151:C154"/>
+    <mergeCell ref="D151:F154"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="A169:C172"/>
+    <mergeCell ref="D169:F172"/>
+    <mergeCell ref="L169:O169"/>
+    <mergeCell ref="L170:O170"/>
+    <mergeCell ref="G172:O172"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="L175:M175"/>
+    <mergeCell ref="N175:O175"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="L176:M176"/>
+    <mergeCell ref="N176:O176"/>
+    <mergeCell ref="A173:C176"/>
+    <mergeCell ref="D173:F176"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="N173:O173"/>
+    <mergeCell ref="G174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="L174:M174"/>
+    <mergeCell ref="N174:O174"/>
+    <mergeCell ref="A184:D192"/>
+    <mergeCell ref="E185:O188"/>
+    <mergeCell ref="E189:O189"/>
+    <mergeCell ref="E190:O190"/>
+    <mergeCell ref="L192:O192"/>
+    <mergeCell ref="L193:O193"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="G180:I180"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="L180:M180"/>
+    <mergeCell ref="N180:O180"/>
+    <mergeCell ref="A177:C180"/>
+    <mergeCell ref="D177:F180"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="L177:M177"/>
+    <mergeCell ref="N177:O177"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="L178:M178"/>
+    <mergeCell ref="N178:O178"/>
+    <mergeCell ref="L194:O194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="L195:O195"/>
+    <mergeCell ref="A196:C199"/>
+    <mergeCell ref="D196:F199"/>
+    <mergeCell ref="L196:O196"/>
+    <mergeCell ref="L197:O197"/>
+    <mergeCell ref="G199:O199"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="L202:M202"/>
+    <mergeCell ref="N202:O202"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="L203:M203"/>
+    <mergeCell ref="N203:O203"/>
+    <mergeCell ref="A200:C203"/>
+    <mergeCell ref="D200:F203"/>
+    <mergeCell ref="G200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="L200:M200"/>
+    <mergeCell ref="N200:O200"/>
+    <mergeCell ref="G201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="L201:M201"/>
+    <mergeCell ref="N201:O201"/>
+    <mergeCell ref="A210:D218"/>
+    <mergeCell ref="E211:O214"/>
+    <mergeCell ref="E215:O215"/>
+    <mergeCell ref="E216:O216"/>
+    <mergeCell ref="L218:O218"/>
+    <mergeCell ref="L219:O219"/>
+    <mergeCell ref="G206:I206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="N206:O206"/>
+    <mergeCell ref="G207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="N207:O207"/>
+    <mergeCell ref="A204:C207"/>
+    <mergeCell ref="D204:F207"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="L204:M204"/>
+    <mergeCell ref="N204:O204"/>
+    <mergeCell ref="G205:I205"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="L205:M205"/>
+    <mergeCell ref="N205:O205"/>
+    <mergeCell ref="L220:O220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="L221:O221"/>
+    <mergeCell ref="A222:C225"/>
+    <mergeCell ref="D222:F225"/>
+    <mergeCell ref="L222:O222"/>
+    <mergeCell ref="L223:O223"/>
+    <mergeCell ref="G225:O225"/>
+    <mergeCell ref="G228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="L228:M228"/>
+    <mergeCell ref="N228:O228"/>
+    <mergeCell ref="G229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="L229:M229"/>
+    <mergeCell ref="N229:O229"/>
+    <mergeCell ref="A226:C229"/>
+    <mergeCell ref="D226:F229"/>
+    <mergeCell ref="G226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="L226:M226"/>
+    <mergeCell ref="N226:O226"/>
+    <mergeCell ref="G227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="L227:M227"/>
+    <mergeCell ref="N227:O227"/>
+    <mergeCell ref="G232:I232"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="L232:M232"/>
+    <mergeCell ref="N232:O232"/>
+    <mergeCell ref="G233:I233"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="L233:M233"/>
+    <mergeCell ref="N233:O233"/>
+    <mergeCell ref="A230:C233"/>
+    <mergeCell ref="D230:F233"/>
+    <mergeCell ref="G230:I230"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="L230:M230"/>
+    <mergeCell ref="N230:O230"/>
+    <mergeCell ref="G231:I231"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="L231:M231"/>
+    <mergeCell ref="N231:O231"/>
+    <mergeCell ref="A262:D270"/>
+    <mergeCell ref="E263:O266"/>
+    <mergeCell ref="E267:O267"/>
+    <mergeCell ref="E268:O268"/>
+    <mergeCell ref="L270:O270"/>
+    <mergeCell ref="L271:O271"/>
+    <mergeCell ref="L272:O272"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="D273:F273"/>
+    <mergeCell ref="L273:O273"/>
+    <mergeCell ref="A274:C277"/>
+    <mergeCell ref="D274:F277"/>
+    <mergeCell ref="L274:O274"/>
+    <mergeCell ref="L275:O275"/>
+    <mergeCell ref="G277:O277"/>
+    <mergeCell ref="A278:C281"/>
+    <mergeCell ref="D278:F281"/>
+    <mergeCell ref="G278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="L278:M278"/>
+    <mergeCell ref="N278:O278"/>
+    <mergeCell ref="G279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="L279:M279"/>
+    <mergeCell ref="N279:O279"/>
+    <mergeCell ref="A282:C285"/>
+    <mergeCell ref="D282:F285"/>
+    <mergeCell ref="G280:I280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="L280:M280"/>
+    <mergeCell ref="N281:O281"/>
+    <mergeCell ref="G281:I281"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="L281:M281"/>
+    <mergeCell ref="N282:O282"/>
+    <mergeCell ref="G282:I282"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="L282:M282"/>
+    <mergeCell ref="G283:I283"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="L283:M283"/>
+    <mergeCell ref="N283:O283"/>
+    <mergeCell ref="N280:O280"/>
     <mergeCell ref="A286:C289"/>
     <mergeCell ref="D286:F289"/>
     <mergeCell ref="A290:C293"/>
@@ -12849,712 +13980,239 @@
     <mergeCell ref="J288:K288"/>
     <mergeCell ref="L288:M288"/>
     <mergeCell ref="N288:O288"/>
-    <mergeCell ref="A282:C285"/>
-    <mergeCell ref="D282:F285"/>
-    <mergeCell ref="G280:I280"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="L280:M280"/>
-    <mergeCell ref="N281:O281"/>
-    <mergeCell ref="G281:I281"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="L281:M281"/>
-    <mergeCell ref="N282:O282"/>
-    <mergeCell ref="G282:I282"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="L282:M282"/>
-    <mergeCell ref="G283:I283"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="L283:M283"/>
-    <mergeCell ref="N283:O283"/>
-    <mergeCell ref="N280:O280"/>
-    <mergeCell ref="A274:C277"/>
-    <mergeCell ref="D274:F277"/>
-    <mergeCell ref="L274:O274"/>
-    <mergeCell ref="L275:O275"/>
-    <mergeCell ref="G277:O277"/>
-    <mergeCell ref="A278:C281"/>
-    <mergeCell ref="D278:F281"/>
-    <mergeCell ref="G278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="L278:M278"/>
-    <mergeCell ref="N278:O278"/>
-    <mergeCell ref="G279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="L279:M279"/>
-    <mergeCell ref="N279:O279"/>
-    <mergeCell ref="A262:D270"/>
-    <mergeCell ref="E263:O266"/>
-    <mergeCell ref="E267:O267"/>
-    <mergeCell ref="E268:O268"/>
-    <mergeCell ref="L270:O270"/>
-    <mergeCell ref="L271:O271"/>
-    <mergeCell ref="L272:O272"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="D273:F273"/>
-    <mergeCell ref="L273:O273"/>
-    <mergeCell ref="G232:I232"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="L232:M232"/>
-    <mergeCell ref="N232:O232"/>
-    <mergeCell ref="G233:I233"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="L233:M233"/>
-    <mergeCell ref="N233:O233"/>
-    <mergeCell ref="A230:C233"/>
-    <mergeCell ref="D230:F233"/>
-    <mergeCell ref="G230:I230"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="L230:M230"/>
-    <mergeCell ref="N230:O230"/>
-    <mergeCell ref="G231:I231"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="L231:M231"/>
-    <mergeCell ref="N231:O231"/>
-    <mergeCell ref="G228:I228"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="L228:M228"/>
-    <mergeCell ref="N228:O228"/>
-    <mergeCell ref="G229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="L229:M229"/>
-    <mergeCell ref="N229:O229"/>
-    <mergeCell ref="A226:C229"/>
-    <mergeCell ref="D226:F229"/>
-    <mergeCell ref="G226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="L226:M226"/>
-    <mergeCell ref="N226:O226"/>
-    <mergeCell ref="G227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="L227:M227"/>
-    <mergeCell ref="N227:O227"/>
-    <mergeCell ref="L220:O220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="L221:O221"/>
-    <mergeCell ref="A222:C225"/>
-    <mergeCell ref="D222:F225"/>
-    <mergeCell ref="L222:O222"/>
-    <mergeCell ref="L223:O223"/>
-    <mergeCell ref="G225:O225"/>
-    <mergeCell ref="A210:D218"/>
-    <mergeCell ref="E211:O214"/>
-    <mergeCell ref="E215:O215"/>
-    <mergeCell ref="E216:O216"/>
-    <mergeCell ref="L218:O218"/>
-    <mergeCell ref="L219:O219"/>
-    <mergeCell ref="G206:I206"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="N206:O206"/>
-    <mergeCell ref="G207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="A204:C207"/>
-    <mergeCell ref="D204:F207"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="L204:M204"/>
-    <mergeCell ref="N204:O204"/>
-    <mergeCell ref="G205:I205"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="L205:M205"/>
-    <mergeCell ref="N205:O205"/>
-    <mergeCell ref="G202:I202"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="L202:M202"/>
-    <mergeCell ref="N202:O202"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="L203:M203"/>
-    <mergeCell ref="N203:O203"/>
-    <mergeCell ref="A200:C203"/>
-    <mergeCell ref="D200:F203"/>
-    <mergeCell ref="G200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="L200:M200"/>
-    <mergeCell ref="N200:O200"/>
-    <mergeCell ref="G201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="L201:M201"/>
-    <mergeCell ref="N201:O201"/>
-    <mergeCell ref="L194:O194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="L195:O195"/>
-    <mergeCell ref="A196:C199"/>
-    <mergeCell ref="D196:F199"/>
-    <mergeCell ref="L196:O196"/>
-    <mergeCell ref="L197:O197"/>
-    <mergeCell ref="G199:O199"/>
-    <mergeCell ref="A184:D192"/>
-    <mergeCell ref="E185:O188"/>
-    <mergeCell ref="E189:O189"/>
-    <mergeCell ref="E190:O190"/>
-    <mergeCell ref="L192:O192"/>
-    <mergeCell ref="L193:O193"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="G180:I180"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="L180:M180"/>
-    <mergeCell ref="N180:O180"/>
-    <mergeCell ref="A177:C180"/>
-    <mergeCell ref="D177:F180"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="L177:M177"/>
-    <mergeCell ref="N177:O177"/>
-    <mergeCell ref="G178:I178"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="L178:M178"/>
-    <mergeCell ref="N178:O178"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="L175:M175"/>
-    <mergeCell ref="N175:O175"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="L176:M176"/>
-    <mergeCell ref="N176:O176"/>
-    <mergeCell ref="A173:C176"/>
-    <mergeCell ref="D173:F176"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="L173:M173"/>
-    <mergeCell ref="N173:O173"/>
-    <mergeCell ref="G174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="L174:M174"/>
-    <mergeCell ref="N174:O174"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="A169:C172"/>
-    <mergeCell ref="D169:F172"/>
-    <mergeCell ref="L169:O169"/>
-    <mergeCell ref="L170:O170"/>
-    <mergeCell ref="G172:O172"/>
-    <mergeCell ref="A157:D165"/>
-    <mergeCell ref="E158:O161"/>
-    <mergeCell ref="E162:O162"/>
-    <mergeCell ref="E163:O163"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="L166:O166"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="A151:C154"/>
-    <mergeCell ref="D151:F154"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="G149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="G150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="A147:C150"/>
-    <mergeCell ref="D147:F150"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="L147:M147"/>
-    <mergeCell ref="N147:O147"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="L148:M148"/>
-    <mergeCell ref="N148:O148"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="L142:O142"/>
-    <mergeCell ref="A143:C146"/>
-    <mergeCell ref="D143:F146"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="G146:O146"/>
-    <mergeCell ref="A131:D139"/>
-    <mergeCell ref="E132:O135"/>
-    <mergeCell ref="E136:O136"/>
-    <mergeCell ref="E137:O137"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="L128:M128"/>
-    <mergeCell ref="N128:O128"/>
-    <mergeCell ref="A125:C128"/>
-    <mergeCell ref="D125:F128"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="L125:M125"/>
-    <mergeCell ref="N125:O125"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="L126:M126"/>
-    <mergeCell ref="N126:O126"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:M124"/>
-    <mergeCell ref="N124:O124"/>
-    <mergeCell ref="A121:C124"/>
-    <mergeCell ref="D121:F124"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="L121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="L122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="A117:C120"/>
-    <mergeCell ref="D117:F120"/>
-    <mergeCell ref="L117:O117"/>
-    <mergeCell ref="L118:O118"/>
-    <mergeCell ref="G120:O120"/>
-    <mergeCell ref="A105:D113"/>
-    <mergeCell ref="E106:O109"/>
-    <mergeCell ref="E110:O110"/>
-    <mergeCell ref="E111:O111"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="A99:C102"/>
-    <mergeCell ref="D99:F102"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="A95:C98"/>
-    <mergeCell ref="D95:F98"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="L89:O89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="A91:C94"/>
-    <mergeCell ref="D91:F94"/>
-    <mergeCell ref="L91:O91"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="G94:O94"/>
-    <mergeCell ref="A79:D87"/>
-    <mergeCell ref="E80:O83"/>
-    <mergeCell ref="E84:O84"/>
-    <mergeCell ref="E85:O85"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="A73:C76"/>
-    <mergeCell ref="D73:F76"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="A69:C72"/>
-    <mergeCell ref="D69:F72"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="A65:C68"/>
-    <mergeCell ref="D65:F68"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="G68:O68"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="A53:D61"/>
-    <mergeCell ref="E54:O57"/>
-    <mergeCell ref="E58:O58"/>
-    <mergeCell ref="E59:O59"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="A47:C50"/>
-    <mergeCell ref="D47:F50"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="A43:C46"/>
-    <mergeCell ref="D43:F46"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="A39:C42"/>
-    <mergeCell ref="D39:F42"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="G42:O42"/>
-    <mergeCell ref="A27:D35"/>
-    <mergeCell ref="E28:O31"/>
-    <mergeCell ref="E32:O32"/>
-    <mergeCell ref="E33:O33"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D21:F24"/>
-    <mergeCell ref="A13:C16"/>
-    <mergeCell ref="A17:C20"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="D17:F20"/>
-    <mergeCell ref="A21:C24"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="E6:O6"/>
-    <mergeCell ref="E7:O7"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="A1:D9"/>
-    <mergeCell ref="E2:O5"/>
-    <mergeCell ref="A236:D244"/>
-    <mergeCell ref="E237:O240"/>
-    <mergeCell ref="E241:O241"/>
-    <mergeCell ref="E242:O242"/>
-    <mergeCell ref="L244:O244"/>
-    <mergeCell ref="L245:O245"/>
-    <mergeCell ref="L246:O246"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="D247:F247"/>
-    <mergeCell ref="L247:O247"/>
-    <mergeCell ref="A248:C251"/>
-    <mergeCell ref="D248:F251"/>
-    <mergeCell ref="L248:O248"/>
-    <mergeCell ref="L249:O249"/>
-    <mergeCell ref="G251:O251"/>
-    <mergeCell ref="A252:C255"/>
-    <mergeCell ref="D252:F255"/>
-    <mergeCell ref="G252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="L252:M252"/>
-    <mergeCell ref="N252:O252"/>
-    <mergeCell ref="G253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="L253:M253"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="G254:I254"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="L254:M254"/>
-    <mergeCell ref="N254:O254"/>
-    <mergeCell ref="G255:I255"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="L255:M255"/>
-    <mergeCell ref="N255:O255"/>
-    <mergeCell ref="A256:C259"/>
-    <mergeCell ref="D256:F259"/>
-    <mergeCell ref="G256:I256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="L256:M256"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="G257:I257"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="L257:M257"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="G258:I258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="L258:M258"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="G259:I259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="L259:M259"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="A294:D302"/>
-    <mergeCell ref="E295:O298"/>
-    <mergeCell ref="E299:O299"/>
-    <mergeCell ref="E300:O300"/>
-    <mergeCell ref="L302:O302"/>
-    <mergeCell ref="L303:O303"/>
-    <mergeCell ref="L304:O304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="D305:F305"/>
-    <mergeCell ref="L305:O305"/>
-    <mergeCell ref="A306:C309"/>
-    <mergeCell ref="D306:F309"/>
-    <mergeCell ref="L306:O306"/>
-    <mergeCell ref="L307:O307"/>
-    <mergeCell ref="G309:O309"/>
-    <mergeCell ref="A310:C313"/>
-    <mergeCell ref="D310:F313"/>
-    <mergeCell ref="G310:I310"/>
-    <mergeCell ref="J310:K310"/>
-    <mergeCell ref="L310:M310"/>
-    <mergeCell ref="N310:O310"/>
-    <mergeCell ref="G311:I311"/>
-    <mergeCell ref="J311:K311"/>
-    <mergeCell ref="L311:M311"/>
-    <mergeCell ref="N311:O311"/>
-    <mergeCell ref="G312:I312"/>
-    <mergeCell ref="J312:K312"/>
-    <mergeCell ref="L312:M312"/>
-    <mergeCell ref="N312:O312"/>
-    <mergeCell ref="G313:I313"/>
-    <mergeCell ref="J313:K313"/>
-    <mergeCell ref="L313:M313"/>
-    <mergeCell ref="N313:O313"/>
-    <mergeCell ref="A314:C317"/>
-    <mergeCell ref="D314:F317"/>
-    <mergeCell ref="G314:I314"/>
-    <mergeCell ref="J314:K314"/>
-    <mergeCell ref="L314:M314"/>
-    <mergeCell ref="N314:O314"/>
-    <mergeCell ref="G315:I315"/>
-    <mergeCell ref="J315:K315"/>
-    <mergeCell ref="L315:M315"/>
-    <mergeCell ref="N315:O315"/>
-    <mergeCell ref="G316:I316"/>
-    <mergeCell ref="J316:K316"/>
-    <mergeCell ref="L316:M316"/>
-    <mergeCell ref="N316:O316"/>
-    <mergeCell ref="G317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="L317:M317"/>
-    <mergeCell ref="N317:O317"/>
-    <mergeCell ref="A346:D354"/>
-    <mergeCell ref="E347:O350"/>
-    <mergeCell ref="E351:O351"/>
-    <mergeCell ref="E352:O352"/>
-    <mergeCell ref="L354:O354"/>
-    <mergeCell ref="L355:O355"/>
-    <mergeCell ref="L356:O356"/>
-    <mergeCell ref="A357:C357"/>
-    <mergeCell ref="D357:F357"/>
-    <mergeCell ref="L357:O357"/>
-    <mergeCell ref="A358:C361"/>
-    <mergeCell ref="D358:F361"/>
-    <mergeCell ref="L358:O358"/>
-    <mergeCell ref="L359:O359"/>
-    <mergeCell ref="G361:O361"/>
-    <mergeCell ref="A362:C365"/>
-    <mergeCell ref="D362:F365"/>
-    <mergeCell ref="G362:I362"/>
-    <mergeCell ref="J362:K362"/>
-    <mergeCell ref="L362:M362"/>
-    <mergeCell ref="N362:O362"/>
-    <mergeCell ref="G363:I363"/>
-    <mergeCell ref="J363:K363"/>
-    <mergeCell ref="L363:M363"/>
-    <mergeCell ref="N363:O363"/>
-    <mergeCell ref="G364:I364"/>
-    <mergeCell ref="J364:K364"/>
-    <mergeCell ref="L364:M364"/>
-    <mergeCell ref="N364:O364"/>
-    <mergeCell ref="G365:I365"/>
-    <mergeCell ref="J365:K365"/>
-    <mergeCell ref="L365:M365"/>
-    <mergeCell ref="N365:O365"/>
-    <mergeCell ref="A366:C369"/>
-    <mergeCell ref="D366:F369"/>
-    <mergeCell ref="G366:I366"/>
-    <mergeCell ref="J366:K366"/>
-    <mergeCell ref="L366:M366"/>
-    <mergeCell ref="N366:O366"/>
-    <mergeCell ref="G367:I367"/>
-    <mergeCell ref="J367:K367"/>
-    <mergeCell ref="L367:M367"/>
-    <mergeCell ref="N367:O367"/>
-    <mergeCell ref="G368:I368"/>
-    <mergeCell ref="J368:K368"/>
-    <mergeCell ref="L368:M368"/>
-    <mergeCell ref="N368:O368"/>
-    <mergeCell ref="G369:I369"/>
-    <mergeCell ref="J369:K369"/>
-    <mergeCell ref="L369:M369"/>
-    <mergeCell ref="N369:O369"/>
-    <mergeCell ref="A425:D433"/>
-    <mergeCell ref="E426:O429"/>
-    <mergeCell ref="E430:O430"/>
-    <mergeCell ref="E431:O431"/>
-    <mergeCell ref="L433:O433"/>
-    <mergeCell ref="L434:O434"/>
-    <mergeCell ref="L435:O435"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="D436:F436"/>
-    <mergeCell ref="L436:O436"/>
-    <mergeCell ref="A437:C440"/>
-    <mergeCell ref="D437:F440"/>
-    <mergeCell ref="L437:O437"/>
-    <mergeCell ref="L438:O438"/>
-    <mergeCell ref="G440:O440"/>
-    <mergeCell ref="A441:C444"/>
-    <mergeCell ref="D441:F444"/>
-    <mergeCell ref="G441:I441"/>
-    <mergeCell ref="J441:K441"/>
-    <mergeCell ref="L441:M441"/>
-    <mergeCell ref="N441:O441"/>
-    <mergeCell ref="G442:I442"/>
-    <mergeCell ref="J442:K442"/>
-    <mergeCell ref="L442:M442"/>
-    <mergeCell ref="N442:O442"/>
-    <mergeCell ref="G443:I443"/>
-    <mergeCell ref="J443:K443"/>
-    <mergeCell ref="L443:M443"/>
-    <mergeCell ref="N443:O443"/>
-    <mergeCell ref="G444:I444"/>
-    <mergeCell ref="J444:K444"/>
-    <mergeCell ref="L444:M444"/>
-    <mergeCell ref="N444:O444"/>
-    <mergeCell ref="A445:C448"/>
-    <mergeCell ref="D445:F448"/>
-    <mergeCell ref="G445:I445"/>
-    <mergeCell ref="J445:K445"/>
-    <mergeCell ref="L445:M445"/>
-    <mergeCell ref="N445:O445"/>
-    <mergeCell ref="G446:I446"/>
-    <mergeCell ref="J446:K446"/>
-    <mergeCell ref="L446:M446"/>
-    <mergeCell ref="N446:O446"/>
-    <mergeCell ref="G447:I447"/>
-    <mergeCell ref="J447:K447"/>
-    <mergeCell ref="L447:M447"/>
-    <mergeCell ref="N447:O447"/>
-    <mergeCell ref="G448:I448"/>
-    <mergeCell ref="J448:K448"/>
-    <mergeCell ref="L448:M448"/>
-    <mergeCell ref="N448:O448"/>
+    <mergeCell ref="G292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="L292:M292"/>
+    <mergeCell ref="N292:O292"/>
+    <mergeCell ref="G293:I293"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="L293:M293"/>
+    <mergeCell ref="N293:O293"/>
+    <mergeCell ref="G289:I289"/>
+    <mergeCell ref="J289:K289"/>
+    <mergeCell ref="L289:M289"/>
+    <mergeCell ref="N289:O289"/>
+    <mergeCell ref="G290:I290"/>
+    <mergeCell ref="J290:K290"/>
+    <mergeCell ref="L290:M290"/>
+    <mergeCell ref="N290:O290"/>
+    <mergeCell ref="G291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="L291:M291"/>
+    <mergeCell ref="N291:O291"/>
+    <mergeCell ref="Q266:U267"/>
+    <mergeCell ref="Q269:U271"/>
+    <mergeCell ref="Q272:U274"/>
+    <mergeCell ref="Q275:U277"/>
+    <mergeCell ref="Q278:U280"/>
+    <mergeCell ref="Q281:U283"/>
+    <mergeCell ref="Q284:U286"/>
+    <mergeCell ref="Q287:U289"/>
+    <mergeCell ref="Q290:U291"/>
+    <mergeCell ref="A320:D328"/>
+    <mergeCell ref="E321:O324"/>
+    <mergeCell ref="E325:O325"/>
+    <mergeCell ref="E326:O326"/>
+    <mergeCell ref="L328:O328"/>
+    <mergeCell ref="L329:O329"/>
+    <mergeCell ref="L330:O330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="D331:F331"/>
+    <mergeCell ref="L331:O331"/>
+    <mergeCell ref="A332:C335"/>
+    <mergeCell ref="D332:F335"/>
+    <mergeCell ref="L332:O332"/>
+    <mergeCell ref="L333:O333"/>
+    <mergeCell ref="G335:O335"/>
+    <mergeCell ref="A336:C339"/>
+    <mergeCell ref="D336:F339"/>
+    <mergeCell ref="G336:I336"/>
+    <mergeCell ref="J336:K336"/>
+    <mergeCell ref="L336:M336"/>
+    <mergeCell ref="N336:O336"/>
+    <mergeCell ref="G337:I337"/>
+    <mergeCell ref="J337:K337"/>
+    <mergeCell ref="L337:M337"/>
+    <mergeCell ref="N337:O337"/>
+    <mergeCell ref="G338:I338"/>
+    <mergeCell ref="J338:K338"/>
+    <mergeCell ref="L338:M338"/>
+    <mergeCell ref="N338:O338"/>
+    <mergeCell ref="G339:I339"/>
+    <mergeCell ref="J339:K339"/>
+    <mergeCell ref="L339:M339"/>
+    <mergeCell ref="N339:O339"/>
+    <mergeCell ref="A340:C343"/>
+    <mergeCell ref="D340:F343"/>
+    <mergeCell ref="G340:I340"/>
+    <mergeCell ref="J340:K340"/>
+    <mergeCell ref="L340:M340"/>
+    <mergeCell ref="N340:O340"/>
+    <mergeCell ref="G341:I341"/>
+    <mergeCell ref="J341:K341"/>
+    <mergeCell ref="L341:M341"/>
+    <mergeCell ref="N341:O341"/>
+    <mergeCell ref="G342:I342"/>
+    <mergeCell ref="J342:K342"/>
+    <mergeCell ref="L342:M342"/>
+    <mergeCell ref="N342:O342"/>
+    <mergeCell ref="G343:I343"/>
+    <mergeCell ref="J343:K343"/>
+    <mergeCell ref="L343:M343"/>
+    <mergeCell ref="N343:O343"/>
+    <mergeCell ref="A372:D380"/>
+    <mergeCell ref="E373:O376"/>
+    <mergeCell ref="E377:O377"/>
+    <mergeCell ref="E378:O378"/>
+    <mergeCell ref="L380:O380"/>
+    <mergeCell ref="L381:O381"/>
+    <mergeCell ref="L382:O382"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="D383:F383"/>
+    <mergeCell ref="L383:O383"/>
+    <mergeCell ref="A384:C387"/>
+    <mergeCell ref="D384:F387"/>
+    <mergeCell ref="L384:O384"/>
+    <mergeCell ref="L385:O385"/>
+    <mergeCell ref="G387:O387"/>
+    <mergeCell ref="A388:C391"/>
+    <mergeCell ref="D388:F391"/>
+    <mergeCell ref="G388:I388"/>
+    <mergeCell ref="J388:K388"/>
+    <mergeCell ref="L388:M388"/>
+    <mergeCell ref="N388:O388"/>
+    <mergeCell ref="G389:I389"/>
+    <mergeCell ref="J389:K389"/>
+    <mergeCell ref="L389:M389"/>
+    <mergeCell ref="N389:O389"/>
+    <mergeCell ref="G390:I390"/>
+    <mergeCell ref="J390:K390"/>
+    <mergeCell ref="L390:M390"/>
+    <mergeCell ref="N390:O390"/>
+    <mergeCell ref="G391:I391"/>
+    <mergeCell ref="J391:K391"/>
+    <mergeCell ref="L391:M391"/>
+    <mergeCell ref="N391:O391"/>
+    <mergeCell ref="A392:C395"/>
+    <mergeCell ref="D392:F395"/>
+    <mergeCell ref="G392:I392"/>
+    <mergeCell ref="J392:K392"/>
+    <mergeCell ref="L392:M392"/>
+    <mergeCell ref="N392:O392"/>
+    <mergeCell ref="G393:I393"/>
+    <mergeCell ref="J393:K393"/>
+    <mergeCell ref="L393:M393"/>
+    <mergeCell ref="N393:O393"/>
+    <mergeCell ref="G394:I394"/>
+    <mergeCell ref="J394:K394"/>
+    <mergeCell ref="L394:M394"/>
+    <mergeCell ref="N394:O394"/>
+    <mergeCell ref="G395:I395"/>
+    <mergeCell ref="J395:K395"/>
+    <mergeCell ref="L395:M395"/>
+    <mergeCell ref="N395:O395"/>
+    <mergeCell ref="A398:D406"/>
+    <mergeCell ref="E399:O402"/>
+    <mergeCell ref="E403:O403"/>
+    <mergeCell ref="E404:O404"/>
+    <mergeCell ref="L406:O406"/>
+    <mergeCell ref="L407:O407"/>
+    <mergeCell ref="L408:O408"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="D409:F409"/>
+    <mergeCell ref="L409:O409"/>
+    <mergeCell ref="A410:C413"/>
+    <mergeCell ref="D410:F413"/>
+    <mergeCell ref="L410:O410"/>
+    <mergeCell ref="L411:O411"/>
+    <mergeCell ref="G413:O413"/>
+    <mergeCell ref="A414:C417"/>
+    <mergeCell ref="D414:F417"/>
+    <mergeCell ref="G414:I414"/>
+    <mergeCell ref="J414:K414"/>
+    <mergeCell ref="L414:M414"/>
+    <mergeCell ref="N414:O414"/>
+    <mergeCell ref="G415:I415"/>
+    <mergeCell ref="J415:K415"/>
+    <mergeCell ref="L415:M415"/>
+    <mergeCell ref="N415:O415"/>
+    <mergeCell ref="G416:I416"/>
+    <mergeCell ref="J416:K416"/>
+    <mergeCell ref="L416:M416"/>
+    <mergeCell ref="N416:O416"/>
+    <mergeCell ref="G417:I417"/>
+    <mergeCell ref="J417:K417"/>
+    <mergeCell ref="L417:M417"/>
+    <mergeCell ref="N417:O417"/>
+    <mergeCell ref="A418:C421"/>
+    <mergeCell ref="D418:F421"/>
+    <mergeCell ref="G418:I418"/>
+    <mergeCell ref="J418:K418"/>
+    <mergeCell ref="L418:M418"/>
+    <mergeCell ref="N418:O418"/>
+    <mergeCell ref="G419:I419"/>
+    <mergeCell ref="J419:K419"/>
+    <mergeCell ref="L419:M419"/>
+    <mergeCell ref="N419:O419"/>
+    <mergeCell ref="G420:I420"/>
+    <mergeCell ref="J420:K420"/>
+    <mergeCell ref="L420:M420"/>
+    <mergeCell ref="N420:O420"/>
+    <mergeCell ref="G421:I421"/>
+    <mergeCell ref="J421:K421"/>
+    <mergeCell ref="L421:M421"/>
+    <mergeCell ref="N421:O421"/>
+    <mergeCell ref="A451:D459"/>
+    <mergeCell ref="E452:O455"/>
+    <mergeCell ref="E456:O456"/>
+    <mergeCell ref="E457:O457"/>
+    <mergeCell ref="L459:O459"/>
+    <mergeCell ref="L460:O460"/>
+    <mergeCell ref="L461:O461"/>
+    <mergeCell ref="A462:C462"/>
+    <mergeCell ref="D462:F462"/>
+    <mergeCell ref="L462:O462"/>
+    <mergeCell ref="A463:C466"/>
+    <mergeCell ref="D463:F466"/>
+    <mergeCell ref="L463:O463"/>
+    <mergeCell ref="L464:O464"/>
+    <mergeCell ref="G466:O466"/>
+    <mergeCell ref="A467:C470"/>
+    <mergeCell ref="D467:F470"/>
+    <mergeCell ref="G467:I467"/>
+    <mergeCell ref="J467:K467"/>
+    <mergeCell ref="L467:M467"/>
+    <mergeCell ref="N467:O467"/>
+    <mergeCell ref="G468:I468"/>
+    <mergeCell ref="J468:K468"/>
+    <mergeCell ref="L468:M468"/>
+    <mergeCell ref="N468:O468"/>
+    <mergeCell ref="G469:I469"/>
+    <mergeCell ref="J469:K469"/>
+    <mergeCell ref="L469:M469"/>
+    <mergeCell ref="N469:O469"/>
+    <mergeCell ref="G470:I470"/>
+    <mergeCell ref="J470:K470"/>
+    <mergeCell ref="L470:M470"/>
+    <mergeCell ref="N470:O470"/>
+    <mergeCell ref="A471:C474"/>
+    <mergeCell ref="D471:F474"/>
+    <mergeCell ref="G471:I471"/>
+    <mergeCell ref="J471:K471"/>
+    <mergeCell ref="L471:M471"/>
+    <mergeCell ref="N471:O471"/>
+    <mergeCell ref="G472:I472"/>
+    <mergeCell ref="J472:K472"/>
+    <mergeCell ref="L472:M472"/>
+    <mergeCell ref="N472:O472"/>
+    <mergeCell ref="G473:I473"/>
+    <mergeCell ref="J473:K473"/>
+    <mergeCell ref="L473:M473"/>
+    <mergeCell ref="N473:O473"/>
+    <mergeCell ref="G474:I474"/>
+    <mergeCell ref="J474:K474"/>
+    <mergeCell ref="L474:M474"/>
+    <mergeCell ref="N474:O474"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13563,11 +14221,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13753,26 +14412,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A20BDE-ACAC-49A0-A051-6F5B010A8CC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13796,9 +14446,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A20BDE-ACAC-49A0-A051-6F5B010A8CC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentacao/mechspot_ata.xlsx
+++ b/documentacao/mechspot_ata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documentos\SPTECH\Upload GitHub\projeto-pi-sprint-1\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB93C31E-942B-4157-96ED-56F2D26DEACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A60CB53-5C58-4C6F-80F2-596253F42276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4545F592-9151-46FC-8F7A-0131C129BBC9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="165">
   <si>
     <t>OK</t>
   </si>
@@ -833,6 +833,65 @@
   </si>
   <si>
     <t>PESQUISAR SOBRE QUAIS OS MELHORES GRÁFICOS E KPI A SEREM UTILIZADAS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF32746D"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t>DATA:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  09/10/2024     |     LISTA DE PRESENÇA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF32746D"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t>DATA:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  10/10/2024     |     LISTA DE PRESENÇA</t>
+    </r>
+  </si>
+  <si>
+    <t>FINALIZAÇÃO DA INTEGRAÇÃO DO SITE</t>
+  </si>
+  <si>
+    <t>TELA DE RELATÓRIOS DA DASHBOARD</t>
+  </si>
+  <si>
+    <t>NOVO PO E SCRUM MASTER</t>
+  </si>
+  <si>
+    <t>REALIZAR O DIAGRAMA DE SOLUÇÃO</t>
+  </si>
+  <si>
+    <t>REVISAR GRÁFICOS E KPI DA DASHBOARD</t>
   </si>
 </sst>
 </file>
@@ -1210,6 +1269,15 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1217,15 +1285,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2116,6 +2175,51 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>415917</xdr:colOff>
+      <xdr:row>503</xdr:row>
+      <xdr:rowOff>35593</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1573013" cy="1611635"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagem 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A937DBB7-D2A9-4DCB-A43A-87338A3D2F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1029750" y="98333593"/>
+          <a:ext cx="1573013" cy="1611635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2436,10 +2540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5446F9-8A09-4B91-82C6-8FD7102DEAC7}">
-  <dimension ref="A1:V502"/>
+  <dimension ref="A1:V528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D497" sqref="D497:F500"/>
+    <sheetView tabSelected="1" topLeftCell="A507" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D523" sqref="D523:F526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,10 +2552,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -4829,7 +4933,7 @@
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
-      <c r="L114" s="32" t="s">
+      <c r="L114" s="31" t="s">
         <v>11</v>
       </c>
       <c r="M114" s="15"/>
@@ -4925,7 +5029,7 @@
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
-      <c r="L118" s="32" t="s">
+      <c r="L118" s="31" t="s">
         <v>11</v>
       </c>
       <c r="M118" s="15"/>
@@ -5967,12 +6071,12 @@
       </c>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
-      <c r="L169" s="32" t="s">
+      <c r="L169" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M169" s="32"/>
-      <c r="N169" s="32"/>
-      <c r="O169" s="32"/>
+      <c r="M169" s="31"/>
+      <c r="N169" s="31"/>
+      <c r="O169" s="31"/>
       <c r="P169" s="1"/>
     </row>
     <row r="170" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7001,12 +7105,12 @@
       </c>
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
-      <c r="L219" s="32" t="s">
+      <c r="L219" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M219" s="32"/>
-      <c r="N219" s="32"/>
-      <c r="O219" s="32"/>
+      <c r="M219" s="31"/>
+      <c r="N219" s="31"/>
+      <c r="O219" s="31"/>
       <c r="P219" s="1"/>
     </row>
     <row r="220" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7023,12 +7127,12 @@
       </c>
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
-      <c r="L220" s="32" t="s">
+      <c r="L220" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M220" s="32"/>
-      <c r="N220" s="32"/>
-      <c r="O220" s="32"/>
+      <c r="M220" s="31"/>
+      <c r="N220" s="31"/>
+      <c r="O220" s="31"/>
       <c r="P220" s="1"/>
     </row>
     <row r="221" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8100,13 +8204,13 @@
       <c r="N269" s="5"/>
       <c r="O269" s="5"/>
       <c r="P269" s="1"/>
-      <c r="Q269" s="29" t="s">
+      <c r="Q269" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="R269" s="29"/>
-      <c r="S269" s="29"/>
-      <c r="T269" s="29"/>
-      <c r="U269" s="29"/>
+      <c r="R269" s="32"/>
+      <c r="S269" s="32"/>
+      <c r="T269" s="32"/>
+      <c r="U269" s="32"/>
       <c r="V269" s="1"/>
     </row>
     <row r="270" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8123,18 +8227,18 @@
       </c>
       <c r="J270" s="4"/>
       <c r="K270" s="4"/>
-      <c r="L270" s="32" t="s">
+      <c r="L270" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M270" s="32"/>
-      <c r="N270" s="32"/>
-      <c r="O270" s="32"/>
+      <c r="M270" s="31"/>
+      <c r="N270" s="31"/>
+      <c r="O270" s="31"/>
       <c r="P270" s="1"/>
-      <c r="Q270" s="30"/>
-      <c r="R270" s="30"/>
-      <c r="S270" s="30"/>
-      <c r="T270" s="30"/>
-      <c r="U270" s="30"/>
+      <c r="Q270" s="33"/>
+      <c r="R270" s="33"/>
+      <c r="S270" s="33"/>
+      <c r="T270" s="33"/>
+      <c r="U270" s="33"/>
       <c r="V270" s="1"/>
     </row>
     <row r="271" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8151,18 +8255,18 @@
       </c>
       <c r="J271" s="4"/>
       <c r="K271" s="4"/>
-      <c r="L271" s="32" t="s">
+      <c r="L271" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M271" s="32"/>
-      <c r="N271" s="32"/>
-      <c r="O271" s="32"/>
+      <c r="M271" s="31"/>
+      <c r="N271" s="31"/>
+      <c r="O271" s="31"/>
       <c r="P271" s="1"/>
-      <c r="Q271" s="30"/>
-      <c r="R271" s="30"/>
-      <c r="S271" s="30"/>
-      <c r="T271" s="30"/>
-      <c r="U271" s="30"/>
+      <c r="Q271" s="33"/>
+      <c r="R271" s="33"/>
+      <c r="S271" s="33"/>
+      <c r="T271" s="33"/>
+      <c r="U271" s="33"/>
       <c r="V271" s="1"/>
     </row>
     <row r="272" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8186,13 +8290,13 @@
       <c r="N272" s="15"/>
       <c r="O272" s="15"/>
       <c r="P272" s="1"/>
-      <c r="Q272" s="30" t="s">
+      <c r="Q272" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="R272" s="30"/>
-      <c r="S272" s="30"/>
-      <c r="T272" s="30"/>
-      <c r="U272" s="30"/>
+      <c r="R272" s="33"/>
+      <c r="S272" s="33"/>
+      <c r="T272" s="33"/>
+      <c r="U272" s="33"/>
       <c r="V272" s="1"/>
     </row>
     <row r="273" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8220,11 +8324,11 @@
       <c r="N273" s="15"/>
       <c r="O273" s="15"/>
       <c r="P273" s="1"/>
-      <c r="Q273" s="30"/>
-      <c r="R273" s="30"/>
-      <c r="S273" s="30"/>
-      <c r="T273" s="30"/>
-      <c r="U273" s="30"/>
+      <c r="Q273" s="33"/>
+      <c r="R273" s="33"/>
+      <c r="S273" s="33"/>
+      <c r="T273" s="33"/>
+      <c r="U273" s="33"/>
       <c r="V273" s="1"/>
     </row>
     <row r="274" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8252,11 +8356,11 @@
       <c r="N274" s="15"/>
       <c r="O274" s="15"/>
       <c r="P274" s="1"/>
-      <c r="Q274" s="30"/>
-      <c r="R274" s="30"/>
-      <c r="S274" s="30"/>
-      <c r="T274" s="30"/>
-      <c r="U274" s="30"/>
+      <c r="Q274" s="33"/>
+      <c r="R274" s="33"/>
+      <c r="S274" s="33"/>
+      <c r="T274" s="33"/>
+      <c r="U274" s="33"/>
       <c r="V274" s="1"/>
     </row>
     <row r="275" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8273,20 +8377,20 @@
       </c>
       <c r="J275" s="4"/>
       <c r="K275" s="4"/>
-      <c r="L275" s="32" t="s">
+      <c r="L275" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M275" s="32"/>
-      <c r="N275" s="32"/>
-      <c r="O275" s="32"/>
+      <c r="M275" s="31"/>
+      <c r="N275" s="31"/>
+      <c r="O275" s="31"/>
       <c r="P275" s="1"/>
-      <c r="Q275" s="30" t="s">
+      <c r="Q275" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="R275" s="30"/>
-      <c r="S275" s="30"/>
-      <c r="T275" s="30"/>
-      <c r="U275" s="30"/>
+      <c r="R275" s="33"/>
+      <c r="S275" s="33"/>
+      <c r="T275" s="33"/>
+      <c r="U275" s="33"/>
       <c r="V275" s="1"/>
     </row>
     <row r="276" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8306,11 +8410,11 @@
       <c r="N276" s="4"/>
       <c r="O276" s="4"/>
       <c r="P276" s="1"/>
-      <c r="Q276" s="30"/>
-      <c r="R276" s="30"/>
-      <c r="S276" s="30"/>
-      <c r="T276" s="30"/>
-      <c r="U276" s="30"/>
+      <c r="Q276" s="33"/>
+      <c r="R276" s="33"/>
+      <c r="S276" s="33"/>
+      <c r="T276" s="33"/>
+      <c r="U276" s="33"/>
       <c r="V276" s="1"/>
     </row>
     <row r="277" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8332,11 +8436,11 @@
       <c r="N277" s="16"/>
       <c r="O277" s="16"/>
       <c r="P277" s="1"/>
-      <c r="Q277" s="30"/>
-      <c r="R277" s="30"/>
-      <c r="S277" s="30"/>
-      <c r="T277" s="30"/>
-      <c r="U277" s="30"/>
+      <c r="Q277" s="33"/>
+      <c r="R277" s="33"/>
+      <c r="S277" s="33"/>
+      <c r="T277" s="33"/>
+      <c r="U277" s="33"/>
       <c r="V277" s="1"/>
     </row>
     <row r="278" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8368,13 +8472,13 @@
       </c>
       <c r="O278" s="20"/>
       <c r="P278" s="1"/>
-      <c r="Q278" s="30" t="s">
+      <c r="Q278" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="R278" s="30"/>
-      <c r="S278" s="30"/>
-      <c r="T278" s="30"/>
-      <c r="U278" s="30"/>
+      <c r="R278" s="33"/>
+      <c r="S278" s="33"/>
+      <c r="T278" s="33"/>
+      <c r="U278" s="33"/>
       <c r="V278" s="1"/>
     </row>
     <row r="279" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8402,11 +8506,11 @@
       </c>
       <c r="O279" s="11"/>
       <c r="P279" s="1"/>
-      <c r="Q279" s="30"/>
-      <c r="R279" s="30"/>
-      <c r="S279" s="30"/>
-      <c r="T279" s="30"/>
-      <c r="U279" s="30"/>
+      <c r="Q279" s="33"/>
+      <c r="R279" s="33"/>
+      <c r="S279" s="33"/>
+      <c r="T279" s="33"/>
+      <c r="U279" s="33"/>
       <c r="V279" s="1"/>
     </row>
     <row r="280" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8434,11 +8538,11 @@
       </c>
       <c r="O280" s="11"/>
       <c r="P280" s="1"/>
-      <c r="Q280" s="30"/>
-      <c r="R280" s="30"/>
-      <c r="S280" s="30"/>
-      <c r="T280" s="30"/>
-      <c r="U280" s="30"/>
+      <c r="Q280" s="33"/>
+      <c r="R280" s="33"/>
+      <c r="S280" s="33"/>
+      <c r="T280" s="33"/>
+      <c r="U280" s="33"/>
       <c r="V280" s="1"/>
     </row>
     <row r="281" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8466,11 +8570,11 @@
       </c>
       <c r="O281" s="11"/>
       <c r="P281" s="1"/>
-      <c r="Q281" s="30"/>
-      <c r="R281" s="30"/>
-      <c r="S281" s="30"/>
-      <c r="T281" s="30"/>
-      <c r="U281" s="30"/>
+      <c r="Q281" s="33"/>
+      <c r="R281" s="33"/>
+      <c r="S281" s="33"/>
+      <c r="T281" s="33"/>
+      <c r="U281" s="33"/>
       <c r="V281" s="1"/>
     </row>
     <row r="282" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8502,11 +8606,11 @@
       </c>
       <c r="O282" s="11"/>
       <c r="P282" s="1"/>
-      <c r="Q282" s="30"/>
-      <c r="R282" s="30"/>
-      <c r="S282" s="30"/>
-      <c r="T282" s="30"/>
-      <c r="U282" s="30"/>
+      <c r="Q282" s="33"/>
+      <c r="R282" s="33"/>
+      <c r="S282" s="33"/>
+      <c r="T282" s="33"/>
+      <c r="U282" s="33"/>
       <c r="V282" s="1"/>
     </row>
     <row r="283" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8526,11 +8630,11 @@
       <c r="N283" s="11"/>
       <c r="O283" s="11"/>
       <c r="P283" s="1"/>
-      <c r="Q283" s="30"/>
-      <c r="R283" s="30"/>
-      <c r="S283" s="30"/>
-      <c r="T283" s="30"/>
-      <c r="U283" s="30"/>
+      <c r="Q283" s="33"/>
+      <c r="R283" s="33"/>
+      <c r="S283" s="33"/>
+      <c r="T283" s="33"/>
+      <c r="U283" s="33"/>
       <c r="V283" s="1"/>
     </row>
     <row r="284" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8550,11 +8654,11 @@
       <c r="N284" s="11"/>
       <c r="O284" s="11"/>
       <c r="P284" s="1"/>
-      <c r="Q284" s="30"/>
-      <c r="R284" s="30"/>
-      <c r="S284" s="30"/>
-      <c r="T284" s="30"/>
-      <c r="U284" s="30"/>
+      <c r="Q284" s="33"/>
+      <c r="R284" s="33"/>
+      <c r="S284" s="33"/>
+      <c r="T284" s="33"/>
+      <c r="U284" s="33"/>
       <c r="V284" s="1"/>
     </row>
     <row r="285" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8574,11 +8678,11 @@
       <c r="N285" s="11"/>
       <c r="O285" s="11"/>
       <c r="P285" s="1"/>
-      <c r="Q285" s="30"/>
-      <c r="R285" s="30"/>
-      <c r="S285" s="30"/>
-      <c r="T285" s="30"/>
-      <c r="U285" s="30"/>
+      <c r="Q285" s="33"/>
+      <c r="R285" s="33"/>
+      <c r="S285" s="33"/>
+      <c r="T285" s="33"/>
+      <c r="U285" s="33"/>
       <c r="V285" s="1"/>
     </row>
     <row r="286" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8602,11 +8706,11 @@
       <c r="N286" s="11"/>
       <c r="O286" s="11"/>
       <c r="P286" s="1"/>
-      <c r="Q286" s="30"/>
-      <c r="R286" s="30"/>
-      <c r="S286" s="30"/>
-      <c r="T286" s="30"/>
-      <c r="U286" s="30"/>
+      <c r="Q286" s="33"/>
+      <c r="R286" s="33"/>
+      <c r="S286" s="33"/>
+      <c r="T286" s="33"/>
+      <c r="U286" s="33"/>
       <c r="V286" s="1"/>
     </row>
     <row r="287" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8626,11 +8730,11 @@
       <c r="N287" s="11"/>
       <c r="O287" s="11"/>
       <c r="P287" s="1"/>
-      <c r="Q287" s="30"/>
-      <c r="R287" s="30"/>
-      <c r="S287" s="30"/>
-      <c r="T287" s="30"/>
-      <c r="U287" s="30"/>
+      <c r="Q287" s="33"/>
+      <c r="R287" s="33"/>
+      <c r="S287" s="33"/>
+      <c r="T287" s="33"/>
+      <c r="U287" s="33"/>
       <c r="V287" s="1"/>
     </row>
     <row r="288" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8650,11 +8754,11 @@
       <c r="N288" s="11"/>
       <c r="O288" s="11"/>
       <c r="P288" s="1"/>
-      <c r="Q288" s="30"/>
-      <c r="R288" s="30"/>
-      <c r="S288" s="30"/>
-      <c r="T288" s="30"/>
-      <c r="U288" s="30"/>
+      <c r="Q288" s="33"/>
+      <c r="R288" s="33"/>
+      <c r="S288" s="33"/>
+      <c r="T288" s="33"/>
+      <c r="U288" s="33"/>
       <c r="V288" s="1"/>
     </row>
     <row r="289" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8674,11 +8778,11 @@
       <c r="N289" s="11"/>
       <c r="O289" s="11"/>
       <c r="P289" s="1"/>
-      <c r="Q289" s="30"/>
-      <c r="R289" s="30"/>
-      <c r="S289" s="30"/>
-      <c r="T289" s="30"/>
-      <c r="U289" s="30"/>
+      <c r="Q289" s="33"/>
+      <c r="R289" s="33"/>
+      <c r="S289" s="33"/>
+      <c r="T289" s="33"/>
+      <c r="U289" s="33"/>
       <c r="V289" s="1"/>
     </row>
     <row r="290" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8702,11 +8806,11 @@
       <c r="N290" s="11"/>
       <c r="O290" s="11"/>
       <c r="P290" s="1"/>
-      <c r="Q290" s="30"/>
-      <c r="R290" s="30"/>
-      <c r="S290" s="30"/>
-      <c r="T290" s="30"/>
-      <c r="U290" s="30"/>
+      <c r="Q290" s="33"/>
+      <c r="R290" s="33"/>
+      <c r="S290" s="33"/>
+      <c r="T290" s="33"/>
+      <c r="U290" s="33"/>
       <c r="V290" s="1"/>
     </row>
     <row r="291" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8726,11 +8830,11 @@
       <c r="N291" s="11"/>
       <c r="O291" s="11"/>
       <c r="P291" s="1"/>
-      <c r="Q291" s="31"/>
-      <c r="R291" s="31"/>
-      <c r="S291" s="31"/>
-      <c r="T291" s="31"/>
-      <c r="U291" s="31"/>
+      <c r="Q291" s="34"/>
+      <c r="R291" s="34"/>
+      <c r="S291" s="34"/>
+      <c r="T291" s="34"/>
+      <c r="U291" s="34"/>
       <c r="V291" s="1"/>
     </row>
     <row r="292" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12763,7 +12867,7 @@
       <c r="C483" s="22"/>
       <c r="D483" s="22"/>
       <c r="E483" s="25" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F483" s="25"/>
       <c r="G483" s="25"/>
@@ -13197,253 +13301,1334 @@
       <c r="O502" s="4"/>
       <c r="P502" s="1"/>
     </row>
+    <row r="503" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A503" s="21"/>
+      <c r="B503" s="22"/>
+      <c r="C503" s="22"/>
+      <c r="D503" s="22"/>
+      <c r="E503" s="2"/>
+      <c r="F503" s="3"/>
+      <c r="G503" s="3"/>
+      <c r="H503" s="3"/>
+      <c r="I503" s="3"/>
+      <c r="J503" s="3"/>
+      <c r="K503" s="3"/>
+      <c r="L503" s="3"/>
+      <c r="M503" s="3"/>
+      <c r="N503" s="3"/>
+      <c r="O503" s="3"/>
+      <c r="P503" s="1"/>
+    </row>
+    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A504" s="21"/>
+      <c r="B504" s="22"/>
+      <c r="C504" s="22"/>
+      <c r="D504" s="22"/>
+      <c r="E504" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F504" s="23"/>
+      <c r="G504" s="23"/>
+      <c r="H504" s="23"/>
+      <c r="I504" s="23"/>
+      <c r="J504" s="23"/>
+      <c r="K504" s="23"/>
+      <c r="L504" s="23"/>
+      <c r="M504" s="23"/>
+      <c r="N504" s="23"/>
+      <c r="O504" s="23"/>
+      <c r="P504" s="1"/>
+    </row>
+    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A505" s="21"/>
+      <c r="B505" s="22"/>
+      <c r="C505" s="22"/>
+      <c r="D505" s="22"/>
+      <c r="E505" s="23"/>
+      <c r="F505" s="23"/>
+      <c r="G505" s="23"/>
+      <c r="H505" s="23"/>
+      <c r="I505" s="23"/>
+      <c r="J505" s="23"/>
+      <c r="K505" s="23"/>
+      <c r="L505" s="23"/>
+      <c r="M505" s="23"/>
+      <c r="N505" s="23"/>
+      <c r="O505" s="23"/>
+      <c r="P505" s="1"/>
+    </row>
+    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A506" s="21"/>
+      <c r="B506" s="22"/>
+      <c r="C506" s="22"/>
+      <c r="D506" s="22"/>
+      <c r="E506" s="23"/>
+      <c r="F506" s="23"/>
+      <c r="G506" s="23"/>
+      <c r="H506" s="23"/>
+      <c r="I506" s="23"/>
+      <c r="J506" s="23"/>
+      <c r="K506" s="23"/>
+      <c r="L506" s="23"/>
+      <c r="M506" s="23"/>
+      <c r="N506" s="23"/>
+      <c r="O506" s="23"/>
+      <c r="P506" s="1"/>
+    </row>
+    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A507" s="21"/>
+      <c r="B507" s="22"/>
+      <c r="C507" s="22"/>
+      <c r="D507" s="22"/>
+      <c r="E507" s="23"/>
+      <c r="F507" s="23"/>
+      <c r="G507" s="23"/>
+      <c r="H507" s="23"/>
+      <c r="I507" s="23"/>
+      <c r="J507" s="23"/>
+      <c r="K507" s="23"/>
+      <c r="L507" s="23"/>
+      <c r="M507" s="23"/>
+      <c r="N507" s="23"/>
+      <c r="O507" s="23"/>
+      <c r="P507" s="1"/>
+    </row>
+    <row r="508" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A508" s="21"/>
+      <c r="B508" s="22"/>
+      <c r="C508" s="22"/>
+      <c r="D508" s="22"/>
+      <c r="E508" s="24"/>
+      <c r="F508" s="24"/>
+      <c r="G508" s="24"/>
+      <c r="H508" s="24"/>
+      <c r="I508" s="24"/>
+      <c r="J508" s="24"/>
+      <c r="K508" s="24"/>
+      <c r="L508" s="24"/>
+      <c r="M508" s="24"/>
+      <c r="N508" s="24"/>
+      <c r="O508" s="24"/>
+      <c r="P508" s="1"/>
+    </row>
+    <row r="509" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A509" s="21"/>
+      <c r="B509" s="22"/>
+      <c r="C509" s="22"/>
+      <c r="D509" s="22"/>
+      <c r="E509" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F509" s="25"/>
+      <c r="G509" s="25"/>
+      <c r="H509" s="25"/>
+      <c r="I509" s="25"/>
+      <c r="J509" s="25"/>
+      <c r="K509" s="25"/>
+      <c r="L509" s="25"/>
+      <c r="M509" s="25"/>
+      <c r="N509" s="25"/>
+      <c r="O509" s="25"/>
+      <c r="P509" s="1"/>
+    </row>
+    <row r="510" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A510" s="21"/>
+      <c r="B510" s="22"/>
+      <c r="C510" s="22"/>
+      <c r="D510" s="22"/>
+      <c r="E510" s="4"/>
+      <c r="F510" s="5"/>
+      <c r="G510" s="5"/>
+      <c r="H510" s="5"/>
+      <c r="I510" s="5"/>
+      <c r="J510" s="5"/>
+      <c r="K510" s="5"/>
+      <c r="L510" s="5"/>
+      <c r="M510" s="5"/>
+      <c r="N510" s="5"/>
+      <c r="O510" s="5"/>
+      <c r="P510" s="1"/>
+    </row>
+    <row r="511" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A511" s="21"/>
+      <c r="B511" s="22"/>
+      <c r="C511" s="22"/>
+      <c r="D511" s="22"/>
+      <c r="E511" s="4"/>
+      <c r="F511" s="4"/>
+      <c r="G511" s="4"/>
+      <c r="H511" s="4"/>
+      <c r="I511" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J511" s="4"/>
+      <c r="K511" s="4"/>
+      <c r="L511" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M511" s="15"/>
+      <c r="N511" s="15"/>
+      <c r="O511" s="15"/>
+      <c r="P511" s="1"/>
+    </row>
+    <row r="512" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A512" s="3"/>
+      <c r="B512" s="3"/>
+      <c r="C512" s="3"/>
+      <c r="D512" s="3"/>
+      <c r="E512" s="4"/>
+      <c r="F512" s="4"/>
+      <c r="G512" s="4"/>
+      <c r="H512" s="4"/>
+      <c r="I512" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J512" s="4"/>
+      <c r="K512" s="4"/>
+      <c r="L512" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M512" s="15"/>
+      <c r="N512" s="15"/>
+      <c r="O512" s="15"/>
+      <c r="P512" s="1"/>
+    </row>
+    <row r="513" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A513" s="3"/>
+      <c r="B513" s="3"/>
+      <c r="C513" s="3"/>
+      <c r="D513" s="3"/>
+      <c r="E513" s="4"/>
+      <c r="F513" s="4"/>
+      <c r="G513" s="4"/>
+      <c r="H513" s="4"/>
+      <c r="I513" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J513" s="4"/>
+      <c r="K513" s="4"/>
+      <c r="L513" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M513" s="15"/>
+      <c r="N513" s="15"/>
+      <c r="O513" s="15"/>
+      <c r="P513" s="1"/>
+    </row>
+    <row r="514" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A514" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B514" s="27"/>
+      <c r="C514" s="28"/>
+      <c r="D514" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E514" s="27"/>
+      <c r="F514" s="28"/>
+      <c r="G514" s="4"/>
+      <c r="H514" s="4"/>
+      <c r="I514" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J514" s="4"/>
+      <c r="K514" s="4"/>
+      <c r="L514" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M514" s="15"/>
+      <c r="N514" s="15"/>
+      <c r="O514" s="15"/>
+      <c r="P514" s="1"/>
+    </row>
+    <row r="515" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A515" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B515" s="6"/>
+      <c r="C515" s="6"/>
+      <c r="D515" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E515" s="6"/>
+      <c r="F515" s="6"/>
+      <c r="G515" s="4"/>
+      <c r="H515" s="4"/>
+      <c r="I515" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J515" s="4"/>
+      <c r="K515" s="4"/>
+      <c r="L515" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M515" s="15"/>
+      <c r="N515" s="15"/>
+      <c r="O515" s="15"/>
+      <c r="P515" s="1"/>
+    </row>
+    <row r="516" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A516" s="6"/>
+      <c r="B516" s="6"/>
+      <c r="C516" s="6"/>
+      <c r="D516" s="6"/>
+      <c r="E516" s="6"/>
+      <c r="F516" s="6"/>
+      <c r="G516" s="4"/>
+      <c r="H516" s="4"/>
+      <c r="I516" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J516" s="4"/>
+      <c r="K516" s="4"/>
+      <c r="L516" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M516" s="15"/>
+      <c r="N516" s="15"/>
+      <c r="O516" s="15"/>
+      <c r="P516" s="1"/>
+    </row>
+    <row r="517" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A517" s="6"/>
+      <c r="B517" s="6"/>
+      <c r="C517" s="6"/>
+      <c r="D517" s="6"/>
+      <c r="E517" s="6"/>
+      <c r="F517" s="6"/>
+      <c r="G517" s="4"/>
+      <c r="H517" s="4"/>
+      <c r="I517" s="4"/>
+      <c r="J517" s="4"/>
+      <c r="K517" s="4"/>
+      <c r="L517" s="4"/>
+      <c r="M517" s="4"/>
+      <c r="N517" s="4"/>
+      <c r="O517" s="4"/>
+      <c r="P517" s="1"/>
+    </row>
+    <row r="518" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A518" s="6"/>
+      <c r="B518" s="6"/>
+      <c r="C518" s="6"/>
+      <c r="D518" s="6"/>
+      <c r="E518" s="6"/>
+      <c r="F518" s="6"/>
+      <c r="G518" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H518" s="16"/>
+      <c r="I518" s="16"/>
+      <c r="J518" s="16"/>
+      <c r="K518" s="16"/>
+      <c r="L518" s="16"/>
+      <c r="M518" s="16"/>
+      <c r="N518" s="16"/>
+      <c r="O518" s="16"/>
+      <c r="P518" s="1"/>
+    </row>
+    <row r="519" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A519" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B519" s="6"/>
+      <c r="C519" s="6"/>
+      <c r="D519" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E519" s="6"/>
+      <c r="F519" s="6"/>
+      <c r="G519" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H519" s="18"/>
+      <c r="I519" s="19"/>
+      <c r="J519" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K519" s="20"/>
+      <c r="L519" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M519" s="20"/>
+      <c r="N519" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O519" s="20"/>
+      <c r="P519" s="1"/>
+    </row>
+    <row r="520" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A520" s="6"/>
+      <c r="B520" s="6"/>
+      <c r="C520" s="6"/>
+      <c r="D520" s="6"/>
+      <c r="E520" s="6"/>
+      <c r="F520" s="6"/>
+      <c r="G520" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H520" s="8"/>
+      <c r="I520" s="9"/>
+      <c r="J520" s="10">
+        <v>45568</v>
+      </c>
+      <c r="K520" s="11"/>
+      <c r="L520" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M520" s="11"/>
+      <c r="N520" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O520" s="11"/>
+      <c r="P520" s="1"/>
+    </row>
+    <row r="521" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A521" s="6"/>
+      <c r="B521" s="6"/>
+      <c r="C521" s="6"/>
+      <c r="D521" s="6"/>
+      <c r="E521" s="6"/>
+      <c r="F521" s="6"/>
+      <c r="G521" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H521" s="8"/>
+      <c r="I521" s="9"/>
+      <c r="J521" s="10">
+        <v>45568</v>
+      </c>
+      <c r="K521" s="11"/>
+      <c r="L521" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M521" s="11"/>
+      <c r="N521" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O521" s="11"/>
+      <c r="P521" s="1"/>
+    </row>
+    <row r="522" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A522" s="6"/>
+      <c r="B522" s="6"/>
+      <c r="C522" s="6"/>
+      <c r="D522" s="6"/>
+      <c r="E522" s="6"/>
+      <c r="F522" s="6"/>
+      <c r="G522" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H522" s="8"/>
+      <c r="I522" s="9"/>
+      <c r="J522" s="10">
+        <v>45568</v>
+      </c>
+      <c r="K522" s="11"/>
+      <c r="L522" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M522" s="11"/>
+      <c r="N522" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O522" s="11"/>
+      <c r="P522" s="1"/>
+    </row>
+    <row r="523" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A523" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B523" s="6"/>
+      <c r="C523" s="6"/>
+      <c r="D523" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E523" s="6"/>
+      <c r="F523" s="6"/>
+      <c r="G523" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H523" s="8"/>
+      <c r="I523" s="9"/>
+      <c r="J523" s="10">
+        <v>45568</v>
+      </c>
+      <c r="K523" s="11"/>
+      <c r="L523" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M523" s="11"/>
+      <c r="N523" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O523" s="11"/>
+      <c r="P523" s="1"/>
+    </row>
+    <row r="524" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A524" s="6"/>
+      <c r="B524" s="6"/>
+      <c r="C524" s="6"/>
+      <c r="D524" s="6"/>
+      <c r="E524" s="6"/>
+      <c r="F524" s="6"/>
+      <c r="G524" s="7"/>
+      <c r="H524" s="8"/>
+      <c r="I524" s="9"/>
+      <c r="J524" s="10"/>
+      <c r="K524" s="11"/>
+      <c r="L524" s="11"/>
+      <c r="M524" s="11"/>
+      <c r="N524" s="11"/>
+      <c r="O524" s="11"/>
+      <c r="P524" s="1"/>
+    </row>
+    <row r="525" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A525" s="6"/>
+      <c r="B525" s="6"/>
+      <c r="C525" s="6"/>
+      <c r="D525" s="6"/>
+      <c r="E525" s="6"/>
+      <c r="F525" s="6"/>
+      <c r="G525" s="7"/>
+      <c r="H525" s="8"/>
+      <c r="I525" s="9"/>
+      <c r="J525" s="10"/>
+      <c r="K525" s="11"/>
+      <c r="L525" s="11"/>
+      <c r="M525" s="11"/>
+      <c r="N525" s="11"/>
+      <c r="O525" s="11"/>
+      <c r="P525" s="1"/>
+    </row>
+    <row r="526" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A526" s="6"/>
+      <c r="B526" s="6"/>
+      <c r="C526" s="6"/>
+      <c r="D526" s="6"/>
+      <c r="E526" s="6"/>
+      <c r="F526" s="6"/>
+      <c r="G526" s="12"/>
+      <c r="H526" s="13"/>
+      <c r="I526" s="14"/>
+      <c r="J526" s="11"/>
+      <c r="K526" s="11"/>
+      <c r="L526" s="11"/>
+      <c r="M526" s="11"/>
+      <c r="N526" s="11"/>
+      <c r="O526" s="11"/>
+      <c r="P526" s="1"/>
+    </row>
+    <row r="527" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="3"/>
+      <c r="B527" s="3"/>
+      <c r="C527" s="3"/>
+      <c r="D527" s="3"/>
+      <c r="E527" s="4"/>
+      <c r="F527" s="4"/>
+      <c r="G527" s="4"/>
+      <c r="H527" s="4"/>
+      <c r="I527" s="4"/>
+      <c r="J527" s="4"/>
+      <c r="K527" s="4"/>
+      <c r="L527" s="4"/>
+      <c r="M527" s="4"/>
+      <c r="N527" s="4"/>
+      <c r="O527" s="4"/>
+      <c r="P527" s="1"/>
+    </row>
+    <row r="528" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A528" s="3"/>
+      <c r="B528" s="3"/>
+      <c r="C528" s="3"/>
+      <c r="D528" s="3"/>
+      <c r="E528" s="4"/>
+      <c r="F528" s="4"/>
+      <c r="G528" s="4"/>
+      <c r="H528" s="4"/>
+      <c r="I528" s="4"/>
+      <c r="J528" s="4"/>
+      <c r="K528" s="4"/>
+      <c r="L528" s="4"/>
+      <c r="M528" s="4"/>
+      <c r="N528" s="4"/>
+      <c r="O528" s="4"/>
+      <c r="P528" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1014">
-    <mergeCell ref="A497:C500"/>
-    <mergeCell ref="D497:F500"/>
-    <mergeCell ref="G497:I497"/>
-    <mergeCell ref="J497:K497"/>
-    <mergeCell ref="L497:M497"/>
-    <mergeCell ref="N497:O497"/>
-    <mergeCell ref="G498:I498"/>
-    <mergeCell ref="J498:K498"/>
-    <mergeCell ref="L498:M498"/>
-    <mergeCell ref="N498:O498"/>
-    <mergeCell ref="G499:I499"/>
-    <mergeCell ref="J499:K499"/>
-    <mergeCell ref="L499:M499"/>
-    <mergeCell ref="N499:O499"/>
-    <mergeCell ref="G500:I500"/>
-    <mergeCell ref="J500:K500"/>
-    <mergeCell ref="L500:M500"/>
-    <mergeCell ref="N500:O500"/>
-    <mergeCell ref="A489:C492"/>
-    <mergeCell ref="D489:F492"/>
-    <mergeCell ref="L489:O489"/>
-    <mergeCell ref="L490:O490"/>
-    <mergeCell ref="G492:O492"/>
-    <mergeCell ref="A493:C496"/>
-    <mergeCell ref="D493:F496"/>
-    <mergeCell ref="G493:I493"/>
-    <mergeCell ref="J493:K493"/>
-    <mergeCell ref="L493:M493"/>
-    <mergeCell ref="N493:O493"/>
-    <mergeCell ref="G494:I494"/>
-    <mergeCell ref="J494:K494"/>
-    <mergeCell ref="L494:M494"/>
-    <mergeCell ref="N494:O494"/>
-    <mergeCell ref="G495:I495"/>
-    <mergeCell ref="J495:K495"/>
-    <mergeCell ref="L495:M495"/>
-    <mergeCell ref="N495:O495"/>
-    <mergeCell ref="G496:I496"/>
-    <mergeCell ref="J496:K496"/>
-    <mergeCell ref="L496:M496"/>
-    <mergeCell ref="N496:O496"/>
-    <mergeCell ref="A477:D485"/>
-    <mergeCell ref="E478:O481"/>
-    <mergeCell ref="E482:O482"/>
-    <mergeCell ref="E483:O483"/>
-    <mergeCell ref="L485:O485"/>
-    <mergeCell ref="L486:O486"/>
-    <mergeCell ref="L487:O487"/>
-    <mergeCell ref="A488:C488"/>
-    <mergeCell ref="D488:F488"/>
-    <mergeCell ref="L488:O488"/>
-    <mergeCell ref="A445:C448"/>
-    <mergeCell ref="D445:F448"/>
-    <mergeCell ref="G445:I445"/>
-    <mergeCell ref="J445:K445"/>
-    <mergeCell ref="L445:M445"/>
-    <mergeCell ref="N445:O445"/>
-    <mergeCell ref="G446:I446"/>
-    <mergeCell ref="J446:K446"/>
-    <mergeCell ref="L446:M446"/>
-    <mergeCell ref="N446:O446"/>
-    <mergeCell ref="G447:I447"/>
-    <mergeCell ref="J447:K447"/>
-    <mergeCell ref="L447:M447"/>
-    <mergeCell ref="N447:O447"/>
-    <mergeCell ref="G448:I448"/>
-    <mergeCell ref="J448:K448"/>
-    <mergeCell ref="L448:M448"/>
-    <mergeCell ref="N448:O448"/>
-    <mergeCell ref="A437:C440"/>
-    <mergeCell ref="D437:F440"/>
-    <mergeCell ref="L437:O437"/>
-    <mergeCell ref="L438:O438"/>
-    <mergeCell ref="G440:O440"/>
-    <mergeCell ref="A441:C444"/>
-    <mergeCell ref="D441:F444"/>
-    <mergeCell ref="G441:I441"/>
-    <mergeCell ref="J441:K441"/>
-    <mergeCell ref="L441:M441"/>
-    <mergeCell ref="N441:O441"/>
-    <mergeCell ref="G442:I442"/>
-    <mergeCell ref="J442:K442"/>
-    <mergeCell ref="L442:M442"/>
-    <mergeCell ref="N442:O442"/>
-    <mergeCell ref="G443:I443"/>
-    <mergeCell ref="J443:K443"/>
-    <mergeCell ref="L443:M443"/>
-    <mergeCell ref="N443:O443"/>
-    <mergeCell ref="G444:I444"/>
-    <mergeCell ref="J444:K444"/>
-    <mergeCell ref="L444:M444"/>
-    <mergeCell ref="N444:O444"/>
-    <mergeCell ref="A425:D433"/>
-    <mergeCell ref="E426:O429"/>
-    <mergeCell ref="E430:O430"/>
-    <mergeCell ref="E431:O431"/>
-    <mergeCell ref="L433:O433"/>
-    <mergeCell ref="L434:O434"/>
-    <mergeCell ref="L435:O435"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="D436:F436"/>
-    <mergeCell ref="L436:O436"/>
-    <mergeCell ref="A366:C369"/>
-    <mergeCell ref="D366:F369"/>
-    <mergeCell ref="G366:I366"/>
-    <mergeCell ref="J366:K366"/>
-    <mergeCell ref="L366:M366"/>
-    <mergeCell ref="N366:O366"/>
-    <mergeCell ref="G367:I367"/>
-    <mergeCell ref="J367:K367"/>
-    <mergeCell ref="L367:M367"/>
-    <mergeCell ref="N367:O367"/>
-    <mergeCell ref="G368:I368"/>
-    <mergeCell ref="J368:K368"/>
-    <mergeCell ref="L368:M368"/>
-    <mergeCell ref="N368:O368"/>
-    <mergeCell ref="G369:I369"/>
-    <mergeCell ref="J369:K369"/>
-    <mergeCell ref="L369:M369"/>
-    <mergeCell ref="N369:O369"/>
-    <mergeCell ref="A358:C361"/>
-    <mergeCell ref="D358:F361"/>
-    <mergeCell ref="L358:O358"/>
-    <mergeCell ref="L359:O359"/>
-    <mergeCell ref="G361:O361"/>
-    <mergeCell ref="A362:C365"/>
-    <mergeCell ref="D362:F365"/>
-    <mergeCell ref="G362:I362"/>
-    <mergeCell ref="J362:K362"/>
-    <mergeCell ref="L362:M362"/>
-    <mergeCell ref="N362:O362"/>
-    <mergeCell ref="G363:I363"/>
-    <mergeCell ref="J363:K363"/>
-    <mergeCell ref="L363:M363"/>
-    <mergeCell ref="N363:O363"/>
-    <mergeCell ref="G364:I364"/>
-    <mergeCell ref="J364:K364"/>
-    <mergeCell ref="L364:M364"/>
-    <mergeCell ref="N364:O364"/>
-    <mergeCell ref="G365:I365"/>
-    <mergeCell ref="J365:K365"/>
-    <mergeCell ref="L365:M365"/>
-    <mergeCell ref="N365:O365"/>
-    <mergeCell ref="A346:D354"/>
-    <mergeCell ref="E347:O350"/>
-    <mergeCell ref="E351:O351"/>
-    <mergeCell ref="E352:O352"/>
-    <mergeCell ref="L354:O354"/>
-    <mergeCell ref="L355:O355"/>
-    <mergeCell ref="L356:O356"/>
-    <mergeCell ref="A357:C357"/>
-    <mergeCell ref="D357:F357"/>
-    <mergeCell ref="L357:O357"/>
-    <mergeCell ref="A314:C317"/>
-    <mergeCell ref="D314:F317"/>
-    <mergeCell ref="G314:I314"/>
-    <mergeCell ref="J314:K314"/>
-    <mergeCell ref="L314:M314"/>
-    <mergeCell ref="N314:O314"/>
-    <mergeCell ref="G315:I315"/>
-    <mergeCell ref="J315:K315"/>
-    <mergeCell ref="L315:M315"/>
-    <mergeCell ref="N315:O315"/>
-    <mergeCell ref="G316:I316"/>
-    <mergeCell ref="J316:K316"/>
-    <mergeCell ref="L316:M316"/>
-    <mergeCell ref="N316:O316"/>
-    <mergeCell ref="G317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="L317:M317"/>
-    <mergeCell ref="N317:O317"/>
-    <mergeCell ref="A306:C309"/>
-    <mergeCell ref="D306:F309"/>
-    <mergeCell ref="L306:O306"/>
-    <mergeCell ref="L307:O307"/>
-    <mergeCell ref="G309:O309"/>
-    <mergeCell ref="A310:C313"/>
-    <mergeCell ref="D310:F313"/>
-    <mergeCell ref="G310:I310"/>
-    <mergeCell ref="J310:K310"/>
-    <mergeCell ref="L310:M310"/>
-    <mergeCell ref="N310:O310"/>
-    <mergeCell ref="G311:I311"/>
-    <mergeCell ref="J311:K311"/>
-    <mergeCell ref="L311:M311"/>
-    <mergeCell ref="N311:O311"/>
-    <mergeCell ref="G312:I312"/>
-    <mergeCell ref="J312:K312"/>
-    <mergeCell ref="L312:M312"/>
-    <mergeCell ref="N312:O312"/>
-    <mergeCell ref="G313:I313"/>
-    <mergeCell ref="J313:K313"/>
-    <mergeCell ref="L313:M313"/>
-    <mergeCell ref="N313:O313"/>
-    <mergeCell ref="A294:D302"/>
-    <mergeCell ref="E295:O298"/>
-    <mergeCell ref="E299:O299"/>
-    <mergeCell ref="E300:O300"/>
-    <mergeCell ref="L302:O302"/>
-    <mergeCell ref="L303:O303"/>
-    <mergeCell ref="L304:O304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="D305:F305"/>
-    <mergeCell ref="L305:O305"/>
-    <mergeCell ref="A256:C259"/>
-    <mergeCell ref="D256:F259"/>
-    <mergeCell ref="G256:I256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="L256:M256"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="G257:I257"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="L257:M257"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="G258:I258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="L258:M258"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="G259:I259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="L259:M259"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="A248:C251"/>
-    <mergeCell ref="D248:F251"/>
-    <mergeCell ref="L248:O248"/>
-    <mergeCell ref="L249:O249"/>
-    <mergeCell ref="G251:O251"/>
-    <mergeCell ref="A252:C255"/>
-    <mergeCell ref="D252:F255"/>
-    <mergeCell ref="G252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="L252:M252"/>
-    <mergeCell ref="N252:O252"/>
-    <mergeCell ref="G253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="L253:M253"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="G254:I254"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="L254:M254"/>
-    <mergeCell ref="N254:O254"/>
-    <mergeCell ref="G255:I255"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="L255:M255"/>
-    <mergeCell ref="N255:O255"/>
+  <mergeCells count="1065">
+    <mergeCell ref="N522:O522"/>
+    <mergeCell ref="A523:C526"/>
+    <mergeCell ref="D523:F526"/>
+    <mergeCell ref="G523:I523"/>
+    <mergeCell ref="J523:K523"/>
+    <mergeCell ref="L523:M523"/>
+    <mergeCell ref="N523:O523"/>
+    <mergeCell ref="G524:I524"/>
+    <mergeCell ref="J524:K524"/>
+    <mergeCell ref="L524:M524"/>
+    <mergeCell ref="N524:O524"/>
+    <mergeCell ref="G525:I525"/>
+    <mergeCell ref="J525:K525"/>
+    <mergeCell ref="L525:M525"/>
+    <mergeCell ref="N525:O525"/>
+    <mergeCell ref="G526:I526"/>
+    <mergeCell ref="J526:K526"/>
+    <mergeCell ref="L526:M526"/>
+    <mergeCell ref="N526:O526"/>
+    <mergeCell ref="A503:D511"/>
+    <mergeCell ref="E504:O507"/>
+    <mergeCell ref="E508:O508"/>
+    <mergeCell ref="E509:O509"/>
+    <mergeCell ref="L511:O511"/>
+    <mergeCell ref="L512:O512"/>
+    <mergeCell ref="L513:O513"/>
+    <mergeCell ref="A514:C514"/>
+    <mergeCell ref="D514:F514"/>
+    <mergeCell ref="L514:O514"/>
+    <mergeCell ref="A515:C518"/>
+    <mergeCell ref="D515:F518"/>
+    <mergeCell ref="L515:O515"/>
+    <mergeCell ref="L516:O516"/>
+    <mergeCell ref="G518:O518"/>
+    <mergeCell ref="A519:C522"/>
+    <mergeCell ref="D519:F522"/>
+    <mergeCell ref="G519:I519"/>
+    <mergeCell ref="J519:K519"/>
+    <mergeCell ref="L519:M519"/>
+    <mergeCell ref="N519:O519"/>
+    <mergeCell ref="G520:I520"/>
+    <mergeCell ref="J520:K520"/>
+    <mergeCell ref="L520:M520"/>
+    <mergeCell ref="N520:O520"/>
+    <mergeCell ref="G521:I521"/>
+    <mergeCell ref="J521:K521"/>
+    <mergeCell ref="L521:M521"/>
+    <mergeCell ref="N521:O521"/>
+    <mergeCell ref="G522:I522"/>
+    <mergeCell ref="J522:K522"/>
+    <mergeCell ref="L522:M522"/>
+    <mergeCell ref="A471:C474"/>
+    <mergeCell ref="D471:F474"/>
+    <mergeCell ref="G471:I471"/>
+    <mergeCell ref="J471:K471"/>
+    <mergeCell ref="L471:M471"/>
+    <mergeCell ref="N471:O471"/>
+    <mergeCell ref="G472:I472"/>
+    <mergeCell ref="J472:K472"/>
+    <mergeCell ref="L472:M472"/>
+    <mergeCell ref="N472:O472"/>
+    <mergeCell ref="G473:I473"/>
+    <mergeCell ref="J473:K473"/>
+    <mergeCell ref="L473:M473"/>
+    <mergeCell ref="N473:O473"/>
+    <mergeCell ref="G474:I474"/>
+    <mergeCell ref="J474:K474"/>
+    <mergeCell ref="L474:M474"/>
+    <mergeCell ref="N474:O474"/>
+    <mergeCell ref="L459:O459"/>
+    <mergeCell ref="L460:O460"/>
+    <mergeCell ref="L461:O461"/>
+    <mergeCell ref="A462:C462"/>
+    <mergeCell ref="D462:F462"/>
+    <mergeCell ref="L462:O462"/>
+    <mergeCell ref="A463:C466"/>
+    <mergeCell ref="D463:F466"/>
+    <mergeCell ref="L463:O463"/>
+    <mergeCell ref="L464:O464"/>
+    <mergeCell ref="G466:O466"/>
+    <mergeCell ref="A467:C470"/>
+    <mergeCell ref="D467:F470"/>
+    <mergeCell ref="G467:I467"/>
+    <mergeCell ref="J467:K467"/>
+    <mergeCell ref="L467:M467"/>
+    <mergeCell ref="N467:O467"/>
+    <mergeCell ref="G468:I468"/>
+    <mergeCell ref="J468:K468"/>
+    <mergeCell ref="L468:M468"/>
+    <mergeCell ref="N468:O468"/>
+    <mergeCell ref="G469:I469"/>
+    <mergeCell ref="J469:K469"/>
+    <mergeCell ref="L469:M469"/>
+    <mergeCell ref="N469:O469"/>
+    <mergeCell ref="G470:I470"/>
+    <mergeCell ref="J470:K470"/>
+    <mergeCell ref="L470:M470"/>
+    <mergeCell ref="N470:O470"/>
+    <mergeCell ref="N417:O417"/>
+    <mergeCell ref="A418:C421"/>
+    <mergeCell ref="D418:F421"/>
+    <mergeCell ref="G418:I418"/>
+    <mergeCell ref="J418:K418"/>
+    <mergeCell ref="L418:M418"/>
+    <mergeCell ref="N418:O418"/>
+    <mergeCell ref="G419:I419"/>
+    <mergeCell ref="J419:K419"/>
+    <mergeCell ref="L419:M419"/>
+    <mergeCell ref="N419:O419"/>
+    <mergeCell ref="G420:I420"/>
+    <mergeCell ref="J420:K420"/>
+    <mergeCell ref="L420:M420"/>
+    <mergeCell ref="N420:O420"/>
+    <mergeCell ref="G421:I421"/>
+    <mergeCell ref="J421:K421"/>
+    <mergeCell ref="L421:M421"/>
+    <mergeCell ref="N421:O421"/>
+    <mergeCell ref="A398:D406"/>
+    <mergeCell ref="E399:O402"/>
+    <mergeCell ref="E403:O403"/>
+    <mergeCell ref="E404:O404"/>
+    <mergeCell ref="L406:O406"/>
+    <mergeCell ref="L407:O407"/>
+    <mergeCell ref="L408:O408"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="D409:F409"/>
+    <mergeCell ref="L409:O409"/>
+    <mergeCell ref="A410:C413"/>
+    <mergeCell ref="D410:F413"/>
+    <mergeCell ref="L410:O410"/>
+    <mergeCell ref="L411:O411"/>
+    <mergeCell ref="G413:O413"/>
+    <mergeCell ref="A414:C417"/>
+    <mergeCell ref="D414:F417"/>
+    <mergeCell ref="G414:I414"/>
+    <mergeCell ref="J414:K414"/>
+    <mergeCell ref="L414:M414"/>
+    <mergeCell ref="N414:O414"/>
+    <mergeCell ref="G415:I415"/>
+    <mergeCell ref="J415:K415"/>
+    <mergeCell ref="L415:M415"/>
+    <mergeCell ref="N415:O415"/>
+    <mergeCell ref="G416:I416"/>
+    <mergeCell ref="J416:K416"/>
+    <mergeCell ref="L416:M416"/>
+    <mergeCell ref="N416:O416"/>
+    <mergeCell ref="G417:I417"/>
+    <mergeCell ref="J417:K417"/>
+    <mergeCell ref="L417:M417"/>
+    <mergeCell ref="A392:C395"/>
+    <mergeCell ref="D392:F395"/>
+    <mergeCell ref="G392:I392"/>
+    <mergeCell ref="J392:K392"/>
+    <mergeCell ref="L392:M392"/>
+    <mergeCell ref="N392:O392"/>
+    <mergeCell ref="G393:I393"/>
+    <mergeCell ref="J393:K393"/>
+    <mergeCell ref="L393:M393"/>
+    <mergeCell ref="N393:O393"/>
+    <mergeCell ref="G394:I394"/>
+    <mergeCell ref="J394:K394"/>
+    <mergeCell ref="L394:M394"/>
+    <mergeCell ref="N394:O394"/>
+    <mergeCell ref="G395:I395"/>
+    <mergeCell ref="J395:K395"/>
+    <mergeCell ref="L395:M395"/>
+    <mergeCell ref="N395:O395"/>
+    <mergeCell ref="L380:O380"/>
+    <mergeCell ref="L381:O381"/>
+    <mergeCell ref="L382:O382"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="D383:F383"/>
+    <mergeCell ref="L383:O383"/>
+    <mergeCell ref="A384:C387"/>
+    <mergeCell ref="D384:F387"/>
+    <mergeCell ref="L384:O384"/>
+    <mergeCell ref="L385:O385"/>
+    <mergeCell ref="G387:O387"/>
+    <mergeCell ref="A388:C391"/>
+    <mergeCell ref="D388:F391"/>
+    <mergeCell ref="G388:I388"/>
+    <mergeCell ref="J388:K388"/>
+    <mergeCell ref="L388:M388"/>
+    <mergeCell ref="N388:O388"/>
+    <mergeCell ref="G389:I389"/>
+    <mergeCell ref="J389:K389"/>
+    <mergeCell ref="L389:M389"/>
+    <mergeCell ref="N389:O389"/>
+    <mergeCell ref="G390:I390"/>
+    <mergeCell ref="J390:K390"/>
+    <mergeCell ref="L390:M390"/>
+    <mergeCell ref="N390:O390"/>
+    <mergeCell ref="G391:I391"/>
+    <mergeCell ref="J391:K391"/>
+    <mergeCell ref="L391:M391"/>
+    <mergeCell ref="N391:O391"/>
+    <mergeCell ref="A340:C343"/>
+    <mergeCell ref="D340:F343"/>
+    <mergeCell ref="G340:I340"/>
+    <mergeCell ref="J340:K340"/>
+    <mergeCell ref="L340:M340"/>
+    <mergeCell ref="N340:O340"/>
+    <mergeCell ref="G341:I341"/>
+    <mergeCell ref="J341:K341"/>
+    <mergeCell ref="L341:M341"/>
+    <mergeCell ref="N341:O341"/>
+    <mergeCell ref="G342:I342"/>
+    <mergeCell ref="J342:K342"/>
+    <mergeCell ref="L342:M342"/>
+    <mergeCell ref="N342:O342"/>
+    <mergeCell ref="G343:I343"/>
+    <mergeCell ref="J343:K343"/>
+    <mergeCell ref="L343:M343"/>
+    <mergeCell ref="N343:O343"/>
+    <mergeCell ref="L328:O328"/>
+    <mergeCell ref="L329:O329"/>
+    <mergeCell ref="L330:O330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="D331:F331"/>
+    <mergeCell ref="L331:O331"/>
+    <mergeCell ref="A332:C335"/>
+    <mergeCell ref="D332:F335"/>
+    <mergeCell ref="L332:O332"/>
+    <mergeCell ref="L333:O333"/>
+    <mergeCell ref="G335:O335"/>
+    <mergeCell ref="A336:C339"/>
+    <mergeCell ref="D336:F339"/>
+    <mergeCell ref="G336:I336"/>
+    <mergeCell ref="J336:K336"/>
+    <mergeCell ref="L336:M336"/>
+    <mergeCell ref="N336:O336"/>
+    <mergeCell ref="G337:I337"/>
+    <mergeCell ref="J337:K337"/>
+    <mergeCell ref="L337:M337"/>
+    <mergeCell ref="N337:O337"/>
+    <mergeCell ref="G338:I338"/>
+    <mergeCell ref="J338:K338"/>
+    <mergeCell ref="L338:M338"/>
+    <mergeCell ref="N338:O338"/>
+    <mergeCell ref="G339:I339"/>
+    <mergeCell ref="J339:K339"/>
+    <mergeCell ref="L339:M339"/>
+    <mergeCell ref="N339:O339"/>
+    <mergeCell ref="G289:I289"/>
+    <mergeCell ref="J289:K289"/>
+    <mergeCell ref="L289:M289"/>
+    <mergeCell ref="N289:O289"/>
+    <mergeCell ref="G290:I290"/>
+    <mergeCell ref="J290:K290"/>
+    <mergeCell ref="L290:M290"/>
+    <mergeCell ref="N290:O290"/>
+    <mergeCell ref="G291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="L291:M291"/>
+    <mergeCell ref="N291:O291"/>
+    <mergeCell ref="Q266:U267"/>
+    <mergeCell ref="Q269:U271"/>
+    <mergeCell ref="Q272:U274"/>
+    <mergeCell ref="Q275:U277"/>
+    <mergeCell ref="Q278:U280"/>
+    <mergeCell ref="Q281:U283"/>
+    <mergeCell ref="Q284:U286"/>
+    <mergeCell ref="Q287:U289"/>
+    <mergeCell ref="Q290:U291"/>
+    <mergeCell ref="A286:C289"/>
+    <mergeCell ref="D286:F289"/>
+    <mergeCell ref="A290:C293"/>
+    <mergeCell ref="D290:F293"/>
+    <mergeCell ref="G284:I284"/>
+    <mergeCell ref="J284:K284"/>
+    <mergeCell ref="L284:M284"/>
+    <mergeCell ref="N284:O284"/>
+    <mergeCell ref="G285:I285"/>
+    <mergeCell ref="J285:K285"/>
+    <mergeCell ref="L285:M285"/>
+    <mergeCell ref="N285:O285"/>
+    <mergeCell ref="G286:I286"/>
+    <mergeCell ref="J286:K286"/>
+    <mergeCell ref="L286:M286"/>
+    <mergeCell ref="N286:O286"/>
+    <mergeCell ref="G287:I287"/>
+    <mergeCell ref="J287:K287"/>
+    <mergeCell ref="L287:M287"/>
+    <mergeCell ref="N287:O287"/>
+    <mergeCell ref="G288:I288"/>
+    <mergeCell ref="J288:K288"/>
+    <mergeCell ref="L288:M288"/>
+    <mergeCell ref="N288:O288"/>
+    <mergeCell ref="G292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="L292:M292"/>
+    <mergeCell ref="N292:O292"/>
+    <mergeCell ref="G293:I293"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="L293:M293"/>
+    <mergeCell ref="N293:O293"/>
+    <mergeCell ref="A282:C285"/>
+    <mergeCell ref="D282:F285"/>
+    <mergeCell ref="G280:I280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="L280:M280"/>
+    <mergeCell ref="N281:O281"/>
+    <mergeCell ref="G281:I281"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="L281:M281"/>
+    <mergeCell ref="N282:O282"/>
+    <mergeCell ref="G282:I282"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="L282:M282"/>
+    <mergeCell ref="G283:I283"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="L283:M283"/>
+    <mergeCell ref="N283:O283"/>
+    <mergeCell ref="N280:O280"/>
+    <mergeCell ref="L270:O270"/>
+    <mergeCell ref="L271:O271"/>
+    <mergeCell ref="L272:O272"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="D273:F273"/>
+    <mergeCell ref="L273:O273"/>
+    <mergeCell ref="A274:C277"/>
+    <mergeCell ref="D274:F277"/>
+    <mergeCell ref="L274:O274"/>
+    <mergeCell ref="L275:O275"/>
+    <mergeCell ref="G277:O277"/>
+    <mergeCell ref="A278:C281"/>
+    <mergeCell ref="D278:F281"/>
+    <mergeCell ref="G278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="L278:M278"/>
+    <mergeCell ref="N278:O278"/>
+    <mergeCell ref="G279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="L279:M279"/>
+    <mergeCell ref="N279:O279"/>
+    <mergeCell ref="G232:I232"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="L232:M232"/>
+    <mergeCell ref="N232:O232"/>
+    <mergeCell ref="G233:I233"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="L233:M233"/>
+    <mergeCell ref="N233:O233"/>
+    <mergeCell ref="A230:C233"/>
+    <mergeCell ref="D230:F233"/>
+    <mergeCell ref="G230:I230"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="L230:M230"/>
+    <mergeCell ref="N230:O230"/>
+    <mergeCell ref="G231:I231"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="L231:M231"/>
+    <mergeCell ref="N231:O231"/>
+    <mergeCell ref="L220:O220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="L221:O221"/>
+    <mergeCell ref="A222:C225"/>
+    <mergeCell ref="D222:F225"/>
+    <mergeCell ref="L222:O222"/>
+    <mergeCell ref="L223:O223"/>
+    <mergeCell ref="G225:O225"/>
+    <mergeCell ref="G228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="L228:M228"/>
+    <mergeCell ref="N228:O228"/>
+    <mergeCell ref="G229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="L229:M229"/>
+    <mergeCell ref="N229:O229"/>
+    <mergeCell ref="A226:C229"/>
+    <mergeCell ref="D226:F229"/>
+    <mergeCell ref="G226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="L226:M226"/>
+    <mergeCell ref="N226:O226"/>
+    <mergeCell ref="G227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="L227:M227"/>
+    <mergeCell ref="N227:O227"/>
+    <mergeCell ref="A210:D218"/>
+    <mergeCell ref="E211:O214"/>
+    <mergeCell ref="E215:O215"/>
+    <mergeCell ref="E216:O216"/>
+    <mergeCell ref="L218:O218"/>
+    <mergeCell ref="L219:O219"/>
+    <mergeCell ref="G206:I206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="N206:O206"/>
+    <mergeCell ref="G207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="N207:O207"/>
+    <mergeCell ref="A204:C207"/>
+    <mergeCell ref="D204:F207"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="L204:M204"/>
+    <mergeCell ref="N204:O204"/>
+    <mergeCell ref="G205:I205"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="L205:M205"/>
+    <mergeCell ref="N205:O205"/>
+    <mergeCell ref="L194:O194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="L195:O195"/>
+    <mergeCell ref="A196:C199"/>
+    <mergeCell ref="D196:F199"/>
+    <mergeCell ref="L196:O196"/>
+    <mergeCell ref="L197:O197"/>
+    <mergeCell ref="G199:O199"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="L202:M202"/>
+    <mergeCell ref="N202:O202"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="L203:M203"/>
+    <mergeCell ref="N203:O203"/>
+    <mergeCell ref="A200:C203"/>
+    <mergeCell ref="D200:F203"/>
+    <mergeCell ref="G200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="L200:M200"/>
+    <mergeCell ref="N200:O200"/>
+    <mergeCell ref="G201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="L201:M201"/>
+    <mergeCell ref="N201:O201"/>
+    <mergeCell ref="A184:D192"/>
+    <mergeCell ref="E185:O188"/>
+    <mergeCell ref="E189:O189"/>
+    <mergeCell ref="E190:O190"/>
+    <mergeCell ref="L192:O192"/>
+    <mergeCell ref="L193:O193"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="G180:I180"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="L180:M180"/>
+    <mergeCell ref="N180:O180"/>
+    <mergeCell ref="A177:C180"/>
+    <mergeCell ref="D177:F180"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="L177:M177"/>
+    <mergeCell ref="N177:O177"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="L178:M178"/>
+    <mergeCell ref="N178:O178"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="A169:C172"/>
+    <mergeCell ref="D169:F172"/>
+    <mergeCell ref="L169:O169"/>
+    <mergeCell ref="L170:O170"/>
+    <mergeCell ref="G172:O172"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="L175:M175"/>
+    <mergeCell ref="N175:O175"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="L176:M176"/>
+    <mergeCell ref="N176:O176"/>
+    <mergeCell ref="A173:C176"/>
+    <mergeCell ref="D173:F176"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="N173:O173"/>
+    <mergeCell ref="G174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="L174:M174"/>
+    <mergeCell ref="N174:O174"/>
+    <mergeCell ref="A157:D165"/>
+    <mergeCell ref="E158:O161"/>
+    <mergeCell ref="E162:O162"/>
+    <mergeCell ref="E163:O163"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="L166:O166"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="A151:C154"/>
+    <mergeCell ref="D151:F154"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="L142:O142"/>
+    <mergeCell ref="A143:C146"/>
+    <mergeCell ref="D143:F146"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="G146:O146"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="G150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="A147:C150"/>
+    <mergeCell ref="D147:F150"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A131:D139"/>
+    <mergeCell ref="E132:O135"/>
+    <mergeCell ref="E136:O136"/>
+    <mergeCell ref="E137:O137"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A125:C128"/>
+    <mergeCell ref="D125:F128"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="A117:C120"/>
+    <mergeCell ref="D117:F120"/>
+    <mergeCell ref="L117:O117"/>
+    <mergeCell ref="L118:O118"/>
+    <mergeCell ref="G120:O120"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A121:C124"/>
+    <mergeCell ref="D121:F124"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A105:D113"/>
+    <mergeCell ref="E106:O109"/>
+    <mergeCell ref="E110:O110"/>
+    <mergeCell ref="E111:O111"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A99:C102"/>
+    <mergeCell ref="D99:F102"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="A91:C94"/>
+    <mergeCell ref="D91:F94"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="G94:O94"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A95:C98"/>
+    <mergeCell ref="D95:F98"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A79:D87"/>
+    <mergeCell ref="E80:O83"/>
+    <mergeCell ref="E84:O84"/>
+    <mergeCell ref="E85:O85"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A73:C76"/>
+    <mergeCell ref="D73:F76"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="A65:C68"/>
+    <mergeCell ref="D65:F68"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="G68:O68"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A69:C72"/>
+    <mergeCell ref="D69:F72"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A53:D61"/>
+    <mergeCell ref="E54:O57"/>
+    <mergeCell ref="E58:O58"/>
+    <mergeCell ref="E59:O59"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="A47:C50"/>
+    <mergeCell ref="D47:F50"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D21:F24"/>
+    <mergeCell ref="A43:C46"/>
+    <mergeCell ref="D43:F46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="A39:C42"/>
+    <mergeCell ref="D39:F42"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A27:D35"/>
+    <mergeCell ref="E28:O31"/>
+    <mergeCell ref="E32:O32"/>
+    <mergeCell ref="E33:O33"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="A236:D244"/>
     <mergeCell ref="E237:O240"/>
     <mergeCell ref="E241:O241"/>
@@ -13476,743 +14661,267 @@
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A27:D35"/>
-    <mergeCell ref="E28:O31"/>
-    <mergeCell ref="E32:O32"/>
-    <mergeCell ref="E33:O33"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D21:F24"/>
-    <mergeCell ref="A43:C46"/>
-    <mergeCell ref="D43:F46"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="A39:C42"/>
-    <mergeCell ref="D39:F42"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="G42:O42"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="A53:D61"/>
-    <mergeCell ref="E54:O57"/>
-    <mergeCell ref="E58:O58"/>
-    <mergeCell ref="E59:O59"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="A47:C50"/>
-    <mergeCell ref="D47:F50"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="A65:C68"/>
-    <mergeCell ref="D65:F68"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="G68:O68"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="A69:C72"/>
-    <mergeCell ref="D69:F72"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="A79:D87"/>
-    <mergeCell ref="E80:O83"/>
-    <mergeCell ref="E84:O84"/>
-    <mergeCell ref="E85:O85"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="A73:C76"/>
-    <mergeCell ref="D73:F76"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="L89:O89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="A91:C94"/>
-    <mergeCell ref="D91:F94"/>
-    <mergeCell ref="L91:O91"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="G94:O94"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="A95:C98"/>
-    <mergeCell ref="D95:F98"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="A105:D113"/>
-    <mergeCell ref="E106:O109"/>
-    <mergeCell ref="E110:O110"/>
-    <mergeCell ref="E111:O111"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="A99:C102"/>
-    <mergeCell ref="D99:F102"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="A117:C120"/>
-    <mergeCell ref="D117:F120"/>
-    <mergeCell ref="L117:O117"/>
-    <mergeCell ref="L118:O118"/>
-    <mergeCell ref="G120:O120"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:M124"/>
-    <mergeCell ref="N124:O124"/>
-    <mergeCell ref="A121:C124"/>
-    <mergeCell ref="D121:F124"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="L121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="L122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="A131:D139"/>
-    <mergeCell ref="E132:O135"/>
-    <mergeCell ref="E136:O136"/>
-    <mergeCell ref="E137:O137"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="L128:M128"/>
-    <mergeCell ref="N128:O128"/>
-    <mergeCell ref="A125:C128"/>
-    <mergeCell ref="D125:F128"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="L125:M125"/>
-    <mergeCell ref="N125:O125"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="L126:M126"/>
-    <mergeCell ref="N126:O126"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="L142:O142"/>
-    <mergeCell ref="A143:C146"/>
-    <mergeCell ref="D143:F146"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="G146:O146"/>
-    <mergeCell ref="G149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="G150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="A147:C150"/>
-    <mergeCell ref="D147:F150"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="L147:M147"/>
-    <mergeCell ref="N147:O147"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="L148:M148"/>
-    <mergeCell ref="N148:O148"/>
-    <mergeCell ref="A157:D165"/>
-    <mergeCell ref="E158:O161"/>
-    <mergeCell ref="E162:O162"/>
-    <mergeCell ref="E163:O163"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="L166:O166"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="A151:C154"/>
-    <mergeCell ref="D151:F154"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="A169:C172"/>
-    <mergeCell ref="D169:F172"/>
-    <mergeCell ref="L169:O169"/>
-    <mergeCell ref="L170:O170"/>
-    <mergeCell ref="G172:O172"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="L175:M175"/>
-    <mergeCell ref="N175:O175"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="L176:M176"/>
-    <mergeCell ref="N176:O176"/>
-    <mergeCell ref="A173:C176"/>
-    <mergeCell ref="D173:F176"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="L173:M173"/>
-    <mergeCell ref="N173:O173"/>
-    <mergeCell ref="G174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="L174:M174"/>
-    <mergeCell ref="N174:O174"/>
-    <mergeCell ref="A184:D192"/>
-    <mergeCell ref="E185:O188"/>
-    <mergeCell ref="E189:O189"/>
-    <mergeCell ref="E190:O190"/>
-    <mergeCell ref="L192:O192"/>
-    <mergeCell ref="L193:O193"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="G180:I180"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="L180:M180"/>
-    <mergeCell ref="N180:O180"/>
-    <mergeCell ref="A177:C180"/>
-    <mergeCell ref="D177:F180"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="L177:M177"/>
-    <mergeCell ref="N177:O177"/>
-    <mergeCell ref="G178:I178"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="L178:M178"/>
-    <mergeCell ref="N178:O178"/>
-    <mergeCell ref="L194:O194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="L195:O195"/>
-    <mergeCell ref="A196:C199"/>
-    <mergeCell ref="D196:F199"/>
-    <mergeCell ref="L196:O196"/>
-    <mergeCell ref="L197:O197"/>
-    <mergeCell ref="G199:O199"/>
-    <mergeCell ref="G202:I202"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="L202:M202"/>
-    <mergeCell ref="N202:O202"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="L203:M203"/>
-    <mergeCell ref="N203:O203"/>
-    <mergeCell ref="A200:C203"/>
-    <mergeCell ref="D200:F203"/>
-    <mergeCell ref="G200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="L200:M200"/>
-    <mergeCell ref="N200:O200"/>
-    <mergeCell ref="G201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="L201:M201"/>
-    <mergeCell ref="N201:O201"/>
-    <mergeCell ref="A210:D218"/>
-    <mergeCell ref="E211:O214"/>
-    <mergeCell ref="E215:O215"/>
-    <mergeCell ref="E216:O216"/>
-    <mergeCell ref="L218:O218"/>
-    <mergeCell ref="L219:O219"/>
-    <mergeCell ref="G206:I206"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="N206:O206"/>
-    <mergeCell ref="G207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="A204:C207"/>
-    <mergeCell ref="D204:F207"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="L204:M204"/>
-    <mergeCell ref="N204:O204"/>
-    <mergeCell ref="G205:I205"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="L205:M205"/>
-    <mergeCell ref="N205:O205"/>
-    <mergeCell ref="L220:O220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="L221:O221"/>
-    <mergeCell ref="A222:C225"/>
-    <mergeCell ref="D222:F225"/>
-    <mergeCell ref="L222:O222"/>
-    <mergeCell ref="L223:O223"/>
-    <mergeCell ref="G225:O225"/>
-    <mergeCell ref="G228:I228"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="L228:M228"/>
-    <mergeCell ref="N228:O228"/>
-    <mergeCell ref="G229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="L229:M229"/>
-    <mergeCell ref="N229:O229"/>
-    <mergeCell ref="A226:C229"/>
-    <mergeCell ref="D226:F229"/>
-    <mergeCell ref="G226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="L226:M226"/>
-    <mergeCell ref="N226:O226"/>
-    <mergeCell ref="G227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="L227:M227"/>
-    <mergeCell ref="N227:O227"/>
-    <mergeCell ref="G232:I232"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="L232:M232"/>
-    <mergeCell ref="N232:O232"/>
-    <mergeCell ref="G233:I233"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="L233:M233"/>
-    <mergeCell ref="N233:O233"/>
-    <mergeCell ref="A230:C233"/>
-    <mergeCell ref="D230:F233"/>
-    <mergeCell ref="G230:I230"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="L230:M230"/>
-    <mergeCell ref="N230:O230"/>
-    <mergeCell ref="G231:I231"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="L231:M231"/>
-    <mergeCell ref="N231:O231"/>
+    <mergeCell ref="A248:C251"/>
+    <mergeCell ref="D248:F251"/>
+    <mergeCell ref="L248:O248"/>
+    <mergeCell ref="L249:O249"/>
+    <mergeCell ref="G251:O251"/>
+    <mergeCell ref="A252:C255"/>
+    <mergeCell ref="D252:F255"/>
+    <mergeCell ref="G252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="L252:M252"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="G253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="L253:M253"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="G254:I254"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="L254:M254"/>
+    <mergeCell ref="N254:O254"/>
+    <mergeCell ref="G255:I255"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="L255:M255"/>
+    <mergeCell ref="N255:O255"/>
+    <mergeCell ref="A294:D302"/>
+    <mergeCell ref="E295:O298"/>
+    <mergeCell ref="E299:O299"/>
+    <mergeCell ref="E300:O300"/>
+    <mergeCell ref="L302:O302"/>
+    <mergeCell ref="L303:O303"/>
+    <mergeCell ref="L304:O304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="D305:F305"/>
+    <mergeCell ref="L305:O305"/>
+    <mergeCell ref="A256:C259"/>
+    <mergeCell ref="D256:F259"/>
+    <mergeCell ref="G256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="L256:M256"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="G257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="L257:M257"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="G258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="L258:M258"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="G259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="L259:M259"/>
+    <mergeCell ref="N259:O259"/>
     <mergeCell ref="A262:D270"/>
     <mergeCell ref="E263:O266"/>
     <mergeCell ref="E267:O267"/>
     <mergeCell ref="E268:O268"/>
-    <mergeCell ref="L270:O270"/>
-    <mergeCell ref="L271:O271"/>
-    <mergeCell ref="L272:O272"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="D273:F273"/>
-    <mergeCell ref="L273:O273"/>
-    <mergeCell ref="A274:C277"/>
-    <mergeCell ref="D274:F277"/>
-    <mergeCell ref="L274:O274"/>
-    <mergeCell ref="L275:O275"/>
-    <mergeCell ref="G277:O277"/>
-    <mergeCell ref="A278:C281"/>
-    <mergeCell ref="D278:F281"/>
-    <mergeCell ref="G278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="L278:M278"/>
-    <mergeCell ref="N278:O278"/>
-    <mergeCell ref="G279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="L279:M279"/>
-    <mergeCell ref="N279:O279"/>
-    <mergeCell ref="A282:C285"/>
-    <mergeCell ref="D282:F285"/>
-    <mergeCell ref="G280:I280"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="L280:M280"/>
-    <mergeCell ref="N281:O281"/>
-    <mergeCell ref="G281:I281"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="L281:M281"/>
-    <mergeCell ref="N282:O282"/>
-    <mergeCell ref="G282:I282"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="L282:M282"/>
-    <mergeCell ref="G283:I283"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="L283:M283"/>
-    <mergeCell ref="N283:O283"/>
-    <mergeCell ref="N280:O280"/>
-    <mergeCell ref="A286:C289"/>
-    <mergeCell ref="D286:F289"/>
-    <mergeCell ref="A290:C293"/>
-    <mergeCell ref="D290:F293"/>
-    <mergeCell ref="G284:I284"/>
-    <mergeCell ref="J284:K284"/>
-    <mergeCell ref="L284:M284"/>
-    <mergeCell ref="N284:O284"/>
-    <mergeCell ref="G285:I285"/>
-    <mergeCell ref="J285:K285"/>
-    <mergeCell ref="L285:M285"/>
-    <mergeCell ref="N285:O285"/>
-    <mergeCell ref="G286:I286"/>
-    <mergeCell ref="J286:K286"/>
-    <mergeCell ref="L286:M286"/>
-    <mergeCell ref="N286:O286"/>
-    <mergeCell ref="G287:I287"/>
-    <mergeCell ref="J287:K287"/>
-    <mergeCell ref="L287:M287"/>
-    <mergeCell ref="N287:O287"/>
-    <mergeCell ref="G288:I288"/>
-    <mergeCell ref="J288:K288"/>
-    <mergeCell ref="L288:M288"/>
-    <mergeCell ref="N288:O288"/>
-    <mergeCell ref="G292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="L292:M292"/>
-    <mergeCell ref="N292:O292"/>
-    <mergeCell ref="G293:I293"/>
-    <mergeCell ref="J293:K293"/>
-    <mergeCell ref="L293:M293"/>
-    <mergeCell ref="N293:O293"/>
-    <mergeCell ref="G289:I289"/>
-    <mergeCell ref="J289:K289"/>
-    <mergeCell ref="L289:M289"/>
-    <mergeCell ref="N289:O289"/>
-    <mergeCell ref="G290:I290"/>
-    <mergeCell ref="J290:K290"/>
-    <mergeCell ref="L290:M290"/>
-    <mergeCell ref="N290:O290"/>
-    <mergeCell ref="G291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="L291:M291"/>
-    <mergeCell ref="N291:O291"/>
-    <mergeCell ref="Q266:U267"/>
-    <mergeCell ref="Q269:U271"/>
-    <mergeCell ref="Q272:U274"/>
-    <mergeCell ref="Q275:U277"/>
-    <mergeCell ref="Q278:U280"/>
-    <mergeCell ref="Q281:U283"/>
-    <mergeCell ref="Q284:U286"/>
-    <mergeCell ref="Q287:U289"/>
-    <mergeCell ref="Q290:U291"/>
+    <mergeCell ref="A306:C309"/>
+    <mergeCell ref="D306:F309"/>
+    <mergeCell ref="L306:O306"/>
+    <mergeCell ref="L307:O307"/>
+    <mergeCell ref="G309:O309"/>
+    <mergeCell ref="A310:C313"/>
+    <mergeCell ref="D310:F313"/>
+    <mergeCell ref="G310:I310"/>
+    <mergeCell ref="J310:K310"/>
+    <mergeCell ref="L310:M310"/>
+    <mergeCell ref="N310:O310"/>
+    <mergeCell ref="G311:I311"/>
+    <mergeCell ref="J311:K311"/>
+    <mergeCell ref="L311:M311"/>
+    <mergeCell ref="N311:O311"/>
+    <mergeCell ref="G312:I312"/>
+    <mergeCell ref="J312:K312"/>
+    <mergeCell ref="L312:M312"/>
+    <mergeCell ref="N312:O312"/>
+    <mergeCell ref="G313:I313"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="L313:M313"/>
+    <mergeCell ref="N313:O313"/>
+    <mergeCell ref="A346:D354"/>
+    <mergeCell ref="E347:O350"/>
+    <mergeCell ref="E351:O351"/>
+    <mergeCell ref="E352:O352"/>
+    <mergeCell ref="L354:O354"/>
+    <mergeCell ref="L355:O355"/>
+    <mergeCell ref="L356:O356"/>
+    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="D357:F357"/>
+    <mergeCell ref="L357:O357"/>
+    <mergeCell ref="A314:C317"/>
+    <mergeCell ref="D314:F317"/>
+    <mergeCell ref="G314:I314"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="L314:M314"/>
+    <mergeCell ref="N314:O314"/>
+    <mergeCell ref="G315:I315"/>
+    <mergeCell ref="J315:K315"/>
+    <mergeCell ref="L315:M315"/>
+    <mergeCell ref="N315:O315"/>
+    <mergeCell ref="G316:I316"/>
+    <mergeCell ref="J316:K316"/>
+    <mergeCell ref="L316:M316"/>
+    <mergeCell ref="N316:O316"/>
+    <mergeCell ref="G317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="L317:M317"/>
+    <mergeCell ref="N317:O317"/>
     <mergeCell ref="A320:D328"/>
     <mergeCell ref="E321:O324"/>
     <mergeCell ref="E325:O325"/>
     <mergeCell ref="E326:O326"/>
-    <mergeCell ref="L328:O328"/>
-    <mergeCell ref="L329:O329"/>
-    <mergeCell ref="L330:O330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="D331:F331"/>
-    <mergeCell ref="L331:O331"/>
-    <mergeCell ref="A332:C335"/>
-    <mergeCell ref="D332:F335"/>
-    <mergeCell ref="L332:O332"/>
-    <mergeCell ref="L333:O333"/>
-    <mergeCell ref="G335:O335"/>
-    <mergeCell ref="A336:C339"/>
-    <mergeCell ref="D336:F339"/>
-    <mergeCell ref="G336:I336"/>
-    <mergeCell ref="J336:K336"/>
-    <mergeCell ref="L336:M336"/>
-    <mergeCell ref="N336:O336"/>
-    <mergeCell ref="G337:I337"/>
-    <mergeCell ref="J337:K337"/>
-    <mergeCell ref="L337:M337"/>
-    <mergeCell ref="N337:O337"/>
-    <mergeCell ref="G338:I338"/>
-    <mergeCell ref="J338:K338"/>
-    <mergeCell ref="L338:M338"/>
-    <mergeCell ref="N338:O338"/>
-    <mergeCell ref="G339:I339"/>
-    <mergeCell ref="J339:K339"/>
-    <mergeCell ref="L339:M339"/>
-    <mergeCell ref="N339:O339"/>
-    <mergeCell ref="A340:C343"/>
-    <mergeCell ref="D340:F343"/>
-    <mergeCell ref="G340:I340"/>
-    <mergeCell ref="J340:K340"/>
-    <mergeCell ref="L340:M340"/>
-    <mergeCell ref="N340:O340"/>
-    <mergeCell ref="G341:I341"/>
-    <mergeCell ref="J341:K341"/>
-    <mergeCell ref="L341:M341"/>
-    <mergeCell ref="N341:O341"/>
-    <mergeCell ref="G342:I342"/>
-    <mergeCell ref="J342:K342"/>
-    <mergeCell ref="L342:M342"/>
-    <mergeCell ref="N342:O342"/>
-    <mergeCell ref="G343:I343"/>
-    <mergeCell ref="J343:K343"/>
-    <mergeCell ref="L343:M343"/>
-    <mergeCell ref="N343:O343"/>
+    <mergeCell ref="A358:C361"/>
+    <mergeCell ref="D358:F361"/>
+    <mergeCell ref="L358:O358"/>
+    <mergeCell ref="L359:O359"/>
+    <mergeCell ref="G361:O361"/>
+    <mergeCell ref="A362:C365"/>
+    <mergeCell ref="D362:F365"/>
+    <mergeCell ref="G362:I362"/>
+    <mergeCell ref="J362:K362"/>
+    <mergeCell ref="L362:M362"/>
+    <mergeCell ref="N362:O362"/>
+    <mergeCell ref="G363:I363"/>
+    <mergeCell ref="J363:K363"/>
+    <mergeCell ref="L363:M363"/>
+    <mergeCell ref="N363:O363"/>
+    <mergeCell ref="G364:I364"/>
+    <mergeCell ref="J364:K364"/>
+    <mergeCell ref="L364:M364"/>
+    <mergeCell ref="N364:O364"/>
+    <mergeCell ref="G365:I365"/>
+    <mergeCell ref="J365:K365"/>
+    <mergeCell ref="L365:M365"/>
+    <mergeCell ref="N365:O365"/>
+    <mergeCell ref="A425:D433"/>
+    <mergeCell ref="E426:O429"/>
+    <mergeCell ref="E430:O430"/>
+    <mergeCell ref="E431:O431"/>
+    <mergeCell ref="L433:O433"/>
+    <mergeCell ref="L434:O434"/>
+    <mergeCell ref="L435:O435"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="D436:F436"/>
+    <mergeCell ref="L436:O436"/>
+    <mergeCell ref="A366:C369"/>
+    <mergeCell ref="D366:F369"/>
+    <mergeCell ref="G366:I366"/>
+    <mergeCell ref="J366:K366"/>
+    <mergeCell ref="L366:M366"/>
+    <mergeCell ref="N366:O366"/>
+    <mergeCell ref="G367:I367"/>
+    <mergeCell ref="J367:K367"/>
+    <mergeCell ref="L367:M367"/>
+    <mergeCell ref="N367:O367"/>
+    <mergeCell ref="G368:I368"/>
+    <mergeCell ref="J368:K368"/>
+    <mergeCell ref="L368:M368"/>
+    <mergeCell ref="N368:O368"/>
+    <mergeCell ref="G369:I369"/>
+    <mergeCell ref="J369:K369"/>
+    <mergeCell ref="L369:M369"/>
+    <mergeCell ref="N369:O369"/>
     <mergeCell ref="A372:D380"/>
     <mergeCell ref="E373:O376"/>
     <mergeCell ref="E377:O377"/>
     <mergeCell ref="E378:O378"/>
-    <mergeCell ref="L380:O380"/>
-    <mergeCell ref="L381:O381"/>
-    <mergeCell ref="L382:O382"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="D383:F383"/>
-    <mergeCell ref="L383:O383"/>
-    <mergeCell ref="A384:C387"/>
-    <mergeCell ref="D384:F387"/>
-    <mergeCell ref="L384:O384"/>
-    <mergeCell ref="L385:O385"/>
-    <mergeCell ref="G387:O387"/>
-    <mergeCell ref="A388:C391"/>
-    <mergeCell ref="D388:F391"/>
-    <mergeCell ref="G388:I388"/>
-    <mergeCell ref="J388:K388"/>
-    <mergeCell ref="L388:M388"/>
-    <mergeCell ref="N388:O388"/>
-    <mergeCell ref="G389:I389"/>
-    <mergeCell ref="J389:K389"/>
-    <mergeCell ref="L389:M389"/>
-    <mergeCell ref="N389:O389"/>
-    <mergeCell ref="G390:I390"/>
-    <mergeCell ref="J390:K390"/>
-    <mergeCell ref="L390:M390"/>
-    <mergeCell ref="N390:O390"/>
-    <mergeCell ref="G391:I391"/>
-    <mergeCell ref="J391:K391"/>
-    <mergeCell ref="L391:M391"/>
-    <mergeCell ref="N391:O391"/>
-    <mergeCell ref="A392:C395"/>
-    <mergeCell ref="D392:F395"/>
-    <mergeCell ref="G392:I392"/>
-    <mergeCell ref="J392:K392"/>
-    <mergeCell ref="L392:M392"/>
-    <mergeCell ref="N392:O392"/>
-    <mergeCell ref="G393:I393"/>
-    <mergeCell ref="J393:K393"/>
-    <mergeCell ref="L393:M393"/>
-    <mergeCell ref="N393:O393"/>
-    <mergeCell ref="G394:I394"/>
-    <mergeCell ref="J394:K394"/>
-    <mergeCell ref="L394:M394"/>
-    <mergeCell ref="N394:O394"/>
-    <mergeCell ref="G395:I395"/>
-    <mergeCell ref="J395:K395"/>
-    <mergeCell ref="L395:M395"/>
-    <mergeCell ref="N395:O395"/>
-    <mergeCell ref="A398:D406"/>
-    <mergeCell ref="E399:O402"/>
-    <mergeCell ref="E403:O403"/>
-    <mergeCell ref="E404:O404"/>
-    <mergeCell ref="L406:O406"/>
-    <mergeCell ref="L407:O407"/>
-    <mergeCell ref="L408:O408"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="D409:F409"/>
-    <mergeCell ref="L409:O409"/>
-    <mergeCell ref="A410:C413"/>
-    <mergeCell ref="D410:F413"/>
-    <mergeCell ref="L410:O410"/>
-    <mergeCell ref="L411:O411"/>
-    <mergeCell ref="G413:O413"/>
-    <mergeCell ref="A414:C417"/>
-    <mergeCell ref="D414:F417"/>
-    <mergeCell ref="G414:I414"/>
-    <mergeCell ref="J414:K414"/>
-    <mergeCell ref="L414:M414"/>
-    <mergeCell ref="N414:O414"/>
-    <mergeCell ref="G415:I415"/>
-    <mergeCell ref="J415:K415"/>
-    <mergeCell ref="L415:M415"/>
-    <mergeCell ref="N415:O415"/>
-    <mergeCell ref="G416:I416"/>
-    <mergeCell ref="J416:K416"/>
-    <mergeCell ref="L416:M416"/>
-    <mergeCell ref="N416:O416"/>
-    <mergeCell ref="G417:I417"/>
-    <mergeCell ref="J417:K417"/>
-    <mergeCell ref="L417:M417"/>
-    <mergeCell ref="N417:O417"/>
-    <mergeCell ref="A418:C421"/>
-    <mergeCell ref="D418:F421"/>
-    <mergeCell ref="G418:I418"/>
-    <mergeCell ref="J418:K418"/>
-    <mergeCell ref="L418:M418"/>
-    <mergeCell ref="N418:O418"/>
-    <mergeCell ref="G419:I419"/>
-    <mergeCell ref="J419:K419"/>
-    <mergeCell ref="L419:M419"/>
-    <mergeCell ref="N419:O419"/>
-    <mergeCell ref="G420:I420"/>
-    <mergeCell ref="J420:K420"/>
-    <mergeCell ref="L420:M420"/>
-    <mergeCell ref="N420:O420"/>
-    <mergeCell ref="G421:I421"/>
-    <mergeCell ref="J421:K421"/>
-    <mergeCell ref="L421:M421"/>
-    <mergeCell ref="N421:O421"/>
+    <mergeCell ref="A437:C440"/>
+    <mergeCell ref="D437:F440"/>
+    <mergeCell ref="L437:O437"/>
+    <mergeCell ref="L438:O438"/>
+    <mergeCell ref="G440:O440"/>
+    <mergeCell ref="A441:C444"/>
+    <mergeCell ref="D441:F444"/>
+    <mergeCell ref="G441:I441"/>
+    <mergeCell ref="J441:K441"/>
+    <mergeCell ref="L441:M441"/>
+    <mergeCell ref="N441:O441"/>
+    <mergeCell ref="G442:I442"/>
+    <mergeCell ref="J442:K442"/>
+    <mergeCell ref="L442:M442"/>
+    <mergeCell ref="N442:O442"/>
+    <mergeCell ref="G443:I443"/>
+    <mergeCell ref="J443:K443"/>
+    <mergeCell ref="L443:M443"/>
+    <mergeCell ref="N443:O443"/>
+    <mergeCell ref="G444:I444"/>
+    <mergeCell ref="J444:K444"/>
+    <mergeCell ref="L444:M444"/>
+    <mergeCell ref="N444:O444"/>
+    <mergeCell ref="A477:D485"/>
+    <mergeCell ref="E478:O481"/>
+    <mergeCell ref="E482:O482"/>
+    <mergeCell ref="E483:O483"/>
+    <mergeCell ref="L485:O485"/>
+    <mergeCell ref="L486:O486"/>
+    <mergeCell ref="L487:O487"/>
+    <mergeCell ref="A488:C488"/>
+    <mergeCell ref="D488:F488"/>
+    <mergeCell ref="L488:O488"/>
+    <mergeCell ref="A445:C448"/>
+    <mergeCell ref="D445:F448"/>
+    <mergeCell ref="G445:I445"/>
+    <mergeCell ref="J445:K445"/>
+    <mergeCell ref="L445:M445"/>
+    <mergeCell ref="N445:O445"/>
+    <mergeCell ref="G446:I446"/>
+    <mergeCell ref="J446:K446"/>
+    <mergeCell ref="L446:M446"/>
+    <mergeCell ref="N446:O446"/>
+    <mergeCell ref="G447:I447"/>
+    <mergeCell ref="J447:K447"/>
+    <mergeCell ref="L447:M447"/>
+    <mergeCell ref="N447:O447"/>
+    <mergeCell ref="G448:I448"/>
+    <mergeCell ref="J448:K448"/>
+    <mergeCell ref="L448:M448"/>
+    <mergeCell ref="N448:O448"/>
     <mergeCell ref="A451:D459"/>
     <mergeCell ref="E452:O455"/>
     <mergeCell ref="E456:O456"/>
     <mergeCell ref="E457:O457"/>
-    <mergeCell ref="L459:O459"/>
-    <mergeCell ref="L460:O460"/>
-    <mergeCell ref="L461:O461"/>
-    <mergeCell ref="A462:C462"/>
-    <mergeCell ref="D462:F462"/>
-    <mergeCell ref="L462:O462"/>
-    <mergeCell ref="A463:C466"/>
-    <mergeCell ref="D463:F466"/>
-    <mergeCell ref="L463:O463"/>
-    <mergeCell ref="L464:O464"/>
-    <mergeCell ref="G466:O466"/>
-    <mergeCell ref="A467:C470"/>
-    <mergeCell ref="D467:F470"/>
-    <mergeCell ref="G467:I467"/>
-    <mergeCell ref="J467:K467"/>
-    <mergeCell ref="L467:M467"/>
-    <mergeCell ref="N467:O467"/>
-    <mergeCell ref="G468:I468"/>
-    <mergeCell ref="J468:K468"/>
-    <mergeCell ref="L468:M468"/>
-    <mergeCell ref="N468:O468"/>
-    <mergeCell ref="G469:I469"/>
-    <mergeCell ref="J469:K469"/>
-    <mergeCell ref="L469:M469"/>
-    <mergeCell ref="N469:O469"/>
-    <mergeCell ref="G470:I470"/>
-    <mergeCell ref="J470:K470"/>
-    <mergeCell ref="L470:M470"/>
-    <mergeCell ref="N470:O470"/>
-    <mergeCell ref="A471:C474"/>
-    <mergeCell ref="D471:F474"/>
-    <mergeCell ref="G471:I471"/>
-    <mergeCell ref="J471:K471"/>
-    <mergeCell ref="L471:M471"/>
-    <mergeCell ref="N471:O471"/>
-    <mergeCell ref="G472:I472"/>
-    <mergeCell ref="J472:K472"/>
-    <mergeCell ref="L472:M472"/>
-    <mergeCell ref="N472:O472"/>
-    <mergeCell ref="G473:I473"/>
-    <mergeCell ref="J473:K473"/>
-    <mergeCell ref="L473:M473"/>
-    <mergeCell ref="N473:O473"/>
-    <mergeCell ref="G474:I474"/>
-    <mergeCell ref="J474:K474"/>
-    <mergeCell ref="L474:M474"/>
-    <mergeCell ref="N474:O474"/>
+    <mergeCell ref="A489:C492"/>
+    <mergeCell ref="D489:F492"/>
+    <mergeCell ref="L489:O489"/>
+    <mergeCell ref="L490:O490"/>
+    <mergeCell ref="G492:O492"/>
+    <mergeCell ref="A493:C496"/>
+    <mergeCell ref="D493:F496"/>
+    <mergeCell ref="G493:I493"/>
+    <mergeCell ref="J493:K493"/>
+    <mergeCell ref="L493:M493"/>
+    <mergeCell ref="N493:O493"/>
+    <mergeCell ref="G494:I494"/>
+    <mergeCell ref="J494:K494"/>
+    <mergeCell ref="L494:M494"/>
+    <mergeCell ref="N494:O494"/>
+    <mergeCell ref="G495:I495"/>
+    <mergeCell ref="J495:K495"/>
+    <mergeCell ref="L495:M495"/>
+    <mergeCell ref="N495:O495"/>
+    <mergeCell ref="G496:I496"/>
+    <mergeCell ref="J496:K496"/>
+    <mergeCell ref="L496:M496"/>
+    <mergeCell ref="N496:O496"/>
+    <mergeCell ref="A497:C500"/>
+    <mergeCell ref="D497:F500"/>
+    <mergeCell ref="G497:I497"/>
+    <mergeCell ref="J497:K497"/>
+    <mergeCell ref="L497:M497"/>
+    <mergeCell ref="N497:O497"/>
+    <mergeCell ref="G498:I498"/>
+    <mergeCell ref="J498:K498"/>
+    <mergeCell ref="L498:M498"/>
+    <mergeCell ref="N498:O498"/>
+    <mergeCell ref="G499:I499"/>
+    <mergeCell ref="J499:K499"/>
+    <mergeCell ref="L499:M499"/>
+    <mergeCell ref="N499:O499"/>
+    <mergeCell ref="G500:I500"/>
+    <mergeCell ref="J500:K500"/>
+    <mergeCell ref="L500:M500"/>
+    <mergeCell ref="N500:O500"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14221,12 +14930,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14412,17 +15120,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A20BDE-ACAC-49A0-A051-6F5B010A8CC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14446,17 +15163,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A20BDE-ACAC-49A0-A051-6F5B010A8CC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentacao/mechspot_ata.xlsx
+++ b/documentacao/mechspot_ata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\projeto-pi-sprint-2\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF594F95-749B-4607-8BCB-74AD42EB78B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2559BA-392A-43B3-9891-34DFED552AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4545F592-9151-46FC-8F7A-0131C129BBC9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="211">
   <si>
     <t>OK</t>
   </si>
@@ -1163,12 +1163,49 @@
   <si>
     <t>Nicolas</t>
   </si>
+  <si>
+    <t>Concluído</t>
+  </si>
+  <si>
+    <t>Validações Concluídas</t>
+  </si>
+  <si>
+    <t>Ajustar Documentação</t>
+  </si>
+  <si>
+    <t>Ajuste da documentação</t>
+  </si>
+  <si>
+    <t>Giovana</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF32746D"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t>DATA:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  21/10/2024     |     LISTA DE PRESENÇA</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1282,6 +1319,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF32746D"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
@@ -1605,7 +1649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1715,6 +1759,48 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1725,9 +1811,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1742,44 +1825,8 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3074,6 +3121,51 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>415917</xdr:colOff>
+      <xdr:row>748</xdr:row>
+      <xdr:rowOff>35593</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1573013" cy="1611635"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagem 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D77450BC-51EA-484A-AEAA-4CAEBE2BA0BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1103834" y="144741510"/>
+          <a:ext cx="1573013" cy="1611635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3394,10 +3486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5446F9-8A09-4B91-82C6-8FD7102DEAC7}">
-  <dimension ref="A1:Y745"/>
+  <dimension ref="A1:Y773"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A698" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D708" sqref="D708:F711"/>
+    <sheetView tabSelected="1" topLeftCell="A742" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N766" sqref="N766:O766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9059,13 +9151,13 @@
       <c r="N269" s="7"/>
       <c r="O269" s="7"/>
       <c r="P269" s="5"/>
-      <c r="Q269" s="62" t="s">
+      <c r="Q269" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="R269" s="62"/>
-      <c r="S269" s="62"/>
-      <c r="T269" s="62"/>
-      <c r="U269" s="62"/>
+      <c r="R269" s="46"/>
+      <c r="S269" s="46"/>
+      <c r="T269" s="46"/>
+      <c r="U269" s="46"/>
       <c r="V269" s="1"/>
     </row>
     <row r="270" spans="1:22" ht="15">
@@ -9082,18 +9174,18 @@
       </c>
       <c r="J270" s="6"/>
       <c r="K270" s="6"/>
-      <c r="L270" s="56" t="s">
+      <c r="L270" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M270" s="56"/>
-      <c r="N270" s="56"/>
-      <c r="O270" s="56"/>
+      <c r="M270" s="49"/>
+      <c r="N270" s="49"/>
+      <c r="O270" s="49"/>
       <c r="P270" s="5"/>
-      <c r="Q270" s="63"/>
-      <c r="R270" s="63"/>
-      <c r="S270" s="63"/>
-      <c r="T270" s="63"/>
-      <c r="U270" s="63"/>
+      <c r="Q270" s="47"/>
+      <c r="R270" s="47"/>
+      <c r="S270" s="47"/>
+      <c r="T270" s="47"/>
+      <c r="U270" s="47"/>
       <c r="V270" s="1"/>
     </row>
     <row r="271" spans="1:22" ht="15">
@@ -9110,18 +9202,18 @@
       </c>
       <c r="J271" s="6"/>
       <c r="K271" s="6"/>
-      <c r="L271" s="56" t="s">
+      <c r="L271" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M271" s="56"/>
-      <c r="N271" s="56"/>
-      <c r="O271" s="56"/>
+      <c r="M271" s="49"/>
+      <c r="N271" s="49"/>
+      <c r="O271" s="49"/>
       <c r="P271" s="5"/>
-      <c r="Q271" s="63"/>
-      <c r="R271" s="63"/>
-      <c r="S271" s="63"/>
-      <c r="T271" s="63"/>
-      <c r="U271" s="63"/>
+      <c r="Q271" s="47"/>
+      <c r="R271" s="47"/>
+      <c r="S271" s="47"/>
+      <c r="T271" s="47"/>
+      <c r="U271" s="47"/>
       <c r="V271" s="1"/>
     </row>
     <row r="272" spans="1:22" ht="15">
@@ -9138,33 +9230,33 @@
       </c>
       <c r="J272" s="6"/>
       <c r="K272" s="6"/>
-      <c r="L272" s="54" t="s">
+      <c r="L272" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="M272" s="54"/>
-      <c r="N272" s="54"/>
-      <c r="O272" s="54"/>
+      <c r="M272" s="50"/>
+      <c r="N272" s="50"/>
+      <c r="O272" s="50"/>
       <c r="P272" s="5"/>
-      <c r="Q272" s="63" t="s">
+      <c r="Q272" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="R272" s="63"/>
-      <c r="S272" s="63"/>
-      <c r="T272" s="63"/>
-      <c r="U272" s="63"/>
+      <c r="R272" s="47"/>
+      <c r="S272" s="47"/>
+      <c r="T272" s="47"/>
+      <c r="U272" s="47"/>
       <c r="V272" s="1"/>
     </row>
     <row r="273" spans="1:22" ht="15">
-      <c r="A273" s="52" t="s">
+      <c r="A273" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B273" s="53"/>
-      <c r="C273" s="53"/>
-      <c r="D273" s="53" t="s">
+      <c r="B273" s="54"/>
+      <c r="C273" s="54"/>
+      <c r="D273" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E273" s="53"/>
-      <c r="F273" s="53"/>
+      <c r="E273" s="54"/>
+      <c r="F273" s="54"/>
       <c r="G273" s="6"/>
       <c r="H273" s="6"/>
       <c r="I273" s="6" t="s">
@@ -9172,31 +9264,31 @@
       </c>
       <c r="J273" s="6"/>
       <c r="K273" s="6"/>
-      <c r="L273" s="54" t="s">
+      <c r="L273" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="M273" s="54"/>
-      <c r="N273" s="54"/>
-      <c r="O273" s="54"/>
+      <c r="M273" s="50"/>
+      <c r="N273" s="50"/>
+      <c r="O273" s="50"/>
       <c r="P273" s="5"/>
-      <c r="Q273" s="63"/>
-      <c r="R273" s="63"/>
-      <c r="S273" s="63"/>
-      <c r="T273" s="63"/>
-      <c r="U273" s="63"/>
+      <c r="Q273" s="47"/>
+      <c r="R273" s="47"/>
+      <c r="S273" s="47"/>
+      <c r="T273" s="47"/>
+      <c r="U273" s="47"/>
       <c r="V273" s="1"/>
     </row>
     <row r="274" spans="1:22" ht="15">
-      <c r="A274" s="55" t="s">
+      <c r="A274" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="B274" s="47"/>
-      <c r="C274" s="47"/>
-      <c r="D274" s="47" t="s">
+      <c r="B274" s="52"/>
+      <c r="C274" s="52"/>
+      <c r="D274" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="E274" s="47"/>
-      <c r="F274" s="47"/>
+      <c r="E274" s="52"/>
+      <c r="F274" s="52"/>
       <c r="G274" s="6"/>
       <c r="H274" s="6"/>
       <c r="I274" s="6" t="s">
@@ -9204,27 +9296,27 @@
       </c>
       <c r="J274" s="6"/>
       <c r="K274" s="6"/>
-      <c r="L274" s="54" t="s">
+      <c r="L274" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="M274" s="54"/>
-      <c r="N274" s="54"/>
-      <c r="O274" s="54"/>
+      <c r="M274" s="50"/>
+      <c r="N274" s="50"/>
+      <c r="O274" s="50"/>
       <c r="P274" s="5"/>
-      <c r="Q274" s="63"/>
-      <c r="R274" s="63"/>
-      <c r="S274" s="63"/>
-      <c r="T274" s="63"/>
-      <c r="U274" s="63"/>
+      <c r="Q274" s="47"/>
+      <c r="R274" s="47"/>
+      <c r="S274" s="47"/>
+      <c r="T274" s="47"/>
+      <c r="U274" s="47"/>
       <c r="V274" s="1"/>
     </row>
     <row r="275" spans="1:22" ht="15">
-      <c r="A275" s="55"/>
-      <c r="B275" s="47"/>
-      <c r="C275" s="47"/>
-      <c r="D275" s="47"/>
-      <c r="E275" s="47"/>
-      <c r="F275" s="47"/>
+      <c r="A275" s="51"/>
+      <c r="B275" s="52"/>
+      <c r="C275" s="52"/>
+      <c r="D275" s="52"/>
+      <c r="E275" s="52"/>
+      <c r="F275" s="52"/>
       <c r="G275" s="6"/>
       <c r="H275" s="6"/>
       <c r="I275" s="6" t="s">
@@ -9232,29 +9324,29 @@
       </c>
       <c r="J275" s="6"/>
       <c r="K275" s="6"/>
-      <c r="L275" s="56" t="s">
+      <c r="L275" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M275" s="56"/>
-      <c r="N275" s="56"/>
-      <c r="O275" s="56"/>
+      <c r="M275" s="49"/>
+      <c r="N275" s="49"/>
+      <c r="O275" s="49"/>
       <c r="P275" s="5"/>
-      <c r="Q275" s="63" t="s">
+      <c r="Q275" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="R275" s="63"/>
-      <c r="S275" s="63"/>
-      <c r="T275" s="63"/>
-      <c r="U275" s="63"/>
+      <c r="R275" s="47"/>
+      <c r="S275" s="47"/>
+      <c r="T275" s="47"/>
+      <c r="U275" s="47"/>
       <c r="V275" s="1"/>
     </row>
     <row r="276" spans="1:22" ht="15">
-      <c r="A276" s="55"/>
-      <c r="B276" s="47"/>
-      <c r="C276" s="47"/>
-      <c r="D276" s="47"/>
-      <c r="E276" s="47"/>
-      <c r="F276" s="47"/>
+      <c r="A276" s="51"/>
+      <c r="B276" s="52"/>
+      <c r="C276" s="52"/>
+      <c r="D276" s="52"/>
+      <c r="E276" s="52"/>
+      <c r="F276" s="52"/>
       <c r="G276" s="6"/>
       <c r="H276" s="6"/>
       <c r="I276" s="6"/>
@@ -9265,449 +9357,449 @@
       <c r="N276" s="6"/>
       <c r="O276" s="6"/>
       <c r="P276" s="5"/>
-      <c r="Q276" s="63"/>
-      <c r="R276" s="63"/>
-      <c r="S276" s="63"/>
-      <c r="T276" s="63"/>
-      <c r="U276" s="63"/>
+      <c r="Q276" s="47"/>
+      <c r="R276" s="47"/>
+      <c r="S276" s="47"/>
+      <c r="T276" s="47"/>
+      <c r="U276" s="47"/>
       <c r="V276" s="1"/>
     </row>
     <row r="277" spans="1:22">
-      <c r="A277" s="55"/>
-      <c r="B277" s="47"/>
-      <c r="C277" s="47"/>
-      <c r="D277" s="47"/>
-      <c r="E277" s="47"/>
-      <c r="F277" s="47"/>
-      <c r="G277" s="57" t="s">
+      <c r="A277" s="51"/>
+      <c r="B277" s="52"/>
+      <c r="C277" s="52"/>
+      <c r="D277" s="52"/>
+      <c r="E277" s="52"/>
+      <c r="F277" s="52"/>
+      <c r="G277" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H277" s="57"/>
-      <c r="I277" s="57"/>
-      <c r="J277" s="57"/>
-      <c r="K277" s="57"/>
-      <c r="L277" s="57"/>
-      <c r="M277" s="57"/>
-      <c r="N277" s="57"/>
-      <c r="O277" s="57"/>
+      <c r="H277" s="55"/>
+      <c r="I277" s="55"/>
+      <c r="J277" s="55"/>
+      <c r="K277" s="55"/>
+      <c r="L277" s="55"/>
+      <c r="M277" s="55"/>
+      <c r="N277" s="55"/>
+      <c r="O277" s="55"/>
       <c r="P277" s="5"/>
-      <c r="Q277" s="63"/>
-      <c r="R277" s="63"/>
-      <c r="S277" s="63"/>
-      <c r="T277" s="63"/>
-      <c r="U277" s="63"/>
+      <c r="Q277" s="47"/>
+      <c r="R277" s="47"/>
+      <c r="S277" s="47"/>
+      <c r="T277" s="47"/>
+      <c r="U277" s="47"/>
       <c r="V277" s="1"/>
     </row>
     <row r="278" spans="1:22">
-      <c r="A278" s="55" t="s">
+      <c r="A278" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B278" s="47"/>
-      <c r="C278" s="47"/>
-      <c r="D278" s="47" t="s">
+      <c r="B278" s="52"/>
+      <c r="C278" s="52"/>
+      <c r="D278" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E278" s="47"/>
-      <c r="F278" s="47"/>
-      <c r="G278" s="58" t="s">
+      <c r="E278" s="52"/>
+      <c r="F278" s="52"/>
+      <c r="G278" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H278" s="58"/>
-      <c r="I278" s="58"/>
-      <c r="J278" s="58" t="s">
+      <c r="H278" s="56"/>
+      <c r="I278" s="56"/>
+      <c r="J278" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="K278" s="58"/>
-      <c r="L278" s="58" t="s">
+      <c r="K278" s="56"/>
+      <c r="L278" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="M278" s="58"/>
-      <c r="N278" s="58" t="s">
+      <c r="M278" s="56"/>
+      <c r="N278" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="O278" s="58"/>
+      <c r="O278" s="56"/>
       <c r="P278" s="5"/>
-      <c r="Q278" s="63" t="s">
+      <c r="Q278" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="R278" s="63"/>
-      <c r="S278" s="63"/>
-      <c r="T278" s="63"/>
-      <c r="U278" s="63"/>
+      <c r="R278" s="47"/>
+      <c r="S278" s="47"/>
+      <c r="T278" s="47"/>
+      <c r="U278" s="47"/>
       <c r="V278" s="1"/>
     </row>
     <row r="279" spans="1:22">
-      <c r="A279" s="55"/>
-      <c r="B279" s="47"/>
-      <c r="C279" s="47"/>
-      <c r="D279" s="47"/>
-      <c r="E279" s="47"/>
-      <c r="F279" s="47"/>
-      <c r="G279" s="59" t="s">
+      <c r="A279" s="51"/>
+      <c r="B279" s="52"/>
+      <c r="C279" s="52"/>
+      <c r="D279" s="52"/>
+      <c r="E279" s="52"/>
+      <c r="F279" s="52"/>
+      <c r="G279" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H279" s="59"/>
-      <c r="I279" s="59"/>
-      <c r="J279" s="60">
+      <c r="H279" s="44"/>
+      <c r="I279" s="44"/>
+      <c r="J279" s="45">
         <v>45568</v>
       </c>
-      <c r="K279" s="59"/>
-      <c r="L279" s="59" t="s">
+      <c r="K279" s="44"/>
+      <c r="L279" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="M279" s="59"/>
-      <c r="N279" s="59" t="s">
+      <c r="M279" s="44"/>
+      <c r="N279" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O279" s="59"/>
+      <c r="O279" s="44"/>
       <c r="P279" s="5"/>
-      <c r="Q279" s="63"/>
-      <c r="R279" s="63"/>
-      <c r="S279" s="63"/>
-      <c r="T279" s="63"/>
-      <c r="U279" s="63"/>
+      <c r="Q279" s="47"/>
+      <c r="R279" s="47"/>
+      <c r="S279" s="47"/>
+      <c r="T279" s="47"/>
+      <c r="U279" s="47"/>
       <c r="V279" s="1"/>
     </row>
     <row r="280" spans="1:22">
-      <c r="A280" s="55"/>
-      <c r="B280" s="47"/>
-      <c r="C280" s="47"/>
-      <c r="D280" s="47"/>
-      <c r="E280" s="47"/>
-      <c r="F280" s="47"/>
-      <c r="G280" s="59" t="s">
+      <c r="A280" s="51"/>
+      <c r="B280" s="52"/>
+      <c r="C280" s="52"/>
+      <c r="D280" s="52"/>
+      <c r="E280" s="52"/>
+      <c r="F280" s="52"/>
+      <c r="G280" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="H280" s="59"/>
-      <c r="I280" s="59"/>
-      <c r="J280" s="60">
+      <c r="H280" s="44"/>
+      <c r="I280" s="44"/>
+      <c r="J280" s="45">
         <v>45568</v>
       </c>
-      <c r="K280" s="59"/>
-      <c r="L280" s="59" t="s">
+      <c r="K280" s="44"/>
+      <c r="L280" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="M280" s="59"/>
-      <c r="N280" s="59" t="s">
+      <c r="M280" s="44"/>
+      <c r="N280" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O280" s="59"/>
+      <c r="O280" s="44"/>
       <c r="P280" s="5"/>
-      <c r="Q280" s="63"/>
-      <c r="R280" s="63"/>
-      <c r="S280" s="63"/>
-      <c r="T280" s="63"/>
-      <c r="U280" s="63"/>
+      <c r="Q280" s="47"/>
+      <c r="R280" s="47"/>
+      <c r="S280" s="47"/>
+      <c r="T280" s="47"/>
+      <c r="U280" s="47"/>
       <c r="V280" s="1"/>
     </row>
     <row r="281" spans="1:22">
-      <c r="A281" s="55"/>
-      <c r="B281" s="47"/>
-      <c r="C281" s="47"/>
-      <c r="D281" s="47"/>
-      <c r="E281" s="47"/>
-      <c r="F281" s="47"/>
-      <c r="G281" s="59" t="s">
+      <c r="A281" s="51"/>
+      <c r="B281" s="52"/>
+      <c r="C281" s="52"/>
+      <c r="D281" s="52"/>
+      <c r="E281" s="52"/>
+      <c r="F281" s="52"/>
+      <c r="G281" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H281" s="59"/>
-      <c r="I281" s="59"/>
-      <c r="J281" s="60">
+      <c r="H281" s="44"/>
+      <c r="I281" s="44"/>
+      <c r="J281" s="45">
         <v>45568</v>
       </c>
-      <c r="K281" s="59"/>
-      <c r="L281" s="59" t="s">
+      <c r="K281" s="44"/>
+      <c r="L281" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="M281" s="59"/>
-      <c r="N281" s="59" t="s">
+      <c r="M281" s="44"/>
+      <c r="N281" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O281" s="59"/>
+      <c r="O281" s="44"/>
       <c r="P281" s="5"/>
-      <c r="Q281" s="63"/>
-      <c r="R281" s="63"/>
-      <c r="S281" s="63"/>
-      <c r="T281" s="63"/>
-      <c r="U281" s="63"/>
+      <c r="Q281" s="47"/>
+      <c r="R281" s="47"/>
+      <c r="S281" s="47"/>
+      <c r="T281" s="47"/>
+      <c r="U281" s="47"/>
       <c r="V281" s="1"/>
     </row>
     <row r="282" spans="1:22">
-      <c r="A282" s="55" t="s">
+      <c r="A282" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B282" s="47"/>
-      <c r="C282" s="47"/>
-      <c r="D282" s="47" t="s">
+      <c r="B282" s="52"/>
+      <c r="C282" s="52"/>
+      <c r="D282" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="E282" s="47"/>
-      <c r="F282" s="47"/>
-      <c r="G282" s="59" t="s">
+      <c r="E282" s="52"/>
+      <c r="F282" s="52"/>
+      <c r="G282" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="H282" s="59"/>
-      <c r="I282" s="59"/>
-      <c r="J282" s="60">
+      <c r="H282" s="44"/>
+      <c r="I282" s="44"/>
+      <c r="J282" s="45">
         <v>45568</v>
       </c>
-      <c r="K282" s="59"/>
-      <c r="L282" s="59" t="s">
+      <c r="K282" s="44"/>
+      <c r="L282" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="M282" s="59"/>
-      <c r="N282" s="59" t="s">
+      <c r="M282" s="44"/>
+      <c r="N282" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O282" s="59"/>
+      <c r="O282" s="44"/>
       <c r="P282" s="5"/>
-      <c r="Q282" s="63"/>
-      <c r="R282" s="63"/>
-      <c r="S282" s="63"/>
-      <c r="T282" s="63"/>
-      <c r="U282" s="63"/>
+      <c r="Q282" s="47"/>
+      <c r="R282" s="47"/>
+      <c r="S282" s="47"/>
+      <c r="T282" s="47"/>
+      <c r="U282" s="47"/>
       <c r="V282" s="1"/>
     </row>
     <row r="283" spans="1:22" ht="15">
-      <c r="A283" s="55"/>
-      <c r="B283" s="47"/>
-      <c r="C283" s="47"/>
-      <c r="D283" s="47"/>
-      <c r="E283" s="47"/>
-      <c r="F283" s="47"/>
-      <c r="G283" s="61"/>
-      <c r="H283" s="61"/>
-      <c r="I283" s="61"/>
-      <c r="J283" s="59"/>
-      <c r="K283" s="59"/>
-      <c r="L283" s="59"/>
-      <c r="M283" s="59"/>
-      <c r="N283" s="59"/>
-      <c r="O283" s="59"/>
+      <c r="A283" s="51"/>
+      <c r="B283" s="52"/>
+      <c r="C283" s="52"/>
+      <c r="D283" s="52"/>
+      <c r="E283" s="52"/>
+      <c r="F283" s="52"/>
+      <c r="G283" s="43"/>
+      <c r="H283" s="43"/>
+      <c r="I283" s="43"/>
+      <c r="J283" s="44"/>
+      <c r="K283" s="44"/>
+      <c r="L283" s="44"/>
+      <c r="M283" s="44"/>
+      <c r="N283" s="44"/>
+      <c r="O283" s="44"/>
       <c r="P283" s="5"/>
-      <c r="Q283" s="63"/>
-      <c r="R283" s="63"/>
-      <c r="S283" s="63"/>
-      <c r="T283" s="63"/>
-      <c r="U283" s="63"/>
+      <c r="Q283" s="47"/>
+      <c r="R283" s="47"/>
+      <c r="S283" s="47"/>
+      <c r="T283" s="47"/>
+      <c r="U283" s="47"/>
       <c r="V283" s="1"/>
     </row>
     <row r="284" spans="1:22">
-      <c r="A284" s="55"/>
-      <c r="B284" s="47"/>
-      <c r="C284" s="47"/>
-      <c r="D284" s="47"/>
-      <c r="E284" s="47"/>
-      <c r="F284" s="47"/>
-      <c r="G284" s="59"/>
-      <c r="H284" s="59"/>
-      <c r="I284" s="59"/>
-      <c r="J284" s="60"/>
-      <c r="K284" s="59"/>
-      <c r="L284" s="59"/>
-      <c r="M284" s="59"/>
-      <c r="N284" s="59"/>
-      <c r="O284" s="59"/>
+      <c r="A284" s="51"/>
+      <c r="B284" s="52"/>
+      <c r="C284" s="52"/>
+      <c r="D284" s="52"/>
+      <c r="E284" s="52"/>
+      <c r="F284" s="52"/>
+      <c r="G284" s="44"/>
+      <c r="H284" s="44"/>
+      <c r="I284" s="44"/>
+      <c r="J284" s="45"/>
+      <c r="K284" s="44"/>
+      <c r="L284" s="44"/>
+      <c r="M284" s="44"/>
+      <c r="N284" s="44"/>
+      <c r="O284" s="44"/>
       <c r="P284" s="5"/>
-      <c r="Q284" s="63"/>
-      <c r="R284" s="63"/>
-      <c r="S284" s="63"/>
-      <c r="T284" s="63"/>
-      <c r="U284" s="63"/>
+      <c r="Q284" s="47"/>
+      <c r="R284" s="47"/>
+      <c r="S284" s="47"/>
+      <c r="T284" s="47"/>
+      <c r="U284" s="47"/>
       <c r="V284" s="1"/>
     </row>
     <row r="285" spans="1:22">
-      <c r="A285" s="55"/>
-      <c r="B285" s="47"/>
-      <c r="C285" s="47"/>
-      <c r="D285" s="47"/>
-      <c r="E285" s="47"/>
-      <c r="F285" s="47"/>
-      <c r="G285" s="59"/>
-      <c r="H285" s="59"/>
-      <c r="I285" s="59"/>
-      <c r="J285" s="60"/>
-      <c r="K285" s="59"/>
-      <c r="L285" s="59"/>
-      <c r="M285" s="59"/>
-      <c r="N285" s="59"/>
-      <c r="O285" s="59"/>
+      <c r="A285" s="51"/>
+      <c r="B285" s="52"/>
+      <c r="C285" s="52"/>
+      <c r="D285" s="52"/>
+      <c r="E285" s="52"/>
+      <c r="F285" s="52"/>
+      <c r="G285" s="44"/>
+      <c r="H285" s="44"/>
+      <c r="I285" s="44"/>
+      <c r="J285" s="45"/>
+      <c r="K285" s="44"/>
+      <c r="L285" s="44"/>
+      <c r="M285" s="44"/>
+      <c r="N285" s="44"/>
+      <c r="O285" s="44"/>
       <c r="P285" s="5"/>
-      <c r="Q285" s="63"/>
-      <c r="R285" s="63"/>
-      <c r="S285" s="63"/>
-      <c r="T285" s="63"/>
-      <c r="U285" s="63"/>
+      <c r="Q285" s="47"/>
+      <c r="R285" s="47"/>
+      <c r="S285" s="47"/>
+      <c r="T285" s="47"/>
+      <c r="U285" s="47"/>
       <c r="V285" s="1"/>
     </row>
     <row r="286" spans="1:22" ht="15">
-      <c r="A286" s="55" t="s">
+      <c r="A286" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="B286" s="47"/>
-      <c r="C286" s="47"/>
-      <c r="D286" s="47" t="s">
+      <c r="B286" s="52"/>
+      <c r="C286" s="52"/>
+      <c r="D286" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="E286" s="47"/>
-      <c r="F286" s="47"/>
-      <c r="G286" s="61"/>
-      <c r="H286" s="61"/>
-      <c r="I286" s="61"/>
-      <c r="J286" s="59"/>
-      <c r="K286" s="59"/>
-      <c r="L286" s="59"/>
-      <c r="M286" s="59"/>
-      <c r="N286" s="59"/>
-      <c r="O286" s="59"/>
+      <c r="E286" s="52"/>
+      <c r="F286" s="52"/>
+      <c r="G286" s="43"/>
+      <c r="H286" s="43"/>
+      <c r="I286" s="43"/>
+      <c r="J286" s="44"/>
+      <c r="K286" s="44"/>
+      <c r="L286" s="44"/>
+      <c r="M286" s="44"/>
+      <c r="N286" s="44"/>
+      <c r="O286" s="44"/>
       <c r="P286" s="5"/>
-      <c r="Q286" s="63"/>
-      <c r="R286" s="63"/>
-      <c r="S286" s="63"/>
-      <c r="T286" s="63"/>
-      <c r="U286" s="63"/>
+      <c r="Q286" s="47"/>
+      <c r="R286" s="47"/>
+      <c r="S286" s="47"/>
+      <c r="T286" s="47"/>
+      <c r="U286" s="47"/>
       <c r="V286" s="1"/>
     </row>
     <row r="287" spans="1:22">
-      <c r="A287" s="55"/>
-      <c r="B287" s="47"/>
-      <c r="C287" s="47"/>
-      <c r="D287" s="47"/>
-      <c r="E287" s="47"/>
-      <c r="F287" s="47"/>
-      <c r="G287" s="59"/>
-      <c r="H287" s="59"/>
-      <c r="I287" s="59"/>
-      <c r="J287" s="60"/>
-      <c r="K287" s="59"/>
-      <c r="L287" s="59"/>
-      <c r="M287" s="59"/>
-      <c r="N287" s="59"/>
-      <c r="O287" s="59"/>
+      <c r="A287" s="51"/>
+      <c r="B287" s="52"/>
+      <c r="C287" s="52"/>
+      <c r="D287" s="52"/>
+      <c r="E287" s="52"/>
+      <c r="F287" s="52"/>
+      <c r="G287" s="44"/>
+      <c r="H287" s="44"/>
+      <c r="I287" s="44"/>
+      <c r="J287" s="45"/>
+      <c r="K287" s="44"/>
+      <c r="L287" s="44"/>
+      <c r="M287" s="44"/>
+      <c r="N287" s="44"/>
+      <c r="O287" s="44"/>
       <c r="P287" s="5"/>
-      <c r="Q287" s="63"/>
-      <c r="R287" s="63"/>
-      <c r="S287" s="63"/>
-      <c r="T287" s="63"/>
-      <c r="U287" s="63"/>
+      <c r="Q287" s="47"/>
+      <c r="R287" s="47"/>
+      <c r="S287" s="47"/>
+      <c r="T287" s="47"/>
+      <c r="U287" s="47"/>
       <c r="V287" s="1"/>
     </row>
     <row r="288" spans="1:22">
-      <c r="A288" s="55"/>
-      <c r="B288" s="47"/>
-      <c r="C288" s="47"/>
-      <c r="D288" s="47"/>
-      <c r="E288" s="47"/>
-      <c r="F288" s="47"/>
-      <c r="G288" s="59"/>
-      <c r="H288" s="59"/>
-      <c r="I288" s="59"/>
-      <c r="J288" s="60"/>
-      <c r="K288" s="59"/>
-      <c r="L288" s="59"/>
-      <c r="M288" s="59"/>
-      <c r="N288" s="59"/>
-      <c r="O288" s="59"/>
+      <c r="A288" s="51"/>
+      <c r="B288" s="52"/>
+      <c r="C288" s="52"/>
+      <c r="D288" s="52"/>
+      <c r="E288" s="52"/>
+      <c r="F288" s="52"/>
+      <c r="G288" s="44"/>
+      <c r="H288" s="44"/>
+      <c r="I288" s="44"/>
+      <c r="J288" s="45"/>
+      <c r="K288" s="44"/>
+      <c r="L288" s="44"/>
+      <c r="M288" s="44"/>
+      <c r="N288" s="44"/>
+      <c r="O288" s="44"/>
       <c r="P288" s="5"/>
-      <c r="Q288" s="63"/>
-      <c r="R288" s="63"/>
-      <c r="S288" s="63"/>
-      <c r="T288" s="63"/>
-      <c r="U288" s="63"/>
+      <c r="Q288" s="47"/>
+      <c r="R288" s="47"/>
+      <c r="S288" s="47"/>
+      <c r="T288" s="47"/>
+      <c r="U288" s="47"/>
       <c r="V288" s="1"/>
     </row>
     <row r="289" spans="1:22" ht="15">
-      <c r="A289" s="55"/>
-      <c r="B289" s="47"/>
-      <c r="C289" s="47"/>
-      <c r="D289" s="47"/>
-      <c r="E289" s="47"/>
-      <c r="F289" s="47"/>
-      <c r="G289" s="61"/>
-      <c r="H289" s="61"/>
-      <c r="I289" s="61"/>
-      <c r="J289" s="59"/>
-      <c r="K289" s="59"/>
-      <c r="L289" s="59"/>
-      <c r="M289" s="59"/>
-      <c r="N289" s="59"/>
-      <c r="O289" s="59"/>
+      <c r="A289" s="51"/>
+      <c r="B289" s="52"/>
+      <c r="C289" s="52"/>
+      <c r="D289" s="52"/>
+      <c r="E289" s="52"/>
+      <c r="F289" s="52"/>
+      <c r="G289" s="43"/>
+      <c r="H289" s="43"/>
+      <c r="I289" s="43"/>
+      <c r="J289" s="44"/>
+      <c r="K289" s="44"/>
+      <c r="L289" s="44"/>
+      <c r="M289" s="44"/>
+      <c r="N289" s="44"/>
+      <c r="O289" s="44"/>
       <c r="P289" s="5"/>
-      <c r="Q289" s="63"/>
-      <c r="R289" s="63"/>
-      <c r="S289" s="63"/>
-      <c r="T289" s="63"/>
-      <c r="U289" s="63"/>
+      <c r="Q289" s="47"/>
+      <c r="R289" s="47"/>
+      <c r="S289" s="47"/>
+      <c r="T289" s="47"/>
+      <c r="U289" s="47"/>
       <c r="V289" s="1"/>
     </row>
     <row r="290" spans="1:22">
-      <c r="A290" s="55" t="s">
+      <c r="A290" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="B290" s="47"/>
-      <c r="C290" s="47"/>
-      <c r="D290" s="47" t="s">
+      <c r="B290" s="52"/>
+      <c r="C290" s="52"/>
+      <c r="D290" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="E290" s="47"/>
-      <c r="F290" s="47"/>
-      <c r="G290" s="59"/>
-      <c r="H290" s="59"/>
-      <c r="I290" s="59"/>
-      <c r="J290" s="60"/>
-      <c r="K290" s="59"/>
-      <c r="L290" s="59"/>
-      <c r="M290" s="59"/>
-      <c r="N290" s="59"/>
-      <c r="O290" s="59"/>
+      <c r="E290" s="52"/>
+      <c r="F290" s="52"/>
+      <c r="G290" s="44"/>
+      <c r="H290" s="44"/>
+      <c r="I290" s="44"/>
+      <c r="J290" s="45"/>
+      <c r="K290" s="44"/>
+      <c r="L290" s="44"/>
+      <c r="M290" s="44"/>
+      <c r="N290" s="44"/>
+      <c r="O290" s="44"/>
       <c r="P290" s="5"/>
-      <c r="Q290" s="63"/>
-      <c r="R290" s="63"/>
-      <c r="S290" s="63"/>
-      <c r="T290" s="63"/>
-      <c r="U290" s="63"/>
+      <c r="Q290" s="47"/>
+      <c r="R290" s="47"/>
+      <c r="S290" s="47"/>
+      <c r="T290" s="47"/>
+      <c r="U290" s="47"/>
       <c r="V290" s="1"/>
     </row>
     <row r="291" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A291" s="55"/>
-      <c r="B291" s="47"/>
-      <c r="C291" s="47"/>
-      <c r="D291" s="47"/>
-      <c r="E291" s="47"/>
-      <c r="F291" s="47"/>
-      <c r="G291" s="61"/>
-      <c r="H291" s="61"/>
-      <c r="I291" s="61"/>
-      <c r="J291" s="59"/>
-      <c r="K291" s="59"/>
-      <c r="L291" s="59"/>
-      <c r="M291" s="59"/>
-      <c r="N291" s="59"/>
-      <c r="O291" s="59"/>
+      <c r="A291" s="51"/>
+      <c r="B291" s="52"/>
+      <c r="C291" s="52"/>
+      <c r="D291" s="52"/>
+      <c r="E291" s="52"/>
+      <c r="F291" s="52"/>
+      <c r="G291" s="43"/>
+      <c r="H291" s="43"/>
+      <c r="I291" s="43"/>
+      <c r="J291" s="44"/>
+      <c r="K291" s="44"/>
+      <c r="L291" s="44"/>
+      <c r="M291" s="44"/>
+      <c r="N291" s="44"/>
+      <c r="O291" s="44"/>
       <c r="P291" s="5"/>
-      <c r="Q291" s="64"/>
-      <c r="R291" s="64"/>
-      <c r="S291" s="64"/>
-      <c r="T291" s="64"/>
-      <c r="U291" s="64"/>
+      <c r="Q291" s="48"/>
+      <c r="R291" s="48"/>
+      <c r="S291" s="48"/>
+      <c r="T291" s="48"/>
+      <c r="U291" s="48"/>
       <c r="V291" s="1"/>
     </row>
     <row r="292" spans="1:22">
-      <c r="A292" s="55"/>
-      <c r="B292" s="47"/>
-      <c r="C292" s="47"/>
-      <c r="D292" s="47"/>
-      <c r="E292" s="47"/>
-      <c r="F292" s="47"/>
-      <c r="G292" s="59"/>
-      <c r="H292" s="59"/>
-      <c r="I292" s="59"/>
-      <c r="J292" s="60"/>
-      <c r="K292" s="59"/>
-      <c r="L292" s="59"/>
-      <c r="M292" s="59"/>
-      <c r="N292" s="59"/>
-      <c r="O292" s="59"/>
+      <c r="A292" s="51"/>
+      <c r="B292" s="52"/>
+      <c r="C292" s="52"/>
+      <c r="D292" s="52"/>
+      <c r="E292" s="52"/>
+      <c r="F292" s="52"/>
+      <c r="G292" s="44"/>
+      <c r="H292" s="44"/>
+      <c r="I292" s="44"/>
+      <c r="J292" s="45"/>
+      <c r="K292" s="44"/>
+      <c r="L292" s="44"/>
+      <c r="M292" s="44"/>
+      <c r="N292" s="44"/>
+      <c r="O292" s="44"/>
       <c r="P292" s="5"/>
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
@@ -9717,21 +9809,21 @@
       <c r="V292" s="1"/>
     </row>
     <row r="293" spans="1:22" ht="15">
-      <c r="A293" s="55"/>
-      <c r="B293" s="47"/>
-      <c r="C293" s="47"/>
-      <c r="D293" s="47"/>
-      <c r="E293" s="47"/>
-      <c r="F293" s="47"/>
-      <c r="G293" s="61"/>
-      <c r="H293" s="61"/>
-      <c r="I293" s="61"/>
-      <c r="J293" s="59"/>
-      <c r="K293" s="59"/>
-      <c r="L293" s="59"/>
-      <c r="M293" s="59"/>
-      <c r="N293" s="59"/>
-      <c r="O293" s="59"/>
+      <c r="A293" s="51"/>
+      <c r="B293" s="52"/>
+      <c r="C293" s="52"/>
+      <c r="D293" s="52"/>
+      <c r="E293" s="52"/>
+      <c r="F293" s="52"/>
+      <c r="G293" s="43"/>
+      <c r="H293" s="43"/>
+      <c r="I293" s="43"/>
+      <c r="J293" s="44"/>
+      <c r="K293" s="44"/>
+      <c r="L293" s="44"/>
+      <c r="M293" s="44"/>
+      <c r="N293" s="44"/>
+      <c r="O293" s="44"/>
       <c r="P293" s="5"/>
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
@@ -14994,9 +15086,9 @@
       </c>
       <c r="B542" s="17"/>
       <c r="C542" s="17"/>
-      <c r="D542" s="43"/>
-      <c r="E542" s="44"/>
-      <c r="F542" s="45"/>
+      <c r="D542" s="57"/>
+      <c r="E542" s="58"/>
+      <c r="F542" s="59"/>
       <c r="G542" s="6"/>
       <c r="H542" s="6"/>
       <c r="I542" s="6" t="s">
@@ -15016,9 +15108,9 @@
       <c r="A543" s="16"/>
       <c r="B543" s="17"/>
       <c r="C543" s="17"/>
-      <c r="D543" s="46"/>
-      <c r="E543" s="47"/>
-      <c r="F543" s="48"/>
+      <c r="D543" s="60"/>
+      <c r="E543" s="52"/>
+      <c r="F543" s="61"/>
       <c r="G543" s="6"/>
       <c r="H543" s="6"/>
       <c r="I543" s="6" t="s">
@@ -15038,9 +15130,9 @@
       <c r="A544" s="16"/>
       <c r="B544" s="17"/>
       <c r="C544" s="17"/>
-      <c r="D544" s="46"/>
-      <c r="E544" s="47"/>
-      <c r="F544" s="48"/>
+      <c r="D544" s="60"/>
+      <c r="E544" s="52"/>
+      <c r="F544" s="61"/>
       <c r="G544" s="6"/>
       <c r="H544" s="6"/>
       <c r="I544" s="6"/>
@@ -15056,9 +15148,9 @@
       <c r="A545" s="16"/>
       <c r="B545" s="17"/>
       <c r="C545" s="17"/>
-      <c r="D545" s="49"/>
-      <c r="E545" s="50"/>
-      <c r="F545" s="51"/>
+      <c r="D545" s="62"/>
+      <c r="E545" s="63"/>
+      <c r="F545" s="64"/>
       <c r="G545" s="38" t="s">
         <v>10</v>
       </c>
@@ -18965,10 +19057,14 @@
       <c r="P731" s="5"/>
     </row>
     <row r="732" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A732" s="16"/>
+      <c r="A732" s="16" t="s">
+        <v>207</v>
+      </c>
       <c r="B732" s="17"/>
       <c r="C732" s="17"/>
-      <c r="D732" s="17"/>
+      <c r="D732" s="17" t="s">
+        <v>206</v>
+      </c>
       <c r="E732" s="17"/>
       <c r="F732" s="17"/>
       <c r="G732" s="6"/>
@@ -19079,14 +19175,22 @@
       <c r="D737" s="17"/>
       <c r="E737" s="17"/>
       <c r="F737" s="17"/>
-      <c r="G737" s="18"/>
+      <c r="G737" s="18" t="s">
+        <v>203</v>
+      </c>
       <c r="H737" s="19"/>
       <c r="I737" s="20"/>
-      <c r="J737" s="21"/>
+      <c r="J737" s="21">
+        <v>45589</v>
+      </c>
       <c r="K737" s="15"/>
-      <c r="L737" s="15"/>
+      <c r="L737" s="15" t="s">
+        <v>204</v>
+      </c>
       <c r="M737" s="15"/>
-      <c r="N737" s="15"/>
+      <c r="N737" s="15" t="s">
+        <v>205</v>
+      </c>
       <c r="O737" s="15"/>
       <c r="P737" s="5"/>
     </row>
@@ -19097,14 +19201,22 @@
       <c r="D738" s="17"/>
       <c r="E738" s="17"/>
       <c r="F738" s="17"/>
-      <c r="G738" s="18"/>
+      <c r="G738" s="18" t="s">
+        <v>208</v>
+      </c>
       <c r="H738" s="19"/>
       <c r="I738" s="20"/>
-      <c r="J738" s="21"/>
+      <c r="J738" s="21">
+        <v>45589</v>
+      </c>
       <c r="K738" s="15"/>
-      <c r="L738" s="15"/>
+      <c r="L738" s="15" t="s">
+        <v>209</v>
+      </c>
       <c r="M738" s="15"/>
-      <c r="N738" s="15"/>
+      <c r="N738" s="15" t="s">
+        <v>205</v>
+      </c>
       <c r="O738" s="15"/>
       <c r="P738" s="5"/>
     </row>
@@ -19234,27 +19346,2029 @@
       <c r="O745" s="12"/>
       <c r="P745" s="13"/>
     </row>
+    <row r="746" spans="1:16" ht="15">
+      <c r="A746" s="8"/>
+      <c r="B746" s="9"/>
+      <c r="C746" s="9"/>
+      <c r="D746" s="9"/>
+      <c r="E746" s="6"/>
+      <c r="F746" s="6"/>
+      <c r="G746" s="6"/>
+      <c r="H746" s="6"/>
+      <c r="I746" s="6"/>
+      <c r="J746" s="6"/>
+      <c r="K746" s="6"/>
+      <c r="L746" s="6"/>
+      <c r="M746" s="6"/>
+      <c r="N746" s="6"/>
+      <c r="O746" s="6"/>
+      <c r="P746" s="5"/>
+    </row>
+    <row r="747" spans="1:16" ht="15">
+      <c r="A747" s="10"/>
+      <c r="B747" s="11"/>
+      <c r="C747" s="11"/>
+      <c r="D747" s="11"/>
+      <c r="E747" s="12"/>
+      <c r="F747" s="12"/>
+      <c r="G747" s="12"/>
+      <c r="H747" s="12"/>
+      <c r="I747" s="12"/>
+      <c r="J747" s="12"/>
+      <c r="K747" s="12"/>
+      <c r="L747" s="12"/>
+      <c r="M747" s="12"/>
+      <c r="N747" s="12"/>
+      <c r="O747" s="12"/>
+      <c r="P747" s="13"/>
+    </row>
+    <row r="748" spans="1:16" ht="18">
+      <c r="A748" s="25"/>
+      <c r="B748" s="26"/>
+      <c r="C748" s="26"/>
+      <c r="D748" s="26"/>
+      <c r="E748" s="2"/>
+      <c r="F748" s="3"/>
+      <c r="G748" s="3"/>
+      <c r="H748" s="3"/>
+      <c r="I748" s="3"/>
+      <c r="J748" s="3"/>
+      <c r="K748" s="3"/>
+      <c r="L748" s="3"/>
+      <c r="M748" s="3"/>
+      <c r="N748" s="3"/>
+      <c r="O748" s="3"/>
+      <c r="P748" s="4"/>
+    </row>
+    <row r="749" spans="1:16">
+      <c r="A749" s="27"/>
+      <c r="B749" s="28"/>
+      <c r="C749" s="28"/>
+      <c r="D749" s="28"/>
+      <c r="E749" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F749" s="65"/>
+      <c r="G749" s="65"/>
+      <c r="H749" s="65"/>
+      <c r="I749" s="65"/>
+      <c r="J749" s="65"/>
+      <c r="K749" s="65"/>
+      <c r="L749" s="65"/>
+      <c r="M749" s="65"/>
+      <c r="N749" s="65"/>
+      <c r="O749" s="65"/>
+      <c r="P749" s="5"/>
+    </row>
+    <row r="750" spans="1:16">
+      <c r="A750" s="27"/>
+      <c r="B750" s="28"/>
+      <c r="C750" s="28"/>
+      <c r="D750" s="28"/>
+      <c r="E750" s="65"/>
+      <c r="F750" s="65"/>
+      <c r="G750" s="65"/>
+      <c r="H750" s="65"/>
+      <c r="I750" s="65"/>
+      <c r="J750" s="65"/>
+      <c r="K750" s="65"/>
+      <c r="L750" s="65"/>
+      <c r="M750" s="65"/>
+      <c r="N750" s="65"/>
+      <c r="O750" s="65"/>
+      <c r="P750" s="5"/>
+    </row>
+    <row r="751" spans="1:16">
+      <c r="A751" s="27"/>
+      <c r="B751" s="28"/>
+      <c r="C751" s="28"/>
+      <c r="D751" s="28"/>
+      <c r="E751" s="65"/>
+      <c r="F751" s="65"/>
+      <c r="G751" s="65"/>
+      <c r="H751" s="65"/>
+      <c r="I751" s="65"/>
+      <c r="J751" s="65"/>
+      <c r="K751" s="65"/>
+      <c r="L751" s="65"/>
+      <c r="M751" s="65"/>
+      <c r="N751" s="65"/>
+      <c r="O751" s="65"/>
+      <c r="P751" s="5"/>
+    </row>
+    <row r="752" spans="1:16">
+      <c r="A752" s="27"/>
+      <c r="B752" s="28"/>
+      <c r="C752" s="28"/>
+      <c r="D752" s="28"/>
+      <c r="E752" s="65"/>
+      <c r="F752" s="65"/>
+      <c r="G752" s="65"/>
+      <c r="H752" s="65"/>
+      <c r="I752" s="65"/>
+      <c r="J752" s="65"/>
+      <c r="K752" s="65"/>
+      <c r="L752" s="65"/>
+      <c r="M752" s="65"/>
+      <c r="N752" s="65"/>
+      <c r="O752" s="65"/>
+      <c r="P752" s="5"/>
+    </row>
+    <row r="753" spans="1:16" ht="18">
+      <c r="A753" s="27"/>
+      <c r="B753" s="28"/>
+      <c r="C753" s="28"/>
+      <c r="D753" s="28"/>
+      <c r="E753" s="30"/>
+      <c r="F753" s="30"/>
+      <c r="G753" s="30"/>
+      <c r="H753" s="30"/>
+      <c r="I753" s="30"/>
+      <c r="J753" s="30"/>
+      <c r="K753" s="30"/>
+      <c r="L753" s="30"/>
+      <c r="M753" s="30"/>
+      <c r="N753" s="30"/>
+      <c r="O753" s="30"/>
+      <c r="P753" s="5"/>
+    </row>
+    <row r="754" spans="1:16" ht="18">
+      <c r="A754" s="27"/>
+      <c r="B754" s="28"/>
+      <c r="C754" s="28"/>
+      <c r="D754" s="28"/>
+      <c r="E754" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F754" s="31"/>
+      <c r="G754" s="31"/>
+      <c r="H754" s="31"/>
+      <c r="I754" s="31"/>
+      <c r="J754" s="31"/>
+      <c r="K754" s="31"/>
+      <c r="L754" s="31"/>
+      <c r="M754" s="31"/>
+      <c r="N754" s="31"/>
+      <c r="O754" s="31"/>
+      <c r="P754" s="5"/>
+    </row>
+    <row r="755" spans="1:16" ht="15">
+      <c r="A755" s="27"/>
+      <c r="B755" s="28"/>
+      <c r="C755" s="28"/>
+      <c r="D755" s="28"/>
+      <c r="E755" s="6"/>
+      <c r="F755" s="7"/>
+      <c r="G755" s="7"/>
+      <c r="H755" s="7"/>
+      <c r="I755" s="7"/>
+      <c r="J755" s="7"/>
+      <c r="K755" s="7"/>
+      <c r="L755" s="7"/>
+      <c r="M755" s="7"/>
+      <c r="N755" s="7"/>
+      <c r="O755" s="7"/>
+      <c r="P755" s="5"/>
+    </row>
+    <row r="756" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A756" s="27"/>
+      <c r="B756" s="28"/>
+      <c r="C756" s="28"/>
+      <c r="D756" s="28"/>
+      <c r="E756" s="6"/>
+      <c r="F756" s="6"/>
+      <c r="G756" s="6"/>
+      <c r="H756" s="6"/>
+      <c r="I756" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J756" s="6"/>
+      <c r="K756" s="6"/>
+      <c r="L756" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M756" s="32"/>
+      <c r="N756" s="32"/>
+      <c r="O756" s="32"/>
+      <c r="P756" s="5"/>
+    </row>
+    <row r="757" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A757" s="8"/>
+      <c r="B757" s="9"/>
+      <c r="C757" s="9"/>
+      <c r="D757" s="9"/>
+      <c r="E757" s="6"/>
+      <c r="F757" s="6"/>
+      <c r="G757" s="6"/>
+      <c r="H757" s="6"/>
+      <c r="I757" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J757" s="6"/>
+      <c r="K757" s="6"/>
+      <c r="L757" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M757" s="32"/>
+      <c r="N757" s="32"/>
+      <c r="O757" s="32"/>
+      <c r="P757" s="5"/>
+    </row>
+    <row r="758" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A758" s="8"/>
+      <c r="B758" s="9"/>
+      <c r="C758" s="9"/>
+      <c r="D758" s="9"/>
+      <c r="E758" s="6"/>
+      <c r="F758" s="6"/>
+      <c r="G758" s="6"/>
+      <c r="H758" s="6"/>
+      <c r="I758" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J758" s="6"/>
+      <c r="K758" s="6"/>
+      <c r="L758" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M758" s="32"/>
+      <c r="N758" s="32"/>
+      <c r="O758" s="32"/>
+      <c r="P758" s="5"/>
+    </row>
+    <row r="759" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A759" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B759" s="35"/>
+      <c r="C759" s="36"/>
+      <c r="D759" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E759" s="35"/>
+      <c r="F759" s="36"/>
+      <c r="G759" s="6"/>
+      <c r="H759" s="6"/>
+      <c r="I759" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J759" s="6"/>
+      <c r="K759" s="6"/>
+      <c r="L759" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M759" s="32"/>
+      <c r="N759" s="32"/>
+      <c r="O759" s="32"/>
+      <c r="P759" s="5"/>
+    </row>
+    <row r="760" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A760" s="16"/>
+      <c r="B760" s="17"/>
+      <c r="C760" s="17"/>
+      <c r="D760" s="17"/>
+      <c r="E760" s="17"/>
+      <c r="F760" s="17"/>
+      <c r="G760" s="6"/>
+      <c r="H760" s="6"/>
+      <c r="I760" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J760" s="6"/>
+      <c r="K760" s="6"/>
+      <c r="L760" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M760" s="32"/>
+      <c r="N760" s="32"/>
+      <c r="O760" s="32"/>
+      <c r="P760" s="5"/>
+    </row>
+    <row r="761" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A761" s="16"/>
+      <c r="B761" s="17"/>
+      <c r="C761" s="17"/>
+      <c r="D761" s="17"/>
+      <c r="E761" s="17"/>
+      <c r="F761" s="17"/>
+      <c r="G761" s="6"/>
+      <c r="H761" s="6"/>
+      <c r="I761" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J761" s="6"/>
+      <c r="K761" s="6"/>
+      <c r="L761" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M761" s="32"/>
+      <c r="N761" s="32"/>
+      <c r="O761" s="32"/>
+      <c r="P761" s="5"/>
+    </row>
+    <row r="762" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A762" s="16"/>
+      <c r="B762" s="17"/>
+      <c r="C762" s="17"/>
+      <c r="D762" s="17"/>
+      <c r="E762" s="17"/>
+      <c r="F762" s="17"/>
+      <c r="G762" s="6"/>
+      <c r="H762" s="6"/>
+      <c r="I762" s="6"/>
+      <c r="J762" s="6"/>
+      <c r="K762" s="6"/>
+      <c r="L762" s="6"/>
+      <c r="M762" s="6"/>
+      <c r="N762" s="6"/>
+      <c r="O762" s="6"/>
+      <c r="P762" s="5"/>
+    </row>
+    <row r="763" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A763" s="16"/>
+      <c r="B763" s="17"/>
+      <c r="C763" s="17"/>
+      <c r="D763" s="17"/>
+      <c r="E763" s="17"/>
+      <c r="F763" s="17"/>
+      <c r="G763" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H763" s="38"/>
+      <c r="I763" s="38"/>
+      <c r="J763" s="38"/>
+      <c r="K763" s="38"/>
+      <c r="L763" s="38"/>
+      <c r="M763" s="38"/>
+      <c r="N763" s="38"/>
+      <c r="O763" s="38"/>
+      <c r="P763" s="5"/>
+    </row>
+    <row r="764" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A764" s="16"/>
+      <c r="B764" s="17"/>
+      <c r="C764" s="17"/>
+      <c r="D764" s="17"/>
+      <c r="E764" s="17"/>
+      <c r="F764" s="17"/>
+      <c r="G764" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H764" s="40"/>
+      <c r="I764" s="41"/>
+      <c r="J764" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K764" s="42"/>
+      <c r="L764" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="M764" s="42"/>
+      <c r="N764" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O764" s="42"/>
+      <c r="P764" s="5"/>
+    </row>
+    <row r="765" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A765" s="16"/>
+      <c r="B765" s="17"/>
+      <c r="C765" s="17"/>
+      <c r="D765" s="17"/>
+      <c r="E765" s="17"/>
+      <c r="F765" s="17"/>
+      <c r="G765" s="18"/>
+      <c r="H765" s="19"/>
+      <c r="I765" s="20"/>
+      <c r="J765" s="21"/>
+      <c r="K765" s="15"/>
+      <c r="L765" s="15"/>
+      <c r="M765" s="15"/>
+      <c r="N765" s="15"/>
+      <c r="O765" s="15"/>
+      <c r="P765" s="5"/>
+    </row>
+    <row r="766" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A766" s="16"/>
+      <c r="B766" s="17"/>
+      <c r="C766" s="17"/>
+      <c r="D766" s="17"/>
+      <c r="E766" s="17"/>
+      <c r="F766" s="17"/>
+      <c r="G766" s="18"/>
+      <c r="H766" s="19"/>
+      <c r="I766" s="20"/>
+      <c r="J766" s="21"/>
+      <c r="K766" s="15"/>
+      <c r="L766" s="15"/>
+      <c r="M766" s="15"/>
+      <c r="N766" s="15"/>
+      <c r="O766" s="15"/>
+      <c r="P766" s="5"/>
+    </row>
+    <row r="767" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A767" s="16"/>
+      <c r="B767" s="17"/>
+      <c r="C767" s="17"/>
+      <c r="D767" s="17"/>
+      <c r="E767" s="17"/>
+      <c r="F767" s="17"/>
+      <c r="G767" s="18"/>
+      <c r="H767" s="19"/>
+      <c r="I767" s="20"/>
+      <c r="J767" s="21"/>
+      <c r="K767" s="15"/>
+      <c r="L767" s="15"/>
+      <c r="M767" s="15"/>
+      <c r="N767" s="15"/>
+      <c r="O767" s="15"/>
+      <c r="P767" s="5"/>
+    </row>
+    <row r="768" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A768" s="16"/>
+      <c r="B768" s="17"/>
+      <c r="C768" s="17"/>
+      <c r="D768" s="17"/>
+      <c r="E768" s="17"/>
+      <c r="F768" s="17"/>
+      <c r="G768" s="18"/>
+      <c r="H768" s="19"/>
+      <c r="I768" s="20"/>
+      <c r="J768" s="21"/>
+      <c r="K768" s="15"/>
+      <c r="L768" s="15"/>
+      <c r="M768" s="15"/>
+      <c r="N768" s="15"/>
+      <c r="O768" s="15"/>
+      <c r="P768" s="5"/>
+    </row>
+    <row r="769" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A769" s="16"/>
+      <c r="B769" s="17"/>
+      <c r="C769" s="17"/>
+      <c r="D769" s="17"/>
+      <c r="E769" s="17"/>
+      <c r="F769" s="17"/>
+      <c r="G769" s="18"/>
+      <c r="H769" s="19"/>
+      <c r="I769" s="20"/>
+      <c r="J769" s="21"/>
+      <c r="K769" s="15"/>
+      <c r="L769" s="15"/>
+      <c r="M769" s="15"/>
+      <c r="N769" s="15"/>
+      <c r="O769" s="15"/>
+      <c r="P769" s="5"/>
+    </row>
+    <row r="770" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A770" s="16"/>
+      <c r="B770" s="17"/>
+      <c r="C770" s="17"/>
+      <c r="D770" s="17"/>
+      <c r="E770" s="17"/>
+      <c r="F770" s="17"/>
+      <c r="G770" s="18"/>
+      <c r="H770" s="19"/>
+      <c r="I770" s="20"/>
+      <c r="J770" s="21"/>
+      <c r="K770" s="15"/>
+      <c r="L770" s="15"/>
+      <c r="M770" s="15"/>
+      <c r="N770" s="15"/>
+      <c r="O770" s="15"/>
+      <c r="P770" s="5"/>
+    </row>
+    <row r="771" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A771" s="16"/>
+      <c r="B771" s="17"/>
+      <c r="C771" s="17"/>
+      <c r="D771" s="17"/>
+      <c r="E771" s="17"/>
+      <c r="F771" s="17"/>
+      <c r="G771" s="22"/>
+      <c r="H771" s="23"/>
+      <c r="I771" s="24"/>
+      <c r="J771" s="21"/>
+      <c r="K771" s="15"/>
+      <c r="L771" s="15"/>
+      <c r="M771" s="15"/>
+      <c r="N771" s="15"/>
+      <c r="O771" s="15"/>
+      <c r="P771" s="5"/>
+    </row>
+    <row r="772" spans="1:16" ht="15.75" thickTop="1">
+      <c r="A772" s="8"/>
+      <c r="B772" s="9"/>
+      <c r="C772" s="9"/>
+      <c r="D772" s="9"/>
+      <c r="E772" s="6"/>
+      <c r="F772" s="6"/>
+      <c r="G772" s="6"/>
+      <c r="H772" s="6"/>
+      <c r="I772" s="6"/>
+      <c r="J772" s="6"/>
+      <c r="K772" s="6"/>
+      <c r="L772" s="6"/>
+      <c r="M772" s="6"/>
+      <c r="N772" s="6"/>
+      <c r="O772" s="6"/>
+      <c r="P772" s="5"/>
+    </row>
+    <row r="773" spans="1:16" ht="15">
+      <c r="A773" s="10"/>
+      <c r="B773" s="11"/>
+      <c r="C773" s="11"/>
+      <c r="D773" s="11"/>
+      <c r="E773" s="12"/>
+      <c r="F773" s="12"/>
+      <c r="G773" s="12"/>
+      <c r="H773" s="12"/>
+      <c r="I773" s="12"/>
+      <c r="J773" s="12"/>
+      <c r="K773" s="12"/>
+      <c r="L773" s="12"/>
+      <c r="M773" s="12"/>
+      <c r="N773" s="12"/>
+      <c r="O773" s="12"/>
+      <c r="P773" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="1475">
-    <mergeCell ref="N739:O739"/>
-    <mergeCell ref="A740:C743"/>
-    <mergeCell ref="D740:F743"/>
-    <mergeCell ref="G740:I740"/>
-    <mergeCell ref="J740:K740"/>
-    <mergeCell ref="L740:M740"/>
-    <mergeCell ref="N740:O740"/>
-    <mergeCell ref="G741:I741"/>
-    <mergeCell ref="J741:K741"/>
-    <mergeCell ref="L741:M741"/>
-    <mergeCell ref="N741:O741"/>
-    <mergeCell ref="G742:I742"/>
-    <mergeCell ref="J742:K742"/>
-    <mergeCell ref="L742:M742"/>
-    <mergeCell ref="N742:O742"/>
-    <mergeCell ref="G743:I743"/>
-    <mergeCell ref="J743:K743"/>
-    <mergeCell ref="L743:M743"/>
-    <mergeCell ref="N743:O743"/>
+  <mergeCells count="1526">
+    <mergeCell ref="N767:O767"/>
+    <mergeCell ref="A768:C771"/>
+    <mergeCell ref="D768:F771"/>
+    <mergeCell ref="G768:I768"/>
+    <mergeCell ref="J768:K768"/>
+    <mergeCell ref="L768:M768"/>
+    <mergeCell ref="N768:O768"/>
+    <mergeCell ref="G769:I769"/>
+    <mergeCell ref="J769:K769"/>
+    <mergeCell ref="L769:M769"/>
+    <mergeCell ref="N769:O769"/>
+    <mergeCell ref="G770:I770"/>
+    <mergeCell ref="J770:K770"/>
+    <mergeCell ref="L770:M770"/>
+    <mergeCell ref="N770:O770"/>
+    <mergeCell ref="G771:I771"/>
+    <mergeCell ref="J771:K771"/>
+    <mergeCell ref="L771:M771"/>
+    <mergeCell ref="N771:O771"/>
+    <mergeCell ref="A748:D756"/>
+    <mergeCell ref="E749:O752"/>
+    <mergeCell ref="E753:O753"/>
+    <mergeCell ref="E754:O754"/>
+    <mergeCell ref="L756:O756"/>
+    <mergeCell ref="L757:O757"/>
+    <mergeCell ref="L758:O758"/>
+    <mergeCell ref="A759:C759"/>
+    <mergeCell ref="D759:F759"/>
+    <mergeCell ref="L759:O759"/>
+    <mergeCell ref="A760:C763"/>
+    <mergeCell ref="D760:F763"/>
+    <mergeCell ref="L760:O760"/>
+    <mergeCell ref="L761:O761"/>
+    <mergeCell ref="G763:O763"/>
+    <mergeCell ref="A764:C767"/>
+    <mergeCell ref="D764:F767"/>
+    <mergeCell ref="G764:I764"/>
+    <mergeCell ref="J764:K764"/>
+    <mergeCell ref="L764:M764"/>
+    <mergeCell ref="N764:O764"/>
+    <mergeCell ref="G765:I765"/>
+    <mergeCell ref="J765:K765"/>
+    <mergeCell ref="L765:M765"/>
+    <mergeCell ref="N765:O765"/>
+    <mergeCell ref="G766:I766"/>
+    <mergeCell ref="J766:K766"/>
+    <mergeCell ref="L766:M766"/>
+    <mergeCell ref="N766:O766"/>
+    <mergeCell ref="G767:I767"/>
+    <mergeCell ref="J767:K767"/>
+    <mergeCell ref="L767:M767"/>
+    <mergeCell ref="N657:O657"/>
+    <mergeCell ref="A658:C661"/>
+    <mergeCell ref="D658:F661"/>
+    <mergeCell ref="G658:I658"/>
+    <mergeCell ref="J658:K658"/>
+    <mergeCell ref="L658:M658"/>
+    <mergeCell ref="N658:O658"/>
+    <mergeCell ref="G659:I659"/>
+    <mergeCell ref="J659:K659"/>
+    <mergeCell ref="L659:M659"/>
+    <mergeCell ref="N659:O659"/>
+    <mergeCell ref="G660:I660"/>
+    <mergeCell ref="J660:K660"/>
+    <mergeCell ref="L660:M660"/>
+    <mergeCell ref="N660:O660"/>
+    <mergeCell ref="G661:I661"/>
+    <mergeCell ref="J661:K661"/>
+    <mergeCell ref="L661:M661"/>
+    <mergeCell ref="N661:O661"/>
+    <mergeCell ref="A638:D646"/>
+    <mergeCell ref="E639:O642"/>
+    <mergeCell ref="E643:O643"/>
+    <mergeCell ref="E644:O644"/>
+    <mergeCell ref="L646:O646"/>
+    <mergeCell ref="L647:O647"/>
+    <mergeCell ref="L648:O648"/>
+    <mergeCell ref="A649:C649"/>
+    <mergeCell ref="D649:F649"/>
+    <mergeCell ref="L649:O649"/>
+    <mergeCell ref="A650:C653"/>
+    <mergeCell ref="D650:F653"/>
+    <mergeCell ref="L650:O650"/>
+    <mergeCell ref="L651:O651"/>
+    <mergeCell ref="G653:O653"/>
+    <mergeCell ref="A654:C657"/>
+    <mergeCell ref="D654:F657"/>
+    <mergeCell ref="G654:I654"/>
+    <mergeCell ref="J654:K654"/>
+    <mergeCell ref="L654:M654"/>
+    <mergeCell ref="N654:O654"/>
+    <mergeCell ref="G655:I655"/>
+    <mergeCell ref="J655:K655"/>
+    <mergeCell ref="L655:M655"/>
+    <mergeCell ref="N655:O655"/>
+    <mergeCell ref="G656:I656"/>
+    <mergeCell ref="J656:K656"/>
+    <mergeCell ref="L656:M656"/>
+    <mergeCell ref="N656:O656"/>
+    <mergeCell ref="G657:I657"/>
+    <mergeCell ref="J657:K657"/>
+    <mergeCell ref="L657:M657"/>
+    <mergeCell ref="N683:O683"/>
+    <mergeCell ref="A684:C687"/>
+    <mergeCell ref="D684:F687"/>
+    <mergeCell ref="G684:I684"/>
+    <mergeCell ref="J684:K684"/>
+    <mergeCell ref="L684:M684"/>
+    <mergeCell ref="N684:O684"/>
+    <mergeCell ref="G685:I685"/>
+    <mergeCell ref="J685:K685"/>
+    <mergeCell ref="L685:M685"/>
+    <mergeCell ref="N685:O685"/>
+    <mergeCell ref="G686:I686"/>
+    <mergeCell ref="J686:K686"/>
+    <mergeCell ref="L686:M686"/>
+    <mergeCell ref="N686:O686"/>
+    <mergeCell ref="G687:I687"/>
+    <mergeCell ref="J687:K687"/>
+    <mergeCell ref="L687:M687"/>
+    <mergeCell ref="N687:O687"/>
+    <mergeCell ref="A664:D672"/>
+    <mergeCell ref="E665:O668"/>
+    <mergeCell ref="E669:O669"/>
+    <mergeCell ref="E670:O670"/>
+    <mergeCell ref="L672:O672"/>
+    <mergeCell ref="L673:O673"/>
+    <mergeCell ref="L674:O674"/>
+    <mergeCell ref="A675:C675"/>
+    <mergeCell ref="D675:F675"/>
+    <mergeCell ref="L675:O675"/>
+    <mergeCell ref="A676:C679"/>
+    <mergeCell ref="D676:F679"/>
+    <mergeCell ref="L676:O676"/>
+    <mergeCell ref="L677:O677"/>
+    <mergeCell ref="G679:O679"/>
+    <mergeCell ref="A680:C683"/>
+    <mergeCell ref="D680:F683"/>
+    <mergeCell ref="G680:I680"/>
+    <mergeCell ref="J680:K680"/>
+    <mergeCell ref="L680:M680"/>
+    <mergeCell ref="N680:O680"/>
+    <mergeCell ref="G681:I681"/>
+    <mergeCell ref="J681:K681"/>
+    <mergeCell ref="L681:M681"/>
+    <mergeCell ref="N681:O681"/>
+    <mergeCell ref="G682:I682"/>
+    <mergeCell ref="J682:K682"/>
+    <mergeCell ref="L682:M682"/>
+    <mergeCell ref="N682:O682"/>
+    <mergeCell ref="G683:I683"/>
+    <mergeCell ref="J683:K683"/>
+    <mergeCell ref="L683:M683"/>
+    <mergeCell ref="A632:C635"/>
+    <mergeCell ref="D632:F635"/>
+    <mergeCell ref="G632:I632"/>
+    <mergeCell ref="J632:K632"/>
+    <mergeCell ref="L632:M632"/>
+    <mergeCell ref="N632:O632"/>
+    <mergeCell ref="G633:I633"/>
+    <mergeCell ref="J633:K633"/>
+    <mergeCell ref="L633:M633"/>
+    <mergeCell ref="N633:O633"/>
+    <mergeCell ref="G634:I634"/>
+    <mergeCell ref="J634:K634"/>
+    <mergeCell ref="L634:M634"/>
+    <mergeCell ref="N634:O634"/>
+    <mergeCell ref="G635:I635"/>
+    <mergeCell ref="J635:K635"/>
+    <mergeCell ref="L635:M635"/>
+    <mergeCell ref="N635:O635"/>
+    <mergeCell ref="L621:O621"/>
+    <mergeCell ref="L622:O622"/>
+    <mergeCell ref="A623:C623"/>
+    <mergeCell ref="D623:F623"/>
+    <mergeCell ref="L623:O623"/>
+    <mergeCell ref="A624:C627"/>
+    <mergeCell ref="D624:F627"/>
+    <mergeCell ref="L624:O624"/>
+    <mergeCell ref="L625:O625"/>
+    <mergeCell ref="G627:O627"/>
+    <mergeCell ref="A628:C631"/>
+    <mergeCell ref="D628:F631"/>
+    <mergeCell ref="G628:I628"/>
+    <mergeCell ref="J628:K628"/>
+    <mergeCell ref="L628:M628"/>
+    <mergeCell ref="N628:O628"/>
+    <mergeCell ref="G629:I629"/>
+    <mergeCell ref="J629:K629"/>
+    <mergeCell ref="L629:M629"/>
+    <mergeCell ref="N629:O629"/>
+    <mergeCell ref="G630:I630"/>
+    <mergeCell ref="J630:K630"/>
+    <mergeCell ref="L630:M630"/>
+    <mergeCell ref="N630:O630"/>
+    <mergeCell ref="G631:I631"/>
+    <mergeCell ref="J631:K631"/>
+    <mergeCell ref="L631:M631"/>
+    <mergeCell ref="N631:O631"/>
+    <mergeCell ref="A597:C597"/>
+    <mergeCell ref="D597:F597"/>
+    <mergeCell ref="L597:O597"/>
+    <mergeCell ref="A598:C601"/>
+    <mergeCell ref="D598:F601"/>
+    <mergeCell ref="L598:O598"/>
+    <mergeCell ref="L599:O599"/>
+    <mergeCell ref="A602:C605"/>
+    <mergeCell ref="D602:F605"/>
+    <mergeCell ref="G601:O601"/>
+    <mergeCell ref="A606:C609"/>
+    <mergeCell ref="D606:F609"/>
+    <mergeCell ref="G602:I602"/>
+    <mergeCell ref="J602:K602"/>
+    <mergeCell ref="L602:M602"/>
+    <mergeCell ref="N602:O602"/>
+    <mergeCell ref="A612:D620"/>
+    <mergeCell ref="E613:O616"/>
+    <mergeCell ref="E617:O617"/>
+    <mergeCell ref="E618:O618"/>
+    <mergeCell ref="L620:O620"/>
+    <mergeCell ref="J578:K578"/>
+    <mergeCell ref="G606:I606"/>
+    <mergeCell ref="J606:K606"/>
+    <mergeCell ref="L606:M606"/>
+    <mergeCell ref="N606:O606"/>
+    <mergeCell ref="G607:I607"/>
+    <mergeCell ref="J607:K607"/>
+    <mergeCell ref="L607:M607"/>
+    <mergeCell ref="N607:O607"/>
+    <mergeCell ref="G608:I608"/>
+    <mergeCell ref="J608:K608"/>
+    <mergeCell ref="L608:M608"/>
+    <mergeCell ref="N608:O608"/>
+    <mergeCell ref="G609:I609"/>
+    <mergeCell ref="J609:K609"/>
+    <mergeCell ref="L609:M609"/>
+    <mergeCell ref="N609:O609"/>
+    <mergeCell ref="L578:M578"/>
+    <mergeCell ref="A550:C553"/>
+    <mergeCell ref="G603:I603"/>
+    <mergeCell ref="J603:K603"/>
+    <mergeCell ref="L603:M603"/>
+    <mergeCell ref="N603:O603"/>
+    <mergeCell ref="G604:I604"/>
+    <mergeCell ref="J604:K604"/>
+    <mergeCell ref="L604:M604"/>
+    <mergeCell ref="N604:O604"/>
+    <mergeCell ref="G605:I605"/>
+    <mergeCell ref="J605:K605"/>
+    <mergeCell ref="L605:M605"/>
+    <mergeCell ref="N605:O605"/>
+    <mergeCell ref="L551:M551"/>
+    <mergeCell ref="N551:O551"/>
+    <mergeCell ref="G552:I552"/>
+    <mergeCell ref="J552:K552"/>
+    <mergeCell ref="L552:M552"/>
+    <mergeCell ref="N552:O552"/>
+    <mergeCell ref="G553:I553"/>
+    <mergeCell ref="J553:K553"/>
+    <mergeCell ref="L553:M553"/>
+    <mergeCell ref="N553:O553"/>
+    <mergeCell ref="N578:O578"/>
+    <mergeCell ref="G579:I579"/>
+    <mergeCell ref="J579:K579"/>
+    <mergeCell ref="L579:M579"/>
+    <mergeCell ref="G577:I577"/>
+    <mergeCell ref="J577:K577"/>
+    <mergeCell ref="L577:M577"/>
+    <mergeCell ref="N577:O577"/>
+    <mergeCell ref="G578:I578"/>
+    <mergeCell ref="A504:D512"/>
+    <mergeCell ref="E505:O508"/>
+    <mergeCell ref="E509:O509"/>
+    <mergeCell ref="E510:O510"/>
+    <mergeCell ref="L512:O512"/>
+    <mergeCell ref="L513:O513"/>
+    <mergeCell ref="L514:O514"/>
+    <mergeCell ref="A586:D594"/>
+    <mergeCell ref="E587:O590"/>
+    <mergeCell ref="E591:O591"/>
+    <mergeCell ref="E592:O592"/>
+    <mergeCell ref="L594:O594"/>
+    <mergeCell ref="L595:O595"/>
+    <mergeCell ref="L596:O596"/>
+    <mergeCell ref="L541:O541"/>
+    <mergeCell ref="A542:C545"/>
+    <mergeCell ref="D542:F545"/>
+    <mergeCell ref="L542:O542"/>
+    <mergeCell ref="L543:O543"/>
+    <mergeCell ref="G545:O545"/>
+    <mergeCell ref="A546:C549"/>
+    <mergeCell ref="D550:F553"/>
+    <mergeCell ref="G546:I546"/>
+    <mergeCell ref="J546:K546"/>
+    <mergeCell ref="L546:M546"/>
+    <mergeCell ref="N546:O546"/>
+    <mergeCell ref="G547:I547"/>
+    <mergeCell ref="J547:K547"/>
+    <mergeCell ref="L547:M547"/>
+    <mergeCell ref="N547:O547"/>
+    <mergeCell ref="G548:I548"/>
+    <mergeCell ref="J548:K548"/>
+    <mergeCell ref="A498:C501"/>
+    <mergeCell ref="D498:F501"/>
+    <mergeCell ref="G498:I498"/>
+    <mergeCell ref="J498:K498"/>
+    <mergeCell ref="L498:M498"/>
+    <mergeCell ref="N498:O498"/>
+    <mergeCell ref="G499:I499"/>
+    <mergeCell ref="J499:K499"/>
+    <mergeCell ref="L499:M499"/>
+    <mergeCell ref="N499:O499"/>
+    <mergeCell ref="G500:I500"/>
+    <mergeCell ref="J500:K500"/>
+    <mergeCell ref="L500:M500"/>
+    <mergeCell ref="N500:O500"/>
+    <mergeCell ref="G501:I501"/>
+    <mergeCell ref="J501:K501"/>
+    <mergeCell ref="L501:M501"/>
+    <mergeCell ref="N501:O501"/>
+    <mergeCell ref="A490:C493"/>
+    <mergeCell ref="D490:F493"/>
+    <mergeCell ref="L490:O490"/>
+    <mergeCell ref="L491:O491"/>
+    <mergeCell ref="G493:O493"/>
+    <mergeCell ref="A494:C497"/>
+    <mergeCell ref="D494:F497"/>
+    <mergeCell ref="G494:I494"/>
+    <mergeCell ref="J494:K494"/>
+    <mergeCell ref="L494:M494"/>
+    <mergeCell ref="N494:O494"/>
+    <mergeCell ref="G495:I495"/>
+    <mergeCell ref="J495:K495"/>
+    <mergeCell ref="L495:M495"/>
+    <mergeCell ref="N495:O495"/>
+    <mergeCell ref="G496:I496"/>
+    <mergeCell ref="J496:K496"/>
+    <mergeCell ref="L496:M496"/>
+    <mergeCell ref="N496:O496"/>
+    <mergeCell ref="G497:I497"/>
+    <mergeCell ref="J497:K497"/>
+    <mergeCell ref="L497:M497"/>
+    <mergeCell ref="N497:O497"/>
+    <mergeCell ref="A478:D486"/>
+    <mergeCell ref="E479:O482"/>
+    <mergeCell ref="E483:O483"/>
+    <mergeCell ref="E484:O484"/>
+    <mergeCell ref="L486:O486"/>
+    <mergeCell ref="L487:O487"/>
+    <mergeCell ref="L488:O488"/>
+    <mergeCell ref="A489:C489"/>
+    <mergeCell ref="D489:F489"/>
+    <mergeCell ref="L489:O489"/>
+    <mergeCell ref="A446:C449"/>
+    <mergeCell ref="D446:F449"/>
+    <mergeCell ref="G446:I446"/>
+    <mergeCell ref="J446:K446"/>
+    <mergeCell ref="L446:M446"/>
+    <mergeCell ref="N446:O446"/>
+    <mergeCell ref="G447:I447"/>
+    <mergeCell ref="J447:K447"/>
+    <mergeCell ref="L447:M447"/>
+    <mergeCell ref="N447:O447"/>
+    <mergeCell ref="G448:I448"/>
+    <mergeCell ref="J448:K448"/>
+    <mergeCell ref="L448:M448"/>
+    <mergeCell ref="N448:O448"/>
+    <mergeCell ref="G449:I449"/>
+    <mergeCell ref="J449:K449"/>
+    <mergeCell ref="L449:M449"/>
+    <mergeCell ref="N449:O449"/>
+    <mergeCell ref="A452:D460"/>
+    <mergeCell ref="E453:O456"/>
+    <mergeCell ref="E457:O457"/>
+    <mergeCell ref="E458:O458"/>
+    <mergeCell ref="A438:C441"/>
+    <mergeCell ref="D438:F441"/>
+    <mergeCell ref="L438:O438"/>
+    <mergeCell ref="L439:O439"/>
+    <mergeCell ref="G441:O441"/>
+    <mergeCell ref="A442:C445"/>
+    <mergeCell ref="D442:F445"/>
+    <mergeCell ref="G442:I442"/>
+    <mergeCell ref="J442:K442"/>
+    <mergeCell ref="L442:M442"/>
+    <mergeCell ref="N442:O442"/>
+    <mergeCell ref="G443:I443"/>
+    <mergeCell ref="J443:K443"/>
+    <mergeCell ref="L443:M443"/>
+    <mergeCell ref="N443:O443"/>
+    <mergeCell ref="G444:I444"/>
+    <mergeCell ref="J444:K444"/>
+    <mergeCell ref="L444:M444"/>
+    <mergeCell ref="N444:O444"/>
+    <mergeCell ref="G445:I445"/>
+    <mergeCell ref="J445:K445"/>
+    <mergeCell ref="L445:M445"/>
+    <mergeCell ref="N445:O445"/>
+    <mergeCell ref="A426:D434"/>
+    <mergeCell ref="E427:O430"/>
+    <mergeCell ref="E431:O431"/>
+    <mergeCell ref="E432:O432"/>
+    <mergeCell ref="L434:O434"/>
+    <mergeCell ref="L435:O435"/>
+    <mergeCell ref="L436:O436"/>
+    <mergeCell ref="A437:C437"/>
+    <mergeCell ref="D437:F437"/>
+    <mergeCell ref="L437:O437"/>
+    <mergeCell ref="A368:C371"/>
+    <mergeCell ref="D368:F371"/>
+    <mergeCell ref="G368:I368"/>
+    <mergeCell ref="J368:K368"/>
+    <mergeCell ref="L368:M368"/>
+    <mergeCell ref="N368:O368"/>
+    <mergeCell ref="G369:I369"/>
+    <mergeCell ref="J369:K369"/>
+    <mergeCell ref="L369:M369"/>
+    <mergeCell ref="N369:O369"/>
+    <mergeCell ref="G370:I370"/>
+    <mergeCell ref="J370:K370"/>
+    <mergeCell ref="L370:M370"/>
+    <mergeCell ref="N370:O370"/>
+    <mergeCell ref="G371:I371"/>
+    <mergeCell ref="J371:K371"/>
+    <mergeCell ref="L371:M371"/>
+    <mergeCell ref="N371:O371"/>
+    <mergeCell ref="A374:D382"/>
+    <mergeCell ref="E375:O378"/>
+    <mergeCell ref="E379:O379"/>
+    <mergeCell ref="E380:O380"/>
+    <mergeCell ref="A360:C363"/>
+    <mergeCell ref="D360:F363"/>
+    <mergeCell ref="L360:O360"/>
+    <mergeCell ref="L361:O361"/>
+    <mergeCell ref="G363:O363"/>
+    <mergeCell ref="A364:C367"/>
+    <mergeCell ref="D364:F367"/>
+    <mergeCell ref="G364:I364"/>
+    <mergeCell ref="J364:K364"/>
+    <mergeCell ref="L364:M364"/>
+    <mergeCell ref="N364:O364"/>
+    <mergeCell ref="G365:I365"/>
+    <mergeCell ref="J365:K365"/>
+    <mergeCell ref="L365:M365"/>
+    <mergeCell ref="N365:O365"/>
+    <mergeCell ref="G366:I366"/>
+    <mergeCell ref="J366:K366"/>
+    <mergeCell ref="L366:M366"/>
+    <mergeCell ref="N366:O366"/>
+    <mergeCell ref="G367:I367"/>
+    <mergeCell ref="J367:K367"/>
+    <mergeCell ref="L367:M367"/>
+    <mergeCell ref="N367:O367"/>
+    <mergeCell ref="A348:D356"/>
+    <mergeCell ref="E349:O352"/>
+    <mergeCell ref="E353:O353"/>
+    <mergeCell ref="E354:O354"/>
+    <mergeCell ref="L356:O356"/>
+    <mergeCell ref="L357:O357"/>
+    <mergeCell ref="L358:O358"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="D359:F359"/>
+    <mergeCell ref="L359:O359"/>
+    <mergeCell ref="A316:C319"/>
+    <mergeCell ref="D316:F319"/>
+    <mergeCell ref="G316:I316"/>
+    <mergeCell ref="J316:K316"/>
+    <mergeCell ref="L316:M316"/>
+    <mergeCell ref="N316:O316"/>
+    <mergeCell ref="G317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="L317:M317"/>
+    <mergeCell ref="N317:O317"/>
+    <mergeCell ref="G318:I318"/>
+    <mergeCell ref="J318:K318"/>
+    <mergeCell ref="L318:M318"/>
+    <mergeCell ref="N318:O318"/>
+    <mergeCell ref="G319:I319"/>
+    <mergeCell ref="J319:K319"/>
+    <mergeCell ref="L319:M319"/>
+    <mergeCell ref="N319:O319"/>
+    <mergeCell ref="A322:D330"/>
+    <mergeCell ref="E323:O326"/>
+    <mergeCell ref="E327:O327"/>
+    <mergeCell ref="E328:O328"/>
+    <mergeCell ref="A308:C311"/>
+    <mergeCell ref="D308:F311"/>
+    <mergeCell ref="L308:O308"/>
+    <mergeCell ref="L309:O309"/>
+    <mergeCell ref="G311:O311"/>
+    <mergeCell ref="A312:C315"/>
+    <mergeCell ref="D312:F315"/>
+    <mergeCell ref="G312:I312"/>
+    <mergeCell ref="J312:K312"/>
+    <mergeCell ref="L312:M312"/>
+    <mergeCell ref="N312:O312"/>
+    <mergeCell ref="G313:I313"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="L313:M313"/>
+    <mergeCell ref="N313:O313"/>
+    <mergeCell ref="G314:I314"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="L314:M314"/>
+    <mergeCell ref="N314:O314"/>
+    <mergeCell ref="G315:I315"/>
+    <mergeCell ref="J315:K315"/>
+    <mergeCell ref="L315:M315"/>
+    <mergeCell ref="N315:O315"/>
+    <mergeCell ref="A296:D304"/>
+    <mergeCell ref="E297:O300"/>
+    <mergeCell ref="E301:O301"/>
+    <mergeCell ref="E302:O302"/>
+    <mergeCell ref="L304:O304"/>
+    <mergeCell ref="L305:O305"/>
+    <mergeCell ref="L306:O306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="D307:F307"/>
+    <mergeCell ref="L307:O307"/>
+    <mergeCell ref="A256:C259"/>
+    <mergeCell ref="D256:F259"/>
+    <mergeCell ref="G256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="L256:M256"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="G257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="L257:M257"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="G258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="L258:M258"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="G259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="L259:M259"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="A262:D270"/>
+    <mergeCell ref="E263:O266"/>
+    <mergeCell ref="E267:O267"/>
+    <mergeCell ref="E268:O268"/>
+    <mergeCell ref="A248:C251"/>
+    <mergeCell ref="D248:F251"/>
+    <mergeCell ref="L248:O248"/>
+    <mergeCell ref="L249:O249"/>
+    <mergeCell ref="G251:O251"/>
+    <mergeCell ref="A252:C255"/>
+    <mergeCell ref="D252:F255"/>
+    <mergeCell ref="G252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="L252:M252"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="G253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="L253:M253"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="G254:I254"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="L254:M254"/>
+    <mergeCell ref="N254:O254"/>
+    <mergeCell ref="G255:I255"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="L255:M255"/>
+    <mergeCell ref="N255:O255"/>
+    <mergeCell ref="A236:D244"/>
+    <mergeCell ref="E237:O240"/>
+    <mergeCell ref="E241:O241"/>
+    <mergeCell ref="E242:O242"/>
+    <mergeCell ref="L244:O244"/>
+    <mergeCell ref="L245:O245"/>
+    <mergeCell ref="L246:O246"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="D247:F247"/>
+    <mergeCell ref="L247:O247"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="E6:O6"/>
+    <mergeCell ref="E7:O7"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="A1:D9"/>
+    <mergeCell ref="E2:O5"/>
+    <mergeCell ref="A13:C16"/>
+    <mergeCell ref="A17:C20"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="D17:F20"/>
+    <mergeCell ref="A21:C24"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A27:D35"/>
+    <mergeCell ref="E28:O31"/>
+    <mergeCell ref="E32:O32"/>
+    <mergeCell ref="E33:O33"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A43:C46"/>
+    <mergeCell ref="D43:F46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="A39:C42"/>
+    <mergeCell ref="D39:F42"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A53:D61"/>
+    <mergeCell ref="E54:O57"/>
+    <mergeCell ref="E58:O58"/>
+    <mergeCell ref="E59:O59"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="A47:C50"/>
+    <mergeCell ref="D47:F50"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D21:F24"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="A65:C68"/>
+    <mergeCell ref="D65:F68"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="G68:O68"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A69:C72"/>
+    <mergeCell ref="D69:F72"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A79:D87"/>
+    <mergeCell ref="E80:O83"/>
+    <mergeCell ref="E84:O84"/>
+    <mergeCell ref="E85:O85"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A73:C76"/>
+    <mergeCell ref="D73:F76"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="A91:C94"/>
+    <mergeCell ref="D91:F94"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="G94:O94"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A95:C98"/>
+    <mergeCell ref="D95:F98"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A105:D113"/>
+    <mergeCell ref="E106:O109"/>
+    <mergeCell ref="E110:O110"/>
+    <mergeCell ref="E111:O111"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A99:C102"/>
+    <mergeCell ref="D99:F102"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="A117:C120"/>
+    <mergeCell ref="D117:F120"/>
+    <mergeCell ref="L117:O117"/>
+    <mergeCell ref="L118:O118"/>
+    <mergeCell ref="G120:O120"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A121:C124"/>
+    <mergeCell ref="D121:F124"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A131:D139"/>
+    <mergeCell ref="E132:O135"/>
+    <mergeCell ref="E136:O136"/>
+    <mergeCell ref="E137:O137"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A125:C128"/>
+    <mergeCell ref="D125:F128"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="L142:O142"/>
+    <mergeCell ref="A143:C146"/>
+    <mergeCell ref="D143:F146"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="G146:O146"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="G150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="A147:C150"/>
+    <mergeCell ref="D147:F150"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A157:D165"/>
+    <mergeCell ref="E158:O161"/>
+    <mergeCell ref="E162:O162"/>
+    <mergeCell ref="E163:O163"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="L166:O166"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="A151:C154"/>
+    <mergeCell ref="D151:F154"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="A169:C172"/>
+    <mergeCell ref="D169:F172"/>
+    <mergeCell ref="L169:O169"/>
+    <mergeCell ref="L170:O170"/>
+    <mergeCell ref="G172:O172"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="L175:M175"/>
+    <mergeCell ref="N175:O175"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="L176:M176"/>
+    <mergeCell ref="N176:O176"/>
+    <mergeCell ref="A173:C176"/>
+    <mergeCell ref="D173:F176"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="N173:O173"/>
+    <mergeCell ref="G174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="L174:M174"/>
+    <mergeCell ref="N174:O174"/>
+    <mergeCell ref="A184:D192"/>
+    <mergeCell ref="E185:O188"/>
+    <mergeCell ref="E189:O189"/>
+    <mergeCell ref="E190:O190"/>
+    <mergeCell ref="L192:O192"/>
+    <mergeCell ref="L193:O193"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="G180:I180"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="L180:M180"/>
+    <mergeCell ref="N180:O180"/>
+    <mergeCell ref="A177:C180"/>
+    <mergeCell ref="D177:F180"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="L177:M177"/>
+    <mergeCell ref="N177:O177"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="L178:M178"/>
+    <mergeCell ref="N178:O178"/>
+    <mergeCell ref="L194:O194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="L195:O195"/>
+    <mergeCell ref="A196:C199"/>
+    <mergeCell ref="D196:F199"/>
+    <mergeCell ref="L196:O196"/>
+    <mergeCell ref="L197:O197"/>
+    <mergeCell ref="G199:O199"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="L202:M202"/>
+    <mergeCell ref="N202:O202"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="L203:M203"/>
+    <mergeCell ref="N203:O203"/>
+    <mergeCell ref="A200:C203"/>
+    <mergeCell ref="D200:F203"/>
+    <mergeCell ref="G200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="L200:M200"/>
+    <mergeCell ref="N200:O200"/>
+    <mergeCell ref="G201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="L201:M201"/>
+    <mergeCell ref="N201:O201"/>
+    <mergeCell ref="A210:D218"/>
+    <mergeCell ref="E211:O214"/>
+    <mergeCell ref="E215:O215"/>
+    <mergeCell ref="E216:O216"/>
+    <mergeCell ref="L218:O218"/>
+    <mergeCell ref="L219:O219"/>
+    <mergeCell ref="G206:I206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="N206:O206"/>
+    <mergeCell ref="G207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="N207:O207"/>
+    <mergeCell ref="A204:C207"/>
+    <mergeCell ref="D204:F207"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="L204:M204"/>
+    <mergeCell ref="N204:O204"/>
+    <mergeCell ref="G205:I205"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="L205:M205"/>
+    <mergeCell ref="N205:O205"/>
+    <mergeCell ref="L220:O220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="L221:O221"/>
+    <mergeCell ref="A222:C225"/>
+    <mergeCell ref="D222:F225"/>
+    <mergeCell ref="L222:O222"/>
+    <mergeCell ref="L223:O223"/>
+    <mergeCell ref="G225:O225"/>
+    <mergeCell ref="G228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="L228:M228"/>
+    <mergeCell ref="N228:O228"/>
+    <mergeCell ref="G229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="L229:M229"/>
+    <mergeCell ref="N229:O229"/>
+    <mergeCell ref="A226:C229"/>
+    <mergeCell ref="D226:F229"/>
+    <mergeCell ref="G226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="L226:M226"/>
+    <mergeCell ref="N226:O226"/>
+    <mergeCell ref="G227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="L227:M227"/>
+    <mergeCell ref="N227:O227"/>
+    <mergeCell ref="G232:I232"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="L232:M232"/>
+    <mergeCell ref="N232:O232"/>
+    <mergeCell ref="G233:I233"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="L233:M233"/>
+    <mergeCell ref="N233:O233"/>
+    <mergeCell ref="A230:C233"/>
+    <mergeCell ref="D230:F233"/>
+    <mergeCell ref="G230:I230"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="L230:M230"/>
+    <mergeCell ref="N230:O230"/>
+    <mergeCell ref="G231:I231"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="L231:M231"/>
+    <mergeCell ref="N231:O231"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="D273:F273"/>
+    <mergeCell ref="L273:O273"/>
+    <mergeCell ref="A274:C277"/>
+    <mergeCell ref="D274:F277"/>
+    <mergeCell ref="L274:O274"/>
+    <mergeCell ref="L275:O275"/>
+    <mergeCell ref="G277:O277"/>
+    <mergeCell ref="A278:C281"/>
+    <mergeCell ref="D278:F281"/>
+    <mergeCell ref="G278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="L278:M278"/>
+    <mergeCell ref="N278:O278"/>
+    <mergeCell ref="G279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="L279:M279"/>
+    <mergeCell ref="N279:O279"/>
+    <mergeCell ref="A282:C285"/>
+    <mergeCell ref="D282:F285"/>
+    <mergeCell ref="G280:I280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="L280:M280"/>
+    <mergeCell ref="N281:O281"/>
+    <mergeCell ref="G281:I281"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="L281:M281"/>
+    <mergeCell ref="N282:O282"/>
+    <mergeCell ref="G282:I282"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="L282:M282"/>
+    <mergeCell ref="G283:I283"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="L283:M283"/>
+    <mergeCell ref="N283:O283"/>
+    <mergeCell ref="N280:O280"/>
+    <mergeCell ref="A286:C289"/>
+    <mergeCell ref="D286:F289"/>
+    <mergeCell ref="A290:C293"/>
+    <mergeCell ref="D290:F293"/>
+    <mergeCell ref="G284:I284"/>
+    <mergeCell ref="J284:K284"/>
+    <mergeCell ref="L284:M284"/>
+    <mergeCell ref="N284:O284"/>
+    <mergeCell ref="G285:I285"/>
+    <mergeCell ref="J285:K285"/>
+    <mergeCell ref="L285:M285"/>
+    <mergeCell ref="N285:O285"/>
+    <mergeCell ref="G286:I286"/>
+    <mergeCell ref="J286:K286"/>
+    <mergeCell ref="L286:M286"/>
+    <mergeCell ref="N286:O286"/>
+    <mergeCell ref="G287:I287"/>
+    <mergeCell ref="J287:K287"/>
+    <mergeCell ref="L287:M287"/>
+    <mergeCell ref="N287:O287"/>
+    <mergeCell ref="G288:I288"/>
+    <mergeCell ref="J288:K288"/>
+    <mergeCell ref="L288:M288"/>
+    <mergeCell ref="N288:O288"/>
+    <mergeCell ref="G292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="L292:M292"/>
+    <mergeCell ref="N292:O292"/>
+    <mergeCell ref="G293:I293"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="L293:M293"/>
+    <mergeCell ref="N293:O293"/>
+    <mergeCell ref="G289:I289"/>
+    <mergeCell ref="J289:K289"/>
+    <mergeCell ref="L289:M289"/>
+    <mergeCell ref="N289:O289"/>
+    <mergeCell ref="G290:I290"/>
+    <mergeCell ref="J290:K290"/>
+    <mergeCell ref="L290:M290"/>
+    <mergeCell ref="N290:O290"/>
+    <mergeCell ref="G291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="L291:M291"/>
+    <mergeCell ref="N291:O291"/>
+    <mergeCell ref="Q266:U267"/>
+    <mergeCell ref="Q269:U271"/>
+    <mergeCell ref="Q272:U274"/>
+    <mergeCell ref="Q275:U277"/>
+    <mergeCell ref="Q278:U280"/>
+    <mergeCell ref="Q281:U283"/>
+    <mergeCell ref="Q284:U286"/>
+    <mergeCell ref="Q287:U289"/>
+    <mergeCell ref="Q290:U291"/>
+    <mergeCell ref="L270:O270"/>
+    <mergeCell ref="L271:O271"/>
+    <mergeCell ref="L272:O272"/>
+    <mergeCell ref="L330:O330"/>
+    <mergeCell ref="L331:O331"/>
+    <mergeCell ref="L332:O332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="L333:O333"/>
+    <mergeCell ref="A334:C337"/>
+    <mergeCell ref="D334:F337"/>
+    <mergeCell ref="L334:O334"/>
+    <mergeCell ref="L335:O335"/>
+    <mergeCell ref="G337:O337"/>
+    <mergeCell ref="A338:C341"/>
+    <mergeCell ref="D338:F341"/>
+    <mergeCell ref="G338:I338"/>
+    <mergeCell ref="J338:K338"/>
+    <mergeCell ref="L338:M338"/>
+    <mergeCell ref="N338:O338"/>
+    <mergeCell ref="G339:I339"/>
+    <mergeCell ref="J339:K339"/>
+    <mergeCell ref="L339:M339"/>
+    <mergeCell ref="N339:O339"/>
+    <mergeCell ref="G340:I340"/>
+    <mergeCell ref="J340:K340"/>
+    <mergeCell ref="L340:M340"/>
+    <mergeCell ref="N340:O340"/>
+    <mergeCell ref="G341:I341"/>
+    <mergeCell ref="J341:K341"/>
+    <mergeCell ref="L341:M341"/>
+    <mergeCell ref="N341:O341"/>
+    <mergeCell ref="A342:C345"/>
+    <mergeCell ref="D342:F345"/>
+    <mergeCell ref="G342:I342"/>
+    <mergeCell ref="J342:K342"/>
+    <mergeCell ref="L342:M342"/>
+    <mergeCell ref="N342:O342"/>
+    <mergeCell ref="G343:I343"/>
+    <mergeCell ref="J343:K343"/>
+    <mergeCell ref="L343:M343"/>
+    <mergeCell ref="N343:O343"/>
+    <mergeCell ref="G344:I344"/>
+    <mergeCell ref="J344:K344"/>
+    <mergeCell ref="L344:M344"/>
+    <mergeCell ref="N344:O344"/>
+    <mergeCell ref="G345:I345"/>
+    <mergeCell ref="J345:K345"/>
+    <mergeCell ref="L345:M345"/>
+    <mergeCell ref="N345:O345"/>
+    <mergeCell ref="L382:O382"/>
+    <mergeCell ref="L383:O383"/>
+    <mergeCell ref="L384:O384"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="D385:F385"/>
+    <mergeCell ref="L385:O385"/>
+    <mergeCell ref="A386:C389"/>
+    <mergeCell ref="D386:F389"/>
+    <mergeCell ref="L386:O386"/>
+    <mergeCell ref="L387:O387"/>
+    <mergeCell ref="G389:O389"/>
+    <mergeCell ref="A390:C393"/>
+    <mergeCell ref="D390:F393"/>
+    <mergeCell ref="G390:I390"/>
+    <mergeCell ref="J390:K390"/>
+    <mergeCell ref="L390:M390"/>
+    <mergeCell ref="N390:O390"/>
+    <mergeCell ref="G391:I391"/>
+    <mergeCell ref="J391:K391"/>
+    <mergeCell ref="L391:M391"/>
+    <mergeCell ref="N391:O391"/>
+    <mergeCell ref="G392:I392"/>
+    <mergeCell ref="J392:K392"/>
+    <mergeCell ref="L392:M392"/>
+    <mergeCell ref="N392:O392"/>
+    <mergeCell ref="G393:I393"/>
+    <mergeCell ref="J393:K393"/>
+    <mergeCell ref="L393:M393"/>
+    <mergeCell ref="N393:O393"/>
+    <mergeCell ref="A394:C397"/>
+    <mergeCell ref="D394:F397"/>
+    <mergeCell ref="G394:I394"/>
+    <mergeCell ref="J394:K394"/>
+    <mergeCell ref="L394:M394"/>
+    <mergeCell ref="N394:O394"/>
+    <mergeCell ref="G395:I395"/>
+    <mergeCell ref="J395:K395"/>
+    <mergeCell ref="L395:M395"/>
+    <mergeCell ref="N395:O395"/>
+    <mergeCell ref="G396:I396"/>
+    <mergeCell ref="J396:K396"/>
+    <mergeCell ref="L396:M396"/>
+    <mergeCell ref="N396:O396"/>
+    <mergeCell ref="G397:I397"/>
+    <mergeCell ref="J397:K397"/>
+    <mergeCell ref="L397:M397"/>
+    <mergeCell ref="N397:O397"/>
+    <mergeCell ref="A400:D408"/>
+    <mergeCell ref="E401:O404"/>
+    <mergeCell ref="E405:O405"/>
+    <mergeCell ref="E406:O406"/>
+    <mergeCell ref="L408:O408"/>
+    <mergeCell ref="L409:O409"/>
+    <mergeCell ref="L410:O410"/>
+    <mergeCell ref="A411:C411"/>
+    <mergeCell ref="D411:F411"/>
+    <mergeCell ref="L411:O411"/>
+    <mergeCell ref="A412:C415"/>
+    <mergeCell ref="D412:F415"/>
+    <mergeCell ref="L412:O412"/>
+    <mergeCell ref="L413:O413"/>
+    <mergeCell ref="G415:O415"/>
+    <mergeCell ref="A416:C419"/>
+    <mergeCell ref="D416:F419"/>
+    <mergeCell ref="G416:I416"/>
+    <mergeCell ref="J416:K416"/>
+    <mergeCell ref="L416:M416"/>
+    <mergeCell ref="N416:O416"/>
+    <mergeCell ref="G417:I417"/>
+    <mergeCell ref="J417:K417"/>
+    <mergeCell ref="L417:M417"/>
+    <mergeCell ref="N417:O417"/>
+    <mergeCell ref="G418:I418"/>
+    <mergeCell ref="J418:K418"/>
+    <mergeCell ref="L418:M418"/>
+    <mergeCell ref="N418:O418"/>
+    <mergeCell ref="G419:I419"/>
+    <mergeCell ref="J419:K419"/>
+    <mergeCell ref="L419:M419"/>
+    <mergeCell ref="N419:O419"/>
+    <mergeCell ref="A420:C423"/>
+    <mergeCell ref="D420:F423"/>
+    <mergeCell ref="G420:I420"/>
+    <mergeCell ref="J420:K420"/>
+    <mergeCell ref="L420:M420"/>
+    <mergeCell ref="N420:O420"/>
+    <mergeCell ref="G421:I421"/>
+    <mergeCell ref="J421:K421"/>
+    <mergeCell ref="L421:M421"/>
+    <mergeCell ref="N421:O421"/>
+    <mergeCell ref="G422:I422"/>
+    <mergeCell ref="J422:K422"/>
+    <mergeCell ref="L422:M422"/>
+    <mergeCell ref="N422:O422"/>
+    <mergeCell ref="G423:I423"/>
+    <mergeCell ref="J423:K423"/>
+    <mergeCell ref="L423:M423"/>
+    <mergeCell ref="N423:O423"/>
+    <mergeCell ref="L460:O460"/>
+    <mergeCell ref="L461:O461"/>
+    <mergeCell ref="L462:O462"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="D463:F463"/>
+    <mergeCell ref="L463:O463"/>
+    <mergeCell ref="A464:C467"/>
+    <mergeCell ref="D464:F467"/>
+    <mergeCell ref="L464:O464"/>
+    <mergeCell ref="L465:O465"/>
+    <mergeCell ref="G467:O467"/>
+    <mergeCell ref="A468:C471"/>
+    <mergeCell ref="D468:F471"/>
+    <mergeCell ref="G468:I468"/>
+    <mergeCell ref="J468:K468"/>
+    <mergeCell ref="L468:M468"/>
+    <mergeCell ref="N468:O468"/>
+    <mergeCell ref="G469:I469"/>
+    <mergeCell ref="J469:K469"/>
+    <mergeCell ref="L469:M469"/>
+    <mergeCell ref="N469:O469"/>
+    <mergeCell ref="G470:I470"/>
+    <mergeCell ref="J470:K470"/>
+    <mergeCell ref="L470:M470"/>
+    <mergeCell ref="N470:O470"/>
+    <mergeCell ref="G471:I471"/>
+    <mergeCell ref="J471:K471"/>
+    <mergeCell ref="L471:M471"/>
+    <mergeCell ref="N471:O471"/>
+    <mergeCell ref="A472:C475"/>
+    <mergeCell ref="D472:F475"/>
+    <mergeCell ref="G472:I472"/>
+    <mergeCell ref="J472:K472"/>
+    <mergeCell ref="L472:M472"/>
+    <mergeCell ref="N472:O472"/>
+    <mergeCell ref="G473:I473"/>
+    <mergeCell ref="J473:K473"/>
+    <mergeCell ref="L473:M473"/>
+    <mergeCell ref="N473:O473"/>
+    <mergeCell ref="G474:I474"/>
+    <mergeCell ref="J474:K474"/>
+    <mergeCell ref="L474:M474"/>
+    <mergeCell ref="N474:O474"/>
+    <mergeCell ref="G475:I475"/>
+    <mergeCell ref="J475:K475"/>
+    <mergeCell ref="L475:M475"/>
+    <mergeCell ref="N475:O475"/>
+    <mergeCell ref="A515:C515"/>
+    <mergeCell ref="D515:F515"/>
+    <mergeCell ref="L515:O515"/>
+    <mergeCell ref="A516:C519"/>
+    <mergeCell ref="D516:F519"/>
+    <mergeCell ref="L516:O516"/>
+    <mergeCell ref="L517:O517"/>
+    <mergeCell ref="G519:O519"/>
+    <mergeCell ref="A520:C523"/>
+    <mergeCell ref="D520:F523"/>
+    <mergeCell ref="G520:I520"/>
+    <mergeCell ref="J520:K520"/>
+    <mergeCell ref="L520:M520"/>
+    <mergeCell ref="N520:O520"/>
+    <mergeCell ref="G521:I521"/>
+    <mergeCell ref="J521:K521"/>
+    <mergeCell ref="L521:M521"/>
+    <mergeCell ref="N521:O521"/>
+    <mergeCell ref="G522:I522"/>
+    <mergeCell ref="J522:K522"/>
+    <mergeCell ref="L522:M522"/>
+    <mergeCell ref="N522:O522"/>
+    <mergeCell ref="G523:I523"/>
+    <mergeCell ref="J523:K523"/>
+    <mergeCell ref="L523:M523"/>
+    <mergeCell ref="N523:O523"/>
+    <mergeCell ref="A524:C527"/>
+    <mergeCell ref="D524:F527"/>
+    <mergeCell ref="G524:I524"/>
+    <mergeCell ref="J524:K524"/>
+    <mergeCell ref="L524:M524"/>
+    <mergeCell ref="N524:O524"/>
+    <mergeCell ref="G525:I525"/>
+    <mergeCell ref="J525:K525"/>
+    <mergeCell ref="L525:M525"/>
+    <mergeCell ref="N525:O525"/>
+    <mergeCell ref="G526:I526"/>
+    <mergeCell ref="J526:K526"/>
+    <mergeCell ref="L526:M526"/>
+    <mergeCell ref="N526:O526"/>
+    <mergeCell ref="G527:I527"/>
+    <mergeCell ref="J527:K527"/>
+    <mergeCell ref="L527:M527"/>
+    <mergeCell ref="N527:O527"/>
+    <mergeCell ref="A530:D538"/>
+    <mergeCell ref="E531:O534"/>
+    <mergeCell ref="E535:O535"/>
+    <mergeCell ref="E536:O536"/>
+    <mergeCell ref="L538:O538"/>
+    <mergeCell ref="L539:O539"/>
+    <mergeCell ref="L540:O540"/>
+    <mergeCell ref="A541:C541"/>
+    <mergeCell ref="D541:F541"/>
+    <mergeCell ref="A556:D564"/>
+    <mergeCell ref="E557:O560"/>
+    <mergeCell ref="E561:O561"/>
+    <mergeCell ref="E562:O562"/>
+    <mergeCell ref="L564:O564"/>
+    <mergeCell ref="L565:O565"/>
+    <mergeCell ref="L566:O566"/>
+    <mergeCell ref="A567:C567"/>
+    <mergeCell ref="D567:F567"/>
+    <mergeCell ref="L567:O567"/>
+    <mergeCell ref="D546:F549"/>
+    <mergeCell ref="G550:I550"/>
+    <mergeCell ref="J550:K550"/>
+    <mergeCell ref="L550:M550"/>
+    <mergeCell ref="N550:O550"/>
+    <mergeCell ref="G551:I551"/>
+    <mergeCell ref="J551:K551"/>
+    <mergeCell ref="L548:M548"/>
+    <mergeCell ref="N548:O548"/>
+    <mergeCell ref="G549:I549"/>
+    <mergeCell ref="J549:K549"/>
+    <mergeCell ref="L549:M549"/>
+    <mergeCell ref="N549:O549"/>
+    <mergeCell ref="A568:C571"/>
+    <mergeCell ref="D568:F571"/>
+    <mergeCell ref="L568:O568"/>
+    <mergeCell ref="L569:O569"/>
+    <mergeCell ref="G575:O575"/>
+    <mergeCell ref="A572:C575"/>
+    <mergeCell ref="D572:F575"/>
+    <mergeCell ref="A580:C583"/>
+    <mergeCell ref="D580:F583"/>
+    <mergeCell ref="N579:O579"/>
+    <mergeCell ref="A576:C579"/>
+    <mergeCell ref="D576:F579"/>
+    <mergeCell ref="G580:I580"/>
+    <mergeCell ref="J580:K580"/>
+    <mergeCell ref="L580:M580"/>
+    <mergeCell ref="N580:O580"/>
+    <mergeCell ref="G581:I581"/>
+    <mergeCell ref="J581:K581"/>
+    <mergeCell ref="L581:M581"/>
+    <mergeCell ref="N581:O581"/>
+    <mergeCell ref="G582:I582"/>
+    <mergeCell ref="J582:K582"/>
+    <mergeCell ref="L582:M582"/>
+    <mergeCell ref="N582:O582"/>
+    <mergeCell ref="G583:I583"/>
+    <mergeCell ref="J583:K583"/>
+    <mergeCell ref="L583:M583"/>
+    <mergeCell ref="N583:O583"/>
+    <mergeCell ref="G576:I576"/>
+    <mergeCell ref="J576:K576"/>
+    <mergeCell ref="L576:M576"/>
+    <mergeCell ref="N576:O576"/>
+    <mergeCell ref="A692:D700"/>
+    <mergeCell ref="E693:O696"/>
+    <mergeCell ref="E697:O697"/>
+    <mergeCell ref="E698:O698"/>
+    <mergeCell ref="L700:O700"/>
+    <mergeCell ref="L701:O701"/>
+    <mergeCell ref="L702:O702"/>
+    <mergeCell ref="A703:C703"/>
+    <mergeCell ref="D703:F703"/>
+    <mergeCell ref="L703:O703"/>
+    <mergeCell ref="A704:C707"/>
+    <mergeCell ref="D704:F707"/>
+    <mergeCell ref="L704:O704"/>
+    <mergeCell ref="L705:O705"/>
+    <mergeCell ref="G707:O707"/>
+    <mergeCell ref="A708:C711"/>
+    <mergeCell ref="D708:F711"/>
+    <mergeCell ref="G708:I708"/>
+    <mergeCell ref="J708:K708"/>
+    <mergeCell ref="L708:M708"/>
+    <mergeCell ref="N708:O708"/>
+    <mergeCell ref="G709:I709"/>
+    <mergeCell ref="J709:K709"/>
+    <mergeCell ref="L709:M709"/>
+    <mergeCell ref="N709:O709"/>
+    <mergeCell ref="G710:I710"/>
+    <mergeCell ref="J710:K710"/>
+    <mergeCell ref="L710:M710"/>
+    <mergeCell ref="N710:O710"/>
+    <mergeCell ref="G711:I711"/>
+    <mergeCell ref="J711:K711"/>
+    <mergeCell ref="L711:M711"/>
+    <mergeCell ref="N711:O711"/>
+    <mergeCell ref="A712:C715"/>
+    <mergeCell ref="D712:F715"/>
+    <mergeCell ref="G712:I712"/>
+    <mergeCell ref="J712:K712"/>
+    <mergeCell ref="L712:M712"/>
+    <mergeCell ref="N712:O712"/>
+    <mergeCell ref="G713:I713"/>
+    <mergeCell ref="J713:K713"/>
+    <mergeCell ref="L713:M713"/>
+    <mergeCell ref="N713:O713"/>
+    <mergeCell ref="G714:I714"/>
+    <mergeCell ref="J714:K714"/>
+    <mergeCell ref="L714:M714"/>
+    <mergeCell ref="N714:O714"/>
+    <mergeCell ref="G715:I715"/>
+    <mergeCell ref="J715:K715"/>
+    <mergeCell ref="L715:M715"/>
+    <mergeCell ref="N715:O715"/>
     <mergeCell ref="A720:D728"/>
     <mergeCell ref="E721:O724"/>
     <mergeCell ref="E725:O725"/>
@@ -19287,1430 +21401,25 @@
     <mergeCell ref="G739:I739"/>
     <mergeCell ref="J739:K739"/>
     <mergeCell ref="L739:M739"/>
-    <mergeCell ref="N711:O711"/>
-    <mergeCell ref="A712:C715"/>
-    <mergeCell ref="D712:F715"/>
-    <mergeCell ref="G712:I712"/>
-    <mergeCell ref="J712:K712"/>
-    <mergeCell ref="L712:M712"/>
-    <mergeCell ref="N712:O712"/>
-    <mergeCell ref="G713:I713"/>
-    <mergeCell ref="J713:K713"/>
-    <mergeCell ref="L713:M713"/>
-    <mergeCell ref="N713:O713"/>
-    <mergeCell ref="G714:I714"/>
-    <mergeCell ref="J714:K714"/>
-    <mergeCell ref="L714:M714"/>
-    <mergeCell ref="N714:O714"/>
-    <mergeCell ref="G715:I715"/>
-    <mergeCell ref="J715:K715"/>
-    <mergeCell ref="L715:M715"/>
-    <mergeCell ref="N715:O715"/>
-    <mergeCell ref="A692:D700"/>
-    <mergeCell ref="E693:O696"/>
-    <mergeCell ref="E697:O697"/>
-    <mergeCell ref="E698:O698"/>
-    <mergeCell ref="L700:O700"/>
-    <mergeCell ref="L701:O701"/>
-    <mergeCell ref="L702:O702"/>
-    <mergeCell ref="A703:C703"/>
-    <mergeCell ref="D703:F703"/>
-    <mergeCell ref="L703:O703"/>
-    <mergeCell ref="A704:C707"/>
-    <mergeCell ref="D704:F707"/>
-    <mergeCell ref="L704:O704"/>
-    <mergeCell ref="L705:O705"/>
-    <mergeCell ref="G707:O707"/>
-    <mergeCell ref="A708:C711"/>
-    <mergeCell ref="D708:F711"/>
-    <mergeCell ref="G708:I708"/>
-    <mergeCell ref="J708:K708"/>
-    <mergeCell ref="L708:M708"/>
-    <mergeCell ref="N708:O708"/>
-    <mergeCell ref="G709:I709"/>
-    <mergeCell ref="J709:K709"/>
-    <mergeCell ref="L709:M709"/>
-    <mergeCell ref="N709:O709"/>
-    <mergeCell ref="G710:I710"/>
-    <mergeCell ref="J710:K710"/>
-    <mergeCell ref="L710:M710"/>
-    <mergeCell ref="N710:O710"/>
-    <mergeCell ref="G711:I711"/>
-    <mergeCell ref="J711:K711"/>
-    <mergeCell ref="L711:M711"/>
-    <mergeCell ref="A568:C571"/>
-    <mergeCell ref="D568:F571"/>
-    <mergeCell ref="L568:O568"/>
-    <mergeCell ref="L569:O569"/>
-    <mergeCell ref="G575:O575"/>
-    <mergeCell ref="A572:C575"/>
-    <mergeCell ref="D572:F575"/>
-    <mergeCell ref="A580:C583"/>
-    <mergeCell ref="D580:F583"/>
-    <mergeCell ref="N579:O579"/>
-    <mergeCell ref="A576:C579"/>
-    <mergeCell ref="D576:F579"/>
-    <mergeCell ref="G580:I580"/>
-    <mergeCell ref="J580:K580"/>
-    <mergeCell ref="L580:M580"/>
-    <mergeCell ref="N580:O580"/>
-    <mergeCell ref="G581:I581"/>
-    <mergeCell ref="J581:K581"/>
-    <mergeCell ref="L581:M581"/>
-    <mergeCell ref="N581:O581"/>
-    <mergeCell ref="G582:I582"/>
-    <mergeCell ref="J582:K582"/>
-    <mergeCell ref="L582:M582"/>
-    <mergeCell ref="N582:O582"/>
-    <mergeCell ref="G583:I583"/>
-    <mergeCell ref="J583:K583"/>
-    <mergeCell ref="L583:M583"/>
-    <mergeCell ref="N583:O583"/>
-    <mergeCell ref="G576:I576"/>
-    <mergeCell ref="J576:K576"/>
-    <mergeCell ref="L576:M576"/>
-    <mergeCell ref="N576:O576"/>
-    <mergeCell ref="A530:D538"/>
-    <mergeCell ref="E531:O534"/>
-    <mergeCell ref="E535:O535"/>
-    <mergeCell ref="E536:O536"/>
-    <mergeCell ref="L538:O538"/>
-    <mergeCell ref="L539:O539"/>
-    <mergeCell ref="L540:O540"/>
-    <mergeCell ref="A541:C541"/>
-    <mergeCell ref="D541:F541"/>
-    <mergeCell ref="A556:D564"/>
-    <mergeCell ref="E557:O560"/>
-    <mergeCell ref="E561:O561"/>
-    <mergeCell ref="E562:O562"/>
-    <mergeCell ref="L564:O564"/>
-    <mergeCell ref="L565:O565"/>
-    <mergeCell ref="L566:O566"/>
-    <mergeCell ref="A567:C567"/>
-    <mergeCell ref="D567:F567"/>
-    <mergeCell ref="L567:O567"/>
-    <mergeCell ref="D546:F549"/>
-    <mergeCell ref="G550:I550"/>
-    <mergeCell ref="J550:K550"/>
-    <mergeCell ref="L550:M550"/>
-    <mergeCell ref="N550:O550"/>
-    <mergeCell ref="G551:I551"/>
-    <mergeCell ref="J551:K551"/>
-    <mergeCell ref="L548:M548"/>
-    <mergeCell ref="N548:O548"/>
-    <mergeCell ref="G549:I549"/>
-    <mergeCell ref="J549:K549"/>
-    <mergeCell ref="L549:M549"/>
-    <mergeCell ref="N549:O549"/>
-    <mergeCell ref="A524:C527"/>
-    <mergeCell ref="D524:F527"/>
-    <mergeCell ref="G524:I524"/>
-    <mergeCell ref="J524:K524"/>
-    <mergeCell ref="L524:M524"/>
-    <mergeCell ref="N524:O524"/>
-    <mergeCell ref="G525:I525"/>
-    <mergeCell ref="J525:K525"/>
-    <mergeCell ref="L525:M525"/>
-    <mergeCell ref="N525:O525"/>
-    <mergeCell ref="G526:I526"/>
-    <mergeCell ref="J526:K526"/>
-    <mergeCell ref="L526:M526"/>
-    <mergeCell ref="N526:O526"/>
-    <mergeCell ref="G527:I527"/>
-    <mergeCell ref="J527:K527"/>
-    <mergeCell ref="L527:M527"/>
-    <mergeCell ref="N527:O527"/>
-    <mergeCell ref="A515:C515"/>
-    <mergeCell ref="D515:F515"/>
-    <mergeCell ref="L515:O515"/>
-    <mergeCell ref="A516:C519"/>
-    <mergeCell ref="D516:F519"/>
-    <mergeCell ref="L516:O516"/>
-    <mergeCell ref="L517:O517"/>
-    <mergeCell ref="G519:O519"/>
-    <mergeCell ref="A520:C523"/>
-    <mergeCell ref="D520:F523"/>
-    <mergeCell ref="G520:I520"/>
-    <mergeCell ref="J520:K520"/>
-    <mergeCell ref="L520:M520"/>
-    <mergeCell ref="N520:O520"/>
-    <mergeCell ref="G521:I521"/>
-    <mergeCell ref="J521:K521"/>
-    <mergeCell ref="L521:M521"/>
-    <mergeCell ref="N521:O521"/>
-    <mergeCell ref="G522:I522"/>
-    <mergeCell ref="J522:K522"/>
-    <mergeCell ref="L522:M522"/>
-    <mergeCell ref="N522:O522"/>
-    <mergeCell ref="G523:I523"/>
-    <mergeCell ref="J523:K523"/>
-    <mergeCell ref="L523:M523"/>
-    <mergeCell ref="N523:O523"/>
-    <mergeCell ref="A472:C475"/>
-    <mergeCell ref="D472:F475"/>
-    <mergeCell ref="G472:I472"/>
-    <mergeCell ref="J472:K472"/>
-    <mergeCell ref="L472:M472"/>
-    <mergeCell ref="N472:O472"/>
-    <mergeCell ref="G473:I473"/>
-    <mergeCell ref="J473:K473"/>
-    <mergeCell ref="L473:M473"/>
-    <mergeCell ref="N473:O473"/>
-    <mergeCell ref="G474:I474"/>
-    <mergeCell ref="J474:K474"/>
-    <mergeCell ref="L474:M474"/>
-    <mergeCell ref="N474:O474"/>
-    <mergeCell ref="G475:I475"/>
-    <mergeCell ref="J475:K475"/>
-    <mergeCell ref="L475:M475"/>
-    <mergeCell ref="N475:O475"/>
-    <mergeCell ref="L460:O460"/>
-    <mergeCell ref="L461:O461"/>
-    <mergeCell ref="L462:O462"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="D463:F463"/>
-    <mergeCell ref="L463:O463"/>
-    <mergeCell ref="A464:C467"/>
-    <mergeCell ref="D464:F467"/>
-    <mergeCell ref="L464:O464"/>
-    <mergeCell ref="L465:O465"/>
-    <mergeCell ref="G467:O467"/>
-    <mergeCell ref="A468:C471"/>
-    <mergeCell ref="D468:F471"/>
-    <mergeCell ref="G468:I468"/>
-    <mergeCell ref="J468:K468"/>
-    <mergeCell ref="L468:M468"/>
-    <mergeCell ref="N468:O468"/>
-    <mergeCell ref="G469:I469"/>
-    <mergeCell ref="J469:K469"/>
-    <mergeCell ref="L469:M469"/>
-    <mergeCell ref="N469:O469"/>
-    <mergeCell ref="G470:I470"/>
-    <mergeCell ref="J470:K470"/>
-    <mergeCell ref="L470:M470"/>
-    <mergeCell ref="N470:O470"/>
-    <mergeCell ref="G471:I471"/>
-    <mergeCell ref="J471:K471"/>
-    <mergeCell ref="L471:M471"/>
-    <mergeCell ref="N471:O471"/>
-    <mergeCell ref="N419:O419"/>
-    <mergeCell ref="A420:C423"/>
-    <mergeCell ref="D420:F423"/>
-    <mergeCell ref="G420:I420"/>
-    <mergeCell ref="J420:K420"/>
-    <mergeCell ref="L420:M420"/>
-    <mergeCell ref="N420:O420"/>
-    <mergeCell ref="G421:I421"/>
-    <mergeCell ref="J421:K421"/>
-    <mergeCell ref="L421:M421"/>
-    <mergeCell ref="N421:O421"/>
-    <mergeCell ref="G422:I422"/>
-    <mergeCell ref="J422:K422"/>
-    <mergeCell ref="L422:M422"/>
-    <mergeCell ref="N422:O422"/>
-    <mergeCell ref="G423:I423"/>
-    <mergeCell ref="J423:K423"/>
-    <mergeCell ref="L423:M423"/>
-    <mergeCell ref="N423:O423"/>
-    <mergeCell ref="A400:D408"/>
-    <mergeCell ref="E401:O404"/>
-    <mergeCell ref="E405:O405"/>
-    <mergeCell ref="E406:O406"/>
-    <mergeCell ref="L408:O408"/>
-    <mergeCell ref="L409:O409"/>
-    <mergeCell ref="L410:O410"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="D411:F411"/>
-    <mergeCell ref="L411:O411"/>
-    <mergeCell ref="A412:C415"/>
-    <mergeCell ref="D412:F415"/>
-    <mergeCell ref="L412:O412"/>
-    <mergeCell ref="L413:O413"/>
-    <mergeCell ref="G415:O415"/>
-    <mergeCell ref="A416:C419"/>
-    <mergeCell ref="D416:F419"/>
-    <mergeCell ref="G416:I416"/>
-    <mergeCell ref="J416:K416"/>
-    <mergeCell ref="L416:M416"/>
-    <mergeCell ref="N416:O416"/>
-    <mergeCell ref="G417:I417"/>
-    <mergeCell ref="J417:K417"/>
-    <mergeCell ref="L417:M417"/>
-    <mergeCell ref="N417:O417"/>
-    <mergeCell ref="G418:I418"/>
-    <mergeCell ref="J418:K418"/>
-    <mergeCell ref="L418:M418"/>
-    <mergeCell ref="N418:O418"/>
-    <mergeCell ref="G419:I419"/>
-    <mergeCell ref="J419:K419"/>
-    <mergeCell ref="L419:M419"/>
-    <mergeCell ref="A394:C397"/>
-    <mergeCell ref="D394:F397"/>
-    <mergeCell ref="G394:I394"/>
-    <mergeCell ref="J394:K394"/>
-    <mergeCell ref="L394:M394"/>
-    <mergeCell ref="N394:O394"/>
-    <mergeCell ref="G395:I395"/>
-    <mergeCell ref="J395:K395"/>
-    <mergeCell ref="L395:M395"/>
-    <mergeCell ref="N395:O395"/>
-    <mergeCell ref="G396:I396"/>
-    <mergeCell ref="J396:K396"/>
-    <mergeCell ref="L396:M396"/>
-    <mergeCell ref="N396:O396"/>
-    <mergeCell ref="G397:I397"/>
-    <mergeCell ref="J397:K397"/>
-    <mergeCell ref="L397:M397"/>
-    <mergeCell ref="N397:O397"/>
-    <mergeCell ref="L382:O382"/>
-    <mergeCell ref="L383:O383"/>
-    <mergeCell ref="L384:O384"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="D385:F385"/>
-    <mergeCell ref="L385:O385"/>
-    <mergeCell ref="A386:C389"/>
-    <mergeCell ref="D386:F389"/>
-    <mergeCell ref="L386:O386"/>
-    <mergeCell ref="L387:O387"/>
-    <mergeCell ref="G389:O389"/>
-    <mergeCell ref="A390:C393"/>
-    <mergeCell ref="D390:F393"/>
-    <mergeCell ref="G390:I390"/>
-    <mergeCell ref="J390:K390"/>
-    <mergeCell ref="L390:M390"/>
-    <mergeCell ref="N390:O390"/>
-    <mergeCell ref="G391:I391"/>
-    <mergeCell ref="J391:K391"/>
-    <mergeCell ref="L391:M391"/>
-    <mergeCell ref="N391:O391"/>
-    <mergeCell ref="G392:I392"/>
-    <mergeCell ref="J392:K392"/>
-    <mergeCell ref="L392:M392"/>
-    <mergeCell ref="N392:O392"/>
-    <mergeCell ref="G393:I393"/>
-    <mergeCell ref="J393:K393"/>
-    <mergeCell ref="L393:M393"/>
-    <mergeCell ref="N393:O393"/>
-    <mergeCell ref="A342:C345"/>
-    <mergeCell ref="D342:F345"/>
-    <mergeCell ref="G342:I342"/>
-    <mergeCell ref="J342:K342"/>
-    <mergeCell ref="L342:M342"/>
-    <mergeCell ref="N342:O342"/>
-    <mergeCell ref="G343:I343"/>
-    <mergeCell ref="J343:K343"/>
-    <mergeCell ref="L343:M343"/>
-    <mergeCell ref="N343:O343"/>
-    <mergeCell ref="G344:I344"/>
-    <mergeCell ref="J344:K344"/>
-    <mergeCell ref="L344:M344"/>
-    <mergeCell ref="N344:O344"/>
-    <mergeCell ref="G345:I345"/>
-    <mergeCell ref="J345:K345"/>
-    <mergeCell ref="L345:M345"/>
-    <mergeCell ref="N345:O345"/>
-    <mergeCell ref="L330:O330"/>
-    <mergeCell ref="L331:O331"/>
-    <mergeCell ref="L332:O332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="L333:O333"/>
-    <mergeCell ref="A334:C337"/>
-    <mergeCell ref="D334:F337"/>
-    <mergeCell ref="L334:O334"/>
-    <mergeCell ref="L335:O335"/>
-    <mergeCell ref="G337:O337"/>
-    <mergeCell ref="A338:C341"/>
-    <mergeCell ref="D338:F341"/>
-    <mergeCell ref="G338:I338"/>
-    <mergeCell ref="J338:K338"/>
-    <mergeCell ref="L338:M338"/>
-    <mergeCell ref="N338:O338"/>
-    <mergeCell ref="G339:I339"/>
-    <mergeCell ref="J339:K339"/>
-    <mergeCell ref="L339:M339"/>
-    <mergeCell ref="N339:O339"/>
-    <mergeCell ref="G340:I340"/>
-    <mergeCell ref="J340:K340"/>
-    <mergeCell ref="L340:M340"/>
-    <mergeCell ref="N340:O340"/>
-    <mergeCell ref="G341:I341"/>
-    <mergeCell ref="J341:K341"/>
-    <mergeCell ref="L341:M341"/>
-    <mergeCell ref="N341:O341"/>
-    <mergeCell ref="G289:I289"/>
-    <mergeCell ref="J289:K289"/>
-    <mergeCell ref="L289:M289"/>
-    <mergeCell ref="N289:O289"/>
-    <mergeCell ref="G290:I290"/>
-    <mergeCell ref="J290:K290"/>
-    <mergeCell ref="L290:M290"/>
-    <mergeCell ref="N290:O290"/>
-    <mergeCell ref="G291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="L291:M291"/>
-    <mergeCell ref="N291:O291"/>
-    <mergeCell ref="Q266:U267"/>
-    <mergeCell ref="Q269:U271"/>
-    <mergeCell ref="Q272:U274"/>
-    <mergeCell ref="Q275:U277"/>
-    <mergeCell ref="Q278:U280"/>
-    <mergeCell ref="Q281:U283"/>
-    <mergeCell ref="Q284:U286"/>
-    <mergeCell ref="Q287:U289"/>
-    <mergeCell ref="Q290:U291"/>
-    <mergeCell ref="L270:O270"/>
-    <mergeCell ref="L271:O271"/>
-    <mergeCell ref="L272:O272"/>
-    <mergeCell ref="A286:C289"/>
-    <mergeCell ref="D286:F289"/>
-    <mergeCell ref="A290:C293"/>
-    <mergeCell ref="D290:F293"/>
-    <mergeCell ref="G284:I284"/>
-    <mergeCell ref="J284:K284"/>
-    <mergeCell ref="L284:M284"/>
-    <mergeCell ref="N284:O284"/>
-    <mergeCell ref="G285:I285"/>
-    <mergeCell ref="J285:K285"/>
-    <mergeCell ref="L285:M285"/>
-    <mergeCell ref="N285:O285"/>
-    <mergeCell ref="G286:I286"/>
-    <mergeCell ref="J286:K286"/>
-    <mergeCell ref="L286:M286"/>
-    <mergeCell ref="N286:O286"/>
-    <mergeCell ref="G287:I287"/>
-    <mergeCell ref="J287:K287"/>
-    <mergeCell ref="L287:M287"/>
-    <mergeCell ref="N287:O287"/>
-    <mergeCell ref="G288:I288"/>
-    <mergeCell ref="J288:K288"/>
-    <mergeCell ref="L288:M288"/>
-    <mergeCell ref="N288:O288"/>
-    <mergeCell ref="G292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="L292:M292"/>
-    <mergeCell ref="N292:O292"/>
-    <mergeCell ref="G293:I293"/>
-    <mergeCell ref="J293:K293"/>
-    <mergeCell ref="L293:M293"/>
-    <mergeCell ref="N293:O293"/>
-    <mergeCell ref="A282:C285"/>
-    <mergeCell ref="D282:F285"/>
-    <mergeCell ref="G280:I280"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="L280:M280"/>
-    <mergeCell ref="N281:O281"/>
-    <mergeCell ref="G281:I281"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="L281:M281"/>
-    <mergeCell ref="N282:O282"/>
-    <mergeCell ref="G282:I282"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="L282:M282"/>
-    <mergeCell ref="G283:I283"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="L283:M283"/>
-    <mergeCell ref="N283:O283"/>
-    <mergeCell ref="N280:O280"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="D273:F273"/>
-    <mergeCell ref="L273:O273"/>
-    <mergeCell ref="A274:C277"/>
-    <mergeCell ref="D274:F277"/>
-    <mergeCell ref="L274:O274"/>
-    <mergeCell ref="L275:O275"/>
-    <mergeCell ref="G277:O277"/>
-    <mergeCell ref="A278:C281"/>
-    <mergeCell ref="D278:F281"/>
-    <mergeCell ref="G278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="L278:M278"/>
-    <mergeCell ref="N278:O278"/>
-    <mergeCell ref="G279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="L279:M279"/>
-    <mergeCell ref="N279:O279"/>
-    <mergeCell ref="G232:I232"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="L232:M232"/>
-    <mergeCell ref="N232:O232"/>
-    <mergeCell ref="G233:I233"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="L233:M233"/>
-    <mergeCell ref="N233:O233"/>
-    <mergeCell ref="A230:C233"/>
-    <mergeCell ref="D230:F233"/>
-    <mergeCell ref="G230:I230"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="L230:M230"/>
-    <mergeCell ref="N230:O230"/>
-    <mergeCell ref="G231:I231"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="L231:M231"/>
-    <mergeCell ref="N231:O231"/>
-    <mergeCell ref="L220:O220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="L221:O221"/>
-    <mergeCell ref="A222:C225"/>
-    <mergeCell ref="D222:F225"/>
-    <mergeCell ref="L222:O222"/>
-    <mergeCell ref="L223:O223"/>
-    <mergeCell ref="G225:O225"/>
-    <mergeCell ref="G228:I228"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="L228:M228"/>
-    <mergeCell ref="N228:O228"/>
-    <mergeCell ref="G229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="L229:M229"/>
-    <mergeCell ref="N229:O229"/>
-    <mergeCell ref="A226:C229"/>
-    <mergeCell ref="D226:F229"/>
-    <mergeCell ref="G226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="L226:M226"/>
-    <mergeCell ref="N226:O226"/>
-    <mergeCell ref="G227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="L227:M227"/>
-    <mergeCell ref="N227:O227"/>
-    <mergeCell ref="A210:D218"/>
-    <mergeCell ref="E211:O214"/>
-    <mergeCell ref="E215:O215"/>
-    <mergeCell ref="E216:O216"/>
-    <mergeCell ref="L218:O218"/>
-    <mergeCell ref="L219:O219"/>
-    <mergeCell ref="G206:I206"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="N206:O206"/>
-    <mergeCell ref="G207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="A204:C207"/>
-    <mergeCell ref="D204:F207"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="L204:M204"/>
-    <mergeCell ref="N204:O204"/>
-    <mergeCell ref="G205:I205"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="L205:M205"/>
-    <mergeCell ref="N205:O205"/>
-    <mergeCell ref="L194:O194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="L195:O195"/>
-    <mergeCell ref="A196:C199"/>
-    <mergeCell ref="D196:F199"/>
-    <mergeCell ref="L196:O196"/>
-    <mergeCell ref="L197:O197"/>
-    <mergeCell ref="G199:O199"/>
-    <mergeCell ref="G202:I202"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="L202:M202"/>
-    <mergeCell ref="N202:O202"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="L203:M203"/>
-    <mergeCell ref="N203:O203"/>
-    <mergeCell ref="A200:C203"/>
-    <mergeCell ref="D200:F203"/>
-    <mergeCell ref="G200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="L200:M200"/>
-    <mergeCell ref="N200:O200"/>
-    <mergeCell ref="G201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="L201:M201"/>
-    <mergeCell ref="N201:O201"/>
-    <mergeCell ref="A184:D192"/>
-    <mergeCell ref="E185:O188"/>
-    <mergeCell ref="E189:O189"/>
-    <mergeCell ref="E190:O190"/>
-    <mergeCell ref="L192:O192"/>
-    <mergeCell ref="L193:O193"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="G180:I180"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="L180:M180"/>
-    <mergeCell ref="N180:O180"/>
-    <mergeCell ref="A177:C180"/>
-    <mergeCell ref="D177:F180"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="L177:M177"/>
-    <mergeCell ref="N177:O177"/>
-    <mergeCell ref="G178:I178"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="L178:M178"/>
-    <mergeCell ref="N178:O178"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="A169:C172"/>
-    <mergeCell ref="D169:F172"/>
-    <mergeCell ref="L169:O169"/>
-    <mergeCell ref="L170:O170"/>
-    <mergeCell ref="G172:O172"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="L175:M175"/>
-    <mergeCell ref="N175:O175"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="L176:M176"/>
-    <mergeCell ref="N176:O176"/>
-    <mergeCell ref="A173:C176"/>
-    <mergeCell ref="D173:F176"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="L173:M173"/>
-    <mergeCell ref="N173:O173"/>
-    <mergeCell ref="G174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="L174:M174"/>
-    <mergeCell ref="N174:O174"/>
-    <mergeCell ref="A157:D165"/>
-    <mergeCell ref="E158:O161"/>
-    <mergeCell ref="E162:O162"/>
-    <mergeCell ref="E163:O163"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="L166:O166"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="A151:C154"/>
-    <mergeCell ref="D151:F154"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="L142:O142"/>
-    <mergeCell ref="A143:C146"/>
-    <mergeCell ref="D143:F146"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="G146:O146"/>
-    <mergeCell ref="G149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="G150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="A147:C150"/>
-    <mergeCell ref="D147:F150"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="L147:M147"/>
-    <mergeCell ref="N147:O147"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="L148:M148"/>
-    <mergeCell ref="N148:O148"/>
-    <mergeCell ref="A131:D139"/>
-    <mergeCell ref="E132:O135"/>
-    <mergeCell ref="E136:O136"/>
-    <mergeCell ref="E137:O137"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="L128:M128"/>
-    <mergeCell ref="N128:O128"/>
-    <mergeCell ref="A125:C128"/>
-    <mergeCell ref="D125:F128"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="L125:M125"/>
-    <mergeCell ref="N125:O125"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="L126:M126"/>
-    <mergeCell ref="N126:O126"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="A117:C120"/>
-    <mergeCell ref="D117:F120"/>
-    <mergeCell ref="L117:O117"/>
-    <mergeCell ref="L118:O118"/>
-    <mergeCell ref="G120:O120"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:M124"/>
-    <mergeCell ref="N124:O124"/>
-    <mergeCell ref="A121:C124"/>
-    <mergeCell ref="D121:F124"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="L121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="L122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="A105:D113"/>
-    <mergeCell ref="E106:O109"/>
-    <mergeCell ref="E110:O110"/>
-    <mergeCell ref="E111:O111"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="A99:C102"/>
-    <mergeCell ref="D99:F102"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="L89:O89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="A91:C94"/>
-    <mergeCell ref="D91:F94"/>
-    <mergeCell ref="L91:O91"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="G94:O94"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="A95:C98"/>
-    <mergeCell ref="D95:F98"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="A79:D87"/>
-    <mergeCell ref="E80:O83"/>
-    <mergeCell ref="E84:O84"/>
-    <mergeCell ref="E85:O85"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="A73:C76"/>
-    <mergeCell ref="D73:F76"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="A65:C68"/>
-    <mergeCell ref="D65:F68"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="G68:O68"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="A69:C72"/>
-    <mergeCell ref="D69:F72"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="A53:D61"/>
-    <mergeCell ref="E54:O57"/>
-    <mergeCell ref="E58:O58"/>
-    <mergeCell ref="E59:O59"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="A47:C50"/>
-    <mergeCell ref="D47:F50"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D21:F24"/>
-    <mergeCell ref="A43:C46"/>
-    <mergeCell ref="D43:F46"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="A39:C42"/>
-    <mergeCell ref="D39:F42"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="G42:O42"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A27:D35"/>
-    <mergeCell ref="E28:O31"/>
-    <mergeCell ref="E32:O32"/>
-    <mergeCell ref="E33:O33"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A236:D244"/>
-    <mergeCell ref="E237:O240"/>
-    <mergeCell ref="E241:O241"/>
-    <mergeCell ref="E242:O242"/>
-    <mergeCell ref="L244:O244"/>
-    <mergeCell ref="L245:O245"/>
-    <mergeCell ref="L246:O246"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="D247:F247"/>
-    <mergeCell ref="L247:O247"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="E6:O6"/>
-    <mergeCell ref="E7:O7"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="A1:D9"/>
-    <mergeCell ref="E2:O5"/>
-    <mergeCell ref="A13:C16"/>
-    <mergeCell ref="A17:C20"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="D17:F20"/>
-    <mergeCell ref="A21:C24"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A248:C251"/>
-    <mergeCell ref="D248:F251"/>
-    <mergeCell ref="L248:O248"/>
-    <mergeCell ref="L249:O249"/>
-    <mergeCell ref="G251:O251"/>
-    <mergeCell ref="A252:C255"/>
-    <mergeCell ref="D252:F255"/>
-    <mergeCell ref="G252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="L252:M252"/>
-    <mergeCell ref="N252:O252"/>
-    <mergeCell ref="G253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="L253:M253"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="G254:I254"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="L254:M254"/>
-    <mergeCell ref="N254:O254"/>
-    <mergeCell ref="G255:I255"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="L255:M255"/>
-    <mergeCell ref="N255:O255"/>
-    <mergeCell ref="A296:D304"/>
-    <mergeCell ref="E297:O300"/>
-    <mergeCell ref="E301:O301"/>
-    <mergeCell ref="E302:O302"/>
-    <mergeCell ref="L304:O304"/>
-    <mergeCell ref="L305:O305"/>
-    <mergeCell ref="L306:O306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="D307:F307"/>
-    <mergeCell ref="L307:O307"/>
-    <mergeCell ref="A256:C259"/>
-    <mergeCell ref="D256:F259"/>
-    <mergeCell ref="G256:I256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="L256:M256"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="G257:I257"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="L257:M257"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="G258:I258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="L258:M258"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="G259:I259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="L259:M259"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="A262:D270"/>
-    <mergeCell ref="E263:O266"/>
-    <mergeCell ref="E267:O267"/>
-    <mergeCell ref="E268:O268"/>
-    <mergeCell ref="A308:C311"/>
-    <mergeCell ref="D308:F311"/>
-    <mergeCell ref="L308:O308"/>
-    <mergeCell ref="L309:O309"/>
-    <mergeCell ref="G311:O311"/>
-    <mergeCell ref="A312:C315"/>
-    <mergeCell ref="D312:F315"/>
-    <mergeCell ref="G312:I312"/>
-    <mergeCell ref="J312:K312"/>
-    <mergeCell ref="L312:M312"/>
-    <mergeCell ref="N312:O312"/>
-    <mergeCell ref="G313:I313"/>
-    <mergeCell ref="J313:K313"/>
-    <mergeCell ref="L313:M313"/>
-    <mergeCell ref="N313:O313"/>
-    <mergeCell ref="G314:I314"/>
-    <mergeCell ref="J314:K314"/>
-    <mergeCell ref="L314:M314"/>
-    <mergeCell ref="N314:O314"/>
-    <mergeCell ref="G315:I315"/>
-    <mergeCell ref="J315:K315"/>
-    <mergeCell ref="L315:M315"/>
-    <mergeCell ref="N315:O315"/>
-    <mergeCell ref="A348:D356"/>
-    <mergeCell ref="E349:O352"/>
-    <mergeCell ref="E353:O353"/>
-    <mergeCell ref="E354:O354"/>
-    <mergeCell ref="L356:O356"/>
-    <mergeCell ref="L357:O357"/>
-    <mergeCell ref="L358:O358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="D359:F359"/>
-    <mergeCell ref="L359:O359"/>
-    <mergeCell ref="A316:C319"/>
-    <mergeCell ref="D316:F319"/>
-    <mergeCell ref="G316:I316"/>
-    <mergeCell ref="J316:K316"/>
-    <mergeCell ref="L316:M316"/>
-    <mergeCell ref="N316:O316"/>
-    <mergeCell ref="G317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="L317:M317"/>
-    <mergeCell ref="N317:O317"/>
-    <mergeCell ref="G318:I318"/>
-    <mergeCell ref="J318:K318"/>
-    <mergeCell ref="L318:M318"/>
-    <mergeCell ref="N318:O318"/>
-    <mergeCell ref="G319:I319"/>
-    <mergeCell ref="J319:K319"/>
-    <mergeCell ref="L319:M319"/>
-    <mergeCell ref="N319:O319"/>
-    <mergeCell ref="A322:D330"/>
-    <mergeCell ref="E323:O326"/>
-    <mergeCell ref="E327:O327"/>
-    <mergeCell ref="E328:O328"/>
-    <mergeCell ref="A360:C363"/>
-    <mergeCell ref="D360:F363"/>
-    <mergeCell ref="L360:O360"/>
-    <mergeCell ref="L361:O361"/>
-    <mergeCell ref="G363:O363"/>
-    <mergeCell ref="A364:C367"/>
-    <mergeCell ref="D364:F367"/>
-    <mergeCell ref="G364:I364"/>
-    <mergeCell ref="J364:K364"/>
-    <mergeCell ref="L364:M364"/>
-    <mergeCell ref="N364:O364"/>
-    <mergeCell ref="G365:I365"/>
-    <mergeCell ref="J365:K365"/>
-    <mergeCell ref="L365:M365"/>
-    <mergeCell ref="N365:O365"/>
-    <mergeCell ref="G366:I366"/>
-    <mergeCell ref="J366:K366"/>
-    <mergeCell ref="L366:M366"/>
-    <mergeCell ref="N366:O366"/>
-    <mergeCell ref="G367:I367"/>
-    <mergeCell ref="J367:K367"/>
-    <mergeCell ref="L367:M367"/>
-    <mergeCell ref="N367:O367"/>
-    <mergeCell ref="A426:D434"/>
-    <mergeCell ref="E427:O430"/>
-    <mergeCell ref="E431:O431"/>
-    <mergeCell ref="E432:O432"/>
-    <mergeCell ref="L434:O434"/>
-    <mergeCell ref="L435:O435"/>
-    <mergeCell ref="L436:O436"/>
-    <mergeCell ref="A437:C437"/>
-    <mergeCell ref="D437:F437"/>
-    <mergeCell ref="L437:O437"/>
-    <mergeCell ref="A368:C371"/>
-    <mergeCell ref="D368:F371"/>
-    <mergeCell ref="G368:I368"/>
-    <mergeCell ref="J368:K368"/>
-    <mergeCell ref="L368:M368"/>
-    <mergeCell ref="N368:O368"/>
-    <mergeCell ref="G369:I369"/>
-    <mergeCell ref="J369:K369"/>
-    <mergeCell ref="L369:M369"/>
-    <mergeCell ref="N369:O369"/>
-    <mergeCell ref="G370:I370"/>
-    <mergeCell ref="J370:K370"/>
-    <mergeCell ref="L370:M370"/>
-    <mergeCell ref="N370:O370"/>
-    <mergeCell ref="G371:I371"/>
-    <mergeCell ref="J371:K371"/>
-    <mergeCell ref="L371:M371"/>
-    <mergeCell ref="N371:O371"/>
-    <mergeCell ref="A374:D382"/>
-    <mergeCell ref="E375:O378"/>
-    <mergeCell ref="E379:O379"/>
-    <mergeCell ref="E380:O380"/>
-    <mergeCell ref="A438:C441"/>
-    <mergeCell ref="D438:F441"/>
-    <mergeCell ref="L438:O438"/>
-    <mergeCell ref="L439:O439"/>
-    <mergeCell ref="G441:O441"/>
-    <mergeCell ref="A442:C445"/>
-    <mergeCell ref="D442:F445"/>
-    <mergeCell ref="G442:I442"/>
-    <mergeCell ref="J442:K442"/>
-    <mergeCell ref="L442:M442"/>
-    <mergeCell ref="N442:O442"/>
-    <mergeCell ref="G443:I443"/>
-    <mergeCell ref="J443:K443"/>
-    <mergeCell ref="L443:M443"/>
-    <mergeCell ref="N443:O443"/>
-    <mergeCell ref="G444:I444"/>
-    <mergeCell ref="J444:K444"/>
-    <mergeCell ref="L444:M444"/>
-    <mergeCell ref="N444:O444"/>
-    <mergeCell ref="G445:I445"/>
-    <mergeCell ref="J445:K445"/>
-    <mergeCell ref="L445:M445"/>
-    <mergeCell ref="N445:O445"/>
-    <mergeCell ref="A478:D486"/>
-    <mergeCell ref="E479:O482"/>
-    <mergeCell ref="E483:O483"/>
-    <mergeCell ref="E484:O484"/>
-    <mergeCell ref="L486:O486"/>
-    <mergeCell ref="L487:O487"/>
-    <mergeCell ref="L488:O488"/>
-    <mergeCell ref="A489:C489"/>
-    <mergeCell ref="D489:F489"/>
-    <mergeCell ref="L489:O489"/>
-    <mergeCell ref="A446:C449"/>
-    <mergeCell ref="D446:F449"/>
-    <mergeCell ref="G446:I446"/>
-    <mergeCell ref="J446:K446"/>
-    <mergeCell ref="L446:M446"/>
-    <mergeCell ref="N446:O446"/>
-    <mergeCell ref="G447:I447"/>
-    <mergeCell ref="J447:K447"/>
-    <mergeCell ref="L447:M447"/>
-    <mergeCell ref="N447:O447"/>
-    <mergeCell ref="G448:I448"/>
-    <mergeCell ref="J448:K448"/>
-    <mergeCell ref="L448:M448"/>
-    <mergeCell ref="N448:O448"/>
-    <mergeCell ref="G449:I449"/>
-    <mergeCell ref="J449:K449"/>
-    <mergeCell ref="L449:M449"/>
-    <mergeCell ref="N449:O449"/>
-    <mergeCell ref="A452:D460"/>
-    <mergeCell ref="E453:O456"/>
-    <mergeCell ref="E457:O457"/>
-    <mergeCell ref="E458:O458"/>
-    <mergeCell ref="A490:C493"/>
-    <mergeCell ref="D490:F493"/>
-    <mergeCell ref="L490:O490"/>
-    <mergeCell ref="L491:O491"/>
-    <mergeCell ref="G493:O493"/>
-    <mergeCell ref="A494:C497"/>
-    <mergeCell ref="D494:F497"/>
-    <mergeCell ref="G494:I494"/>
-    <mergeCell ref="J494:K494"/>
-    <mergeCell ref="L494:M494"/>
-    <mergeCell ref="N494:O494"/>
-    <mergeCell ref="G495:I495"/>
-    <mergeCell ref="J495:K495"/>
-    <mergeCell ref="L495:M495"/>
-    <mergeCell ref="N495:O495"/>
-    <mergeCell ref="G496:I496"/>
-    <mergeCell ref="J496:K496"/>
-    <mergeCell ref="L496:M496"/>
-    <mergeCell ref="N496:O496"/>
-    <mergeCell ref="G497:I497"/>
-    <mergeCell ref="J497:K497"/>
-    <mergeCell ref="L497:M497"/>
-    <mergeCell ref="N497:O497"/>
-    <mergeCell ref="A498:C501"/>
-    <mergeCell ref="D498:F501"/>
-    <mergeCell ref="G498:I498"/>
-    <mergeCell ref="J498:K498"/>
-    <mergeCell ref="L498:M498"/>
-    <mergeCell ref="N498:O498"/>
-    <mergeCell ref="G499:I499"/>
-    <mergeCell ref="J499:K499"/>
-    <mergeCell ref="L499:M499"/>
-    <mergeCell ref="N499:O499"/>
-    <mergeCell ref="G500:I500"/>
-    <mergeCell ref="J500:K500"/>
-    <mergeCell ref="L500:M500"/>
-    <mergeCell ref="N500:O500"/>
-    <mergeCell ref="G501:I501"/>
-    <mergeCell ref="J501:K501"/>
-    <mergeCell ref="L501:M501"/>
-    <mergeCell ref="N501:O501"/>
-    <mergeCell ref="A504:D512"/>
-    <mergeCell ref="E505:O508"/>
-    <mergeCell ref="E509:O509"/>
-    <mergeCell ref="E510:O510"/>
-    <mergeCell ref="L512:O512"/>
-    <mergeCell ref="L513:O513"/>
-    <mergeCell ref="L514:O514"/>
-    <mergeCell ref="A586:D594"/>
-    <mergeCell ref="E587:O590"/>
-    <mergeCell ref="E591:O591"/>
-    <mergeCell ref="E592:O592"/>
-    <mergeCell ref="L594:O594"/>
-    <mergeCell ref="L595:O595"/>
-    <mergeCell ref="L596:O596"/>
-    <mergeCell ref="L541:O541"/>
-    <mergeCell ref="A542:C545"/>
-    <mergeCell ref="D542:F545"/>
-    <mergeCell ref="L542:O542"/>
-    <mergeCell ref="L543:O543"/>
-    <mergeCell ref="G545:O545"/>
-    <mergeCell ref="A546:C549"/>
-    <mergeCell ref="D550:F553"/>
-    <mergeCell ref="G546:I546"/>
-    <mergeCell ref="J546:K546"/>
-    <mergeCell ref="L546:M546"/>
-    <mergeCell ref="N546:O546"/>
-    <mergeCell ref="G547:I547"/>
-    <mergeCell ref="J547:K547"/>
-    <mergeCell ref="L547:M547"/>
-    <mergeCell ref="N547:O547"/>
-    <mergeCell ref="G548:I548"/>
-    <mergeCell ref="J548:K548"/>
-    <mergeCell ref="A550:C553"/>
-    <mergeCell ref="G603:I603"/>
-    <mergeCell ref="J603:K603"/>
-    <mergeCell ref="L603:M603"/>
-    <mergeCell ref="N603:O603"/>
-    <mergeCell ref="G604:I604"/>
-    <mergeCell ref="J604:K604"/>
-    <mergeCell ref="L604:M604"/>
-    <mergeCell ref="N604:O604"/>
-    <mergeCell ref="G605:I605"/>
-    <mergeCell ref="J605:K605"/>
-    <mergeCell ref="L605:M605"/>
-    <mergeCell ref="N605:O605"/>
-    <mergeCell ref="L551:M551"/>
-    <mergeCell ref="N551:O551"/>
-    <mergeCell ref="G552:I552"/>
-    <mergeCell ref="J552:K552"/>
-    <mergeCell ref="L552:M552"/>
-    <mergeCell ref="N552:O552"/>
-    <mergeCell ref="G553:I553"/>
-    <mergeCell ref="J553:K553"/>
-    <mergeCell ref="L553:M553"/>
-    <mergeCell ref="N553:O553"/>
-    <mergeCell ref="N578:O578"/>
-    <mergeCell ref="G579:I579"/>
-    <mergeCell ref="J579:K579"/>
-    <mergeCell ref="L579:M579"/>
-    <mergeCell ref="G577:I577"/>
-    <mergeCell ref="J577:K577"/>
-    <mergeCell ref="L577:M577"/>
-    <mergeCell ref="N577:O577"/>
-    <mergeCell ref="G578:I578"/>
-    <mergeCell ref="J578:K578"/>
-    <mergeCell ref="G606:I606"/>
-    <mergeCell ref="J606:K606"/>
-    <mergeCell ref="L606:M606"/>
-    <mergeCell ref="N606:O606"/>
-    <mergeCell ref="G607:I607"/>
-    <mergeCell ref="J607:K607"/>
-    <mergeCell ref="L607:M607"/>
-    <mergeCell ref="N607:O607"/>
-    <mergeCell ref="G608:I608"/>
-    <mergeCell ref="J608:K608"/>
-    <mergeCell ref="L608:M608"/>
-    <mergeCell ref="N608:O608"/>
-    <mergeCell ref="G609:I609"/>
-    <mergeCell ref="J609:K609"/>
-    <mergeCell ref="L609:M609"/>
-    <mergeCell ref="N609:O609"/>
-    <mergeCell ref="L578:M578"/>
-    <mergeCell ref="A597:C597"/>
-    <mergeCell ref="D597:F597"/>
-    <mergeCell ref="L597:O597"/>
-    <mergeCell ref="A598:C601"/>
-    <mergeCell ref="D598:F601"/>
-    <mergeCell ref="L598:O598"/>
-    <mergeCell ref="L599:O599"/>
-    <mergeCell ref="A602:C605"/>
-    <mergeCell ref="D602:F605"/>
-    <mergeCell ref="G601:O601"/>
-    <mergeCell ref="A606:C609"/>
-    <mergeCell ref="D606:F609"/>
-    <mergeCell ref="G602:I602"/>
-    <mergeCell ref="J602:K602"/>
-    <mergeCell ref="L602:M602"/>
-    <mergeCell ref="N602:O602"/>
-    <mergeCell ref="A612:D620"/>
-    <mergeCell ref="E613:O616"/>
-    <mergeCell ref="E617:O617"/>
-    <mergeCell ref="E618:O618"/>
-    <mergeCell ref="L620:O620"/>
-    <mergeCell ref="L621:O621"/>
-    <mergeCell ref="L622:O622"/>
-    <mergeCell ref="A623:C623"/>
-    <mergeCell ref="D623:F623"/>
-    <mergeCell ref="L623:O623"/>
-    <mergeCell ref="A624:C627"/>
-    <mergeCell ref="D624:F627"/>
-    <mergeCell ref="L624:O624"/>
-    <mergeCell ref="L625:O625"/>
-    <mergeCell ref="G627:O627"/>
-    <mergeCell ref="A628:C631"/>
-    <mergeCell ref="D628:F631"/>
-    <mergeCell ref="G628:I628"/>
-    <mergeCell ref="J628:K628"/>
-    <mergeCell ref="L628:M628"/>
-    <mergeCell ref="N628:O628"/>
-    <mergeCell ref="G629:I629"/>
-    <mergeCell ref="J629:K629"/>
-    <mergeCell ref="L629:M629"/>
-    <mergeCell ref="N629:O629"/>
-    <mergeCell ref="G630:I630"/>
-    <mergeCell ref="J630:K630"/>
-    <mergeCell ref="L630:M630"/>
-    <mergeCell ref="N630:O630"/>
-    <mergeCell ref="G631:I631"/>
-    <mergeCell ref="J631:K631"/>
-    <mergeCell ref="L631:M631"/>
-    <mergeCell ref="N631:O631"/>
-    <mergeCell ref="A632:C635"/>
-    <mergeCell ref="D632:F635"/>
-    <mergeCell ref="G632:I632"/>
-    <mergeCell ref="J632:K632"/>
-    <mergeCell ref="L632:M632"/>
-    <mergeCell ref="N632:O632"/>
-    <mergeCell ref="G633:I633"/>
-    <mergeCell ref="J633:K633"/>
-    <mergeCell ref="L633:M633"/>
-    <mergeCell ref="N633:O633"/>
-    <mergeCell ref="G634:I634"/>
-    <mergeCell ref="J634:K634"/>
-    <mergeCell ref="L634:M634"/>
-    <mergeCell ref="N634:O634"/>
-    <mergeCell ref="G635:I635"/>
-    <mergeCell ref="J635:K635"/>
-    <mergeCell ref="L635:M635"/>
-    <mergeCell ref="N635:O635"/>
-    <mergeCell ref="A664:D672"/>
-    <mergeCell ref="E665:O668"/>
-    <mergeCell ref="E669:O669"/>
-    <mergeCell ref="E670:O670"/>
-    <mergeCell ref="L672:O672"/>
-    <mergeCell ref="L673:O673"/>
-    <mergeCell ref="L674:O674"/>
-    <mergeCell ref="A675:C675"/>
-    <mergeCell ref="D675:F675"/>
-    <mergeCell ref="L675:O675"/>
-    <mergeCell ref="A676:C679"/>
-    <mergeCell ref="D676:F679"/>
-    <mergeCell ref="L676:O676"/>
-    <mergeCell ref="L677:O677"/>
-    <mergeCell ref="G679:O679"/>
-    <mergeCell ref="A680:C683"/>
-    <mergeCell ref="D680:F683"/>
-    <mergeCell ref="G680:I680"/>
-    <mergeCell ref="J680:K680"/>
-    <mergeCell ref="L680:M680"/>
-    <mergeCell ref="N680:O680"/>
-    <mergeCell ref="G681:I681"/>
-    <mergeCell ref="J681:K681"/>
-    <mergeCell ref="L681:M681"/>
-    <mergeCell ref="N681:O681"/>
-    <mergeCell ref="G682:I682"/>
-    <mergeCell ref="J682:K682"/>
-    <mergeCell ref="L682:M682"/>
-    <mergeCell ref="N682:O682"/>
-    <mergeCell ref="G683:I683"/>
-    <mergeCell ref="J683:K683"/>
-    <mergeCell ref="L683:M683"/>
-    <mergeCell ref="N683:O683"/>
-    <mergeCell ref="A684:C687"/>
-    <mergeCell ref="D684:F687"/>
-    <mergeCell ref="G684:I684"/>
-    <mergeCell ref="J684:K684"/>
-    <mergeCell ref="L684:M684"/>
-    <mergeCell ref="N684:O684"/>
-    <mergeCell ref="G685:I685"/>
-    <mergeCell ref="J685:K685"/>
-    <mergeCell ref="L685:M685"/>
-    <mergeCell ref="N685:O685"/>
-    <mergeCell ref="G686:I686"/>
-    <mergeCell ref="J686:K686"/>
-    <mergeCell ref="L686:M686"/>
-    <mergeCell ref="N686:O686"/>
-    <mergeCell ref="G687:I687"/>
-    <mergeCell ref="J687:K687"/>
-    <mergeCell ref="L687:M687"/>
-    <mergeCell ref="N687:O687"/>
-    <mergeCell ref="A638:D646"/>
-    <mergeCell ref="E639:O642"/>
-    <mergeCell ref="E643:O643"/>
-    <mergeCell ref="E644:O644"/>
-    <mergeCell ref="L646:O646"/>
-    <mergeCell ref="L647:O647"/>
-    <mergeCell ref="L648:O648"/>
-    <mergeCell ref="A649:C649"/>
-    <mergeCell ref="D649:F649"/>
-    <mergeCell ref="L649:O649"/>
-    <mergeCell ref="A650:C653"/>
-    <mergeCell ref="D650:F653"/>
-    <mergeCell ref="L650:O650"/>
-    <mergeCell ref="L651:O651"/>
-    <mergeCell ref="G653:O653"/>
-    <mergeCell ref="A654:C657"/>
-    <mergeCell ref="D654:F657"/>
-    <mergeCell ref="G654:I654"/>
-    <mergeCell ref="J654:K654"/>
-    <mergeCell ref="L654:M654"/>
-    <mergeCell ref="N654:O654"/>
-    <mergeCell ref="G655:I655"/>
-    <mergeCell ref="J655:K655"/>
-    <mergeCell ref="L655:M655"/>
-    <mergeCell ref="N655:O655"/>
-    <mergeCell ref="G656:I656"/>
-    <mergeCell ref="J656:K656"/>
-    <mergeCell ref="L656:M656"/>
-    <mergeCell ref="N656:O656"/>
-    <mergeCell ref="G657:I657"/>
-    <mergeCell ref="J657:K657"/>
-    <mergeCell ref="L657:M657"/>
-    <mergeCell ref="N657:O657"/>
-    <mergeCell ref="A658:C661"/>
-    <mergeCell ref="D658:F661"/>
-    <mergeCell ref="G658:I658"/>
-    <mergeCell ref="J658:K658"/>
-    <mergeCell ref="L658:M658"/>
-    <mergeCell ref="N658:O658"/>
-    <mergeCell ref="G659:I659"/>
-    <mergeCell ref="J659:K659"/>
-    <mergeCell ref="L659:M659"/>
-    <mergeCell ref="N659:O659"/>
-    <mergeCell ref="G660:I660"/>
-    <mergeCell ref="J660:K660"/>
-    <mergeCell ref="L660:M660"/>
-    <mergeCell ref="N660:O660"/>
-    <mergeCell ref="G661:I661"/>
-    <mergeCell ref="J661:K661"/>
-    <mergeCell ref="L661:M661"/>
-    <mergeCell ref="N661:O661"/>
+    <mergeCell ref="N739:O739"/>
+    <mergeCell ref="A740:C743"/>
+    <mergeCell ref="D740:F743"/>
+    <mergeCell ref="G740:I740"/>
+    <mergeCell ref="J740:K740"/>
+    <mergeCell ref="L740:M740"/>
+    <mergeCell ref="N740:O740"/>
+    <mergeCell ref="G741:I741"/>
+    <mergeCell ref="J741:K741"/>
+    <mergeCell ref="L741:M741"/>
+    <mergeCell ref="N741:O741"/>
+    <mergeCell ref="G742:I742"/>
+    <mergeCell ref="J742:K742"/>
+    <mergeCell ref="L742:M742"/>
+    <mergeCell ref="N742:O742"/>
+    <mergeCell ref="G743:I743"/>
+    <mergeCell ref="J743:K743"/>
+    <mergeCell ref="L743:M743"/>
+    <mergeCell ref="N743:O743"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20719,20 +21428,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20918,14 +21627,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A20BDE-ACAC-49A0-A051-6F5B010A8CC5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -20937,6 +21638,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documentacao/mechspot_ata.xlsx
+++ b/documentacao/mechspot_ata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\projeto-pi-sprint-2\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2559BA-392A-43B3-9891-34DFED552AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD099972-9673-40BF-9037-F0A2AB9DE9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4545F592-9151-46FC-8F7A-0131C129BBC9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="225">
   <si>
     <t>OK</t>
   </si>
@@ -1199,6 +1199,48 @@
       </rPr>
       <t xml:space="preserve">  21/10/2024     |     LISTA DE PRESENÇA</t>
     </r>
+  </si>
+  <si>
+    <t>Reunião com o Professor Marcos</t>
+  </si>
+  <si>
+    <t>Alterar documentação, como: objetivo, requisitos e premissas. Adicionar os diagramas</t>
+  </si>
+  <si>
+    <t>Melhorar a arquitetura do diagrama de solução</t>
+  </si>
+  <si>
+    <t>Acrscentar fontes na calculadora</t>
+  </si>
+  <si>
+    <t>Documentação</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>Tela Login Cadastro</t>
+  </si>
+  <si>
+    <t>Diagrama de Solução</t>
+  </si>
+  <si>
+    <t>Ajustar os Gráficos da Dashboard, adicionar cores intuitivas</t>
+  </si>
+  <si>
+    <t>Gráficos da Dashboard</t>
+  </si>
+  <si>
+    <t>Calculadora</t>
+  </si>
+  <si>
+    <t>Kenner</t>
+  </si>
+  <si>
+    <t>Luana</t>
+  </si>
+  <si>
+    <t>Alterar tela de login, cadastro. Acrescentar mais informações</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1759,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1727,9 +1769,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1743,6 +1782,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1759,47 +1801,8 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1811,6 +1814,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1825,8 +1831,44 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3488,8 +3530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5446F9-8A09-4B91-82C6-8FD7102DEAC7}">
   <dimension ref="A1:Y773"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A742" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N766" sqref="N766:O766"/>
+    <sheetView tabSelected="1" topLeftCell="A757" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I759" sqref="I759"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3521,19 +3563,19 @@
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" ht="14.45" customHeight="1">
@@ -3541,17 +3583,17 @@
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16" ht="14.45" customHeight="1">
@@ -3559,17 +3601,17 @@
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" ht="14.45" customHeight="1">
@@ -3577,17 +3619,17 @@
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16" ht="14.45" customHeight="1">
@@ -3713,16 +3755,16 @@
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
@@ -4091,19 +4133,19 @@
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16">
@@ -4111,17 +4153,17 @@
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
       <c r="P29" s="5"/>
     </row>
     <row r="30" spans="1:16">
@@ -4129,17 +4171,17 @@
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
       <c r="P30" s="5"/>
     </row>
     <row r="31" spans="1:16">
@@ -4147,17 +4189,17 @@
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
       <c r="P31" s="5"/>
     </row>
     <row r="32" spans="1:16" ht="18">
@@ -4283,16 +4325,16 @@
       <c r="P37" s="5"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="37" t="s">
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6" t="s">
@@ -4653,19 +4695,19 @@
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
       <c r="P54" s="5"/>
     </row>
     <row r="55" spans="1:16">
@@ -4673,17 +4715,17 @@
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
       <c r="P55" s="5"/>
     </row>
     <row r="56" spans="1:16">
@@ -4691,17 +4733,17 @@
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
       <c r="D56" s="28"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
       <c r="P56" s="5"/>
     </row>
     <row r="57" spans="1:16">
@@ -4709,17 +4751,17 @@
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
       <c r="P57" s="5"/>
     </row>
     <row r="58" spans="1:16" ht="18">
@@ -4845,16 +4887,16 @@
       <c r="P63" s="5"/>
     </row>
     <row r="64" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="37" t="s">
+      <c r="B64" s="34"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="35"/>
-      <c r="F64" s="36"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="35"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6" t="s">
@@ -5175,19 +5217,19 @@
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
-      <c r="E80" s="29" t="s">
+      <c r="E80" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="29"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="29"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="43"/>
       <c r="P80" s="5"/>
     </row>
     <row r="81" spans="1:16">
@@ -5195,17 +5237,17 @@
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
-      <c r="M81" s="29"/>
-      <c r="N81" s="29"/>
-      <c r="O81" s="29"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="43"/>
+      <c r="N81" s="43"/>
+      <c r="O81" s="43"/>
       <c r="P81" s="5"/>
     </row>
     <row r="82" spans="1:16">
@@ -5213,17 +5255,17 @@
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="29"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="29"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="43"/>
+      <c r="L82" s="43"/>
+      <c r="M82" s="43"/>
+      <c r="N82" s="43"/>
+      <c r="O82" s="43"/>
       <c r="P82" s="5"/>
     </row>
     <row r="83" spans="1:16">
@@ -5231,17 +5273,17 @@
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="29"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="29"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="43"/>
+      <c r="M83" s="43"/>
+      <c r="N83" s="43"/>
+      <c r="O83" s="43"/>
       <c r="P83" s="5"/>
     </row>
     <row r="84" spans="1:16" ht="18">
@@ -5367,16 +5409,16 @@
       <c r="P89" s="5"/>
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A90" s="34" t="s">
+      <c r="A90" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="35"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="37" t="s">
+      <c r="B90" s="34"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="35"/>
-      <c r="F90" s="36"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="35"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6" t="s">
@@ -5719,19 +5761,19 @@
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
-      <c r="E106" s="29" t="s">
+      <c r="E106" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="29"/>
-      <c r="J106" s="29"/>
-      <c r="K106" s="29"/>
-      <c r="L106" s="29"/>
-      <c r="M106" s="29"/>
-      <c r="N106" s="29"/>
-      <c r="O106" s="29"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="43"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="43"/>
+      <c r="M106" s="43"/>
+      <c r="N106" s="43"/>
+      <c r="O106" s="43"/>
       <c r="P106" s="5"/>
     </row>
     <row r="107" spans="1:16">
@@ -5739,17 +5781,17 @@
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="29"/>
-      <c r="M107" s="29"/>
-      <c r="N107" s="29"/>
-      <c r="O107" s="29"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="43"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="43"/>
+      <c r="M107" s="43"/>
+      <c r="N107" s="43"/>
+      <c r="O107" s="43"/>
       <c r="P107" s="5"/>
     </row>
     <row r="108" spans="1:16">
@@ -5757,17 +5799,17 @@
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="29"/>
-      <c r="L108" s="29"/>
-      <c r="M108" s="29"/>
-      <c r="N108" s="29"/>
-      <c r="O108" s="29"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="43"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="43"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="43"/>
+      <c r="K108" s="43"/>
+      <c r="L108" s="43"/>
+      <c r="M108" s="43"/>
+      <c r="N108" s="43"/>
+      <c r="O108" s="43"/>
       <c r="P108" s="5"/>
     </row>
     <row r="109" spans="1:16">
@@ -5775,17 +5817,17 @@
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="29"/>
-      <c r="L109" s="29"/>
-      <c r="M109" s="29"/>
-      <c r="N109" s="29"/>
-      <c r="O109" s="29"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="43"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="43"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="43"/>
+      <c r="M109" s="43"/>
+      <c r="N109" s="43"/>
+      <c r="O109" s="43"/>
       <c r="P109" s="5"/>
     </row>
     <row r="110" spans="1:16" ht="18">
@@ -5880,7 +5922,7 @@
       </c>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
-      <c r="L114" s="33" t="s">
+      <c r="L114" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M114" s="32"/>
@@ -5911,16 +5953,16 @@
       <c r="P115" s="5"/>
     </row>
     <row r="116" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A116" s="34" t="s">
+      <c r="A116" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="35"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="37" t="s">
+      <c r="B116" s="34"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E116" s="35"/>
-      <c r="F116" s="36"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="35"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6" t="s">
@@ -5976,7 +6018,7 @@
       </c>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
-      <c r="L118" s="33" t="s">
+      <c r="L118" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M118" s="32"/>
@@ -6253,19 +6295,19 @@
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
-      <c r="E132" s="29" t="s">
+      <c r="E132" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F132" s="29"/>
-      <c r="G132" s="29"/>
-      <c r="H132" s="29"/>
-      <c r="I132" s="29"/>
-      <c r="J132" s="29"/>
-      <c r="K132" s="29"/>
-      <c r="L132" s="29"/>
-      <c r="M132" s="29"/>
-      <c r="N132" s="29"/>
-      <c r="O132" s="29"/>
+      <c r="F132" s="43"/>
+      <c r="G132" s="43"/>
+      <c r="H132" s="43"/>
+      <c r="I132" s="43"/>
+      <c r="J132" s="43"/>
+      <c r="K132" s="43"/>
+      <c r="L132" s="43"/>
+      <c r="M132" s="43"/>
+      <c r="N132" s="43"/>
+      <c r="O132" s="43"/>
       <c r="P132" s="5"/>
     </row>
     <row r="133" spans="1:16">
@@ -6273,17 +6315,17 @@
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="29"/>
-      <c r="H133" s="29"/>
-      <c r="I133" s="29"/>
-      <c r="J133" s="29"/>
-      <c r="K133" s="29"/>
-      <c r="L133" s="29"/>
-      <c r="M133" s="29"/>
-      <c r="N133" s="29"/>
-      <c r="O133" s="29"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="43"/>
+      <c r="G133" s="43"/>
+      <c r="H133" s="43"/>
+      <c r="I133" s="43"/>
+      <c r="J133" s="43"/>
+      <c r="K133" s="43"/>
+      <c r="L133" s="43"/>
+      <c r="M133" s="43"/>
+      <c r="N133" s="43"/>
+      <c r="O133" s="43"/>
       <c r="P133" s="5"/>
     </row>
     <row r="134" spans="1:16">
@@ -6291,17 +6333,17 @@
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
-      <c r="E134" s="29"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="29"/>
-      <c r="I134" s="29"/>
-      <c r="J134" s="29"/>
-      <c r="K134" s="29"/>
-      <c r="L134" s="29"/>
-      <c r="M134" s="29"/>
-      <c r="N134" s="29"/>
-      <c r="O134" s="29"/>
+      <c r="E134" s="43"/>
+      <c r="F134" s="43"/>
+      <c r="G134" s="43"/>
+      <c r="H134" s="43"/>
+      <c r="I134" s="43"/>
+      <c r="J134" s="43"/>
+      <c r="K134" s="43"/>
+      <c r="L134" s="43"/>
+      <c r="M134" s="43"/>
+      <c r="N134" s="43"/>
+      <c r="O134" s="43"/>
       <c r="P134" s="5"/>
     </row>
     <row r="135" spans="1:16">
@@ -6309,17 +6351,17 @@
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="29"/>
-      <c r="I135" s="29"/>
-      <c r="J135" s="29"/>
-      <c r="K135" s="29"/>
-      <c r="L135" s="29"/>
-      <c r="M135" s="29"/>
-      <c r="N135" s="29"/>
-      <c r="O135" s="29"/>
+      <c r="E135" s="43"/>
+      <c r="F135" s="43"/>
+      <c r="G135" s="43"/>
+      <c r="H135" s="43"/>
+      <c r="I135" s="43"/>
+      <c r="J135" s="43"/>
+      <c r="K135" s="43"/>
+      <c r="L135" s="43"/>
+      <c r="M135" s="43"/>
+      <c r="N135" s="43"/>
+      <c r="O135" s="43"/>
       <c r="P135" s="5"/>
     </row>
     <row r="136" spans="1:16" ht="18">
@@ -6445,16 +6487,16 @@
       <c r="P141" s="5"/>
     </row>
     <row r="142" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A142" s="34" t="s">
+      <c r="A142" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B142" s="35"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="37" t="s">
+      <c r="B142" s="34"/>
+      <c r="C142" s="35"/>
+      <c r="D142" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E142" s="35"/>
-      <c r="F142" s="36"/>
+      <c r="E142" s="34"/>
+      <c r="F142" s="35"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
       <c r="I142" s="6" t="s">
@@ -6783,19 +6825,19 @@
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
-      <c r="E158" s="29" t="s">
+      <c r="E158" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F158" s="29"/>
-      <c r="G158" s="29"/>
-      <c r="H158" s="29"/>
-      <c r="I158" s="29"/>
-      <c r="J158" s="29"/>
-      <c r="K158" s="29"/>
-      <c r="L158" s="29"/>
-      <c r="M158" s="29"/>
-      <c r="N158" s="29"/>
-      <c r="O158" s="29"/>
+      <c r="F158" s="43"/>
+      <c r="G158" s="43"/>
+      <c r="H158" s="43"/>
+      <c r="I158" s="43"/>
+      <c r="J158" s="43"/>
+      <c r="K158" s="43"/>
+      <c r="L158" s="43"/>
+      <c r="M158" s="43"/>
+      <c r="N158" s="43"/>
+      <c r="O158" s="43"/>
       <c r="P158" s="5"/>
     </row>
     <row r="159" spans="1:16">
@@ -6803,17 +6845,17 @@
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="29"/>
-      <c r="G159" s="29"/>
-      <c r="H159" s="29"/>
-      <c r="I159" s="29"/>
-      <c r="J159" s="29"/>
-      <c r="K159" s="29"/>
-      <c r="L159" s="29"/>
-      <c r="M159" s="29"/>
-      <c r="N159" s="29"/>
-      <c r="O159" s="29"/>
+      <c r="E159" s="43"/>
+      <c r="F159" s="43"/>
+      <c r="G159" s="43"/>
+      <c r="H159" s="43"/>
+      <c r="I159" s="43"/>
+      <c r="J159" s="43"/>
+      <c r="K159" s="43"/>
+      <c r="L159" s="43"/>
+      <c r="M159" s="43"/>
+      <c r="N159" s="43"/>
+      <c r="O159" s="43"/>
       <c r="P159" s="5"/>
     </row>
     <row r="160" spans="1:16">
@@ -6821,17 +6863,17 @@
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="29"/>
-      <c r="H160" s="29"/>
-      <c r="I160" s="29"/>
-      <c r="J160" s="29"/>
-      <c r="K160" s="29"/>
-      <c r="L160" s="29"/>
-      <c r="M160" s="29"/>
-      <c r="N160" s="29"/>
-      <c r="O160" s="29"/>
+      <c r="E160" s="43"/>
+      <c r="F160" s="43"/>
+      <c r="G160" s="43"/>
+      <c r="H160" s="43"/>
+      <c r="I160" s="43"/>
+      <c r="J160" s="43"/>
+      <c r="K160" s="43"/>
+      <c r="L160" s="43"/>
+      <c r="M160" s="43"/>
+      <c r="N160" s="43"/>
+      <c r="O160" s="43"/>
       <c r="P160" s="5"/>
     </row>
     <row r="161" spans="1:16">
@@ -6839,17 +6881,17 @@
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
       <c r="D161" s="28"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="29"/>
-      <c r="H161" s="29"/>
-      <c r="I161" s="29"/>
-      <c r="J161" s="29"/>
-      <c r="K161" s="29"/>
-      <c r="L161" s="29"/>
-      <c r="M161" s="29"/>
-      <c r="N161" s="29"/>
-      <c r="O161" s="29"/>
+      <c r="E161" s="43"/>
+      <c r="F161" s="43"/>
+      <c r="G161" s="43"/>
+      <c r="H161" s="43"/>
+      <c r="I161" s="43"/>
+      <c r="J161" s="43"/>
+      <c r="K161" s="43"/>
+      <c r="L161" s="43"/>
+      <c r="M161" s="43"/>
+      <c r="N161" s="43"/>
+      <c r="O161" s="43"/>
       <c r="P161" s="5"/>
     </row>
     <row r="162" spans="1:16" ht="18">
@@ -6975,16 +7017,16 @@
       <c r="P167" s="5"/>
     </row>
     <row r="168" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A168" s="34" t="s">
+      <c r="A168" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B168" s="35"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="37" t="s">
+      <c r="B168" s="34"/>
+      <c r="C168" s="35"/>
+      <c r="D168" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E168" s="35"/>
-      <c r="F168" s="36"/>
+      <c r="E168" s="34"/>
+      <c r="F168" s="35"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
       <c r="I168" s="6" t="s">
@@ -7018,12 +7060,12 @@
       </c>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
-      <c r="L169" s="33" t="s">
+      <c r="L169" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M169" s="33"/>
-      <c r="N169" s="33"/>
-      <c r="O169" s="33"/>
+      <c r="M169" s="37"/>
+      <c r="N169" s="37"/>
+      <c r="O169" s="37"/>
       <c r="P169" s="5"/>
     </row>
     <row r="170" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
@@ -7345,19 +7387,19 @@
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
       <c r="D185" s="28"/>
-      <c r="E185" s="29" t="s">
+      <c r="E185" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F185" s="29"/>
-      <c r="G185" s="29"/>
-      <c r="H185" s="29"/>
-      <c r="I185" s="29"/>
-      <c r="J185" s="29"/>
-      <c r="K185" s="29"/>
-      <c r="L185" s="29"/>
-      <c r="M185" s="29"/>
-      <c r="N185" s="29"/>
-      <c r="O185" s="29"/>
+      <c r="F185" s="43"/>
+      <c r="G185" s="43"/>
+      <c r="H185" s="43"/>
+      <c r="I185" s="43"/>
+      <c r="J185" s="43"/>
+      <c r="K185" s="43"/>
+      <c r="L185" s="43"/>
+      <c r="M185" s="43"/>
+      <c r="N185" s="43"/>
+      <c r="O185" s="43"/>
       <c r="P185" s="5"/>
     </row>
     <row r="186" spans="1:16">
@@ -7365,17 +7407,17 @@
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
       <c r="D186" s="28"/>
-      <c r="E186" s="29"/>
-      <c r="F186" s="29"/>
-      <c r="G186" s="29"/>
-      <c r="H186" s="29"/>
-      <c r="I186" s="29"/>
-      <c r="J186" s="29"/>
-      <c r="K186" s="29"/>
-      <c r="L186" s="29"/>
-      <c r="M186" s="29"/>
-      <c r="N186" s="29"/>
-      <c r="O186" s="29"/>
+      <c r="E186" s="43"/>
+      <c r="F186" s="43"/>
+      <c r="G186" s="43"/>
+      <c r="H186" s="43"/>
+      <c r="I186" s="43"/>
+      <c r="J186" s="43"/>
+      <c r="K186" s="43"/>
+      <c r="L186" s="43"/>
+      <c r="M186" s="43"/>
+      <c r="N186" s="43"/>
+      <c r="O186" s="43"/>
       <c r="P186" s="5"/>
     </row>
     <row r="187" spans="1:16">
@@ -7383,17 +7425,17 @@
       <c r="B187" s="28"/>
       <c r="C187" s="28"/>
       <c r="D187" s="28"/>
-      <c r="E187" s="29"/>
-      <c r="F187" s="29"/>
-      <c r="G187" s="29"/>
-      <c r="H187" s="29"/>
-      <c r="I187" s="29"/>
-      <c r="J187" s="29"/>
-      <c r="K187" s="29"/>
-      <c r="L187" s="29"/>
-      <c r="M187" s="29"/>
-      <c r="N187" s="29"/>
-      <c r="O187" s="29"/>
+      <c r="E187" s="43"/>
+      <c r="F187" s="43"/>
+      <c r="G187" s="43"/>
+      <c r="H187" s="43"/>
+      <c r="I187" s="43"/>
+      <c r="J187" s="43"/>
+      <c r="K187" s="43"/>
+      <c r="L187" s="43"/>
+      <c r="M187" s="43"/>
+      <c r="N187" s="43"/>
+      <c r="O187" s="43"/>
       <c r="P187" s="5"/>
     </row>
     <row r="188" spans="1:16">
@@ -7401,17 +7443,17 @@
       <c r="B188" s="28"/>
       <c r="C188" s="28"/>
       <c r="D188" s="28"/>
-      <c r="E188" s="29"/>
-      <c r="F188" s="29"/>
-      <c r="G188" s="29"/>
-      <c r="H188" s="29"/>
-      <c r="I188" s="29"/>
-      <c r="J188" s="29"/>
-      <c r="K188" s="29"/>
-      <c r="L188" s="29"/>
-      <c r="M188" s="29"/>
-      <c r="N188" s="29"/>
-      <c r="O188" s="29"/>
+      <c r="E188" s="43"/>
+      <c r="F188" s="43"/>
+      <c r="G188" s="43"/>
+      <c r="H188" s="43"/>
+      <c r="I188" s="43"/>
+      <c r="J188" s="43"/>
+      <c r="K188" s="43"/>
+      <c r="L188" s="43"/>
+      <c r="M188" s="43"/>
+      <c r="N188" s="43"/>
+      <c r="O188" s="43"/>
       <c r="P188" s="5"/>
     </row>
     <row r="189" spans="1:16" ht="18">
@@ -7537,16 +7579,16 @@
       <c r="P194" s="5"/>
     </row>
     <row r="195" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A195" s="34" t="s">
+      <c r="A195" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B195" s="35"/>
-      <c r="C195" s="36"/>
-      <c r="D195" s="37" t="s">
+      <c r="B195" s="34"/>
+      <c r="C195" s="35"/>
+      <c r="D195" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E195" s="35"/>
-      <c r="F195" s="36"/>
+      <c r="E195" s="34"/>
+      <c r="F195" s="35"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
       <c r="I195" s="6" t="s">
@@ -7891,19 +7933,19 @@
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
       <c r="D211" s="28"/>
-      <c r="E211" s="29" t="s">
+      <c r="E211" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F211" s="29"/>
-      <c r="G211" s="29"/>
-      <c r="H211" s="29"/>
-      <c r="I211" s="29"/>
-      <c r="J211" s="29"/>
-      <c r="K211" s="29"/>
-      <c r="L211" s="29"/>
-      <c r="M211" s="29"/>
-      <c r="N211" s="29"/>
-      <c r="O211" s="29"/>
+      <c r="F211" s="43"/>
+      <c r="G211" s="43"/>
+      <c r="H211" s="43"/>
+      <c r="I211" s="43"/>
+      <c r="J211" s="43"/>
+      <c r="K211" s="43"/>
+      <c r="L211" s="43"/>
+      <c r="M211" s="43"/>
+      <c r="N211" s="43"/>
+      <c r="O211" s="43"/>
       <c r="P211" s="5"/>
     </row>
     <row r="212" spans="1:16">
@@ -7911,17 +7953,17 @@
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
       <c r="D212" s="28"/>
-      <c r="E212" s="29"/>
-      <c r="F212" s="29"/>
-      <c r="G212" s="29"/>
-      <c r="H212" s="29"/>
-      <c r="I212" s="29"/>
-      <c r="J212" s="29"/>
-      <c r="K212" s="29"/>
-      <c r="L212" s="29"/>
-      <c r="M212" s="29"/>
-      <c r="N212" s="29"/>
-      <c r="O212" s="29"/>
+      <c r="E212" s="43"/>
+      <c r="F212" s="43"/>
+      <c r="G212" s="43"/>
+      <c r="H212" s="43"/>
+      <c r="I212" s="43"/>
+      <c r="J212" s="43"/>
+      <c r="K212" s="43"/>
+      <c r="L212" s="43"/>
+      <c r="M212" s="43"/>
+      <c r="N212" s="43"/>
+      <c r="O212" s="43"/>
       <c r="P212" s="5"/>
     </row>
     <row r="213" spans="1:16">
@@ -7929,17 +7971,17 @@
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
       <c r="D213" s="28"/>
-      <c r="E213" s="29"/>
-      <c r="F213" s="29"/>
-      <c r="G213" s="29"/>
-      <c r="H213" s="29"/>
-      <c r="I213" s="29"/>
-      <c r="J213" s="29"/>
-      <c r="K213" s="29"/>
-      <c r="L213" s="29"/>
-      <c r="M213" s="29"/>
-      <c r="N213" s="29"/>
-      <c r="O213" s="29"/>
+      <c r="E213" s="43"/>
+      <c r="F213" s="43"/>
+      <c r="G213" s="43"/>
+      <c r="H213" s="43"/>
+      <c r="I213" s="43"/>
+      <c r="J213" s="43"/>
+      <c r="K213" s="43"/>
+      <c r="L213" s="43"/>
+      <c r="M213" s="43"/>
+      <c r="N213" s="43"/>
+      <c r="O213" s="43"/>
       <c r="P213" s="5"/>
     </row>
     <row r="214" spans="1:16">
@@ -7947,17 +7989,17 @@
       <c r="B214" s="28"/>
       <c r="C214" s="28"/>
       <c r="D214" s="28"/>
-      <c r="E214" s="29"/>
-      <c r="F214" s="29"/>
-      <c r="G214" s="29"/>
-      <c r="H214" s="29"/>
-      <c r="I214" s="29"/>
-      <c r="J214" s="29"/>
-      <c r="K214" s="29"/>
-      <c r="L214" s="29"/>
-      <c r="M214" s="29"/>
-      <c r="N214" s="29"/>
-      <c r="O214" s="29"/>
+      <c r="E214" s="43"/>
+      <c r="F214" s="43"/>
+      <c r="G214" s="43"/>
+      <c r="H214" s="43"/>
+      <c r="I214" s="43"/>
+      <c r="J214" s="43"/>
+      <c r="K214" s="43"/>
+      <c r="L214" s="43"/>
+      <c r="M214" s="43"/>
+      <c r="N214" s="43"/>
+      <c r="O214" s="43"/>
       <c r="P214" s="5"/>
     </row>
     <row r="215" spans="1:16" ht="18">
@@ -8052,12 +8094,12 @@
       </c>
       <c r="J219" s="6"/>
       <c r="K219" s="6"/>
-      <c r="L219" s="33" t="s">
+      <c r="L219" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M219" s="33"/>
-      <c r="N219" s="33"/>
-      <c r="O219" s="33"/>
+      <c r="M219" s="37"/>
+      <c r="N219" s="37"/>
+      <c r="O219" s="37"/>
       <c r="P219" s="5"/>
     </row>
     <row r="220" spans="1:16" ht="15.75" thickBot="1">
@@ -8074,25 +8116,25 @@
       </c>
       <c r="J220" s="6"/>
       <c r="K220" s="6"/>
-      <c r="L220" s="33" t="s">
+      <c r="L220" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M220" s="33"/>
-      <c r="N220" s="33"/>
-      <c r="O220" s="33"/>
+      <c r="M220" s="37"/>
+      <c r="N220" s="37"/>
+      <c r="O220" s="37"/>
       <c r="P220" s="5"/>
     </row>
     <row r="221" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A221" s="34" t="s">
+      <c r="A221" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B221" s="35"/>
-      <c r="C221" s="36"/>
-      <c r="D221" s="37" t="s">
+      <c r="B221" s="34"/>
+      <c r="C221" s="35"/>
+      <c r="D221" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E221" s="35"/>
-      <c r="F221" s="36"/>
+      <c r="E221" s="34"/>
+      <c r="F221" s="35"/>
       <c r="G221" s="6"/>
       <c r="H221" s="6"/>
       <c r="I221" s="6" t="s">
@@ -8435,19 +8477,19 @@
       <c r="B237" s="28"/>
       <c r="C237" s="28"/>
       <c r="D237" s="28"/>
-      <c r="E237" s="29" t="s">
+      <c r="E237" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F237" s="29"/>
-      <c r="G237" s="29"/>
-      <c r="H237" s="29"/>
-      <c r="I237" s="29"/>
-      <c r="J237" s="29"/>
-      <c r="K237" s="29"/>
-      <c r="L237" s="29"/>
-      <c r="M237" s="29"/>
-      <c r="N237" s="29"/>
-      <c r="O237" s="29"/>
+      <c r="F237" s="43"/>
+      <c r="G237" s="43"/>
+      <c r="H237" s="43"/>
+      <c r="I237" s="43"/>
+      <c r="J237" s="43"/>
+      <c r="K237" s="43"/>
+      <c r="L237" s="43"/>
+      <c r="M237" s="43"/>
+      <c r="N237" s="43"/>
+      <c r="O237" s="43"/>
       <c r="P237" s="5"/>
     </row>
     <row r="238" spans="1:16">
@@ -8455,17 +8497,17 @@
       <c r="B238" s="28"/>
       <c r="C238" s="28"/>
       <c r="D238" s="28"/>
-      <c r="E238" s="29"/>
-      <c r="F238" s="29"/>
-      <c r="G238" s="29"/>
-      <c r="H238" s="29"/>
-      <c r="I238" s="29"/>
-      <c r="J238" s="29"/>
-      <c r="K238" s="29"/>
-      <c r="L238" s="29"/>
-      <c r="M238" s="29"/>
-      <c r="N238" s="29"/>
-      <c r="O238" s="29"/>
+      <c r="E238" s="43"/>
+      <c r="F238" s="43"/>
+      <c r="G238" s="43"/>
+      <c r="H238" s="43"/>
+      <c r="I238" s="43"/>
+      <c r="J238" s="43"/>
+      <c r="K238" s="43"/>
+      <c r="L238" s="43"/>
+      <c r="M238" s="43"/>
+      <c r="N238" s="43"/>
+      <c r="O238" s="43"/>
       <c r="P238" s="5"/>
     </row>
     <row r="239" spans="1:16">
@@ -8473,17 +8515,17 @@
       <c r="B239" s="28"/>
       <c r="C239" s="28"/>
       <c r="D239" s="28"/>
-      <c r="E239" s="29"/>
-      <c r="F239" s="29"/>
-      <c r="G239" s="29"/>
-      <c r="H239" s="29"/>
-      <c r="I239" s="29"/>
-      <c r="J239" s="29"/>
-      <c r="K239" s="29"/>
-      <c r="L239" s="29"/>
-      <c r="M239" s="29"/>
-      <c r="N239" s="29"/>
-      <c r="O239" s="29"/>
+      <c r="E239" s="43"/>
+      <c r="F239" s="43"/>
+      <c r="G239" s="43"/>
+      <c r="H239" s="43"/>
+      <c r="I239" s="43"/>
+      <c r="J239" s="43"/>
+      <c r="K239" s="43"/>
+      <c r="L239" s="43"/>
+      <c r="M239" s="43"/>
+      <c r="N239" s="43"/>
+      <c r="O239" s="43"/>
       <c r="P239" s="5"/>
     </row>
     <row r="240" spans="1:16">
@@ -8491,17 +8533,17 @@
       <c r="B240" s="28"/>
       <c r="C240" s="28"/>
       <c r="D240" s="28"/>
-      <c r="E240" s="29"/>
-      <c r="F240" s="29"/>
-      <c r="G240" s="29"/>
-      <c r="H240" s="29"/>
-      <c r="I240" s="29"/>
-      <c r="J240" s="29"/>
-      <c r="K240" s="29"/>
-      <c r="L240" s="29"/>
-      <c r="M240" s="29"/>
-      <c r="N240" s="29"/>
-      <c r="O240" s="29"/>
+      <c r="E240" s="43"/>
+      <c r="F240" s="43"/>
+      <c r="G240" s="43"/>
+      <c r="H240" s="43"/>
+      <c r="I240" s="43"/>
+      <c r="J240" s="43"/>
+      <c r="K240" s="43"/>
+      <c r="L240" s="43"/>
+      <c r="M240" s="43"/>
+      <c r="N240" s="43"/>
+      <c r="O240" s="43"/>
       <c r="P240" s="5"/>
     </row>
     <row r="241" spans="1:16" ht="18">
@@ -8627,16 +8669,16 @@
       <c r="P246" s="5"/>
     </row>
     <row r="247" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A247" s="34" t="s">
+      <c r="A247" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B247" s="35"/>
-      <c r="C247" s="36"/>
-      <c r="D247" s="37" t="s">
+      <c r="B247" s="34"/>
+      <c r="C247" s="35"/>
+      <c r="D247" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E247" s="35"/>
-      <c r="F247" s="36"/>
+      <c r="E247" s="34"/>
+      <c r="F247" s="35"/>
       <c r="G247" s="6"/>
       <c r="H247" s="6"/>
       <c r="I247" s="6" t="s">
@@ -8989,19 +9031,19 @@
       <c r="B263" s="28"/>
       <c r="C263" s="28"/>
       <c r="D263" s="28"/>
-      <c r="E263" s="29" t="s">
+      <c r="E263" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="F263" s="29"/>
-      <c r="G263" s="29"/>
-      <c r="H263" s="29"/>
-      <c r="I263" s="29"/>
-      <c r="J263" s="29"/>
-      <c r="K263" s="29"/>
-      <c r="L263" s="29"/>
-      <c r="M263" s="29"/>
-      <c r="N263" s="29"/>
-      <c r="O263" s="29"/>
+      <c r="F263" s="43"/>
+      <c r="G263" s="43"/>
+      <c r="H263" s="43"/>
+      <c r="I263" s="43"/>
+      <c r="J263" s="43"/>
+      <c r="K263" s="43"/>
+      <c r="L263" s="43"/>
+      <c r="M263" s="43"/>
+      <c r="N263" s="43"/>
+      <c r="O263" s="43"/>
       <c r="P263" s="5"/>
       <c r="Q263" s="1"/>
       <c r="R263" s="1"/>
@@ -9015,17 +9057,17 @@
       <c r="B264" s="28"/>
       <c r="C264" s="28"/>
       <c r="D264" s="28"/>
-      <c r="E264" s="29"/>
-      <c r="F264" s="29"/>
-      <c r="G264" s="29"/>
-      <c r="H264" s="29"/>
-      <c r="I264" s="29"/>
-      <c r="J264" s="29"/>
-      <c r="K264" s="29"/>
-      <c r="L264" s="29"/>
-      <c r="M264" s="29"/>
-      <c r="N264" s="29"/>
-      <c r="O264" s="29"/>
+      <c r="E264" s="43"/>
+      <c r="F264" s="43"/>
+      <c r="G264" s="43"/>
+      <c r="H264" s="43"/>
+      <c r="I264" s="43"/>
+      <c r="J264" s="43"/>
+      <c r="K264" s="43"/>
+      <c r="L264" s="43"/>
+      <c r="M264" s="43"/>
+      <c r="N264" s="43"/>
+      <c r="O264" s="43"/>
       <c r="P264" s="5"/>
       <c r="Q264" s="1"/>
       <c r="R264" s="1"/>
@@ -9039,17 +9081,17 @@
       <c r="B265" s="28"/>
       <c r="C265" s="28"/>
       <c r="D265" s="28"/>
-      <c r="E265" s="29"/>
-      <c r="F265" s="29"/>
-      <c r="G265" s="29"/>
-      <c r="H265" s="29"/>
-      <c r="I265" s="29"/>
-      <c r="J265" s="29"/>
-      <c r="K265" s="29"/>
-      <c r="L265" s="29"/>
-      <c r="M265" s="29"/>
-      <c r="N265" s="29"/>
-      <c r="O265" s="29"/>
+      <c r="E265" s="43"/>
+      <c r="F265" s="43"/>
+      <c r="G265" s="43"/>
+      <c r="H265" s="43"/>
+      <c r="I265" s="43"/>
+      <c r="J265" s="43"/>
+      <c r="K265" s="43"/>
+      <c r="L265" s="43"/>
+      <c r="M265" s="43"/>
+      <c r="N265" s="43"/>
+      <c r="O265" s="43"/>
       <c r="P265" s="5"/>
       <c r="Q265" s="1"/>
       <c r="R265" s="1"/>
@@ -9063,17 +9105,17 @@
       <c r="B266" s="28"/>
       <c r="C266" s="28"/>
       <c r="D266" s="28"/>
-      <c r="E266" s="29"/>
-      <c r="F266" s="29"/>
-      <c r="G266" s="29"/>
-      <c r="H266" s="29"/>
-      <c r="I266" s="29"/>
-      <c r="J266" s="29"/>
-      <c r="K266" s="29"/>
-      <c r="L266" s="29"/>
-      <c r="M266" s="29"/>
-      <c r="N266" s="29"/>
-      <c r="O266" s="29"/>
+      <c r="E266" s="43"/>
+      <c r="F266" s="43"/>
+      <c r="G266" s="43"/>
+      <c r="H266" s="43"/>
+      <c r="I266" s="43"/>
+      <c r="J266" s="43"/>
+      <c r="K266" s="43"/>
+      <c r="L266" s="43"/>
+      <c r="M266" s="43"/>
+      <c r="N266" s="43"/>
+      <c r="O266" s="43"/>
       <c r="P266" s="5"/>
       <c r="Q266" s="30" t="s">
         <v>99</v>
@@ -9151,13 +9193,13 @@
       <c r="N269" s="7"/>
       <c r="O269" s="7"/>
       <c r="P269" s="5"/>
-      <c r="Q269" s="46" t="s">
+      <c r="Q269" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="R269" s="46"/>
-      <c r="S269" s="46"/>
-      <c r="T269" s="46"/>
-      <c r="U269" s="46"/>
+      <c r="R269" s="63"/>
+      <c r="S269" s="63"/>
+      <c r="T269" s="63"/>
+      <c r="U269" s="63"/>
       <c r="V269" s="1"/>
     </row>
     <row r="270" spans="1:22" ht="15">
@@ -9174,18 +9216,18 @@
       </c>
       <c r="J270" s="6"/>
       <c r="K270" s="6"/>
-      <c r="L270" s="49" t="s">
+      <c r="L270" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M270" s="49"/>
-      <c r="N270" s="49"/>
-      <c r="O270" s="49"/>
+      <c r="M270" s="57"/>
+      <c r="N270" s="57"/>
+      <c r="O270" s="57"/>
       <c r="P270" s="5"/>
-      <c r="Q270" s="47"/>
-      <c r="R270" s="47"/>
-      <c r="S270" s="47"/>
-      <c r="T270" s="47"/>
-      <c r="U270" s="47"/>
+      <c r="Q270" s="64"/>
+      <c r="R270" s="64"/>
+      <c r="S270" s="64"/>
+      <c r="T270" s="64"/>
+      <c r="U270" s="64"/>
       <c r="V270" s="1"/>
     </row>
     <row r="271" spans="1:22" ht="15">
@@ -9202,18 +9244,18 @@
       </c>
       <c r="J271" s="6"/>
       <c r="K271" s="6"/>
-      <c r="L271" s="49" t="s">
+      <c r="L271" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M271" s="49"/>
-      <c r="N271" s="49"/>
-      <c r="O271" s="49"/>
+      <c r="M271" s="57"/>
+      <c r="N271" s="57"/>
+      <c r="O271" s="57"/>
       <c r="P271" s="5"/>
-      <c r="Q271" s="47"/>
-      <c r="R271" s="47"/>
-      <c r="S271" s="47"/>
-      <c r="T271" s="47"/>
-      <c r="U271" s="47"/>
+      <c r="Q271" s="64"/>
+      <c r="R271" s="64"/>
+      <c r="S271" s="64"/>
+      <c r="T271" s="64"/>
+      <c r="U271" s="64"/>
       <c r="V271" s="1"/>
     </row>
     <row r="272" spans="1:22" ht="15">
@@ -9230,20 +9272,20 @@
       </c>
       <c r="J272" s="6"/>
       <c r="K272" s="6"/>
-      <c r="L272" s="50" t="s">
+      <c r="L272" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="M272" s="50"/>
-      <c r="N272" s="50"/>
-      <c r="O272" s="50"/>
+      <c r="M272" s="55"/>
+      <c r="N272" s="55"/>
+      <c r="O272" s="55"/>
       <c r="P272" s="5"/>
-      <c r="Q272" s="47" t="s">
+      <c r="Q272" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="R272" s="47"/>
-      <c r="S272" s="47"/>
-      <c r="T272" s="47"/>
-      <c r="U272" s="47"/>
+      <c r="R272" s="64"/>
+      <c r="S272" s="64"/>
+      <c r="T272" s="64"/>
+      <c r="U272" s="64"/>
       <c r="V272" s="1"/>
     </row>
     <row r="273" spans="1:22" ht="15">
@@ -9264,31 +9306,31 @@
       </c>
       <c r="J273" s="6"/>
       <c r="K273" s="6"/>
-      <c r="L273" s="50" t="s">
+      <c r="L273" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="M273" s="50"/>
-      <c r="N273" s="50"/>
-      <c r="O273" s="50"/>
+      <c r="M273" s="55"/>
+      <c r="N273" s="55"/>
+      <c r="O273" s="55"/>
       <c r="P273" s="5"/>
-      <c r="Q273" s="47"/>
-      <c r="R273" s="47"/>
-      <c r="S273" s="47"/>
-      <c r="T273" s="47"/>
-      <c r="U273" s="47"/>
+      <c r="Q273" s="64"/>
+      <c r="R273" s="64"/>
+      <c r="S273" s="64"/>
+      <c r="T273" s="64"/>
+      <c r="U273" s="64"/>
       <c r="V273" s="1"/>
     </row>
     <row r="274" spans="1:22" ht="15">
-      <c r="A274" s="51" t="s">
+      <c r="A274" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="B274" s="52"/>
-      <c r="C274" s="52"/>
-      <c r="D274" s="52" t="s">
+      <c r="B274" s="48"/>
+      <c r="C274" s="48"/>
+      <c r="D274" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E274" s="52"/>
-      <c r="F274" s="52"/>
+      <c r="E274" s="48"/>
+      <c r="F274" s="48"/>
       <c r="G274" s="6"/>
       <c r="H274" s="6"/>
       <c r="I274" s="6" t="s">
@@ -9296,27 +9338,27 @@
       </c>
       <c r="J274" s="6"/>
       <c r="K274" s="6"/>
-      <c r="L274" s="50" t="s">
+      <c r="L274" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="M274" s="50"/>
-      <c r="N274" s="50"/>
-      <c r="O274" s="50"/>
+      <c r="M274" s="55"/>
+      <c r="N274" s="55"/>
+      <c r="O274" s="55"/>
       <c r="P274" s="5"/>
-      <c r="Q274" s="47"/>
-      <c r="R274" s="47"/>
-      <c r="S274" s="47"/>
-      <c r="T274" s="47"/>
-      <c r="U274" s="47"/>
+      <c r="Q274" s="64"/>
+      <c r="R274" s="64"/>
+      <c r="S274" s="64"/>
+      <c r="T274" s="64"/>
+      <c r="U274" s="64"/>
       <c r="V274" s="1"/>
     </row>
     <row r="275" spans="1:22" ht="15">
-      <c r="A275" s="51"/>
-      <c r="B275" s="52"/>
-      <c r="C275" s="52"/>
-      <c r="D275" s="52"/>
-      <c r="E275" s="52"/>
-      <c r="F275" s="52"/>
+      <c r="A275" s="56"/>
+      <c r="B275" s="48"/>
+      <c r="C275" s="48"/>
+      <c r="D275" s="48"/>
+      <c r="E275" s="48"/>
+      <c r="F275" s="48"/>
       <c r="G275" s="6"/>
       <c r="H275" s="6"/>
       <c r="I275" s="6" t="s">
@@ -9324,29 +9366,29 @@
       </c>
       <c r="J275" s="6"/>
       <c r="K275" s="6"/>
-      <c r="L275" s="49" t="s">
+      <c r="L275" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M275" s="49"/>
-      <c r="N275" s="49"/>
-      <c r="O275" s="49"/>
+      <c r="M275" s="57"/>
+      <c r="N275" s="57"/>
+      <c r="O275" s="57"/>
       <c r="P275" s="5"/>
-      <c r="Q275" s="47" t="s">
+      <c r="Q275" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="R275" s="47"/>
-      <c r="S275" s="47"/>
-      <c r="T275" s="47"/>
-      <c r="U275" s="47"/>
+      <c r="R275" s="64"/>
+      <c r="S275" s="64"/>
+      <c r="T275" s="64"/>
+      <c r="U275" s="64"/>
       <c r="V275" s="1"/>
     </row>
     <row r="276" spans="1:22" ht="15">
-      <c r="A276" s="51"/>
-      <c r="B276" s="52"/>
-      <c r="C276" s="52"/>
-      <c r="D276" s="52"/>
-      <c r="E276" s="52"/>
-      <c r="F276" s="52"/>
+      <c r="A276" s="56"/>
+      <c r="B276" s="48"/>
+      <c r="C276" s="48"/>
+      <c r="D276" s="48"/>
+      <c r="E276" s="48"/>
+      <c r="F276" s="48"/>
       <c r="G276" s="6"/>
       <c r="H276" s="6"/>
       <c r="I276" s="6"/>
@@ -9357,449 +9399,449 @@
       <c r="N276" s="6"/>
       <c r="O276" s="6"/>
       <c r="P276" s="5"/>
-      <c r="Q276" s="47"/>
-      <c r="R276" s="47"/>
-      <c r="S276" s="47"/>
-      <c r="T276" s="47"/>
-      <c r="U276" s="47"/>
+      <c r="Q276" s="64"/>
+      <c r="R276" s="64"/>
+      <c r="S276" s="64"/>
+      <c r="T276" s="64"/>
+      <c r="U276" s="64"/>
       <c r="V276" s="1"/>
     </row>
     <row r="277" spans="1:22">
-      <c r="A277" s="51"/>
-      <c r="B277" s="52"/>
-      <c r="C277" s="52"/>
-      <c r="D277" s="52"/>
-      <c r="E277" s="52"/>
-      <c r="F277" s="52"/>
-      <c r="G277" s="55" t="s">
+      <c r="A277" s="56"/>
+      <c r="B277" s="48"/>
+      <c r="C277" s="48"/>
+      <c r="D277" s="48"/>
+      <c r="E277" s="48"/>
+      <c r="F277" s="48"/>
+      <c r="G277" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="H277" s="55"/>
-      <c r="I277" s="55"/>
-      <c r="J277" s="55"/>
-      <c r="K277" s="55"/>
-      <c r="L277" s="55"/>
-      <c r="M277" s="55"/>
-      <c r="N277" s="55"/>
-      <c r="O277" s="55"/>
+      <c r="H277" s="58"/>
+      <c r="I277" s="58"/>
+      <c r="J277" s="58"/>
+      <c r="K277" s="58"/>
+      <c r="L277" s="58"/>
+      <c r="M277" s="58"/>
+      <c r="N277" s="58"/>
+      <c r="O277" s="58"/>
       <c r="P277" s="5"/>
-      <c r="Q277" s="47"/>
-      <c r="R277" s="47"/>
-      <c r="S277" s="47"/>
-      <c r="T277" s="47"/>
-      <c r="U277" s="47"/>
+      <c r="Q277" s="64"/>
+      <c r="R277" s="64"/>
+      <c r="S277" s="64"/>
+      <c r="T277" s="64"/>
+      <c r="U277" s="64"/>
       <c r="V277" s="1"/>
     </row>
     <row r="278" spans="1:22">
-      <c r="A278" s="51" t="s">
+      <c r="A278" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="B278" s="52"/>
-      <c r="C278" s="52"/>
-      <c r="D278" s="52" t="s">
+      <c r="B278" s="48"/>
+      <c r="C278" s="48"/>
+      <c r="D278" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E278" s="52"/>
-      <c r="F278" s="52"/>
-      <c r="G278" s="56" t="s">
+      <c r="E278" s="48"/>
+      <c r="F278" s="48"/>
+      <c r="G278" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H278" s="56"/>
-      <c r="I278" s="56"/>
-      <c r="J278" s="56" t="s">
+      <c r="H278" s="59"/>
+      <c r="I278" s="59"/>
+      <c r="J278" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="K278" s="56"/>
-      <c r="L278" s="56" t="s">
+      <c r="K278" s="59"/>
+      <c r="L278" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="M278" s="56"/>
-      <c r="N278" s="56" t="s">
+      <c r="M278" s="59"/>
+      <c r="N278" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="O278" s="56"/>
+      <c r="O278" s="59"/>
       <c r="P278" s="5"/>
-      <c r="Q278" s="47" t="s">
+      <c r="Q278" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="R278" s="47"/>
-      <c r="S278" s="47"/>
-      <c r="T278" s="47"/>
-      <c r="U278" s="47"/>
+      <c r="R278" s="64"/>
+      <c r="S278" s="64"/>
+      <c r="T278" s="64"/>
+      <c r="U278" s="64"/>
       <c r="V278" s="1"/>
     </row>
     <row r="279" spans="1:22">
-      <c r="A279" s="51"/>
-      <c r="B279" s="52"/>
-      <c r="C279" s="52"/>
-      <c r="D279" s="52"/>
-      <c r="E279" s="52"/>
-      <c r="F279" s="52"/>
-      <c r="G279" s="44" t="s">
+      <c r="A279" s="56"/>
+      <c r="B279" s="48"/>
+      <c r="C279" s="48"/>
+      <c r="D279" s="48"/>
+      <c r="E279" s="48"/>
+      <c r="F279" s="48"/>
+      <c r="G279" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H279" s="44"/>
-      <c r="I279" s="44"/>
-      <c r="J279" s="45">
+      <c r="H279" s="60"/>
+      <c r="I279" s="60"/>
+      <c r="J279" s="61">
         <v>45568</v>
       </c>
-      <c r="K279" s="44"/>
-      <c r="L279" s="44" t="s">
+      <c r="K279" s="60"/>
+      <c r="L279" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="M279" s="44"/>
-      <c r="N279" s="44" t="s">
+      <c r="M279" s="60"/>
+      <c r="N279" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="O279" s="44"/>
+      <c r="O279" s="60"/>
       <c r="P279" s="5"/>
-      <c r="Q279" s="47"/>
-      <c r="R279" s="47"/>
-      <c r="S279" s="47"/>
-      <c r="T279" s="47"/>
-      <c r="U279" s="47"/>
+      <c r="Q279" s="64"/>
+      <c r="R279" s="64"/>
+      <c r="S279" s="64"/>
+      <c r="T279" s="64"/>
+      <c r="U279" s="64"/>
       <c r="V279" s="1"/>
     </row>
     <row r="280" spans="1:22">
-      <c r="A280" s="51"/>
-      <c r="B280" s="52"/>
-      <c r="C280" s="52"/>
-      <c r="D280" s="52"/>
-      <c r="E280" s="52"/>
-      <c r="F280" s="52"/>
-      <c r="G280" s="44" t="s">
+      <c r="A280" s="56"/>
+      <c r="B280" s="48"/>
+      <c r="C280" s="48"/>
+      <c r="D280" s="48"/>
+      <c r="E280" s="48"/>
+      <c r="F280" s="48"/>
+      <c r="G280" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="H280" s="44"/>
-      <c r="I280" s="44"/>
-      <c r="J280" s="45">
+      <c r="H280" s="60"/>
+      <c r="I280" s="60"/>
+      <c r="J280" s="61">
         <v>45568</v>
       </c>
-      <c r="K280" s="44"/>
-      <c r="L280" s="44" t="s">
+      <c r="K280" s="60"/>
+      <c r="L280" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="M280" s="44"/>
-      <c r="N280" s="44" t="s">
+      <c r="M280" s="60"/>
+      <c r="N280" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="O280" s="44"/>
+      <c r="O280" s="60"/>
       <c r="P280" s="5"/>
-      <c r="Q280" s="47"/>
-      <c r="R280" s="47"/>
-      <c r="S280" s="47"/>
-      <c r="T280" s="47"/>
-      <c r="U280" s="47"/>
+      <c r="Q280" s="64"/>
+      <c r="R280" s="64"/>
+      <c r="S280" s="64"/>
+      <c r="T280" s="64"/>
+      <c r="U280" s="64"/>
       <c r="V280" s="1"/>
     </row>
     <row r="281" spans="1:22">
-      <c r="A281" s="51"/>
-      <c r="B281" s="52"/>
-      <c r="C281" s="52"/>
-      <c r="D281" s="52"/>
-      <c r="E281" s="52"/>
-      <c r="F281" s="52"/>
-      <c r="G281" s="44" t="s">
+      <c r="A281" s="56"/>
+      <c r="B281" s="48"/>
+      <c r="C281" s="48"/>
+      <c r="D281" s="48"/>
+      <c r="E281" s="48"/>
+      <c r="F281" s="48"/>
+      <c r="G281" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="H281" s="44"/>
-      <c r="I281" s="44"/>
-      <c r="J281" s="45">
+      <c r="H281" s="60"/>
+      <c r="I281" s="60"/>
+      <c r="J281" s="61">
         <v>45568</v>
       </c>
-      <c r="K281" s="44"/>
-      <c r="L281" s="44" t="s">
+      <c r="K281" s="60"/>
+      <c r="L281" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="M281" s="44"/>
-      <c r="N281" s="44" t="s">
+      <c r="M281" s="60"/>
+      <c r="N281" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="O281" s="44"/>
+      <c r="O281" s="60"/>
       <c r="P281" s="5"/>
-      <c r="Q281" s="47"/>
-      <c r="R281" s="47"/>
-      <c r="S281" s="47"/>
-      <c r="T281" s="47"/>
-      <c r="U281" s="47"/>
+      <c r="Q281" s="64"/>
+      <c r="R281" s="64"/>
+      <c r="S281" s="64"/>
+      <c r="T281" s="64"/>
+      <c r="U281" s="64"/>
       <c r="V281" s="1"/>
     </row>
     <row r="282" spans="1:22">
-      <c r="A282" s="51" t="s">
+      <c r="A282" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="B282" s="52"/>
-      <c r="C282" s="52"/>
-      <c r="D282" s="52" t="s">
+      <c r="B282" s="48"/>
+      <c r="C282" s="48"/>
+      <c r="D282" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E282" s="52"/>
-      <c r="F282" s="52"/>
-      <c r="G282" s="44" t="s">
+      <c r="E282" s="48"/>
+      <c r="F282" s="48"/>
+      <c r="G282" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H282" s="44"/>
-      <c r="I282" s="44"/>
-      <c r="J282" s="45">
+      <c r="H282" s="60"/>
+      <c r="I282" s="60"/>
+      <c r="J282" s="61">
         <v>45568</v>
       </c>
-      <c r="K282" s="44"/>
-      <c r="L282" s="44" t="s">
+      <c r="K282" s="60"/>
+      <c r="L282" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="M282" s="44"/>
-      <c r="N282" s="44" t="s">
+      <c r="M282" s="60"/>
+      <c r="N282" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="O282" s="44"/>
+      <c r="O282" s="60"/>
       <c r="P282" s="5"/>
-      <c r="Q282" s="47"/>
-      <c r="R282" s="47"/>
-      <c r="S282" s="47"/>
-      <c r="T282" s="47"/>
-      <c r="U282" s="47"/>
+      <c r="Q282" s="64"/>
+      <c r="R282" s="64"/>
+      <c r="S282" s="64"/>
+      <c r="T282" s="64"/>
+      <c r="U282" s="64"/>
       <c r="V282" s="1"/>
     </row>
     <row r="283" spans="1:22" ht="15">
-      <c r="A283" s="51"/>
-      <c r="B283" s="52"/>
-      <c r="C283" s="52"/>
-      <c r="D283" s="52"/>
-      <c r="E283" s="52"/>
-      <c r="F283" s="52"/>
-      <c r="G283" s="43"/>
-      <c r="H283" s="43"/>
-      <c r="I283" s="43"/>
-      <c r="J283" s="44"/>
-      <c r="K283" s="44"/>
-      <c r="L283" s="44"/>
-      <c r="M283" s="44"/>
-      <c r="N283" s="44"/>
-      <c r="O283" s="44"/>
+      <c r="A283" s="56"/>
+      <c r="B283" s="48"/>
+      <c r="C283" s="48"/>
+      <c r="D283" s="48"/>
+      <c r="E283" s="48"/>
+      <c r="F283" s="48"/>
+      <c r="G283" s="62"/>
+      <c r="H283" s="62"/>
+      <c r="I283" s="62"/>
+      <c r="J283" s="60"/>
+      <c r="K283" s="60"/>
+      <c r="L283" s="60"/>
+      <c r="M283" s="60"/>
+      <c r="N283" s="60"/>
+      <c r="O283" s="60"/>
       <c r="P283" s="5"/>
-      <c r="Q283" s="47"/>
-      <c r="R283" s="47"/>
-      <c r="S283" s="47"/>
-      <c r="T283" s="47"/>
-      <c r="U283" s="47"/>
+      <c r="Q283" s="64"/>
+      <c r="R283" s="64"/>
+      <c r="S283" s="64"/>
+      <c r="T283" s="64"/>
+      <c r="U283" s="64"/>
       <c r="V283" s="1"/>
     </row>
     <row r="284" spans="1:22">
-      <c r="A284" s="51"/>
-      <c r="B284" s="52"/>
-      <c r="C284" s="52"/>
-      <c r="D284" s="52"/>
-      <c r="E284" s="52"/>
-      <c r="F284" s="52"/>
-      <c r="G284" s="44"/>
-      <c r="H284" s="44"/>
-      <c r="I284" s="44"/>
-      <c r="J284" s="45"/>
-      <c r="K284" s="44"/>
-      <c r="L284" s="44"/>
-      <c r="M284" s="44"/>
-      <c r="N284" s="44"/>
-      <c r="O284" s="44"/>
+      <c r="A284" s="56"/>
+      <c r="B284" s="48"/>
+      <c r="C284" s="48"/>
+      <c r="D284" s="48"/>
+      <c r="E284" s="48"/>
+      <c r="F284" s="48"/>
+      <c r="G284" s="60"/>
+      <c r="H284" s="60"/>
+      <c r="I284" s="60"/>
+      <c r="J284" s="61"/>
+      <c r="K284" s="60"/>
+      <c r="L284" s="60"/>
+      <c r="M284" s="60"/>
+      <c r="N284" s="60"/>
+      <c r="O284" s="60"/>
       <c r="P284" s="5"/>
-      <c r="Q284" s="47"/>
-      <c r="R284" s="47"/>
-      <c r="S284" s="47"/>
-      <c r="T284" s="47"/>
-      <c r="U284" s="47"/>
+      <c r="Q284" s="64"/>
+      <c r="R284" s="64"/>
+      <c r="S284" s="64"/>
+      <c r="T284" s="64"/>
+      <c r="U284" s="64"/>
       <c r="V284" s="1"/>
     </row>
     <row r="285" spans="1:22">
-      <c r="A285" s="51"/>
-      <c r="B285" s="52"/>
-      <c r="C285" s="52"/>
-      <c r="D285" s="52"/>
-      <c r="E285" s="52"/>
-      <c r="F285" s="52"/>
-      <c r="G285" s="44"/>
-      <c r="H285" s="44"/>
-      <c r="I285" s="44"/>
-      <c r="J285" s="45"/>
-      <c r="K285" s="44"/>
-      <c r="L285" s="44"/>
-      <c r="M285" s="44"/>
-      <c r="N285" s="44"/>
-      <c r="O285" s="44"/>
+      <c r="A285" s="56"/>
+      <c r="B285" s="48"/>
+      <c r="C285" s="48"/>
+      <c r="D285" s="48"/>
+      <c r="E285" s="48"/>
+      <c r="F285" s="48"/>
+      <c r="G285" s="60"/>
+      <c r="H285" s="60"/>
+      <c r="I285" s="60"/>
+      <c r="J285" s="61"/>
+      <c r="K285" s="60"/>
+      <c r="L285" s="60"/>
+      <c r="M285" s="60"/>
+      <c r="N285" s="60"/>
+      <c r="O285" s="60"/>
       <c r="P285" s="5"/>
-      <c r="Q285" s="47"/>
-      <c r="R285" s="47"/>
-      <c r="S285" s="47"/>
-      <c r="T285" s="47"/>
-      <c r="U285" s="47"/>
+      <c r="Q285" s="64"/>
+      <c r="R285" s="64"/>
+      <c r="S285" s="64"/>
+      <c r="T285" s="64"/>
+      <c r="U285" s="64"/>
       <c r="V285" s="1"/>
     </row>
     <row r="286" spans="1:22" ht="15">
-      <c r="A286" s="51" t="s">
+      <c r="A286" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="B286" s="52"/>
-      <c r="C286" s="52"/>
-      <c r="D286" s="52" t="s">
+      <c r="B286" s="48"/>
+      <c r="C286" s="48"/>
+      <c r="D286" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="E286" s="52"/>
-      <c r="F286" s="52"/>
-      <c r="G286" s="43"/>
-      <c r="H286" s="43"/>
-      <c r="I286" s="43"/>
-      <c r="J286" s="44"/>
-      <c r="K286" s="44"/>
-      <c r="L286" s="44"/>
-      <c r="M286" s="44"/>
-      <c r="N286" s="44"/>
-      <c r="O286" s="44"/>
+      <c r="E286" s="48"/>
+      <c r="F286" s="48"/>
+      <c r="G286" s="62"/>
+      <c r="H286" s="62"/>
+      <c r="I286" s="62"/>
+      <c r="J286" s="60"/>
+      <c r="K286" s="60"/>
+      <c r="L286" s="60"/>
+      <c r="M286" s="60"/>
+      <c r="N286" s="60"/>
+      <c r="O286" s="60"/>
       <c r="P286" s="5"/>
-      <c r="Q286" s="47"/>
-      <c r="R286" s="47"/>
-      <c r="S286" s="47"/>
-      <c r="T286" s="47"/>
-      <c r="U286" s="47"/>
+      <c r="Q286" s="64"/>
+      <c r="R286" s="64"/>
+      <c r="S286" s="64"/>
+      <c r="T286" s="64"/>
+      <c r="U286" s="64"/>
       <c r="V286" s="1"/>
     </row>
     <row r="287" spans="1:22">
-      <c r="A287" s="51"/>
-      <c r="B287" s="52"/>
-      <c r="C287" s="52"/>
-      <c r="D287" s="52"/>
-      <c r="E287" s="52"/>
-      <c r="F287" s="52"/>
-      <c r="G287" s="44"/>
-      <c r="H287" s="44"/>
-      <c r="I287" s="44"/>
-      <c r="J287" s="45"/>
-      <c r="K287" s="44"/>
-      <c r="L287" s="44"/>
-      <c r="M287" s="44"/>
-      <c r="N287" s="44"/>
-      <c r="O287" s="44"/>
+      <c r="A287" s="56"/>
+      <c r="B287" s="48"/>
+      <c r="C287" s="48"/>
+      <c r="D287" s="48"/>
+      <c r="E287" s="48"/>
+      <c r="F287" s="48"/>
+      <c r="G287" s="60"/>
+      <c r="H287" s="60"/>
+      <c r="I287" s="60"/>
+      <c r="J287" s="61"/>
+      <c r="K287" s="60"/>
+      <c r="L287" s="60"/>
+      <c r="M287" s="60"/>
+      <c r="N287" s="60"/>
+      <c r="O287" s="60"/>
       <c r="P287" s="5"/>
-      <c r="Q287" s="47"/>
-      <c r="R287" s="47"/>
-      <c r="S287" s="47"/>
-      <c r="T287" s="47"/>
-      <c r="U287" s="47"/>
+      <c r="Q287" s="64"/>
+      <c r="R287" s="64"/>
+      <c r="S287" s="64"/>
+      <c r="T287" s="64"/>
+      <c r="U287" s="64"/>
       <c r="V287" s="1"/>
     </row>
     <row r="288" spans="1:22">
-      <c r="A288" s="51"/>
-      <c r="B288" s="52"/>
-      <c r="C288" s="52"/>
-      <c r="D288" s="52"/>
-      <c r="E288" s="52"/>
-      <c r="F288" s="52"/>
-      <c r="G288" s="44"/>
-      <c r="H288" s="44"/>
-      <c r="I288" s="44"/>
-      <c r="J288" s="45"/>
-      <c r="K288" s="44"/>
-      <c r="L288" s="44"/>
-      <c r="M288" s="44"/>
-      <c r="N288" s="44"/>
-      <c r="O288" s="44"/>
+      <c r="A288" s="56"/>
+      <c r="B288" s="48"/>
+      <c r="C288" s="48"/>
+      <c r="D288" s="48"/>
+      <c r="E288" s="48"/>
+      <c r="F288" s="48"/>
+      <c r="G288" s="60"/>
+      <c r="H288" s="60"/>
+      <c r="I288" s="60"/>
+      <c r="J288" s="61"/>
+      <c r="K288" s="60"/>
+      <c r="L288" s="60"/>
+      <c r="M288" s="60"/>
+      <c r="N288" s="60"/>
+      <c r="O288" s="60"/>
       <c r="P288" s="5"/>
-      <c r="Q288" s="47"/>
-      <c r="R288" s="47"/>
-      <c r="S288" s="47"/>
-      <c r="T288" s="47"/>
-      <c r="U288" s="47"/>
+      <c r="Q288" s="64"/>
+      <c r="R288" s="64"/>
+      <c r="S288" s="64"/>
+      <c r="T288" s="64"/>
+      <c r="U288" s="64"/>
       <c r="V288" s="1"/>
     </row>
     <row r="289" spans="1:22" ht="15">
-      <c r="A289" s="51"/>
-      <c r="B289" s="52"/>
-      <c r="C289" s="52"/>
-      <c r="D289" s="52"/>
-      <c r="E289" s="52"/>
-      <c r="F289" s="52"/>
-      <c r="G289" s="43"/>
-      <c r="H289" s="43"/>
-      <c r="I289" s="43"/>
-      <c r="J289" s="44"/>
-      <c r="K289" s="44"/>
-      <c r="L289" s="44"/>
-      <c r="M289" s="44"/>
-      <c r="N289" s="44"/>
-      <c r="O289" s="44"/>
+      <c r="A289" s="56"/>
+      <c r="B289" s="48"/>
+      <c r="C289" s="48"/>
+      <c r="D289" s="48"/>
+      <c r="E289" s="48"/>
+      <c r="F289" s="48"/>
+      <c r="G289" s="62"/>
+      <c r="H289" s="62"/>
+      <c r="I289" s="62"/>
+      <c r="J289" s="60"/>
+      <c r="K289" s="60"/>
+      <c r="L289" s="60"/>
+      <c r="M289" s="60"/>
+      <c r="N289" s="60"/>
+      <c r="O289" s="60"/>
       <c r="P289" s="5"/>
-      <c r="Q289" s="47"/>
-      <c r="R289" s="47"/>
-      <c r="S289" s="47"/>
-      <c r="T289" s="47"/>
-      <c r="U289" s="47"/>
+      <c r="Q289" s="64"/>
+      <c r="R289" s="64"/>
+      <c r="S289" s="64"/>
+      <c r="T289" s="64"/>
+      <c r="U289" s="64"/>
       <c r="V289" s="1"/>
     </row>
     <row r="290" spans="1:22">
-      <c r="A290" s="51" t="s">
+      <c r="A290" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="B290" s="52"/>
-      <c r="C290" s="52"/>
-      <c r="D290" s="52" t="s">
+      <c r="B290" s="48"/>
+      <c r="C290" s="48"/>
+      <c r="D290" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="E290" s="52"/>
-      <c r="F290" s="52"/>
-      <c r="G290" s="44"/>
-      <c r="H290" s="44"/>
-      <c r="I290" s="44"/>
-      <c r="J290" s="45"/>
-      <c r="K290" s="44"/>
-      <c r="L290" s="44"/>
-      <c r="M290" s="44"/>
-      <c r="N290" s="44"/>
-      <c r="O290" s="44"/>
+      <c r="E290" s="48"/>
+      <c r="F290" s="48"/>
+      <c r="G290" s="60"/>
+      <c r="H290" s="60"/>
+      <c r="I290" s="60"/>
+      <c r="J290" s="61"/>
+      <c r="K290" s="60"/>
+      <c r="L290" s="60"/>
+      <c r="M290" s="60"/>
+      <c r="N290" s="60"/>
+      <c r="O290" s="60"/>
       <c r="P290" s="5"/>
-      <c r="Q290" s="47"/>
-      <c r="R290" s="47"/>
-      <c r="S290" s="47"/>
-      <c r="T290" s="47"/>
-      <c r="U290" s="47"/>
+      <c r="Q290" s="64"/>
+      <c r="R290" s="64"/>
+      <c r="S290" s="64"/>
+      <c r="T290" s="64"/>
+      <c r="U290" s="64"/>
       <c r="V290" s="1"/>
     </row>
     <row r="291" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A291" s="51"/>
-      <c r="B291" s="52"/>
-      <c r="C291" s="52"/>
-      <c r="D291" s="52"/>
-      <c r="E291" s="52"/>
-      <c r="F291" s="52"/>
-      <c r="G291" s="43"/>
-      <c r="H291" s="43"/>
-      <c r="I291" s="43"/>
-      <c r="J291" s="44"/>
-      <c r="K291" s="44"/>
-      <c r="L291" s="44"/>
-      <c r="M291" s="44"/>
-      <c r="N291" s="44"/>
-      <c r="O291" s="44"/>
+      <c r="A291" s="56"/>
+      <c r="B291" s="48"/>
+      <c r="C291" s="48"/>
+      <c r="D291" s="48"/>
+      <c r="E291" s="48"/>
+      <c r="F291" s="48"/>
+      <c r="G291" s="62"/>
+      <c r="H291" s="62"/>
+      <c r="I291" s="62"/>
+      <c r="J291" s="60"/>
+      <c r="K291" s="60"/>
+      <c r="L291" s="60"/>
+      <c r="M291" s="60"/>
+      <c r="N291" s="60"/>
+      <c r="O291" s="60"/>
       <c r="P291" s="5"/>
-      <c r="Q291" s="48"/>
-      <c r="R291" s="48"/>
-      <c r="S291" s="48"/>
-      <c r="T291" s="48"/>
-      <c r="U291" s="48"/>
+      <c r="Q291" s="65"/>
+      <c r="R291" s="65"/>
+      <c r="S291" s="65"/>
+      <c r="T291" s="65"/>
+      <c r="U291" s="65"/>
       <c r="V291" s="1"/>
     </row>
     <row r="292" spans="1:22">
-      <c r="A292" s="51"/>
-      <c r="B292" s="52"/>
-      <c r="C292" s="52"/>
-      <c r="D292" s="52"/>
-      <c r="E292" s="52"/>
-      <c r="F292" s="52"/>
-      <c r="G292" s="44"/>
-      <c r="H292" s="44"/>
-      <c r="I292" s="44"/>
-      <c r="J292" s="45"/>
-      <c r="K292" s="44"/>
-      <c r="L292" s="44"/>
-      <c r="M292" s="44"/>
-      <c r="N292" s="44"/>
-      <c r="O292" s="44"/>
+      <c r="A292" s="56"/>
+      <c r="B292" s="48"/>
+      <c r="C292" s="48"/>
+      <c r="D292" s="48"/>
+      <c r="E292" s="48"/>
+      <c r="F292" s="48"/>
+      <c r="G292" s="60"/>
+      <c r="H292" s="60"/>
+      <c r="I292" s="60"/>
+      <c r="J292" s="61"/>
+      <c r="K292" s="60"/>
+      <c r="L292" s="60"/>
+      <c r="M292" s="60"/>
+      <c r="N292" s="60"/>
+      <c r="O292" s="60"/>
       <c r="P292" s="5"/>
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
@@ -9809,21 +9851,21 @@
       <c r="V292" s="1"/>
     </row>
     <row r="293" spans="1:22" ht="15">
-      <c r="A293" s="51"/>
-      <c r="B293" s="52"/>
-      <c r="C293" s="52"/>
-      <c r="D293" s="52"/>
-      <c r="E293" s="52"/>
-      <c r="F293" s="52"/>
-      <c r="G293" s="43"/>
-      <c r="H293" s="43"/>
-      <c r="I293" s="43"/>
-      <c r="J293" s="44"/>
-      <c r="K293" s="44"/>
-      <c r="L293" s="44"/>
-      <c r="M293" s="44"/>
-      <c r="N293" s="44"/>
-      <c r="O293" s="44"/>
+      <c r="A293" s="56"/>
+      <c r="B293" s="48"/>
+      <c r="C293" s="48"/>
+      <c r="D293" s="48"/>
+      <c r="E293" s="48"/>
+      <c r="F293" s="48"/>
+      <c r="G293" s="62"/>
+      <c r="H293" s="62"/>
+      <c r="I293" s="62"/>
+      <c r="J293" s="60"/>
+      <c r="K293" s="60"/>
+      <c r="L293" s="60"/>
+      <c r="M293" s="60"/>
+      <c r="N293" s="60"/>
+      <c r="O293" s="60"/>
       <c r="P293" s="5"/>
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
@@ -9891,19 +9933,19 @@
       <c r="B297" s="28"/>
       <c r="C297" s="28"/>
       <c r="D297" s="28"/>
-      <c r="E297" s="29" t="s">
+      <c r="E297" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F297" s="29"/>
-      <c r="G297" s="29"/>
-      <c r="H297" s="29"/>
-      <c r="I297" s="29"/>
-      <c r="J297" s="29"/>
-      <c r="K297" s="29"/>
-      <c r="L297" s="29"/>
-      <c r="M297" s="29"/>
-      <c r="N297" s="29"/>
-      <c r="O297" s="29"/>
+      <c r="F297" s="43"/>
+      <c r="G297" s="43"/>
+      <c r="H297" s="43"/>
+      <c r="I297" s="43"/>
+      <c r="J297" s="43"/>
+      <c r="K297" s="43"/>
+      <c r="L297" s="43"/>
+      <c r="M297" s="43"/>
+      <c r="N297" s="43"/>
+      <c r="O297" s="43"/>
       <c r="P297" s="5"/>
     </row>
     <row r="298" spans="1:22">
@@ -9911,17 +9953,17 @@
       <c r="B298" s="28"/>
       <c r="C298" s="28"/>
       <c r="D298" s="28"/>
-      <c r="E298" s="29"/>
-      <c r="F298" s="29"/>
-      <c r="G298" s="29"/>
-      <c r="H298" s="29"/>
-      <c r="I298" s="29"/>
-      <c r="J298" s="29"/>
-      <c r="K298" s="29"/>
-      <c r="L298" s="29"/>
-      <c r="M298" s="29"/>
-      <c r="N298" s="29"/>
-      <c r="O298" s="29"/>
+      <c r="E298" s="43"/>
+      <c r="F298" s="43"/>
+      <c r="G298" s="43"/>
+      <c r="H298" s="43"/>
+      <c r="I298" s="43"/>
+      <c r="J298" s="43"/>
+      <c r="K298" s="43"/>
+      <c r="L298" s="43"/>
+      <c r="M298" s="43"/>
+      <c r="N298" s="43"/>
+      <c r="O298" s="43"/>
       <c r="P298" s="5"/>
     </row>
     <row r="299" spans="1:22">
@@ -9929,17 +9971,17 @@
       <c r="B299" s="28"/>
       <c r="C299" s="28"/>
       <c r="D299" s="28"/>
-      <c r="E299" s="29"/>
-      <c r="F299" s="29"/>
-      <c r="G299" s="29"/>
-      <c r="H299" s="29"/>
-      <c r="I299" s="29"/>
-      <c r="J299" s="29"/>
-      <c r="K299" s="29"/>
-      <c r="L299" s="29"/>
-      <c r="M299" s="29"/>
-      <c r="N299" s="29"/>
-      <c r="O299" s="29"/>
+      <c r="E299" s="43"/>
+      <c r="F299" s="43"/>
+      <c r="G299" s="43"/>
+      <c r="H299" s="43"/>
+      <c r="I299" s="43"/>
+      <c r="J299" s="43"/>
+      <c r="K299" s="43"/>
+      <c r="L299" s="43"/>
+      <c r="M299" s="43"/>
+      <c r="N299" s="43"/>
+      <c r="O299" s="43"/>
       <c r="P299" s="5"/>
     </row>
     <row r="300" spans="1:22">
@@ -9947,17 +9989,17 @@
       <c r="B300" s="28"/>
       <c r="C300" s="28"/>
       <c r="D300" s="28"/>
-      <c r="E300" s="29"/>
-      <c r="F300" s="29"/>
-      <c r="G300" s="29"/>
-      <c r="H300" s="29"/>
-      <c r="I300" s="29"/>
-      <c r="J300" s="29"/>
-      <c r="K300" s="29"/>
-      <c r="L300" s="29"/>
-      <c r="M300" s="29"/>
-      <c r="N300" s="29"/>
-      <c r="O300" s="29"/>
+      <c r="E300" s="43"/>
+      <c r="F300" s="43"/>
+      <c r="G300" s="43"/>
+      <c r="H300" s="43"/>
+      <c r="I300" s="43"/>
+      <c r="J300" s="43"/>
+      <c r="K300" s="43"/>
+      <c r="L300" s="43"/>
+      <c r="M300" s="43"/>
+      <c r="N300" s="43"/>
+      <c r="O300" s="43"/>
       <c r="P300" s="5"/>
     </row>
     <row r="301" spans="1:22" ht="18">
@@ -10083,16 +10125,16 @@
       <c r="P306" s="5"/>
     </row>
     <row r="307" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A307" s="34" t="s">
+      <c r="A307" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B307" s="35"/>
-      <c r="C307" s="36"/>
-      <c r="D307" s="37" t="s">
+      <c r="B307" s="34"/>
+      <c r="C307" s="35"/>
+      <c r="D307" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E307" s="35"/>
-      <c r="F307" s="36"/>
+      <c r="E307" s="34"/>
+      <c r="F307" s="35"/>
       <c r="G307" s="6"/>
       <c r="H307" s="6"/>
       <c r="I307" s="6" t="s">
@@ -10445,19 +10487,19 @@
       <c r="B323" s="28"/>
       <c r="C323" s="28"/>
       <c r="D323" s="28"/>
-      <c r="E323" s="29" t="s">
+      <c r="E323" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F323" s="29"/>
-      <c r="G323" s="29"/>
-      <c r="H323" s="29"/>
-      <c r="I323" s="29"/>
-      <c r="J323" s="29"/>
-      <c r="K323" s="29"/>
-      <c r="L323" s="29"/>
-      <c r="M323" s="29"/>
-      <c r="N323" s="29"/>
-      <c r="O323" s="29"/>
+      <c r="F323" s="43"/>
+      <c r="G323" s="43"/>
+      <c r="H323" s="43"/>
+      <c r="I323" s="43"/>
+      <c r="J323" s="43"/>
+      <c r="K323" s="43"/>
+      <c r="L323" s="43"/>
+      <c r="M323" s="43"/>
+      <c r="N323" s="43"/>
+      <c r="O323" s="43"/>
       <c r="P323" s="5"/>
     </row>
     <row r="324" spans="1:16" ht="14.45" customHeight="1">
@@ -10465,17 +10507,17 @@
       <c r="B324" s="28"/>
       <c r="C324" s="28"/>
       <c r="D324" s="28"/>
-      <c r="E324" s="29"/>
-      <c r="F324" s="29"/>
-      <c r="G324" s="29"/>
-      <c r="H324" s="29"/>
-      <c r="I324" s="29"/>
-      <c r="J324" s="29"/>
-      <c r="K324" s="29"/>
-      <c r="L324" s="29"/>
-      <c r="M324" s="29"/>
-      <c r="N324" s="29"/>
-      <c r="O324" s="29"/>
+      <c r="E324" s="43"/>
+      <c r="F324" s="43"/>
+      <c r="G324" s="43"/>
+      <c r="H324" s="43"/>
+      <c r="I324" s="43"/>
+      <c r="J324" s="43"/>
+      <c r="K324" s="43"/>
+      <c r="L324" s="43"/>
+      <c r="M324" s="43"/>
+      <c r="N324" s="43"/>
+      <c r="O324" s="43"/>
       <c r="P324" s="5"/>
     </row>
     <row r="325" spans="1:16">
@@ -10483,17 +10525,17 @@
       <c r="B325" s="28"/>
       <c r="C325" s="28"/>
       <c r="D325" s="28"/>
-      <c r="E325" s="29"/>
-      <c r="F325" s="29"/>
-      <c r="G325" s="29"/>
-      <c r="H325" s="29"/>
-      <c r="I325" s="29"/>
-      <c r="J325" s="29"/>
-      <c r="K325" s="29"/>
-      <c r="L325" s="29"/>
-      <c r="M325" s="29"/>
-      <c r="N325" s="29"/>
-      <c r="O325" s="29"/>
+      <c r="E325" s="43"/>
+      <c r="F325" s="43"/>
+      <c r="G325" s="43"/>
+      <c r="H325" s="43"/>
+      <c r="I325" s="43"/>
+      <c r="J325" s="43"/>
+      <c r="K325" s="43"/>
+      <c r="L325" s="43"/>
+      <c r="M325" s="43"/>
+      <c r="N325" s="43"/>
+      <c r="O325" s="43"/>
       <c r="P325" s="5"/>
     </row>
     <row r="326" spans="1:16">
@@ -10501,17 +10543,17 @@
       <c r="B326" s="28"/>
       <c r="C326" s="28"/>
       <c r="D326" s="28"/>
-      <c r="E326" s="29"/>
-      <c r="F326" s="29"/>
-      <c r="G326" s="29"/>
-      <c r="H326" s="29"/>
-      <c r="I326" s="29"/>
-      <c r="J326" s="29"/>
-      <c r="K326" s="29"/>
-      <c r="L326" s="29"/>
-      <c r="M326" s="29"/>
-      <c r="N326" s="29"/>
-      <c r="O326" s="29"/>
+      <c r="E326" s="43"/>
+      <c r="F326" s="43"/>
+      <c r="G326" s="43"/>
+      <c r="H326" s="43"/>
+      <c r="I326" s="43"/>
+      <c r="J326" s="43"/>
+      <c r="K326" s="43"/>
+      <c r="L326" s="43"/>
+      <c r="M326" s="43"/>
+      <c r="N326" s="43"/>
+      <c r="O326" s="43"/>
       <c r="P326" s="5"/>
     </row>
     <row r="327" spans="1:16" ht="15" customHeight="1">
@@ -10637,16 +10679,16 @@
       <c r="P332" s="5"/>
     </row>
     <row r="333" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A333" s="34" t="s">
+      <c r="A333" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B333" s="35"/>
-      <c r="C333" s="36"/>
-      <c r="D333" s="37" t="s">
+      <c r="B333" s="34"/>
+      <c r="C333" s="35"/>
+      <c r="D333" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E333" s="35"/>
-      <c r="F333" s="36"/>
+      <c r="E333" s="34"/>
+      <c r="F333" s="35"/>
       <c r="G333" s="6"/>
       <c r="H333" s="6"/>
       <c r="I333" s="6" t="s">
@@ -10999,19 +11041,19 @@
       <c r="B349" s="28"/>
       <c r="C349" s="28"/>
       <c r="D349" s="28"/>
-      <c r="E349" s="29" t="s">
+      <c r="E349" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F349" s="29"/>
-      <c r="G349" s="29"/>
-      <c r="H349" s="29"/>
-      <c r="I349" s="29"/>
-      <c r="J349" s="29"/>
-      <c r="K349" s="29"/>
-      <c r="L349" s="29"/>
-      <c r="M349" s="29"/>
-      <c r="N349" s="29"/>
-      <c r="O349" s="29"/>
+      <c r="F349" s="43"/>
+      <c r="G349" s="43"/>
+      <c r="H349" s="43"/>
+      <c r="I349" s="43"/>
+      <c r="J349" s="43"/>
+      <c r="K349" s="43"/>
+      <c r="L349" s="43"/>
+      <c r="M349" s="43"/>
+      <c r="N349" s="43"/>
+      <c r="O349" s="43"/>
       <c r="P349" s="5"/>
     </row>
     <row r="350" spans="1:16">
@@ -11019,17 +11061,17 @@
       <c r="B350" s="28"/>
       <c r="C350" s="28"/>
       <c r="D350" s="28"/>
-      <c r="E350" s="29"/>
-      <c r="F350" s="29"/>
-      <c r="G350" s="29"/>
-      <c r="H350" s="29"/>
-      <c r="I350" s="29"/>
-      <c r="J350" s="29"/>
-      <c r="K350" s="29"/>
-      <c r="L350" s="29"/>
-      <c r="M350" s="29"/>
-      <c r="N350" s="29"/>
-      <c r="O350" s="29"/>
+      <c r="E350" s="43"/>
+      <c r="F350" s="43"/>
+      <c r="G350" s="43"/>
+      <c r="H350" s="43"/>
+      <c r="I350" s="43"/>
+      <c r="J350" s="43"/>
+      <c r="K350" s="43"/>
+      <c r="L350" s="43"/>
+      <c r="M350" s="43"/>
+      <c r="N350" s="43"/>
+      <c r="O350" s="43"/>
       <c r="P350" s="5"/>
     </row>
     <row r="351" spans="1:16">
@@ -11037,17 +11079,17 @@
       <c r="B351" s="28"/>
       <c r="C351" s="28"/>
       <c r="D351" s="28"/>
-      <c r="E351" s="29"/>
-      <c r="F351" s="29"/>
-      <c r="G351" s="29"/>
-      <c r="H351" s="29"/>
-      <c r="I351" s="29"/>
-      <c r="J351" s="29"/>
-      <c r="K351" s="29"/>
-      <c r="L351" s="29"/>
-      <c r="M351" s="29"/>
-      <c r="N351" s="29"/>
-      <c r="O351" s="29"/>
+      <c r="E351" s="43"/>
+      <c r="F351" s="43"/>
+      <c r="G351" s="43"/>
+      <c r="H351" s="43"/>
+      <c r="I351" s="43"/>
+      <c r="J351" s="43"/>
+      <c r="K351" s="43"/>
+      <c r="L351" s="43"/>
+      <c r="M351" s="43"/>
+      <c r="N351" s="43"/>
+      <c r="O351" s="43"/>
       <c r="P351" s="5"/>
     </row>
     <row r="352" spans="1:16">
@@ -11055,17 +11097,17 @@
       <c r="B352" s="28"/>
       <c r="C352" s="28"/>
       <c r="D352" s="28"/>
-      <c r="E352" s="29"/>
-      <c r="F352" s="29"/>
-      <c r="G352" s="29"/>
-      <c r="H352" s="29"/>
-      <c r="I352" s="29"/>
-      <c r="J352" s="29"/>
-      <c r="K352" s="29"/>
-      <c r="L352" s="29"/>
-      <c r="M352" s="29"/>
-      <c r="N352" s="29"/>
-      <c r="O352" s="29"/>
+      <c r="E352" s="43"/>
+      <c r="F352" s="43"/>
+      <c r="G352" s="43"/>
+      <c r="H352" s="43"/>
+      <c r="I352" s="43"/>
+      <c r="J352" s="43"/>
+      <c r="K352" s="43"/>
+      <c r="L352" s="43"/>
+      <c r="M352" s="43"/>
+      <c r="N352" s="43"/>
+      <c r="O352" s="43"/>
       <c r="P352" s="5"/>
     </row>
     <row r="353" spans="1:16" ht="18">
@@ -11191,16 +11233,16 @@
       <c r="P358" s="5"/>
     </row>
     <row r="359" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A359" s="34" t="s">
+      <c r="A359" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B359" s="35"/>
-      <c r="C359" s="36"/>
-      <c r="D359" s="37" t="s">
+      <c r="B359" s="34"/>
+      <c r="C359" s="35"/>
+      <c r="D359" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E359" s="35"/>
-      <c r="F359" s="36"/>
+      <c r="E359" s="34"/>
+      <c r="F359" s="35"/>
       <c r="G359" s="6"/>
       <c r="H359" s="6"/>
       <c r="I359" s="6" t="s">
@@ -11553,19 +11595,19 @@
       <c r="B375" s="28"/>
       <c r="C375" s="28"/>
       <c r="D375" s="28"/>
-      <c r="E375" s="29" t="s">
+      <c r="E375" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F375" s="29"/>
-      <c r="G375" s="29"/>
-      <c r="H375" s="29"/>
-      <c r="I375" s="29"/>
-      <c r="J375" s="29"/>
-      <c r="K375" s="29"/>
-      <c r="L375" s="29"/>
-      <c r="M375" s="29"/>
-      <c r="N375" s="29"/>
-      <c r="O375" s="29"/>
+      <c r="F375" s="43"/>
+      <c r="G375" s="43"/>
+      <c r="H375" s="43"/>
+      <c r="I375" s="43"/>
+      <c r="J375" s="43"/>
+      <c r="K375" s="43"/>
+      <c r="L375" s="43"/>
+      <c r="M375" s="43"/>
+      <c r="N375" s="43"/>
+      <c r="O375" s="43"/>
       <c r="P375" s="5"/>
     </row>
     <row r="376" spans="1:16">
@@ -11573,17 +11615,17 @@
       <c r="B376" s="28"/>
       <c r="C376" s="28"/>
       <c r="D376" s="28"/>
-      <c r="E376" s="29"/>
-      <c r="F376" s="29"/>
-      <c r="G376" s="29"/>
-      <c r="H376" s="29"/>
-      <c r="I376" s="29"/>
-      <c r="J376" s="29"/>
-      <c r="K376" s="29"/>
-      <c r="L376" s="29"/>
-      <c r="M376" s="29"/>
-      <c r="N376" s="29"/>
-      <c r="O376" s="29"/>
+      <c r="E376" s="43"/>
+      <c r="F376" s="43"/>
+      <c r="G376" s="43"/>
+      <c r="H376" s="43"/>
+      <c r="I376" s="43"/>
+      <c r="J376" s="43"/>
+      <c r="K376" s="43"/>
+      <c r="L376" s="43"/>
+      <c r="M376" s="43"/>
+      <c r="N376" s="43"/>
+      <c r="O376" s="43"/>
       <c r="P376" s="5"/>
     </row>
     <row r="377" spans="1:16">
@@ -11591,17 +11633,17 @@
       <c r="B377" s="28"/>
       <c r="C377" s="28"/>
       <c r="D377" s="28"/>
-      <c r="E377" s="29"/>
-      <c r="F377" s="29"/>
-      <c r="G377" s="29"/>
-      <c r="H377" s="29"/>
-      <c r="I377" s="29"/>
-      <c r="J377" s="29"/>
-      <c r="K377" s="29"/>
-      <c r="L377" s="29"/>
-      <c r="M377" s="29"/>
-      <c r="N377" s="29"/>
-      <c r="O377" s="29"/>
+      <c r="E377" s="43"/>
+      <c r="F377" s="43"/>
+      <c r="G377" s="43"/>
+      <c r="H377" s="43"/>
+      <c r="I377" s="43"/>
+      <c r="J377" s="43"/>
+      <c r="K377" s="43"/>
+      <c r="L377" s="43"/>
+      <c r="M377" s="43"/>
+      <c r="N377" s="43"/>
+      <c r="O377" s="43"/>
       <c r="P377" s="5"/>
     </row>
     <row r="378" spans="1:16">
@@ -11609,17 +11651,17 @@
       <c r="B378" s="28"/>
       <c r="C378" s="28"/>
       <c r="D378" s="28"/>
-      <c r="E378" s="29"/>
-      <c r="F378" s="29"/>
-      <c r="G378" s="29"/>
-      <c r="H378" s="29"/>
-      <c r="I378" s="29"/>
-      <c r="J378" s="29"/>
-      <c r="K378" s="29"/>
-      <c r="L378" s="29"/>
-      <c r="M378" s="29"/>
-      <c r="N378" s="29"/>
-      <c r="O378" s="29"/>
+      <c r="E378" s="43"/>
+      <c r="F378" s="43"/>
+      <c r="G378" s="43"/>
+      <c r="H378" s="43"/>
+      <c r="I378" s="43"/>
+      <c r="J378" s="43"/>
+      <c r="K378" s="43"/>
+      <c r="L378" s="43"/>
+      <c r="M378" s="43"/>
+      <c r="N378" s="43"/>
+      <c r="O378" s="43"/>
       <c r="P378" s="5"/>
     </row>
     <row r="379" spans="1:16" ht="18">
@@ -11745,16 +11787,16 @@
       <c r="P384" s="5"/>
     </row>
     <row r="385" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A385" s="34" t="s">
+      <c r="A385" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B385" s="35"/>
-      <c r="C385" s="36"/>
-      <c r="D385" s="37" t="s">
+      <c r="B385" s="34"/>
+      <c r="C385" s="35"/>
+      <c r="D385" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E385" s="35"/>
-      <c r="F385" s="36"/>
+      <c r="E385" s="34"/>
+      <c r="F385" s="35"/>
       <c r="G385" s="6"/>
       <c r="H385" s="6"/>
       <c r="I385" s="6" t="s">
@@ -12103,19 +12145,19 @@
       <c r="B401" s="28"/>
       <c r="C401" s="28"/>
       <c r="D401" s="28"/>
-      <c r="E401" s="29" t="s">
+      <c r="E401" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F401" s="29"/>
-      <c r="G401" s="29"/>
-      <c r="H401" s="29"/>
-      <c r="I401" s="29"/>
-      <c r="J401" s="29"/>
-      <c r="K401" s="29"/>
-      <c r="L401" s="29"/>
-      <c r="M401" s="29"/>
-      <c r="N401" s="29"/>
-      <c r="O401" s="29"/>
+      <c r="F401" s="43"/>
+      <c r="G401" s="43"/>
+      <c r="H401" s="43"/>
+      <c r="I401" s="43"/>
+      <c r="J401" s="43"/>
+      <c r="K401" s="43"/>
+      <c r="L401" s="43"/>
+      <c r="M401" s="43"/>
+      <c r="N401" s="43"/>
+      <c r="O401" s="43"/>
       <c r="P401" s="5"/>
     </row>
     <row r="402" spans="1:16">
@@ -12123,17 +12165,17 @@
       <c r="B402" s="28"/>
       <c r="C402" s="28"/>
       <c r="D402" s="28"/>
-      <c r="E402" s="29"/>
-      <c r="F402" s="29"/>
-      <c r="G402" s="29"/>
-      <c r="H402" s="29"/>
-      <c r="I402" s="29"/>
-      <c r="J402" s="29"/>
-      <c r="K402" s="29"/>
-      <c r="L402" s="29"/>
-      <c r="M402" s="29"/>
-      <c r="N402" s="29"/>
-      <c r="O402" s="29"/>
+      <c r="E402" s="43"/>
+      <c r="F402" s="43"/>
+      <c r="G402" s="43"/>
+      <c r="H402" s="43"/>
+      <c r="I402" s="43"/>
+      <c r="J402" s="43"/>
+      <c r="K402" s="43"/>
+      <c r="L402" s="43"/>
+      <c r="M402" s="43"/>
+      <c r="N402" s="43"/>
+      <c r="O402" s="43"/>
       <c r="P402" s="5"/>
     </row>
     <row r="403" spans="1:16">
@@ -12141,17 +12183,17 @@
       <c r="B403" s="28"/>
       <c r="C403" s="28"/>
       <c r="D403" s="28"/>
-      <c r="E403" s="29"/>
-      <c r="F403" s="29"/>
-      <c r="G403" s="29"/>
-      <c r="H403" s="29"/>
-      <c r="I403" s="29"/>
-      <c r="J403" s="29"/>
-      <c r="K403" s="29"/>
-      <c r="L403" s="29"/>
-      <c r="M403" s="29"/>
-      <c r="N403" s="29"/>
-      <c r="O403" s="29"/>
+      <c r="E403" s="43"/>
+      <c r="F403" s="43"/>
+      <c r="G403" s="43"/>
+      <c r="H403" s="43"/>
+      <c r="I403" s="43"/>
+      <c r="J403" s="43"/>
+      <c r="K403" s="43"/>
+      <c r="L403" s="43"/>
+      <c r="M403" s="43"/>
+      <c r="N403" s="43"/>
+      <c r="O403" s="43"/>
       <c r="P403" s="5"/>
     </row>
     <row r="404" spans="1:16">
@@ -12159,17 +12201,17 @@
       <c r="B404" s="28"/>
       <c r="C404" s="28"/>
       <c r="D404" s="28"/>
-      <c r="E404" s="29"/>
-      <c r="F404" s="29"/>
-      <c r="G404" s="29"/>
-      <c r="H404" s="29"/>
-      <c r="I404" s="29"/>
-      <c r="J404" s="29"/>
-      <c r="K404" s="29"/>
-      <c r="L404" s="29"/>
-      <c r="M404" s="29"/>
-      <c r="N404" s="29"/>
-      <c r="O404" s="29"/>
+      <c r="E404" s="43"/>
+      <c r="F404" s="43"/>
+      <c r="G404" s="43"/>
+      <c r="H404" s="43"/>
+      <c r="I404" s="43"/>
+      <c r="J404" s="43"/>
+      <c r="K404" s="43"/>
+      <c r="L404" s="43"/>
+      <c r="M404" s="43"/>
+      <c r="N404" s="43"/>
+      <c r="O404" s="43"/>
       <c r="P404" s="5"/>
     </row>
     <row r="405" spans="1:16" ht="18">
@@ -12295,16 +12337,16 @@
       <c r="P410" s="5"/>
     </row>
     <row r="411" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A411" s="34" t="s">
+      <c r="A411" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B411" s="35"/>
-      <c r="C411" s="36"/>
-      <c r="D411" s="37" t="s">
+      <c r="B411" s="34"/>
+      <c r="C411" s="35"/>
+      <c r="D411" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E411" s="35"/>
-      <c r="F411" s="36"/>
+      <c r="E411" s="34"/>
+      <c r="F411" s="35"/>
       <c r="G411" s="6"/>
       <c r="H411" s="6"/>
       <c r="I411" s="6" t="s">
@@ -12657,19 +12699,19 @@
       <c r="B427" s="28"/>
       <c r="C427" s="28"/>
       <c r="D427" s="28"/>
-      <c r="E427" s="29" t="s">
+      <c r="E427" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F427" s="29"/>
-      <c r="G427" s="29"/>
-      <c r="H427" s="29"/>
-      <c r="I427" s="29"/>
-      <c r="J427" s="29"/>
-      <c r="K427" s="29"/>
-      <c r="L427" s="29"/>
-      <c r="M427" s="29"/>
-      <c r="N427" s="29"/>
-      <c r="O427" s="29"/>
+      <c r="F427" s="43"/>
+      <c r="G427" s="43"/>
+      <c r="H427" s="43"/>
+      <c r="I427" s="43"/>
+      <c r="J427" s="43"/>
+      <c r="K427" s="43"/>
+      <c r="L427" s="43"/>
+      <c r="M427" s="43"/>
+      <c r="N427" s="43"/>
+      <c r="O427" s="43"/>
       <c r="P427" s="5"/>
     </row>
     <row r="428" spans="1:16">
@@ -12677,17 +12719,17 @@
       <c r="B428" s="28"/>
       <c r="C428" s="28"/>
       <c r="D428" s="28"/>
-      <c r="E428" s="29"/>
-      <c r="F428" s="29"/>
-      <c r="G428" s="29"/>
-      <c r="H428" s="29"/>
-      <c r="I428" s="29"/>
-      <c r="J428" s="29"/>
-      <c r="K428" s="29"/>
-      <c r="L428" s="29"/>
-      <c r="M428" s="29"/>
-      <c r="N428" s="29"/>
-      <c r="O428" s="29"/>
+      <c r="E428" s="43"/>
+      <c r="F428" s="43"/>
+      <c r="G428" s="43"/>
+      <c r="H428" s="43"/>
+      <c r="I428" s="43"/>
+      <c r="J428" s="43"/>
+      <c r="K428" s="43"/>
+      <c r="L428" s="43"/>
+      <c r="M428" s="43"/>
+      <c r="N428" s="43"/>
+      <c r="O428" s="43"/>
       <c r="P428" s="5"/>
     </row>
     <row r="429" spans="1:16">
@@ -12695,17 +12737,17 @@
       <c r="B429" s="28"/>
       <c r="C429" s="28"/>
       <c r="D429" s="28"/>
-      <c r="E429" s="29"/>
-      <c r="F429" s="29"/>
-      <c r="G429" s="29"/>
-      <c r="H429" s="29"/>
-      <c r="I429" s="29"/>
-      <c r="J429" s="29"/>
-      <c r="K429" s="29"/>
-      <c r="L429" s="29"/>
-      <c r="M429" s="29"/>
-      <c r="N429" s="29"/>
-      <c r="O429" s="29"/>
+      <c r="E429" s="43"/>
+      <c r="F429" s="43"/>
+      <c r="G429" s="43"/>
+      <c r="H429" s="43"/>
+      <c r="I429" s="43"/>
+      <c r="J429" s="43"/>
+      <c r="K429" s="43"/>
+      <c r="L429" s="43"/>
+      <c r="M429" s="43"/>
+      <c r="N429" s="43"/>
+      <c r="O429" s="43"/>
       <c r="P429" s="5"/>
     </row>
     <row r="430" spans="1:16">
@@ -12713,17 +12755,17 @@
       <c r="B430" s="28"/>
       <c r="C430" s="28"/>
       <c r="D430" s="28"/>
-      <c r="E430" s="29"/>
-      <c r="F430" s="29"/>
-      <c r="G430" s="29"/>
-      <c r="H430" s="29"/>
-      <c r="I430" s="29"/>
-      <c r="J430" s="29"/>
-      <c r="K430" s="29"/>
-      <c r="L430" s="29"/>
-      <c r="M430" s="29"/>
-      <c r="N430" s="29"/>
-      <c r="O430" s="29"/>
+      <c r="E430" s="43"/>
+      <c r="F430" s="43"/>
+      <c r="G430" s="43"/>
+      <c r="H430" s="43"/>
+      <c r="I430" s="43"/>
+      <c r="J430" s="43"/>
+      <c r="K430" s="43"/>
+      <c r="L430" s="43"/>
+      <c r="M430" s="43"/>
+      <c r="N430" s="43"/>
+      <c r="O430" s="43"/>
       <c r="P430" s="5"/>
     </row>
     <row r="431" spans="1:16" ht="18">
@@ -12849,16 +12891,16 @@
       <c r="P436" s="5"/>
     </row>
     <row r="437" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A437" s="34" t="s">
+      <c r="A437" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B437" s="35"/>
-      <c r="C437" s="36"/>
-      <c r="D437" s="37" t="s">
+      <c r="B437" s="34"/>
+      <c r="C437" s="35"/>
+      <c r="D437" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E437" s="35"/>
-      <c r="F437" s="36"/>
+      <c r="E437" s="34"/>
+      <c r="F437" s="35"/>
       <c r="G437" s="6"/>
       <c r="H437" s="6"/>
       <c r="I437" s="6" t="s">
@@ -13209,19 +13251,19 @@
       <c r="B453" s="28"/>
       <c r="C453" s="28"/>
       <c r="D453" s="28"/>
-      <c r="E453" s="29" t="s">
+      <c r="E453" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F453" s="29"/>
-      <c r="G453" s="29"/>
-      <c r="H453" s="29"/>
-      <c r="I453" s="29"/>
-      <c r="J453" s="29"/>
-      <c r="K453" s="29"/>
-      <c r="L453" s="29"/>
-      <c r="M453" s="29"/>
-      <c r="N453" s="29"/>
-      <c r="O453" s="29"/>
+      <c r="F453" s="43"/>
+      <c r="G453" s="43"/>
+      <c r="H453" s="43"/>
+      <c r="I453" s="43"/>
+      <c r="J453" s="43"/>
+      <c r="K453" s="43"/>
+      <c r="L453" s="43"/>
+      <c r="M453" s="43"/>
+      <c r="N453" s="43"/>
+      <c r="O453" s="43"/>
       <c r="P453" s="5"/>
     </row>
     <row r="454" spans="1:16">
@@ -13229,17 +13271,17 @@
       <c r="B454" s="28"/>
       <c r="C454" s="28"/>
       <c r="D454" s="28"/>
-      <c r="E454" s="29"/>
-      <c r="F454" s="29"/>
-      <c r="G454" s="29"/>
-      <c r="H454" s="29"/>
-      <c r="I454" s="29"/>
-      <c r="J454" s="29"/>
-      <c r="K454" s="29"/>
-      <c r="L454" s="29"/>
-      <c r="M454" s="29"/>
-      <c r="N454" s="29"/>
-      <c r="O454" s="29"/>
+      <c r="E454" s="43"/>
+      <c r="F454" s="43"/>
+      <c r="G454" s="43"/>
+      <c r="H454" s="43"/>
+      <c r="I454" s="43"/>
+      <c r="J454" s="43"/>
+      <c r="K454" s="43"/>
+      <c r="L454" s="43"/>
+      <c r="M454" s="43"/>
+      <c r="N454" s="43"/>
+      <c r="O454" s="43"/>
       <c r="P454" s="5"/>
     </row>
     <row r="455" spans="1:16">
@@ -13247,17 +13289,17 @@
       <c r="B455" s="28"/>
       <c r="C455" s="28"/>
       <c r="D455" s="28"/>
-      <c r="E455" s="29"/>
-      <c r="F455" s="29"/>
-      <c r="G455" s="29"/>
-      <c r="H455" s="29"/>
-      <c r="I455" s="29"/>
-      <c r="J455" s="29"/>
-      <c r="K455" s="29"/>
-      <c r="L455" s="29"/>
-      <c r="M455" s="29"/>
-      <c r="N455" s="29"/>
-      <c r="O455" s="29"/>
+      <c r="E455" s="43"/>
+      <c r="F455" s="43"/>
+      <c r="G455" s="43"/>
+      <c r="H455" s="43"/>
+      <c r="I455" s="43"/>
+      <c r="J455" s="43"/>
+      <c r="K455" s="43"/>
+      <c r="L455" s="43"/>
+      <c r="M455" s="43"/>
+      <c r="N455" s="43"/>
+      <c r="O455" s="43"/>
       <c r="P455" s="5"/>
     </row>
     <row r="456" spans="1:16">
@@ -13265,17 +13307,17 @@
       <c r="B456" s="28"/>
       <c r="C456" s="28"/>
       <c r="D456" s="28"/>
-      <c r="E456" s="29"/>
-      <c r="F456" s="29"/>
-      <c r="G456" s="29"/>
-      <c r="H456" s="29"/>
-      <c r="I456" s="29"/>
-      <c r="J456" s="29"/>
-      <c r="K456" s="29"/>
-      <c r="L456" s="29"/>
-      <c r="M456" s="29"/>
-      <c r="N456" s="29"/>
-      <c r="O456" s="29"/>
+      <c r="E456" s="43"/>
+      <c r="F456" s="43"/>
+      <c r="G456" s="43"/>
+      <c r="H456" s="43"/>
+      <c r="I456" s="43"/>
+      <c r="J456" s="43"/>
+      <c r="K456" s="43"/>
+      <c r="L456" s="43"/>
+      <c r="M456" s="43"/>
+      <c r="N456" s="43"/>
+      <c r="O456" s="43"/>
       <c r="P456" s="5"/>
     </row>
     <row r="457" spans="1:16" ht="18">
@@ -13401,16 +13443,16 @@
       <c r="P462" s="5"/>
     </row>
     <row r="463" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A463" s="34" t="s">
+      <c r="A463" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B463" s="35"/>
-      <c r="C463" s="36"/>
-      <c r="D463" s="37" t="s">
+      <c r="B463" s="34"/>
+      <c r="C463" s="35"/>
+      <c r="D463" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E463" s="35"/>
-      <c r="F463" s="36"/>
+      <c r="E463" s="34"/>
+      <c r="F463" s="35"/>
       <c r="G463" s="6"/>
       <c r="H463" s="6"/>
       <c r="I463" s="6" t="s">
@@ -13759,19 +13801,19 @@
       <c r="B479" s="28"/>
       <c r="C479" s="28"/>
       <c r="D479" s="28"/>
-      <c r="E479" s="29" t="s">
+      <c r="E479" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F479" s="29"/>
-      <c r="G479" s="29"/>
-      <c r="H479" s="29"/>
-      <c r="I479" s="29"/>
-      <c r="J479" s="29"/>
-      <c r="K479" s="29"/>
-      <c r="L479" s="29"/>
-      <c r="M479" s="29"/>
-      <c r="N479" s="29"/>
-      <c r="O479" s="29"/>
+      <c r="F479" s="43"/>
+      <c r="G479" s="43"/>
+      <c r="H479" s="43"/>
+      <c r="I479" s="43"/>
+      <c r="J479" s="43"/>
+      <c r="K479" s="43"/>
+      <c r="L479" s="43"/>
+      <c r="M479" s="43"/>
+      <c r="N479" s="43"/>
+      <c r="O479" s="43"/>
       <c r="P479" s="5"/>
     </row>
     <row r="480" spans="1:16">
@@ -13779,17 +13821,17 @@
       <c r="B480" s="28"/>
       <c r="C480" s="28"/>
       <c r="D480" s="28"/>
-      <c r="E480" s="29"/>
-      <c r="F480" s="29"/>
-      <c r="G480" s="29"/>
-      <c r="H480" s="29"/>
-      <c r="I480" s="29"/>
-      <c r="J480" s="29"/>
-      <c r="K480" s="29"/>
-      <c r="L480" s="29"/>
-      <c r="M480" s="29"/>
-      <c r="N480" s="29"/>
-      <c r="O480" s="29"/>
+      <c r="E480" s="43"/>
+      <c r="F480" s="43"/>
+      <c r="G480" s="43"/>
+      <c r="H480" s="43"/>
+      <c r="I480" s="43"/>
+      <c r="J480" s="43"/>
+      <c r="K480" s="43"/>
+      <c r="L480" s="43"/>
+      <c r="M480" s="43"/>
+      <c r="N480" s="43"/>
+      <c r="O480" s="43"/>
       <c r="P480" s="5"/>
     </row>
     <row r="481" spans="1:16">
@@ -13797,17 +13839,17 @@
       <c r="B481" s="28"/>
       <c r="C481" s="28"/>
       <c r="D481" s="28"/>
-      <c r="E481" s="29"/>
-      <c r="F481" s="29"/>
-      <c r="G481" s="29"/>
-      <c r="H481" s="29"/>
-      <c r="I481" s="29"/>
-      <c r="J481" s="29"/>
-      <c r="K481" s="29"/>
-      <c r="L481" s="29"/>
-      <c r="M481" s="29"/>
-      <c r="N481" s="29"/>
-      <c r="O481" s="29"/>
+      <c r="E481" s="43"/>
+      <c r="F481" s="43"/>
+      <c r="G481" s="43"/>
+      <c r="H481" s="43"/>
+      <c r="I481" s="43"/>
+      <c r="J481" s="43"/>
+      <c r="K481" s="43"/>
+      <c r="L481" s="43"/>
+      <c r="M481" s="43"/>
+      <c r="N481" s="43"/>
+      <c r="O481" s="43"/>
       <c r="P481" s="5"/>
     </row>
     <row r="482" spans="1:16">
@@ -13815,17 +13857,17 @@
       <c r="B482" s="28"/>
       <c r="C482" s="28"/>
       <c r="D482" s="28"/>
-      <c r="E482" s="29"/>
-      <c r="F482" s="29"/>
-      <c r="G482" s="29"/>
-      <c r="H482" s="29"/>
-      <c r="I482" s="29"/>
-      <c r="J482" s="29"/>
-      <c r="K482" s="29"/>
-      <c r="L482" s="29"/>
-      <c r="M482" s="29"/>
-      <c r="N482" s="29"/>
-      <c r="O482" s="29"/>
+      <c r="E482" s="43"/>
+      <c r="F482" s="43"/>
+      <c r="G482" s="43"/>
+      <c r="H482" s="43"/>
+      <c r="I482" s="43"/>
+      <c r="J482" s="43"/>
+      <c r="K482" s="43"/>
+      <c r="L482" s="43"/>
+      <c r="M482" s="43"/>
+      <c r="N482" s="43"/>
+      <c r="O482" s="43"/>
       <c r="P482" s="5"/>
     </row>
     <row r="483" spans="1:16" ht="18">
@@ -13951,16 +13993,16 @@
       <c r="P488" s="5"/>
     </row>
     <row r="489" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A489" s="34" t="s">
+      <c r="A489" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B489" s="35"/>
-      <c r="C489" s="36"/>
-      <c r="D489" s="37" t="s">
+      <c r="B489" s="34"/>
+      <c r="C489" s="35"/>
+      <c r="D489" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E489" s="35"/>
-      <c r="F489" s="36"/>
+      <c r="E489" s="34"/>
+      <c r="F489" s="35"/>
       <c r="G489" s="6"/>
       <c r="H489" s="6"/>
       <c r="I489" s="6" t="s">
@@ -14309,19 +14351,19 @@
       <c r="B505" s="28"/>
       <c r="C505" s="28"/>
       <c r="D505" s="28"/>
-      <c r="E505" s="29" t="s">
+      <c r="E505" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F505" s="29"/>
-      <c r="G505" s="29"/>
-      <c r="H505" s="29"/>
-      <c r="I505" s="29"/>
-      <c r="J505" s="29"/>
-      <c r="K505" s="29"/>
-      <c r="L505" s="29"/>
-      <c r="M505" s="29"/>
-      <c r="N505" s="29"/>
-      <c r="O505" s="29"/>
+      <c r="F505" s="43"/>
+      <c r="G505" s="43"/>
+      <c r="H505" s="43"/>
+      <c r="I505" s="43"/>
+      <c r="J505" s="43"/>
+      <c r="K505" s="43"/>
+      <c r="L505" s="43"/>
+      <c r="M505" s="43"/>
+      <c r="N505" s="43"/>
+      <c r="O505" s="43"/>
       <c r="P505" s="5"/>
     </row>
     <row r="506" spans="1:16">
@@ -14329,17 +14371,17 @@
       <c r="B506" s="28"/>
       <c r="C506" s="28"/>
       <c r="D506" s="28"/>
-      <c r="E506" s="29"/>
-      <c r="F506" s="29"/>
-      <c r="G506" s="29"/>
-      <c r="H506" s="29"/>
-      <c r="I506" s="29"/>
-      <c r="J506" s="29"/>
-      <c r="K506" s="29"/>
-      <c r="L506" s="29"/>
-      <c r="M506" s="29"/>
-      <c r="N506" s="29"/>
-      <c r="O506" s="29"/>
+      <c r="E506" s="43"/>
+      <c r="F506" s="43"/>
+      <c r="G506" s="43"/>
+      <c r="H506" s="43"/>
+      <c r="I506" s="43"/>
+      <c r="J506" s="43"/>
+      <c r="K506" s="43"/>
+      <c r="L506" s="43"/>
+      <c r="M506" s="43"/>
+      <c r="N506" s="43"/>
+      <c r="O506" s="43"/>
       <c r="P506" s="5"/>
     </row>
     <row r="507" spans="1:16">
@@ -14347,17 +14389,17 @@
       <c r="B507" s="28"/>
       <c r="C507" s="28"/>
       <c r="D507" s="28"/>
-      <c r="E507" s="29"/>
-      <c r="F507" s="29"/>
-      <c r="G507" s="29"/>
-      <c r="H507" s="29"/>
-      <c r="I507" s="29"/>
-      <c r="J507" s="29"/>
-      <c r="K507" s="29"/>
-      <c r="L507" s="29"/>
-      <c r="M507" s="29"/>
-      <c r="N507" s="29"/>
-      <c r="O507" s="29"/>
+      <c r="E507" s="43"/>
+      <c r="F507" s="43"/>
+      <c r="G507" s="43"/>
+      <c r="H507" s="43"/>
+      <c r="I507" s="43"/>
+      <c r="J507" s="43"/>
+      <c r="K507" s="43"/>
+      <c r="L507" s="43"/>
+      <c r="M507" s="43"/>
+      <c r="N507" s="43"/>
+      <c r="O507" s="43"/>
       <c r="P507" s="5"/>
     </row>
     <row r="508" spans="1:16">
@@ -14365,17 +14407,17 @@
       <c r="B508" s="28"/>
       <c r="C508" s="28"/>
       <c r="D508" s="28"/>
-      <c r="E508" s="29"/>
-      <c r="F508" s="29"/>
-      <c r="G508" s="29"/>
-      <c r="H508" s="29"/>
-      <c r="I508" s="29"/>
-      <c r="J508" s="29"/>
-      <c r="K508" s="29"/>
-      <c r="L508" s="29"/>
-      <c r="M508" s="29"/>
-      <c r="N508" s="29"/>
-      <c r="O508" s="29"/>
+      <c r="E508" s="43"/>
+      <c r="F508" s="43"/>
+      <c r="G508" s="43"/>
+      <c r="H508" s="43"/>
+      <c r="I508" s="43"/>
+      <c r="J508" s="43"/>
+      <c r="K508" s="43"/>
+      <c r="L508" s="43"/>
+      <c r="M508" s="43"/>
+      <c r="N508" s="43"/>
+      <c r="O508" s="43"/>
       <c r="P508" s="5"/>
     </row>
     <row r="509" spans="1:16" ht="18">
@@ -14492,7 +14534,7 @@
       </c>
       <c r="J514" s="6"/>
       <c r="K514" s="6"/>
-      <c r="L514" s="33" t="s">
+      <c r="L514" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M514" s="32"/>
@@ -14501,16 +14543,16 @@
       <c r="P514" s="5"/>
     </row>
     <row r="515" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A515" s="34" t="s">
+      <c r="A515" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B515" s="35"/>
-      <c r="C515" s="36"/>
-      <c r="D515" s="37" t="s">
+      <c r="B515" s="34"/>
+      <c r="C515" s="35"/>
+      <c r="D515" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E515" s="35"/>
-      <c r="F515" s="36"/>
+      <c r="E515" s="34"/>
+      <c r="F515" s="35"/>
       <c r="G515" s="6"/>
       <c r="H515" s="6"/>
       <c r="I515" s="6" t="s">
@@ -14863,19 +14905,19 @@
       <c r="B531" s="28"/>
       <c r="C531" s="28"/>
       <c r="D531" s="28"/>
-      <c r="E531" s="29" t="s">
+      <c r="E531" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F531" s="29"/>
-      <c r="G531" s="29"/>
-      <c r="H531" s="29"/>
-      <c r="I531" s="29"/>
-      <c r="J531" s="29"/>
-      <c r="K531" s="29"/>
-      <c r="L531" s="29"/>
-      <c r="M531" s="29"/>
-      <c r="N531" s="29"/>
-      <c r="O531" s="29"/>
+      <c r="F531" s="43"/>
+      <c r="G531" s="43"/>
+      <c r="H531" s="43"/>
+      <c r="I531" s="43"/>
+      <c r="J531" s="43"/>
+      <c r="K531" s="43"/>
+      <c r="L531" s="43"/>
+      <c r="M531" s="43"/>
+      <c r="N531" s="43"/>
+      <c r="O531" s="43"/>
       <c r="P531" s="5"/>
     </row>
     <row r="532" spans="1:16">
@@ -14883,17 +14925,17 @@
       <c r="B532" s="28"/>
       <c r="C532" s="28"/>
       <c r="D532" s="28"/>
-      <c r="E532" s="29"/>
-      <c r="F532" s="29"/>
-      <c r="G532" s="29"/>
-      <c r="H532" s="29"/>
-      <c r="I532" s="29"/>
-      <c r="J532" s="29"/>
-      <c r="K532" s="29"/>
-      <c r="L532" s="29"/>
-      <c r="M532" s="29"/>
-      <c r="N532" s="29"/>
-      <c r="O532" s="29"/>
+      <c r="E532" s="43"/>
+      <c r="F532" s="43"/>
+      <c r="G532" s="43"/>
+      <c r="H532" s="43"/>
+      <c r="I532" s="43"/>
+      <c r="J532" s="43"/>
+      <c r="K532" s="43"/>
+      <c r="L532" s="43"/>
+      <c r="M532" s="43"/>
+      <c r="N532" s="43"/>
+      <c r="O532" s="43"/>
       <c r="P532" s="5"/>
     </row>
     <row r="533" spans="1:16">
@@ -14901,17 +14943,17 @@
       <c r="B533" s="28"/>
       <c r="C533" s="28"/>
       <c r="D533" s="28"/>
-      <c r="E533" s="29"/>
-      <c r="F533" s="29"/>
-      <c r="G533" s="29"/>
-      <c r="H533" s="29"/>
-      <c r="I533" s="29"/>
-      <c r="J533" s="29"/>
-      <c r="K533" s="29"/>
-      <c r="L533" s="29"/>
-      <c r="M533" s="29"/>
-      <c r="N533" s="29"/>
-      <c r="O533" s="29"/>
+      <c r="E533" s="43"/>
+      <c r="F533" s="43"/>
+      <c r="G533" s="43"/>
+      <c r="H533" s="43"/>
+      <c r="I533" s="43"/>
+      <c r="J533" s="43"/>
+      <c r="K533" s="43"/>
+      <c r="L533" s="43"/>
+      <c r="M533" s="43"/>
+      <c r="N533" s="43"/>
+      <c r="O533" s="43"/>
       <c r="P533" s="5"/>
     </row>
     <row r="534" spans="1:16">
@@ -14919,17 +14961,17 @@
       <c r="B534" s="28"/>
       <c r="C534" s="28"/>
       <c r="D534" s="28"/>
-      <c r="E534" s="29"/>
-      <c r="F534" s="29"/>
-      <c r="G534" s="29"/>
-      <c r="H534" s="29"/>
-      <c r="I534" s="29"/>
-      <c r="J534" s="29"/>
-      <c r="K534" s="29"/>
-      <c r="L534" s="29"/>
-      <c r="M534" s="29"/>
-      <c r="N534" s="29"/>
-      <c r="O534" s="29"/>
+      <c r="E534" s="43"/>
+      <c r="F534" s="43"/>
+      <c r="G534" s="43"/>
+      <c r="H534" s="43"/>
+      <c r="I534" s="43"/>
+      <c r="J534" s="43"/>
+      <c r="K534" s="43"/>
+      <c r="L534" s="43"/>
+      <c r="M534" s="43"/>
+      <c r="N534" s="43"/>
+      <c r="O534" s="43"/>
       <c r="P534" s="5"/>
     </row>
     <row r="535" spans="1:16" ht="18">
@@ -15046,7 +15088,7 @@
       </c>
       <c r="J540" s="6"/>
       <c r="K540" s="6"/>
-      <c r="L540" s="33" t="s">
+      <c r="L540" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M540" s="32"/>
@@ -15055,16 +15097,16 @@
       <c r="P540" s="5"/>
     </row>
     <row r="541" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A541" s="34" t="s">
+      <c r="A541" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B541" s="35"/>
-      <c r="C541" s="36"/>
-      <c r="D541" s="37" t="s">
+      <c r="B541" s="34"/>
+      <c r="C541" s="35"/>
+      <c r="D541" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E541" s="35"/>
-      <c r="F541" s="36"/>
+      <c r="E541" s="34"/>
+      <c r="F541" s="35"/>
       <c r="G541" s="6"/>
       <c r="H541" s="6"/>
       <c r="I541" s="6" t="s">
@@ -15086,9 +15128,9 @@
       </c>
       <c r="B542" s="17"/>
       <c r="C542" s="17"/>
-      <c r="D542" s="57"/>
-      <c r="E542" s="58"/>
-      <c r="F542" s="59"/>
+      <c r="D542" s="44"/>
+      <c r="E542" s="45"/>
+      <c r="F542" s="46"/>
       <c r="G542" s="6"/>
       <c r="H542" s="6"/>
       <c r="I542" s="6" t="s">
@@ -15108,9 +15150,9 @@
       <c r="A543" s="16"/>
       <c r="B543" s="17"/>
       <c r="C543" s="17"/>
-      <c r="D543" s="60"/>
-      <c r="E543" s="52"/>
-      <c r="F543" s="61"/>
+      <c r="D543" s="47"/>
+      <c r="E543" s="48"/>
+      <c r="F543" s="49"/>
       <c r="G543" s="6"/>
       <c r="H543" s="6"/>
       <c r="I543" s="6" t="s">
@@ -15130,9 +15172,9 @@
       <c r="A544" s="16"/>
       <c r="B544" s="17"/>
       <c r="C544" s="17"/>
-      <c r="D544" s="60"/>
-      <c r="E544" s="52"/>
-      <c r="F544" s="61"/>
+      <c r="D544" s="47"/>
+      <c r="E544" s="48"/>
+      <c r="F544" s="49"/>
       <c r="G544" s="6"/>
       <c r="H544" s="6"/>
       <c r="I544" s="6"/>
@@ -15148,9 +15190,9 @@
       <c r="A545" s="16"/>
       <c r="B545" s="17"/>
       <c r="C545" s="17"/>
-      <c r="D545" s="62"/>
-      <c r="E545" s="63"/>
-      <c r="F545" s="64"/>
+      <c r="D545" s="50"/>
+      <c r="E545" s="51"/>
+      <c r="F545" s="52"/>
       <c r="G545" s="38" t="s">
         <v>10</v>
       </c>
@@ -15415,19 +15457,19 @@
       <c r="B557" s="28"/>
       <c r="C557" s="28"/>
       <c r="D557" s="28"/>
-      <c r="E557" s="29" t="s">
+      <c r="E557" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F557" s="29"/>
-      <c r="G557" s="29"/>
-      <c r="H557" s="29"/>
-      <c r="I557" s="29"/>
-      <c r="J557" s="29"/>
-      <c r="K557" s="29"/>
-      <c r="L557" s="29"/>
-      <c r="M557" s="29"/>
-      <c r="N557" s="29"/>
-      <c r="O557" s="29"/>
+      <c r="F557" s="43"/>
+      <c r="G557" s="43"/>
+      <c r="H557" s="43"/>
+      <c r="I557" s="43"/>
+      <c r="J557" s="43"/>
+      <c r="K557" s="43"/>
+      <c r="L557" s="43"/>
+      <c r="M557" s="43"/>
+      <c r="N557" s="43"/>
+      <c r="O557" s="43"/>
       <c r="P557" s="5"/>
     </row>
     <row r="558" spans="1:16">
@@ -15435,17 +15477,17 @@
       <c r="B558" s="28"/>
       <c r="C558" s="28"/>
       <c r="D558" s="28"/>
-      <c r="E558" s="29"/>
-      <c r="F558" s="29"/>
-      <c r="G558" s="29"/>
-      <c r="H558" s="29"/>
-      <c r="I558" s="29"/>
-      <c r="J558" s="29"/>
-      <c r="K558" s="29"/>
-      <c r="L558" s="29"/>
-      <c r="M558" s="29"/>
-      <c r="N558" s="29"/>
-      <c r="O558" s="29"/>
+      <c r="E558" s="43"/>
+      <c r="F558" s="43"/>
+      <c r="G558" s="43"/>
+      <c r="H558" s="43"/>
+      <c r="I558" s="43"/>
+      <c r="J558" s="43"/>
+      <c r="K558" s="43"/>
+      <c r="L558" s="43"/>
+      <c r="M558" s="43"/>
+      <c r="N558" s="43"/>
+      <c r="O558" s="43"/>
       <c r="P558" s="5"/>
     </row>
     <row r="559" spans="1:16">
@@ -15453,17 +15495,17 @@
       <c r="B559" s="28"/>
       <c r="C559" s="28"/>
       <c r="D559" s="28"/>
-      <c r="E559" s="29"/>
-      <c r="F559" s="29"/>
-      <c r="G559" s="29"/>
-      <c r="H559" s="29"/>
-      <c r="I559" s="29"/>
-      <c r="J559" s="29"/>
-      <c r="K559" s="29"/>
-      <c r="L559" s="29"/>
-      <c r="M559" s="29"/>
-      <c r="N559" s="29"/>
-      <c r="O559" s="29"/>
+      <c r="E559" s="43"/>
+      <c r="F559" s="43"/>
+      <c r="G559" s="43"/>
+      <c r="H559" s="43"/>
+      <c r="I559" s="43"/>
+      <c r="J559" s="43"/>
+      <c r="K559" s="43"/>
+      <c r="L559" s="43"/>
+      <c r="M559" s="43"/>
+      <c r="N559" s="43"/>
+      <c r="O559" s="43"/>
       <c r="P559" s="5"/>
     </row>
     <row r="560" spans="1:16">
@@ -15471,17 +15513,17 @@
       <c r="B560" s="28"/>
       <c r="C560" s="28"/>
       <c r="D560" s="28"/>
-      <c r="E560" s="29"/>
-      <c r="F560" s="29"/>
-      <c r="G560" s="29"/>
-      <c r="H560" s="29"/>
-      <c r="I560" s="29"/>
-      <c r="J560" s="29"/>
-      <c r="K560" s="29"/>
-      <c r="L560" s="29"/>
-      <c r="M560" s="29"/>
-      <c r="N560" s="29"/>
-      <c r="O560" s="29"/>
+      <c r="E560" s="43"/>
+      <c r="F560" s="43"/>
+      <c r="G560" s="43"/>
+      <c r="H560" s="43"/>
+      <c r="I560" s="43"/>
+      <c r="J560" s="43"/>
+      <c r="K560" s="43"/>
+      <c r="L560" s="43"/>
+      <c r="M560" s="43"/>
+      <c r="N560" s="43"/>
+      <c r="O560" s="43"/>
       <c r="P560" s="5"/>
     </row>
     <row r="561" spans="1:16" ht="18">
@@ -15576,7 +15618,7 @@
       </c>
       <c r="J565" s="6"/>
       <c r="K565" s="6"/>
-      <c r="L565" s="33" t="s">
+      <c r="L565" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M565" s="32"/>
@@ -15598,7 +15640,7 @@
       </c>
       <c r="J566" s="6"/>
       <c r="K566" s="6"/>
-      <c r="L566" s="33" t="s">
+      <c r="L566" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M566" s="32"/>
@@ -15607,16 +15649,16 @@
       <c r="P566" s="5"/>
     </row>
     <row r="567" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A567" s="34" t="s">
+      <c r="A567" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B567" s="35"/>
-      <c r="C567" s="36"/>
-      <c r="D567" s="37" t="s">
+      <c r="B567" s="34"/>
+      <c r="C567" s="35"/>
+      <c r="D567" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E567" s="35"/>
-      <c r="F567" s="36"/>
+      <c r="E567" s="34"/>
+      <c r="F567" s="35"/>
       <c r="G567" s="6"/>
       <c r="H567" s="6"/>
       <c r="I567" s="6" t="s">
@@ -15672,7 +15714,7 @@
       </c>
       <c r="J569" s="6"/>
       <c r="K569" s="6"/>
-      <c r="L569" s="33" t="s">
+      <c r="L569" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M569" s="32"/>
@@ -16035,19 +16077,19 @@
       <c r="B587" s="28"/>
       <c r="C587" s="28"/>
       <c r="D587" s="28"/>
-      <c r="E587" s="29" t="s">
+      <c r="E587" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F587" s="29"/>
-      <c r="G587" s="29"/>
-      <c r="H587" s="29"/>
-      <c r="I587" s="29"/>
-      <c r="J587" s="29"/>
-      <c r="K587" s="29"/>
-      <c r="L587" s="29"/>
-      <c r="M587" s="29"/>
-      <c r="N587" s="29"/>
-      <c r="O587" s="29"/>
+      <c r="F587" s="43"/>
+      <c r="G587" s="43"/>
+      <c r="H587" s="43"/>
+      <c r="I587" s="43"/>
+      <c r="J587" s="43"/>
+      <c r="K587" s="43"/>
+      <c r="L587" s="43"/>
+      <c r="M587" s="43"/>
+      <c r="N587" s="43"/>
+      <c r="O587" s="43"/>
       <c r="P587" s="5"/>
     </row>
     <row r="588" spans="1:16">
@@ -16055,17 +16097,17 @@
       <c r="B588" s="28"/>
       <c r="C588" s="28"/>
       <c r="D588" s="28"/>
-      <c r="E588" s="29"/>
-      <c r="F588" s="29"/>
-      <c r="G588" s="29"/>
-      <c r="H588" s="29"/>
-      <c r="I588" s="29"/>
-      <c r="J588" s="29"/>
-      <c r="K588" s="29"/>
-      <c r="L588" s="29"/>
-      <c r="M588" s="29"/>
-      <c r="N588" s="29"/>
-      <c r="O588" s="29"/>
+      <c r="E588" s="43"/>
+      <c r="F588" s="43"/>
+      <c r="G588" s="43"/>
+      <c r="H588" s="43"/>
+      <c r="I588" s="43"/>
+      <c r="J588" s="43"/>
+      <c r="K588" s="43"/>
+      <c r="L588" s="43"/>
+      <c r="M588" s="43"/>
+      <c r="N588" s="43"/>
+      <c r="O588" s="43"/>
       <c r="P588" s="5"/>
     </row>
     <row r="589" spans="1:16">
@@ -16073,17 +16115,17 @@
       <c r="B589" s="28"/>
       <c r="C589" s="28"/>
       <c r="D589" s="28"/>
-      <c r="E589" s="29"/>
-      <c r="F589" s="29"/>
-      <c r="G589" s="29"/>
-      <c r="H589" s="29"/>
-      <c r="I589" s="29"/>
-      <c r="J589" s="29"/>
-      <c r="K589" s="29"/>
-      <c r="L589" s="29"/>
-      <c r="M589" s="29"/>
-      <c r="N589" s="29"/>
-      <c r="O589" s="29"/>
+      <c r="E589" s="43"/>
+      <c r="F589" s="43"/>
+      <c r="G589" s="43"/>
+      <c r="H589" s="43"/>
+      <c r="I589" s="43"/>
+      <c r="J589" s="43"/>
+      <c r="K589" s="43"/>
+      <c r="L589" s="43"/>
+      <c r="M589" s="43"/>
+      <c r="N589" s="43"/>
+      <c r="O589" s="43"/>
       <c r="P589" s="5"/>
     </row>
     <row r="590" spans="1:16">
@@ -16091,17 +16133,17 @@
       <c r="B590" s="28"/>
       <c r="C590" s="28"/>
       <c r="D590" s="28"/>
-      <c r="E590" s="29"/>
-      <c r="F590" s="29"/>
-      <c r="G590" s="29"/>
-      <c r="H590" s="29"/>
-      <c r="I590" s="29"/>
-      <c r="J590" s="29"/>
-      <c r="K590" s="29"/>
-      <c r="L590" s="29"/>
-      <c r="M590" s="29"/>
-      <c r="N590" s="29"/>
-      <c r="O590" s="29"/>
+      <c r="E590" s="43"/>
+      <c r="F590" s="43"/>
+      <c r="G590" s="43"/>
+      <c r="H590" s="43"/>
+      <c r="I590" s="43"/>
+      <c r="J590" s="43"/>
+      <c r="K590" s="43"/>
+      <c r="L590" s="43"/>
+      <c r="M590" s="43"/>
+      <c r="N590" s="43"/>
+      <c r="O590" s="43"/>
       <c r="P590" s="5"/>
     </row>
     <row r="591" spans="1:16" ht="18">
@@ -16218,7 +16260,7 @@
       </c>
       <c r="J596" s="6"/>
       <c r="K596" s="6"/>
-      <c r="L596" s="33" t="s">
+      <c r="L596" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M596" s="32"/>
@@ -16227,16 +16269,16 @@
       <c r="P596" s="5"/>
     </row>
     <row r="597" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A597" s="34" t="s">
+      <c r="A597" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B597" s="35"/>
-      <c r="C597" s="36"/>
-      <c r="D597" s="37" t="s">
+      <c r="B597" s="34"/>
+      <c r="C597" s="35"/>
+      <c r="D597" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E597" s="35"/>
-      <c r="F597" s="36"/>
+      <c r="E597" s="34"/>
+      <c r="F597" s="35"/>
       <c r="G597" s="6"/>
       <c r="H597" s="6"/>
       <c r="I597" s="6" t="s">
@@ -16292,7 +16334,7 @@
       </c>
       <c r="J599" s="6"/>
       <c r="K599" s="6"/>
-      <c r="L599" s="33" t="s">
+      <c r="L599" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M599" s="32"/>
@@ -16613,19 +16655,19 @@
       <c r="B613" s="28"/>
       <c r="C613" s="28"/>
       <c r="D613" s="28"/>
-      <c r="E613" s="29" t="s">
+      <c r="E613" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F613" s="29"/>
-      <c r="G613" s="29"/>
-      <c r="H613" s="29"/>
-      <c r="I613" s="29"/>
-      <c r="J613" s="29"/>
-      <c r="K613" s="29"/>
-      <c r="L613" s="29"/>
-      <c r="M613" s="29"/>
-      <c r="N613" s="29"/>
-      <c r="O613" s="29"/>
+      <c r="F613" s="43"/>
+      <c r="G613" s="43"/>
+      <c r="H613" s="43"/>
+      <c r="I613" s="43"/>
+      <c r="J613" s="43"/>
+      <c r="K613" s="43"/>
+      <c r="L613" s="43"/>
+      <c r="M613" s="43"/>
+      <c r="N613" s="43"/>
+      <c r="O613" s="43"/>
       <c r="P613" s="5"/>
     </row>
     <row r="614" spans="1:16">
@@ -16633,17 +16675,17 @@
       <c r="B614" s="28"/>
       <c r="C614" s="28"/>
       <c r="D614" s="28"/>
-      <c r="E614" s="29"/>
-      <c r="F614" s="29"/>
-      <c r="G614" s="29"/>
-      <c r="H614" s="29"/>
-      <c r="I614" s="29"/>
-      <c r="J614" s="29"/>
-      <c r="K614" s="29"/>
-      <c r="L614" s="29"/>
-      <c r="M614" s="29"/>
-      <c r="N614" s="29"/>
-      <c r="O614" s="29"/>
+      <c r="E614" s="43"/>
+      <c r="F614" s="43"/>
+      <c r="G614" s="43"/>
+      <c r="H614" s="43"/>
+      <c r="I614" s="43"/>
+      <c r="J614" s="43"/>
+      <c r="K614" s="43"/>
+      <c r="L614" s="43"/>
+      <c r="M614" s="43"/>
+      <c r="N614" s="43"/>
+      <c r="O614" s="43"/>
       <c r="P614" s="5"/>
     </row>
     <row r="615" spans="1:16">
@@ -16651,17 +16693,17 @@
       <c r="B615" s="28"/>
       <c r="C615" s="28"/>
       <c r="D615" s="28"/>
-      <c r="E615" s="29"/>
-      <c r="F615" s="29"/>
-      <c r="G615" s="29"/>
-      <c r="H615" s="29"/>
-      <c r="I615" s="29"/>
-      <c r="J615" s="29"/>
-      <c r="K615" s="29"/>
-      <c r="L615" s="29"/>
-      <c r="M615" s="29"/>
-      <c r="N615" s="29"/>
-      <c r="O615" s="29"/>
+      <c r="E615" s="43"/>
+      <c r="F615" s="43"/>
+      <c r="G615" s="43"/>
+      <c r="H615" s="43"/>
+      <c r="I615" s="43"/>
+      <c r="J615" s="43"/>
+      <c r="K615" s="43"/>
+      <c r="L615" s="43"/>
+      <c r="M615" s="43"/>
+      <c r="N615" s="43"/>
+      <c r="O615" s="43"/>
       <c r="P615" s="5"/>
     </row>
     <row r="616" spans="1:16">
@@ -16669,17 +16711,17 @@
       <c r="B616" s="28"/>
       <c r="C616" s="28"/>
       <c r="D616" s="28"/>
-      <c r="E616" s="29"/>
-      <c r="F616" s="29"/>
-      <c r="G616" s="29"/>
-      <c r="H616" s="29"/>
-      <c r="I616" s="29"/>
-      <c r="J616" s="29"/>
-      <c r="K616" s="29"/>
-      <c r="L616" s="29"/>
-      <c r="M616" s="29"/>
-      <c r="N616" s="29"/>
-      <c r="O616" s="29"/>
+      <c r="E616" s="43"/>
+      <c r="F616" s="43"/>
+      <c r="G616" s="43"/>
+      <c r="H616" s="43"/>
+      <c r="I616" s="43"/>
+      <c r="J616" s="43"/>
+      <c r="K616" s="43"/>
+      <c r="L616" s="43"/>
+      <c r="M616" s="43"/>
+      <c r="N616" s="43"/>
+      <c r="O616" s="43"/>
       <c r="P616" s="5"/>
     </row>
     <row r="617" spans="1:16" ht="18">
@@ -16796,7 +16838,7 @@
       </c>
       <c r="J622" s="6"/>
       <c r="K622" s="6"/>
-      <c r="L622" s="33" t="s">
+      <c r="L622" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M622" s="32"/>
@@ -16805,16 +16847,16 @@
       <c r="P622" s="5"/>
     </row>
     <row r="623" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A623" s="34" t="s">
+      <c r="A623" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B623" s="35"/>
-      <c r="C623" s="36"/>
-      <c r="D623" s="37" t="s">
+      <c r="B623" s="34"/>
+      <c r="C623" s="35"/>
+      <c r="D623" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E623" s="35"/>
-      <c r="F623" s="36"/>
+      <c r="E623" s="34"/>
+      <c r="F623" s="35"/>
       <c r="G623" s="6"/>
       <c r="H623" s="6"/>
       <c r="I623" s="6" t="s">
@@ -16868,7 +16910,7 @@
       </c>
       <c r="J625" s="6"/>
       <c r="K625" s="6"/>
-      <c r="L625" s="33" t="s">
+      <c r="L625" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M625" s="32"/>
@@ -17151,19 +17193,19 @@
       <c r="B639" s="28"/>
       <c r="C639" s="28"/>
       <c r="D639" s="28"/>
-      <c r="E639" s="29" t="s">
+      <c r="E639" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F639" s="29"/>
-      <c r="G639" s="29"/>
-      <c r="H639" s="29"/>
-      <c r="I639" s="29"/>
-      <c r="J639" s="29"/>
-      <c r="K639" s="29"/>
-      <c r="L639" s="29"/>
-      <c r="M639" s="29"/>
-      <c r="N639" s="29"/>
-      <c r="O639" s="29"/>
+      <c r="F639" s="43"/>
+      <c r="G639" s="43"/>
+      <c r="H639" s="43"/>
+      <c r="I639" s="43"/>
+      <c r="J639" s="43"/>
+      <c r="K639" s="43"/>
+      <c r="L639" s="43"/>
+      <c r="M639" s="43"/>
+      <c r="N639" s="43"/>
+      <c r="O639" s="43"/>
       <c r="P639" s="5"/>
     </row>
     <row r="640" spans="1:16">
@@ -17171,17 +17213,17 @@
       <c r="B640" s="28"/>
       <c r="C640" s="28"/>
       <c r="D640" s="28"/>
-      <c r="E640" s="29"/>
-      <c r="F640" s="29"/>
-      <c r="G640" s="29"/>
-      <c r="H640" s="29"/>
-      <c r="I640" s="29"/>
-      <c r="J640" s="29"/>
-      <c r="K640" s="29"/>
-      <c r="L640" s="29"/>
-      <c r="M640" s="29"/>
-      <c r="N640" s="29"/>
-      <c r="O640" s="29"/>
+      <c r="E640" s="43"/>
+      <c r="F640" s="43"/>
+      <c r="G640" s="43"/>
+      <c r="H640" s="43"/>
+      <c r="I640" s="43"/>
+      <c r="J640" s="43"/>
+      <c r="K640" s="43"/>
+      <c r="L640" s="43"/>
+      <c r="M640" s="43"/>
+      <c r="N640" s="43"/>
+      <c r="O640" s="43"/>
       <c r="P640" s="5"/>
     </row>
     <row r="641" spans="1:16">
@@ -17189,17 +17231,17 @@
       <c r="B641" s="28"/>
       <c r="C641" s="28"/>
       <c r="D641" s="28"/>
-      <c r="E641" s="29"/>
-      <c r="F641" s="29"/>
-      <c r="G641" s="29"/>
-      <c r="H641" s="29"/>
-      <c r="I641" s="29"/>
-      <c r="J641" s="29"/>
-      <c r="K641" s="29"/>
-      <c r="L641" s="29"/>
-      <c r="M641" s="29"/>
-      <c r="N641" s="29"/>
-      <c r="O641" s="29"/>
+      <c r="E641" s="43"/>
+      <c r="F641" s="43"/>
+      <c r="G641" s="43"/>
+      <c r="H641" s="43"/>
+      <c r="I641" s="43"/>
+      <c r="J641" s="43"/>
+      <c r="K641" s="43"/>
+      <c r="L641" s="43"/>
+      <c r="M641" s="43"/>
+      <c r="N641" s="43"/>
+      <c r="O641" s="43"/>
       <c r="P641" s="5"/>
     </row>
     <row r="642" spans="1:16">
@@ -17207,17 +17249,17 @@
       <c r="B642" s="28"/>
       <c r="C642" s="28"/>
       <c r="D642" s="28"/>
-      <c r="E642" s="29"/>
-      <c r="F642" s="29"/>
-      <c r="G642" s="29"/>
-      <c r="H642" s="29"/>
-      <c r="I642" s="29"/>
-      <c r="J642" s="29"/>
-      <c r="K642" s="29"/>
-      <c r="L642" s="29"/>
-      <c r="M642" s="29"/>
-      <c r="N642" s="29"/>
-      <c r="O642" s="29"/>
+      <c r="E642" s="43"/>
+      <c r="F642" s="43"/>
+      <c r="G642" s="43"/>
+      <c r="H642" s="43"/>
+      <c r="I642" s="43"/>
+      <c r="J642" s="43"/>
+      <c r="K642" s="43"/>
+      <c r="L642" s="43"/>
+      <c r="M642" s="43"/>
+      <c r="N642" s="43"/>
+      <c r="O642" s="43"/>
       <c r="P642" s="5"/>
     </row>
     <row r="643" spans="1:16" ht="18">
@@ -17334,7 +17376,7 @@
       </c>
       <c r="J648" s="6"/>
       <c r="K648" s="6"/>
-      <c r="L648" s="33" t="s">
+      <c r="L648" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M648" s="32"/>
@@ -17343,16 +17385,16 @@
       <c r="P648" s="5"/>
     </row>
     <row r="649" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A649" s="34" t="s">
+      <c r="A649" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B649" s="35"/>
-      <c r="C649" s="36"/>
-      <c r="D649" s="37" t="s">
+      <c r="B649" s="34"/>
+      <c r="C649" s="35"/>
+      <c r="D649" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E649" s="35"/>
-      <c r="F649" s="36"/>
+      <c r="E649" s="34"/>
+      <c r="F649" s="35"/>
       <c r="G649" s="6"/>
       <c r="H649" s="6"/>
       <c r="I649" s="6" t="s">
@@ -17406,7 +17448,7 @@
       </c>
       <c r="J651" s="6"/>
       <c r="K651" s="6"/>
-      <c r="L651" s="33" t="s">
+      <c r="L651" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M651" s="32"/>
@@ -17691,19 +17733,19 @@
       <c r="B665" s="28"/>
       <c r="C665" s="28"/>
       <c r="D665" s="28"/>
-      <c r="E665" s="29" t="s">
+      <c r="E665" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F665" s="29"/>
-      <c r="G665" s="29"/>
-      <c r="H665" s="29"/>
-      <c r="I665" s="29"/>
-      <c r="J665" s="29"/>
-      <c r="K665" s="29"/>
-      <c r="L665" s="29"/>
-      <c r="M665" s="29"/>
-      <c r="N665" s="29"/>
-      <c r="O665" s="29"/>
+      <c r="F665" s="43"/>
+      <c r="G665" s="43"/>
+      <c r="H665" s="43"/>
+      <c r="I665" s="43"/>
+      <c r="J665" s="43"/>
+      <c r="K665" s="43"/>
+      <c r="L665" s="43"/>
+      <c r="M665" s="43"/>
+      <c r="N665" s="43"/>
+      <c r="O665" s="43"/>
       <c r="P665" s="5"/>
     </row>
     <row r="666" spans="1:16">
@@ -17711,17 +17753,17 @@
       <c r="B666" s="28"/>
       <c r="C666" s="28"/>
       <c r="D666" s="28"/>
-      <c r="E666" s="29"/>
-      <c r="F666" s="29"/>
-      <c r="G666" s="29"/>
-      <c r="H666" s="29"/>
-      <c r="I666" s="29"/>
-      <c r="J666" s="29"/>
-      <c r="K666" s="29"/>
-      <c r="L666" s="29"/>
-      <c r="M666" s="29"/>
-      <c r="N666" s="29"/>
-      <c r="O666" s="29"/>
+      <c r="E666" s="43"/>
+      <c r="F666" s="43"/>
+      <c r="G666" s="43"/>
+      <c r="H666" s="43"/>
+      <c r="I666" s="43"/>
+      <c r="J666" s="43"/>
+      <c r="K666" s="43"/>
+      <c r="L666" s="43"/>
+      <c r="M666" s="43"/>
+      <c r="N666" s="43"/>
+      <c r="O666" s="43"/>
       <c r="P666" s="5"/>
     </row>
     <row r="667" spans="1:16">
@@ -17729,17 +17771,17 @@
       <c r="B667" s="28"/>
       <c r="C667" s="28"/>
       <c r="D667" s="28"/>
-      <c r="E667" s="29"/>
-      <c r="F667" s="29"/>
-      <c r="G667" s="29"/>
-      <c r="H667" s="29"/>
-      <c r="I667" s="29"/>
-      <c r="J667" s="29"/>
-      <c r="K667" s="29"/>
-      <c r="L667" s="29"/>
-      <c r="M667" s="29"/>
-      <c r="N667" s="29"/>
-      <c r="O667" s="29"/>
+      <c r="E667" s="43"/>
+      <c r="F667" s="43"/>
+      <c r="G667" s="43"/>
+      <c r="H667" s="43"/>
+      <c r="I667" s="43"/>
+      <c r="J667" s="43"/>
+      <c r="K667" s="43"/>
+      <c r="L667" s="43"/>
+      <c r="M667" s="43"/>
+      <c r="N667" s="43"/>
+      <c r="O667" s="43"/>
       <c r="P667" s="5"/>
     </row>
     <row r="668" spans="1:16">
@@ -17747,17 +17789,17 @@
       <c r="B668" s="28"/>
       <c r="C668" s="28"/>
       <c r="D668" s="28"/>
-      <c r="E668" s="29"/>
-      <c r="F668" s="29"/>
-      <c r="G668" s="29"/>
-      <c r="H668" s="29"/>
-      <c r="I668" s="29"/>
-      <c r="J668" s="29"/>
-      <c r="K668" s="29"/>
-      <c r="L668" s="29"/>
-      <c r="M668" s="29"/>
-      <c r="N668" s="29"/>
-      <c r="O668" s="29"/>
+      <c r="E668" s="43"/>
+      <c r="F668" s="43"/>
+      <c r="G668" s="43"/>
+      <c r="H668" s="43"/>
+      <c r="I668" s="43"/>
+      <c r="J668" s="43"/>
+      <c r="K668" s="43"/>
+      <c r="L668" s="43"/>
+      <c r="M668" s="43"/>
+      <c r="N668" s="43"/>
+      <c r="O668" s="43"/>
       <c r="P668" s="5"/>
     </row>
     <row r="669" spans="1:16" ht="18">
@@ -17874,7 +17916,7 @@
       </c>
       <c r="J674" s="6"/>
       <c r="K674" s="6"/>
-      <c r="L674" s="33" t="s">
+      <c r="L674" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M674" s="32"/>
@@ -17883,16 +17925,16 @@
       <c r="P674" s="5"/>
     </row>
     <row r="675" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A675" s="34" t="s">
+      <c r="A675" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B675" s="35"/>
-      <c r="C675" s="36"/>
-      <c r="D675" s="37" t="s">
+      <c r="B675" s="34"/>
+      <c r="C675" s="35"/>
+      <c r="D675" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E675" s="35"/>
-      <c r="F675" s="36"/>
+      <c r="E675" s="34"/>
+      <c r="F675" s="35"/>
       <c r="G675" s="6"/>
       <c r="H675" s="6"/>
       <c r="I675" s="6" t="s">
@@ -17948,7 +17990,7 @@
       </c>
       <c r="J677" s="6"/>
       <c r="K677" s="6"/>
-      <c r="L677" s="33" t="s">
+      <c r="L677" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M677" s="32"/>
@@ -18271,19 +18313,19 @@
       <c r="B693" s="28"/>
       <c r="C693" s="28"/>
       <c r="D693" s="28"/>
-      <c r="E693" s="29" t="s">
+      <c r="E693" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F693" s="29"/>
-      <c r="G693" s="29"/>
-      <c r="H693" s="29"/>
-      <c r="I693" s="29"/>
-      <c r="J693" s="29"/>
-      <c r="K693" s="29"/>
-      <c r="L693" s="29"/>
-      <c r="M693" s="29"/>
-      <c r="N693" s="29"/>
-      <c r="O693" s="29"/>
+      <c r="F693" s="43"/>
+      <c r="G693" s="43"/>
+      <c r="H693" s="43"/>
+      <c r="I693" s="43"/>
+      <c r="J693" s="43"/>
+      <c r="K693" s="43"/>
+      <c r="L693" s="43"/>
+      <c r="M693" s="43"/>
+      <c r="N693" s="43"/>
+      <c r="O693" s="43"/>
       <c r="P693" s="5"/>
     </row>
     <row r="694" spans="1:16">
@@ -18291,17 +18333,17 @@
       <c r="B694" s="28"/>
       <c r="C694" s="28"/>
       <c r="D694" s="28"/>
-      <c r="E694" s="29"/>
-      <c r="F694" s="29"/>
-      <c r="G694" s="29"/>
-      <c r="H694" s="29"/>
-      <c r="I694" s="29"/>
-      <c r="J694" s="29"/>
-      <c r="K694" s="29"/>
-      <c r="L694" s="29"/>
-      <c r="M694" s="29"/>
-      <c r="N694" s="29"/>
-      <c r="O694" s="29"/>
+      <c r="E694" s="43"/>
+      <c r="F694" s="43"/>
+      <c r="G694" s="43"/>
+      <c r="H694" s="43"/>
+      <c r="I694" s="43"/>
+      <c r="J694" s="43"/>
+      <c r="K694" s="43"/>
+      <c r="L694" s="43"/>
+      <c r="M694" s="43"/>
+      <c r="N694" s="43"/>
+      <c r="O694" s="43"/>
       <c r="P694" s="5"/>
     </row>
     <row r="695" spans="1:16">
@@ -18309,17 +18351,17 @@
       <c r="B695" s="28"/>
       <c r="C695" s="28"/>
       <c r="D695" s="28"/>
-      <c r="E695" s="29"/>
-      <c r="F695" s="29"/>
-      <c r="G695" s="29"/>
-      <c r="H695" s="29"/>
-      <c r="I695" s="29"/>
-      <c r="J695" s="29"/>
-      <c r="K695" s="29"/>
-      <c r="L695" s="29"/>
-      <c r="M695" s="29"/>
-      <c r="N695" s="29"/>
-      <c r="O695" s="29"/>
+      <c r="E695" s="43"/>
+      <c r="F695" s="43"/>
+      <c r="G695" s="43"/>
+      <c r="H695" s="43"/>
+      <c r="I695" s="43"/>
+      <c r="J695" s="43"/>
+      <c r="K695" s="43"/>
+      <c r="L695" s="43"/>
+      <c r="M695" s="43"/>
+      <c r="N695" s="43"/>
+      <c r="O695" s="43"/>
       <c r="P695" s="5"/>
     </row>
     <row r="696" spans="1:16">
@@ -18327,17 +18369,17 @@
       <c r="B696" s="28"/>
       <c r="C696" s="28"/>
       <c r="D696" s="28"/>
-      <c r="E696" s="29"/>
-      <c r="F696" s="29"/>
-      <c r="G696" s="29"/>
-      <c r="H696" s="29"/>
-      <c r="I696" s="29"/>
-      <c r="J696" s="29"/>
-      <c r="K696" s="29"/>
-      <c r="L696" s="29"/>
-      <c r="M696" s="29"/>
-      <c r="N696" s="29"/>
-      <c r="O696" s="29"/>
+      <c r="E696" s="43"/>
+      <c r="F696" s="43"/>
+      <c r="G696" s="43"/>
+      <c r="H696" s="43"/>
+      <c r="I696" s="43"/>
+      <c r="J696" s="43"/>
+      <c r="K696" s="43"/>
+      <c r="L696" s="43"/>
+      <c r="M696" s="43"/>
+      <c r="N696" s="43"/>
+      <c r="O696" s="43"/>
       <c r="P696" s="5"/>
     </row>
     <row r="697" spans="1:16" ht="18">
@@ -18454,7 +18496,7 @@
       </c>
       <c r="J702" s="6"/>
       <c r="K702" s="6"/>
-      <c r="L702" s="33" t="s">
+      <c r="L702" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M702" s="32"/>
@@ -18463,16 +18505,16 @@
       <c r="P702" s="5"/>
     </row>
     <row r="703" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A703" s="34" t="s">
+      <c r="A703" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B703" s="35"/>
-      <c r="C703" s="36"/>
-      <c r="D703" s="37" t="s">
+      <c r="B703" s="34"/>
+      <c r="C703" s="35"/>
+      <c r="D703" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E703" s="35"/>
-      <c r="F703" s="36"/>
+      <c r="E703" s="34"/>
+      <c r="F703" s="35"/>
       <c r="G703" s="6"/>
       <c r="H703" s="6"/>
       <c r="I703" s="6" t="s">
@@ -18480,7 +18522,7 @@
       </c>
       <c r="J703" s="6"/>
       <c r="K703" s="6"/>
-      <c r="L703" s="33" t="s">
+      <c r="L703" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M703" s="32"/>
@@ -18528,7 +18570,7 @@
       </c>
       <c r="J705" s="6"/>
       <c r="K705" s="6"/>
-      <c r="L705" s="33" t="s">
+      <c r="L705" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M705" s="32"/>
@@ -18839,19 +18881,19 @@
       <c r="B721" s="28"/>
       <c r="C721" s="28"/>
       <c r="D721" s="28"/>
-      <c r="E721" s="29" t="s">
+      <c r="E721" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F721" s="29"/>
-      <c r="G721" s="29"/>
-      <c r="H721" s="29"/>
-      <c r="I721" s="29"/>
-      <c r="J721" s="29"/>
-      <c r="K721" s="29"/>
-      <c r="L721" s="29"/>
-      <c r="M721" s="29"/>
-      <c r="N721" s="29"/>
-      <c r="O721" s="29"/>
+      <c r="F721" s="43"/>
+      <c r="G721" s="43"/>
+      <c r="H721" s="43"/>
+      <c r="I721" s="43"/>
+      <c r="J721" s="43"/>
+      <c r="K721" s="43"/>
+      <c r="L721" s="43"/>
+      <c r="M721" s="43"/>
+      <c r="N721" s="43"/>
+      <c r="O721" s="43"/>
       <c r="P721" s="5"/>
     </row>
     <row r="722" spans="1:16">
@@ -18859,17 +18901,17 @@
       <c r="B722" s="28"/>
       <c r="C722" s="28"/>
       <c r="D722" s="28"/>
-      <c r="E722" s="29"/>
-      <c r="F722" s="29"/>
-      <c r="G722" s="29"/>
-      <c r="H722" s="29"/>
-      <c r="I722" s="29"/>
-      <c r="J722" s="29"/>
-      <c r="K722" s="29"/>
-      <c r="L722" s="29"/>
-      <c r="M722" s="29"/>
-      <c r="N722" s="29"/>
-      <c r="O722" s="29"/>
+      <c r="E722" s="43"/>
+      <c r="F722" s="43"/>
+      <c r="G722" s="43"/>
+      <c r="H722" s="43"/>
+      <c r="I722" s="43"/>
+      <c r="J722" s="43"/>
+      <c r="K722" s="43"/>
+      <c r="L722" s="43"/>
+      <c r="M722" s="43"/>
+      <c r="N722" s="43"/>
+      <c r="O722" s="43"/>
       <c r="P722" s="5"/>
     </row>
     <row r="723" spans="1:16">
@@ -18877,17 +18919,17 @@
       <c r="B723" s="28"/>
       <c r="C723" s="28"/>
       <c r="D723" s="28"/>
-      <c r="E723" s="29"/>
-      <c r="F723" s="29"/>
-      <c r="G723" s="29"/>
-      <c r="H723" s="29"/>
-      <c r="I723" s="29"/>
-      <c r="J723" s="29"/>
-      <c r="K723" s="29"/>
-      <c r="L723" s="29"/>
-      <c r="M723" s="29"/>
-      <c r="N723" s="29"/>
-      <c r="O723" s="29"/>
+      <c r="E723" s="43"/>
+      <c r="F723" s="43"/>
+      <c r="G723" s="43"/>
+      <c r="H723" s="43"/>
+      <c r="I723" s="43"/>
+      <c r="J723" s="43"/>
+      <c r="K723" s="43"/>
+      <c r="L723" s="43"/>
+      <c r="M723" s="43"/>
+      <c r="N723" s="43"/>
+      <c r="O723" s="43"/>
       <c r="P723" s="5"/>
     </row>
     <row r="724" spans="1:16">
@@ -18895,17 +18937,17 @@
       <c r="B724" s="28"/>
       <c r="C724" s="28"/>
       <c r="D724" s="28"/>
-      <c r="E724" s="29"/>
-      <c r="F724" s="29"/>
-      <c r="G724" s="29"/>
-      <c r="H724" s="29"/>
-      <c r="I724" s="29"/>
-      <c r="J724" s="29"/>
-      <c r="K724" s="29"/>
-      <c r="L724" s="29"/>
-      <c r="M724" s="29"/>
-      <c r="N724" s="29"/>
-      <c r="O724" s="29"/>
+      <c r="E724" s="43"/>
+      <c r="F724" s="43"/>
+      <c r="G724" s="43"/>
+      <c r="H724" s="43"/>
+      <c r="I724" s="43"/>
+      <c r="J724" s="43"/>
+      <c r="K724" s="43"/>
+      <c r="L724" s="43"/>
+      <c r="M724" s="43"/>
+      <c r="N724" s="43"/>
+      <c r="O724" s="43"/>
       <c r="P724" s="5"/>
     </row>
     <row r="725" spans="1:16" ht="18">
@@ -19022,7 +19064,7 @@
       </c>
       <c r="J730" s="6"/>
       <c r="K730" s="6"/>
-      <c r="L730" s="33" t="s">
+      <c r="L730" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M730" s="32"/>
@@ -19031,16 +19073,16 @@
       <c r="P730" s="5"/>
     </row>
     <row r="731" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A731" s="34" t="s">
+      <c r="A731" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B731" s="35"/>
-      <c r="C731" s="36"/>
-      <c r="D731" s="37" t="s">
+      <c r="B731" s="34"/>
+      <c r="C731" s="35"/>
+      <c r="D731" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E731" s="35"/>
-      <c r="F731" s="36"/>
+      <c r="E731" s="34"/>
+      <c r="F731" s="35"/>
       <c r="G731" s="6"/>
       <c r="H731" s="6"/>
       <c r="I731" s="6" t="s">
@@ -19096,7 +19138,7 @@
       </c>
       <c r="J733" s="6"/>
       <c r="K733" s="6"/>
-      <c r="L733" s="33" t="s">
+      <c r="L733" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M733" s="32"/>
@@ -19405,19 +19447,19 @@
       <c r="B749" s="28"/>
       <c r="C749" s="28"/>
       <c r="D749" s="28"/>
-      <c r="E749" s="65" t="s">
+      <c r="E749" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F749" s="65"/>
-      <c r="G749" s="65"/>
-      <c r="H749" s="65"/>
-      <c r="I749" s="65"/>
-      <c r="J749" s="65"/>
-      <c r="K749" s="65"/>
-      <c r="L749" s="65"/>
-      <c r="M749" s="65"/>
-      <c r="N749" s="65"/>
-      <c r="O749" s="65"/>
+      <c r="F749" s="29"/>
+      <c r="G749" s="29"/>
+      <c r="H749" s="29"/>
+      <c r="I749" s="29"/>
+      <c r="J749" s="29"/>
+      <c r="K749" s="29"/>
+      <c r="L749" s="29"/>
+      <c r="M749" s="29"/>
+      <c r="N749" s="29"/>
+      <c r="O749" s="29"/>
       <c r="P749" s="5"/>
     </row>
     <row r="750" spans="1:16">
@@ -19425,17 +19467,17 @@
       <c r="B750" s="28"/>
       <c r="C750" s="28"/>
       <c r="D750" s="28"/>
-      <c r="E750" s="65"/>
-      <c r="F750" s="65"/>
-      <c r="G750" s="65"/>
-      <c r="H750" s="65"/>
-      <c r="I750" s="65"/>
-      <c r="J750" s="65"/>
-      <c r="K750" s="65"/>
-      <c r="L750" s="65"/>
-      <c r="M750" s="65"/>
-      <c r="N750" s="65"/>
-      <c r="O750" s="65"/>
+      <c r="E750" s="29"/>
+      <c r="F750" s="29"/>
+      <c r="G750" s="29"/>
+      <c r="H750" s="29"/>
+      <c r="I750" s="29"/>
+      <c r="J750" s="29"/>
+      <c r="K750" s="29"/>
+      <c r="L750" s="29"/>
+      <c r="M750" s="29"/>
+      <c r="N750" s="29"/>
+      <c r="O750" s="29"/>
       <c r="P750" s="5"/>
     </row>
     <row r="751" spans="1:16">
@@ -19443,17 +19485,17 @@
       <c r="B751" s="28"/>
       <c r="C751" s="28"/>
       <c r="D751" s="28"/>
-      <c r="E751" s="65"/>
-      <c r="F751" s="65"/>
-      <c r="G751" s="65"/>
-      <c r="H751" s="65"/>
-      <c r="I751" s="65"/>
-      <c r="J751" s="65"/>
-      <c r="K751" s="65"/>
-      <c r="L751" s="65"/>
-      <c r="M751" s="65"/>
-      <c r="N751" s="65"/>
-      <c r="O751" s="65"/>
+      <c r="E751" s="29"/>
+      <c r="F751" s="29"/>
+      <c r="G751" s="29"/>
+      <c r="H751" s="29"/>
+      <c r="I751" s="29"/>
+      <c r="J751" s="29"/>
+      <c r="K751" s="29"/>
+      <c r="L751" s="29"/>
+      <c r="M751" s="29"/>
+      <c r="N751" s="29"/>
+      <c r="O751" s="29"/>
       <c r="P751" s="5"/>
     </row>
     <row r="752" spans="1:16">
@@ -19461,17 +19503,17 @@
       <c r="B752" s="28"/>
       <c r="C752" s="28"/>
       <c r="D752" s="28"/>
-      <c r="E752" s="65"/>
-      <c r="F752" s="65"/>
-      <c r="G752" s="65"/>
-      <c r="H752" s="65"/>
-      <c r="I752" s="65"/>
-      <c r="J752" s="65"/>
-      <c r="K752" s="65"/>
-      <c r="L752" s="65"/>
-      <c r="M752" s="65"/>
-      <c r="N752" s="65"/>
-      <c r="O752" s="65"/>
+      <c r="E752" s="29"/>
+      <c r="F752" s="29"/>
+      <c r="G752" s="29"/>
+      <c r="H752" s="29"/>
+      <c r="I752" s="29"/>
+      <c r="J752" s="29"/>
+      <c r="K752" s="29"/>
+      <c r="L752" s="29"/>
+      <c r="M752" s="29"/>
+      <c r="N752" s="29"/>
+      <c r="O752" s="29"/>
       <c r="P752" s="5"/>
     </row>
     <row r="753" spans="1:16" ht="18">
@@ -19597,16 +19639,16 @@
       <c r="P758" s="5"/>
     </row>
     <row r="759" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A759" s="34" t="s">
+      <c r="A759" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B759" s="35"/>
-      <c r="C759" s="36"/>
-      <c r="D759" s="37" t="s">
+      <c r="B759" s="34"/>
+      <c r="C759" s="35"/>
+      <c r="D759" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E759" s="35"/>
-      <c r="F759" s="36"/>
+      <c r="E759" s="34"/>
+      <c r="F759" s="35"/>
       <c r="G759" s="6"/>
       <c r="H759" s="6"/>
       <c r="I759" s="6" t="s">
@@ -19623,10 +19665,14 @@
       <c r="P759" s="5"/>
     </row>
     <row r="760" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A760" s="16"/>
+      <c r="A760" s="16" t="s">
+        <v>211</v>
+      </c>
       <c r="B760" s="17"/>
       <c r="C760" s="17"/>
-      <c r="D760" s="17"/>
+      <c r="D760" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="E760" s="17"/>
       <c r="F760" s="17"/>
       <c r="G760" s="6"/>
@@ -19658,7 +19704,7 @@
       </c>
       <c r="J761" s="6"/>
       <c r="K761" s="6"/>
-      <c r="L761" s="33" t="s">
+      <c r="L761" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M761" s="32"/>
@@ -19705,10 +19751,14 @@
       <c r="P763" s="5"/>
     </row>
     <row r="764" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A764" s="16"/>
+      <c r="A764" s="16" t="s">
+        <v>224</v>
+      </c>
       <c r="B764" s="17"/>
       <c r="C764" s="17"/>
-      <c r="D764" s="17"/>
+      <c r="D764" s="17" t="s">
+        <v>212</v>
+      </c>
       <c r="E764" s="17"/>
       <c r="F764" s="17"/>
       <c r="G764" s="39" t="s">
@@ -19737,14 +19787,22 @@
       <c r="D765" s="17"/>
       <c r="E765" s="17"/>
       <c r="F765" s="17"/>
-      <c r="G765" s="18"/>
+      <c r="G765" s="18" t="s">
+        <v>215</v>
+      </c>
       <c r="H765" s="19"/>
       <c r="I765" s="20"/>
-      <c r="J765" s="21"/>
+      <c r="J765" s="21">
+        <v>45592</v>
+      </c>
       <c r="K765" s="15"/>
-      <c r="L765" s="15"/>
+      <c r="L765" s="15" t="s">
+        <v>209</v>
+      </c>
       <c r="M765" s="15"/>
-      <c r="N765" s="15"/>
+      <c r="N765" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="O765" s="15"/>
       <c r="P765" s="5"/>
     </row>
@@ -19755,14 +19813,22 @@
       <c r="D766" s="17"/>
       <c r="E766" s="17"/>
       <c r="F766" s="17"/>
-      <c r="G766" s="18"/>
+      <c r="G766" s="18" t="s">
+        <v>217</v>
+      </c>
       <c r="H766" s="19"/>
       <c r="I766" s="20"/>
-      <c r="J766" s="21"/>
+      <c r="J766" s="21">
+        <v>45592</v>
+      </c>
       <c r="K766" s="15"/>
-      <c r="L766" s="15"/>
+      <c r="L766" s="15" t="s">
+        <v>204</v>
+      </c>
       <c r="M766" s="15"/>
-      <c r="N766" s="15"/>
+      <c r="N766" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="O766" s="15"/>
       <c r="P766" s="5"/>
     </row>
@@ -19773,32 +19839,52 @@
       <c r="D767" s="17"/>
       <c r="E767" s="17"/>
       <c r="F767" s="17"/>
-      <c r="G767" s="18"/>
+      <c r="G767" s="18" t="s">
+        <v>218</v>
+      </c>
       <c r="H767" s="19"/>
       <c r="I767" s="20"/>
-      <c r="J767" s="21"/>
+      <c r="J767" s="21">
+        <v>45592</v>
+      </c>
       <c r="K767" s="15"/>
-      <c r="L767" s="15"/>
+      <c r="L767" s="15" t="s">
+        <v>223</v>
+      </c>
       <c r="M767" s="15"/>
-      <c r="N767" s="15"/>
+      <c r="N767" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="O767" s="15"/>
       <c r="P767" s="5"/>
     </row>
     <row r="768" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A768" s="16"/>
+      <c r="A768" s="16" t="s">
+        <v>214</v>
+      </c>
       <c r="B768" s="17"/>
       <c r="C768" s="17"/>
-      <c r="D768" s="17"/>
+      <c r="D768" s="17" t="s">
+        <v>213</v>
+      </c>
       <c r="E768" s="17"/>
       <c r="F768" s="17"/>
-      <c r="G768" s="18"/>
+      <c r="G768" s="18" t="s">
+        <v>220</v>
+      </c>
       <c r="H768" s="19"/>
       <c r="I768" s="20"/>
-      <c r="J768" s="21"/>
+      <c r="J768" s="21">
+        <v>45592</v>
+      </c>
       <c r="K768" s="15"/>
-      <c r="L768" s="15"/>
+      <c r="L768" s="15" t="s">
+        <v>198</v>
+      </c>
       <c r="M768" s="15"/>
-      <c r="N768" s="15"/>
+      <c r="N768" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="O768" s="15"/>
       <c r="P768" s="5"/>
     </row>
@@ -19809,14 +19895,22 @@
       <c r="D769" s="17"/>
       <c r="E769" s="17"/>
       <c r="F769" s="17"/>
-      <c r="G769" s="18"/>
+      <c r="G769" s="18" t="s">
+        <v>221</v>
+      </c>
       <c r="H769" s="19"/>
       <c r="I769" s="20"/>
-      <c r="J769" s="21"/>
+      <c r="J769" s="21">
+        <v>45592</v>
+      </c>
       <c r="K769" s="15"/>
-      <c r="L769" s="15"/>
+      <c r="L769" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="M769" s="15"/>
-      <c r="N769" s="15"/>
+      <c r="N769" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="O769" s="15"/>
       <c r="P769" s="5"/>
     </row>
@@ -19894,25 +19988,1481 @@
     </row>
   </sheetData>
   <mergeCells count="1526">
-    <mergeCell ref="N767:O767"/>
-    <mergeCell ref="A768:C771"/>
-    <mergeCell ref="D768:F771"/>
-    <mergeCell ref="G768:I768"/>
-    <mergeCell ref="J768:K768"/>
-    <mergeCell ref="L768:M768"/>
-    <mergeCell ref="N768:O768"/>
-    <mergeCell ref="G769:I769"/>
-    <mergeCell ref="J769:K769"/>
-    <mergeCell ref="L769:M769"/>
-    <mergeCell ref="N769:O769"/>
-    <mergeCell ref="G770:I770"/>
-    <mergeCell ref="J770:K770"/>
-    <mergeCell ref="L770:M770"/>
-    <mergeCell ref="N770:O770"/>
-    <mergeCell ref="G771:I771"/>
-    <mergeCell ref="J771:K771"/>
-    <mergeCell ref="L771:M771"/>
-    <mergeCell ref="N771:O771"/>
+    <mergeCell ref="N739:O739"/>
+    <mergeCell ref="A740:C743"/>
+    <mergeCell ref="D740:F743"/>
+    <mergeCell ref="G740:I740"/>
+    <mergeCell ref="J740:K740"/>
+    <mergeCell ref="L740:M740"/>
+    <mergeCell ref="N740:O740"/>
+    <mergeCell ref="G741:I741"/>
+    <mergeCell ref="J741:K741"/>
+    <mergeCell ref="L741:M741"/>
+    <mergeCell ref="N741:O741"/>
+    <mergeCell ref="G742:I742"/>
+    <mergeCell ref="J742:K742"/>
+    <mergeCell ref="L742:M742"/>
+    <mergeCell ref="N742:O742"/>
+    <mergeCell ref="G743:I743"/>
+    <mergeCell ref="J743:K743"/>
+    <mergeCell ref="L743:M743"/>
+    <mergeCell ref="N743:O743"/>
+    <mergeCell ref="A720:D728"/>
+    <mergeCell ref="E721:O724"/>
+    <mergeCell ref="E725:O725"/>
+    <mergeCell ref="E726:O726"/>
+    <mergeCell ref="L728:O728"/>
+    <mergeCell ref="L729:O729"/>
+    <mergeCell ref="L730:O730"/>
+    <mergeCell ref="A731:C731"/>
+    <mergeCell ref="D731:F731"/>
+    <mergeCell ref="L731:O731"/>
+    <mergeCell ref="A732:C735"/>
+    <mergeCell ref="D732:F735"/>
+    <mergeCell ref="L732:O732"/>
+    <mergeCell ref="L733:O733"/>
+    <mergeCell ref="G735:O735"/>
+    <mergeCell ref="A736:C739"/>
+    <mergeCell ref="D736:F739"/>
+    <mergeCell ref="G736:I736"/>
+    <mergeCell ref="J736:K736"/>
+    <mergeCell ref="L736:M736"/>
+    <mergeCell ref="N736:O736"/>
+    <mergeCell ref="G737:I737"/>
+    <mergeCell ref="J737:K737"/>
+    <mergeCell ref="L737:M737"/>
+    <mergeCell ref="N737:O737"/>
+    <mergeCell ref="G738:I738"/>
+    <mergeCell ref="J738:K738"/>
+    <mergeCell ref="L738:M738"/>
+    <mergeCell ref="N738:O738"/>
+    <mergeCell ref="G739:I739"/>
+    <mergeCell ref="J739:K739"/>
+    <mergeCell ref="L739:M739"/>
+    <mergeCell ref="N711:O711"/>
+    <mergeCell ref="A712:C715"/>
+    <mergeCell ref="D712:F715"/>
+    <mergeCell ref="G712:I712"/>
+    <mergeCell ref="J712:K712"/>
+    <mergeCell ref="L712:M712"/>
+    <mergeCell ref="N712:O712"/>
+    <mergeCell ref="G713:I713"/>
+    <mergeCell ref="J713:K713"/>
+    <mergeCell ref="L713:M713"/>
+    <mergeCell ref="N713:O713"/>
+    <mergeCell ref="G714:I714"/>
+    <mergeCell ref="J714:K714"/>
+    <mergeCell ref="L714:M714"/>
+    <mergeCell ref="N714:O714"/>
+    <mergeCell ref="G715:I715"/>
+    <mergeCell ref="J715:K715"/>
+    <mergeCell ref="L715:M715"/>
+    <mergeCell ref="N715:O715"/>
+    <mergeCell ref="A692:D700"/>
+    <mergeCell ref="E693:O696"/>
+    <mergeCell ref="E697:O697"/>
+    <mergeCell ref="E698:O698"/>
+    <mergeCell ref="L700:O700"/>
+    <mergeCell ref="L701:O701"/>
+    <mergeCell ref="L702:O702"/>
+    <mergeCell ref="A703:C703"/>
+    <mergeCell ref="D703:F703"/>
+    <mergeCell ref="L703:O703"/>
+    <mergeCell ref="A704:C707"/>
+    <mergeCell ref="D704:F707"/>
+    <mergeCell ref="L704:O704"/>
+    <mergeCell ref="L705:O705"/>
+    <mergeCell ref="G707:O707"/>
+    <mergeCell ref="A708:C711"/>
+    <mergeCell ref="D708:F711"/>
+    <mergeCell ref="G708:I708"/>
+    <mergeCell ref="J708:K708"/>
+    <mergeCell ref="L708:M708"/>
+    <mergeCell ref="N708:O708"/>
+    <mergeCell ref="G709:I709"/>
+    <mergeCell ref="J709:K709"/>
+    <mergeCell ref="L709:M709"/>
+    <mergeCell ref="N709:O709"/>
+    <mergeCell ref="G710:I710"/>
+    <mergeCell ref="J710:K710"/>
+    <mergeCell ref="L710:M710"/>
+    <mergeCell ref="N710:O710"/>
+    <mergeCell ref="G711:I711"/>
+    <mergeCell ref="J711:K711"/>
+    <mergeCell ref="L711:M711"/>
+    <mergeCell ref="A568:C571"/>
+    <mergeCell ref="D568:F571"/>
+    <mergeCell ref="L568:O568"/>
+    <mergeCell ref="L569:O569"/>
+    <mergeCell ref="G575:O575"/>
+    <mergeCell ref="A572:C575"/>
+    <mergeCell ref="D572:F575"/>
+    <mergeCell ref="A580:C583"/>
+    <mergeCell ref="D580:F583"/>
+    <mergeCell ref="N579:O579"/>
+    <mergeCell ref="A576:C579"/>
+    <mergeCell ref="D576:F579"/>
+    <mergeCell ref="G580:I580"/>
+    <mergeCell ref="J580:K580"/>
+    <mergeCell ref="L580:M580"/>
+    <mergeCell ref="N580:O580"/>
+    <mergeCell ref="G581:I581"/>
+    <mergeCell ref="J581:K581"/>
+    <mergeCell ref="L581:M581"/>
+    <mergeCell ref="N581:O581"/>
+    <mergeCell ref="G582:I582"/>
+    <mergeCell ref="J582:K582"/>
+    <mergeCell ref="L582:M582"/>
+    <mergeCell ref="N582:O582"/>
+    <mergeCell ref="G583:I583"/>
+    <mergeCell ref="J583:K583"/>
+    <mergeCell ref="L583:M583"/>
+    <mergeCell ref="N583:O583"/>
+    <mergeCell ref="G576:I576"/>
+    <mergeCell ref="J576:K576"/>
+    <mergeCell ref="L576:M576"/>
+    <mergeCell ref="N576:O576"/>
+    <mergeCell ref="A530:D538"/>
+    <mergeCell ref="E531:O534"/>
+    <mergeCell ref="E535:O535"/>
+    <mergeCell ref="E536:O536"/>
+    <mergeCell ref="L538:O538"/>
+    <mergeCell ref="L539:O539"/>
+    <mergeCell ref="L540:O540"/>
+    <mergeCell ref="A541:C541"/>
+    <mergeCell ref="D541:F541"/>
+    <mergeCell ref="A556:D564"/>
+    <mergeCell ref="E557:O560"/>
+    <mergeCell ref="E561:O561"/>
+    <mergeCell ref="E562:O562"/>
+    <mergeCell ref="L564:O564"/>
+    <mergeCell ref="L565:O565"/>
+    <mergeCell ref="L566:O566"/>
+    <mergeCell ref="A567:C567"/>
+    <mergeCell ref="D567:F567"/>
+    <mergeCell ref="L567:O567"/>
+    <mergeCell ref="D546:F549"/>
+    <mergeCell ref="G550:I550"/>
+    <mergeCell ref="J550:K550"/>
+    <mergeCell ref="L550:M550"/>
+    <mergeCell ref="N550:O550"/>
+    <mergeCell ref="G551:I551"/>
+    <mergeCell ref="J551:K551"/>
+    <mergeCell ref="L548:M548"/>
+    <mergeCell ref="N548:O548"/>
+    <mergeCell ref="G549:I549"/>
+    <mergeCell ref="J549:K549"/>
+    <mergeCell ref="L549:M549"/>
+    <mergeCell ref="N549:O549"/>
+    <mergeCell ref="A524:C527"/>
+    <mergeCell ref="D524:F527"/>
+    <mergeCell ref="G524:I524"/>
+    <mergeCell ref="J524:K524"/>
+    <mergeCell ref="L524:M524"/>
+    <mergeCell ref="N524:O524"/>
+    <mergeCell ref="G525:I525"/>
+    <mergeCell ref="J525:K525"/>
+    <mergeCell ref="L525:M525"/>
+    <mergeCell ref="N525:O525"/>
+    <mergeCell ref="G526:I526"/>
+    <mergeCell ref="J526:K526"/>
+    <mergeCell ref="L526:M526"/>
+    <mergeCell ref="N526:O526"/>
+    <mergeCell ref="G527:I527"/>
+    <mergeCell ref="J527:K527"/>
+    <mergeCell ref="L527:M527"/>
+    <mergeCell ref="N527:O527"/>
+    <mergeCell ref="A515:C515"/>
+    <mergeCell ref="D515:F515"/>
+    <mergeCell ref="L515:O515"/>
+    <mergeCell ref="A516:C519"/>
+    <mergeCell ref="D516:F519"/>
+    <mergeCell ref="L516:O516"/>
+    <mergeCell ref="L517:O517"/>
+    <mergeCell ref="G519:O519"/>
+    <mergeCell ref="A520:C523"/>
+    <mergeCell ref="D520:F523"/>
+    <mergeCell ref="G520:I520"/>
+    <mergeCell ref="J520:K520"/>
+    <mergeCell ref="L520:M520"/>
+    <mergeCell ref="N520:O520"/>
+    <mergeCell ref="G521:I521"/>
+    <mergeCell ref="J521:K521"/>
+    <mergeCell ref="L521:M521"/>
+    <mergeCell ref="N521:O521"/>
+    <mergeCell ref="G522:I522"/>
+    <mergeCell ref="J522:K522"/>
+    <mergeCell ref="L522:M522"/>
+    <mergeCell ref="N522:O522"/>
+    <mergeCell ref="G523:I523"/>
+    <mergeCell ref="J523:K523"/>
+    <mergeCell ref="L523:M523"/>
+    <mergeCell ref="N523:O523"/>
+    <mergeCell ref="A472:C475"/>
+    <mergeCell ref="D472:F475"/>
+    <mergeCell ref="G472:I472"/>
+    <mergeCell ref="J472:K472"/>
+    <mergeCell ref="L472:M472"/>
+    <mergeCell ref="N472:O472"/>
+    <mergeCell ref="G473:I473"/>
+    <mergeCell ref="J473:K473"/>
+    <mergeCell ref="L473:M473"/>
+    <mergeCell ref="N473:O473"/>
+    <mergeCell ref="G474:I474"/>
+    <mergeCell ref="J474:K474"/>
+    <mergeCell ref="L474:M474"/>
+    <mergeCell ref="N474:O474"/>
+    <mergeCell ref="G475:I475"/>
+    <mergeCell ref="J475:K475"/>
+    <mergeCell ref="L475:M475"/>
+    <mergeCell ref="N475:O475"/>
+    <mergeCell ref="L460:O460"/>
+    <mergeCell ref="L461:O461"/>
+    <mergeCell ref="L462:O462"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="D463:F463"/>
+    <mergeCell ref="L463:O463"/>
+    <mergeCell ref="A464:C467"/>
+    <mergeCell ref="D464:F467"/>
+    <mergeCell ref="L464:O464"/>
+    <mergeCell ref="L465:O465"/>
+    <mergeCell ref="G467:O467"/>
+    <mergeCell ref="A468:C471"/>
+    <mergeCell ref="D468:F471"/>
+    <mergeCell ref="G468:I468"/>
+    <mergeCell ref="J468:K468"/>
+    <mergeCell ref="L468:M468"/>
+    <mergeCell ref="N468:O468"/>
+    <mergeCell ref="G469:I469"/>
+    <mergeCell ref="J469:K469"/>
+    <mergeCell ref="L469:M469"/>
+    <mergeCell ref="N469:O469"/>
+    <mergeCell ref="G470:I470"/>
+    <mergeCell ref="J470:K470"/>
+    <mergeCell ref="L470:M470"/>
+    <mergeCell ref="N470:O470"/>
+    <mergeCell ref="G471:I471"/>
+    <mergeCell ref="J471:K471"/>
+    <mergeCell ref="L471:M471"/>
+    <mergeCell ref="N471:O471"/>
+    <mergeCell ref="N419:O419"/>
+    <mergeCell ref="A420:C423"/>
+    <mergeCell ref="D420:F423"/>
+    <mergeCell ref="G420:I420"/>
+    <mergeCell ref="J420:K420"/>
+    <mergeCell ref="L420:M420"/>
+    <mergeCell ref="N420:O420"/>
+    <mergeCell ref="G421:I421"/>
+    <mergeCell ref="J421:K421"/>
+    <mergeCell ref="L421:M421"/>
+    <mergeCell ref="N421:O421"/>
+    <mergeCell ref="G422:I422"/>
+    <mergeCell ref="J422:K422"/>
+    <mergeCell ref="L422:M422"/>
+    <mergeCell ref="N422:O422"/>
+    <mergeCell ref="G423:I423"/>
+    <mergeCell ref="J423:K423"/>
+    <mergeCell ref="L423:M423"/>
+    <mergeCell ref="N423:O423"/>
+    <mergeCell ref="A400:D408"/>
+    <mergeCell ref="E401:O404"/>
+    <mergeCell ref="E405:O405"/>
+    <mergeCell ref="E406:O406"/>
+    <mergeCell ref="L408:O408"/>
+    <mergeCell ref="L409:O409"/>
+    <mergeCell ref="L410:O410"/>
+    <mergeCell ref="A411:C411"/>
+    <mergeCell ref="D411:F411"/>
+    <mergeCell ref="L411:O411"/>
+    <mergeCell ref="A412:C415"/>
+    <mergeCell ref="D412:F415"/>
+    <mergeCell ref="L412:O412"/>
+    <mergeCell ref="L413:O413"/>
+    <mergeCell ref="G415:O415"/>
+    <mergeCell ref="A416:C419"/>
+    <mergeCell ref="D416:F419"/>
+    <mergeCell ref="G416:I416"/>
+    <mergeCell ref="J416:K416"/>
+    <mergeCell ref="L416:M416"/>
+    <mergeCell ref="N416:O416"/>
+    <mergeCell ref="G417:I417"/>
+    <mergeCell ref="J417:K417"/>
+    <mergeCell ref="L417:M417"/>
+    <mergeCell ref="N417:O417"/>
+    <mergeCell ref="G418:I418"/>
+    <mergeCell ref="J418:K418"/>
+    <mergeCell ref="L418:M418"/>
+    <mergeCell ref="N418:O418"/>
+    <mergeCell ref="G419:I419"/>
+    <mergeCell ref="J419:K419"/>
+    <mergeCell ref="L419:M419"/>
+    <mergeCell ref="A394:C397"/>
+    <mergeCell ref="D394:F397"/>
+    <mergeCell ref="G394:I394"/>
+    <mergeCell ref="J394:K394"/>
+    <mergeCell ref="L394:M394"/>
+    <mergeCell ref="N394:O394"/>
+    <mergeCell ref="G395:I395"/>
+    <mergeCell ref="J395:K395"/>
+    <mergeCell ref="L395:M395"/>
+    <mergeCell ref="N395:O395"/>
+    <mergeCell ref="G396:I396"/>
+    <mergeCell ref="J396:K396"/>
+    <mergeCell ref="L396:M396"/>
+    <mergeCell ref="N396:O396"/>
+    <mergeCell ref="G397:I397"/>
+    <mergeCell ref="J397:K397"/>
+    <mergeCell ref="L397:M397"/>
+    <mergeCell ref="N397:O397"/>
+    <mergeCell ref="L382:O382"/>
+    <mergeCell ref="L383:O383"/>
+    <mergeCell ref="L384:O384"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="D385:F385"/>
+    <mergeCell ref="L385:O385"/>
+    <mergeCell ref="A386:C389"/>
+    <mergeCell ref="D386:F389"/>
+    <mergeCell ref="L386:O386"/>
+    <mergeCell ref="L387:O387"/>
+    <mergeCell ref="G389:O389"/>
+    <mergeCell ref="A390:C393"/>
+    <mergeCell ref="D390:F393"/>
+    <mergeCell ref="G390:I390"/>
+    <mergeCell ref="J390:K390"/>
+    <mergeCell ref="L390:M390"/>
+    <mergeCell ref="N390:O390"/>
+    <mergeCell ref="G391:I391"/>
+    <mergeCell ref="J391:K391"/>
+    <mergeCell ref="L391:M391"/>
+    <mergeCell ref="N391:O391"/>
+    <mergeCell ref="G392:I392"/>
+    <mergeCell ref="J392:K392"/>
+    <mergeCell ref="L392:M392"/>
+    <mergeCell ref="N392:O392"/>
+    <mergeCell ref="G393:I393"/>
+    <mergeCell ref="J393:K393"/>
+    <mergeCell ref="L393:M393"/>
+    <mergeCell ref="N393:O393"/>
+    <mergeCell ref="A342:C345"/>
+    <mergeCell ref="D342:F345"/>
+    <mergeCell ref="G342:I342"/>
+    <mergeCell ref="J342:K342"/>
+    <mergeCell ref="L342:M342"/>
+    <mergeCell ref="N342:O342"/>
+    <mergeCell ref="G343:I343"/>
+    <mergeCell ref="J343:K343"/>
+    <mergeCell ref="L343:M343"/>
+    <mergeCell ref="N343:O343"/>
+    <mergeCell ref="G344:I344"/>
+    <mergeCell ref="J344:K344"/>
+    <mergeCell ref="L344:M344"/>
+    <mergeCell ref="N344:O344"/>
+    <mergeCell ref="G345:I345"/>
+    <mergeCell ref="J345:K345"/>
+    <mergeCell ref="L345:M345"/>
+    <mergeCell ref="N345:O345"/>
+    <mergeCell ref="L330:O330"/>
+    <mergeCell ref="L331:O331"/>
+    <mergeCell ref="L332:O332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="L333:O333"/>
+    <mergeCell ref="A334:C337"/>
+    <mergeCell ref="D334:F337"/>
+    <mergeCell ref="L334:O334"/>
+    <mergeCell ref="L335:O335"/>
+    <mergeCell ref="G337:O337"/>
+    <mergeCell ref="A338:C341"/>
+    <mergeCell ref="D338:F341"/>
+    <mergeCell ref="G338:I338"/>
+    <mergeCell ref="J338:K338"/>
+    <mergeCell ref="L338:M338"/>
+    <mergeCell ref="N338:O338"/>
+    <mergeCell ref="G339:I339"/>
+    <mergeCell ref="J339:K339"/>
+    <mergeCell ref="L339:M339"/>
+    <mergeCell ref="N339:O339"/>
+    <mergeCell ref="G340:I340"/>
+    <mergeCell ref="J340:K340"/>
+    <mergeCell ref="L340:M340"/>
+    <mergeCell ref="N340:O340"/>
+    <mergeCell ref="G341:I341"/>
+    <mergeCell ref="J341:K341"/>
+    <mergeCell ref="L341:M341"/>
+    <mergeCell ref="N341:O341"/>
+    <mergeCell ref="G289:I289"/>
+    <mergeCell ref="J289:K289"/>
+    <mergeCell ref="L289:M289"/>
+    <mergeCell ref="N289:O289"/>
+    <mergeCell ref="G290:I290"/>
+    <mergeCell ref="J290:K290"/>
+    <mergeCell ref="L290:M290"/>
+    <mergeCell ref="N290:O290"/>
+    <mergeCell ref="G291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="L291:M291"/>
+    <mergeCell ref="N291:O291"/>
+    <mergeCell ref="Q266:U267"/>
+    <mergeCell ref="Q269:U271"/>
+    <mergeCell ref="Q272:U274"/>
+    <mergeCell ref="Q275:U277"/>
+    <mergeCell ref="Q278:U280"/>
+    <mergeCell ref="Q281:U283"/>
+    <mergeCell ref="Q284:U286"/>
+    <mergeCell ref="Q287:U289"/>
+    <mergeCell ref="Q290:U291"/>
+    <mergeCell ref="L270:O270"/>
+    <mergeCell ref="L271:O271"/>
+    <mergeCell ref="L272:O272"/>
+    <mergeCell ref="A286:C289"/>
+    <mergeCell ref="D286:F289"/>
+    <mergeCell ref="A290:C293"/>
+    <mergeCell ref="D290:F293"/>
+    <mergeCell ref="G284:I284"/>
+    <mergeCell ref="J284:K284"/>
+    <mergeCell ref="L284:M284"/>
+    <mergeCell ref="N284:O284"/>
+    <mergeCell ref="G285:I285"/>
+    <mergeCell ref="J285:K285"/>
+    <mergeCell ref="L285:M285"/>
+    <mergeCell ref="N285:O285"/>
+    <mergeCell ref="G286:I286"/>
+    <mergeCell ref="J286:K286"/>
+    <mergeCell ref="L286:M286"/>
+    <mergeCell ref="N286:O286"/>
+    <mergeCell ref="G287:I287"/>
+    <mergeCell ref="J287:K287"/>
+    <mergeCell ref="L287:M287"/>
+    <mergeCell ref="N287:O287"/>
+    <mergeCell ref="G288:I288"/>
+    <mergeCell ref="J288:K288"/>
+    <mergeCell ref="L288:M288"/>
+    <mergeCell ref="N288:O288"/>
+    <mergeCell ref="G292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="L292:M292"/>
+    <mergeCell ref="N292:O292"/>
+    <mergeCell ref="G293:I293"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="L293:M293"/>
+    <mergeCell ref="N293:O293"/>
+    <mergeCell ref="A282:C285"/>
+    <mergeCell ref="D282:F285"/>
+    <mergeCell ref="G280:I280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="L280:M280"/>
+    <mergeCell ref="N281:O281"/>
+    <mergeCell ref="G281:I281"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="L281:M281"/>
+    <mergeCell ref="N282:O282"/>
+    <mergeCell ref="G282:I282"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="L282:M282"/>
+    <mergeCell ref="G283:I283"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="L283:M283"/>
+    <mergeCell ref="N283:O283"/>
+    <mergeCell ref="N280:O280"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="D273:F273"/>
+    <mergeCell ref="L273:O273"/>
+    <mergeCell ref="A274:C277"/>
+    <mergeCell ref="D274:F277"/>
+    <mergeCell ref="L274:O274"/>
+    <mergeCell ref="L275:O275"/>
+    <mergeCell ref="G277:O277"/>
+    <mergeCell ref="A278:C281"/>
+    <mergeCell ref="D278:F281"/>
+    <mergeCell ref="G278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="L278:M278"/>
+    <mergeCell ref="N278:O278"/>
+    <mergeCell ref="G279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="L279:M279"/>
+    <mergeCell ref="N279:O279"/>
+    <mergeCell ref="G232:I232"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="L232:M232"/>
+    <mergeCell ref="N232:O232"/>
+    <mergeCell ref="G233:I233"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="L233:M233"/>
+    <mergeCell ref="N233:O233"/>
+    <mergeCell ref="A230:C233"/>
+    <mergeCell ref="D230:F233"/>
+    <mergeCell ref="G230:I230"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="L230:M230"/>
+    <mergeCell ref="N230:O230"/>
+    <mergeCell ref="G231:I231"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="L231:M231"/>
+    <mergeCell ref="N231:O231"/>
+    <mergeCell ref="L220:O220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="L221:O221"/>
+    <mergeCell ref="A222:C225"/>
+    <mergeCell ref="D222:F225"/>
+    <mergeCell ref="L222:O222"/>
+    <mergeCell ref="L223:O223"/>
+    <mergeCell ref="G225:O225"/>
+    <mergeCell ref="G228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="L228:M228"/>
+    <mergeCell ref="N228:O228"/>
+    <mergeCell ref="G229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="L229:M229"/>
+    <mergeCell ref="N229:O229"/>
+    <mergeCell ref="A226:C229"/>
+    <mergeCell ref="D226:F229"/>
+    <mergeCell ref="G226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="L226:M226"/>
+    <mergeCell ref="N226:O226"/>
+    <mergeCell ref="G227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="L227:M227"/>
+    <mergeCell ref="N227:O227"/>
+    <mergeCell ref="A210:D218"/>
+    <mergeCell ref="E211:O214"/>
+    <mergeCell ref="E215:O215"/>
+    <mergeCell ref="E216:O216"/>
+    <mergeCell ref="L218:O218"/>
+    <mergeCell ref="L219:O219"/>
+    <mergeCell ref="G206:I206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="N206:O206"/>
+    <mergeCell ref="G207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="N207:O207"/>
+    <mergeCell ref="A204:C207"/>
+    <mergeCell ref="D204:F207"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="L204:M204"/>
+    <mergeCell ref="N204:O204"/>
+    <mergeCell ref="G205:I205"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="L205:M205"/>
+    <mergeCell ref="N205:O205"/>
+    <mergeCell ref="L194:O194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="L195:O195"/>
+    <mergeCell ref="A196:C199"/>
+    <mergeCell ref="D196:F199"/>
+    <mergeCell ref="L196:O196"/>
+    <mergeCell ref="L197:O197"/>
+    <mergeCell ref="G199:O199"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="L202:M202"/>
+    <mergeCell ref="N202:O202"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="L203:M203"/>
+    <mergeCell ref="N203:O203"/>
+    <mergeCell ref="A200:C203"/>
+    <mergeCell ref="D200:F203"/>
+    <mergeCell ref="G200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="L200:M200"/>
+    <mergeCell ref="N200:O200"/>
+    <mergeCell ref="G201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="L201:M201"/>
+    <mergeCell ref="N201:O201"/>
+    <mergeCell ref="A184:D192"/>
+    <mergeCell ref="E185:O188"/>
+    <mergeCell ref="E189:O189"/>
+    <mergeCell ref="E190:O190"/>
+    <mergeCell ref="L192:O192"/>
+    <mergeCell ref="L193:O193"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="G180:I180"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="L180:M180"/>
+    <mergeCell ref="N180:O180"/>
+    <mergeCell ref="A177:C180"/>
+    <mergeCell ref="D177:F180"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="L177:M177"/>
+    <mergeCell ref="N177:O177"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="L178:M178"/>
+    <mergeCell ref="N178:O178"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="A169:C172"/>
+    <mergeCell ref="D169:F172"/>
+    <mergeCell ref="L169:O169"/>
+    <mergeCell ref="L170:O170"/>
+    <mergeCell ref="G172:O172"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="L175:M175"/>
+    <mergeCell ref="N175:O175"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="L176:M176"/>
+    <mergeCell ref="N176:O176"/>
+    <mergeCell ref="A173:C176"/>
+    <mergeCell ref="D173:F176"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="N173:O173"/>
+    <mergeCell ref="G174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="L174:M174"/>
+    <mergeCell ref="N174:O174"/>
+    <mergeCell ref="A157:D165"/>
+    <mergeCell ref="E158:O161"/>
+    <mergeCell ref="E162:O162"/>
+    <mergeCell ref="E163:O163"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="L166:O166"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="A151:C154"/>
+    <mergeCell ref="D151:F154"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="L142:O142"/>
+    <mergeCell ref="A143:C146"/>
+    <mergeCell ref="D143:F146"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="G146:O146"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="G150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="A147:C150"/>
+    <mergeCell ref="D147:F150"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A131:D139"/>
+    <mergeCell ref="E132:O135"/>
+    <mergeCell ref="E136:O136"/>
+    <mergeCell ref="E137:O137"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A125:C128"/>
+    <mergeCell ref="D125:F128"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="A117:C120"/>
+    <mergeCell ref="D117:F120"/>
+    <mergeCell ref="L117:O117"/>
+    <mergeCell ref="L118:O118"/>
+    <mergeCell ref="G120:O120"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A121:C124"/>
+    <mergeCell ref="D121:F124"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A105:D113"/>
+    <mergeCell ref="E106:O109"/>
+    <mergeCell ref="E110:O110"/>
+    <mergeCell ref="E111:O111"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A99:C102"/>
+    <mergeCell ref="D99:F102"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="A91:C94"/>
+    <mergeCell ref="D91:F94"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="G94:O94"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A95:C98"/>
+    <mergeCell ref="D95:F98"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A79:D87"/>
+    <mergeCell ref="E80:O83"/>
+    <mergeCell ref="E84:O84"/>
+    <mergeCell ref="E85:O85"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A73:C76"/>
+    <mergeCell ref="D73:F76"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="A65:C68"/>
+    <mergeCell ref="D65:F68"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="G68:O68"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A69:C72"/>
+    <mergeCell ref="D69:F72"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A53:D61"/>
+    <mergeCell ref="E54:O57"/>
+    <mergeCell ref="E58:O58"/>
+    <mergeCell ref="E59:O59"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="A47:C50"/>
+    <mergeCell ref="D47:F50"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D21:F24"/>
+    <mergeCell ref="A43:C46"/>
+    <mergeCell ref="D43:F46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="A39:C42"/>
+    <mergeCell ref="D39:F42"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A27:D35"/>
+    <mergeCell ref="E28:O31"/>
+    <mergeCell ref="E32:O32"/>
+    <mergeCell ref="E33:O33"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A236:D244"/>
+    <mergeCell ref="E237:O240"/>
+    <mergeCell ref="E241:O241"/>
+    <mergeCell ref="E242:O242"/>
+    <mergeCell ref="L244:O244"/>
+    <mergeCell ref="L245:O245"/>
+    <mergeCell ref="L246:O246"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="D247:F247"/>
+    <mergeCell ref="L247:O247"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="E6:O6"/>
+    <mergeCell ref="E7:O7"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="A1:D9"/>
+    <mergeCell ref="E2:O5"/>
+    <mergeCell ref="A13:C16"/>
+    <mergeCell ref="A17:C20"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="D17:F20"/>
+    <mergeCell ref="A21:C24"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A248:C251"/>
+    <mergeCell ref="D248:F251"/>
+    <mergeCell ref="L248:O248"/>
+    <mergeCell ref="L249:O249"/>
+    <mergeCell ref="G251:O251"/>
+    <mergeCell ref="A252:C255"/>
+    <mergeCell ref="D252:F255"/>
+    <mergeCell ref="G252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="L252:M252"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="G253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="L253:M253"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="G254:I254"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="L254:M254"/>
+    <mergeCell ref="N254:O254"/>
+    <mergeCell ref="G255:I255"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="L255:M255"/>
+    <mergeCell ref="N255:O255"/>
+    <mergeCell ref="A296:D304"/>
+    <mergeCell ref="E297:O300"/>
+    <mergeCell ref="E301:O301"/>
+    <mergeCell ref="E302:O302"/>
+    <mergeCell ref="L304:O304"/>
+    <mergeCell ref="L305:O305"/>
+    <mergeCell ref="L306:O306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="D307:F307"/>
+    <mergeCell ref="L307:O307"/>
+    <mergeCell ref="A256:C259"/>
+    <mergeCell ref="D256:F259"/>
+    <mergeCell ref="G256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="L256:M256"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="G257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="L257:M257"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="G258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="L258:M258"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="G259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="L259:M259"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="A262:D270"/>
+    <mergeCell ref="E263:O266"/>
+    <mergeCell ref="E267:O267"/>
+    <mergeCell ref="E268:O268"/>
+    <mergeCell ref="A308:C311"/>
+    <mergeCell ref="D308:F311"/>
+    <mergeCell ref="L308:O308"/>
+    <mergeCell ref="L309:O309"/>
+    <mergeCell ref="G311:O311"/>
+    <mergeCell ref="A312:C315"/>
+    <mergeCell ref="D312:F315"/>
+    <mergeCell ref="G312:I312"/>
+    <mergeCell ref="J312:K312"/>
+    <mergeCell ref="L312:M312"/>
+    <mergeCell ref="N312:O312"/>
+    <mergeCell ref="G313:I313"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="L313:M313"/>
+    <mergeCell ref="N313:O313"/>
+    <mergeCell ref="G314:I314"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="L314:M314"/>
+    <mergeCell ref="N314:O314"/>
+    <mergeCell ref="G315:I315"/>
+    <mergeCell ref="J315:K315"/>
+    <mergeCell ref="L315:M315"/>
+    <mergeCell ref="N315:O315"/>
+    <mergeCell ref="A348:D356"/>
+    <mergeCell ref="E349:O352"/>
+    <mergeCell ref="E353:O353"/>
+    <mergeCell ref="E354:O354"/>
+    <mergeCell ref="L356:O356"/>
+    <mergeCell ref="L357:O357"/>
+    <mergeCell ref="L358:O358"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="D359:F359"/>
+    <mergeCell ref="L359:O359"/>
+    <mergeCell ref="A316:C319"/>
+    <mergeCell ref="D316:F319"/>
+    <mergeCell ref="G316:I316"/>
+    <mergeCell ref="J316:K316"/>
+    <mergeCell ref="L316:M316"/>
+    <mergeCell ref="N316:O316"/>
+    <mergeCell ref="G317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="L317:M317"/>
+    <mergeCell ref="N317:O317"/>
+    <mergeCell ref="G318:I318"/>
+    <mergeCell ref="J318:K318"/>
+    <mergeCell ref="L318:M318"/>
+    <mergeCell ref="N318:O318"/>
+    <mergeCell ref="G319:I319"/>
+    <mergeCell ref="J319:K319"/>
+    <mergeCell ref="L319:M319"/>
+    <mergeCell ref="N319:O319"/>
+    <mergeCell ref="A322:D330"/>
+    <mergeCell ref="E323:O326"/>
+    <mergeCell ref="E327:O327"/>
+    <mergeCell ref="E328:O328"/>
+    <mergeCell ref="A360:C363"/>
+    <mergeCell ref="D360:F363"/>
+    <mergeCell ref="L360:O360"/>
+    <mergeCell ref="L361:O361"/>
+    <mergeCell ref="G363:O363"/>
+    <mergeCell ref="A364:C367"/>
+    <mergeCell ref="D364:F367"/>
+    <mergeCell ref="G364:I364"/>
+    <mergeCell ref="J364:K364"/>
+    <mergeCell ref="L364:M364"/>
+    <mergeCell ref="N364:O364"/>
+    <mergeCell ref="G365:I365"/>
+    <mergeCell ref="J365:K365"/>
+    <mergeCell ref="L365:M365"/>
+    <mergeCell ref="N365:O365"/>
+    <mergeCell ref="G366:I366"/>
+    <mergeCell ref="J366:K366"/>
+    <mergeCell ref="L366:M366"/>
+    <mergeCell ref="N366:O366"/>
+    <mergeCell ref="G367:I367"/>
+    <mergeCell ref="J367:K367"/>
+    <mergeCell ref="L367:M367"/>
+    <mergeCell ref="N367:O367"/>
+    <mergeCell ref="A426:D434"/>
+    <mergeCell ref="E427:O430"/>
+    <mergeCell ref="E431:O431"/>
+    <mergeCell ref="E432:O432"/>
+    <mergeCell ref="L434:O434"/>
+    <mergeCell ref="L435:O435"/>
+    <mergeCell ref="L436:O436"/>
+    <mergeCell ref="A437:C437"/>
+    <mergeCell ref="D437:F437"/>
+    <mergeCell ref="L437:O437"/>
+    <mergeCell ref="A368:C371"/>
+    <mergeCell ref="D368:F371"/>
+    <mergeCell ref="G368:I368"/>
+    <mergeCell ref="J368:K368"/>
+    <mergeCell ref="L368:M368"/>
+    <mergeCell ref="N368:O368"/>
+    <mergeCell ref="G369:I369"/>
+    <mergeCell ref="J369:K369"/>
+    <mergeCell ref="L369:M369"/>
+    <mergeCell ref="N369:O369"/>
+    <mergeCell ref="G370:I370"/>
+    <mergeCell ref="J370:K370"/>
+    <mergeCell ref="L370:M370"/>
+    <mergeCell ref="N370:O370"/>
+    <mergeCell ref="G371:I371"/>
+    <mergeCell ref="J371:K371"/>
+    <mergeCell ref="L371:M371"/>
+    <mergeCell ref="N371:O371"/>
+    <mergeCell ref="A374:D382"/>
+    <mergeCell ref="E375:O378"/>
+    <mergeCell ref="E379:O379"/>
+    <mergeCell ref="E380:O380"/>
+    <mergeCell ref="A438:C441"/>
+    <mergeCell ref="D438:F441"/>
+    <mergeCell ref="L438:O438"/>
+    <mergeCell ref="L439:O439"/>
+    <mergeCell ref="G441:O441"/>
+    <mergeCell ref="A442:C445"/>
+    <mergeCell ref="D442:F445"/>
+    <mergeCell ref="G442:I442"/>
+    <mergeCell ref="J442:K442"/>
+    <mergeCell ref="L442:M442"/>
+    <mergeCell ref="N442:O442"/>
+    <mergeCell ref="G443:I443"/>
+    <mergeCell ref="J443:K443"/>
+    <mergeCell ref="L443:M443"/>
+    <mergeCell ref="N443:O443"/>
+    <mergeCell ref="G444:I444"/>
+    <mergeCell ref="J444:K444"/>
+    <mergeCell ref="L444:M444"/>
+    <mergeCell ref="N444:O444"/>
+    <mergeCell ref="G445:I445"/>
+    <mergeCell ref="J445:K445"/>
+    <mergeCell ref="L445:M445"/>
+    <mergeCell ref="N445:O445"/>
+    <mergeCell ref="A478:D486"/>
+    <mergeCell ref="E479:O482"/>
+    <mergeCell ref="E483:O483"/>
+    <mergeCell ref="E484:O484"/>
+    <mergeCell ref="L486:O486"/>
+    <mergeCell ref="L487:O487"/>
+    <mergeCell ref="L488:O488"/>
+    <mergeCell ref="A489:C489"/>
+    <mergeCell ref="D489:F489"/>
+    <mergeCell ref="L489:O489"/>
+    <mergeCell ref="A446:C449"/>
+    <mergeCell ref="D446:F449"/>
+    <mergeCell ref="G446:I446"/>
+    <mergeCell ref="J446:K446"/>
+    <mergeCell ref="L446:M446"/>
+    <mergeCell ref="N446:O446"/>
+    <mergeCell ref="G447:I447"/>
+    <mergeCell ref="J447:K447"/>
+    <mergeCell ref="L447:M447"/>
+    <mergeCell ref="N447:O447"/>
+    <mergeCell ref="G448:I448"/>
+    <mergeCell ref="J448:K448"/>
+    <mergeCell ref="L448:M448"/>
+    <mergeCell ref="N448:O448"/>
+    <mergeCell ref="G449:I449"/>
+    <mergeCell ref="J449:K449"/>
+    <mergeCell ref="L449:M449"/>
+    <mergeCell ref="N449:O449"/>
+    <mergeCell ref="A452:D460"/>
+    <mergeCell ref="E453:O456"/>
+    <mergeCell ref="E457:O457"/>
+    <mergeCell ref="E458:O458"/>
+    <mergeCell ref="A490:C493"/>
+    <mergeCell ref="D490:F493"/>
+    <mergeCell ref="L490:O490"/>
+    <mergeCell ref="L491:O491"/>
+    <mergeCell ref="G493:O493"/>
+    <mergeCell ref="A494:C497"/>
+    <mergeCell ref="D494:F497"/>
+    <mergeCell ref="G494:I494"/>
+    <mergeCell ref="J494:K494"/>
+    <mergeCell ref="L494:M494"/>
+    <mergeCell ref="N494:O494"/>
+    <mergeCell ref="G495:I495"/>
+    <mergeCell ref="J495:K495"/>
+    <mergeCell ref="L495:M495"/>
+    <mergeCell ref="N495:O495"/>
+    <mergeCell ref="G496:I496"/>
+    <mergeCell ref="J496:K496"/>
+    <mergeCell ref="L496:M496"/>
+    <mergeCell ref="N496:O496"/>
+    <mergeCell ref="G497:I497"/>
+    <mergeCell ref="J497:K497"/>
+    <mergeCell ref="L497:M497"/>
+    <mergeCell ref="N497:O497"/>
+    <mergeCell ref="A498:C501"/>
+    <mergeCell ref="D498:F501"/>
+    <mergeCell ref="G498:I498"/>
+    <mergeCell ref="J498:K498"/>
+    <mergeCell ref="L498:M498"/>
+    <mergeCell ref="N498:O498"/>
+    <mergeCell ref="G499:I499"/>
+    <mergeCell ref="J499:K499"/>
+    <mergeCell ref="L499:M499"/>
+    <mergeCell ref="N499:O499"/>
+    <mergeCell ref="G500:I500"/>
+    <mergeCell ref="J500:K500"/>
+    <mergeCell ref="L500:M500"/>
+    <mergeCell ref="N500:O500"/>
+    <mergeCell ref="G501:I501"/>
+    <mergeCell ref="J501:K501"/>
+    <mergeCell ref="L501:M501"/>
+    <mergeCell ref="N501:O501"/>
+    <mergeCell ref="A504:D512"/>
+    <mergeCell ref="E505:O508"/>
+    <mergeCell ref="E509:O509"/>
+    <mergeCell ref="E510:O510"/>
+    <mergeCell ref="L512:O512"/>
+    <mergeCell ref="L513:O513"/>
+    <mergeCell ref="L514:O514"/>
+    <mergeCell ref="A586:D594"/>
+    <mergeCell ref="E587:O590"/>
+    <mergeCell ref="E591:O591"/>
+    <mergeCell ref="E592:O592"/>
+    <mergeCell ref="L594:O594"/>
+    <mergeCell ref="L595:O595"/>
+    <mergeCell ref="L596:O596"/>
+    <mergeCell ref="L541:O541"/>
+    <mergeCell ref="A542:C545"/>
+    <mergeCell ref="D542:F545"/>
+    <mergeCell ref="L542:O542"/>
+    <mergeCell ref="L543:O543"/>
+    <mergeCell ref="G545:O545"/>
+    <mergeCell ref="A546:C549"/>
+    <mergeCell ref="D550:F553"/>
+    <mergeCell ref="G546:I546"/>
+    <mergeCell ref="J546:K546"/>
+    <mergeCell ref="L546:M546"/>
+    <mergeCell ref="N546:O546"/>
+    <mergeCell ref="G547:I547"/>
+    <mergeCell ref="J547:K547"/>
+    <mergeCell ref="L547:M547"/>
+    <mergeCell ref="N547:O547"/>
+    <mergeCell ref="G548:I548"/>
+    <mergeCell ref="J548:K548"/>
+    <mergeCell ref="A550:C553"/>
+    <mergeCell ref="G603:I603"/>
+    <mergeCell ref="J603:K603"/>
+    <mergeCell ref="L603:M603"/>
+    <mergeCell ref="N603:O603"/>
+    <mergeCell ref="G604:I604"/>
+    <mergeCell ref="J604:K604"/>
+    <mergeCell ref="L604:M604"/>
+    <mergeCell ref="N604:O604"/>
+    <mergeCell ref="G605:I605"/>
+    <mergeCell ref="J605:K605"/>
+    <mergeCell ref="L605:M605"/>
+    <mergeCell ref="N605:O605"/>
+    <mergeCell ref="L551:M551"/>
+    <mergeCell ref="N551:O551"/>
+    <mergeCell ref="G552:I552"/>
+    <mergeCell ref="J552:K552"/>
+    <mergeCell ref="L552:M552"/>
+    <mergeCell ref="N552:O552"/>
+    <mergeCell ref="G553:I553"/>
+    <mergeCell ref="J553:K553"/>
+    <mergeCell ref="L553:M553"/>
+    <mergeCell ref="N553:O553"/>
+    <mergeCell ref="N578:O578"/>
+    <mergeCell ref="G579:I579"/>
+    <mergeCell ref="J579:K579"/>
+    <mergeCell ref="L579:M579"/>
+    <mergeCell ref="G577:I577"/>
+    <mergeCell ref="J577:K577"/>
+    <mergeCell ref="L577:M577"/>
+    <mergeCell ref="N577:O577"/>
+    <mergeCell ref="G578:I578"/>
+    <mergeCell ref="J578:K578"/>
+    <mergeCell ref="G606:I606"/>
+    <mergeCell ref="J606:K606"/>
+    <mergeCell ref="L606:M606"/>
+    <mergeCell ref="N606:O606"/>
+    <mergeCell ref="G607:I607"/>
+    <mergeCell ref="J607:K607"/>
+    <mergeCell ref="L607:M607"/>
+    <mergeCell ref="N607:O607"/>
+    <mergeCell ref="G608:I608"/>
+    <mergeCell ref="J608:K608"/>
+    <mergeCell ref="L608:M608"/>
+    <mergeCell ref="N608:O608"/>
+    <mergeCell ref="G609:I609"/>
+    <mergeCell ref="J609:K609"/>
+    <mergeCell ref="L609:M609"/>
+    <mergeCell ref="N609:O609"/>
+    <mergeCell ref="L578:M578"/>
+    <mergeCell ref="A597:C597"/>
+    <mergeCell ref="D597:F597"/>
+    <mergeCell ref="L597:O597"/>
+    <mergeCell ref="A598:C601"/>
+    <mergeCell ref="D598:F601"/>
+    <mergeCell ref="L598:O598"/>
+    <mergeCell ref="L599:O599"/>
+    <mergeCell ref="A602:C605"/>
+    <mergeCell ref="D602:F605"/>
+    <mergeCell ref="G601:O601"/>
+    <mergeCell ref="A606:C609"/>
+    <mergeCell ref="D606:F609"/>
+    <mergeCell ref="G602:I602"/>
+    <mergeCell ref="J602:K602"/>
+    <mergeCell ref="L602:M602"/>
+    <mergeCell ref="N602:O602"/>
+    <mergeCell ref="A612:D620"/>
+    <mergeCell ref="E613:O616"/>
+    <mergeCell ref="E617:O617"/>
+    <mergeCell ref="E618:O618"/>
+    <mergeCell ref="L620:O620"/>
+    <mergeCell ref="L621:O621"/>
+    <mergeCell ref="L622:O622"/>
+    <mergeCell ref="A623:C623"/>
+    <mergeCell ref="D623:F623"/>
+    <mergeCell ref="L623:O623"/>
+    <mergeCell ref="A624:C627"/>
+    <mergeCell ref="D624:F627"/>
+    <mergeCell ref="L624:O624"/>
+    <mergeCell ref="L625:O625"/>
+    <mergeCell ref="G627:O627"/>
+    <mergeCell ref="A628:C631"/>
+    <mergeCell ref="D628:F631"/>
+    <mergeCell ref="G628:I628"/>
+    <mergeCell ref="J628:K628"/>
+    <mergeCell ref="L628:M628"/>
+    <mergeCell ref="N628:O628"/>
+    <mergeCell ref="G629:I629"/>
+    <mergeCell ref="J629:K629"/>
+    <mergeCell ref="L629:M629"/>
+    <mergeCell ref="N629:O629"/>
+    <mergeCell ref="G630:I630"/>
+    <mergeCell ref="J630:K630"/>
+    <mergeCell ref="L630:M630"/>
+    <mergeCell ref="N630:O630"/>
+    <mergeCell ref="G631:I631"/>
+    <mergeCell ref="J631:K631"/>
+    <mergeCell ref="L631:M631"/>
+    <mergeCell ref="N631:O631"/>
+    <mergeCell ref="A632:C635"/>
+    <mergeCell ref="D632:F635"/>
+    <mergeCell ref="G632:I632"/>
+    <mergeCell ref="J632:K632"/>
+    <mergeCell ref="L632:M632"/>
+    <mergeCell ref="N632:O632"/>
+    <mergeCell ref="G633:I633"/>
+    <mergeCell ref="J633:K633"/>
+    <mergeCell ref="L633:M633"/>
+    <mergeCell ref="N633:O633"/>
+    <mergeCell ref="G634:I634"/>
+    <mergeCell ref="J634:K634"/>
+    <mergeCell ref="L634:M634"/>
+    <mergeCell ref="N634:O634"/>
+    <mergeCell ref="G635:I635"/>
+    <mergeCell ref="J635:K635"/>
+    <mergeCell ref="L635:M635"/>
+    <mergeCell ref="N635:O635"/>
+    <mergeCell ref="A664:D672"/>
+    <mergeCell ref="E665:O668"/>
+    <mergeCell ref="E669:O669"/>
+    <mergeCell ref="E670:O670"/>
+    <mergeCell ref="L672:O672"/>
+    <mergeCell ref="L673:O673"/>
+    <mergeCell ref="L674:O674"/>
+    <mergeCell ref="A675:C675"/>
+    <mergeCell ref="D675:F675"/>
+    <mergeCell ref="L675:O675"/>
+    <mergeCell ref="A676:C679"/>
+    <mergeCell ref="D676:F679"/>
+    <mergeCell ref="L676:O676"/>
+    <mergeCell ref="L677:O677"/>
+    <mergeCell ref="G679:O679"/>
+    <mergeCell ref="A680:C683"/>
+    <mergeCell ref="D680:F683"/>
+    <mergeCell ref="G680:I680"/>
+    <mergeCell ref="J680:K680"/>
+    <mergeCell ref="L680:M680"/>
+    <mergeCell ref="N680:O680"/>
+    <mergeCell ref="G681:I681"/>
+    <mergeCell ref="J681:K681"/>
+    <mergeCell ref="L681:M681"/>
+    <mergeCell ref="N681:O681"/>
+    <mergeCell ref="G682:I682"/>
+    <mergeCell ref="J682:K682"/>
+    <mergeCell ref="L682:M682"/>
+    <mergeCell ref="N682:O682"/>
+    <mergeCell ref="G683:I683"/>
+    <mergeCell ref="J683:K683"/>
+    <mergeCell ref="L683:M683"/>
+    <mergeCell ref="N683:O683"/>
+    <mergeCell ref="A684:C687"/>
+    <mergeCell ref="D684:F687"/>
+    <mergeCell ref="G684:I684"/>
+    <mergeCell ref="J684:K684"/>
+    <mergeCell ref="L684:M684"/>
+    <mergeCell ref="N684:O684"/>
+    <mergeCell ref="G685:I685"/>
+    <mergeCell ref="J685:K685"/>
+    <mergeCell ref="L685:M685"/>
+    <mergeCell ref="N685:O685"/>
+    <mergeCell ref="G686:I686"/>
+    <mergeCell ref="J686:K686"/>
+    <mergeCell ref="L686:M686"/>
+    <mergeCell ref="N686:O686"/>
+    <mergeCell ref="G687:I687"/>
+    <mergeCell ref="J687:K687"/>
+    <mergeCell ref="L687:M687"/>
+    <mergeCell ref="N687:O687"/>
+    <mergeCell ref="A638:D646"/>
+    <mergeCell ref="E639:O642"/>
+    <mergeCell ref="E643:O643"/>
+    <mergeCell ref="E644:O644"/>
+    <mergeCell ref="L646:O646"/>
+    <mergeCell ref="L647:O647"/>
+    <mergeCell ref="L648:O648"/>
+    <mergeCell ref="A649:C649"/>
+    <mergeCell ref="D649:F649"/>
+    <mergeCell ref="L649:O649"/>
+    <mergeCell ref="A650:C653"/>
+    <mergeCell ref="D650:F653"/>
+    <mergeCell ref="L650:O650"/>
+    <mergeCell ref="L651:O651"/>
+    <mergeCell ref="G653:O653"/>
+    <mergeCell ref="A654:C657"/>
+    <mergeCell ref="D654:F657"/>
+    <mergeCell ref="G654:I654"/>
+    <mergeCell ref="J654:K654"/>
+    <mergeCell ref="L654:M654"/>
+    <mergeCell ref="N654:O654"/>
+    <mergeCell ref="G655:I655"/>
+    <mergeCell ref="J655:K655"/>
+    <mergeCell ref="L655:M655"/>
+    <mergeCell ref="N655:O655"/>
+    <mergeCell ref="G656:I656"/>
+    <mergeCell ref="J656:K656"/>
+    <mergeCell ref="L656:M656"/>
+    <mergeCell ref="N656:O656"/>
+    <mergeCell ref="G657:I657"/>
+    <mergeCell ref="J657:K657"/>
+    <mergeCell ref="L657:M657"/>
+    <mergeCell ref="N657:O657"/>
+    <mergeCell ref="A658:C661"/>
+    <mergeCell ref="D658:F661"/>
+    <mergeCell ref="G658:I658"/>
+    <mergeCell ref="J658:K658"/>
+    <mergeCell ref="L658:M658"/>
+    <mergeCell ref="N658:O658"/>
+    <mergeCell ref="G659:I659"/>
+    <mergeCell ref="J659:K659"/>
+    <mergeCell ref="L659:M659"/>
+    <mergeCell ref="N659:O659"/>
+    <mergeCell ref="G660:I660"/>
+    <mergeCell ref="J660:K660"/>
+    <mergeCell ref="L660:M660"/>
+    <mergeCell ref="N660:O660"/>
+    <mergeCell ref="G661:I661"/>
+    <mergeCell ref="J661:K661"/>
+    <mergeCell ref="L661:M661"/>
+    <mergeCell ref="N661:O661"/>
     <mergeCell ref="A748:D756"/>
     <mergeCell ref="E749:O752"/>
     <mergeCell ref="E753:O753"/>
@@ -19945,1481 +21495,25 @@
     <mergeCell ref="G767:I767"/>
     <mergeCell ref="J767:K767"/>
     <mergeCell ref="L767:M767"/>
-    <mergeCell ref="N657:O657"/>
-    <mergeCell ref="A658:C661"/>
-    <mergeCell ref="D658:F661"/>
-    <mergeCell ref="G658:I658"/>
-    <mergeCell ref="J658:K658"/>
-    <mergeCell ref="L658:M658"/>
-    <mergeCell ref="N658:O658"/>
-    <mergeCell ref="G659:I659"/>
-    <mergeCell ref="J659:K659"/>
-    <mergeCell ref="L659:M659"/>
-    <mergeCell ref="N659:O659"/>
-    <mergeCell ref="G660:I660"/>
-    <mergeCell ref="J660:K660"/>
-    <mergeCell ref="L660:M660"/>
-    <mergeCell ref="N660:O660"/>
-    <mergeCell ref="G661:I661"/>
-    <mergeCell ref="J661:K661"/>
-    <mergeCell ref="L661:M661"/>
-    <mergeCell ref="N661:O661"/>
-    <mergeCell ref="A638:D646"/>
-    <mergeCell ref="E639:O642"/>
-    <mergeCell ref="E643:O643"/>
-    <mergeCell ref="E644:O644"/>
-    <mergeCell ref="L646:O646"/>
-    <mergeCell ref="L647:O647"/>
-    <mergeCell ref="L648:O648"/>
-    <mergeCell ref="A649:C649"/>
-    <mergeCell ref="D649:F649"/>
-    <mergeCell ref="L649:O649"/>
-    <mergeCell ref="A650:C653"/>
-    <mergeCell ref="D650:F653"/>
-    <mergeCell ref="L650:O650"/>
-    <mergeCell ref="L651:O651"/>
-    <mergeCell ref="G653:O653"/>
-    <mergeCell ref="A654:C657"/>
-    <mergeCell ref="D654:F657"/>
-    <mergeCell ref="G654:I654"/>
-    <mergeCell ref="J654:K654"/>
-    <mergeCell ref="L654:M654"/>
-    <mergeCell ref="N654:O654"/>
-    <mergeCell ref="G655:I655"/>
-    <mergeCell ref="J655:K655"/>
-    <mergeCell ref="L655:M655"/>
-    <mergeCell ref="N655:O655"/>
-    <mergeCell ref="G656:I656"/>
-    <mergeCell ref="J656:K656"/>
-    <mergeCell ref="L656:M656"/>
-    <mergeCell ref="N656:O656"/>
-    <mergeCell ref="G657:I657"/>
-    <mergeCell ref="J657:K657"/>
-    <mergeCell ref="L657:M657"/>
-    <mergeCell ref="N683:O683"/>
-    <mergeCell ref="A684:C687"/>
-    <mergeCell ref="D684:F687"/>
-    <mergeCell ref="G684:I684"/>
-    <mergeCell ref="J684:K684"/>
-    <mergeCell ref="L684:M684"/>
-    <mergeCell ref="N684:O684"/>
-    <mergeCell ref="G685:I685"/>
-    <mergeCell ref="J685:K685"/>
-    <mergeCell ref="L685:M685"/>
-    <mergeCell ref="N685:O685"/>
-    <mergeCell ref="G686:I686"/>
-    <mergeCell ref="J686:K686"/>
-    <mergeCell ref="L686:M686"/>
-    <mergeCell ref="N686:O686"/>
-    <mergeCell ref="G687:I687"/>
-    <mergeCell ref="J687:K687"/>
-    <mergeCell ref="L687:M687"/>
-    <mergeCell ref="N687:O687"/>
-    <mergeCell ref="A664:D672"/>
-    <mergeCell ref="E665:O668"/>
-    <mergeCell ref="E669:O669"/>
-    <mergeCell ref="E670:O670"/>
-    <mergeCell ref="L672:O672"/>
-    <mergeCell ref="L673:O673"/>
-    <mergeCell ref="L674:O674"/>
-    <mergeCell ref="A675:C675"/>
-    <mergeCell ref="D675:F675"/>
-    <mergeCell ref="L675:O675"/>
-    <mergeCell ref="A676:C679"/>
-    <mergeCell ref="D676:F679"/>
-    <mergeCell ref="L676:O676"/>
-    <mergeCell ref="L677:O677"/>
-    <mergeCell ref="G679:O679"/>
-    <mergeCell ref="A680:C683"/>
-    <mergeCell ref="D680:F683"/>
-    <mergeCell ref="G680:I680"/>
-    <mergeCell ref="J680:K680"/>
-    <mergeCell ref="L680:M680"/>
-    <mergeCell ref="N680:O680"/>
-    <mergeCell ref="G681:I681"/>
-    <mergeCell ref="J681:K681"/>
-    <mergeCell ref="L681:M681"/>
-    <mergeCell ref="N681:O681"/>
-    <mergeCell ref="G682:I682"/>
-    <mergeCell ref="J682:K682"/>
-    <mergeCell ref="L682:M682"/>
-    <mergeCell ref="N682:O682"/>
-    <mergeCell ref="G683:I683"/>
-    <mergeCell ref="J683:K683"/>
-    <mergeCell ref="L683:M683"/>
-    <mergeCell ref="A632:C635"/>
-    <mergeCell ref="D632:F635"/>
-    <mergeCell ref="G632:I632"/>
-    <mergeCell ref="J632:K632"/>
-    <mergeCell ref="L632:M632"/>
-    <mergeCell ref="N632:O632"/>
-    <mergeCell ref="G633:I633"/>
-    <mergeCell ref="J633:K633"/>
-    <mergeCell ref="L633:M633"/>
-    <mergeCell ref="N633:O633"/>
-    <mergeCell ref="G634:I634"/>
-    <mergeCell ref="J634:K634"/>
-    <mergeCell ref="L634:M634"/>
-    <mergeCell ref="N634:O634"/>
-    <mergeCell ref="G635:I635"/>
-    <mergeCell ref="J635:K635"/>
-    <mergeCell ref="L635:M635"/>
-    <mergeCell ref="N635:O635"/>
-    <mergeCell ref="L621:O621"/>
-    <mergeCell ref="L622:O622"/>
-    <mergeCell ref="A623:C623"/>
-    <mergeCell ref="D623:F623"/>
-    <mergeCell ref="L623:O623"/>
-    <mergeCell ref="A624:C627"/>
-    <mergeCell ref="D624:F627"/>
-    <mergeCell ref="L624:O624"/>
-    <mergeCell ref="L625:O625"/>
-    <mergeCell ref="G627:O627"/>
-    <mergeCell ref="A628:C631"/>
-    <mergeCell ref="D628:F631"/>
-    <mergeCell ref="G628:I628"/>
-    <mergeCell ref="J628:K628"/>
-    <mergeCell ref="L628:M628"/>
-    <mergeCell ref="N628:O628"/>
-    <mergeCell ref="G629:I629"/>
-    <mergeCell ref="J629:K629"/>
-    <mergeCell ref="L629:M629"/>
-    <mergeCell ref="N629:O629"/>
-    <mergeCell ref="G630:I630"/>
-    <mergeCell ref="J630:K630"/>
-    <mergeCell ref="L630:M630"/>
-    <mergeCell ref="N630:O630"/>
-    <mergeCell ref="G631:I631"/>
-    <mergeCell ref="J631:K631"/>
-    <mergeCell ref="L631:M631"/>
-    <mergeCell ref="N631:O631"/>
-    <mergeCell ref="A597:C597"/>
-    <mergeCell ref="D597:F597"/>
-    <mergeCell ref="L597:O597"/>
-    <mergeCell ref="A598:C601"/>
-    <mergeCell ref="D598:F601"/>
-    <mergeCell ref="L598:O598"/>
-    <mergeCell ref="L599:O599"/>
-    <mergeCell ref="A602:C605"/>
-    <mergeCell ref="D602:F605"/>
-    <mergeCell ref="G601:O601"/>
-    <mergeCell ref="A606:C609"/>
-    <mergeCell ref="D606:F609"/>
-    <mergeCell ref="G602:I602"/>
-    <mergeCell ref="J602:K602"/>
-    <mergeCell ref="L602:M602"/>
-    <mergeCell ref="N602:O602"/>
-    <mergeCell ref="A612:D620"/>
-    <mergeCell ref="E613:O616"/>
-    <mergeCell ref="E617:O617"/>
-    <mergeCell ref="E618:O618"/>
-    <mergeCell ref="L620:O620"/>
-    <mergeCell ref="J578:K578"/>
-    <mergeCell ref="G606:I606"/>
-    <mergeCell ref="J606:K606"/>
-    <mergeCell ref="L606:M606"/>
-    <mergeCell ref="N606:O606"/>
-    <mergeCell ref="G607:I607"/>
-    <mergeCell ref="J607:K607"/>
-    <mergeCell ref="L607:M607"/>
-    <mergeCell ref="N607:O607"/>
-    <mergeCell ref="G608:I608"/>
-    <mergeCell ref="J608:K608"/>
-    <mergeCell ref="L608:M608"/>
-    <mergeCell ref="N608:O608"/>
-    <mergeCell ref="G609:I609"/>
-    <mergeCell ref="J609:K609"/>
-    <mergeCell ref="L609:M609"/>
-    <mergeCell ref="N609:O609"/>
-    <mergeCell ref="L578:M578"/>
-    <mergeCell ref="A550:C553"/>
-    <mergeCell ref="G603:I603"/>
-    <mergeCell ref="J603:K603"/>
-    <mergeCell ref="L603:M603"/>
-    <mergeCell ref="N603:O603"/>
-    <mergeCell ref="G604:I604"/>
-    <mergeCell ref="J604:K604"/>
-    <mergeCell ref="L604:M604"/>
-    <mergeCell ref="N604:O604"/>
-    <mergeCell ref="G605:I605"/>
-    <mergeCell ref="J605:K605"/>
-    <mergeCell ref="L605:M605"/>
-    <mergeCell ref="N605:O605"/>
-    <mergeCell ref="L551:M551"/>
-    <mergeCell ref="N551:O551"/>
-    <mergeCell ref="G552:I552"/>
-    <mergeCell ref="J552:K552"/>
-    <mergeCell ref="L552:M552"/>
-    <mergeCell ref="N552:O552"/>
-    <mergeCell ref="G553:I553"/>
-    <mergeCell ref="J553:K553"/>
-    <mergeCell ref="L553:M553"/>
-    <mergeCell ref="N553:O553"/>
-    <mergeCell ref="N578:O578"/>
-    <mergeCell ref="G579:I579"/>
-    <mergeCell ref="J579:K579"/>
-    <mergeCell ref="L579:M579"/>
-    <mergeCell ref="G577:I577"/>
-    <mergeCell ref="J577:K577"/>
-    <mergeCell ref="L577:M577"/>
-    <mergeCell ref="N577:O577"/>
-    <mergeCell ref="G578:I578"/>
-    <mergeCell ref="A504:D512"/>
-    <mergeCell ref="E505:O508"/>
-    <mergeCell ref="E509:O509"/>
-    <mergeCell ref="E510:O510"/>
-    <mergeCell ref="L512:O512"/>
-    <mergeCell ref="L513:O513"/>
-    <mergeCell ref="L514:O514"/>
-    <mergeCell ref="A586:D594"/>
-    <mergeCell ref="E587:O590"/>
-    <mergeCell ref="E591:O591"/>
-    <mergeCell ref="E592:O592"/>
-    <mergeCell ref="L594:O594"/>
-    <mergeCell ref="L595:O595"/>
-    <mergeCell ref="L596:O596"/>
-    <mergeCell ref="L541:O541"/>
-    <mergeCell ref="A542:C545"/>
-    <mergeCell ref="D542:F545"/>
-    <mergeCell ref="L542:O542"/>
-    <mergeCell ref="L543:O543"/>
-    <mergeCell ref="G545:O545"/>
-    <mergeCell ref="A546:C549"/>
-    <mergeCell ref="D550:F553"/>
-    <mergeCell ref="G546:I546"/>
-    <mergeCell ref="J546:K546"/>
-    <mergeCell ref="L546:M546"/>
-    <mergeCell ref="N546:O546"/>
-    <mergeCell ref="G547:I547"/>
-    <mergeCell ref="J547:K547"/>
-    <mergeCell ref="L547:M547"/>
-    <mergeCell ref="N547:O547"/>
-    <mergeCell ref="G548:I548"/>
-    <mergeCell ref="J548:K548"/>
-    <mergeCell ref="A498:C501"/>
-    <mergeCell ref="D498:F501"/>
-    <mergeCell ref="G498:I498"/>
-    <mergeCell ref="J498:K498"/>
-    <mergeCell ref="L498:M498"/>
-    <mergeCell ref="N498:O498"/>
-    <mergeCell ref="G499:I499"/>
-    <mergeCell ref="J499:K499"/>
-    <mergeCell ref="L499:M499"/>
-    <mergeCell ref="N499:O499"/>
-    <mergeCell ref="G500:I500"/>
-    <mergeCell ref="J500:K500"/>
-    <mergeCell ref="L500:M500"/>
-    <mergeCell ref="N500:O500"/>
-    <mergeCell ref="G501:I501"/>
-    <mergeCell ref="J501:K501"/>
-    <mergeCell ref="L501:M501"/>
-    <mergeCell ref="N501:O501"/>
-    <mergeCell ref="A490:C493"/>
-    <mergeCell ref="D490:F493"/>
-    <mergeCell ref="L490:O490"/>
-    <mergeCell ref="L491:O491"/>
-    <mergeCell ref="G493:O493"/>
-    <mergeCell ref="A494:C497"/>
-    <mergeCell ref="D494:F497"/>
-    <mergeCell ref="G494:I494"/>
-    <mergeCell ref="J494:K494"/>
-    <mergeCell ref="L494:M494"/>
-    <mergeCell ref="N494:O494"/>
-    <mergeCell ref="G495:I495"/>
-    <mergeCell ref="J495:K495"/>
-    <mergeCell ref="L495:M495"/>
-    <mergeCell ref="N495:O495"/>
-    <mergeCell ref="G496:I496"/>
-    <mergeCell ref="J496:K496"/>
-    <mergeCell ref="L496:M496"/>
-    <mergeCell ref="N496:O496"/>
-    <mergeCell ref="G497:I497"/>
-    <mergeCell ref="J497:K497"/>
-    <mergeCell ref="L497:M497"/>
-    <mergeCell ref="N497:O497"/>
-    <mergeCell ref="A478:D486"/>
-    <mergeCell ref="E479:O482"/>
-    <mergeCell ref="E483:O483"/>
-    <mergeCell ref="E484:O484"/>
-    <mergeCell ref="L486:O486"/>
-    <mergeCell ref="L487:O487"/>
-    <mergeCell ref="L488:O488"/>
-    <mergeCell ref="A489:C489"/>
-    <mergeCell ref="D489:F489"/>
-    <mergeCell ref="L489:O489"/>
-    <mergeCell ref="A446:C449"/>
-    <mergeCell ref="D446:F449"/>
-    <mergeCell ref="G446:I446"/>
-    <mergeCell ref="J446:K446"/>
-    <mergeCell ref="L446:M446"/>
-    <mergeCell ref="N446:O446"/>
-    <mergeCell ref="G447:I447"/>
-    <mergeCell ref="J447:K447"/>
-    <mergeCell ref="L447:M447"/>
-    <mergeCell ref="N447:O447"/>
-    <mergeCell ref="G448:I448"/>
-    <mergeCell ref="J448:K448"/>
-    <mergeCell ref="L448:M448"/>
-    <mergeCell ref="N448:O448"/>
-    <mergeCell ref="G449:I449"/>
-    <mergeCell ref="J449:K449"/>
-    <mergeCell ref="L449:M449"/>
-    <mergeCell ref="N449:O449"/>
-    <mergeCell ref="A452:D460"/>
-    <mergeCell ref="E453:O456"/>
-    <mergeCell ref="E457:O457"/>
-    <mergeCell ref="E458:O458"/>
-    <mergeCell ref="A438:C441"/>
-    <mergeCell ref="D438:F441"/>
-    <mergeCell ref="L438:O438"/>
-    <mergeCell ref="L439:O439"/>
-    <mergeCell ref="G441:O441"/>
-    <mergeCell ref="A442:C445"/>
-    <mergeCell ref="D442:F445"/>
-    <mergeCell ref="G442:I442"/>
-    <mergeCell ref="J442:K442"/>
-    <mergeCell ref="L442:M442"/>
-    <mergeCell ref="N442:O442"/>
-    <mergeCell ref="G443:I443"/>
-    <mergeCell ref="J443:K443"/>
-    <mergeCell ref="L443:M443"/>
-    <mergeCell ref="N443:O443"/>
-    <mergeCell ref="G444:I444"/>
-    <mergeCell ref="J444:K444"/>
-    <mergeCell ref="L444:M444"/>
-    <mergeCell ref="N444:O444"/>
-    <mergeCell ref="G445:I445"/>
-    <mergeCell ref="J445:K445"/>
-    <mergeCell ref="L445:M445"/>
-    <mergeCell ref="N445:O445"/>
-    <mergeCell ref="A426:D434"/>
-    <mergeCell ref="E427:O430"/>
-    <mergeCell ref="E431:O431"/>
-    <mergeCell ref="E432:O432"/>
-    <mergeCell ref="L434:O434"/>
-    <mergeCell ref="L435:O435"/>
-    <mergeCell ref="L436:O436"/>
-    <mergeCell ref="A437:C437"/>
-    <mergeCell ref="D437:F437"/>
-    <mergeCell ref="L437:O437"/>
-    <mergeCell ref="A368:C371"/>
-    <mergeCell ref="D368:F371"/>
-    <mergeCell ref="G368:I368"/>
-    <mergeCell ref="J368:K368"/>
-    <mergeCell ref="L368:M368"/>
-    <mergeCell ref="N368:O368"/>
-    <mergeCell ref="G369:I369"/>
-    <mergeCell ref="J369:K369"/>
-    <mergeCell ref="L369:M369"/>
-    <mergeCell ref="N369:O369"/>
-    <mergeCell ref="G370:I370"/>
-    <mergeCell ref="J370:K370"/>
-    <mergeCell ref="L370:M370"/>
-    <mergeCell ref="N370:O370"/>
-    <mergeCell ref="G371:I371"/>
-    <mergeCell ref="J371:K371"/>
-    <mergeCell ref="L371:M371"/>
-    <mergeCell ref="N371:O371"/>
-    <mergeCell ref="A374:D382"/>
-    <mergeCell ref="E375:O378"/>
-    <mergeCell ref="E379:O379"/>
-    <mergeCell ref="E380:O380"/>
-    <mergeCell ref="A360:C363"/>
-    <mergeCell ref="D360:F363"/>
-    <mergeCell ref="L360:O360"/>
-    <mergeCell ref="L361:O361"/>
-    <mergeCell ref="G363:O363"/>
-    <mergeCell ref="A364:C367"/>
-    <mergeCell ref="D364:F367"/>
-    <mergeCell ref="G364:I364"/>
-    <mergeCell ref="J364:K364"/>
-    <mergeCell ref="L364:M364"/>
-    <mergeCell ref="N364:O364"/>
-    <mergeCell ref="G365:I365"/>
-    <mergeCell ref="J365:K365"/>
-    <mergeCell ref="L365:M365"/>
-    <mergeCell ref="N365:O365"/>
-    <mergeCell ref="G366:I366"/>
-    <mergeCell ref="J366:K366"/>
-    <mergeCell ref="L366:M366"/>
-    <mergeCell ref="N366:O366"/>
-    <mergeCell ref="G367:I367"/>
-    <mergeCell ref="J367:K367"/>
-    <mergeCell ref="L367:M367"/>
-    <mergeCell ref="N367:O367"/>
-    <mergeCell ref="A348:D356"/>
-    <mergeCell ref="E349:O352"/>
-    <mergeCell ref="E353:O353"/>
-    <mergeCell ref="E354:O354"/>
-    <mergeCell ref="L356:O356"/>
-    <mergeCell ref="L357:O357"/>
-    <mergeCell ref="L358:O358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="D359:F359"/>
-    <mergeCell ref="L359:O359"/>
-    <mergeCell ref="A316:C319"/>
-    <mergeCell ref="D316:F319"/>
-    <mergeCell ref="G316:I316"/>
-    <mergeCell ref="J316:K316"/>
-    <mergeCell ref="L316:M316"/>
-    <mergeCell ref="N316:O316"/>
-    <mergeCell ref="G317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="L317:M317"/>
-    <mergeCell ref="N317:O317"/>
-    <mergeCell ref="G318:I318"/>
-    <mergeCell ref="J318:K318"/>
-    <mergeCell ref="L318:M318"/>
-    <mergeCell ref="N318:O318"/>
-    <mergeCell ref="G319:I319"/>
-    <mergeCell ref="J319:K319"/>
-    <mergeCell ref="L319:M319"/>
-    <mergeCell ref="N319:O319"/>
-    <mergeCell ref="A322:D330"/>
-    <mergeCell ref="E323:O326"/>
-    <mergeCell ref="E327:O327"/>
-    <mergeCell ref="E328:O328"/>
-    <mergeCell ref="A308:C311"/>
-    <mergeCell ref="D308:F311"/>
-    <mergeCell ref="L308:O308"/>
-    <mergeCell ref="L309:O309"/>
-    <mergeCell ref="G311:O311"/>
-    <mergeCell ref="A312:C315"/>
-    <mergeCell ref="D312:F315"/>
-    <mergeCell ref="G312:I312"/>
-    <mergeCell ref="J312:K312"/>
-    <mergeCell ref="L312:M312"/>
-    <mergeCell ref="N312:O312"/>
-    <mergeCell ref="G313:I313"/>
-    <mergeCell ref="J313:K313"/>
-    <mergeCell ref="L313:M313"/>
-    <mergeCell ref="N313:O313"/>
-    <mergeCell ref="G314:I314"/>
-    <mergeCell ref="J314:K314"/>
-    <mergeCell ref="L314:M314"/>
-    <mergeCell ref="N314:O314"/>
-    <mergeCell ref="G315:I315"/>
-    <mergeCell ref="J315:K315"/>
-    <mergeCell ref="L315:M315"/>
-    <mergeCell ref="N315:O315"/>
-    <mergeCell ref="A296:D304"/>
-    <mergeCell ref="E297:O300"/>
-    <mergeCell ref="E301:O301"/>
-    <mergeCell ref="E302:O302"/>
-    <mergeCell ref="L304:O304"/>
-    <mergeCell ref="L305:O305"/>
-    <mergeCell ref="L306:O306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="D307:F307"/>
-    <mergeCell ref="L307:O307"/>
-    <mergeCell ref="A256:C259"/>
-    <mergeCell ref="D256:F259"/>
-    <mergeCell ref="G256:I256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="L256:M256"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="G257:I257"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="L257:M257"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="G258:I258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="L258:M258"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="G259:I259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="L259:M259"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="A262:D270"/>
-    <mergeCell ref="E263:O266"/>
-    <mergeCell ref="E267:O267"/>
-    <mergeCell ref="E268:O268"/>
-    <mergeCell ref="A248:C251"/>
-    <mergeCell ref="D248:F251"/>
-    <mergeCell ref="L248:O248"/>
-    <mergeCell ref="L249:O249"/>
-    <mergeCell ref="G251:O251"/>
-    <mergeCell ref="A252:C255"/>
-    <mergeCell ref="D252:F255"/>
-    <mergeCell ref="G252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="L252:M252"/>
-    <mergeCell ref="N252:O252"/>
-    <mergeCell ref="G253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="L253:M253"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="G254:I254"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="L254:M254"/>
-    <mergeCell ref="N254:O254"/>
-    <mergeCell ref="G255:I255"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="L255:M255"/>
-    <mergeCell ref="N255:O255"/>
-    <mergeCell ref="A236:D244"/>
-    <mergeCell ref="E237:O240"/>
-    <mergeCell ref="E241:O241"/>
-    <mergeCell ref="E242:O242"/>
-    <mergeCell ref="L244:O244"/>
-    <mergeCell ref="L245:O245"/>
-    <mergeCell ref="L246:O246"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="D247:F247"/>
-    <mergeCell ref="L247:O247"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="E6:O6"/>
-    <mergeCell ref="E7:O7"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="A1:D9"/>
-    <mergeCell ref="E2:O5"/>
-    <mergeCell ref="A13:C16"/>
-    <mergeCell ref="A17:C20"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="D17:F20"/>
-    <mergeCell ref="A21:C24"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A27:D35"/>
-    <mergeCell ref="E28:O31"/>
-    <mergeCell ref="E32:O32"/>
-    <mergeCell ref="E33:O33"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A43:C46"/>
-    <mergeCell ref="D43:F46"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="A39:C42"/>
-    <mergeCell ref="D39:F42"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="G42:O42"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="A53:D61"/>
-    <mergeCell ref="E54:O57"/>
-    <mergeCell ref="E58:O58"/>
-    <mergeCell ref="E59:O59"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="A47:C50"/>
-    <mergeCell ref="D47:F50"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D21:F24"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="A65:C68"/>
-    <mergeCell ref="D65:F68"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="G68:O68"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="A69:C72"/>
-    <mergeCell ref="D69:F72"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="A79:D87"/>
-    <mergeCell ref="E80:O83"/>
-    <mergeCell ref="E84:O84"/>
-    <mergeCell ref="E85:O85"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="A73:C76"/>
-    <mergeCell ref="D73:F76"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="L89:O89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="A91:C94"/>
-    <mergeCell ref="D91:F94"/>
-    <mergeCell ref="L91:O91"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="G94:O94"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="A95:C98"/>
-    <mergeCell ref="D95:F98"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="A105:D113"/>
-    <mergeCell ref="E106:O109"/>
-    <mergeCell ref="E110:O110"/>
-    <mergeCell ref="E111:O111"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="A99:C102"/>
-    <mergeCell ref="D99:F102"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="A117:C120"/>
-    <mergeCell ref="D117:F120"/>
-    <mergeCell ref="L117:O117"/>
-    <mergeCell ref="L118:O118"/>
-    <mergeCell ref="G120:O120"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:M124"/>
-    <mergeCell ref="N124:O124"/>
-    <mergeCell ref="A121:C124"/>
-    <mergeCell ref="D121:F124"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="L121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="L122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="A131:D139"/>
-    <mergeCell ref="E132:O135"/>
-    <mergeCell ref="E136:O136"/>
-    <mergeCell ref="E137:O137"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="L128:M128"/>
-    <mergeCell ref="N128:O128"/>
-    <mergeCell ref="A125:C128"/>
-    <mergeCell ref="D125:F128"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="L125:M125"/>
-    <mergeCell ref="N125:O125"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="L126:M126"/>
-    <mergeCell ref="N126:O126"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="L142:O142"/>
-    <mergeCell ref="A143:C146"/>
-    <mergeCell ref="D143:F146"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="G146:O146"/>
-    <mergeCell ref="G149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="G150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="A147:C150"/>
-    <mergeCell ref="D147:F150"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="L147:M147"/>
-    <mergeCell ref="N147:O147"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="L148:M148"/>
-    <mergeCell ref="N148:O148"/>
-    <mergeCell ref="A157:D165"/>
-    <mergeCell ref="E158:O161"/>
-    <mergeCell ref="E162:O162"/>
-    <mergeCell ref="E163:O163"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="L166:O166"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="A151:C154"/>
-    <mergeCell ref="D151:F154"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="A169:C172"/>
-    <mergeCell ref="D169:F172"/>
-    <mergeCell ref="L169:O169"/>
-    <mergeCell ref="L170:O170"/>
-    <mergeCell ref="G172:O172"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="L175:M175"/>
-    <mergeCell ref="N175:O175"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="L176:M176"/>
-    <mergeCell ref="N176:O176"/>
-    <mergeCell ref="A173:C176"/>
-    <mergeCell ref="D173:F176"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="L173:M173"/>
-    <mergeCell ref="N173:O173"/>
-    <mergeCell ref="G174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="L174:M174"/>
-    <mergeCell ref="N174:O174"/>
-    <mergeCell ref="A184:D192"/>
-    <mergeCell ref="E185:O188"/>
-    <mergeCell ref="E189:O189"/>
-    <mergeCell ref="E190:O190"/>
-    <mergeCell ref="L192:O192"/>
-    <mergeCell ref="L193:O193"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="G180:I180"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="L180:M180"/>
-    <mergeCell ref="N180:O180"/>
-    <mergeCell ref="A177:C180"/>
-    <mergeCell ref="D177:F180"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="L177:M177"/>
-    <mergeCell ref="N177:O177"/>
-    <mergeCell ref="G178:I178"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="L178:M178"/>
-    <mergeCell ref="N178:O178"/>
-    <mergeCell ref="L194:O194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="L195:O195"/>
-    <mergeCell ref="A196:C199"/>
-    <mergeCell ref="D196:F199"/>
-    <mergeCell ref="L196:O196"/>
-    <mergeCell ref="L197:O197"/>
-    <mergeCell ref="G199:O199"/>
-    <mergeCell ref="G202:I202"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="L202:M202"/>
-    <mergeCell ref="N202:O202"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="L203:M203"/>
-    <mergeCell ref="N203:O203"/>
-    <mergeCell ref="A200:C203"/>
-    <mergeCell ref="D200:F203"/>
-    <mergeCell ref="G200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="L200:M200"/>
-    <mergeCell ref="N200:O200"/>
-    <mergeCell ref="G201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="L201:M201"/>
-    <mergeCell ref="N201:O201"/>
-    <mergeCell ref="A210:D218"/>
-    <mergeCell ref="E211:O214"/>
-    <mergeCell ref="E215:O215"/>
-    <mergeCell ref="E216:O216"/>
-    <mergeCell ref="L218:O218"/>
-    <mergeCell ref="L219:O219"/>
-    <mergeCell ref="G206:I206"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="N206:O206"/>
-    <mergeCell ref="G207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="A204:C207"/>
-    <mergeCell ref="D204:F207"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="L204:M204"/>
-    <mergeCell ref="N204:O204"/>
-    <mergeCell ref="G205:I205"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="L205:M205"/>
-    <mergeCell ref="N205:O205"/>
-    <mergeCell ref="L220:O220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="L221:O221"/>
-    <mergeCell ref="A222:C225"/>
-    <mergeCell ref="D222:F225"/>
-    <mergeCell ref="L222:O222"/>
-    <mergeCell ref="L223:O223"/>
-    <mergeCell ref="G225:O225"/>
-    <mergeCell ref="G228:I228"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="L228:M228"/>
-    <mergeCell ref="N228:O228"/>
-    <mergeCell ref="G229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="L229:M229"/>
-    <mergeCell ref="N229:O229"/>
-    <mergeCell ref="A226:C229"/>
-    <mergeCell ref="D226:F229"/>
-    <mergeCell ref="G226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="L226:M226"/>
-    <mergeCell ref="N226:O226"/>
-    <mergeCell ref="G227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="L227:M227"/>
-    <mergeCell ref="N227:O227"/>
-    <mergeCell ref="G232:I232"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="L232:M232"/>
-    <mergeCell ref="N232:O232"/>
-    <mergeCell ref="G233:I233"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="L233:M233"/>
-    <mergeCell ref="N233:O233"/>
-    <mergeCell ref="A230:C233"/>
-    <mergeCell ref="D230:F233"/>
-    <mergeCell ref="G230:I230"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="L230:M230"/>
-    <mergeCell ref="N230:O230"/>
-    <mergeCell ref="G231:I231"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="L231:M231"/>
-    <mergeCell ref="N231:O231"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="D273:F273"/>
-    <mergeCell ref="L273:O273"/>
-    <mergeCell ref="A274:C277"/>
-    <mergeCell ref="D274:F277"/>
-    <mergeCell ref="L274:O274"/>
-    <mergeCell ref="L275:O275"/>
-    <mergeCell ref="G277:O277"/>
-    <mergeCell ref="A278:C281"/>
-    <mergeCell ref="D278:F281"/>
-    <mergeCell ref="G278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="L278:M278"/>
-    <mergeCell ref="N278:O278"/>
-    <mergeCell ref="G279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="L279:M279"/>
-    <mergeCell ref="N279:O279"/>
-    <mergeCell ref="A282:C285"/>
-    <mergeCell ref="D282:F285"/>
-    <mergeCell ref="G280:I280"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="L280:M280"/>
-    <mergeCell ref="N281:O281"/>
-    <mergeCell ref="G281:I281"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="L281:M281"/>
-    <mergeCell ref="N282:O282"/>
-    <mergeCell ref="G282:I282"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="L282:M282"/>
-    <mergeCell ref="G283:I283"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="L283:M283"/>
-    <mergeCell ref="N283:O283"/>
-    <mergeCell ref="N280:O280"/>
-    <mergeCell ref="A286:C289"/>
-    <mergeCell ref="D286:F289"/>
-    <mergeCell ref="A290:C293"/>
-    <mergeCell ref="D290:F293"/>
-    <mergeCell ref="G284:I284"/>
-    <mergeCell ref="J284:K284"/>
-    <mergeCell ref="L284:M284"/>
-    <mergeCell ref="N284:O284"/>
-    <mergeCell ref="G285:I285"/>
-    <mergeCell ref="J285:K285"/>
-    <mergeCell ref="L285:M285"/>
-    <mergeCell ref="N285:O285"/>
-    <mergeCell ref="G286:I286"/>
-    <mergeCell ref="J286:K286"/>
-    <mergeCell ref="L286:M286"/>
-    <mergeCell ref="N286:O286"/>
-    <mergeCell ref="G287:I287"/>
-    <mergeCell ref="J287:K287"/>
-    <mergeCell ref="L287:M287"/>
-    <mergeCell ref="N287:O287"/>
-    <mergeCell ref="G288:I288"/>
-    <mergeCell ref="J288:K288"/>
-    <mergeCell ref="L288:M288"/>
-    <mergeCell ref="N288:O288"/>
-    <mergeCell ref="G292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="L292:M292"/>
-    <mergeCell ref="N292:O292"/>
-    <mergeCell ref="G293:I293"/>
-    <mergeCell ref="J293:K293"/>
-    <mergeCell ref="L293:M293"/>
-    <mergeCell ref="N293:O293"/>
-    <mergeCell ref="G289:I289"/>
-    <mergeCell ref="J289:K289"/>
-    <mergeCell ref="L289:M289"/>
-    <mergeCell ref="N289:O289"/>
-    <mergeCell ref="G290:I290"/>
-    <mergeCell ref="J290:K290"/>
-    <mergeCell ref="L290:M290"/>
-    <mergeCell ref="N290:O290"/>
-    <mergeCell ref="G291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="L291:M291"/>
-    <mergeCell ref="N291:O291"/>
-    <mergeCell ref="Q266:U267"/>
-    <mergeCell ref="Q269:U271"/>
-    <mergeCell ref="Q272:U274"/>
-    <mergeCell ref="Q275:U277"/>
-    <mergeCell ref="Q278:U280"/>
-    <mergeCell ref="Q281:U283"/>
-    <mergeCell ref="Q284:U286"/>
-    <mergeCell ref="Q287:U289"/>
-    <mergeCell ref="Q290:U291"/>
-    <mergeCell ref="L270:O270"/>
-    <mergeCell ref="L271:O271"/>
-    <mergeCell ref="L272:O272"/>
-    <mergeCell ref="L330:O330"/>
-    <mergeCell ref="L331:O331"/>
-    <mergeCell ref="L332:O332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="L333:O333"/>
-    <mergeCell ref="A334:C337"/>
-    <mergeCell ref="D334:F337"/>
-    <mergeCell ref="L334:O334"/>
-    <mergeCell ref="L335:O335"/>
-    <mergeCell ref="G337:O337"/>
-    <mergeCell ref="A338:C341"/>
-    <mergeCell ref="D338:F341"/>
-    <mergeCell ref="G338:I338"/>
-    <mergeCell ref="J338:K338"/>
-    <mergeCell ref="L338:M338"/>
-    <mergeCell ref="N338:O338"/>
-    <mergeCell ref="G339:I339"/>
-    <mergeCell ref="J339:K339"/>
-    <mergeCell ref="L339:M339"/>
-    <mergeCell ref="N339:O339"/>
-    <mergeCell ref="G340:I340"/>
-    <mergeCell ref="J340:K340"/>
-    <mergeCell ref="L340:M340"/>
-    <mergeCell ref="N340:O340"/>
-    <mergeCell ref="G341:I341"/>
-    <mergeCell ref="J341:K341"/>
-    <mergeCell ref="L341:M341"/>
-    <mergeCell ref="N341:O341"/>
-    <mergeCell ref="A342:C345"/>
-    <mergeCell ref="D342:F345"/>
-    <mergeCell ref="G342:I342"/>
-    <mergeCell ref="J342:K342"/>
-    <mergeCell ref="L342:M342"/>
-    <mergeCell ref="N342:O342"/>
-    <mergeCell ref="G343:I343"/>
-    <mergeCell ref="J343:K343"/>
-    <mergeCell ref="L343:M343"/>
-    <mergeCell ref="N343:O343"/>
-    <mergeCell ref="G344:I344"/>
-    <mergeCell ref="J344:K344"/>
-    <mergeCell ref="L344:M344"/>
-    <mergeCell ref="N344:O344"/>
-    <mergeCell ref="G345:I345"/>
-    <mergeCell ref="J345:K345"/>
-    <mergeCell ref="L345:M345"/>
-    <mergeCell ref="N345:O345"/>
-    <mergeCell ref="L382:O382"/>
-    <mergeCell ref="L383:O383"/>
-    <mergeCell ref="L384:O384"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="D385:F385"/>
-    <mergeCell ref="L385:O385"/>
-    <mergeCell ref="A386:C389"/>
-    <mergeCell ref="D386:F389"/>
-    <mergeCell ref="L386:O386"/>
-    <mergeCell ref="L387:O387"/>
-    <mergeCell ref="G389:O389"/>
-    <mergeCell ref="A390:C393"/>
-    <mergeCell ref="D390:F393"/>
-    <mergeCell ref="G390:I390"/>
-    <mergeCell ref="J390:K390"/>
-    <mergeCell ref="L390:M390"/>
-    <mergeCell ref="N390:O390"/>
-    <mergeCell ref="G391:I391"/>
-    <mergeCell ref="J391:K391"/>
-    <mergeCell ref="L391:M391"/>
-    <mergeCell ref="N391:O391"/>
-    <mergeCell ref="G392:I392"/>
-    <mergeCell ref="J392:K392"/>
-    <mergeCell ref="L392:M392"/>
-    <mergeCell ref="N392:O392"/>
-    <mergeCell ref="G393:I393"/>
-    <mergeCell ref="J393:K393"/>
-    <mergeCell ref="L393:M393"/>
-    <mergeCell ref="N393:O393"/>
-    <mergeCell ref="A394:C397"/>
-    <mergeCell ref="D394:F397"/>
-    <mergeCell ref="G394:I394"/>
-    <mergeCell ref="J394:K394"/>
-    <mergeCell ref="L394:M394"/>
-    <mergeCell ref="N394:O394"/>
-    <mergeCell ref="G395:I395"/>
-    <mergeCell ref="J395:K395"/>
-    <mergeCell ref="L395:M395"/>
-    <mergeCell ref="N395:O395"/>
-    <mergeCell ref="G396:I396"/>
-    <mergeCell ref="J396:K396"/>
-    <mergeCell ref="L396:M396"/>
-    <mergeCell ref="N396:O396"/>
-    <mergeCell ref="G397:I397"/>
-    <mergeCell ref="J397:K397"/>
-    <mergeCell ref="L397:M397"/>
-    <mergeCell ref="N397:O397"/>
-    <mergeCell ref="A400:D408"/>
-    <mergeCell ref="E401:O404"/>
-    <mergeCell ref="E405:O405"/>
-    <mergeCell ref="E406:O406"/>
-    <mergeCell ref="L408:O408"/>
-    <mergeCell ref="L409:O409"/>
-    <mergeCell ref="L410:O410"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="D411:F411"/>
-    <mergeCell ref="L411:O411"/>
-    <mergeCell ref="A412:C415"/>
-    <mergeCell ref="D412:F415"/>
-    <mergeCell ref="L412:O412"/>
-    <mergeCell ref="L413:O413"/>
-    <mergeCell ref="G415:O415"/>
-    <mergeCell ref="A416:C419"/>
-    <mergeCell ref="D416:F419"/>
-    <mergeCell ref="G416:I416"/>
-    <mergeCell ref="J416:K416"/>
-    <mergeCell ref="L416:M416"/>
-    <mergeCell ref="N416:O416"/>
-    <mergeCell ref="G417:I417"/>
-    <mergeCell ref="J417:K417"/>
-    <mergeCell ref="L417:M417"/>
-    <mergeCell ref="N417:O417"/>
-    <mergeCell ref="G418:I418"/>
-    <mergeCell ref="J418:K418"/>
-    <mergeCell ref="L418:M418"/>
-    <mergeCell ref="N418:O418"/>
-    <mergeCell ref="G419:I419"/>
-    <mergeCell ref="J419:K419"/>
-    <mergeCell ref="L419:M419"/>
-    <mergeCell ref="N419:O419"/>
-    <mergeCell ref="A420:C423"/>
-    <mergeCell ref="D420:F423"/>
-    <mergeCell ref="G420:I420"/>
-    <mergeCell ref="J420:K420"/>
-    <mergeCell ref="L420:M420"/>
-    <mergeCell ref="N420:O420"/>
-    <mergeCell ref="G421:I421"/>
-    <mergeCell ref="J421:K421"/>
-    <mergeCell ref="L421:M421"/>
-    <mergeCell ref="N421:O421"/>
-    <mergeCell ref="G422:I422"/>
-    <mergeCell ref="J422:K422"/>
-    <mergeCell ref="L422:M422"/>
-    <mergeCell ref="N422:O422"/>
-    <mergeCell ref="G423:I423"/>
-    <mergeCell ref="J423:K423"/>
-    <mergeCell ref="L423:M423"/>
-    <mergeCell ref="N423:O423"/>
-    <mergeCell ref="L460:O460"/>
-    <mergeCell ref="L461:O461"/>
-    <mergeCell ref="L462:O462"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="D463:F463"/>
-    <mergeCell ref="L463:O463"/>
-    <mergeCell ref="A464:C467"/>
-    <mergeCell ref="D464:F467"/>
-    <mergeCell ref="L464:O464"/>
-    <mergeCell ref="L465:O465"/>
-    <mergeCell ref="G467:O467"/>
-    <mergeCell ref="A468:C471"/>
-    <mergeCell ref="D468:F471"/>
-    <mergeCell ref="G468:I468"/>
-    <mergeCell ref="J468:K468"/>
-    <mergeCell ref="L468:M468"/>
-    <mergeCell ref="N468:O468"/>
-    <mergeCell ref="G469:I469"/>
-    <mergeCell ref="J469:K469"/>
-    <mergeCell ref="L469:M469"/>
-    <mergeCell ref="N469:O469"/>
-    <mergeCell ref="G470:I470"/>
-    <mergeCell ref="J470:K470"/>
-    <mergeCell ref="L470:M470"/>
-    <mergeCell ref="N470:O470"/>
-    <mergeCell ref="G471:I471"/>
-    <mergeCell ref="J471:K471"/>
-    <mergeCell ref="L471:M471"/>
-    <mergeCell ref="N471:O471"/>
-    <mergeCell ref="A472:C475"/>
-    <mergeCell ref="D472:F475"/>
-    <mergeCell ref="G472:I472"/>
-    <mergeCell ref="J472:K472"/>
-    <mergeCell ref="L472:M472"/>
-    <mergeCell ref="N472:O472"/>
-    <mergeCell ref="G473:I473"/>
-    <mergeCell ref="J473:K473"/>
-    <mergeCell ref="L473:M473"/>
-    <mergeCell ref="N473:O473"/>
-    <mergeCell ref="G474:I474"/>
-    <mergeCell ref="J474:K474"/>
-    <mergeCell ref="L474:M474"/>
-    <mergeCell ref="N474:O474"/>
-    <mergeCell ref="G475:I475"/>
-    <mergeCell ref="J475:K475"/>
-    <mergeCell ref="L475:M475"/>
-    <mergeCell ref="N475:O475"/>
-    <mergeCell ref="A515:C515"/>
-    <mergeCell ref="D515:F515"/>
-    <mergeCell ref="L515:O515"/>
-    <mergeCell ref="A516:C519"/>
-    <mergeCell ref="D516:F519"/>
-    <mergeCell ref="L516:O516"/>
-    <mergeCell ref="L517:O517"/>
-    <mergeCell ref="G519:O519"/>
-    <mergeCell ref="A520:C523"/>
-    <mergeCell ref="D520:F523"/>
-    <mergeCell ref="G520:I520"/>
-    <mergeCell ref="J520:K520"/>
-    <mergeCell ref="L520:M520"/>
-    <mergeCell ref="N520:O520"/>
-    <mergeCell ref="G521:I521"/>
-    <mergeCell ref="J521:K521"/>
-    <mergeCell ref="L521:M521"/>
-    <mergeCell ref="N521:O521"/>
-    <mergeCell ref="G522:I522"/>
-    <mergeCell ref="J522:K522"/>
-    <mergeCell ref="L522:M522"/>
-    <mergeCell ref="N522:O522"/>
-    <mergeCell ref="G523:I523"/>
-    <mergeCell ref="J523:K523"/>
-    <mergeCell ref="L523:M523"/>
-    <mergeCell ref="N523:O523"/>
-    <mergeCell ref="A524:C527"/>
-    <mergeCell ref="D524:F527"/>
-    <mergeCell ref="G524:I524"/>
-    <mergeCell ref="J524:K524"/>
-    <mergeCell ref="L524:M524"/>
-    <mergeCell ref="N524:O524"/>
-    <mergeCell ref="G525:I525"/>
-    <mergeCell ref="J525:K525"/>
-    <mergeCell ref="L525:M525"/>
-    <mergeCell ref="N525:O525"/>
-    <mergeCell ref="G526:I526"/>
-    <mergeCell ref="J526:K526"/>
-    <mergeCell ref="L526:M526"/>
-    <mergeCell ref="N526:O526"/>
-    <mergeCell ref="G527:I527"/>
-    <mergeCell ref="J527:K527"/>
-    <mergeCell ref="L527:M527"/>
-    <mergeCell ref="N527:O527"/>
-    <mergeCell ref="A530:D538"/>
-    <mergeCell ref="E531:O534"/>
-    <mergeCell ref="E535:O535"/>
-    <mergeCell ref="E536:O536"/>
-    <mergeCell ref="L538:O538"/>
-    <mergeCell ref="L539:O539"/>
-    <mergeCell ref="L540:O540"/>
-    <mergeCell ref="A541:C541"/>
-    <mergeCell ref="D541:F541"/>
-    <mergeCell ref="A556:D564"/>
-    <mergeCell ref="E557:O560"/>
-    <mergeCell ref="E561:O561"/>
-    <mergeCell ref="E562:O562"/>
-    <mergeCell ref="L564:O564"/>
-    <mergeCell ref="L565:O565"/>
-    <mergeCell ref="L566:O566"/>
-    <mergeCell ref="A567:C567"/>
-    <mergeCell ref="D567:F567"/>
-    <mergeCell ref="L567:O567"/>
-    <mergeCell ref="D546:F549"/>
-    <mergeCell ref="G550:I550"/>
-    <mergeCell ref="J550:K550"/>
-    <mergeCell ref="L550:M550"/>
-    <mergeCell ref="N550:O550"/>
-    <mergeCell ref="G551:I551"/>
-    <mergeCell ref="J551:K551"/>
-    <mergeCell ref="L548:M548"/>
-    <mergeCell ref="N548:O548"/>
-    <mergeCell ref="G549:I549"/>
-    <mergeCell ref="J549:K549"/>
-    <mergeCell ref="L549:M549"/>
-    <mergeCell ref="N549:O549"/>
-    <mergeCell ref="A568:C571"/>
-    <mergeCell ref="D568:F571"/>
-    <mergeCell ref="L568:O568"/>
-    <mergeCell ref="L569:O569"/>
-    <mergeCell ref="G575:O575"/>
-    <mergeCell ref="A572:C575"/>
-    <mergeCell ref="D572:F575"/>
-    <mergeCell ref="A580:C583"/>
-    <mergeCell ref="D580:F583"/>
-    <mergeCell ref="N579:O579"/>
-    <mergeCell ref="A576:C579"/>
-    <mergeCell ref="D576:F579"/>
-    <mergeCell ref="G580:I580"/>
-    <mergeCell ref="J580:K580"/>
-    <mergeCell ref="L580:M580"/>
-    <mergeCell ref="N580:O580"/>
-    <mergeCell ref="G581:I581"/>
-    <mergeCell ref="J581:K581"/>
-    <mergeCell ref="L581:M581"/>
-    <mergeCell ref="N581:O581"/>
-    <mergeCell ref="G582:I582"/>
-    <mergeCell ref="J582:K582"/>
-    <mergeCell ref="L582:M582"/>
-    <mergeCell ref="N582:O582"/>
-    <mergeCell ref="G583:I583"/>
-    <mergeCell ref="J583:K583"/>
-    <mergeCell ref="L583:M583"/>
-    <mergeCell ref="N583:O583"/>
-    <mergeCell ref="G576:I576"/>
-    <mergeCell ref="J576:K576"/>
-    <mergeCell ref="L576:M576"/>
-    <mergeCell ref="N576:O576"/>
-    <mergeCell ref="A692:D700"/>
-    <mergeCell ref="E693:O696"/>
-    <mergeCell ref="E697:O697"/>
-    <mergeCell ref="E698:O698"/>
-    <mergeCell ref="L700:O700"/>
-    <mergeCell ref="L701:O701"/>
-    <mergeCell ref="L702:O702"/>
-    <mergeCell ref="A703:C703"/>
-    <mergeCell ref="D703:F703"/>
-    <mergeCell ref="L703:O703"/>
-    <mergeCell ref="A704:C707"/>
-    <mergeCell ref="D704:F707"/>
-    <mergeCell ref="L704:O704"/>
-    <mergeCell ref="L705:O705"/>
-    <mergeCell ref="G707:O707"/>
-    <mergeCell ref="A708:C711"/>
-    <mergeCell ref="D708:F711"/>
-    <mergeCell ref="G708:I708"/>
-    <mergeCell ref="J708:K708"/>
-    <mergeCell ref="L708:M708"/>
-    <mergeCell ref="N708:O708"/>
-    <mergeCell ref="G709:I709"/>
-    <mergeCell ref="J709:K709"/>
-    <mergeCell ref="L709:M709"/>
-    <mergeCell ref="N709:O709"/>
-    <mergeCell ref="G710:I710"/>
-    <mergeCell ref="J710:K710"/>
-    <mergeCell ref="L710:M710"/>
-    <mergeCell ref="N710:O710"/>
-    <mergeCell ref="G711:I711"/>
-    <mergeCell ref="J711:K711"/>
-    <mergeCell ref="L711:M711"/>
-    <mergeCell ref="N711:O711"/>
-    <mergeCell ref="A712:C715"/>
-    <mergeCell ref="D712:F715"/>
-    <mergeCell ref="G712:I712"/>
-    <mergeCell ref="J712:K712"/>
-    <mergeCell ref="L712:M712"/>
-    <mergeCell ref="N712:O712"/>
-    <mergeCell ref="G713:I713"/>
-    <mergeCell ref="J713:K713"/>
-    <mergeCell ref="L713:M713"/>
-    <mergeCell ref="N713:O713"/>
-    <mergeCell ref="G714:I714"/>
-    <mergeCell ref="J714:K714"/>
-    <mergeCell ref="L714:M714"/>
-    <mergeCell ref="N714:O714"/>
-    <mergeCell ref="G715:I715"/>
-    <mergeCell ref="J715:K715"/>
-    <mergeCell ref="L715:M715"/>
-    <mergeCell ref="N715:O715"/>
-    <mergeCell ref="A720:D728"/>
-    <mergeCell ref="E721:O724"/>
-    <mergeCell ref="E725:O725"/>
-    <mergeCell ref="E726:O726"/>
-    <mergeCell ref="L728:O728"/>
-    <mergeCell ref="L729:O729"/>
-    <mergeCell ref="L730:O730"/>
-    <mergeCell ref="A731:C731"/>
-    <mergeCell ref="D731:F731"/>
-    <mergeCell ref="L731:O731"/>
-    <mergeCell ref="A732:C735"/>
-    <mergeCell ref="D732:F735"/>
-    <mergeCell ref="L732:O732"/>
-    <mergeCell ref="L733:O733"/>
-    <mergeCell ref="G735:O735"/>
-    <mergeCell ref="A736:C739"/>
-    <mergeCell ref="D736:F739"/>
-    <mergeCell ref="G736:I736"/>
-    <mergeCell ref="J736:K736"/>
-    <mergeCell ref="L736:M736"/>
-    <mergeCell ref="N736:O736"/>
-    <mergeCell ref="G737:I737"/>
-    <mergeCell ref="J737:K737"/>
-    <mergeCell ref="L737:M737"/>
-    <mergeCell ref="N737:O737"/>
-    <mergeCell ref="G738:I738"/>
-    <mergeCell ref="J738:K738"/>
-    <mergeCell ref="L738:M738"/>
-    <mergeCell ref="N738:O738"/>
-    <mergeCell ref="G739:I739"/>
-    <mergeCell ref="J739:K739"/>
-    <mergeCell ref="L739:M739"/>
-    <mergeCell ref="N739:O739"/>
-    <mergeCell ref="A740:C743"/>
-    <mergeCell ref="D740:F743"/>
-    <mergeCell ref="G740:I740"/>
-    <mergeCell ref="J740:K740"/>
-    <mergeCell ref="L740:M740"/>
-    <mergeCell ref="N740:O740"/>
-    <mergeCell ref="G741:I741"/>
-    <mergeCell ref="J741:K741"/>
-    <mergeCell ref="L741:M741"/>
-    <mergeCell ref="N741:O741"/>
-    <mergeCell ref="G742:I742"/>
-    <mergeCell ref="J742:K742"/>
-    <mergeCell ref="L742:M742"/>
-    <mergeCell ref="N742:O742"/>
-    <mergeCell ref="G743:I743"/>
-    <mergeCell ref="J743:K743"/>
-    <mergeCell ref="L743:M743"/>
-    <mergeCell ref="N743:O743"/>
+    <mergeCell ref="N767:O767"/>
+    <mergeCell ref="A768:C771"/>
+    <mergeCell ref="D768:F771"/>
+    <mergeCell ref="G768:I768"/>
+    <mergeCell ref="J768:K768"/>
+    <mergeCell ref="L768:M768"/>
+    <mergeCell ref="N768:O768"/>
+    <mergeCell ref="G769:I769"/>
+    <mergeCell ref="J769:K769"/>
+    <mergeCell ref="L769:M769"/>
+    <mergeCell ref="N769:O769"/>
+    <mergeCell ref="G770:I770"/>
+    <mergeCell ref="J770:K770"/>
+    <mergeCell ref="L770:M770"/>
+    <mergeCell ref="N770:O770"/>
+    <mergeCell ref="G771:I771"/>
+    <mergeCell ref="J771:K771"/>
+    <mergeCell ref="L771:M771"/>
+    <mergeCell ref="N771:O771"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21428,20 +21522,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21627,6 +21721,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A20BDE-ACAC-49A0-A051-6F5B010A8CC5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -21638,14 +21740,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documentacao/mechspot_ata.xlsx
+++ b/documentacao/mechspot_ata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\projeto-pi-sprint-2\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD099972-9673-40BF-9037-F0A2AB9DE9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F76F4C-A2B6-450A-9746-966D1BDBE583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4545F592-9151-46FC-8F7A-0131C129BBC9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="228">
   <si>
     <t>OK</t>
   </si>
@@ -1241,6 +1241,34 @@
   </si>
   <si>
     <t>Alterar tela de login, cadastro. Acrescentar mais informações</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF32746D"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t>DATA:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  22/10/2024     |     LISTA DE PRESENÇA</t>
+    </r>
+  </si>
+  <si>
+    <t>Continuidade dos assuntos discutidos anteriormente</t>
+  </si>
+  <si>
+    <t>Prosseguir com as alterações discutidas com o professor</t>
   </si>
 </sst>
 </file>
@@ -1759,7 +1787,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1769,6 +1797,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1782,9 +1813,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1801,8 +1829,47 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1814,9 +1881,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1831,44 +1895,8 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3208,6 +3236,51 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>415917</xdr:colOff>
+      <xdr:row>776</xdr:row>
+      <xdr:rowOff>35593</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1573013" cy="1611635"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Imagem 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68705293-7649-4EE3-9C65-069058D56CB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1103834" y="150382426"/>
+          <a:ext cx="1573013" cy="1611635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3528,10 +3601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5446F9-8A09-4B91-82C6-8FD7102DEAC7}">
-  <dimension ref="A1:Y773"/>
+  <dimension ref="A1:Y801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A757" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I759" sqref="I759"/>
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q793" sqref="Q793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3563,19 +3636,19 @@
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" ht="14.45" customHeight="1">
@@ -3583,17 +3656,17 @@
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16" ht="14.45" customHeight="1">
@@ -3601,17 +3674,17 @@
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" ht="14.45" customHeight="1">
@@ -3619,17 +3692,17 @@
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16" ht="14.45" customHeight="1">
@@ -3755,16 +3828,16 @@
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
@@ -4133,19 +4206,19 @@
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16">
@@ -4153,17 +4226,17 @@
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
       <c r="P29" s="5"/>
     </row>
     <row r="30" spans="1:16">
@@ -4171,17 +4244,17 @@
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
       <c r="P30" s="5"/>
     </row>
     <row r="31" spans="1:16">
@@ -4189,17 +4262,17 @@
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
       <c r="P31" s="5"/>
     </row>
     <row r="32" spans="1:16" ht="18">
@@ -4325,16 +4398,16 @@
       <c r="P37" s="5"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36" t="s">
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6" t="s">
@@ -4695,19 +4768,19 @@
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
       <c r="P54" s="5"/>
     </row>
     <row r="55" spans="1:16">
@@ -4715,17 +4788,17 @@
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
       <c r="P55" s="5"/>
     </row>
     <row r="56" spans="1:16">
@@ -4733,17 +4806,17 @@
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
       <c r="D56" s="28"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="43"/>
-      <c r="O56" s="43"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
       <c r="P56" s="5"/>
     </row>
     <row r="57" spans="1:16">
@@ -4751,17 +4824,17 @@
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
       <c r="P57" s="5"/>
     </row>
     <row r="58" spans="1:16" ht="18">
@@ -4887,16 +4960,16 @@
       <c r="P63" s="5"/>
     </row>
     <row r="64" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="34"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="36" t="s">
+      <c r="B64" s="35"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="34"/>
-      <c r="F64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="36"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6" t="s">
@@ -5217,19 +5290,19 @@
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
-      <c r="E80" s="43" t="s">
+      <c r="E80" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="43"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="29"/>
       <c r="P80" s="5"/>
     </row>
     <row r="81" spans="1:16">
@@ -5237,17 +5310,17 @@
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="43"/>
-      <c r="O81" s="43"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
+      <c r="O81" s="29"/>
       <c r="P81" s="5"/>
     </row>
     <row r="82" spans="1:16">
@@ -5255,17 +5328,17 @@
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="43"/>
-      <c r="M82" s="43"/>
-      <c r="N82" s="43"/>
-      <c r="O82" s="43"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="29"/>
       <c r="P82" s="5"/>
     </row>
     <row r="83" spans="1:16">
@@ -5273,17 +5346,17 @@
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="43"/>
-      <c r="K83" s="43"/>
-      <c r="L83" s="43"/>
-      <c r="M83" s="43"/>
-      <c r="N83" s="43"/>
-      <c r="O83" s="43"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="29"/>
       <c r="P83" s="5"/>
     </row>
     <row r="84" spans="1:16" ht="18">
@@ -5409,16 +5482,16 @@
       <c r="P89" s="5"/>
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A90" s="33" t="s">
+      <c r="A90" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="34"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="36" t="s">
+      <c r="B90" s="35"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="34"/>
-      <c r="F90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="36"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6" t="s">
@@ -5761,19 +5834,19 @@
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
-      <c r="E106" s="43" t="s">
+      <c r="E106" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F106" s="43"/>
-      <c r="G106" s="43"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="43"/>
-      <c r="K106" s="43"/>
-      <c r="L106" s="43"/>
-      <c r="M106" s="43"/>
-      <c r="N106" s="43"/>
-      <c r="O106" s="43"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="29"/>
+      <c r="O106" s="29"/>
       <c r="P106" s="5"/>
     </row>
     <row r="107" spans="1:16">
@@ -5781,17 +5854,17 @@
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="43"/>
-      <c r="L107" s="43"/>
-      <c r="M107" s="43"/>
-      <c r="N107" s="43"/>
-      <c r="O107" s="43"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="29"/>
       <c r="P107" s="5"/>
     </row>
     <row r="108" spans="1:16">
@@ -5799,17 +5872,17 @@
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="43"/>
-      <c r="G108" s="43"/>
-      <c r="H108" s="43"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="43"/>
-      <c r="K108" s="43"/>
-      <c r="L108" s="43"/>
-      <c r="M108" s="43"/>
-      <c r="N108" s="43"/>
-      <c r="O108" s="43"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="29"/>
+      <c r="M108" s="29"/>
+      <c r="N108" s="29"/>
+      <c r="O108" s="29"/>
       <c r="P108" s="5"/>
     </row>
     <row r="109" spans="1:16">
@@ -5817,17 +5890,17 @@
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
-      <c r="E109" s="43"/>
-      <c r="F109" s="43"/>
-      <c r="G109" s="43"/>
-      <c r="H109" s="43"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="43"/>
-      <c r="K109" s="43"/>
-      <c r="L109" s="43"/>
-      <c r="M109" s="43"/>
-      <c r="N109" s="43"/>
-      <c r="O109" s="43"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="29"/>
+      <c r="O109" s="29"/>
       <c r="P109" s="5"/>
     </row>
     <row r="110" spans="1:16" ht="18">
@@ -5922,7 +5995,7 @@
       </c>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
-      <c r="L114" s="37" t="s">
+      <c r="L114" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M114" s="32"/>
@@ -5953,16 +6026,16 @@
       <c r="P115" s="5"/>
     </row>
     <row r="116" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A116" s="33" t="s">
+      <c r="A116" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="34"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="36" t="s">
+      <c r="B116" s="35"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E116" s="34"/>
-      <c r="F116" s="35"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="36"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6" t="s">
@@ -6018,7 +6091,7 @@
       </c>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
-      <c r="L118" s="37" t="s">
+      <c r="L118" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M118" s="32"/>
@@ -6295,19 +6368,19 @@
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
-      <c r="E132" s="43" t="s">
+      <c r="E132" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F132" s="43"/>
-      <c r="G132" s="43"/>
-      <c r="H132" s="43"/>
-      <c r="I132" s="43"/>
-      <c r="J132" s="43"/>
-      <c r="K132" s="43"/>
-      <c r="L132" s="43"/>
-      <c r="M132" s="43"/>
-      <c r="N132" s="43"/>
-      <c r="O132" s="43"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="29"/>
+      <c r="K132" s="29"/>
+      <c r="L132" s="29"/>
+      <c r="M132" s="29"/>
+      <c r="N132" s="29"/>
+      <c r="O132" s="29"/>
       <c r="P132" s="5"/>
     </row>
     <row r="133" spans="1:16">
@@ -6315,17 +6388,17 @@
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
-      <c r="E133" s="43"/>
-      <c r="F133" s="43"/>
-      <c r="G133" s="43"/>
-      <c r="H133" s="43"/>
-      <c r="I133" s="43"/>
-      <c r="J133" s="43"/>
-      <c r="K133" s="43"/>
-      <c r="L133" s="43"/>
-      <c r="M133" s="43"/>
-      <c r="N133" s="43"/>
-      <c r="O133" s="43"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
+      <c r="J133" s="29"/>
+      <c r="K133" s="29"/>
+      <c r="L133" s="29"/>
+      <c r="M133" s="29"/>
+      <c r="N133" s="29"/>
+      <c r="O133" s="29"/>
       <c r="P133" s="5"/>
     </row>
     <row r="134" spans="1:16">
@@ -6333,17 +6406,17 @@
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
-      <c r="E134" s="43"/>
-      <c r="F134" s="43"/>
-      <c r="G134" s="43"/>
-      <c r="H134" s="43"/>
-      <c r="I134" s="43"/>
-      <c r="J134" s="43"/>
-      <c r="K134" s="43"/>
-      <c r="L134" s="43"/>
-      <c r="M134" s="43"/>
-      <c r="N134" s="43"/>
-      <c r="O134" s="43"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="29"/>
+      <c r="K134" s="29"/>
+      <c r="L134" s="29"/>
+      <c r="M134" s="29"/>
+      <c r="N134" s="29"/>
+      <c r="O134" s="29"/>
       <c r="P134" s="5"/>
     </row>
     <row r="135" spans="1:16">
@@ -6351,17 +6424,17 @@
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
-      <c r="E135" s="43"/>
-      <c r="F135" s="43"/>
-      <c r="G135" s="43"/>
-      <c r="H135" s="43"/>
-      <c r="I135" s="43"/>
-      <c r="J135" s="43"/>
-      <c r="K135" s="43"/>
-      <c r="L135" s="43"/>
-      <c r="M135" s="43"/>
-      <c r="N135" s="43"/>
-      <c r="O135" s="43"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
+      <c r="J135" s="29"/>
+      <c r="K135" s="29"/>
+      <c r="L135" s="29"/>
+      <c r="M135" s="29"/>
+      <c r="N135" s="29"/>
+      <c r="O135" s="29"/>
       <c r="P135" s="5"/>
     </row>
     <row r="136" spans="1:16" ht="18">
@@ -6487,16 +6560,16 @@
       <c r="P141" s="5"/>
     </row>
     <row r="142" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A142" s="33" t="s">
+      <c r="A142" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B142" s="34"/>
-      <c r="C142" s="35"/>
-      <c r="D142" s="36" t="s">
+      <c r="B142" s="35"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E142" s="34"/>
-      <c r="F142" s="35"/>
+      <c r="E142" s="35"/>
+      <c r="F142" s="36"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
       <c r="I142" s="6" t="s">
@@ -6825,19 +6898,19 @@
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
-      <c r="E158" s="43" t="s">
+      <c r="E158" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F158" s="43"/>
-      <c r="G158" s="43"/>
-      <c r="H158" s="43"/>
-      <c r="I158" s="43"/>
-      <c r="J158" s="43"/>
-      <c r="K158" s="43"/>
-      <c r="L158" s="43"/>
-      <c r="M158" s="43"/>
-      <c r="N158" s="43"/>
-      <c r="O158" s="43"/>
+      <c r="F158" s="29"/>
+      <c r="G158" s="29"/>
+      <c r="H158" s="29"/>
+      <c r="I158" s="29"/>
+      <c r="J158" s="29"/>
+      <c r="K158" s="29"/>
+      <c r="L158" s="29"/>
+      <c r="M158" s="29"/>
+      <c r="N158" s="29"/>
+      <c r="O158" s="29"/>
       <c r="P158" s="5"/>
     </row>
     <row r="159" spans="1:16">
@@ -6845,17 +6918,17 @@
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
-      <c r="E159" s="43"/>
-      <c r="F159" s="43"/>
-      <c r="G159" s="43"/>
-      <c r="H159" s="43"/>
-      <c r="I159" s="43"/>
-      <c r="J159" s="43"/>
-      <c r="K159" s="43"/>
-      <c r="L159" s="43"/>
-      <c r="M159" s="43"/>
-      <c r="N159" s="43"/>
-      <c r="O159" s="43"/>
+      <c r="E159" s="29"/>
+      <c r="F159" s="29"/>
+      <c r="G159" s="29"/>
+      <c r="H159" s="29"/>
+      <c r="I159" s="29"/>
+      <c r="J159" s="29"/>
+      <c r="K159" s="29"/>
+      <c r="L159" s="29"/>
+      <c r="M159" s="29"/>
+      <c r="N159" s="29"/>
+      <c r="O159" s="29"/>
       <c r="P159" s="5"/>
     </row>
     <row r="160" spans="1:16">
@@ -6863,17 +6936,17 @@
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
-      <c r="E160" s="43"/>
-      <c r="F160" s="43"/>
-      <c r="G160" s="43"/>
-      <c r="H160" s="43"/>
-      <c r="I160" s="43"/>
-      <c r="J160" s="43"/>
-      <c r="K160" s="43"/>
-      <c r="L160" s="43"/>
-      <c r="M160" s="43"/>
-      <c r="N160" s="43"/>
-      <c r="O160" s="43"/>
+      <c r="E160" s="29"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="29"/>
+      <c r="H160" s="29"/>
+      <c r="I160" s="29"/>
+      <c r="J160" s="29"/>
+      <c r="K160" s="29"/>
+      <c r="L160" s="29"/>
+      <c r="M160" s="29"/>
+      <c r="N160" s="29"/>
+      <c r="O160" s="29"/>
       <c r="P160" s="5"/>
     </row>
     <row r="161" spans="1:16">
@@ -6881,17 +6954,17 @@
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
       <c r="D161" s="28"/>
-      <c r="E161" s="43"/>
-      <c r="F161" s="43"/>
-      <c r="G161" s="43"/>
-      <c r="H161" s="43"/>
-      <c r="I161" s="43"/>
-      <c r="J161" s="43"/>
-      <c r="K161" s="43"/>
-      <c r="L161" s="43"/>
-      <c r="M161" s="43"/>
-      <c r="N161" s="43"/>
-      <c r="O161" s="43"/>
+      <c r="E161" s="29"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="29"/>
+      <c r="H161" s="29"/>
+      <c r="I161" s="29"/>
+      <c r="J161" s="29"/>
+      <c r="K161" s="29"/>
+      <c r="L161" s="29"/>
+      <c r="M161" s="29"/>
+      <c r="N161" s="29"/>
+      <c r="O161" s="29"/>
       <c r="P161" s="5"/>
     </row>
     <row r="162" spans="1:16" ht="18">
@@ -7017,16 +7090,16 @@
       <c r="P167" s="5"/>
     </row>
     <row r="168" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A168" s="33" t="s">
+      <c r="A168" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B168" s="34"/>
-      <c r="C168" s="35"/>
-      <c r="D168" s="36" t="s">
+      <c r="B168" s="35"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E168" s="34"/>
-      <c r="F168" s="35"/>
+      <c r="E168" s="35"/>
+      <c r="F168" s="36"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
       <c r="I168" s="6" t="s">
@@ -7060,12 +7133,12 @@
       </c>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
-      <c r="L169" s="37" t="s">
+      <c r="L169" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M169" s="37"/>
-      <c r="N169" s="37"/>
-      <c r="O169" s="37"/>
+      <c r="M169" s="33"/>
+      <c r="N169" s="33"/>
+      <c r="O169" s="33"/>
       <c r="P169" s="5"/>
     </row>
     <row r="170" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
@@ -7387,19 +7460,19 @@
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
       <c r="D185" s="28"/>
-      <c r="E185" s="43" t="s">
+      <c r="E185" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F185" s="43"/>
-      <c r="G185" s="43"/>
-      <c r="H185" s="43"/>
-      <c r="I185" s="43"/>
-      <c r="J185" s="43"/>
-      <c r="K185" s="43"/>
-      <c r="L185" s="43"/>
-      <c r="M185" s="43"/>
-      <c r="N185" s="43"/>
-      <c r="O185" s="43"/>
+      <c r="F185" s="29"/>
+      <c r="G185" s="29"/>
+      <c r="H185" s="29"/>
+      <c r="I185" s="29"/>
+      <c r="J185" s="29"/>
+      <c r="K185" s="29"/>
+      <c r="L185" s="29"/>
+      <c r="M185" s="29"/>
+      <c r="N185" s="29"/>
+      <c r="O185" s="29"/>
       <c r="P185" s="5"/>
     </row>
     <row r="186" spans="1:16">
@@ -7407,17 +7480,17 @@
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
       <c r="D186" s="28"/>
-      <c r="E186" s="43"/>
-      <c r="F186" s="43"/>
-      <c r="G186" s="43"/>
-      <c r="H186" s="43"/>
-      <c r="I186" s="43"/>
-      <c r="J186" s="43"/>
-      <c r="K186" s="43"/>
-      <c r="L186" s="43"/>
-      <c r="M186" s="43"/>
-      <c r="N186" s="43"/>
-      <c r="O186" s="43"/>
+      <c r="E186" s="29"/>
+      <c r="F186" s="29"/>
+      <c r="G186" s="29"/>
+      <c r="H186" s="29"/>
+      <c r="I186" s="29"/>
+      <c r="J186" s="29"/>
+      <c r="K186" s="29"/>
+      <c r="L186" s="29"/>
+      <c r="M186" s="29"/>
+      <c r="N186" s="29"/>
+      <c r="O186" s="29"/>
       <c r="P186" s="5"/>
     </row>
     <row r="187" spans="1:16">
@@ -7425,17 +7498,17 @@
       <c r="B187" s="28"/>
       <c r="C187" s="28"/>
       <c r="D187" s="28"/>
-      <c r="E187" s="43"/>
-      <c r="F187" s="43"/>
-      <c r="G187" s="43"/>
-      <c r="H187" s="43"/>
-      <c r="I187" s="43"/>
-      <c r="J187" s="43"/>
-      <c r="K187" s="43"/>
-      <c r="L187" s="43"/>
-      <c r="M187" s="43"/>
-      <c r="N187" s="43"/>
-      <c r="O187" s="43"/>
+      <c r="E187" s="29"/>
+      <c r="F187" s="29"/>
+      <c r="G187" s="29"/>
+      <c r="H187" s="29"/>
+      <c r="I187" s="29"/>
+      <c r="J187" s="29"/>
+      <c r="K187" s="29"/>
+      <c r="L187" s="29"/>
+      <c r="M187" s="29"/>
+      <c r="N187" s="29"/>
+      <c r="O187" s="29"/>
       <c r="P187" s="5"/>
     </row>
     <row r="188" spans="1:16">
@@ -7443,17 +7516,17 @@
       <c r="B188" s="28"/>
       <c r="C188" s="28"/>
       <c r="D188" s="28"/>
-      <c r="E188" s="43"/>
-      <c r="F188" s="43"/>
-      <c r="G188" s="43"/>
-      <c r="H188" s="43"/>
-      <c r="I188" s="43"/>
-      <c r="J188" s="43"/>
-      <c r="K188" s="43"/>
-      <c r="L188" s="43"/>
-      <c r="M188" s="43"/>
-      <c r="N188" s="43"/>
-      <c r="O188" s="43"/>
+      <c r="E188" s="29"/>
+      <c r="F188" s="29"/>
+      <c r="G188" s="29"/>
+      <c r="H188" s="29"/>
+      <c r="I188" s="29"/>
+      <c r="J188" s="29"/>
+      <c r="K188" s="29"/>
+      <c r="L188" s="29"/>
+      <c r="M188" s="29"/>
+      <c r="N188" s="29"/>
+      <c r="O188" s="29"/>
       <c r="P188" s="5"/>
     </row>
     <row r="189" spans="1:16" ht="18">
@@ -7579,16 +7652,16 @@
       <c r="P194" s="5"/>
     </row>
     <row r="195" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A195" s="33" t="s">
+      <c r="A195" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B195" s="34"/>
-      <c r="C195" s="35"/>
-      <c r="D195" s="36" t="s">
+      <c r="B195" s="35"/>
+      <c r="C195" s="36"/>
+      <c r="D195" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E195" s="34"/>
-      <c r="F195" s="35"/>
+      <c r="E195" s="35"/>
+      <c r="F195" s="36"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
       <c r="I195" s="6" t="s">
@@ -7933,19 +8006,19 @@
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
       <c r="D211" s="28"/>
-      <c r="E211" s="43" t="s">
+      <c r="E211" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F211" s="43"/>
-      <c r="G211" s="43"/>
-      <c r="H211" s="43"/>
-      <c r="I211" s="43"/>
-      <c r="J211" s="43"/>
-      <c r="K211" s="43"/>
-      <c r="L211" s="43"/>
-      <c r="M211" s="43"/>
-      <c r="N211" s="43"/>
-      <c r="O211" s="43"/>
+      <c r="F211" s="29"/>
+      <c r="G211" s="29"/>
+      <c r="H211" s="29"/>
+      <c r="I211" s="29"/>
+      <c r="J211" s="29"/>
+      <c r="K211" s="29"/>
+      <c r="L211" s="29"/>
+      <c r="M211" s="29"/>
+      <c r="N211" s="29"/>
+      <c r="O211" s="29"/>
       <c r="P211" s="5"/>
     </row>
     <row r="212" spans="1:16">
@@ -7953,17 +8026,17 @@
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
       <c r="D212" s="28"/>
-      <c r="E212" s="43"/>
-      <c r="F212" s="43"/>
-      <c r="G212" s="43"/>
-      <c r="H212" s="43"/>
-      <c r="I212" s="43"/>
-      <c r="J212" s="43"/>
-      <c r="K212" s="43"/>
-      <c r="L212" s="43"/>
-      <c r="M212" s="43"/>
-      <c r="N212" s="43"/>
-      <c r="O212" s="43"/>
+      <c r="E212" s="29"/>
+      <c r="F212" s="29"/>
+      <c r="G212" s="29"/>
+      <c r="H212" s="29"/>
+      <c r="I212" s="29"/>
+      <c r="J212" s="29"/>
+      <c r="K212" s="29"/>
+      <c r="L212" s="29"/>
+      <c r="M212" s="29"/>
+      <c r="N212" s="29"/>
+      <c r="O212" s="29"/>
       <c r="P212" s="5"/>
     </row>
     <row r="213" spans="1:16">
@@ -7971,17 +8044,17 @@
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
       <c r="D213" s="28"/>
-      <c r="E213" s="43"/>
-      <c r="F213" s="43"/>
-      <c r="G213" s="43"/>
-      <c r="H213" s="43"/>
-      <c r="I213" s="43"/>
-      <c r="J213" s="43"/>
-      <c r="K213" s="43"/>
-      <c r="L213" s="43"/>
-      <c r="M213" s="43"/>
-      <c r="N213" s="43"/>
-      <c r="O213" s="43"/>
+      <c r="E213" s="29"/>
+      <c r="F213" s="29"/>
+      <c r="G213" s="29"/>
+      <c r="H213" s="29"/>
+      <c r="I213" s="29"/>
+      <c r="J213" s="29"/>
+      <c r="K213" s="29"/>
+      <c r="L213" s="29"/>
+      <c r="M213" s="29"/>
+      <c r="N213" s="29"/>
+      <c r="O213" s="29"/>
       <c r="P213" s="5"/>
     </row>
     <row r="214" spans="1:16">
@@ -7989,17 +8062,17 @@
       <c r="B214" s="28"/>
       <c r="C214" s="28"/>
       <c r="D214" s="28"/>
-      <c r="E214" s="43"/>
-      <c r="F214" s="43"/>
-      <c r="G214" s="43"/>
-      <c r="H214" s="43"/>
-      <c r="I214" s="43"/>
-      <c r="J214" s="43"/>
-      <c r="K214" s="43"/>
-      <c r="L214" s="43"/>
-      <c r="M214" s="43"/>
-      <c r="N214" s="43"/>
-      <c r="O214" s="43"/>
+      <c r="E214" s="29"/>
+      <c r="F214" s="29"/>
+      <c r="G214" s="29"/>
+      <c r="H214" s="29"/>
+      <c r="I214" s="29"/>
+      <c r="J214" s="29"/>
+      <c r="K214" s="29"/>
+      <c r="L214" s="29"/>
+      <c r="M214" s="29"/>
+      <c r="N214" s="29"/>
+      <c r="O214" s="29"/>
       <c r="P214" s="5"/>
     </row>
     <row r="215" spans="1:16" ht="18">
@@ -8094,12 +8167,12 @@
       </c>
       <c r="J219" s="6"/>
       <c r="K219" s="6"/>
-      <c r="L219" s="37" t="s">
+      <c r="L219" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M219" s="37"/>
-      <c r="N219" s="37"/>
-      <c r="O219" s="37"/>
+      <c r="M219" s="33"/>
+      <c r="N219" s="33"/>
+      <c r="O219" s="33"/>
       <c r="P219" s="5"/>
     </row>
     <row r="220" spans="1:16" ht="15.75" thickBot="1">
@@ -8116,25 +8189,25 @@
       </c>
       <c r="J220" s="6"/>
       <c r="K220" s="6"/>
-      <c r="L220" s="37" t="s">
+      <c r="L220" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M220" s="37"/>
-      <c r="N220" s="37"/>
-      <c r="O220" s="37"/>
+      <c r="M220" s="33"/>
+      <c r="N220" s="33"/>
+      <c r="O220" s="33"/>
       <c r="P220" s="5"/>
     </row>
     <row r="221" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A221" s="33" t="s">
+      <c r="A221" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B221" s="34"/>
-      <c r="C221" s="35"/>
-      <c r="D221" s="36" t="s">
+      <c r="B221" s="35"/>
+      <c r="C221" s="36"/>
+      <c r="D221" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E221" s="34"/>
-      <c r="F221" s="35"/>
+      <c r="E221" s="35"/>
+      <c r="F221" s="36"/>
       <c r="G221" s="6"/>
       <c r="H221" s="6"/>
       <c r="I221" s="6" t="s">
@@ -8477,19 +8550,19 @@
       <c r="B237" s="28"/>
       <c r="C237" s="28"/>
       <c r="D237" s="28"/>
-      <c r="E237" s="43" t="s">
+      <c r="E237" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F237" s="43"/>
-      <c r="G237" s="43"/>
-      <c r="H237" s="43"/>
-      <c r="I237" s="43"/>
-      <c r="J237" s="43"/>
-      <c r="K237" s="43"/>
-      <c r="L237" s="43"/>
-      <c r="M237" s="43"/>
-      <c r="N237" s="43"/>
-      <c r="O237" s="43"/>
+      <c r="F237" s="29"/>
+      <c r="G237" s="29"/>
+      <c r="H237" s="29"/>
+      <c r="I237" s="29"/>
+      <c r="J237" s="29"/>
+      <c r="K237" s="29"/>
+      <c r="L237" s="29"/>
+      <c r="M237" s="29"/>
+      <c r="N237" s="29"/>
+      <c r="O237" s="29"/>
       <c r="P237" s="5"/>
     </row>
     <row r="238" spans="1:16">
@@ -8497,17 +8570,17 @@
       <c r="B238" s="28"/>
       <c r="C238" s="28"/>
       <c r="D238" s="28"/>
-      <c r="E238" s="43"/>
-      <c r="F238" s="43"/>
-      <c r="G238" s="43"/>
-      <c r="H238" s="43"/>
-      <c r="I238" s="43"/>
-      <c r="J238" s="43"/>
-      <c r="K238" s="43"/>
-      <c r="L238" s="43"/>
-      <c r="M238" s="43"/>
-      <c r="N238" s="43"/>
-      <c r="O238" s="43"/>
+      <c r="E238" s="29"/>
+      <c r="F238" s="29"/>
+      <c r="G238" s="29"/>
+      <c r="H238" s="29"/>
+      <c r="I238" s="29"/>
+      <c r="J238" s="29"/>
+      <c r="K238" s="29"/>
+      <c r="L238" s="29"/>
+      <c r="M238" s="29"/>
+      <c r="N238" s="29"/>
+      <c r="O238" s="29"/>
       <c r="P238" s="5"/>
     </row>
     <row r="239" spans="1:16">
@@ -8515,17 +8588,17 @@
       <c r="B239" s="28"/>
       <c r="C239" s="28"/>
       <c r="D239" s="28"/>
-      <c r="E239" s="43"/>
-      <c r="F239" s="43"/>
-      <c r="G239" s="43"/>
-      <c r="H239" s="43"/>
-      <c r="I239" s="43"/>
-      <c r="J239" s="43"/>
-      <c r="K239" s="43"/>
-      <c r="L239" s="43"/>
-      <c r="M239" s="43"/>
-      <c r="N239" s="43"/>
-      <c r="O239" s="43"/>
+      <c r="E239" s="29"/>
+      <c r="F239" s="29"/>
+      <c r="G239" s="29"/>
+      <c r="H239" s="29"/>
+      <c r="I239" s="29"/>
+      <c r="J239" s="29"/>
+      <c r="K239" s="29"/>
+      <c r="L239" s="29"/>
+      <c r="M239" s="29"/>
+      <c r="N239" s="29"/>
+      <c r="O239" s="29"/>
       <c r="P239" s="5"/>
     </row>
     <row r="240" spans="1:16">
@@ -8533,17 +8606,17 @@
       <c r="B240" s="28"/>
       <c r="C240" s="28"/>
       <c r="D240" s="28"/>
-      <c r="E240" s="43"/>
-      <c r="F240" s="43"/>
-      <c r="G240" s="43"/>
-      <c r="H240" s="43"/>
-      <c r="I240" s="43"/>
-      <c r="J240" s="43"/>
-      <c r="K240" s="43"/>
-      <c r="L240" s="43"/>
-      <c r="M240" s="43"/>
-      <c r="N240" s="43"/>
-      <c r="O240" s="43"/>
+      <c r="E240" s="29"/>
+      <c r="F240" s="29"/>
+      <c r="G240" s="29"/>
+      <c r="H240" s="29"/>
+      <c r="I240" s="29"/>
+      <c r="J240" s="29"/>
+      <c r="K240" s="29"/>
+      <c r="L240" s="29"/>
+      <c r="M240" s="29"/>
+      <c r="N240" s="29"/>
+      <c r="O240" s="29"/>
       <c r="P240" s="5"/>
     </row>
     <row r="241" spans="1:16" ht="18">
@@ -8669,16 +8742,16 @@
       <c r="P246" s="5"/>
     </row>
     <row r="247" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A247" s="33" t="s">
+      <c r="A247" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B247" s="34"/>
-      <c r="C247" s="35"/>
-      <c r="D247" s="36" t="s">
+      <c r="B247" s="35"/>
+      <c r="C247" s="36"/>
+      <c r="D247" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E247" s="34"/>
-      <c r="F247" s="35"/>
+      <c r="E247" s="35"/>
+      <c r="F247" s="36"/>
       <c r="G247" s="6"/>
       <c r="H247" s="6"/>
       <c r="I247" s="6" t="s">
@@ -9031,19 +9104,19 @@
       <c r="B263" s="28"/>
       <c r="C263" s="28"/>
       <c r="D263" s="28"/>
-      <c r="E263" s="43" t="s">
+      <c r="E263" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="F263" s="43"/>
-      <c r="G263" s="43"/>
-      <c r="H263" s="43"/>
-      <c r="I263" s="43"/>
-      <c r="J263" s="43"/>
-      <c r="K263" s="43"/>
-      <c r="L263" s="43"/>
-      <c r="M263" s="43"/>
-      <c r="N263" s="43"/>
-      <c r="O263" s="43"/>
+      <c r="F263" s="29"/>
+      <c r="G263" s="29"/>
+      <c r="H263" s="29"/>
+      <c r="I263" s="29"/>
+      <c r="J263" s="29"/>
+      <c r="K263" s="29"/>
+      <c r="L263" s="29"/>
+      <c r="M263" s="29"/>
+      <c r="N263" s="29"/>
+      <c r="O263" s="29"/>
       <c r="P263" s="5"/>
       <c r="Q263" s="1"/>
       <c r="R263" s="1"/>
@@ -9057,17 +9130,17 @@
       <c r="B264" s="28"/>
       <c r="C264" s="28"/>
       <c r="D264" s="28"/>
-      <c r="E264" s="43"/>
-      <c r="F264" s="43"/>
-      <c r="G264" s="43"/>
-      <c r="H264" s="43"/>
-      <c r="I264" s="43"/>
-      <c r="J264" s="43"/>
-      <c r="K264" s="43"/>
-      <c r="L264" s="43"/>
-      <c r="M264" s="43"/>
-      <c r="N264" s="43"/>
-      <c r="O264" s="43"/>
+      <c r="E264" s="29"/>
+      <c r="F264" s="29"/>
+      <c r="G264" s="29"/>
+      <c r="H264" s="29"/>
+      <c r="I264" s="29"/>
+      <c r="J264" s="29"/>
+      <c r="K264" s="29"/>
+      <c r="L264" s="29"/>
+      <c r="M264" s="29"/>
+      <c r="N264" s="29"/>
+      <c r="O264" s="29"/>
       <c r="P264" s="5"/>
       <c r="Q264" s="1"/>
       <c r="R264" s="1"/>
@@ -9081,17 +9154,17 @@
       <c r="B265" s="28"/>
       <c r="C265" s="28"/>
       <c r="D265" s="28"/>
-      <c r="E265" s="43"/>
-      <c r="F265" s="43"/>
-      <c r="G265" s="43"/>
-      <c r="H265" s="43"/>
-      <c r="I265" s="43"/>
-      <c r="J265" s="43"/>
-      <c r="K265" s="43"/>
-      <c r="L265" s="43"/>
-      <c r="M265" s="43"/>
-      <c r="N265" s="43"/>
-      <c r="O265" s="43"/>
+      <c r="E265" s="29"/>
+      <c r="F265" s="29"/>
+      <c r="G265" s="29"/>
+      <c r="H265" s="29"/>
+      <c r="I265" s="29"/>
+      <c r="J265" s="29"/>
+      <c r="K265" s="29"/>
+      <c r="L265" s="29"/>
+      <c r="M265" s="29"/>
+      <c r="N265" s="29"/>
+      <c r="O265" s="29"/>
       <c r="P265" s="5"/>
       <c r="Q265" s="1"/>
       <c r="R265" s="1"/>
@@ -9105,17 +9178,17 @@
       <c r="B266" s="28"/>
       <c r="C266" s="28"/>
       <c r="D266" s="28"/>
-      <c r="E266" s="43"/>
-      <c r="F266" s="43"/>
-      <c r="G266" s="43"/>
-      <c r="H266" s="43"/>
-      <c r="I266" s="43"/>
-      <c r="J266" s="43"/>
-      <c r="K266" s="43"/>
-      <c r="L266" s="43"/>
-      <c r="M266" s="43"/>
-      <c r="N266" s="43"/>
-      <c r="O266" s="43"/>
+      <c r="E266" s="29"/>
+      <c r="F266" s="29"/>
+      <c r="G266" s="29"/>
+      <c r="H266" s="29"/>
+      <c r="I266" s="29"/>
+      <c r="J266" s="29"/>
+      <c r="K266" s="29"/>
+      <c r="L266" s="29"/>
+      <c r="M266" s="29"/>
+      <c r="N266" s="29"/>
+      <c r="O266" s="29"/>
       <c r="P266" s="5"/>
       <c r="Q266" s="30" t="s">
         <v>99</v>
@@ -9193,13 +9266,13 @@
       <c r="N269" s="7"/>
       <c r="O269" s="7"/>
       <c r="P269" s="5"/>
-      <c r="Q269" s="63" t="s">
+      <c r="Q269" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="R269" s="63"/>
-      <c r="S269" s="63"/>
-      <c r="T269" s="63"/>
-      <c r="U269" s="63"/>
+      <c r="R269" s="46"/>
+      <c r="S269" s="46"/>
+      <c r="T269" s="46"/>
+      <c r="U269" s="46"/>
       <c r="V269" s="1"/>
     </row>
     <row r="270" spans="1:22" ht="15">
@@ -9216,18 +9289,18 @@
       </c>
       <c r="J270" s="6"/>
       <c r="K270" s="6"/>
-      <c r="L270" s="57" t="s">
+      <c r="L270" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M270" s="57"/>
-      <c r="N270" s="57"/>
-      <c r="O270" s="57"/>
+      <c r="M270" s="49"/>
+      <c r="N270" s="49"/>
+      <c r="O270" s="49"/>
       <c r="P270" s="5"/>
-      <c r="Q270" s="64"/>
-      <c r="R270" s="64"/>
-      <c r="S270" s="64"/>
-      <c r="T270" s="64"/>
-      <c r="U270" s="64"/>
+      <c r="Q270" s="47"/>
+      <c r="R270" s="47"/>
+      <c r="S270" s="47"/>
+      <c r="T270" s="47"/>
+      <c r="U270" s="47"/>
       <c r="V270" s="1"/>
     </row>
     <row r="271" spans="1:22" ht="15">
@@ -9244,18 +9317,18 @@
       </c>
       <c r="J271" s="6"/>
       <c r="K271" s="6"/>
-      <c r="L271" s="57" t="s">
+      <c r="L271" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M271" s="57"/>
-      <c r="N271" s="57"/>
-      <c r="O271" s="57"/>
+      <c r="M271" s="49"/>
+      <c r="N271" s="49"/>
+      <c r="O271" s="49"/>
       <c r="P271" s="5"/>
-      <c r="Q271" s="64"/>
-      <c r="R271" s="64"/>
-      <c r="S271" s="64"/>
-      <c r="T271" s="64"/>
-      <c r="U271" s="64"/>
+      <c r="Q271" s="47"/>
+      <c r="R271" s="47"/>
+      <c r="S271" s="47"/>
+      <c r="T271" s="47"/>
+      <c r="U271" s="47"/>
       <c r="V271" s="1"/>
     </row>
     <row r="272" spans="1:22" ht="15">
@@ -9272,20 +9345,20 @@
       </c>
       <c r="J272" s="6"/>
       <c r="K272" s="6"/>
-      <c r="L272" s="55" t="s">
+      <c r="L272" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="M272" s="55"/>
-      <c r="N272" s="55"/>
-      <c r="O272" s="55"/>
+      <c r="M272" s="50"/>
+      <c r="N272" s="50"/>
+      <c r="O272" s="50"/>
       <c r="P272" s="5"/>
-      <c r="Q272" s="64" t="s">
+      <c r="Q272" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="R272" s="64"/>
-      <c r="S272" s="64"/>
-      <c r="T272" s="64"/>
-      <c r="U272" s="64"/>
+      <c r="R272" s="47"/>
+      <c r="S272" s="47"/>
+      <c r="T272" s="47"/>
+      <c r="U272" s="47"/>
       <c r="V272" s="1"/>
     </row>
     <row r="273" spans="1:22" ht="15">
@@ -9306,31 +9379,31 @@
       </c>
       <c r="J273" s="6"/>
       <c r="K273" s="6"/>
-      <c r="L273" s="55" t="s">
+      <c r="L273" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="M273" s="55"/>
-      <c r="N273" s="55"/>
-      <c r="O273" s="55"/>
+      <c r="M273" s="50"/>
+      <c r="N273" s="50"/>
+      <c r="O273" s="50"/>
       <c r="P273" s="5"/>
-      <c r="Q273" s="64"/>
-      <c r="R273" s="64"/>
-      <c r="S273" s="64"/>
-      <c r="T273" s="64"/>
-      <c r="U273" s="64"/>
+      <c r="Q273" s="47"/>
+      <c r="R273" s="47"/>
+      <c r="S273" s="47"/>
+      <c r="T273" s="47"/>
+      <c r="U273" s="47"/>
       <c r="V273" s="1"/>
     </row>
     <row r="274" spans="1:22" ht="15">
-      <c r="A274" s="56" t="s">
+      <c r="A274" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="B274" s="48"/>
-      <c r="C274" s="48"/>
-      <c r="D274" s="48" t="s">
+      <c r="B274" s="52"/>
+      <c r="C274" s="52"/>
+      <c r="D274" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="E274" s="48"/>
-      <c r="F274" s="48"/>
+      <c r="E274" s="52"/>
+      <c r="F274" s="52"/>
       <c r="G274" s="6"/>
       <c r="H274" s="6"/>
       <c r="I274" s="6" t="s">
@@ -9338,27 +9411,27 @@
       </c>
       <c r="J274" s="6"/>
       <c r="K274" s="6"/>
-      <c r="L274" s="55" t="s">
+      <c r="L274" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="M274" s="55"/>
-      <c r="N274" s="55"/>
-      <c r="O274" s="55"/>
+      <c r="M274" s="50"/>
+      <c r="N274" s="50"/>
+      <c r="O274" s="50"/>
       <c r="P274" s="5"/>
-      <c r="Q274" s="64"/>
-      <c r="R274" s="64"/>
-      <c r="S274" s="64"/>
-      <c r="T274" s="64"/>
-      <c r="U274" s="64"/>
+      <c r="Q274" s="47"/>
+      <c r="R274" s="47"/>
+      <c r="S274" s="47"/>
+      <c r="T274" s="47"/>
+      <c r="U274" s="47"/>
       <c r="V274" s="1"/>
     </row>
     <row r="275" spans="1:22" ht="15">
-      <c r="A275" s="56"/>
-      <c r="B275" s="48"/>
-      <c r="C275" s="48"/>
-      <c r="D275" s="48"/>
-      <c r="E275" s="48"/>
-      <c r="F275" s="48"/>
+      <c r="A275" s="51"/>
+      <c r="B275" s="52"/>
+      <c r="C275" s="52"/>
+      <c r="D275" s="52"/>
+      <c r="E275" s="52"/>
+      <c r="F275" s="52"/>
       <c r="G275" s="6"/>
       <c r="H275" s="6"/>
       <c r="I275" s="6" t="s">
@@ -9366,29 +9439,29 @@
       </c>
       <c r="J275" s="6"/>
       <c r="K275" s="6"/>
-      <c r="L275" s="57" t="s">
+      <c r="L275" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M275" s="57"/>
-      <c r="N275" s="57"/>
-      <c r="O275" s="57"/>
+      <c r="M275" s="49"/>
+      <c r="N275" s="49"/>
+      <c r="O275" s="49"/>
       <c r="P275" s="5"/>
-      <c r="Q275" s="64" t="s">
+      <c r="Q275" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="R275" s="64"/>
-      <c r="S275" s="64"/>
-      <c r="T275" s="64"/>
-      <c r="U275" s="64"/>
+      <c r="R275" s="47"/>
+      <c r="S275" s="47"/>
+      <c r="T275" s="47"/>
+      <c r="U275" s="47"/>
       <c r="V275" s="1"/>
     </row>
     <row r="276" spans="1:22" ht="15">
-      <c r="A276" s="56"/>
-      <c r="B276" s="48"/>
-      <c r="C276" s="48"/>
-      <c r="D276" s="48"/>
-      <c r="E276" s="48"/>
-      <c r="F276" s="48"/>
+      <c r="A276" s="51"/>
+      <c r="B276" s="52"/>
+      <c r="C276" s="52"/>
+      <c r="D276" s="52"/>
+      <c r="E276" s="52"/>
+      <c r="F276" s="52"/>
       <c r="G276" s="6"/>
       <c r="H276" s="6"/>
       <c r="I276" s="6"/>
@@ -9399,449 +9472,449 @@
       <c r="N276" s="6"/>
       <c r="O276" s="6"/>
       <c r="P276" s="5"/>
-      <c r="Q276" s="64"/>
-      <c r="R276" s="64"/>
-      <c r="S276" s="64"/>
-      <c r="T276" s="64"/>
-      <c r="U276" s="64"/>
+      <c r="Q276" s="47"/>
+      <c r="R276" s="47"/>
+      <c r="S276" s="47"/>
+      <c r="T276" s="47"/>
+      <c r="U276" s="47"/>
       <c r="V276" s="1"/>
     </row>
     <row r="277" spans="1:22">
-      <c r="A277" s="56"/>
-      <c r="B277" s="48"/>
-      <c r="C277" s="48"/>
-      <c r="D277" s="48"/>
-      <c r="E277" s="48"/>
-      <c r="F277" s="48"/>
-      <c r="G277" s="58" t="s">
+      <c r="A277" s="51"/>
+      <c r="B277" s="52"/>
+      <c r="C277" s="52"/>
+      <c r="D277" s="52"/>
+      <c r="E277" s="52"/>
+      <c r="F277" s="52"/>
+      <c r="G277" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H277" s="58"/>
-      <c r="I277" s="58"/>
-      <c r="J277" s="58"/>
-      <c r="K277" s="58"/>
-      <c r="L277" s="58"/>
-      <c r="M277" s="58"/>
-      <c r="N277" s="58"/>
-      <c r="O277" s="58"/>
+      <c r="H277" s="55"/>
+      <c r="I277" s="55"/>
+      <c r="J277" s="55"/>
+      <c r="K277" s="55"/>
+      <c r="L277" s="55"/>
+      <c r="M277" s="55"/>
+      <c r="N277" s="55"/>
+      <c r="O277" s="55"/>
       <c r="P277" s="5"/>
-      <c r="Q277" s="64"/>
-      <c r="R277" s="64"/>
-      <c r="S277" s="64"/>
-      <c r="T277" s="64"/>
-      <c r="U277" s="64"/>
+      <c r="Q277" s="47"/>
+      <c r="R277" s="47"/>
+      <c r="S277" s="47"/>
+      <c r="T277" s="47"/>
+      <c r="U277" s="47"/>
       <c r="V277" s="1"/>
     </row>
     <row r="278" spans="1:22">
-      <c r="A278" s="56" t="s">
+      <c r="A278" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B278" s="48"/>
-      <c r="C278" s="48"/>
-      <c r="D278" s="48" t="s">
+      <c r="B278" s="52"/>
+      <c r="C278" s="52"/>
+      <c r="D278" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E278" s="48"/>
-      <c r="F278" s="48"/>
-      <c r="G278" s="59" t="s">
+      <c r="E278" s="52"/>
+      <c r="F278" s="52"/>
+      <c r="G278" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H278" s="59"/>
-      <c r="I278" s="59"/>
-      <c r="J278" s="59" t="s">
+      <c r="H278" s="56"/>
+      <c r="I278" s="56"/>
+      <c r="J278" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="K278" s="59"/>
-      <c r="L278" s="59" t="s">
+      <c r="K278" s="56"/>
+      <c r="L278" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="M278" s="59"/>
-      <c r="N278" s="59" t="s">
+      <c r="M278" s="56"/>
+      <c r="N278" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="O278" s="59"/>
+      <c r="O278" s="56"/>
       <c r="P278" s="5"/>
-      <c r="Q278" s="64" t="s">
+      <c r="Q278" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="R278" s="64"/>
-      <c r="S278" s="64"/>
-      <c r="T278" s="64"/>
-      <c r="U278" s="64"/>
+      <c r="R278" s="47"/>
+      <c r="S278" s="47"/>
+      <c r="T278" s="47"/>
+      <c r="U278" s="47"/>
       <c r="V278" s="1"/>
     </row>
     <row r="279" spans="1:22">
-      <c r="A279" s="56"/>
-      <c r="B279" s="48"/>
-      <c r="C279" s="48"/>
-      <c r="D279" s="48"/>
-      <c r="E279" s="48"/>
-      <c r="F279" s="48"/>
-      <c r="G279" s="60" t="s">
+      <c r="A279" s="51"/>
+      <c r="B279" s="52"/>
+      <c r="C279" s="52"/>
+      <c r="D279" s="52"/>
+      <c r="E279" s="52"/>
+      <c r="F279" s="52"/>
+      <c r="G279" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H279" s="60"/>
-      <c r="I279" s="60"/>
-      <c r="J279" s="61">
+      <c r="H279" s="44"/>
+      <c r="I279" s="44"/>
+      <c r="J279" s="45">
         <v>45568</v>
       </c>
-      <c r="K279" s="60"/>
-      <c r="L279" s="60" t="s">
+      <c r="K279" s="44"/>
+      <c r="L279" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="M279" s="60"/>
-      <c r="N279" s="60" t="s">
+      <c r="M279" s="44"/>
+      <c r="N279" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O279" s="60"/>
+      <c r="O279" s="44"/>
       <c r="P279" s="5"/>
-      <c r="Q279" s="64"/>
-      <c r="R279" s="64"/>
-      <c r="S279" s="64"/>
-      <c r="T279" s="64"/>
-      <c r="U279" s="64"/>
+      <c r="Q279" s="47"/>
+      <c r="R279" s="47"/>
+      <c r="S279" s="47"/>
+      <c r="T279" s="47"/>
+      <c r="U279" s="47"/>
       <c r="V279" s="1"/>
     </row>
     <row r="280" spans="1:22">
-      <c r="A280" s="56"/>
-      <c r="B280" s="48"/>
-      <c r="C280" s="48"/>
-      <c r="D280" s="48"/>
-      <c r="E280" s="48"/>
-      <c r="F280" s="48"/>
-      <c r="G280" s="60" t="s">
+      <c r="A280" s="51"/>
+      <c r="B280" s="52"/>
+      <c r="C280" s="52"/>
+      <c r="D280" s="52"/>
+      <c r="E280" s="52"/>
+      <c r="F280" s="52"/>
+      <c r="G280" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="H280" s="60"/>
-      <c r="I280" s="60"/>
-      <c r="J280" s="61">
+      <c r="H280" s="44"/>
+      <c r="I280" s="44"/>
+      <c r="J280" s="45">
         <v>45568</v>
       </c>
-      <c r="K280" s="60"/>
-      <c r="L280" s="60" t="s">
+      <c r="K280" s="44"/>
+      <c r="L280" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="M280" s="60"/>
-      <c r="N280" s="60" t="s">
+      <c r="M280" s="44"/>
+      <c r="N280" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O280" s="60"/>
+      <c r="O280" s="44"/>
       <c r="P280" s="5"/>
-      <c r="Q280" s="64"/>
-      <c r="R280" s="64"/>
-      <c r="S280" s="64"/>
-      <c r="T280" s="64"/>
-      <c r="U280" s="64"/>
+      <c r="Q280" s="47"/>
+      <c r="R280" s="47"/>
+      <c r="S280" s="47"/>
+      <c r="T280" s="47"/>
+      <c r="U280" s="47"/>
       <c r="V280" s="1"/>
     </row>
     <row r="281" spans="1:22">
-      <c r="A281" s="56"/>
-      <c r="B281" s="48"/>
-      <c r="C281" s="48"/>
-      <c r="D281" s="48"/>
-      <c r="E281" s="48"/>
-      <c r="F281" s="48"/>
-      <c r="G281" s="60" t="s">
+      <c r="A281" s="51"/>
+      <c r="B281" s="52"/>
+      <c r="C281" s="52"/>
+      <c r="D281" s="52"/>
+      <c r="E281" s="52"/>
+      <c r="F281" s="52"/>
+      <c r="G281" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H281" s="60"/>
-      <c r="I281" s="60"/>
-      <c r="J281" s="61">
+      <c r="H281" s="44"/>
+      <c r="I281" s="44"/>
+      <c r="J281" s="45">
         <v>45568</v>
       </c>
-      <c r="K281" s="60"/>
-      <c r="L281" s="60" t="s">
+      <c r="K281" s="44"/>
+      <c r="L281" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="M281" s="60"/>
-      <c r="N281" s="60" t="s">
+      <c r="M281" s="44"/>
+      <c r="N281" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O281" s="60"/>
+      <c r="O281" s="44"/>
       <c r="P281" s="5"/>
-      <c r="Q281" s="64"/>
-      <c r="R281" s="64"/>
-      <c r="S281" s="64"/>
-      <c r="T281" s="64"/>
-      <c r="U281" s="64"/>
+      <c r="Q281" s="47"/>
+      <c r="R281" s="47"/>
+      <c r="S281" s="47"/>
+      <c r="T281" s="47"/>
+      <c r="U281" s="47"/>
       <c r="V281" s="1"/>
     </row>
     <row r="282" spans="1:22">
-      <c r="A282" s="56" t="s">
+      <c r="A282" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B282" s="48"/>
-      <c r="C282" s="48"/>
-      <c r="D282" s="48" t="s">
+      <c r="B282" s="52"/>
+      <c r="C282" s="52"/>
+      <c r="D282" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="E282" s="48"/>
-      <c r="F282" s="48"/>
-      <c r="G282" s="60" t="s">
+      <c r="E282" s="52"/>
+      <c r="F282" s="52"/>
+      <c r="G282" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="H282" s="60"/>
-      <c r="I282" s="60"/>
-      <c r="J282" s="61">
+      <c r="H282" s="44"/>
+      <c r="I282" s="44"/>
+      <c r="J282" s="45">
         <v>45568</v>
       </c>
-      <c r="K282" s="60"/>
-      <c r="L282" s="60" t="s">
+      <c r="K282" s="44"/>
+      <c r="L282" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="M282" s="60"/>
-      <c r="N282" s="60" t="s">
+      <c r="M282" s="44"/>
+      <c r="N282" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O282" s="60"/>
+      <c r="O282" s="44"/>
       <c r="P282" s="5"/>
-      <c r="Q282" s="64"/>
-      <c r="R282" s="64"/>
-      <c r="S282" s="64"/>
-      <c r="T282" s="64"/>
-      <c r="U282" s="64"/>
+      <c r="Q282" s="47"/>
+      <c r="R282" s="47"/>
+      <c r="S282" s="47"/>
+      <c r="T282" s="47"/>
+      <c r="U282" s="47"/>
       <c r="V282" s="1"/>
     </row>
     <row r="283" spans="1:22" ht="15">
-      <c r="A283" s="56"/>
-      <c r="B283" s="48"/>
-      <c r="C283" s="48"/>
-      <c r="D283" s="48"/>
-      <c r="E283" s="48"/>
-      <c r="F283" s="48"/>
-      <c r="G283" s="62"/>
-      <c r="H283" s="62"/>
-      <c r="I283" s="62"/>
-      <c r="J283" s="60"/>
-      <c r="K283" s="60"/>
-      <c r="L283" s="60"/>
-      <c r="M283" s="60"/>
-      <c r="N283" s="60"/>
-      <c r="O283" s="60"/>
+      <c r="A283" s="51"/>
+      <c r="B283" s="52"/>
+      <c r="C283" s="52"/>
+      <c r="D283" s="52"/>
+      <c r="E283" s="52"/>
+      <c r="F283" s="52"/>
+      <c r="G283" s="43"/>
+      <c r="H283" s="43"/>
+      <c r="I283" s="43"/>
+      <c r="J283" s="44"/>
+      <c r="K283" s="44"/>
+      <c r="L283" s="44"/>
+      <c r="M283" s="44"/>
+      <c r="N283" s="44"/>
+      <c r="O283" s="44"/>
       <c r="P283" s="5"/>
-      <c r="Q283" s="64"/>
-      <c r="R283" s="64"/>
-      <c r="S283" s="64"/>
-      <c r="T283" s="64"/>
-      <c r="U283" s="64"/>
+      <c r="Q283" s="47"/>
+      <c r="R283" s="47"/>
+      <c r="S283" s="47"/>
+      <c r="T283" s="47"/>
+      <c r="U283" s="47"/>
       <c r="V283" s="1"/>
     </row>
     <row r="284" spans="1:22">
-      <c r="A284" s="56"/>
-      <c r="B284" s="48"/>
-      <c r="C284" s="48"/>
-      <c r="D284" s="48"/>
-      <c r="E284" s="48"/>
-      <c r="F284" s="48"/>
-      <c r="G284" s="60"/>
-      <c r="H284" s="60"/>
-      <c r="I284" s="60"/>
-      <c r="J284" s="61"/>
-      <c r="K284" s="60"/>
-      <c r="L284" s="60"/>
-      <c r="M284" s="60"/>
-      <c r="N284" s="60"/>
-      <c r="O284" s="60"/>
+      <c r="A284" s="51"/>
+      <c r="B284" s="52"/>
+      <c r="C284" s="52"/>
+      <c r="D284" s="52"/>
+      <c r="E284" s="52"/>
+      <c r="F284" s="52"/>
+      <c r="G284" s="44"/>
+      <c r="H284" s="44"/>
+      <c r="I284" s="44"/>
+      <c r="J284" s="45"/>
+      <c r="K284" s="44"/>
+      <c r="L284" s="44"/>
+      <c r="M284" s="44"/>
+      <c r="N284" s="44"/>
+      <c r="O284" s="44"/>
       <c r="P284" s="5"/>
-      <c r="Q284" s="64"/>
-      <c r="R284" s="64"/>
-      <c r="S284" s="64"/>
-      <c r="T284" s="64"/>
-      <c r="U284" s="64"/>
+      <c r="Q284" s="47"/>
+      <c r="R284" s="47"/>
+      <c r="S284" s="47"/>
+      <c r="T284" s="47"/>
+      <c r="U284" s="47"/>
       <c r="V284" s="1"/>
     </row>
     <row r="285" spans="1:22">
-      <c r="A285" s="56"/>
-      <c r="B285" s="48"/>
-      <c r="C285" s="48"/>
-      <c r="D285" s="48"/>
-      <c r="E285" s="48"/>
-      <c r="F285" s="48"/>
-      <c r="G285" s="60"/>
-      <c r="H285" s="60"/>
-      <c r="I285" s="60"/>
-      <c r="J285" s="61"/>
-      <c r="K285" s="60"/>
-      <c r="L285" s="60"/>
-      <c r="M285" s="60"/>
-      <c r="N285" s="60"/>
-      <c r="O285" s="60"/>
+      <c r="A285" s="51"/>
+      <c r="B285" s="52"/>
+      <c r="C285" s="52"/>
+      <c r="D285" s="52"/>
+      <c r="E285" s="52"/>
+      <c r="F285" s="52"/>
+      <c r="G285" s="44"/>
+      <c r="H285" s="44"/>
+      <c r="I285" s="44"/>
+      <c r="J285" s="45"/>
+      <c r="K285" s="44"/>
+      <c r="L285" s="44"/>
+      <c r="M285" s="44"/>
+      <c r="N285" s="44"/>
+      <c r="O285" s="44"/>
       <c r="P285" s="5"/>
-      <c r="Q285" s="64"/>
-      <c r="R285" s="64"/>
-      <c r="S285" s="64"/>
-      <c r="T285" s="64"/>
-      <c r="U285" s="64"/>
+      <c r="Q285" s="47"/>
+      <c r="R285" s="47"/>
+      <c r="S285" s="47"/>
+      <c r="T285" s="47"/>
+      <c r="U285" s="47"/>
       <c r="V285" s="1"/>
     </row>
     <row r="286" spans="1:22" ht="15">
-      <c r="A286" s="56" t="s">
+      <c r="A286" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="B286" s="48"/>
-      <c r="C286" s="48"/>
-      <c r="D286" s="48" t="s">
+      <c r="B286" s="52"/>
+      <c r="C286" s="52"/>
+      <c r="D286" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="E286" s="48"/>
-      <c r="F286" s="48"/>
-      <c r="G286" s="62"/>
-      <c r="H286" s="62"/>
-      <c r="I286" s="62"/>
-      <c r="J286" s="60"/>
-      <c r="K286" s="60"/>
-      <c r="L286" s="60"/>
-      <c r="M286" s="60"/>
-      <c r="N286" s="60"/>
-      <c r="O286" s="60"/>
+      <c r="E286" s="52"/>
+      <c r="F286" s="52"/>
+      <c r="G286" s="43"/>
+      <c r="H286" s="43"/>
+      <c r="I286" s="43"/>
+      <c r="J286" s="44"/>
+      <c r="K286" s="44"/>
+      <c r="L286" s="44"/>
+      <c r="M286" s="44"/>
+      <c r="N286" s="44"/>
+      <c r="O286" s="44"/>
       <c r="P286" s="5"/>
-      <c r="Q286" s="64"/>
-      <c r="R286" s="64"/>
-      <c r="S286" s="64"/>
-      <c r="T286" s="64"/>
-      <c r="U286" s="64"/>
+      <c r="Q286" s="47"/>
+      <c r="R286" s="47"/>
+      <c r="S286" s="47"/>
+      <c r="T286" s="47"/>
+      <c r="U286" s="47"/>
       <c r="V286" s="1"/>
     </row>
     <row r="287" spans="1:22">
-      <c r="A287" s="56"/>
-      <c r="B287" s="48"/>
-      <c r="C287" s="48"/>
-      <c r="D287" s="48"/>
-      <c r="E287" s="48"/>
-      <c r="F287" s="48"/>
-      <c r="G287" s="60"/>
-      <c r="H287" s="60"/>
-      <c r="I287" s="60"/>
-      <c r="J287" s="61"/>
-      <c r="K287" s="60"/>
-      <c r="L287" s="60"/>
-      <c r="M287" s="60"/>
-      <c r="N287" s="60"/>
-      <c r="O287" s="60"/>
+      <c r="A287" s="51"/>
+      <c r="B287" s="52"/>
+      <c r="C287" s="52"/>
+      <c r="D287" s="52"/>
+      <c r="E287" s="52"/>
+      <c r="F287" s="52"/>
+      <c r="G287" s="44"/>
+      <c r="H287" s="44"/>
+      <c r="I287" s="44"/>
+      <c r="J287" s="45"/>
+      <c r="K287" s="44"/>
+      <c r="L287" s="44"/>
+      <c r="M287" s="44"/>
+      <c r="N287" s="44"/>
+      <c r="O287" s="44"/>
       <c r="P287" s="5"/>
-      <c r="Q287" s="64"/>
-      <c r="R287" s="64"/>
-      <c r="S287" s="64"/>
-      <c r="T287" s="64"/>
-      <c r="U287" s="64"/>
+      <c r="Q287" s="47"/>
+      <c r="R287" s="47"/>
+      <c r="S287" s="47"/>
+      <c r="T287" s="47"/>
+      <c r="U287" s="47"/>
       <c r="V287" s="1"/>
     </row>
     <row r="288" spans="1:22">
-      <c r="A288" s="56"/>
-      <c r="B288" s="48"/>
-      <c r="C288" s="48"/>
-      <c r="D288" s="48"/>
-      <c r="E288" s="48"/>
-      <c r="F288" s="48"/>
-      <c r="G288" s="60"/>
-      <c r="H288" s="60"/>
-      <c r="I288" s="60"/>
-      <c r="J288" s="61"/>
-      <c r="K288" s="60"/>
-      <c r="L288" s="60"/>
-      <c r="M288" s="60"/>
-      <c r="N288" s="60"/>
-      <c r="O288" s="60"/>
+      <c r="A288" s="51"/>
+      <c r="B288" s="52"/>
+      <c r="C288" s="52"/>
+      <c r="D288" s="52"/>
+      <c r="E288" s="52"/>
+      <c r="F288" s="52"/>
+      <c r="G288" s="44"/>
+      <c r="H288" s="44"/>
+      <c r="I288" s="44"/>
+      <c r="J288" s="45"/>
+      <c r="K288" s="44"/>
+      <c r="L288" s="44"/>
+      <c r="M288" s="44"/>
+      <c r="N288" s="44"/>
+      <c r="O288" s="44"/>
       <c r="P288" s="5"/>
-      <c r="Q288" s="64"/>
-      <c r="R288" s="64"/>
-      <c r="S288" s="64"/>
-      <c r="T288" s="64"/>
-      <c r="U288" s="64"/>
+      <c r="Q288" s="47"/>
+      <c r="R288" s="47"/>
+      <c r="S288" s="47"/>
+      <c r="T288" s="47"/>
+      <c r="U288" s="47"/>
       <c r="V288" s="1"/>
     </row>
     <row r="289" spans="1:22" ht="15">
-      <c r="A289" s="56"/>
-      <c r="B289" s="48"/>
-      <c r="C289" s="48"/>
-      <c r="D289" s="48"/>
-      <c r="E289" s="48"/>
-      <c r="F289" s="48"/>
-      <c r="G289" s="62"/>
-      <c r="H289" s="62"/>
-      <c r="I289" s="62"/>
-      <c r="J289" s="60"/>
-      <c r="K289" s="60"/>
-      <c r="L289" s="60"/>
-      <c r="M289" s="60"/>
-      <c r="N289" s="60"/>
-      <c r="O289" s="60"/>
+      <c r="A289" s="51"/>
+      <c r="B289" s="52"/>
+      <c r="C289" s="52"/>
+      <c r="D289" s="52"/>
+      <c r="E289" s="52"/>
+      <c r="F289" s="52"/>
+      <c r="G289" s="43"/>
+      <c r="H289" s="43"/>
+      <c r="I289" s="43"/>
+      <c r="J289" s="44"/>
+      <c r="K289" s="44"/>
+      <c r="L289" s="44"/>
+      <c r="M289" s="44"/>
+      <c r="N289" s="44"/>
+      <c r="O289" s="44"/>
       <c r="P289" s="5"/>
-      <c r="Q289" s="64"/>
-      <c r="R289" s="64"/>
-      <c r="S289" s="64"/>
-      <c r="T289" s="64"/>
-      <c r="U289" s="64"/>
+      <c r="Q289" s="47"/>
+      <c r="R289" s="47"/>
+      <c r="S289" s="47"/>
+      <c r="T289" s="47"/>
+      <c r="U289" s="47"/>
       <c r="V289" s="1"/>
     </row>
     <row r="290" spans="1:22">
-      <c r="A290" s="56" t="s">
+      <c r="A290" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="B290" s="48"/>
-      <c r="C290" s="48"/>
-      <c r="D290" s="48" t="s">
+      <c r="B290" s="52"/>
+      <c r="C290" s="52"/>
+      <c r="D290" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="E290" s="48"/>
-      <c r="F290" s="48"/>
-      <c r="G290" s="60"/>
-      <c r="H290" s="60"/>
-      <c r="I290" s="60"/>
-      <c r="J290" s="61"/>
-      <c r="K290" s="60"/>
-      <c r="L290" s="60"/>
-      <c r="M290" s="60"/>
-      <c r="N290" s="60"/>
-      <c r="O290" s="60"/>
+      <c r="E290" s="52"/>
+      <c r="F290" s="52"/>
+      <c r="G290" s="44"/>
+      <c r="H290" s="44"/>
+      <c r="I290" s="44"/>
+      <c r="J290" s="45"/>
+      <c r="K290" s="44"/>
+      <c r="L290" s="44"/>
+      <c r="M290" s="44"/>
+      <c r="N290" s="44"/>
+      <c r="O290" s="44"/>
       <c r="P290" s="5"/>
-      <c r="Q290" s="64"/>
-      <c r="R290" s="64"/>
-      <c r="S290" s="64"/>
-      <c r="T290" s="64"/>
-      <c r="U290" s="64"/>
+      <c r="Q290" s="47"/>
+      <c r="R290" s="47"/>
+      <c r="S290" s="47"/>
+      <c r="T290" s="47"/>
+      <c r="U290" s="47"/>
       <c r="V290" s="1"/>
     </row>
     <row r="291" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A291" s="56"/>
-      <c r="B291" s="48"/>
-      <c r="C291" s="48"/>
-      <c r="D291" s="48"/>
-      <c r="E291" s="48"/>
-      <c r="F291" s="48"/>
-      <c r="G291" s="62"/>
-      <c r="H291" s="62"/>
-      <c r="I291" s="62"/>
-      <c r="J291" s="60"/>
-      <c r="K291" s="60"/>
-      <c r="L291" s="60"/>
-      <c r="M291" s="60"/>
-      <c r="N291" s="60"/>
-      <c r="O291" s="60"/>
+      <c r="A291" s="51"/>
+      <c r="B291" s="52"/>
+      <c r="C291" s="52"/>
+      <c r="D291" s="52"/>
+      <c r="E291" s="52"/>
+      <c r="F291" s="52"/>
+      <c r="G291" s="43"/>
+      <c r="H291" s="43"/>
+      <c r="I291" s="43"/>
+      <c r="J291" s="44"/>
+      <c r="K291" s="44"/>
+      <c r="L291" s="44"/>
+      <c r="M291" s="44"/>
+      <c r="N291" s="44"/>
+      <c r="O291" s="44"/>
       <c r="P291" s="5"/>
-      <c r="Q291" s="65"/>
-      <c r="R291" s="65"/>
-      <c r="S291" s="65"/>
-      <c r="T291" s="65"/>
-      <c r="U291" s="65"/>
+      <c r="Q291" s="48"/>
+      <c r="R291" s="48"/>
+      <c r="S291" s="48"/>
+      <c r="T291" s="48"/>
+      <c r="U291" s="48"/>
       <c r="V291" s="1"/>
     </row>
     <row r="292" spans="1:22">
-      <c r="A292" s="56"/>
-      <c r="B292" s="48"/>
-      <c r="C292" s="48"/>
-      <c r="D292" s="48"/>
-      <c r="E292" s="48"/>
-      <c r="F292" s="48"/>
-      <c r="G292" s="60"/>
-      <c r="H292" s="60"/>
-      <c r="I292" s="60"/>
-      <c r="J292" s="61"/>
-      <c r="K292" s="60"/>
-      <c r="L292" s="60"/>
-      <c r="M292" s="60"/>
-      <c r="N292" s="60"/>
-      <c r="O292" s="60"/>
+      <c r="A292" s="51"/>
+      <c r="B292" s="52"/>
+      <c r="C292" s="52"/>
+      <c r="D292" s="52"/>
+      <c r="E292" s="52"/>
+      <c r="F292" s="52"/>
+      <c r="G292" s="44"/>
+      <c r="H292" s="44"/>
+      <c r="I292" s="44"/>
+      <c r="J292" s="45"/>
+      <c r="K292" s="44"/>
+      <c r="L292" s="44"/>
+      <c r="M292" s="44"/>
+      <c r="N292" s="44"/>
+      <c r="O292" s="44"/>
       <c r="P292" s="5"/>
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
@@ -9851,21 +9924,21 @@
       <c r="V292" s="1"/>
     </row>
     <row r="293" spans="1:22" ht="15">
-      <c r="A293" s="56"/>
-      <c r="B293" s="48"/>
-      <c r="C293" s="48"/>
-      <c r="D293" s="48"/>
-      <c r="E293" s="48"/>
-      <c r="F293" s="48"/>
-      <c r="G293" s="62"/>
-      <c r="H293" s="62"/>
-      <c r="I293" s="62"/>
-      <c r="J293" s="60"/>
-      <c r="K293" s="60"/>
-      <c r="L293" s="60"/>
-      <c r="M293" s="60"/>
-      <c r="N293" s="60"/>
-      <c r="O293" s="60"/>
+      <c r="A293" s="51"/>
+      <c r="B293" s="52"/>
+      <c r="C293" s="52"/>
+      <c r="D293" s="52"/>
+      <c r="E293" s="52"/>
+      <c r="F293" s="52"/>
+      <c r="G293" s="43"/>
+      <c r="H293" s="43"/>
+      <c r="I293" s="43"/>
+      <c r="J293" s="44"/>
+      <c r="K293" s="44"/>
+      <c r="L293" s="44"/>
+      <c r="M293" s="44"/>
+      <c r="N293" s="44"/>
+      <c r="O293" s="44"/>
       <c r="P293" s="5"/>
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
@@ -9933,19 +10006,19 @@
       <c r="B297" s="28"/>
       <c r="C297" s="28"/>
       <c r="D297" s="28"/>
-      <c r="E297" s="43" t="s">
+      <c r="E297" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F297" s="43"/>
-      <c r="G297" s="43"/>
-      <c r="H297" s="43"/>
-      <c r="I297" s="43"/>
-      <c r="J297" s="43"/>
-      <c r="K297" s="43"/>
-      <c r="L297" s="43"/>
-      <c r="M297" s="43"/>
-      <c r="N297" s="43"/>
-      <c r="O297" s="43"/>
+      <c r="F297" s="29"/>
+      <c r="G297" s="29"/>
+      <c r="H297" s="29"/>
+      <c r="I297" s="29"/>
+      <c r="J297" s="29"/>
+      <c r="K297" s="29"/>
+      <c r="L297" s="29"/>
+      <c r="M297" s="29"/>
+      <c r="N297" s="29"/>
+      <c r="O297" s="29"/>
       <c r="P297" s="5"/>
     </row>
     <row r="298" spans="1:22">
@@ -9953,17 +10026,17 @@
       <c r="B298" s="28"/>
       <c r="C298" s="28"/>
       <c r="D298" s="28"/>
-      <c r="E298" s="43"/>
-      <c r="F298" s="43"/>
-      <c r="G298" s="43"/>
-      <c r="H298" s="43"/>
-      <c r="I298" s="43"/>
-      <c r="J298" s="43"/>
-      <c r="K298" s="43"/>
-      <c r="L298" s="43"/>
-      <c r="M298" s="43"/>
-      <c r="N298" s="43"/>
-      <c r="O298" s="43"/>
+      <c r="E298" s="29"/>
+      <c r="F298" s="29"/>
+      <c r="G298" s="29"/>
+      <c r="H298" s="29"/>
+      <c r="I298" s="29"/>
+      <c r="J298" s="29"/>
+      <c r="K298" s="29"/>
+      <c r="L298" s="29"/>
+      <c r="M298" s="29"/>
+      <c r="N298" s="29"/>
+      <c r="O298" s="29"/>
       <c r="P298" s="5"/>
     </row>
     <row r="299" spans="1:22">
@@ -9971,17 +10044,17 @@
       <c r="B299" s="28"/>
       <c r="C299" s="28"/>
       <c r="D299" s="28"/>
-      <c r="E299" s="43"/>
-      <c r="F299" s="43"/>
-      <c r="G299" s="43"/>
-      <c r="H299" s="43"/>
-      <c r="I299" s="43"/>
-      <c r="J299" s="43"/>
-      <c r="K299" s="43"/>
-      <c r="L299" s="43"/>
-      <c r="M299" s="43"/>
-      <c r="N299" s="43"/>
-      <c r="O299" s="43"/>
+      <c r="E299" s="29"/>
+      <c r="F299" s="29"/>
+      <c r="G299" s="29"/>
+      <c r="H299" s="29"/>
+      <c r="I299" s="29"/>
+      <c r="J299" s="29"/>
+      <c r="K299" s="29"/>
+      <c r="L299" s="29"/>
+      <c r="M299" s="29"/>
+      <c r="N299" s="29"/>
+      <c r="O299" s="29"/>
       <c r="P299" s="5"/>
     </row>
     <row r="300" spans="1:22">
@@ -9989,17 +10062,17 @@
       <c r="B300" s="28"/>
       <c r="C300" s="28"/>
       <c r="D300" s="28"/>
-      <c r="E300" s="43"/>
-      <c r="F300" s="43"/>
-      <c r="G300" s="43"/>
-      <c r="H300" s="43"/>
-      <c r="I300" s="43"/>
-      <c r="J300" s="43"/>
-      <c r="K300" s="43"/>
-      <c r="L300" s="43"/>
-      <c r="M300" s="43"/>
-      <c r="N300" s="43"/>
-      <c r="O300" s="43"/>
+      <c r="E300" s="29"/>
+      <c r="F300" s="29"/>
+      <c r="G300" s="29"/>
+      <c r="H300" s="29"/>
+      <c r="I300" s="29"/>
+      <c r="J300" s="29"/>
+      <c r="K300" s="29"/>
+      <c r="L300" s="29"/>
+      <c r="M300" s="29"/>
+      <c r="N300" s="29"/>
+      <c r="O300" s="29"/>
       <c r="P300" s="5"/>
     </row>
     <row r="301" spans="1:22" ht="18">
@@ -10125,16 +10198,16 @@
       <c r="P306" s="5"/>
     </row>
     <row r="307" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A307" s="33" t="s">
+      <c r="A307" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B307" s="34"/>
-      <c r="C307" s="35"/>
-      <c r="D307" s="36" t="s">
+      <c r="B307" s="35"/>
+      <c r="C307" s="36"/>
+      <c r="D307" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E307" s="34"/>
-      <c r="F307" s="35"/>
+      <c r="E307" s="35"/>
+      <c r="F307" s="36"/>
       <c r="G307" s="6"/>
       <c r="H307" s="6"/>
       <c r="I307" s="6" t="s">
@@ -10487,19 +10560,19 @@
       <c r="B323" s="28"/>
       <c r="C323" s="28"/>
       <c r="D323" s="28"/>
-      <c r="E323" s="43" t="s">
+      <c r="E323" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F323" s="43"/>
-      <c r="G323" s="43"/>
-      <c r="H323" s="43"/>
-      <c r="I323" s="43"/>
-      <c r="J323" s="43"/>
-      <c r="K323" s="43"/>
-      <c r="L323" s="43"/>
-      <c r="M323" s="43"/>
-      <c r="N323" s="43"/>
-      <c r="O323" s="43"/>
+      <c r="F323" s="29"/>
+      <c r="G323" s="29"/>
+      <c r="H323" s="29"/>
+      <c r="I323" s="29"/>
+      <c r="J323" s="29"/>
+      <c r="K323" s="29"/>
+      <c r="L323" s="29"/>
+      <c r="M323" s="29"/>
+      <c r="N323" s="29"/>
+      <c r="O323" s="29"/>
       <c r="P323" s="5"/>
     </row>
     <row r="324" spans="1:16" ht="14.45" customHeight="1">
@@ -10507,17 +10580,17 @@
       <c r="B324" s="28"/>
       <c r="C324" s="28"/>
       <c r="D324" s="28"/>
-      <c r="E324" s="43"/>
-      <c r="F324" s="43"/>
-      <c r="G324" s="43"/>
-      <c r="H324" s="43"/>
-      <c r="I324" s="43"/>
-      <c r="J324" s="43"/>
-      <c r="K324" s="43"/>
-      <c r="L324" s="43"/>
-      <c r="M324" s="43"/>
-      <c r="N324" s="43"/>
-      <c r="O324" s="43"/>
+      <c r="E324" s="29"/>
+      <c r="F324" s="29"/>
+      <c r="G324" s="29"/>
+      <c r="H324" s="29"/>
+      <c r="I324" s="29"/>
+      <c r="J324" s="29"/>
+      <c r="K324" s="29"/>
+      <c r="L324" s="29"/>
+      <c r="M324" s="29"/>
+      <c r="N324" s="29"/>
+      <c r="O324" s="29"/>
       <c r="P324" s="5"/>
     </row>
     <row r="325" spans="1:16">
@@ -10525,17 +10598,17 @@
       <c r="B325" s="28"/>
       <c r="C325" s="28"/>
       <c r="D325" s="28"/>
-      <c r="E325" s="43"/>
-      <c r="F325" s="43"/>
-      <c r="G325" s="43"/>
-      <c r="H325" s="43"/>
-      <c r="I325" s="43"/>
-      <c r="J325" s="43"/>
-      <c r="K325" s="43"/>
-      <c r="L325" s="43"/>
-      <c r="M325" s="43"/>
-      <c r="N325" s="43"/>
-      <c r="O325" s="43"/>
+      <c r="E325" s="29"/>
+      <c r="F325" s="29"/>
+      <c r="G325" s="29"/>
+      <c r="H325" s="29"/>
+      <c r="I325" s="29"/>
+      <c r="J325" s="29"/>
+      <c r="K325" s="29"/>
+      <c r="L325" s="29"/>
+      <c r="M325" s="29"/>
+      <c r="N325" s="29"/>
+      <c r="O325" s="29"/>
       <c r="P325" s="5"/>
     </row>
     <row r="326" spans="1:16">
@@ -10543,17 +10616,17 @@
       <c r="B326" s="28"/>
       <c r="C326" s="28"/>
       <c r="D326" s="28"/>
-      <c r="E326" s="43"/>
-      <c r="F326" s="43"/>
-      <c r="G326" s="43"/>
-      <c r="H326" s="43"/>
-      <c r="I326" s="43"/>
-      <c r="J326" s="43"/>
-      <c r="K326" s="43"/>
-      <c r="L326" s="43"/>
-      <c r="M326" s="43"/>
-      <c r="N326" s="43"/>
-      <c r="O326" s="43"/>
+      <c r="E326" s="29"/>
+      <c r="F326" s="29"/>
+      <c r="G326" s="29"/>
+      <c r="H326" s="29"/>
+      <c r="I326" s="29"/>
+      <c r="J326" s="29"/>
+      <c r="K326" s="29"/>
+      <c r="L326" s="29"/>
+      <c r="M326" s="29"/>
+      <c r="N326" s="29"/>
+      <c r="O326" s="29"/>
       <c r="P326" s="5"/>
     </row>
     <row r="327" spans="1:16" ht="15" customHeight="1">
@@ -10679,16 +10752,16 @@
       <c r="P332" s="5"/>
     </row>
     <row r="333" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A333" s="33" t="s">
+      <c r="A333" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B333" s="34"/>
-      <c r="C333" s="35"/>
-      <c r="D333" s="36" t="s">
+      <c r="B333" s="35"/>
+      <c r="C333" s="36"/>
+      <c r="D333" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E333" s="34"/>
-      <c r="F333" s="35"/>
+      <c r="E333" s="35"/>
+      <c r="F333" s="36"/>
       <c r="G333" s="6"/>
       <c r="H333" s="6"/>
       <c r="I333" s="6" t="s">
@@ -11041,19 +11114,19 @@
       <c r="B349" s="28"/>
       <c r="C349" s="28"/>
       <c r="D349" s="28"/>
-      <c r="E349" s="43" t="s">
+      <c r="E349" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F349" s="43"/>
-      <c r="G349" s="43"/>
-      <c r="H349" s="43"/>
-      <c r="I349" s="43"/>
-      <c r="J349" s="43"/>
-      <c r="K349" s="43"/>
-      <c r="L349" s="43"/>
-      <c r="M349" s="43"/>
-      <c r="N349" s="43"/>
-      <c r="O349" s="43"/>
+      <c r="F349" s="29"/>
+      <c r="G349" s="29"/>
+      <c r="H349" s="29"/>
+      <c r="I349" s="29"/>
+      <c r="J349" s="29"/>
+      <c r="K349" s="29"/>
+      <c r="L349" s="29"/>
+      <c r="M349" s="29"/>
+      <c r="N349" s="29"/>
+      <c r="O349" s="29"/>
       <c r="P349" s="5"/>
     </row>
     <row r="350" spans="1:16">
@@ -11061,17 +11134,17 @@
       <c r="B350" s="28"/>
       <c r="C350" s="28"/>
       <c r="D350" s="28"/>
-      <c r="E350" s="43"/>
-      <c r="F350" s="43"/>
-      <c r="G350" s="43"/>
-      <c r="H350" s="43"/>
-      <c r="I350" s="43"/>
-      <c r="J350" s="43"/>
-      <c r="K350" s="43"/>
-      <c r="L350" s="43"/>
-      <c r="M350" s="43"/>
-      <c r="N350" s="43"/>
-      <c r="O350" s="43"/>
+      <c r="E350" s="29"/>
+      <c r="F350" s="29"/>
+      <c r="G350" s="29"/>
+      <c r="H350" s="29"/>
+      <c r="I350" s="29"/>
+      <c r="J350" s="29"/>
+      <c r="K350" s="29"/>
+      <c r="L350" s="29"/>
+      <c r="M350" s="29"/>
+      <c r="N350" s="29"/>
+      <c r="O350" s="29"/>
       <c r="P350" s="5"/>
     </row>
     <row r="351" spans="1:16">
@@ -11079,17 +11152,17 @@
       <c r="B351" s="28"/>
       <c r="C351" s="28"/>
       <c r="D351" s="28"/>
-      <c r="E351" s="43"/>
-      <c r="F351" s="43"/>
-      <c r="G351" s="43"/>
-      <c r="H351" s="43"/>
-      <c r="I351" s="43"/>
-      <c r="J351" s="43"/>
-      <c r="K351" s="43"/>
-      <c r="L351" s="43"/>
-      <c r="M351" s="43"/>
-      <c r="N351" s="43"/>
-      <c r="O351" s="43"/>
+      <c r="E351" s="29"/>
+      <c r="F351" s="29"/>
+      <c r="G351" s="29"/>
+      <c r="H351" s="29"/>
+      <c r="I351" s="29"/>
+      <c r="J351" s="29"/>
+      <c r="K351" s="29"/>
+      <c r="L351" s="29"/>
+      <c r="M351" s="29"/>
+      <c r="N351" s="29"/>
+      <c r="O351" s="29"/>
       <c r="P351" s="5"/>
     </row>
     <row r="352" spans="1:16">
@@ -11097,17 +11170,17 @@
       <c r="B352" s="28"/>
       <c r="C352" s="28"/>
       <c r="D352" s="28"/>
-      <c r="E352" s="43"/>
-      <c r="F352" s="43"/>
-      <c r="G352" s="43"/>
-      <c r="H352" s="43"/>
-      <c r="I352" s="43"/>
-      <c r="J352" s="43"/>
-      <c r="K352" s="43"/>
-      <c r="L352" s="43"/>
-      <c r="M352" s="43"/>
-      <c r="N352" s="43"/>
-      <c r="O352" s="43"/>
+      <c r="E352" s="29"/>
+      <c r="F352" s="29"/>
+      <c r="G352" s="29"/>
+      <c r="H352" s="29"/>
+      <c r="I352" s="29"/>
+      <c r="J352" s="29"/>
+      <c r="K352" s="29"/>
+      <c r="L352" s="29"/>
+      <c r="M352" s="29"/>
+      <c r="N352" s="29"/>
+      <c r="O352" s="29"/>
       <c r="P352" s="5"/>
     </row>
     <row r="353" spans="1:16" ht="18">
@@ -11233,16 +11306,16 @@
       <c r="P358" s="5"/>
     </row>
     <row r="359" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A359" s="33" t="s">
+      <c r="A359" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B359" s="34"/>
-      <c r="C359" s="35"/>
-      <c r="D359" s="36" t="s">
+      <c r="B359" s="35"/>
+      <c r="C359" s="36"/>
+      <c r="D359" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E359" s="34"/>
-      <c r="F359" s="35"/>
+      <c r="E359" s="35"/>
+      <c r="F359" s="36"/>
       <c r="G359" s="6"/>
       <c r="H359" s="6"/>
       <c r="I359" s="6" t="s">
@@ -11595,19 +11668,19 @@
       <c r="B375" s="28"/>
       <c r="C375" s="28"/>
       <c r="D375" s="28"/>
-      <c r="E375" s="43" t="s">
+      <c r="E375" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F375" s="43"/>
-      <c r="G375" s="43"/>
-      <c r="H375" s="43"/>
-      <c r="I375" s="43"/>
-      <c r="J375" s="43"/>
-      <c r="K375" s="43"/>
-      <c r="L375" s="43"/>
-      <c r="M375" s="43"/>
-      <c r="N375" s="43"/>
-      <c r="O375" s="43"/>
+      <c r="F375" s="29"/>
+      <c r="G375" s="29"/>
+      <c r="H375" s="29"/>
+      <c r="I375" s="29"/>
+      <c r="J375" s="29"/>
+      <c r="K375" s="29"/>
+      <c r="L375" s="29"/>
+      <c r="M375" s="29"/>
+      <c r="N375" s="29"/>
+      <c r="O375" s="29"/>
       <c r="P375" s="5"/>
     </row>
     <row r="376" spans="1:16">
@@ -11615,17 +11688,17 @@
       <c r="B376" s="28"/>
       <c r="C376" s="28"/>
       <c r="D376" s="28"/>
-      <c r="E376" s="43"/>
-      <c r="F376" s="43"/>
-      <c r="G376" s="43"/>
-      <c r="H376" s="43"/>
-      <c r="I376" s="43"/>
-      <c r="J376" s="43"/>
-      <c r="K376" s="43"/>
-      <c r="L376" s="43"/>
-      <c r="M376" s="43"/>
-      <c r="N376" s="43"/>
-      <c r="O376" s="43"/>
+      <c r="E376" s="29"/>
+      <c r="F376" s="29"/>
+      <c r="G376" s="29"/>
+      <c r="H376" s="29"/>
+      <c r="I376" s="29"/>
+      <c r="J376" s="29"/>
+      <c r="K376" s="29"/>
+      <c r="L376" s="29"/>
+      <c r="M376" s="29"/>
+      <c r="N376" s="29"/>
+      <c r="O376" s="29"/>
       <c r="P376" s="5"/>
     </row>
     <row r="377" spans="1:16">
@@ -11633,17 +11706,17 @@
       <c r="B377" s="28"/>
       <c r="C377" s="28"/>
       <c r="D377" s="28"/>
-      <c r="E377" s="43"/>
-      <c r="F377" s="43"/>
-      <c r="G377" s="43"/>
-      <c r="H377" s="43"/>
-      <c r="I377" s="43"/>
-      <c r="J377" s="43"/>
-      <c r="K377" s="43"/>
-      <c r="L377" s="43"/>
-      <c r="M377" s="43"/>
-      <c r="N377" s="43"/>
-      <c r="O377" s="43"/>
+      <c r="E377" s="29"/>
+      <c r="F377" s="29"/>
+      <c r="G377" s="29"/>
+      <c r="H377" s="29"/>
+      <c r="I377" s="29"/>
+      <c r="J377" s="29"/>
+      <c r="K377" s="29"/>
+      <c r="L377" s="29"/>
+      <c r="M377" s="29"/>
+      <c r="N377" s="29"/>
+      <c r="O377" s="29"/>
       <c r="P377" s="5"/>
     </row>
     <row r="378" spans="1:16">
@@ -11651,17 +11724,17 @@
       <c r="B378" s="28"/>
       <c r="C378" s="28"/>
       <c r="D378" s="28"/>
-      <c r="E378" s="43"/>
-      <c r="F378" s="43"/>
-      <c r="G378" s="43"/>
-      <c r="H378" s="43"/>
-      <c r="I378" s="43"/>
-      <c r="J378" s="43"/>
-      <c r="K378" s="43"/>
-      <c r="L378" s="43"/>
-      <c r="M378" s="43"/>
-      <c r="N378" s="43"/>
-      <c r="O378" s="43"/>
+      <c r="E378" s="29"/>
+      <c r="F378" s="29"/>
+      <c r="G378" s="29"/>
+      <c r="H378" s="29"/>
+      <c r="I378" s="29"/>
+      <c r="J378" s="29"/>
+      <c r="K378" s="29"/>
+      <c r="L378" s="29"/>
+      <c r="M378" s="29"/>
+      <c r="N378" s="29"/>
+      <c r="O378" s="29"/>
       <c r="P378" s="5"/>
     </row>
     <row r="379" spans="1:16" ht="18">
@@ -11787,16 +11860,16 @@
       <c r="P384" s="5"/>
     </row>
     <row r="385" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A385" s="33" t="s">
+      <c r="A385" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B385" s="34"/>
-      <c r="C385" s="35"/>
-      <c r="D385" s="36" t="s">
+      <c r="B385" s="35"/>
+      <c r="C385" s="36"/>
+      <c r="D385" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E385" s="34"/>
-      <c r="F385" s="35"/>
+      <c r="E385" s="35"/>
+      <c r="F385" s="36"/>
       <c r="G385" s="6"/>
       <c r="H385" s="6"/>
       <c r="I385" s="6" t="s">
@@ -12145,19 +12218,19 @@
       <c r="B401" s="28"/>
       <c r="C401" s="28"/>
       <c r="D401" s="28"/>
-      <c r="E401" s="43" t="s">
+      <c r="E401" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F401" s="43"/>
-      <c r="G401" s="43"/>
-      <c r="H401" s="43"/>
-      <c r="I401" s="43"/>
-      <c r="J401" s="43"/>
-      <c r="K401" s="43"/>
-      <c r="L401" s="43"/>
-      <c r="M401" s="43"/>
-      <c r="N401" s="43"/>
-      <c r="O401" s="43"/>
+      <c r="F401" s="29"/>
+      <c r="G401" s="29"/>
+      <c r="H401" s="29"/>
+      <c r="I401" s="29"/>
+      <c r="J401" s="29"/>
+      <c r="K401" s="29"/>
+      <c r="L401" s="29"/>
+      <c r="M401" s="29"/>
+      <c r="N401" s="29"/>
+      <c r="O401" s="29"/>
       <c r="P401" s="5"/>
     </row>
     <row r="402" spans="1:16">
@@ -12165,17 +12238,17 @@
       <c r="B402" s="28"/>
       <c r="C402" s="28"/>
       <c r="D402" s="28"/>
-      <c r="E402" s="43"/>
-      <c r="F402" s="43"/>
-      <c r="G402" s="43"/>
-      <c r="H402" s="43"/>
-      <c r="I402" s="43"/>
-      <c r="J402" s="43"/>
-      <c r="K402" s="43"/>
-      <c r="L402" s="43"/>
-      <c r="M402" s="43"/>
-      <c r="N402" s="43"/>
-      <c r="O402" s="43"/>
+      <c r="E402" s="29"/>
+      <c r="F402" s="29"/>
+      <c r="G402" s="29"/>
+      <c r="H402" s="29"/>
+      <c r="I402" s="29"/>
+      <c r="J402" s="29"/>
+      <c r="K402" s="29"/>
+      <c r="L402" s="29"/>
+      <c r="M402" s="29"/>
+      <c r="N402" s="29"/>
+      <c r="O402" s="29"/>
       <c r="P402" s="5"/>
     </row>
     <row r="403" spans="1:16">
@@ -12183,17 +12256,17 @@
       <c r="B403" s="28"/>
       <c r="C403" s="28"/>
       <c r="D403" s="28"/>
-      <c r="E403" s="43"/>
-      <c r="F403" s="43"/>
-      <c r="G403" s="43"/>
-      <c r="H403" s="43"/>
-      <c r="I403" s="43"/>
-      <c r="J403" s="43"/>
-      <c r="K403" s="43"/>
-      <c r="L403" s="43"/>
-      <c r="M403" s="43"/>
-      <c r="N403" s="43"/>
-      <c r="O403" s="43"/>
+      <c r="E403" s="29"/>
+      <c r="F403" s="29"/>
+      <c r="G403" s="29"/>
+      <c r="H403" s="29"/>
+      <c r="I403" s="29"/>
+      <c r="J403" s="29"/>
+      <c r="K403" s="29"/>
+      <c r="L403" s="29"/>
+      <c r="M403" s="29"/>
+      <c r="N403" s="29"/>
+      <c r="O403" s="29"/>
       <c r="P403" s="5"/>
     </row>
     <row r="404" spans="1:16">
@@ -12201,17 +12274,17 @@
       <c r="B404" s="28"/>
       <c r="C404" s="28"/>
       <c r="D404" s="28"/>
-      <c r="E404" s="43"/>
-      <c r="F404" s="43"/>
-      <c r="G404" s="43"/>
-      <c r="H404" s="43"/>
-      <c r="I404" s="43"/>
-      <c r="J404" s="43"/>
-      <c r="K404" s="43"/>
-      <c r="L404" s="43"/>
-      <c r="M404" s="43"/>
-      <c r="N404" s="43"/>
-      <c r="O404" s="43"/>
+      <c r="E404" s="29"/>
+      <c r="F404" s="29"/>
+      <c r="G404" s="29"/>
+      <c r="H404" s="29"/>
+      <c r="I404" s="29"/>
+      <c r="J404" s="29"/>
+      <c r="K404" s="29"/>
+      <c r="L404" s="29"/>
+      <c r="M404" s="29"/>
+      <c r="N404" s="29"/>
+      <c r="O404" s="29"/>
       <c r="P404" s="5"/>
     </row>
     <row r="405" spans="1:16" ht="18">
@@ -12337,16 +12410,16 @@
       <c r="P410" s="5"/>
     </row>
     <row r="411" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A411" s="33" t="s">
+      <c r="A411" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B411" s="34"/>
-      <c r="C411" s="35"/>
-      <c r="D411" s="36" t="s">
+      <c r="B411" s="35"/>
+      <c r="C411" s="36"/>
+      <c r="D411" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E411" s="34"/>
-      <c r="F411" s="35"/>
+      <c r="E411" s="35"/>
+      <c r="F411" s="36"/>
       <c r="G411" s="6"/>
       <c r="H411" s="6"/>
       <c r="I411" s="6" t="s">
@@ -12699,19 +12772,19 @@
       <c r="B427" s="28"/>
       <c r="C427" s="28"/>
       <c r="D427" s="28"/>
-      <c r="E427" s="43" t="s">
+      <c r="E427" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F427" s="43"/>
-      <c r="G427" s="43"/>
-      <c r="H427" s="43"/>
-      <c r="I427" s="43"/>
-      <c r="J427" s="43"/>
-      <c r="K427" s="43"/>
-      <c r="L427" s="43"/>
-      <c r="M427" s="43"/>
-      <c r="N427" s="43"/>
-      <c r="O427" s="43"/>
+      <c r="F427" s="29"/>
+      <c r="G427" s="29"/>
+      <c r="H427" s="29"/>
+      <c r="I427" s="29"/>
+      <c r="J427" s="29"/>
+      <c r="K427" s="29"/>
+      <c r="L427" s="29"/>
+      <c r="M427" s="29"/>
+      <c r="N427" s="29"/>
+      <c r="O427" s="29"/>
       <c r="P427" s="5"/>
     </row>
     <row r="428" spans="1:16">
@@ -12719,17 +12792,17 @@
       <c r="B428" s="28"/>
       <c r="C428" s="28"/>
       <c r="D428" s="28"/>
-      <c r="E428" s="43"/>
-      <c r="F428" s="43"/>
-      <c r="G428" s="43"/>
-      <c r="H428" s="43"/>
-      <c r="I428" s="43"/>
-      <c r="J428" s="43"/>
-      <c r="K428" s="43"/>
-      <c r="L428" s="43"/>
-      <c r="M428" s="43"/>
-      <c r="N428" s="43"/>
-      <c r="O428" s="43"/>
+      <c r="E428" s="29"/>
+      <c r="F428" s="29"/>
+      <c r="G428" s="29"/>
+      <c r="H428" s="29"/>
+      <c r="I428" s="29"/>
+      <c r="J428" s="29"/>
+      <c r="K428" s="29"/>
+      <c r="L428" s="29"/>
+      <c r="M428" s="29"/>
+      <c r="N428" s="29"/>
+      <c r="O428" s="29"/>
       <c r="P428" s="5"/>
     </row>
     <row r="429" spans="1:16">
@@ -12737,17 +12810,17 @@
       <c r="B429" s="28"/>
       <c r="C429" s="28"/>
       <c r="D429" s="28"/>
-      <c r="E429" s="43"/>
-      <c r="F429" s="43"/>
-      <c r="G429" s="43"/>
-      <c r="H429" s="43"/>
-      <c r="I429" s="43"/>
-      <c r="J429" s="43"/>
-      <c r="K429" s="43"/>
-      <c r="L429" s="43"/>
-      <c r="M429" s="43"/>
-      <c r="N429" s="43"/>
-      <c r="O429" s="43"/>
+      <c r="E429" s="29"/>
+      <c r="F429" s="29"/>
+      <c r="G429" s="29"/>
+      <c r="H429" s="29"/>
+      <c r="I429" s="29"/>
+      <c r="J429" s="29"/>
+      <c r="K429" s="29"/>
+      <c r="L429" s="29"/>
+      <c r="M429" s="29"/>
+      <c r="N429" s="29"/>
+      <c r="O429" s="29"/>
       <c r="P429" s="5"/>
     </row>
     <row r="430" spans="1:16">
@@ -12755,17 +12828,17 @@
       <c r="B430" s="28"/>
       <c r="C430" s="28"/>
       <c r="D430" s="28"/>
-      <c r="E430" s="43"/>
-      <c r="F430" s="43"/>
-      <c r="G430" s="43"/>
-      <c r="H430" s="43"/>
-      <c r="I430" s="43"/>
-      <c r="J430" s="43"/>
-      <c r="K430" s="43"/>
-      <c r="L430" s="43"/>
-      <c r="M430" s="43"/>
-      <c r="N430" s="43"/>
-      <c r="O430" s="43"/>
+      <c r="E430" s="29"/>
+      <c r="F430" s="29"/>
+      <c r="G430" s="29"/>
+      <c r="H430" s="29"/>
+      <c r="I430" s="29"/>
+      <c r="J430" s="29"/>
+      <c r="K430" s="29"/>
+      <c r="L430" s="29"/>
+      <c r="M430" s="29"/>
+      <c r="N430" s="29"/>
+      <c r="O430" s="29"/>
       <c r="P430" s="5"/>
     </row>
     <row r="431" spans="1:16" ht="18">
@@ -12891,16 +12964,16 @@
       <c r="P436" s="5"/>
     </row>
     <row r="437" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A437" s="33" t="s">
+      <c r="A437" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B437" s="34"/>
-      <c r="C437" s="35"/>
-      <c r="D437" s="36" t="s">
+      <c r="B437" s="35"/>
+      <c r="C437" s="36"/>
+      <c r="D437" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E437" s="34"/>
-      <c r="F437" s="35"/>
+      <c r="E437" s="35"/>
+      <c r="F437" s="36"/>
       <c r="G437" s="6"/>
       <c r="H437" s="6"/>
       <c r="I437" s="6" t="s">
@@ -13251,19 +13324,19 @@
       <c r="B453" s="28"/>
       <c r="C453" s="28"/>
       <c r="D453" s="28"/>
-      <c r="E453" s="43" t="s">
+      <c r="E453" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F453" s="43"/>
-      <c r="G453" s="43"/>
-      <c r="H453" s="43"/>
-      <c r="I453" s="43"/>
-      <c r="J453" s="43"/>
-      <c r="K453" s="43"/>
-      <c r="L453" s="43"/>
-      <c r="M453" s="43"/>
-      <c r="N453" s="43"/>
-      <c r="O453" s="43"/>
+      <c r="F453" s="29"/>
+      <c r="G453" s="29"/>
+      <c r="H453" s="29"/>
+      <c r="I453" s="29"/>
+      <c r="J453" s="29"/>
+      <c r="K453" s="29"/>
+      <c r="L453" s="29"/>
+      <c r="M453" s="29"/>
+      <c r="N453" s="29"/>
+      <c r="O453" s="29"/>
       <c r="P453" s="5"/>
     </row>
     <row r="454" spans="1:16">
@@ -13271,17 +13344,17 @@
       <c r="B454" s="28"/>
       <c r="C454" s="28"/>
       <c r="D454" s="28"/>
-      <c r="E454" s="43"/>
-      <c r="F454" s="43"/>
-      <c r="G454" s="43"/>
-      <c r="H454" s="43"/>
-      <c r="I454" s="43"/>
-      <c r="J454" s="43"/>
-      <c r="K454" s="43"/>
-      <c r="L454" s="43"/>
-      <c r="M454" s="43"/>
-      <c r="N454" s="43"/>
-      <c r="O454" s="43"/>
+      <c r="E454" s="29"/>
+      <c r="F454" s="29"/>
+      <c r="G454" s="29"/>
+      <c r="H454" s="29"/>
+      <c r="I454" s="29"/>
+      <c r="J454" s="29"/>
+      <c r="K454" s="29"/>
+      <c r="L454" s="29"/>
+      <c r="M454" s="29"/>
+      <c r="N454" s="29"/>
+      <c r="O454" s="29"/>
       <c r="P454" s="5"/>
     </row>
     <row r="455" spans="1:16">
@@ -13289,17 +13362,17 @@
       <c r="B455" s="28"/>
       <c r="C455" s="28"/>
       <c r="D455" s="28"/>
-      <c r="E455" s="43"/>
-      <c r="F455" s="43"/>
-      <c r="G455" s="43"/>
-      <c r="H455" s="43"/>
-      <c r="I455" s="43"/>
-      <c r="J455" s="43"/>
-      <c r="K455" s="43"/>
-      <c r="L455" s="43"/>
-      <c r="M455" s="43"/>
-      <c r="N455" s="43"/>
-      <c r="O455" s="43"/>
+      <c r="E455" s="29"/>
+      <c r="F455" s="29"/>
+      <c r="G455" s="29"/>
+      <c r="H455" s="29"/>
+      <c r="I455" s="29"/>
+      <c r="J455" s="29"/>
+      <c r="K455" s="29"/>
+      <c r="L455" s="29"/>
+      <c r="M455" s="29"/>
+      <c r="N455" s="29"/>
+      <c r="O455" s="29"/>
       <c r="P455" s="5"/>
     </row>
     <row r="456" spans="1:16">
@@ -13307,17 +13380,17 @@
       <c r="B456" s="28"/>
       <c r="C456" s="28"/>
       <c r="D456" s="28"/>
-      <c r="E456" s="43"/>
-      <c r="F456" s="43"/>
-      <c r="G456" s="43"/>
-      <c r="H456" s="43"/>
-      <c r="I456" s="43"/>
-      <c r="J456" s="43"/>
-      <c r="K456" s="43"/>
-      <c r="L456" s="43"/>
-      <c r="M456" s="43"/>
-      <c r="N456" s="43"/>
-      <c r="O456" s="43"/>
+      <c r="E456" s="29"/>
+      <c r="F456" s="29"/>
+      <c r="G456" s="29"/>
+      <c r="H456" s="29"/>
+      <c r="I456" s="29"/>
+      <c r="J456" s="29"/>
+      <c r="K456" s="29"/>
+      <c r="L456" s="29"/>
+      <c r="M456" s="29"/>
+      <c r="N456" s="29"/>
+      <c r="O456" s="29"/>
       <c r="P456" s="5"/>
     </row>
     <row r="457" spans="1:16" ht="18">
@@ -13443,16 +13516,16 @@
       <c r="P462" s="5"/>
     </row>
     <row r="463" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A463" s="33" t="s">
+      <c r="A463" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B463" s="34"/>
-      <c r="C463" s="35"/>
-      <c r="D463" s="36" t="s">
+      <c r="B463" s="35"/>
+      <c r="C463" s="36"/>
+      <c r="D463" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E463" s="34"/>
-      <c r="F463" s="35"/>
+      <c r="E463" s="35"/>
+      <c r="F463" s="36"/>
       <c r="G463" s="6"/>
       <c r="H463" s="6"/>
       <c r="I463" s="6" t="s">
@@ -13801,19 +13874,19 @@
       <c r="B479" s="28"/>
       <c r="C479" s="28"/>
       <c r="D479" s="28"/>
-      <c r="E479" s="43" t="s">
+      <c r="E479" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F479" s="43"/>
-      <c r="G479" s="43"/>
-      <c r="H479" s="43"/>
-      <c r="I479" s="43"/>
-      <c r="J479" s="43"/>
-      <c r="K479" s="43"/>
-      <c r="L479" s="43"/>
-      <c r="M479" s="43"/>
-      <c r="N479" s="43"/>
-      <c r="O479" s="43"/>
+      <c r="F479" s="29"/>
+      <c r="G479" s="29"/>
+      <c r="H479" s="29"/>
+      <c r="I479" s="29"/>
+      <c r="J479" s="29"/>
+      <c r="K479" s="29"/>
+      <c r="L479" s="29"/>
+      <c r="M479" s="29"/>
+      <c r="N479" s="29"/>
+      <c r="O479" s="29"/>
       <c r="P479" s="5"/>
     </row>
     <row r="480" spans="1:16">
@@ -13821,17 +13894,17 @@
       <c r="B480" s="28"/>
       <c r="C480" s="28"/>
       <c r="D480" s="28"/>
-      <c r="E480" s="43"/>
-      <c r="F480" s="43"/>
-      <c r="G480" s="43"/>
-      <c r="H480" s="43"/>
-      <c r="I480" s="43"/>
-      <c r="J480" s="43"/>
-      <c r="K480" s="43"/>
-      <c r="L480" s="43"/>
-      <c r="M480" s="43"/>
-      <c r="N480" s="43"/>
-      <c r="O480" s="43"/>
+      <c r="E480" s="29"/>
+      <c r="F480" s="29"/>
+      <c r="G480" s="29"/>
+      <c r="H480" s="29"/>
+      <c r="I480" s="29"/>
+      <c r="J480" s="29"/>
+      <c r="K480" s="29"/>
+      <c r="L480" s="29"/>
+      <c r="M480" s="29"/>
+      <c r="N480" s="29"/>
+      <c r="O480" s="29"/>
       <c r="P480" s="5"/>
     </row>
     <row r="481" spans="1:16">
@@ -13839,17 +13912,17 @@
       <c r="B481" s="28"/>
       <c r="C481" s="28"/>
       <c r="D481" s="28"/>
-      <c r="E481" s="43"/>
-      <c r="F481" s="43"/>
-      <c r="G481" s="43"/>
-      <c r="H481" s="43"/>
-      <c r="I481" s="43"/>
-      <c r="J481" s="43"/>
-      <c r="K481" s="43"/>
-      <c r="L481" s="43"/>
-      <c r="M481" s="43"/>
-      <c r="N481" s="43"/>
-      <c r="O481" s="43"/>
+      <c r="E481" s="29"/>
+      <c r="F481" s="29"/>
+      <c r="G481" s="29"/>
+      <c r="H481" s="29"/>
+      <c r="I481" s="29"/>
+      <c r="J481" s="29"/>
+      <c r="K481" s="29"/>
+      <c r="L481" s="29"/>
+      <c r="M481" s="29"/>
+      <c r="N481" s="29"/>
+      <c r="O481" s="29"/>
       <c r="P481" s="5"/>
     </row>
     <row r="482" spans="1:16">
@@ -13857,17 +13930,17 @@
       <c r="B482" s="28"/>
       <c r="C482" s="28"/>
       <c r="D482" s="28"/>
-      <c r="E482" s="43"/>
-      <c r="F482" s="43"/>
-      <c r="G482" s="43"/>
-      <c r="H482" s="43"/>
-      <c r="I482" s="43"/>
-      <c r="J482" s="43"/>
-      <c r="K482" s="43"/>
-      <c r="L482" s="43"/>
-      <c r="M482" s="43"/>
-      <c r="N482" s="43"/>
-      <c r="O482" s="43"/>
+      <c r="E482" s="29"/>
+      <c r="F482" s="29"/>
+      <c r="G482" s="29"/>
+      <c r="H482" s="29"/>
+      <c r="I482" s="29"/>
+      <c r="J482" s="29"/>
+      <c r="K482" s="29"/>
+      <c r="L482" s="29"/>
+      <c r="M482" s="29"/>
+      <c r="N482" s="29"/>
+      <c r="O482" s="29"/>
       <c r="P482" s="5"/>
     </row>
     <row r="483" spans="1:16" ht="18">
@@ -13993,16 +14066,16 @@
       <c r="P488" s="5"/>
     </row>
     <row r="489" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A489" s="33" t="s">
+      <c r="A489" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B489" s="34"/>
-      <c r="C489" s="35"/>
-      <c r="D489" s="36" t="s">
+      <c r="B489" s="35"/>
+      <c r="C489" s="36"/>
+      <c r="D489" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E489" s="34"/>
-      <c r="F489" s="35"/>
+      <c r="E489" s="35"/>
+      <c r="F489" s="36"/>
       <c r="G489" s="6"/>
       <c r="H489" s="6"/>
       <c r="I489" s="6" t="s">
@@ -14351,19 +14424,19 @@
       <c r="B505" s="28"/>
       <c r="C505" s="28"/>
       <c r="D505" s="28"/>
-      <c r="E505" s="43" t="s">
+      <c r="E505" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F505" s="43"/>
-      <c r="G505" s="43"/>
-      <c r="H505" s="43"/>
-      <c r="I505" s="43"/>
-      <c r="J505" s="43"/>
-      <c r="K505" s="43"/>
-      <c r="L505" s="43"/>
-      <c r="M505" s="43"/>
-      <c r="N505" s="43"/>
-      <c r="O505" s="43"/>
+      <c r="F505" s="29"/>
+      <c r="G505" s="29"/>
+      <c r="H505" s="29"/>
+      <c r="I505" s="29"/>
+      <c r="J505" s="29"/>
+      <c r="K505" s="29"/>
+      <c r="L505" s="29"/>
+      <c r="M505" s="29"/>
+      <c r="N505" s="29"/>
+      <c r="O505" s="29"/>
       <c r="P505" s="5"/>
     </row>
     <row r="506" spans="1:16">
@@ -14371,17 +14444,17 @@
       <c r="B506" s="28"/>
       <c r="C506" s="28"/>
       <c r="D506" s="28"/>
-      <c r="E506" s="43"/>
-      <c r="F506" s="43"/>
-      <c r="G506" s="43"/>
-      <c r="H506" s="43"/>
-      <c r="I506" s="43"/>
-      <c r="J506" s="43"/>
-      <c r="K506" s="43"/>
-      <c r="L506" s="43"/>
-      <c r="M506" s="43"/>
-      <c r="N506" s="43"/>
-      <c r="O506" s="43"/>
+      <c r="E506" s="29"/>
+      <c r="F506" s="29"/>
+      <c r="G506" s="29"/>
+      <c r="H506" s="29"/>
+      <c r="I506" s="29"/>
+      <c r="J506" s="29"/>
+      <c r="K506" s="29"/>
+      <c r="L506" s="29"/>
+      <c r="M506" s="29"/>
+      <c r="N506" s="29"/>
+      <c r="O506" s="29"/>
       <c r="P506" s="5"/>
     </row>
     <row r="507" spans="1:16">
@@ -14389,17 +14462,17 @@
       <c r="B507" s="28"/>
       <c r="C507" s="28"/>
       <c r="D507" s="28"/>
-      <c r="E507" s="43"/>
-      <c r="F507" s="43"/>
-      <c r="G507" s="43"/>
-      <c r="H507" s="43"/>
-      <c r="I507" s="43"/>
-      <c r="J507" s="43"/>
-      <c r="K507" s="43"/>
-      <c r="L507" s="43"/>
-      <c r="M507" s="43"/>
-      <c r="N507" s="43"/>
-      <c r="O507" s="43"/>
+      <c r="E507" s="29"/>
+      <c r="F507" s="29"/>
+      <c r="G507" s="29"/>
+      <c r="H507" s="29"/>
+      <c r="I507" s="29"/>
+      <c r="J507" s="29"/>
+      <c r="K507" s="29"/>
+      <c r="L507" s="29"/>
+      <c r="M507" s="29"/>
+      <c r="N507" s="29"/>
+      <c r="O507" s="29"/>
       <c r="P507" s="5"/>
     </row>
     <row r="508" spans="1:16">
@@ -14407,17 +14480,17 @@
       <c r="B508" s="28"/>
       <c r="C508" s="28"/>
       <c r="D508" s="28"/>
-      <c r="E508" s="43"/>
-      <c r="F508" s="43"/>
-      <c r="G508" s="43"/>
-      <c r="H508" s="43"/>
-      <c r="I508" s="43"/>
-      <c r="J508" s="43"/>
-      <c r="K508" s="43"/>
-      <c r="L508" s="43"/>
-      <c r="M508" s="43"/>
-      <c r="N508" s="43"/>
-      <c r="O508" s="43"/>
+      <c r="E508" s="29"/>
+      <c r="F508" s="29"/>
+      <c r="G508" s="29"/>
+      <c r="H508" s="29"/>
+      <c r="I508" s="29"/>
+      <c r="J508" s="29"/>
+      <c r="K508" s="29"/>
+      <c r="L508" s="29"/>
+      <c r="M508" s="29"/>
+      <c r="N508" s="29"/>
+      <c r="O508" s="29"/>
       <c r="P508" s="5"/>
     </row>
     <row r="509" spans="1:16" ht="18">
@@ -14534,7 +14607,7 @@
       </c>
       <c r="J514" s="6"/>
       <c r="K514" s="6"/>
-      <c r="L514" s="37" t="s">
+      <c r="L514" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M514" s="32"/>
@@ -14543,16 +14616,16 @@
       <c r="P514" s="5"/>
     </row>
     <row r="515" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A515" s="33" t="s">
+      <c r="A515" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B515" s="34"/>
-      <c r="C515" s="35"/>
-      <c r="D515" s="36" t="s">
+      <c r="B515" s="35"/>
+      <c r="C515" s="36"/>
+      <c r="D515" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E515" s="34"/>
-      <c r="F515" s="35"/>
+      <c r="E515" s="35"/>
+      <c r="F515" s="36"/>
       <c r="G515" s="6"/>
       <c r="H515" s="6"/>
       <c r="I515" s="6" t="s">
@@ -14905,19 +14978,19 @@
       <c r="B531" s="28"/>
       <c r="C531" s="28"/>
       <c r="D531" s="28"/>
-      <c r="E531" s="43" t="s">
+      <c r="E531" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F531" s="43"/>
-      <c r="G531" s="43"/>
-      <c r="H531" s="43"/>
-      <c r="I531" s="43"/>
-      <c r="J531" s="43"/>
-      <c r="K531" s="43"/>
-      <c r="L531" s="43"/>
-      <c r="M531" s="43"/>
-      <c r="N531" s="43"/>
-      <c r="O531" s="43"/>
+      <c r="F531" s="29"/>
+      <c r="G531" s="29"/>
+      <c r="H531" s="29"/>
+      <c r="I531" s="29"/>
+      <c r="J531" s="29"/>
+      <c r="K531" s="29"/>
+      <c r="L531" s="29"/>
+      <c r="M531" s="29"/>
+      <c r="N531" s="29"/>
+      <c r="O531" s="29"/>
       <c r="P531" s="5"/>
     </row>
     <row r="532" spans="1:16">
@@ -14925,17 +14998,17 @@
       <c r="B532" s="28"/>
       <c r="C532" s="28"/>
       <c r="D532" s="28"/>
-      <c r="E532" s="43"/>
-      <c r="F532" s="43"/>
-      <c r="G532" s="43"/>
-      <c r="H532" s="43"/>
-      <c r="I532" s="43"/>
-      <c r="J532" s="43"/>
-      <c r="K532" s="43"/>
-      <c r="L532" s="43"/>
-      <c r="M532" s="43"/>
-      <c r="N532" s="43"/>
-      <c r="O532" s="43"/>
+      <c r="E532" s="29"/>
+      <c r="F532" s="29"/>
+      <c r="G532" s="29"/>
+      <c r="H532" s="29"/>
+      <c r="I532" s="29"/>
+      <c r="J532" s="29"/>
+      <c r="K532" s="29"/>
+      <c r="L532" s="29"/>
+      <c r="M532" s="29"/>
+      <c r="N532" s="29"/>
+      <c r="O532" s="29"/>
       <c r="P532" s="5"/>
     </row>
     <row r="533" spans="1:16">
@@ -14943,17 +15016,17 @@
       <c r="B533" s="28"/>
       <c r="C533" s="28"/>
       <c r="D533" s="28"/>
-      <c r="E533" s="43"/>
-      <c r="F533" s="43"/>
-      <c r="G533" s="43"/>
-      <c r="H533" s="43"/>
-      <c r="I533" s="43"/>
-      <c r="J533" s="43"/>
-      <c r="K533" s="43"/>
-      <c r="L533" s="43"/>
-      <c r="M533" s="43"/>
-      <c r="N533" s="43"/>
-      <c r="O533" s="43"/>
+      <c r="E533" s="29"/>
+      <c r="F533" s="29"/>
+      <c r="G533" s="29"/>
+      <c r="H533" s="29"/>
+      <c r="I533" s="29"/>
+      <c r="J533" s="29"/>
+      <c r="K533" s="29"/>
+      <c r="L533" s="29"/>
+      <c r="M533" s="29"/>
+      <c r="N533" s="29"/>
+      <c r="O533" s="29"/>
       <c r="P533" s="5"/>
     </row>
     <row r="534" spans="1:16">
@@ -14961,17 +15034,17 @@
       <c r="B534" s="28"/>
       <c r="C534" s="28"/>
       <c r="D534" s="28"/>
-      <c r="E534" s="43"/>
-      <c r="F534" s="43"/>
-      <c r="G534" s="43"/>
-      <c r="H534" s="43"/>
-      <c r="I534" s="43"/>
-      <c r="J534" s="43"/>
-      <c r="K534" s="43"/>
-      <c r="L534" s="43"/>
-      <c r="M534" s="43"/>
-      <c r="N534" s="43"/>
-      <c r="O534" s="43"/>
+      <c r="E534" s="29"/>
+      <c r="F534" s="29"/>
+      <c r="G534" s="29"/>
+      <c r="H534" s="29"/>
+      <c r="I534" s="29"/>
+      <c r="J534" s="29"/>
+      <c r="K534" s="29"/>
+      <c r="L534" s="29"/>
+      <c r="M534" s="29"/>
+      <c r="N534" s="29"/>
+      <c r="O534" s="29"/>
       <c r="P534" s="5"/>
     </row>
     <row r="535" spans="1:16" ht="18">
@@ -15088,7 +15161,7 @@
       </c>
       <c r="J540" s="6"/>
       <c r="K540" s="6"/>
-      <c r="L540" s="37" t="s">
+      <c r="L540" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M540" s="32"/>
@@ -15097,16 +15170,16 @@
       <c r="P540" s="5"/>
     </row>
     <row r="541" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A541" s="33" t="s">
+      <c r="A541" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B541" s="34"/>
-      <c r="C541" s="35"/>
-      <c r="D541" s="36" t="s">
+      <c r="B541" s="35"/>
+      <c r="C541" s="36"/>
+      <c r="D541" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E541" s="34"/>
-      <c r="F541" s="35"/>
+      <c r="E541" s="35"/>
+      <c r="F541" s="36"/>
       <c r="G541" s="6"/>
       <c r="H541" s="6"/>
       <c r="I541" s="6" t="s">
@@ -15128,9 +15201,9 @@
       </c>
       <c r="B542" s="17"/>
       <c r="C542" s="17"/>
-      <c r="D542" s="44"/>
-      <c r="E542" s="45"/>
-      <c r="F542" s="46"/>
+      <c r="D542" s="57"/>
+      <c r="E542" s="58"/>
+      <c r="F542" s="59"/>
       <c r="G542" s="6"/>
       <c r="H542" s="6"/>
       <c r="I542" s="6" t="s">
@@ -15150,9 +15223,9 @@
       <c r="A543" s="16"/>
       <c r="B543" s="17"/>
       <c r="C543" s="17"/>
-      <c r="D543" s="47"/>
-      <c r="E543" s="48"/>
-      <c r="F543" s="49"/>
+      <c r="D543" s="60"/>
+      <c r="E543" s="52"/>
+      <c r="F543" s="61"/>
       <c r="G543" s="6"/>
       <c r="H543" s="6"/>
       <c r="I543" s="6" t="s">
@@ -15172,9 +15245,9 @@
       <c r="A544" s="16"/>
       <c r="B544" s="17"/>
       <c r="C544" s="17"/>
-      <c r="D544" s="47"/>
-      <c r="E544" s="48"/>
-      <c r="F544" s="49"/>
+      <c r="D544" s="60"/>
+      <c r="E544" s="52"/>
+      <c r="F544" s="61"/>
       <c r="G544" s="6"/>
       <c r="H544" s="6"/>
       <c r="I544" s="6"/>
@@ -15190,9 +15263,9 @@
       <c r="A545" s="16"/>
       <c r="B545" s="17"/>
       <c r="C545" s="17"/>
-      <c r="D545" s="50"/>
-      <c r="E545" s="51"/>
-      <c r="F545" s="52"/>
+      <c r="D545" s="62"/>
+      <c r="E545" s="63"/>
+      <c r="F545" s="64"/>
       <c r="G545" s="38" t="s">
         <v>10</v>
       </c>
@@ -15457,19 +15530,19 @@
       <c r="B557" s="28"/>
       <c r="C557" s="28"/>
       <c r="D557" s="28"/>
-      <c r="E557" s="43" t="s">
+      <c r="E557" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F557" s="43"/>
-      <c r="G557" s="43"/>
-      <c r="H557" s="43"/>
-      <c r="I557" s="43"/>
-      <c r="J557" s="43"/>
-      <c r="K557" s="43"/>
-      <c r="L557" s="43"/>
-      <c r="M557" s="43"/>
-      <c r="N557" s="43"/>
-      <c r="O557" s="43"/>
+      <c r="F557" s="29"/>
+      <c r="G557" s="29"/>
+      <c r="H557" s="29"/>
+      <c r="I557" s="29"/>
+      <c r="J557" s="29"/>
+      <c r="K557" s="29"/>
+      <c r="L557" s="29"/>
+      <c r="M557" s="29"/>
+      <c r="N557" s="29"/>
+      <c r="O557" s="29"/>
       <c r="P557" s="5"/>
     </row>
     <row r="558" spans="1:16">
@@ -15477,17 +15550,17 @@
       <c r="B558" s="28"/>
       <c r="C558" s="28"/>
       <c r="D558" s="28"/>
-      <c r="E558" s="43"/>
-      <c r="F558" s="43"/>
-      <c r="G558" s="43"/>
-      <c r="H558" s="43"/>
-      <c r="I558" s="43"/>
-      <c r="J558" s="43"/>
-      <c r="K558" s="43"/>
-      <c r="L558" s="43"/>
-      <c r="M558" s="43"/>
-      <c r="N558" s="43"/>
-      <c r="O558" s="43"/>
+      <c r="E558" s="29"/>
+      <c r="F558" s="29"/>
+      <c r="G558" s="29"/>
+      <c r="H558" s="29"/>
+      <c r="I558" s="29"/>
+      <c r="J558" s="29"/>
+      <c r="K558" s="29"/>
+      <c r="L558" s="29"/>
+      <c r="M558" s="29"/>
+      <c r="N558" s="29"/>
+      <c r="O558" s="29"/>
       <c r="P558" s="5"/>
     </row>
     <row r="559" spans="1:16">
@@ -15495,17 +15568,17 @@
       <c r="B559" s="28"/>
       <c r="C559" s="28"/>
       <c r="D559" s="28"/>
-      <c r="E559" s="43"/>
-      <c r="F559" s="43"/>
-      <c r="G559" s="43"/>
-      <c r="H559" s="43"/>
-      <c r="I559" s="43"/>
-      <c r="J559" s="43"/>
-      <c r="K559" s="43"/>
-      <c r="L559" s="43"/>
-      <c r="M559" s="43"/>
-      <c r="N559" s="43"/>
-      <c r="O559" s="43"/>
+      <c r="E559" s="29"/>
+      <c r="F559" s="29"/>
+      <c r="G559" s="29"/>
+      <c r="H559" s="29"/>
+      <c r="I559" s="29"/>
+      <c r="J559" s="29"/>
+      <c r="K559" s="29"/>
+      <c r="L559" s="29"/>
+      <c r="M559" s="29"/>
+      <c r="N559" s="29"/>
+      <c r="O559" s="29"/>
       <c r="P559" s="5"/>
     </row>
     <row r="560" spans="1:16">
@@ -15513,17 +15586,17 @@
       <c r="B560" s="28"/>
       <c r="C560" s="28"/>
       <c r="D560" s="28"/>
-      <c r="E560" s="43"/>
-      <c r="F560" s="43"/>
-      <c r="G560" s="43"/>
-      <c r="H560" s="43"/>
-      <c r="I560" s="43"/>
-      <c r="J560" s="43"/>
-      <c r="K560" s="43"/>
-      <c r="L560" s="43"/>
-      <c r="M560" s="43"/>
-      <c r="N560" s="43"/>
-      <c r="O560" s="43"/>
+      <c r="E560" s="29"/>
+      <c r="F560" s="29"/>
+      <c r="G560" s="29"/>
+      <c r="H560" s="29"/>
+      <c r="I560" s="29"/>
+      <c r="J560" s="29"/>
+      <c r="K560" s="29"/>
+      <c r="L560" s="29"/>
+      <c r="M560" s="29"/>
+      <c r="N560" s="29"/>
+      <c r="O560" s="29"/>
       <c r="P560" s="5"/>
     </row>
     <row r="561" spans="1:16" ht="18">
@@ -15618,7 +15691,7 @@
       </c>
       <c r="J565" s="6"/>
       <c r="K565" s="6"/>
-      <c r="L565" s="37" t="s">
+      <c r="L565" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M565" s="32"/>
@@ -15640,7 +15713,7 @@
       </c>
       <c r="J566" s="6"/>
       <c r="K566" s="6"/>
-      <c r="L566" s="37" t="s">
+      <c r="L566" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M566" s="32"/>
@@ -15649,16 +15722,16 @@
       <c r="P566" s="5"/>
     </row>
     <row r="567" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A567" s="33" t="s">
+      <c r="A567" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B567" s="34"/>
-      <c r="C567" s="35"/>
-      <c r="D567" s="36" t="s">
+      <c r="B567" s="35"/>
+      <c r="C567" s="36"/>
+      <c r="D567" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E567" s="34"/>
-      <c r="F567" s="35"/>
+      <c r="E567" s="35"/>
+      <c r="F567" s="36"/>
       <c r="G567" s="6"/>
       <c r="H567" s="6"/>
       <c r="I567" s="6" t="s">
@@ -15714,7 +15787,7 @@
       </c>
       <c r="J569" s="6"/>
       <c r="K569" s="6"/>
-      <c r="L569" s="37" t="s">
+      <c r="L569" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M569" s="32"/>
@@ -16077,19 +16150,19 @@
       <c r="B587" s="28"/>
       <c r="C587" s="28"/>
       <c r="D587" s="28"/>
-      <c r="E587" s="43" t="s">
+      <c r="E587" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F587" s="43"/>
-      <c r="G587" s="43"/>
-      <c r="H587" s="43"/>
-      <c r="I587" s="43"/>
-      <c r="J587" s="43"/>
-      <c r="K587" s="43"/>
-      <c r="L587" s="43"/>
-      <c r="M587" s="43"/>
-      <c r="N587" s="43"/>
-      <c r="O587" s="43"/>
+      <c r="F587" s="29"/>
+      <c r="G587" s="29"/>
+      <c r="H587" s="29"/>
+      <c r="I587" s="29"/>
+      <c r="J587" s="29"/>
+      <c r="K587" s="29"/>
+      <c r="L587" s="29"/>
+      <c r="M587" s="29"/>
+      <c r="N587" s="29"/>
+      <c r="O587" s="29"/>
       <c r="P587" s="5"/>
     </row>
     <row r="588" spans="1:16">
@@ -16097,17 +16170,17 @@
       <c r="B588" s="28"/>
       <c r="C588" s="28"/>
       <c r="D588" s="28"/>
-      <c r="E588" s="43"/>
-      <c r="F588" s="43"/>
-      <c r="G588" s="43"/>
-      <c r="H588" s="43"/>
-      <c r="I588" s="43"/>
-      <c r="J588" s="43"/>
-      <c r="K588" s="43"/>
-      <c r="L588" s="43"/>
-      <c r="M588" s="43"/>
-      <c r="N588" s="43"/>
-      <c r="O588" s="43"/>
+      <c r="E588" s="29"/>
+      <c r="F588" s="29"/>
+      <c r="G588" s="29"/>
+      <c r="H588" s="29"/>
+      <c r="I588" s="29"/>
+      <c r="J588" s="29"/>
+      <c r="K588" s="29"/>
+      <c r="L588" s="29"/>
+      <c r="M588" s="29"/>
+      <c r="N588" s="29"/>
+      <c r="O588" s="29"/>
       <c r="P588" s="5"/>
     </row>
     <row r="589" spans="1:16">
@@ -16115,17 +16188,17 @@
       <c r="B589" s="28"/>
       <c r="C589" s="28"/>
       <c r="D589" s="28"/>
-      <c r="E589" s="43"/>
-      <c r="F589" s="43"/>
-      <c r="G589" s="43"/>
-      <c r="H589" s="43"/>
-      <c r="I589" s="43"/>
-      <c r="J589" s="43"/>
-      <c r="K589" s="43"/>
-      <c r="L589" s="43"/>
-      <c r="M589" s="43"/>
-      <c r="N589" s="43"/>
-      <c r="O589" s="43"/>
+      <c r="E589" s="29"/>
+      <c r="F589" s="29"/>
+      <c r="G589" s="29"/>
+      <c r="H589" s="29"/>
+      <c r="I589" s="29"/>
+      <c r="J589" s="29"/>
+      <c r="K589" s="29"/>
+      <c r="L589" s="29"/>
+      <c r="M589" s="29"/>
+      <c r="N589" s="29"/>
+      <c r="O589" s="29"/>
       <c r="P589" s="5"/>
     </row>
     <row r="590" spans="1:16">
@@ -16133,17 +16206,17 @@
       <c r="B590" s="28"/>
       <c r="C590" s="28"/>
       <c r="D590" s="28"/>
-      <c r="E590" s="43"/>
-      <c r="F590" s="43"/>
-      <c r="G590" s="43"/>
-      <c r="H590" s="43"/>
-      <c r="I590" s="43"/>
-      <c r="J590" s="43"/>
-      <c r="K590" s="43"/>
-      <c r="L590" s="43"/>
-      <c r="M590" s="43"/>
-      <c r="N590" s="43"/>
-      <c r="O590" s="43"/>
+      <c r="E590" s="29"/>
+      <c r="F590" s="29"/>
+      <c r="G590" s="29"/>
+      <c r="H590" s="29"/>
+      <c r="I590" s="29"/>
+      <c r="J590" s="29"/>
+      <c r="K590" s="29"/>
+      <c r="L590" s="29"/>
+      <c r="M590" s="29"/>
+      <c r="N590" s="29"/>
+      <c r="O590" s="29"/>
       <c r="P590" s="5"/>
     </row>
     <row r="591" spans="1:16" ht="18">
@@ -16260,7 +16333,7 @@
       </c>
       <c r="J596" s="6"/>
       <c r="K596" s="6"/>
-      <c r="L596" s="37" t="s">
+      <c r="L596" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M596" s="32"/>
@@ -16269,16 +16342,16 @@
       <c r="P596" s="5"/>
     </row>
     <row r="597" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A597" s="33" t="s">
+      <c r="A597" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B597" s="34"/>
-      <c r="C597" s="35"/>
-      <c r="D597" s="36" t="s">
+      <c r="B597" s="35"/>
+      <c r="C597" s="36"/>
+      <c r="D597" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E597" s="34"/>
-      <c r="F597" s="35"/>
+      <c r="E597" s="35"/>
+      <c r="F597" s="36"/>
       <c r="G597" s="6"/>
       <c r="H597" s="6"/>
       <c r="I597" s="6" t="s">
@@ -16334,7 +16407,7 @@
       </c>
       <c r="J599" s="6"/>
       <c r="K599" s="6"/>
-      <c r="L599" s="37" t="s">
+      <c r="L599" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M599" s="32"/>
@@ -16655,19 +16728,19 @@
       <c r="B613" s="28"/>
       <c r="C613" s="28"/>
       <c r="D613" s="28"/>
-      <c r="E613" s="43" t="s">
+      <c r="E613" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F613" s="43"/>
-      <c r="G613" s="43"/>
-      <c r="H613" s="43"/>
-      <c r="I613" s="43"/>
-      <c r="J613" s="43"/>
-      <c r="K613" s="43"/>
-      <c r="L613" s="43"/>
-      <c r="M613" s="43"/>
-      <c r="N613" s="43"/>
-      <c r="O613" s="43"/>
+      <c r="F613" s="29"/>
+      <c r="G613" s="29"/>
+      <c r="H613" s="29"/>
+      <c r="I613" s="29"/>
+      <c r="J613" s="29"/>
+      <c r="K613" s="29"/>
+      <c r="L613" s="29"/>
+      <c r="M613" s="29"/>
+      <c r="N613" s="29"/>
+      <c r="O613" s="29"/>
       <c r="P613" s="5"/>
     </row>
     <row r="614" spans="1:16">
@@ -16675,17 +16748,17 @@
       <c r="B614" s="28"/>
       <c r="C614" s="28"/>
       <c r="D614" s="28"/>
-      <c r="E614" s="43"/>
-      <c r="F614" s="43"/>
-      <c r="G614" s="43"/>
-      <c r="H614" s="43"/>
-      <c r="I614" s="43"/>
-      <c r="J614" s="43"/>
-      <c r="K614" s="43"/>
-      <c r="L614" s="43"/>
-      <c r="M614" s="43"/>
-      <c r="N614" s="43"/>
-      <c r="O614" s="43"/>
+      <c r="E614" s="29"/>
+      <c r="F614" s="29"/>
+      <c r="G614" s="29"/>
+      <c r="H614" s="29"/>
+      <c r="I614" s="29"/>
+      <c r="J614" s="29"/>
+      <c r="K614" s="29"/>
+      <c r="L614" s="29"/>
+      <c r="M614" s="29"/>
+      <c r="N614" s="29"/>
+      <c r="O614" s="29"/>
       <c r="P614" s="5"/>
     </row>
     <row r="615" spans="1:16">
@@ -16693,17 +16766,17 @@
       <c r="B615" s="28"/>
       <c r="C615" s="28"/>
       <c r="D615" s="28"/>
-      <c r="E615" s="43"/>
-      <c r="F615" s="43"/>
-      <c r="G615" s="43"/>
-      <c r="H615" s="43"/>
-      <c r="I615" s="43"/>
-      <c r="J615" s="43"/>
-      <c r="K615" s="43"/>
-      <c r="L615" s="43"/>
-      <c r="M615" s="43"/>
-      <c r="N615" s="43"/>
-      <c r="O615" s="43"/>
+      <c r="E615" s="29"/>
+      <c r="F615" s="29"/>
+      <c r="G615" s="29"/>
+      <c r="H615" s="29"/>
+      <c r="I615" s="29"/>
+      <c r="J615" s="29"/>
+      <c r="K615" s="29"/>
+      <c r="L615" s="29"/>
+      <c r="M615" s="29"/>
+      <c r="N615" s="29"/>
+      <c r="O615" s="29"/>
       <c r="P615" s="5"/>
     </row>
     <row r="616" spans="1:16">
@@ -16711,17 +16784,17 @@
       <c r="B616" s="28"/>
       <c r="C616" s="28"/>
       <c r="D616" s="28"/>
-      <c r="E616" s="43"/>
-      <c r="F616" s="43"/>
-      <c r="G616" s="43"/>
-      <c r="H616" s="43"/>
-      <c r="I616" s="43"/>
-      <c r="J616" s="43"/>
-      <c r="K616" s="43"/>
-      <c r="L616" s="43"/>
-      <c r="M616" s="43"/>
-      <c r="N616" s="43"/>
-      <c r="O616" s="43"/>
+      <c r="E616" s="29"/>
+      <c r="F616" s="29"/>
+      <c r="G616" s="29"/>
+      <c r="H616" s="29"/>
+      <c r="I616" s="29"/>
+      <c r="J616" s="29"/>
+      <c r="K616" s="29"/>
+      <c r="L616" s="29"/>
+      <c r="M616" s="29"/>
+      <c r="N616" s="29"/>
+      <c r="O616" s="29"/>
       <c r="P616" s="5"/>
     </row>
     <row r="617" spans="1:16" ht="18">
@@ -16838,7 +16911,7 @@
       </c>
       <c r="J622" s="6"/>
       <c r="K622" s="6"/>
-      <c r="L622" s="37" t="s">
+      <c r="L622" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M622" s="32"/>
@@ -16847,16 +16920,16 @@
       <c r="P622" s="5"/>
     </row>
     <row r="623" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A623" s="33" t="s">
+      <c r="A623" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B623" s="34"/>
-      <c r="C623" s="35"/>
-      <c r="D623" s="36" t="s">
+      <c r="B623" s="35"/>
+      <c r="C623" s="36"/>
+      <c r="D623" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E623" s="34"/>
-      <c r="F623" s="35"/>
+      <c r="E623" s="35"/>
+      <c r="F623" s="36"/>
       <c r="G623" s="6"/>
       <c r="H623" s="6"/>
       <c r="I623" s="6" t="s">
@@ -16910,7 +16983,7 @@
       </c>
       <c r="J625" s="6"/>
       <c r="K625" s="6"/>
-      <c r="L625" s="37" t="s">
+      <c r="L625" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M625" s="32"/>
@@ -17193,19 +17266,19 @@
       <c r="B639" s="28"/>
       <c r="C639" s="28"/>
       <c r="D639" s="28"/>
-      <c r="E639" s="43" t="s">
+      <c r="E639" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F639" s="43"/>
-      <c r="G639" s="43"/>
-      <c r="H639" s="43"/>
-      <c r="I639" s="43"/>
-      <c r="J639" s="43"/>
-      <c r="K639" s="43"/>
-      <c r="L639" s="43"/>
-      <c r="M639" s="43"/>
-      <c r="N639" s="43"/>
-      <c r="O639" s="43"/>
+      <c r="F639" s="29"/>
+      <c r="G639" s="29"/>
+      <c r="H639" s="29"/>
+      <c r="I639" s="29"/>
+      <c r="J639" s="29"/>
+      <c r="K639" s="29"/>
+      <c r="L639" s="29"/>
+      <c r="M639" s="29"/>
+      <c r="N639" s="29"/>
+      <c r="O639" s="29"/>
       <c r="P639" s="5"/>
     </row>
     <row r="640" spans="1:16">
@@ -17213,17 +17286,17 @@
       <c r="B640" s="28"/>
       <c r="C640" s="28"/>
       <c r="D640" s="28"/>
-      <c r="E640" s="43"/>
-      <c r="F640" s="43"/>
-      <c r="G640" s="43"/>
-      <c r="H640" s="43"/>
-      <c r="I640" s="43"/>
-      <c r="J640" s="43"/>
-      <c r="K640" s="43"/>
-      <c r="L640" s="43"/>
-      <c r="M640" s="43"/>
-      <c r="N640" s="43"/>
-      <c r="O640" s="43"/>
+      <c r="E640" s="29"/>
+      <c r="F640" s="29"/>
+      <c r="G640" s="29"/>
+      <c r="H640" s="29"/>
+      <c r="I640" s="29"/>
+      <c r="J640" s="29"/>
+      <c r="K640" s="29"/>
+      <c r="L640" s="29"/>
+      <c r="M640" s="29"/>
+      <c r="N640" s="29"/>
+      <c r="O640" s="29"/>
       <c r="P640" s="5"/>
     </row>
     <row r="641" spans="1:16">
@@ -17231,17 +17304,17 @@
       <c r="B641" s="28"/>
       <c r="C641" s="28"/>
       <c r="D641" s="28"/>
-      <c r="E641" s="43"/>
-      <c r="F641" s="43"/>
-      <c r="G641" s="43"/>
-      <c r="H641" s="43"/>
-      <c r="I641" s="43"/>
-      <c r="J641" s="43"/>
-      <c r="K641" s="43"/>
-      <c r="L641" s="43"/>
-      <c r="M641" s="43"/>
-      <c r="N641" s="43"/>
-      <c r="O641" s="43"/>
+      <c r="E641" s="29"/>
+      <c r="F641" s="29"/>
+      <c r="G641" s="29"/>
+      <c r="H641" s="29"/>
+      <c r="I641" s="29"/>
+      <c r="J641" s="29"/>
+      <c r="K641" s="29"/>
+      <c r="L641" s="29"/>
+      <c r="M641" s="29"/>
+      <c r="N641" s="29"/>
+      <c r="O641" s="29"/>
       <c r="P641" s="5"/>
     </row>
     <row r="642" spans="1:16">
@@ -17249,17 +17322,17 @@
       <c r="B642" s="28"/>
       <c r="C642" s="28"/>
       <c r="D642" s="28"/>
-      <c r="E642" s="43"/>
-      <c r="F642" s="43"/>
-      <c r="G642" s="43"/>
-      <c r="H642" s="43"/>
-      <c r="I642" s="43"/>
-      <c r="J642" s="43"/>
-      <c r="K642" s="43"/>
-      <c r="L642" s="43"/>
-      <c r="M642" s="43"/>
-      <c r="N642" s="43"/>
-      <c r="O642" s="43"/>
+      <c r="E642" s="29"/>
+      <c r="F642" s="29"/>
+      <c r="G642" s="29"/>
+      <c r="H642" s="29"/>
+      <c r="I642" s="29"/>
+      <c r="J642" s="29"/>
+      <c r="K642" s="29"/>
+      <c r="L642" s="29"/>
+      <c r="M642" s="29"/>
+      <c r="N642" s="29"/>
+      <c r="O642" s="29"/>
       <c r="P642" s="5"/>
     </row>
     <row r="643" spans="1:16" ht="18">
@@ -17376,7 +17449,7 @@
       </c>
       <c r="J648" s="6"/>
       <c r="K648" s="6"/>
-      <c r="L648" s="37" t="s">
+      <c r="L648" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M648" s="32"/>
@@ -17385,16 +17458,16 @@
       <c r="P648" s="5"/>
     </row>
     <row r="649" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A649" s="33" t="s">
+      <c r="A649" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B649" s="34"/>
-      <c r="C649" s="35"/>
-      <c r="D649" s="36" t="s">
+      <c r="B649" s="35"/>
+      <c r="C649" s="36"/>
+      <c r="D649" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E649" s="34"/>
-      <c r="F649" s="35"/>
+      <c r="E649" s="35"/>
+      <c r="F649" s="36"/>
       <c r="G649" s="6"/>
       <c r="H649" s="6"/>
       <c r="I649" s="6" t="s">
@@ -17448,7 +17521,7 @@
       </c>
       <c r="J651" s="6"/>
       <c r="K651" s="6"/>
-      <c r="L651" s="37" t="s">
+      <c r="L651" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M651" s="32"/>
@@ -17733,19 +17806,19 @@
       <c r="B665" s="28"/>
       <c r="C665" s="28"/>
       <c r="D665" s="28"/>
-      <c r="E665" s="43" t="s">
+      <c r="E665" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F665" s="43"/>
-      <c r="G665" s="43"/>
-      <c r="H665" s="43"/>
-      <c r="I665" s="43"/>
-      <c r="J665" s="43"/>
-      <c r="K665" s="43"/>
-      <c r="L665" s="43"/>
-      <c r="M665" s="43"/>
-      <c r="N665" s="43"/>
-      <c r="O665" s="43"/>
+      <c r="F665" s="29"/>
+      <c r="G665" s="29"/>
+      <c r="H665" s="29"/>
+      <c r="I665" s="29"/>
+      <c r="J665" s="29"/>
+      <c r="K665" s="29"/>
+      <c r="L665" s="29"/>
+      <c r="M665" s="29"/>
+      <c r="N665" s="29"/>
+      <c r="O665" s="29"/>
       <c r="P665" s="5"/>
     </row>
     <row r="666" spans="1:16">
@@ -17753,17 +17826,17 @@
       <c r="B666" s="28"/>
       <c r="C666" s="28"/>
       <c r="D666" s="28"/>
-      <c r="E666" s="43"/>
-      <c r="F666" s="43"/>
-      <c r="G666" s="43"/>
-      <c r="H666" s="43"/>
-      <c r="I666" s="43"/>
-      <c r="J666" s="43"/>
-      <c r="K666" s="43"/>
-      <c r="L666" s="43"/>
-      <c r="M666" s="43"/>
-      <c r="N666" s="43"/>
-      <c r="O666" s="43"/>
+      <c r="E666" s="29"/>
+      <c r="F666" s="29"/>
+      <c r="G666" s="29"/>
+      <c r="H666" s="29"/>
+      <c r="I666" s="29"/>
+      <c r="J666" s="29"/>
+      <c r="K666" s="29"/>
+      <c r="L666" s="29"/>
+      <c r="M666" s="29"/>
+      <c r="N666" s="29"/>
+      <c r="O666" s="29"/>
       <c r="P666" s="5"/>
     </row>
     <row r="667" spans="1:16">
@@ -17771,17 +17844,17 @@
       <c r="B667" s="28"/>
       <c r="C667" s="28"/>
       <c r="D667" s="28"/>
-      <c r="E667" s="43"/>
-      <c r="F667" s="43"/>
-      <c r="G667" s="43"/>
-      <c r="H667" s="43"/>
-      <c r="I667" s="43"/>
-      <c r="J667" s="43"/>
-      <c r="K667" s="43"/>
-      <c r="L667" s="43"/>
-      <c r="M667" s="43"/>
-      <c r="N667" s="43"/>
-      <c r="O667" s="43"/>
+      <c r="E667" s="29"/>
+      <c r="F667" s="29"/>
+      <c r="G667" s="29"/>
+      <c r="H667" s="29"/>
+      <c r="I667" s="29"/>
+      <c r="J667" s="29"/>
+      <c r="K667" s="29"/>
+      <c r="L667" s="29"/>
+      <c r="M667" s="29"/>
+      <c r="N667" s="29"/>
+      <c r="O667" s="29"/>
       <c r="P667" s="5"/>
     </row>
     <row r="668" spans="1:16">
@@ -17789,17 +17862,17 @@
       <c r="B668" s="28"/>
       <c r="C668" s="28"/>
       <c r="D668" s="28"/>
-      <c r="E668" s="43"/>
-      <c r="F668" s="43"/>
-      <c r="G668" s="43"/>
-      <c r="H668" s="43"/>
-      <c r="I668" s="43"/>
-      <c r="J668" s="43"/>
-      <c r="K668" s="43"/>
-      <c r="L668" s="43"/>
-      <c r="M668" s="43"/>
-      <c r="N668" s="43"/>
-      <c r="O668" s="43"/>
+      <c r="E668" s="29"/>
+      <c r="F668" s="29"/>
+      <c r="G668" s="29"/>
+      <c r="H668" s="29"/>
+      <c r="I668" s="29"/>
+      <c r="J668" s="29"/>
+      <c r="K668" s="29"/>
+      <c r="L668" s="29"/>
+      <c r="M668" s="29"/>
+      <c r="N668" s="29"/>
+      <c r="O668" s="29"/>
       <c r="P668" s="5"/>
     </row>
     <row r="669" spans="1:16" ht="18">
@@ -17916,7 +17989,7 @@
       </c>
       <c r="J674" s="6"/>
       <c r="K674" s="6"/>
-      <c r="L674" s="37" t="s">
+      <c r="L674" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M674" s="32"/>
@@ -17925,16 +17998,16 @@
       <c r="P674" s="5"/>
     </row>
     <row r="675" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A675" s="33" t="s">
+      <c r="A675" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B675" s="34"/>
-      <c r="C675" s="35"/>
-      <c r="D675" s="36" t="s">
+      <c r="B675" s="35"/>
+      <c r="C675" s="36"/>
+      <c r="D675" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E675" s="34"/>
-      <c r="F675" s="35"/>
+      <c r="E675" s="35"/>
+      <c r="F675" s="36"/>
       <c r="G675" s="6"/>
       <c r="H675" s="6"/>
       <c r="I675" s="6" t="s">
@@ -17990,7 +18063,7 @@
       </c>
       <c r="J677" s="6"/>
       <c r="K677" s="6"/>
-      <c r="L677" s="37" t="s">
+      <c r="L677" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M677" s="32"/>
@@ -18313,19 +18386,19 @@
       <c r="B693" s="28"/>
       <c r="C693" s="28"/>
       <c r="D693" s="28"/>
-      <c r="E693" s="43" t="s">
+      <c r="E693" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F693" s="43"/>
-      <c r="G693" s="43"/>
-      <c r="H693" s="43"/>
-      <c r="I693" s="43"/>
-      <c r="J693" s="43"/>
-      <c r="K693" s="43"/>
-      <c r="L693" s="43"/>
-      <c r="M693" s="43"/>
-      <c r="N693" s="43"/>
-      <c r="O693" s="43"/>
+      <c r="F693" s="29"/>
+      <c r="G693" s="29"/>
+      <c r="H693" s="29"/>
+      <c r="I693" s="29"/>
+      <c r="J693" s="29"/>
+      <c r="K693" s="29"/>
+      <c r="L693" s="29"/>
+      <c r="M693" s="29"/>
+      <c r="N693" s="29"/>
+      <c r="O693" s="29"/>
       <c r="P693" s="5"/>
     </row>
     <row r="694" spans="1:16">
@@ -18333,17 +18406,17 @@
       <c r="B694" s="28"/>
       <c r="C694" s="28"/>
       <c r="D694" s="28"/>
-      <c r="E694" s="43"/>
-      <c r="F694" s="43"/>
-      <c r="G694" s="43"/>
-      <c r="H694" s="43"/>
-      <c r="I694" s="43"/>
-      <c r="J694" s="43"/>
-      <c r="K694" s="43"/>
-      <c r="L694" s="43"/>
-      <c r="M694" s="43"/>
-      <c r="N694" s="43"/>
-      <c r="O694" s="43"/>
+      <c r="E694" s="29"/>
+      <c r="F694" s="29"/>
+      <c r="G694" s="29"/>
+      <c r="H694" s="29"/>
+      <c r="I694" s="29"/>
+      <c r="J694" s="29"/>
+      <c r="K694" s="29"/>
+      <c r="L694" s="29"/>
+      <c r="M694" s="29"/>
+      <c r="N694" s="29"/>
+      <c r="O694" s="29"/>
       <c r="P694" s="5"/>
     </row>
     <row r="695" spans="1:16">
@@ -18351,17 +18424,17 @@
       <c r="B695" s="28"/>
       <c r="C695" s="28"/>
       <c r="D695" s="28"/>
-      <c r="E695" s="43"/>
-      <c r="F695" s="43"/>
-      <c r="G695" s="43"/>
-      <c r="H695" s="43"/>
-      <c r="I695" s="43"/>
-      <c r="J695" s="43"/>
-      <c r="K695" s="43"/>
-      <c r="L695" s="43"/>
-      <c r="M695" s="43"/>
-      <c r="N695" s="43"/>
-      <c r="O695" s="43"/>
+      <c r="E695" s="29"/>
+      <c r="F695" s="29"/>
+      <c r="G695" s="29"/>
+      <c r="H695" s="29"/>
+      <c r="I695" s="29"/>
+      <c r="J695" s="29"/>
+      <c r="K695" s="29"/>
+      <c r="L695" s="29"/>
+      <c r="M695" s="29"/>
+      <c r="N695" s="29"/>
+      <c r="O695" s="29"/>
       <c r="P695" s="5"/>
     </row>
     <row r="696" spans="1:16">
@@ -18369,17 +18442,17 @@
       <c r="B696" s="28"/>
       <c r="C696" s="28"/>
       <c r="D696" s="28"/>
-      <c r="E696" s="43"/>
-      <c r="F696" s="43"/>
-      <c r="G696" s="43"/>
-      <c r="H696" s="43"/>
-      <c r="I696" s="43"/>
-      <c r="J696" s="43"/>
-      <c r="K696" s="43"/>
-      <c r="L696" s="43"/>
-      <c r="M696" s="43"/>
-      <c r="N696" s="43"/>
-      <c r="O696" s="43"/>
+      <c r="E696" s="29"/>
+      <c r="F696" s="29"/>
+      <c r="G696" s="29"/>
+      <c r="H696" s="29"/>
+      <c r="I696" s="29"/>
+      <c r="J696" s="29"/>
+      <c r="K696" s="29"/>
+      <c r="L696" s="29"/>
+      <c r="M696" s="29"/>
+      <c r="N696" s="29"/>
+      <c r="O696" s="29"/>
       <c r="P696" s="5"/>
     </row>
     <row r="697" spans="1:16" ht="18">
@@ -18496,7 +18569,7 @@
       </c>
       <c r="J702" s="6"/>
       <c r="K702" s="6"/>
-      <c r="L702" s="37" t="s">
+      <c r="L702" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M702" s="32"/>
@@ -18505,16 +18578,16 @@
       <c r="P702" s="5"/>
     </row>
     <row r="703" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A703" s="33" t="s">
+      <c r="A703" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B703" s="34"/>
-      <c r="C703" s="35"/>
-      <c r="D703" s="36" t="s">
+      <c r="B703" s="35"/>
+      <c r="C703" s="36"/>
+      <c r="D703" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E703" s="34"/>
-      <c r="F703" s="35"/>
+      <c r="E703" s="35"/>
+      <c r="F703" s="36"/>
       <c r="G703" s="6"/>
       <c r="H703" s="6"/>
       <c r="I703" s="6" t="s">
@@ -18522,7 +18595,7 @@
       </c>
       <c r="J703" s="6"/>
       <c r="K703" s="6"/>
-      <c r="L703" s="37" t="s">
+      <c r="L703" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M703" s="32"/>
@@ -18570,7 +18643,7 @@
       </c>
       <c r="J705" s="6"/>
       <c r="K705" s="6"/>
-      <c r="L705" s="37" t="s">
+      <c r="L705" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M705" s="32"/>
@@ -18881,19 +18954,19 @@
       <c r="B721" s="28"/>
       <c r="C721" s="28"/>
       <c r="D721" s="28"/>
-      <c r="E721" s="43" t="s">
+      <c r="E721" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F721" s="43"/>
-      <c r="G721" s="43"/>
-      <c r="H721" s="43"/>
-      <c r="I721" s="43"/>
-      <c r="J721" s="43"/>
-      <c r="K721" s="43"/>
-      <c r="L721" s="43"/>
-      <c r="M721" s="43"/>
-      <c r="N721" s="43"/>
-      <c r="O721" s="43"/>
+      <c r="F721" s="29"/>
+      <c r="G721" s="29"/>
+      <c r="H721" s="29"/>
+      <c r="I721" s="29"/>
+      <c r="J721" s="29"/>
+      <c r="K721" s="29"/>
+      <c r="L721" s="29"/>
+      <c r="M721" s="29"/>
+      <c r="N721" s="29"/>
+      <c r="O721" s="29"/>
       <c r="P721" s="5"/>
     </row>
     <row r="722" spans="1:16">
@@ -18901,17 +18974,17 @@
       <c r="B722" s="28"/>
       <c r="C722" s="28"/>
       <c r="D722" s="28"/>
-      <c r="E722" s="43"/>
-      <c r="F722" s="43"/>
-      <c r="G722" s="43"/>
-      <c r="H722" s="43"/>
-      <c r="I722" s="43"/>
-      <c r="J722" s="43"/>
-      <c r="K722" s="43"/>
-      <c r="L722" s="43"/>
-      <c r="M722" s="43"/>
-      <c r="N722" s="43"/>
-      <c r="O722" s="43"/>
+      <c r="E722" s="29"/>
+      <c r="F722" s="29"/>
+      <c r="G722" s="29"/>
+      <c r="H722" s="29"/>
+      <c r="I722" s="29"/>
+      <c r="J722" s="29"/>
+      <c r="K722" s="29"/>
+      <c r="L722" s="29"/>
+      <c r="M722" s="29"/>
+      <c r="N722" s="29"/>
+      <c r="O722" s="29"/>
       <c r="P722" s="5"/>
     </row>
     <row r="723" spans="1:16">
@@ -18919,17 +18992,17 @@
       <c r="B723" s="28"/>
       <c r="C723" s="28"/>
       <c r="D723" s="28"/>
-      <c r="E723" s="43"/>
-      <c r="F723" s="43"/>
-      <c r="G723" s="43"/>
-      <c r="H723" s="43"/>
-      <c r="I723" s="43"/>
-      <c r="J723" s="43"/>
-      <c r="K723" s="43"/>
-      <c r="L723" s="43"/>
-      <c r="M723" s="43"/>
-      <c r="N723" s="43"/>
-      <c r="O723" s="43"/>
+      <c r="E723" s="29"/>
+      <c r="F723" s="29"/>
+      <c r="G723" s="29"/>
+      <c r="H723" s="29"/>
+      <c r="I723" s="29"/>
+      <c r="J723" s="29"/>
+      <c r="K723" s="29"/>
+      <c r="L723" s="29"/>
+      <c r="M723" s="29"/>
+      <c r="N723" s="29"/>
+      <c r="O723" s="29"/>
       <c r="P723" s="5"/>
     </row>
     <row r="724" spans="1:16">
@@ -18937,17 +19010,17 @@
       <c r="B724" s="28"/>
       <c r="C724" s="28"/>
       <c r="D724" s="28"/>
-      <c r="E724" s="43"/>
-      <c r="F724" s="43"/>
-      <c r="G724" s="43"/>
-      <c r="H724" s="43"/>
-      <c r="I724" s="43"/>
-      <c r="J724" s="43"/>
-      <c r="K724" s="43"/>
-      <c r="L724" s="43"/>
-      <c r="M724" s="43"/>
-      <c r="N724" s="43"/>
-      <c r="O724" s="43"/>
+      <c r="E724" s="29"/>
+      <c r="F724" s="29"/>
+      <c r="G724" s="29"/>
+      <c r="H724" s="29"/>
+      <c r="I724" s="29"/>
+      <c r="J724" s="29"/>
+      <c r="K724" s="29"/>
+      <c r="L724" s="29"/>
+      <c r="M724" s="29"/>
+      <c r="N724" s="29"/>
+      <c r="O724" s="29"/>
       <c r="P724" s="5"/>
     </row>
     <row r="725" spans="1:16" ht="18">
@@ -19064,7 +19137,7 @@
       </c>
       <c r="J730" s="6"/>
       <c r="K730" s="6"/>
-      <c r="L730" s="37" t="s">
+      <c r="L730" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M730" s="32"/>
@@ -19073,16 +19146,16 @@
       <c r="P730" s="5"/>
     </row>
     <row r="731" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A731" s="33" t="s">
+      <c r="A731" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B731" s="34"/>
-      <c r="C731" s="35"/>
-      <c r="D731" s="36" t="s">
+      <c r="B731" s="35"/>
+      <c r="C731" s="36"/>
+      <c r="D731" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E731" s="34"/>
-      <c r="F731" s="35"/>
+      <c r="E731" s="35"/>
+      <c r="F731" s="36"/>
       <c r="G731" s="6"/>
       <c r="H731" s="6"/>
       <c r="I731" s="6" t="s">
@@ -19138,7 +19211,7 @@
       </c>
       <c r="J733" s="6"/>
       <c r="K733" s="6"/>
-      <c r="L733" s="37" t="s">
+      <c r="L733" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M733" s="32"/>
@@ -19447,19 +19520,19 @@
       <c r="B749" s="28"/>
       <c r="C749" s="28"/>
       <c r="D749" s="28"/>
-      <c r="E749" s="29" t="s">
+      <c r="E749" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="F749" s="29"/>
-      <c r="G749" s="29"/>
-      <c r="H749" s="29"/>
-      <c r="I749" s="29"/>
-      <c r="J749" s="29"/>
-      <c r="K749" s="29"/>
-      <c r="L749" s="29"/>
-      <c r="M749" s="29"/>
-      <c r="N749" s="29"/>
-      <c r="O749" s="29"/>
+      <c r="F749" s="65"/>
+      <c r="G749" s="65"/>
+      <c r="H749" s="65"/>
+      <c r="I749" s="65"/>
+      <c r="J749" s="65"/>
+      <c r="K749" s="65"/>
+      <c r="L749" s="65"/>
+      <c r="M749" s="65"/>
+      <c r="N749" s="65"/>
+      <c r="O749" s="65"/>
       <c r="P749" s="5"/>
     </row>
     <row r="750" spans="1:16">
@@ -19467,17 +19540,17 @@
       <c r="B750" s="28"/>
       <c r="C750" s="28"/>
       <c r="D750" s="28"/>
-      <c r="E750" s="29"/>
-      <c r="F750" s="29"/>
-      <c r="G750" s="29"/>
-      <c r="H750" s="29"/>
-      <c r="I750" s="29"/>
-      <c r="J750" s="29"/>
-      <c r="K750" s="29"/>
-      <c r="L750" s="29"/>
-      <c r="M750" s="29"/>
-      <c r="N750" s="29"/>
-      <c r="O750" s="29"/>
+      <c r="E750" s="65"/>
+      <c r="F750" s="65"/>
+      <c r="G750" s="65"/>
+      <c r="H750" s="65"/>
+      <c r="I750" s="65"/>
+      <c r="J750" s="65"/>
+      <c r="K750" s="65"/>
+      <c r="L750" s="65"/>
+      <c r="M750" s="65"/>
+      <c r="N750" s="65"/>
+      <c r="O750" s="65"/>
       <c r="P750" s="5"/>
     </row>
     <row r="751" spans="1:16">
@@ -19485,17 +19558,17 @@
       <c r="B751" s="28"/>
       <c r="C751" s="28"/>
       <c r="D751" s="28"/>
-      <c r="E751" s="29"/>
-      <c r="F751" s="29"/>
-      <c r="G751" s="29"/>
-      <c r="H751" s="29"/>
-      <c r="I751" s="29"/>
-      <c r="J751" s="29"/>
-      <c r="K751" s="29"/>
-      <c r="L751" s="29"/>
-      <c r="M751" s="29"/>
-      <c r="N751" s="29"/>
-      <c r="O751" s="29"/>
+      <c r="E751" s="65"/>
+      <c r="F751" s="65"/>
+      <c r="G751" s="65"/>
+      <c r="H751" s="65"/>
+      <c r="I751" s="65"/>
+      <c r="J751" s="65"/>
+      <c r="K751" s="65"/>
+      <c r="L751" s="65"/>
+      <c r="M751" s="65"/>
+      <c r="N751" s="65"/>
+      <c r="O751" s="65"/>
       <c r="P751" s="5"/>
     </row>
     <row r="752" spans="1:16">
@@ -19503,17 +19576,17 @@
       <c r="B752" s="28"/>
       <c r="C752" s="28"/>
       <c r="D752" s="28"/>
-      <c r="E752" s="29"/>
-      <c r="F752" s="29"/>
-      <c r="G752" s="29"/>
-      <c r="H752" s="29"/>
-      <c r="I752" s="29"/>
-      <c r="J752" s="29"/>
-      <c r="K752" s="29"/>
-      <c r="L752" s="29"/>
-      <c r="M752" s="29"/>
-      <c r="N752" s="29"/>
-      <c r="O752" s="29"/>
+      <c r="E752" s="65"/>
+      <c r="F752" s="65"/>
+      <c r="G752" s="65"/>
+      <c r="H752" s="65"/>
+      <c r="I752" s="65"/>
+      <c r="J752" s="65"/>
+      <c r="K752" s="65"/>
+      <c r="L752" s="65"/>
+      <c r="M752" s="65"/>
+      <c r="N752" s="65"/>
+      <c r="O752" s="65"/>
       <c r="P752" s="5"/>
     </row>
     <row r="753" spans="1:16" ht="18">
@@ -19639,16 +19712,16 @@
       <c r="P758" s="5"/>
     </row>
     <row r="759" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A759" s="33" t="s">
+      <c r="A759" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B759" s="34"/>
-      <c r="C759" s="35"/>
-      <c r="D759" s="36" t="s">
+      <c r="B759" s="35"/>
+      <c r="C759" s="36"/>
+      <c r="D759" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E759" s="34"/>
-      <c r="F759" s="35"/>
+      <c r="E759" s="35"/>
+      <c r="F759" s="36"/>
       <c r="G759" s="6"/>
       <c r="H759" s="6"/>
       <c r="I759" s="6" t="s">
@@ -19704,7 +19777,7 @@
       </c>
       <c r="J761" s="6"/>
       <c r="K761" s="6"/>
-      <c r="L761" s="37" t="s">
+      <c r="L761" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M761" s="32"/>
@@ -19986,27 +20059,2092 @@
       <c r="O773" s="12"/>
       <c r="P773" s="13"/>
     </row>
+    <row r="774" spans="1:16" ht="15">
+      <c r="A774" s="8"/>
+      <c r="B774" s="9"/>
+      <c r="C774" s="9"/>
+      <c r="D774" s="9"/>
+      <c r="E774" s="6"/>
+      <c r="F774" s="6"/>
+      <c r="G774" s="6"/>
+      <c r="H774" s="6"/>
+      <c r="I774" s="6"/>
+      <c r="J774" s="6"/>
+      <c r="K774" s="6"/>
+      <c r="L774" s="6"/>
+      <c r="M774" s="6"/>
+      <c r="N774" s="6"/>
+      <c r="O774" s="6"/>
+      <c r="P774" s="5"/>
+    </row>
+    <row r="775" spans="1:16" ht="15">
+      <c r="A775" s="10"/>
+      <c r="B775" s="11"/>
+      <c r="C775" s="11"/>
+      <c r="D775" s="11"/>
+      <c r="E775" s="12"/>
+      <c r="F775" s="12"/>
+      <c r="G775" s="12"/>
+      <c r="H775" s="12"/>
+      <c r="I775" s="12"/>
+      <c r="J775" s="12"/>
+      <c r="K775" s="12"/>
+      <c r="L775" s="12"/>
+      <c r="M775" s="12"/>
+      <c r="N775" s="12"/>
+      <c r="O775" s="12"/>
+      <c r="P775" s="13"/>
+    </row>
+    <row r="776" spans="1:16" ht="18">
+      <c r="A776" s="25"/>
+      <c r="B776" s="26"/>
+      <c r="C776" s="26"/>
+      <c r="D776" s="26"/>
+      <c r="E776" s="2"/>
+      <c r="F776" s="3"/>
+      <c r="G776" s="3"/>
+      <c r="H776" s="3"/>
+      <c r="I776" s="3"/>
+      <c r="J776" s="3"/>
+      <c r="K776" s="3"/>
+      <c r="L776" s="3"/>
+      <c r="M776" s="3"/>
+      <c r="N776" s="3"/>
+      <c r="O776" s="3"/>
+      <c r="P776" s="4"/>
+    </row>
+    <row r="777" spans="1:16">
+      <c r="A777" s="27"/>
+      <c r="B777" s="28"/>
+      <c r="C777" s="28"/>
+      <c r="D777" s="28"/>
+      <c r="E777" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F777" s="65"/>
+      <c r="G777" s="65"/>
+      <c r="H777" s="65"/>
+      <c r="I777" s="65"/>
+      <c r="J777" s="65"/>
+      <c r="K777" s="65"/>
+      <c r="L777" s="65"/>
+      <c r="M777" s="65"/>
+      <c r="N777" s="65"/>
+      <c r="O777" s="65"/>
+      <c r="P777" s="5"/>
+    </row>
+    <row r="778" spans="1:16">
+      <c r="A778" s="27"/>
+      <c r="B778" s="28"/>
+      <c r="C778" s="28"/>
+      <c r="D778" s="28"/>
+      <c r="E778" s="65"/>
+      <c r="F778" s="65"/>
+      <c r="G778" s="65"/>
+      <c r="H778" s="65"/>
+      <c r="I778" s="65"/>
+      <c r="J778" s="65"/>
+      <c r="K778" s="65"/>
+      <c r="L778" s="65"/>
+      <c r="M778" s="65"/>
+      <c r="N778" s="65"/>
+      <c r="O778" s="65"/>
+      <c r="P778" s="5"/>
+    </row>
+    <row r="779" spans="1:16">
+      <c r="A779" s="27"/>
+      <c r="B779" s="28"/>
+      <c r="C779" s="28"/>
+      <c r="D779" s="28"/>
+      <c r="E779" s="65"/>
+      <c r="F779" s="65"/>
+      <c r="G779" s="65"/>
+      <c r="H779" s="65"/>
+      <c r="I779" s="65"/>
+      <c r="J779" s="65"/>
+      <c r="K779" s="65"/>
+      <c r="L779" s="65"/>
+      <c r="M779" s="65"/>
+      <c r="N779" s="65"/>
+      <c r="O779" s="65"/>
+      <c r="P779" s="5"/>
+    </row>
+    <row r="780" spans="1:16">
+      <c r="A780" s="27"/>
+      <c r="B780" s="28"/>
+      <c r="C780" s="28"/>
+      <c r="D780" s="28"/>
+      <c r="E780" s="65"/>
+      <c r="F780" s="65"/>
+      <c r="G780" s="65"/>
+      <c r="H780" s="65"/>
+      <c r="I780" s="65"/>
+      <c r="J780" s="65"/>
+      <c r="K780" s="65"/>
+      <c r="L780" s="65"/>
+      <c r="M780" s="65"/>
+      <c r="N780" s="65"/>
+      <c r="O780" s="65"/>
+      <c r="P780" s="5"/>
+    </row>
+    <row r="781" spans="1:16" ht="18">
+      <c r="A781" s="27"/>
+      <c r="B781" s="28"/>
+      <c r="C781" s="28"/>
+      <c r="D781" s="28"/>
+      <c r="E781" s="30"/>
+      <c r="F781" s="30"/>
+      <c r="G781" s="30"/>
+      <c r="H781" s="30"/>
+      <c r="I781" s="30"/>
+      <c r="J781" s="30"/>
+      <c r="K781" s="30"/>
+      <c r="L781" s="30"/>
+      <c r="M781" s="30"/>
+      <c r="N781" s="30"/>
+      <c r="O781" s="30"/>
+      <c r="P781" s="5"/>
+    </row>
+    <row r="782" spans="1:16" ht="18">
+      <c r="A782" s="27"/>
+      <c r="B782" s="28"/>
+      <c r="C782" s="28"/>
+      <c r="D782" s="28"/>
+      <c r="E782" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="F782" s="31"/>
+      <c r="G782" s="31"/>
+      <c r="H782" s="31"/>
+      <c r="I782" s="31"/>
+      <c r="J782" s="31"/>
+      <c r="K782" s="31"/>
+      <c r="L782" s="31"/>
+      <c r="M782" s="31"/>
+      <c r="N782" s="31"/>
+      <c r="O782" s="31"/>
+      <c r="P782" s="5"/>
+    </row>
+    <row r="783" spans="1:16" ht="15">
+      <c r="A783" s="27"/>
+      <c r="B783" s="28"/>
+      <c r="C783" s="28"/>
+      <c r="D783" s="28"/>
+      <c r="E783" s="6"/>
+      <c r="F783" s="7"/>
+      <c r="G783" s="7"/>
+      <c r="H783" s="7"/>
+      <c r="I783" s="7"/>
+      <c r="J783" s="7"/>
+      <c r="K783" s="7"/>
+      <c r="L783" s="7"/>
+      <c r="M783" s="7"/>
+      <c r="N783" s="7"/>
+      <c r="O783" s="7"/>
+      <c r="P783" s="5"/>
+    </row>
+    <row r="784" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A784" s="27"/>
+      <c r="B784" s="28"/>
+      <c r="C784" s="28"/>
+      <c r="D784" s="28"/>
+      <c r="E784" s="6"/>
+      <c r="F784" s="6"/>
+      <c r="G784" s="6"/>
+      <c r="H784" s="6"/>
+      <c r="I784" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J784" s="6"/>
+      <c r="K784" s="6"/>
+      <c r="L784" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M784" s="32"/>
+      <c r="N784" s="32"/>
+      <c r="O784" s="32"/>
+      <c r="P784" s="5"/>
+    </row>
+    <row r="785" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A785" s="8"/>
+      <c r="B785" s="9"/>
+      <c r="C785" s="9"/>
+      <c r="D785" s="9"/>
+      <c r="E785" s="6"/>
+      <c r="F785" s="6"/>
+      <c r="G785" s="6"/>
+      <c r="H785" s="6"/>
+      <c r="I785" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J785" s="6"/>
+      <c r="K785" s="6"/>
+      <c r="L785" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M785" s="32"/>
+      <c r="N785" s="32"/>
+      <c r="O785" s="32"/>
+      <c r="P785" s="5"/>
+    </row>
+    <row r="786" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A786" s="8"/>
+      <c r="B786" s="9"/>
+      <c r="C786" s="9"/>
+      <c r="D786" s="9"/>
+      <c r="E786" s="6"/>
+      <c r="F786" s="6"/>
+      <c r="G786" s="6"/>
+      <c r="H786" s="6"/>
+      <c r="I786" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J786" s="6"/>
+      <c r="K786" s="6"/>
+      <c r="L786" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M786" s="32"/>
+      <c r="N786" s="32"/>
+      <c r="O786" s="32"/>
+      <c r="P786" s="5"/>
+    </row>
+    <row r="787" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A787" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B787" s="35"/>
+      <c r="C787" s="36"/>
+      <c r="D787" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E787" s="35"/>
+      <c r="F787" s="36"/>
+      <c r="G787" s="6"/>
+      <c r="H787" s="6"/>
+      <c r="I787" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J787" s="6"/>
+      <c r="K787" s="6"/>
+      <c r="L787" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M787" s="32"/>
+      <c r="N787" s="32"/>
+      <c r="O787" s="32"/>
+      <c r="P787" s="5"/>
+    </row>
+    <row r="788" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A788" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B788" s="17"/>
+      <c r="C788" s="17"/>
+      <c r="D788" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E788" s="17"/>
+      <c r="F788" s="17"/>
+      <c r="G788" s="6"/>
+      <c r="H788" s="6"/>
+      <c r="I788" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J788" s="6"/>
+      <c r="K788" s="6"/>
+      <c r="L788" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M788" s="32"/>
+      <c r="N788" s="32"/>
+      <c r="O788" s="32"/>
+      <c r="P788" s="5"/>
+    </row>
+    <row r="789" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A789" s="16"/>
+      <c r="B789" s="17"/>
+      <c r="C789" s="17"/>
+      <c r="D789" s="17"/>
+      <c r="E789" s="17"/>
+      <c r="F789" s="17"/>
+      <c r="G789" s="6"/>
+      <c r="H789" s="6"/>
+      <c r="I789" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J789" s="6"/>
+      <c r="K789" s="6"/>
+      <c r="L789" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M789" s="32"/>
+      <c r="N789" s="32"/>
+      <c r="O789" s="32"/>
+      <c r="P789" s="5"/>
+    </row>
+    <row r="790" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A790" s="16"/>
+      <c r="B790" s="17"/>
+      <c r="C790" s="17"/>
+      <c r="D790" s="17"/>
+      <c r="E790" s="17"/>
+      <c r="F790" s="17"/>
+      <c r="G790" s="6"/>
+      <c r="H790" s="6"/>
+      <c r="I790" s="6"/>
+      <c r="J790" s="6"/>
+      <c r="K790" s="6"/>
+      <c r="L790" s="6"/>
+      <c r="M790" s="6"/>
+      <c r="N790" s="6"/>
+      <c r="O790" s="6"/>
+      <c r="P790" s="5"/>
+    </row>
+    <row r="791" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A791" s="16"/>
+      <c r="B791" s="17"/>
+      <c r="C791" s="17"/>
+      <c r="D791" s="17"/>
+      <c r="E791" s="17"/>
+      <c r="F791" s="17"/>
+      <c r="G791" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H791" s="38"/>
+      <c r="I791" s="38"/>
+      <c r="J791" s="38"/>
+      <c r="K791" s="38"/>
+      <c r="L791" s="38"/>
+      <c r="M791" s="38"/>
+      <c r="N791" s="38"/>
+      <c r="O791" s="38"/>
+      <c r="P791" s="5"/>
+    </row>
+    <row r="792" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A792" s="16"/>
+      <c r="B792" s="17"/>
+      <c r="C792" s="17"/>
+      <c r="D792" s="17"/>
+      <c r="E792" s="17"/>
+      <c r="F792" s="17"/>
+      <c r="G792" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H792" s="40"/>
+      <c r="I792" s="41"/>
+      <c r="J792" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K792" s="42"/>
+      <c r="L792" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="M792" s="42"/>
+      <c r="N792" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O792" s="42"/>
+      <c r="P792" s="5"/>
+    </row>
+    <row r="793" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A793" s="16"/>
+      <c r="B793" s="17"/>
+      <c r="C793" s="17"/>
+      <c r="D793" s="17"/>
+      <c r="E793" s="17"/>
+      <c r="F793" s="17"/>
+      <c r="G793" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="H793" s="19"/>
+      <c r="I793" s="20"/>
+      <c r="J793" s="21">
+        <v>45593</v>
+      </c>
+      <c r="K793" s="15"/>
+      <c r="L793" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="M793" s="15"/>
+      <c r="N793" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="O793" s="15"/>
+      <c r="P793" s="5"/>
+    </row>
+    <row r="794" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A794" s="16"/>
+      <c r="B794" s="17"/>
+      <c r="C794" s="17"/>
+      <c r="D794" s="17"/>
+      <c r="E794" s="17"/>
+      <c r="F794" s="17"/>
+      <c r="G794" s="18"/>
+      <c r="H794" s="19"/>
+      <c r="I794" s="20"/>
+      <c r="J794" s="21"/>
+      <c r="K794" s="15"/>
+      <c r="L794" s="15"/>
+      <c r="M794" s="15"/>
+      <c r="N794" s="15"/>
+      <c r="O794" s="15"/>
+      <c r="P794" s="5"/>
+    </row>
+    <row r="795" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A795" s="16"/>
+      <c r="B795" s="17"/>
+      <c r="C795" s="17"/>
+      <c r="D795" s="17"/>
+      <c r="E795" s="17"/>
+      <c r="F795" s="17"/>
+      <c r="G795" s="18"/>
+      <c r="H795" s="19"/>
+      <c r="I795" s="20"/>
+      <c r="J795" s="21"/>
+      <c r="K795" s="15"/>
+      <c r="L795" s="15"/>
+      <c r="M795" s="15"/>
+      <c r="N795" s="15"/>
+      <c r="O795" s="15"/>
+      <c r="P795" s="5"/>
+    </row>
+    <row r="796" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A796" s="16"/>
+      <c r="B796" s="17"/>
+      <c r="C796" s="17"/>
+      <c r="D796" s="17"/>
+      <c r="E796" s="17"/>
+      <c r="F796" s="17"/>
+      <c r="G796" s="18"/>
+      <c r="H796" s="19"/>
+      <c r="I796" s="20"/>
+      <c r="J796" s="21"/>
+      <c r="K796" s="15"/>
+      <c r="L796" s="15"/>
+      <c r="M796" s="15"/>
+      <c r="N796" s="15"/>
+      <c r="O796" s="15"/>
+      <c r="P796" s="5"/>
+    </row>
+    <row r="797" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A797" s="16"/>
+      <c r="B797" s="17"/>
+      <c r="C797" s="17"/>
+      <c r="D797" s="17"/>
+      <c r="E797" s="17"/>
+      <c r="F797" s="17"/>
+      <c r="G797" s="18"/>
+      <c r="H797" s="19"/>
+      <c r="I797" s="20"/>
+      <c r="J797" s="21"/>
+      <c r="K797" s="15"/>
+      <c r="L797" s="15"/>
+      <c r="M797" s="15"/>
+      <c r="N797" s="15"/>
+      <c r="O797" s="15"/>
+      <c r="P797" s="5"/>
+    </row>
+    <row r="798" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A798" s="16"/>
+      <c r="B798" s="17"/>
+      <c r="C798" s="17"/>
+      <c r="D798" s="17"/>
+      <c r="E798" s="17"/>
+      <c r="F798" s="17"/>
+      <c r="G798" s="18"/>
+      <c r="H798" s="19"/>
+      <c r="I798" s="20"/>
+      <c r="J798" s="21"/>
+      <c r="K798" s="15"/>
+      <c r="L798" s="15"/>
+      <c r="M798" s="15"/>
+      <c r="N798" s="15"/>
+      <c r="O798" s="15"/>
+      <c r="P798" s="5"/>
+    </row>
+    <row r="799" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A799" s="16"/>
+      <c r="B799" s="17"/>
+      <c r="C799" s="17"/>
+      <c r="D799" s="17"/>
+      <c r="E799" s="17"/>
+      <c r="F799" s="17"/>
+      <c r="G799" s="22"/>
+      <c r="H799" s="23"/>
+      <c r="I799" s="24"/>
+      <c r="J799" s="21"/>
+      <c r="K799" s="15"/>
+      <c r="L799" s="15"/>
+      <c r="M799" s="15"/>
+      <c r="N799" s="15"/>
+      <c r="O799" s="15"/>
+      <c r="P799" s="5"/>
+    </row>
+    <row r="800" spans="1:16" ht="15.75" thickTop="1">
+      <c r="A800" s="8"/>
+      <c r="B800" s="9"/>
+      <c r="C800" s="9"/>
+      <c r="D800" s="9"/>
+      <c r="E800" s="6"/>
+      <c r="F800" s="6"/>
+      <c r="G800" s="6"/>
+      <c r="H800" s="6"/>
+      <c r="I800" s="6"/>
+      <c r="J800" s="6"/>
+      <c r="K800" s="6"/>
+      <c r="L800" s="6"/>
+      <c r="M800" s="6"/>
+      <c r="N800" s="6"/>
+      <c r="O800" s="6"/>
+      <c r="P800" s="5"/>
+    </row>
+    <row r="801" spans="1:16" ht="15">
+      <c r="A801" s="10"/>
+      <c r="B801" s="11"/>
+      <c r="C801" s="11"/>
+      <c r="D801" s="11"/>
+      <c r="E801" s="12"/>
+      <c r="F801" s="12"/>
+      <c r="G801" s="12"/>
+      <c r="H801" s="12"/>
+      <c r="I801" s="12"/>
+      <c r="J801" s="12"/>
+      <c r="K801" s="12"/>
+      <c r="L801" s="12"/>
+      <c r="M801" s="12"/>
+      <c r="N801" s="12"/>
+      <c r="O801" s="12"/>
+      <c r="P801" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="1526">
-    <mergeCell ref="N739:O739"/>
-    <mergeCell ref="A740:C743"/>
-    <mergeCell ref="D740:F743"/>
-    <mergeCell ref="G740:I740"/>
-    <mergeCell ref="J740:K740"/>
-    <mergeCell ref="L740:M740"/>
-    <mergeCell ref="N740:O740"/>
-    <mergeCell ref="G741:I741"/>
-    <mergeCell ref="J741:K741"/>
-    <mergeCell ref="L741:M741"/>
-    <mergeCell ref="N741:O741"/>
-    <mergeCell ref="G742:I742"/>
-    <mergeCell ref="J742:K742"/>
-    <mergeCell ref="L742:M742"/>
-    <mergeCell ref="N742:O742"/>
-    <mergeCell ref="G743:I743"/>
-    <mergeCell ref="J743:K743"/>
-    <mergeCell ref="L743:M743"/>
-    <mergeCell ref="N743:O743"/>
+  <mergeCells count="1577">
+    <mergeCell ref="N795:O795"/>
+    <mergeCell ref="A796:C799"/>
+    <mergeCell ref="D796:F799"/>
+    <mergeCell ref="G796:I796"/>
+    <mergeCell ref="J796:K796"/>
+    <mergeCell ref="L796:M796"/>
+    <mergeCell ref="N796:O796"/>
+    <mergeCell ref="G797:I797"/>
+    <mergeCell ref="J797:K797"/>
+    <mergeCell ref="L797:M797"/>
+    <mergeCell ref="N797:O797"/>
+    <mergeCell ref="G798:I798"/>
+    <mergeCell ref="J798:K798"/>
+    <mergeCell ref="L798:M798"/>
+    <mergeCell ref="N798:O798"/>
+    <mergeCell ref="G799:I799"/>
+    <mergeCell ref="J799:K799"/>
+    <mergeCell ref="L799:M799"/>
+    <mergeCell ref="N799:O799"/>
+    <mergeCell ref="A776:D784"/>
+    <mergeCell ref="E777:O780"/>
+    <mergeCell ref="E781:O781"/>
+    <mergeCell ref="E782:O782"/>
+    <mergeCell ref="L784:O784"/>
+    <mergeCell ref="L785:O785"/>
+    <mergeCell ref="L786:O786"/>
+    <mergeCell ref="A787:C787"/>
+    <mergeCell ref="D787:F787"/>
+    <mergeCell ref="L787:O787"/>
+    <mergeCell ref="A788:C791"/>
+    <mergeCell ref="D788:F791"/>
+    <mergeCell ref="L788:O788"/>
+    <mergeCell ref="L789:O789"/>
+    <mergeCell ref="G791:O791"/>
+    <mergeCell ref="A792:C795"/>
+    <mergeCell ref="D792:F795"/>
+    <mergeCell ref="G792:I792"/>
+    <mergeCell ref="J792:K792"/>
+    <mergeCell ref="L792:M792"/>
+    <mergeCell ref="N792:O792"/>
+    <mergeCell ref="G793:I793"/>
+    <mergeCell ref="J793:K793"/>
+    <mergeCell ref="L793:M793"/>
+    <mergeCell ref="N793:O793"/>
+    <mergeCell ref="G794:I794"/>
+    <mergeCell ref="J794:K794"/>
+    <mergeCell ref="L794:M794"/>
+    <mergeCell ref="N794:O794"/>
+    <mergeCell ref="G795:I795"/>
+    <mergeCell ref="J795:K795"/>
+    <mergeCell ref="L795:M795"/>
+    <mergeCell ref="N767:O767"/>
+    <mergeCell ref="A768:C771"/>
+    <mergeCell ref="D768:F771"/>
+    <mergeCell ref="G768:I768"/>
+    <mergeCell ref="J768:K768"/>
+    <mergeCell ref="L768:M768"/>
+    <mergeCell ref="N768:O768"/>
+    <mergeCell ref="G769:I769"/>
+    <mergeCell ref="J769:K769"/>
+    <mergeCell ref="L769:M769"/>
+    <mergeCell ref="N769:O769"/>
+    <mergeCell ref="G770:I770"/>
+    <mergeCell ref="J770:K770"/>
+    <mergeCell ref="L770:M770"/>
+    <mergeCell ref="N770:O770"/>
+    <mergeCell ref="G771:I771"/>
+    <mergeCell ref="J771:K771"/>
+    <mergeCell ref="L771:M771"/>
+    <mergeCell ref="N771:O771"/>
+    <mergeCell ref="A748:D756"/>
+    <mergeCell ref="E749:O752"/>
+    <mergeCell ref="E753:O753"/>
+    <mergeCell ref="E754:O754"/>
+    <mergeCell ref="L756:O756"/>
+    <mergeCell ref="L757:O757"/>
+    <mergeCell ref="L758:O758"/>
+    <mergeCell ref="A759:C759"/>
+    <mergeCell ref="D759:F759"/>
+    <mergeCell ref="L759:O759"/>
+    <mergeCell ref="A760:C763"/>
+    <mergeCell ref="D760:F763"/>
+    <mergeCell ref="L760:O760"/>
+    <mergeCell ref="L761:O761"/>
+    <mergeCell ref="G763:O763"/>
+    <mergeCell ref="A764:C767"/>
+    <mergeCell ref="D764:F767"/>
+    <mergeCell ref="G764:I764"/>
+    <mergeCell ref="J764:K764"/>
+    <mergeCell ref="L764:M764"/>
+    <mergeCell ref="N764:O764"/>
+    <mergeCell ref="G765:I765"/>
+    <mergeCell ref="J765:K765"/>
+    <mergeCell ref="L765:M765"/>
+    <mergeCell ref="N765:O765"/>
+    <mergeCell ref="G766:I766"/>
+    <mergeCell ref="J766:K766"/>
+    <mergeCell ref="L766:M766"/>
+    <mergeCell ref="N766:O766"/>
+    <mergeCell ref="G767:I767"/>
+    <mergeCell ref="J767:K767"/>
+    <mergeCell ref="L767:M767"/>
+    <mergeCell ref="N657:O657"/>
+    <mergeCell ref="A658:C661"/>
+    <mergeCell ref="D658:F661"/>
+    <mergeCell ref="G658:I658"/>
+    <mergeCell ref="J658:K658"/>
+    <mergeCell ref="L658:M658"/>
+    <mergeCell ref="N658:O658"/>
+    <mergeCell ref="G659:I659"/>
+    <mergeCell ref="J659:K659"/>
+    <mergeCell ref="L659:M659"/>
+    <mergeCell ref="N659:O659"/>
+    <mergeCell ref="G660:I660"/>
+    <mergeCell ref="J660:K660"/>
+    <mergeCell ref="L660:M660"/>
+    <mergeCell ref="N660:O660"/>
+    <mergeCell ref="G661:I661"/>
+    <mergeCell ref="J661:K661"/>
+    <mergeCell ref="L661:M661"/>
+    <mergeCell ref="N661:O661"/>
+    <mergeCell ref="A638:D646"/>
+    <mergeCell ref="E639:O642"/>
+    <mergeCell ref="E643:O643"/>
+    <mergeCell ref="E644:O644"/>
+    <mergeCell ref="L646:O646"/>
+    <mergeCell ref="L647:O647"/>
+    <mergeCell ref="L648:O648"/>
+    <mergeCell ref="A649:C649"/>
+    <mergeCell ref="D649:F649"/>
+    <mergeCell ref="L649:O649"/>
+    <mergeCell ref="A650:C653"/>
+    <mergeCell ref="D650:F653"/>
+    <mergeCell ref="L650:O650"/>
+    <mergeCell ref="L651:O651"/>
+    <mergeCell ref="G653:O653"/>
+    <mergeCell ref="A654:C657"/>
+    <mergeCell ref="D654:F657"/>
+    <mergeCell ref="G654:I654"/>
+    <mergeCell ref="J654:K654"/>
+    <mergeCell ref="L654:M654"/>
+    <mergeCell ref="N654:O654"/>
+    <mergeCell ref="G655:I655"/>
+    <mergeCell ref="J655:K655"/>
+    <mergeCell ref="L655:M655"/>
+    <mergeCell ref="N655:O655"/>
+    <mergeCell ref="G656:I656"/>
+    <mergeCell ref="J656:K656"/>
+    <mergeCell ref="L656:M656"/>
+    <mergeCell ref="N656:O656"/>
+    <mergeCell ref="G657:I657"/>
+    <mergeCell ref="J657:K657"/>
+    <mergeCell ref="L657:M657"/>
+    <mergeCell ref="N683:O683"/>
+    <mergeCell ref="A684:C687"/>
+    <mergeCell ref="D684:F687"/>
+    <mergeCell ref="G684:I684"/>
+    <mergeCell ref="J684:K684"/>
+    <mergeCell ref="L684:M684"/>
+    <mergeCell ref="N684:O684"/>
+    <mergeCell ref="G685:I685"/>
+    <mergeCell ref="J685:K685"/>
+    <mergeCell ref="L685:M685"/>
+    <mergeCell ref="N685:O685"/>
+    <mergeCell ref="G686:I686"/>
+    <mergeCell ref="J686:K686"/>
+    <mergeCell ref="L686:M686"/>
+    <mergeCell ref="N686:O686"/>
+    <mergeCell ref="G687:I687"/>
+    <mergeCell ref="J687:K687"/>
+    <mergeCell ref="L687:M687"/>
+    <mergeCell ref="N687:O687"/>
+    <mergeCell ref="A664:D672"/>
+    <mergeCell ref="E665:O668"/>
+    <mergeCell ref="E669:O669"/>
+    <mergeCell ref="E670:O670"/>
+    <mergeCell ref="L672:O672"/>
+    <mergeCell ref="L673:O673"/>
+    <mergeCell ref="L674:O674"/>
+    <mergeCell ref="A675:C675"/>
+    <mergeCell ref="D675:F675"/>
+    <mergeCell ref="L675:O675"/>
+    <mergeCell ref="A676:C679"/>
+    <mergeCell ref="D676:F679"/>
+    <mergeCell ref="L676:O676"/>
+    <mergeCell ref="L677:O677"/>
+    <mergeCell ref="G679:O679"/>
+    <mergeCell ref="A680:C683"/>
+    <mergeCell ref="D680:F683"/>
+    <mergeCell ref="G680:I680"/>
+    <mergeCell ref="J680:K680"/>
+    <mergeCell ref="L680:M680"/>
+    <mergeCell ref="N680:O680"/>
+    <mergeCell ref="G681:I681"/>
+    <mergeCell ref="J681:K681"/>
+    <mergeCell ref="L681:M681"/>
+    <mergeCell ref="N681:O681"/>
+    <mergeCell ref="G682:I682"/>
+    <mergeCell ref="J682:K682"/>
+    <mergeCell ref="L682:M682"/>
+    <mergeCell ref="N682:O682"/>
+    <mergeCell ref="G683:I683"/>
+    <mergeCell ref="J683:K683"/>
+    <mergeCell ref="L683:M683"/>
+    <mergeCell ref="A632:C635"/>
+    <mergeCell ref="D632:F635"/>
+    <mergeCell ref="G632:I632"/>
+    <mergeCell ref="J632:K632"/>
+    <mergeCell ref="L632:M632"/>
+    <mergeCell ref="N632:O632"/>
+    <mergeCell ref="G633:I633"/>
+    <mergeCell ref="J633:K633"/>
+    <mergeCell ref="L633:M633"/>
+    <mergeCell ref="N633:O633"/>
+    <mergeCell ref="G634:I634"/>
+    <mergeCell ref="J634:K634"/>
+    <mergeCell ref="L634:M634"/>
+    <mergeCell ref="N634:O634"/>
+    <mergeCell ref="G635:I635"/>
+    <mergeCell ref="J635:K635"/>
+    <mergeCell ref="L635:M635"/>
+    <mergeCell ref="N635:O635"/>
+    <mergeCell ref="L621:O621"/>
+    <mergeCell ref="L622:O622"/>
+    <mergeCell ref="A623:C623"/>
+    <mergeCell ref="D623:F623"/>
+    <mergeCell ref="L623:O623"/>
+    <mergeCell ref="A624:C627"/>
+    <mergeCell ref="D624:F627"/>
+    <mergeCell ref="L624:O624"/>
+    <mergeCell ref="L625:O625"/>
+    <mergeCell ref="G627:O627"/>
+    <mergeCell ref="A628:C631"/>
+    <mergeCell ref="D628:F631"/>
+    <mergeCell ref="G628:I628"/>
+    <mergeCell ref="J628:K628"/>
+    <mergeCell ref="L628:M628"/>
+    <mergeCell ref="N628:O628"/>
+    <mergeCell ref="G629:I629"/>
+    <mergeCell ref="J629:K629"/>
+    <mergeCell ref="L629:M629"/>
+    <mergeCell ref="N629:O629"/>
+    <mergeCell ref="G630:I630"/>
+    <mergeCell ref="J630:K630"/>
+    <mergeCell ref="L630:M630"/>
+    <mergeCell ref="N630:O630"/>
+    <mergeCell ref="G631:I631"/>
+    <mergeCell ref="J631:K631"/>
+    <mergeCell ref="L631:M631"/>
+    <mergeCell ref="N631:O631"/>
+    <mergeCell ref="A597:C597"/>
+    <mergeCell ref="D597:F597"/>
+    <mergeCell ref="L597:O597"/>
+    <mergeCell ref="A598:C601"/>
+    <mergeCell ref="D598:F601"/>
+    <mergeCell ref="L598:O598"/>
+    <mergeCell ref="L599:O599"/>
+    <mergeCell ref="A602:C605"/>
+    <mergeCell ref="D602:F605"/>
+    <mergeCell ref="G601:O601"/>
+    <mergeCell ref="A606:C609"/>
+    <mergeCell ref="D606:F609"/>
+    <mergeCell ref="G602:I602"/>
+    <mergeCell ref="J602:K602"/>
+    <mergeCell ref="L602:M602"/>
+    <mergeCell ref="N602:O602"/>
+    <mergeCell ref="A612:D620"/>
+    <mergeCell ref="E613:O616"/>
+    <mergeCell ref="E617:O617"/>
+    <mergeCell ref="E618:O618"/>
+    <mergeCell ref="L620:O620"/>
+    <mergeCell ref="J578:K578"/>
+    <mergeCell ref="G606:I606"/>
+    <mergeCell ref="J606:K606"/>
+    <mergeCell ref="L606:M606"/>
+    <mergeCell ref="N606:O606"/>
+    <mergeCell ref="G607:I607"/>
+    <mergeCell ref="J607:K607"/>
+    <mergeCell ref="L607:M607"/>
+    <mergeCell ref="N607:O607"/>
+    <mergeCell ref="G608:I608"/>
+    <mergeCell ref="J608:K608"/>
+    <mergeCell ref="L608:M608"/>
+    <mergeCell ref="N608:O608"/>
+    <mergeCell ref="G609:I609"/>
+    <mergeCell ref="J609:K609"/>
+    <mergeCell ref="L609:M609"/>
+    <mergeCell ref="N609:O609"/>
+    <mergeCell ref="L578:M578"/>
+    <mergeCell ref="A550:C553"/>
+    <mergeCell ref="G603:I603"/>
+    <mergeCell ref="J603:K603"/>
+    <mergeCell ref="L603:M603"/>
+    <mergeCell ref="N603:O603"/>
+    <mergeCell ref="G604:I604"/>
+    <mergeCell ref="J604:K604"/>
+    <mergeCell ref="L604:M604"/>
+    <mergeCell ref="N604:O604"/>
+    <mergeCell ref="G605:I605"/>
+    <mergeCell ref="J605:K605"/>
+    <mergeCell ref="L605:M605"/>
+    <mergeCell ref="N605:O605"/>
+    <mergeCell ref="L551:M551"/>
+    <mergeCell ref="N551:O551"/>
+    <mergeCell ref="G552:I552"/>
+    <mergeCell ref="J552:K552"/>
+    <mergeCell ref="L552:M552"/>
+    <mergeCell ref="N552:O552"/>
+    <mergeCell ref="G553:I553"/>
+    <mergeCell ref="J553:K553"/>
+    <mergeCell ref="L553:M553"/>
+    <mergeCell ref="N553:O553"/>
+    <mergeCell ref="N578:O578"/>
+    <mergeCell ref="G579:I579"/>
+    <mergeCell ref="J579:K579"/>
+    <mergeCell ref="L579:M579"/>
+    <mergeCell ref="G577:I577"/>
+    <mergeCell ref="J577:K577"/>
+    <mergeCell ref="L577:M577"/>
+    <mergeCell ref="N577:O577"/>
+    <mergeCell ref="G578:I578"/>
+    <mergeCell ref="A504:D512"/>
+    <mergeCell ref="E505:O508"/>
+    <mergeCell ref="E509:O509"/>
+    <mergeCell ref="E510:O510"/>
+    <mergeCell ref="L512:O512"/>
+    <mergeCell ref="L513:O513"/>
+    <mergeCell ref="L514:O514"/>
+    <mergeCell ref="A586:D594"/>
+    <mergeCell ref="E587:O590"/>
+    <mergeCell ref="E591:O591"/>
+    <mergeCell ref="E592:O592"/>
+    <mergeCell ref="L594:O594"/>
+    <mergeCell ref="L595:O595"/>
+    <mergeCell ref="L596:O596"/>
+    <mergeCell ref="L541:O541"/>
+    <mergeCell ref="A542:C545"/>
+    <mergeCell ref="D542:F545"/>
+    <mergeCell ref="L542:O542"/>
+    <mergeCell ref="L543:O543"/>
+    <mergeCell ref="G545:O545"/>
+    <mergeCell ref="A546:C549"/>
+    <mergeCell ref="D550:F553"/>
+    <mergeCell ref="G546:I546"/>
+    <mergeCell ref="J546:K546"/>
+    <mergeCell ref="L546:M546"/>
+    <mergeCell ref="N546:O546"/>
+    <mergeCell ref="G547:I547"/>
+    <mergeCell ref="J547:K547"/>
+    <mergeCell ref="L547:M547"/>
+    <mergeCell ref="N547:O547"/>
+    <mergeCell ref="G548:I548"/>
+    <mergeCell ref="J548:K548"/>
+    <mergeCell ref="A498:C501"/>
+    <mergeCell ref="D498:F501"/>
+    <mergeCell ref="G498:I498"/>
+    <mergeCell ref="J498:K498"/>
+    <mergeCell ref="L498:M498"/>
+    <mergeCell ref="N498:O498"/>
+    <mergeCell ref="G499:I499"/>
+    <mergeCell ref="J499:K499"/>
+    <mergeCell ref="L499:M499"/>
+    <mergeCell ref="N499:O499"/>
+    <mergeCell ref="G500:I500"/>
+    <mergeCell ref="J500:K500"/>
+    <mergeCell ref="L500:M500"/>
+    <mergeCell ref="N500:O500"/>
+    <mergeCell ref="G501:I501"/>
+    <mergeCell ref="J501:K501"/>
+    <mergeCell ref="L501:M501"/>
+    <mergeCell ref="N501:O501"/>
+    <mergeCell ref="A490:C493"/>
+    <mergeCell ref="D490:F493"/>
+    <mergeCell ref="L490:O490"/>
+    <mergeCell ref="L491:O491"/>
+    <mergeCell ref="G493:O493"/>
+    <mergeCell ref="A494:C497"/>
+    <mergeCell ref="D494:F497"/>
+    <mergeCell ref="G494:I494"/>
+    <mergeCell ref="J494:K494"/>
+    <mergeCell ref="L494:M494"/>
+    <mergeCell ref="N494:O494"/>
+    <mergeCell ref="G495:I495"/>
+    <mergeCell ref="J495:K495"/>
+    <mergeCell ref="L495:M495"/>
+    <mergeCell ref="N495:O495"/>
+    <mergeCell ref="G496:I496"/>
+    <mergeCell ref="J496:K496"/>
+    <mergeCell ref="L496:M496"/>
+    <mergeCell ref="N496:O496"/>
+    <mergeCell ref="G497:I497"/>
+    <mergeCell ref="J497:K497"/>
+    <mergeCell ref="L497:M497"/>
+    <mergeCell ref="N497:O497"/>
+    <mergeCell ref="A478:D486"/>
+    <mergeCell ref="E479:O482"/>
+    <mergeCell ref="E483:O483"/>
+    <mergeCell ref="E484:O484"/>
+    <mergeCell ref="L486:O486"/>
+    <mergeCell ref="L487:O487"/>
+    <mergeCell ref="L488:O488"/>
+    <mergeCell ref="A489:C489"/>
+    <mergeCell ref="D489:F489"/>
+    <mergeCell ref="L489:O489"/>
+    <mergeCell ref="A446:C449"/>
+    <mergeCell ref="D446:F449"/>
+    <mergeCell ref="G446:I446"/>
+    <mergeCell ref="J446:K446"/>
+    <mergeCell ref="L446:M446"/>
+    <mergeCell ref="N446:O446"/>
+    <mergeCell ref="G447:I447"/>
+    <mergeCell ref="J447:K447"/>
+    <mergeCell ref="L447:M447"/>
+    <mergeCell ref="N447:O447"/>
+    <mergeCell ref="G448:I448"/>
+    <mergeCell ref="J448:K448"/>
+    <mergeCell ref="L448:M448"/>
+    <mergeCell ref="N448:O448"/>
+    <mergeCell ref="G449:I449"/>
+    <mergeCell ref="J449:K449"/>
+    <mergeCell ref="L449:M449"/>
+    <mergeCell ref="N449:O449"/>
+    <mergeCell ref="A452:D460"/>
+    <mergeCell ref="E453:O456"/>
+    <mergeCell ref="E457:O457"/>
+    <mergeCell ref="E458:O458"/>
+    <mergeCell ref="A438:C441"/>
+    <mergeCell ref="D438:F441"/>
+    <mergeCell ref="L438:O438"/>
+    <mergeCell ref="L439:O439"/>
+    <mergeCell ref="G441:O441"/>
+    <mergeCell ref="A442:C445"/>
+    <mergeCell ref="D442:F445"/>
+    <mergeCell ref="G442:I442"/>
+    <mergeCell ref="J442:K442"/>
+    <mergeCell ref="L442:M442"/>
+    <mergeCell ref="N442:O442"/>
+    <mergeCell ref="G443:I443"/>
+    <mergeCell ref="J443:K443"/>
+    <mergeCell ref="L443:M443"/>
+    <mergeCell ref="N443:O443"/>
+    <mergeCell ref="G444:I444"/>
+    <mergeCell ref="J444:K444"/>
+    <mergeCell ref="L444:M444"/>
+    <mergeCell ref="N444:O444"/>
+    <mergeCell ref="G445:I445"/>
+    <mergeCell ref="J445:K445"/>
+    <mergeCell ref="L445:M445"/>
+    <mergeCell ref="N445:O445"/>
+    <mergeCell ref="A426:D434"/>
+    <mergeCell ref="E427:O430"/>
+    <mergeCell ref="E431:O431"/>
+    <mergeCell ref="E432:O432"/>
+    <mergeCell ref="L434:O434"/>
+    <mergeCell ref="L435:O435"/>
+    <mergeCell ref="L436:O436"/>
+    <mergeCell ref="A437:C437"/>
+    <mergeCell ref="D437:F437"/>
+    <mergeCell ref="L437:O437"/>
+    <mergeCell ref="A368:C371"/>
+    <mergeCell ref="D368:F371"/>
+    <mergeCell ref="G368:I368"/>
+    <mergeCell ref="J368:K368"/>
+    <mergeCell ref="L368:M368"/>
+    <mergeCell ref="N368:O368"/>
+    <mergeCell ref="G369:I369"/>
+    <mergeCell ref="J369:K369"/>
+    <mergeCell ref="L369:M369"/>
+    <mergeCell ref="N369:O369"/>
+    <mergeCell ref="G370:I370"/>
+    <mergeCell ref="J370:K370"/>
+    <mergeCell ref="L370:M370"/>
+    <mergeCell ref="N370:O370"/>
+    <mergeCell ref="G371:I371"/>
+    <mergeCell ref="J371:K371"/>
+    <mergeCell ref="L371:M371"/>
+    <mergeCell ref="N371:O371"/>
+    <mergeCell ref="A374:D382"/>
+    <mergeCell ref="E375:O378"/>
+    <mergeCell ref="E379:O379"/>
+    <mergeCell ref="E380:O380"/>
+    <mergeCell ref="A360:C363"/>
+    <mergeCell ref="D360:F363"/>
+    <mergeCell ref="L360:O360"/>
+    <mergeCell ref="L361:O361"/>
+    <mergeCell ref="G363:O363"/>
+    <mergeCell ref="A364:C367"/>
+    <mergeCell ref="D364:F367"/>
+    <mergeCell ref="G364:I364"/>
+    <mergeCell ref="J364:K364"/>
+    <mergeCell ref="L364:M364"/>
+    <mergeCell ref="N364:O364"/>
+    <mergeCell ref="G365:I365"/>
+    <mergeCell ref="J365:K365"/>
+    <mergeCell ref="L365:M365"/>
+    <mergeCell ref="N365:O365"/>
+    <mergeCell ref="G366:I366"/>
+    <mergeCell ref="J366:K366"/>
+    <mergeCell ref="L366:M366"/>
+    <mergeCell ref="N366:O366"/>
+    <mergeCell ref="G367:I367"/>
+    <mergeCell ref="J367:K367"/>
+    <mergeCell ref="L367:M367"/>
+    <mergeCell ref="N367:O367"/>
+    <mergeCell ref="A348:D356"/>
+    <mergeCell ref="E349:O352"/>
+    <mergeCell ref="E353:O353"/>
+    <mergeCell ref="E354:O354"/>
+    <mergeCell ref="L356:O356"/>
+    <mergeCell ref="L357:O357"/>
+    <mergeCell ref="L358:O358"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="D359:F359"/>
+    <mergeCell ref="L359:O359"/>
+    <mergeCell ref="A316:C319"/>
+    <mergeCell ref="D316:F319"/>
+    <mergeCell ref="G316:I316"/>
+    <mergeCell ref="J316:K316"/>
+    <mergeCell ref="L316:M316"/>
+    <mergeCell ref="N316:O316"/>
+    <mergeCell ref="G317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="L317:M317"/>
+    <mergeCell ref="N317:O317"/>
+    <mergeCell ref="G318:I318"/>
+    <mergeCell ref="J318:K318"/>
+    <mergeCell ref="L318:M318"/>
+    <mergeCell ref="N318:O318"/>
+    <mergeCell ref="G319:I319"/>
+    <mergeCell ref="J319:K319"/>
+    <mergeCell ref="L319:M319"/>
+    <mergeCell ref="N319:O319"/>
+    <mergeCell ref="A322:D330"/>
+    <mergeCell ref="E323:O326"/>
+    <mergeCell ref="E327:O327"/>
+    <mergeCell ref="E328:O328"/>
+    <mergeCell ref="A308:C311"/>
+    <mergeCell ref="D308:F311"/>
+    <mergeCell ref="L308:O308"/>
+    <mergeCell ref="L309:O309"/>
+    <mergeCell ref="G311:O311"/>
+    <mergeCell ref="A312:C315"/>
+    <mergeCell ref="D312:F315"/>
+    <mergeCell ref="G312:I312"/>
+    <mergeCell ref="J312:K312"/>
+    <mergeCell ref="L312:M312"/>
+    <mergeCell ref="N312:O312"/>
+    <mergeCell ref="G313:I313"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="L313:M313"/>
+    <mergeCell ref="N313:O313"/>
+    <mergeCell ref="G314:I314"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="L314:M314"/>
+    <mergeCell ref="N314:O314"/>
+    <mergeCell ref="G315:I315"/>
+    <mergeCell ref="J315:K315"/>
+    <mergeCell ref="L315:M315"/>
+    <mergeCell ref="N315:O315"/>
+    <mergeCell ref="A296:D304"/>
+    <mergeCell ref="E297:O300"/>
+    <mergeCell ref="E301:O301"/>
+    <mergeCell ref="E302:O302"/>
+    <mergeCell ref="L304:O304"/>
+    <mergeCell ref="L305:O305"/>
+    <mergeCell ref="L306:O306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="D307:F307"/>
+    <mergeCell ref="L307:O307"/>
+    <mergeCell ref="A256:C259"/>
+    <mergeCell ref="D256:F259"/>
+    <mergeCell ref="G256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="L256:M256"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="G257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="L257:M257"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="G258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="L258:M258"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="G259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="L259:M259"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="A262:D270"/>
+    <mergeCell ref="E263:O266"/>
+    <mergeCell ref="E267:O267"/>
+    <mergeCell ref="E268:O268"/>
+    <mergeCell ref="A248:C251"/>
+    <mergeCell ref="D248:F251"/>
+    <mergeCell ref="L248:O248"/>
+    <mergeCell ref="L249:O249"/>
+    <mergeCell ref="G251:O251"/>
+    <mergeCell ref="A252:C255"/>
+    <mergeCell ref="D252:F255"/>
+    <mergeCell ref="G252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="L252:M252"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="G253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="L253:M253"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="G254:I254"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="L254:M254"/>
+    <mergeCell ref="N254:O254"/>
+    <mergeCell ref="G255:I255"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="L255:M255"/>
+    <mergeCell ref="N255:O255"/>
+    <mergeCell ref="A236:D244"/>
+    <mergeCell ref="E237:O240"/>
+    <mergeCell ref="E241:O241"/>
+    <mergeCell ref="E242:O242"/>
+    <mergeCell ref="L244:O244"/>
+    <mergeCell ref="L245:O245"/>
+    <mergeCell ref="L246:O246"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="D247:F247"/>
+    <mergeCell ref="L247:O247"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="E6:O6"/>
+    <mergeCell ref="E7:O7"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="A1:D9"/>
+    <mergeCell ref="E2:O5"/>
+    <mergeCell ref="A13:C16"/>
+    <mergeCell ref="A17:C20"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="D17:F20"/>
+    <mergeCell ref="A21:C24"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A27:D35"/>
+    <mergeCell ref="E28:O31"/>
+    <mergeCell ref="E32:O32"/>
+    <mergeCell ref="E33:O33"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A43:C46"/>
+    <mergeCell ref="D43:F46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="A39:C42"/>
+    <mergeCell ref="D39:F42"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A53:D61"/>
+    <mergeCell ref="E54:O57"/>
+    <mergeCell ref="E58:O58"/>
+    <mergeCell ref="E59:O59"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="A47:C50"/>
+    <mergeCell ref="D47:F50"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D21:F24"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="A65:C68"/>
+    <mergeCell ref="D65:F68"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="G68:O68"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A69:C72"/>
+    <mergeCell ref="D69:F72"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A79:D87"/>
+    <mergeCell ref="E80:O83"/>
+    <mergeCell ref="E84:O84"/>
+    <mergeCell ref="E85:O85"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A73:C76"/>
+    <mergeCell ref="D73:F76"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="A91:C94"/>
+    <mergeCell ref="D91:F94"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="G94:O94"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A95:C98"/>
+    <mergeCell ref="D95:F98"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A105:D113"/>
+    <mergeCell ref="E106:O109"/>
+    <mergeCell ref="E110:O110"/>
+    <mergeCell ref="E111:O111"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A99:C102"/>
+    <mergeCell ref="D99:F102"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="A117:C120"/>
+    <mergeCell ref="D117:F120"/>
+    <mergeCell ref="L117:O117"/>
+    <mergeCell ref="L118:O118"/>
+    <mergeCell ref="G120:O120"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A121:C124"/>
+    <mergeCell ref="D121:F124"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A131:D139"/>
+    <mergeCell ref="E132:O135"/>
+    <mergeCell ref="E136:O136"/>
+    <mergeCell ref="E137:O137"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A125:C128"/>
+    <mergeCell ref="D125:F128"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="L142:O142"/>
+    <mergeCell ref="A143:C146"/>
+    <mergeCell ref="D143:F146"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="G146:O146"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="G150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="A147:C150"/>
+    <mergeCell ref="D147:F150"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A157:D165"/>
+    <mergeCell ref="E158:O161"/>
+    <mergeCell ref="E162:O162"/>
+    <mergeCell ref="E163:O163"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="L166:O166"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="A151:C154"/>
+    <mergeCell ref="D151:F154"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="A169:C172"/>
+    <mergeCell ref="D169:F172"/>
+    <mergeCell ref="L169:O169"/>
+    <mergeCell ref="L170:O170"/>
+    <mergeCell ref="G172:O172"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="L175:M175"/>
+    <mergeCell ref="N175:O175"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="L176:M176"/>
+    <mergeCell ref="N176:O176"/>
+    <mergeCell ref="A173:C176"/>
+    <mergeCell ref="D173:F176"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="N173:O173"/>
+    <mergeCell ref="G174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="L174:M174"/>
+    <mergeCell ref="N174:O174"/>
+    <mergeCell ref="A184:D192"/>
+    <mergeCell ref="E185:O188"/>
+    <mergeCell ref="E189:O189"/>
+    <mergeCell ref="E190:O190"/>
+    <mergeCell ref="L192:O192"/>
+    <mergeCell ref="L193:O193"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="G180:I180"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="L180:M180"/>
+    <mergeCell ref="N180:O180"/>
+    <mergeCell ref="A177:C180"/>
+    <mergeCell ref="D177:F180"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="L177:M177"/>
+    <mergeCell ref="N177:O177"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="L178:M178"/>
+    <mergeCell ref="N178:O178"/>
+    <mergeCell ref="L194:O194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="L195:O195"/>
+    <mergeCell ref="A196:C199"/>
+    <mergeCell ref="D196:F199"/>
+    <mergeCell ref="L196:O196"/>
+    <mergeCell ref="L197:O197"/>
+    <mergeCell ref="G199:O199"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="L202:M202"/>
+    <mergeCell ref="N202:O202"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="L203:M203"/>
+    <mergeCell ref="N203:O203"/>
+    <mergeCell ref="A200:C203"/>
+    <mergeCell ref="D200:F203"/>
+    <mergeCell ref="G200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="L200:M200"/>
+    <mergeCell ref="N200:O200"/>
+    <mergeCell ref="G201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="L201:M201"/>
+    <mergeCell ref="N201:O201"/>
+    <mergeCell ref="A210:D218"/>
+    <mergeCell ref="E211:O214"/>
+    <mergeCell ref="E215:O215"/>
+    <mergeCell ref="E216:O216"/>
+    <mergeCell ref="L218:O218"/>
+    <mergeCell ref="L219:O219"/>
+    <mergeCell ref="G206:I206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="N206:O206"/>
+    <mergeCell ref="G207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="N207:O207"/>
+    <mergeCell ref="A204:C207"/>
+    <mergeCell ref="D204:F207"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="L204:M204"/>
+    <mergeCell ref="N204:O204"/>
+    <mergeCell ref="G205:I205"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="L205:M205"/>
+    <mergeCell ref="N205:O205"/>
+    <mergeCell ref="L220:O220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="L221:O221"/>
+    <mergeCell ref="A222:C225"/>
+    <mergeCell ref="D222:F225"/>
+    <mergeCell ref="L222:O222"/>
+    <mergeCell ref="L223:O223"/>
+    <mergeCell ref="G225:O225"/>
+    <mergeCell ref="G228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="L228:M228"/>
+    <mergeCell ref="N228:O228"/>
+    <mergeCell ref="G229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="L229:M229"/>
+    <mergeCell ref="N229:O229"/>
+    <mergeCell ref="A226:C229"/>
+    <mergeCell ref="D226:F229"/>
+    <mergeCell ref="G226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="L226:M226"/>
+    <mergeCell ref="N226:O226"/>
+    <mergeCell ref="G227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="L227:M227"/>
+    <mergeCell ref="N227:O227"/>
+    <mergeCell ref="G232:I232"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="L232:M232"/>
+    <mergeCell ref="N232:O232"/>
+    <mergeCell ref="G233:I233"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="L233:M233"/>
+    <mergeCell ref="N233:O233"/>
+    <mergeCell ref="A230:C233"/>
+    <mergeCell ref="D230:F233"/>
+    <mergeCell ref="G230:I230"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="L230:M230"/>
+    <mergeCell ref="N230:O230"/>
+    <mergeCell ref="G231:I231"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="L231:M231"/>
+    <mergeCell ref="N231:O231"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="D273:F273"/>
+    <mergeCell ref="L273:O273"/>
+    <mergeCell ref="A274:C277"/>
+    <mergeCell ref="D274:F277"/>
+    <mergeCell ref="L274:O274"/>
+    <mergeCell ref="L275:O275"/>
+    <mergeCell ref="G277:O277"/>
+    <mergeCell ref="A278:C281"/>
+    <mergeCell ref="D278:F281"/>
+    <mergeCell ref="G278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="L278:M278"/>
+    <mergeCell ref="N278:O278"/>
+    <mergeCell ref="G279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="L279:M279"/>
+    <mergeCell ref="N279:O279"/>
+    <mergeCell ref="A282:C285"/>
+    <mergeCell ref="D282:F285"/>
+    <mergeCell ref="G280:I280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="L280:M280"/>
+    <mergeCell ref="N281:O281"/>
+    <mergeCell ref="G281:I281"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="L281:M281"/>
+    <mergeCell ref="N282:O282"/>
+    <mergeCell ref="G282:I282"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="L282:M282"/>
+    <mergeCell ref="G283:I283"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="L283:M283"/>
+    <mergeCell ref="N283:O283"/>
+    <mergeCell ref="N280:O280"/>
+    <mergeCell ref="A286:C289"/>
+    <mergeCell ref="D286:F289"/>
+    <mergeCell ref="A290:C293"/>
+    <mergeCell ref="D290:F293"/>
+    <mergeCell ref="G284:I284"/>
+    <mergeCell ref="J284:K284"/>
+    <mergeCell ref="L284:M284"/>
+    <mergeCell ref="N284:O284"/>
+    <mergeCell ref="G285:I285"/>
+    <mergeCell ref="J285:K285"/>
+    <mergeCell ref="L285:M285"/>
+    <mergeCell ref="N285:O285"/>
+    <mergeCell ref="G286:I286"/>
+    <mergeCell ref="J286:K286"/>
+    <mergeCell ref="L286:M286"/>
+    <mergeCell ref="N286:O286"/>
+    <mergeCell ref="G287:I287"/>
+    <mergeCell ref="J287:K287"/>
+    <mergeCell ref="L287:M287"/>
+    <mergeCell ref="N287:O287"/>
+    <mergeCell ref="G288:I288"/>
+    <mergeCell ref="J288:K288"/>
+    <mergeCell ref="L288:M288"/>
+    <mergeCell ref="N288:O288"/>
+    <mergeCell ref="G292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="L292:M292"/>
+    <mergeCell ref="N292:O292"/>
+    <mergeCell ref="G293:I293"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="L293:M293"/>
+    <mergeCell ref="N293:O293"/>
+    <mergeCell ref="G289:I289"/>
+    <mergeCell ref="J289:K289"/>
+    <mergeCell ref="L289:M289"/>
+    <mergeCell ref="N289:O289"/>
+    <mergeCell ref="G290:I290"/>
+    <mergeCell ref="J290:K290"/>
+    <mergeCell ref="L290:M290"/>
+    <mergeCell ref="N290:O290"/>
+    <mergeCell ref="G291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="L291:M291"/>
+    <mergeCell ref="N291:O291"/>
+    <mergeCell ref="Q266:U267"/>
+    <mergeCell ref="Q269:U271"/>
+    <mergeCell ref="Q272:U274"/>
+    <mergeCell ref="Q275:U277"/>
+    <mergeCell ref="Q278:U280"/>
+    <mergeCell ref="Q281:U283"/>
+    <mergeCell ref="Q284:U286"/>
+    <mergeCell ref="Q287:U289"/>
+    <mergeCell ref="Q290:U291"/>
+    <mergeCell ref="L270:O270"/>
+    <mergeCell ref="L271:O271"/>
+    <mergeCell ref="L272:O272"/>
+    <mergeCell ref="L330:O330"/>
+    <mergeCell ref="L331:O331"/>
+    <mergeCell ref="L332:O332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="L333:O333"/>
+    <mergeCell ref="A334:C337"/>
+    <mergeCell ref="D334:F337"/>
+    <mergeCell ref="L334:O334"/>
+    <mergeCell ref="L335:O335"/>
+    <mergeCell ref="G337:O337"/>
+    <mergeCell ref="A338:C341"/>
+    <mergeCell ref="D338:F341"/>
+    <mergeCell ref="G338:I338"/>
+    <mergeCell ref="J338:K338"/>
+    <mergeCell ref="L338:M338"/>
+    <mergeCell ref="N338:O338"/>
+    <mergeCell ref="G339:I339"/>
+    <mergeCell ref="J339:K339"/>
+    <mergeCell ref="L339:M339"/>
+    <mergeCell ref="N339:O339"/>
+    <mergeCell ref="G340:I340"/>
+    <mergeCell ref="J340:K340"/>
+    <mergeCell ref="L340:M340"/>
+    <mergeCell ref="N340:O340"/>
+    <mergeCell ref="G341:I341"/>
+    <mergeCell ref="J341:K341"/>
+    <mergeCell ref="L341:M341"/>
+    <mergeCell ref="N341:O341"/>
+    <mergeCell ref="A342:C345"/>
+    <mergeCell ref="D342:F345"/>
+    <mergeCell ref="G342:I342"/>
+    <mergeCell ref="J342:K342"/>
+    <mergeCell ref="L342:M342"/>
+    <mergeCell ref="N342:O342"/>
+    <mergeCell ref="G343:I343"/>
+    <mergeCell ref="J343:K343"/>
+    <mergeCell ref="L343:M343"/>
+    <mergeCell ref="N343:O343"/>
+    <mergeCell ref="G344:I344"/>
+    <mergeCell ref="J344:K344"/>
+    <mergeCell ref="L344:M344"/>
+    <mergeCell ref="N344:O344"/>
+    <mergeCell ref="G345:I345"/>
+    <mergeCell ref="J345:K345"/>
+    <mergeCell ref="L345:M345"/>
+    <mergeCell ref="N345:O345"/>
+    <mergeCell ref="L382:O382"/>
+    <mergeCell ref="L383:O383"/>
+    <mergeCell ref="L384:O384"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="D385:F385"/>
+    <mergeCell ref="L385:O385"/>
+    <mergeCell ref="A386:C389"/>
+    <mergeCell ref="D386:F389"/>
+    <mergeCell ref="L386:O386"/>
+    <mergeCell ref="L387:O387"/>
+    <mergeCell ref="G389:O389"/>
+    <mergeCell ref="A390:C393"/>
+    <mergeCell ref="D390:F393"/>
+    <mergeCell ref="G390:I390"/>
+    <mergeCell ref="J390:K390"/>
+    <mergeCell ref="L390:M390"/>
+    <mergeCell ref="N390:O390"/>
+    <mergeCell ref="G391:I391"/>
+    <mergeCell ref="J391:K391"/>
+    <mergeCell ref="L391:M391"/>
+    <mergeCell ref="N391:O391"/>
+    <mergeCell ref="G392:I392"/>
+    <mergeCell ref="J392:K392"/>
+    <mergeCell ref="L392:M392"/>
+    <mergeCell ref="N392:O392"/>
+    <mergeCell ref="G393:I393"/>
+    <mergeCell ref="J393:K393"/>
+    <mergeCell ref="L393:M393"/>
+    <mergeCell ref="N393:O393"/>
+    <mergeCell ref="A394:C397"/>
+    <mergeCell ref="D394:F397"/>
+    <mergeCell ref="G394:I394"/>
+    <mergeCell ref="J394:K394"/>
+    <mergeCell ref="L394:M394"/>
+    <mergeCell ref="N394:O394"/>
+    <mergeCell ref="G395:I395"/>
+    <mergeCell ref="J395:K395"/>
+    <mergeCell ref="L395:M395"/>
+    <mergeCell ref="N395:O395"/>
+    <mergeCell ref="G396:I396"/>
+    <mergeCell ref="J396:K396"/>
+    <mergeCell ref="L396:M396"/>
+    <mergeCell ref="N396:O396"/>
+    <mergeCell ref="G397:I397"/>
+    <mergeCell ref="J397:K397"/>
+    <mergeCell ref="L397:M397"/>
+    <mergeCell ref="N397:O397"/>
+    <mergeCell ref="A400:D408"/>
+    <mergeCell ref="E401:O404"/>
+    <mergeCell ref="E405:O405"/>
+    <mergeCell ref="E406:O406"/>
+    <mergeCell ref="L408:O408"/>
+    <mergeCell ref="L409:O409"/>
+    <mergeCell ref="L410:O410"/>
+    <mergeCell ref="A411:C411"/>
+    <mergeCell ref="D411:F411"/>
+    <mergeCell ref="L411:O411"/>
+    <mergeCell ref="A412:C415"/>
+    <mergeCell ref="D412:F415"/>
+    <mergeCell ref="L412:O412"/>
+    <mergeCell ref="L413:O413"/>
+    <mergeCell ref="G415:O415"/>
+    <mergeCell ref="A416:C419"/>
+    <mergeCell ref="D416:F419"/>
+    <mergeCell ref="G416:I416"/>
+    <mergeCell ref="J416:K416"/>
+    <mergeCell ref="L416:M416"/>
+    <mergeCell ref="N416:O416"/>
+    <mergeCell ref="G417:I417"/>
+    <mergeCell ref="J417:K417"/>
+    <mergeCell ref="L417:M417"/>
+    <mergeCell ref="N417:O417"/>
+    <mergeCell ref="G418:I418"/>
+    <mergeCell ref="J418:K418"/>
+    <mergeCell ref="L418:M418"/>
+    <mergeCell ref="N418:O418"/>
+    <mergeCell ref="G419:I419"/>
+    <mergeCell ref="J419:K419"/>
+    <mergeCell ref="L419:M419"/>
+    <mergeCell ref="N419:O419"/>
+    <mergeCell ref="A420:C423"/>
+    <mergeCell ref="D420:F423"/>
+    <mergeCell ref="G420:I420"/>
+    <mergeCell ref="J420:K420"/>
+    <mergeCell ref="L420:M420"/>
+    <mergeCell ref="N420:O420"/>
+    <mergeCell ref="G421:I421"/>
+    <mergeCell ref="J421:K421"/>
+    <mergeCell ref="L421:M421"/>
+    <mergeCell ref="N421:O421"/>
+    <mergeCell ref="G422:I422"/>
+    <mergeCell ref="J422:K422"/>
+    <mergeCell ref="L422:M422"/>
+    <mergeCell ref="N422:O422"/>
+    <mergeCell ref="G423:I423"/>
+    <mergeCell ref="J423:K423"/>
+    <mergeCell ref="L423:M423"/>
+    <mergeCell ref="N423:O423"/>
+    <mergeCell ref="L460:O460"/>
+    <mergeCell ref="L461:O461"/>
+    <mergeCell ref="L462:O462"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="D463:F463"/>
+    <mergeCell ref="L463:O463"/>
+    <mergeCell ref="A464:C467"/>
+    <mergeCell ref="D464:F467"/>
+    <mergeCell ref="L464:O464"/>
+    <mergeCell ref="L465:O465"/>
+    <mergeCell ref="G467:O467"/>
+    <mergeCell ref="A468:C471"/>
+    <mergeCell ref="D468:F471"/>
+    <mergeCell ref="G468:I468"/>
+    <mergeCell ref="J468:K468"/>
+    <mergeCell ref="L468:M468"/>
+    <mergeCell ref="N468:O468"/>
+    <mergeCell ref="G469:I469"/>
+    <mergeCell ref="J469:K469"/>
+    <mergeCell ref="L469:M469"/>
+    <mergeCell ref="N469:O469"/>
+    <mergeCell ref="G470:I470"/>
+    <mergeCell ref="J470:K470"/>
+    <mergeCell ref="L470:M470"/>
+    <mergeCell ref="N470:O470"/>
+    <mergeCell ref="G471:I471"/>
+    <mergeCell ref="J471:K471"/>
+    <mergeCell ref="L471:M471"/>
+    <mergeCell ref="N471:O471"/>
+    <mergeCell ref="A472:C475"/>
+    <mergeCell ref="D472:F475"/>
+    <mergeCell ref="G472:I472"/>
+    <mergeCell ref="J472:K472"/>
+    <mergeCell ref="L472:M472"/>
+    <mergeCell ref="N472:O472"/>
+    <mergeCell ref="G473:I473"/>
+    <mergeCell ref="J473:K473"/>
+    <mergeCell ref="L473:M473"/>
+    <mergeCell ref="N473:O473"/>
+    <mergeCell ref="G474:I474"/>
+    <mergeCell ref="J474:K474"/>
+    <mergeCell ref="L474:M474"/>
+    <mergeCell ref="N474:O474"/>
+    <mergeCell ref="G475:I475"/>
+    <mergeCell ref="J475:K475"/>
+    <mergeCell ref="L475:M475"/>
+    <mergeCell ref="N475:O475"/>
+    <mergeCell ref="A515:C515"/>
+    <mergeCell ref="D515:F515"/>
+    <mergeCell ref="L515:O515"/>
+    <mergeCell ref="A516:C519"/>
+    <mergeCell ref="D516:F519"/>
+    <mergeCell ref="L516:O516"/>
+    <mergeCell ref="L517:O517"/>
+    <mergeCell ref="G519:O519"/>
+    <mergeCell ref="A520:C523"/>
+    <mergeCell ref="D520:F523"/>
+    <mergeCell ref="G520:I520"/>
+    <mergeCell ref="J520:K520"/>
+    <mergeCell ref="L520:M520"/>
+    <mergeCell ref="N520:O520"/>
+    <mergeCell ref="G521:I521"/>
+    <mergeCell ref="J521:K521"/>
+    <mergeCell ref="L521:M521"/>
+    <mergeCell ref="N521:O521"/>
+    <mergeCell ref="G522:I522"/>
+    <mergeCell ref="J522:K522"/>
+    <mergeCell ref="L522:M522"/>
+    <mergeCell ref="N522:O522"/>
+    <mergeCell ref="G523:I523"/>
+    <mergeCell ref="J523:K523"/>
+    <mergeCell ref="L523:M523"/>
+    <mergeCell ref="N523:O523"/>
+    <mergeCell ref="A524:C527"/>
+    <mergeCell ref="D524:F527"/>
+    <mergeCell ref="G524:I524"/>
+    <mergeCell ref="J524:K524"/>
+    <mergeCell ref="L524:M524"/>
+    <mergeCell ref="N524:O524"/>
+    <mergeCell ref="G525:I525"/>
+    <mergeCell ref="J525:K525"/>
+    <mergeCell ref="L525:M525"/>
+    <mergeCell ref="N525:O525"/>
+    <mergeCell ref="G526:I526"/>
+    <mergeCell ref="J526:K526"/>
+    <mergeCell ref="L526:M526"/>
+    <mergeCell ref="N526:O526"/>
+    <mergeCell ref="G527:I527"/>
+    <mergeCell ref="J527:K527"/>
+    <mergeCell ref="L527:M527"/>
+    <mergeCell ref="N527:O527"/>
+    <mergeCell ref="A530:D538"/>
+    <mergeCell ref="E531:O534"/>
+    <mergeCell ref="E535:O535"/>
+    <mergeCell ref="E536:O536"/>
+    <mergeCell ref="L538:O538"/>
+    <mergeCell ref="L539:O539"/>
+    <mergeCell ref="L540:O540"/>
+    <mergeCell ref="A541:C541"/>
+    <mergeCell ref="D541:F541"/>
+    <mergeCell ref="A556:D564"/>
+    <mergeCell ref="E557:O560"/>
+    <mergeCell ref="E561:O561"/>
+    <mergeCell ref="E562:O562"/>
+    <mergeCell ref="L564:O564"/>
+    <mergeCell ref="L565:O565"/>
+    <mergeCell ref="L566:O566"/>
+    <mergeCell ref="A567:C567"/>
+    <mergeCell ref="D567:F567"/>
+    <mergeCell ref="L567:O567"/>
+    <mergeCell ref="D546:F549"/>
+    <mergeCell ref="G550:I550"/>
+    <mergeCell ref="J550:K550"/>
+    <mergeCell ref="L550:M550"/>
+    <mergeCell ref="N550:O550"/>
+    <mergeCell ref="G551:I551"/>
+    <mergeCell ref="J551:K551"/>
+    <mergeCell ref="L548:M548"/>
+    <mergeCell ref="N548:O548"/>
+    <mergeCell ref="G549:I549"/>
+    <mergeCell ref="J549:K549"/>
+    <mergeCell ref="L549:M549"/>
+    <mergeCell ref="N549:O549"/>
+    <mergeCell ref="A568:C571"/>
+    <mergeCell ref="D568:F571"/>
+    <mergeCell ref="L568:O568"/>
+    <mergeCell ref="L569:O569"/>
+    <mergeCell ref="G575:O575"/>
+    <mergeCell ref="A572:C575"/>
+    <mergeCell ref="D572:F575"/>
+    <mergeCell ref="A580:C583"/>
+    <mergeCell ref="D580:F583"/>
+    <mergeCell ref="N579:O579"/>
+    <mergeCell ref="A576:C579"/>
+    <mergeCell ref="D576:F579"/>
+    <mergeCell ref="G580:I580"/>
+    <mergeCell ref="J580:K580"/>
+    <mergeCell ref="L580:M580"/>
+    <mergeCell ref="N580:O580"/>
+    <mergeCell ref="G581:I581"/>
+    <mergeCell ref="J581:K581"/>
+    <mergeCell ref="L581:M581"/>
+    <mergeCell ref="N581:O581"/>
+    <mergeCell ref="G582:I582"/>
+    <mergeCell ref="J582:K582"/>
+    <mergeCell ref="L582:M582"/>
+    <mergeCell ref="N582:O582"/>
+    <mergeCell ref="G583:I583"/>
+    <mergeCell ref="J583:K583"/>
+    <mergeCell ref="L583:M583"/>
+    <mergeCell ref="N583:O583"/>
+    <mergeCell ref="G576:I576"/>
+    <mergeCell ref="J576:K576"/>
+    <mergeCell ref="L576:M576"/>
+    <mergeCell ref="N576:O576"/>
+    <mergeCell ref="A692:D700"/>
+    <mergeCell ref="E693:O696"/>
+    <mergeCell ref="E697:O697"/>
+    <mergeCell ref="E698:O698"/>
+    <mergeCell ref="L700:O700"/>
+    <mergeCell ref="L701:O701"/>
+    <mergeCell ref="L702:O702"/>
+    <mergeCell ref="A703:C703"/>
+    <mergeCell ref="D703:F703"/>
+    <mergeCell ref="L703:O703"/>
+    <mergeCell ref="A704:C707"/>
+    <mergeCell ref="D704:F707"/>
+    <mergeCell ref="L704:O704"/>
+    <mergeCell ref="L705:O705"/>
+    <mergeCell ref="G707:O707"/>
+    <mergeCell ref="A708:C711"/>
+    <mergeCell ref="D708:F711"/>
+    <mergeCell ref="G708:I708"/>
+    <mergeCell ref="J708:K708"/>
+    <mergeCell ref="L708:M708"/>
+    <mergeCell ref="N708:O708"/>
+    <mergeCell ref="G709:I709"/>
+    <mergeCell ref="J709:K709"/>
+    <mergeCell ref="L709:M709"/>
+    <mergeCell ref="N709:O709"/>
+    <mergeCell ref="G710:I710"/>
+    <mergeCell ref="J710:K710"/>
+    <mergeCell ref="L710:M710"/>
+    <mergeCell ref="N710:O710"/>
+    <mergeCell ref="G711:I711"/>
+    <mergeCell ref="J711:K711"/>
+    <mergeCell ref="L711:M711"/>
+    <mergeCell ref="N711:O711"/>
+    <mergeCell ref="A712:C715"/>
+    <mergeCell ref="D712:F715"/>
+    <mergeCell ref="G712:I712"/>
+    <mergeCell ref="J712:K712"/>
+    <mergeCell ref="L712:M712"/>
+    <mergeCell ref="N712:O712"/>
+    <mergeCell ref="G713:I713"/>
+    <mergeCell ref="J713:K713"/>
+    <mergeCell ref="L713:M713"/>
+    <mergeCell ref="N713:O713"/>
+    <mergeCell ref="G714:I714"/>
+    <mergeCell ref="J714:K714"/>
+    <mergeCell ref="L714:M714"/>
+    <mergeCell ref="N714:O714"/>
+    <mergeCell ref="G715:I715"/>
+    <mergeCell ref="J715:K715"/>
+    <mergeCell ref="L715:M715"/>
+    <mergeCell ref="N715:O715"/>
     <mergeCell ref="A720:D728"/>
     <mergeCell ref="E721:O724"/>
     <mergeCell ref="E725:O725"/>
@@ -20039,1481 +22177,25 @@
     <mergeCell ref="G739:I739"/>
     <mergeCell ref="J739:K739"/>
     <mergeCell ref="L739:M739"/>
-    <mergeCell ref="N711:O711"/>
-    <mergeCell ref="A712:C715"/>
-    <mergeCell ref="D712:F715"/>
-    <mergeCell ref="G712:I712"/>
-    <mergeCell ref="J712:K712"/>
-    <mergeCell ref="L712:M712"/>
-    <mergeCell ref="N712:O712"/>
-    <mergeCell ref="G713:I713"/>
-    <mergeCell ref="J713:K713"/>
-    <mergeCell ref="L713:M713"/>
-    <mergeCell ref="N713:O713"/>
-    <mergeCell ref="G714:I714"/>
-    <mergeCell ref="J714:K714"/>
-    <mergeCell ref="L714:M714"/>
-    <mergeCell ref="N714:O714"/>
-    <mergeCell ref="G715:I715"/>
-    <mergeCell ref="J715:K715"/>
-    <mergeCell ref="L715:M715"/>
-    <mergeCell ref="N715:O715"/>
-    <mergeCell ref="A692:D700"/>
-    <mergeCell ref="E693:O696"/>
-    <mergeCell ref="E697:O697"/>
-    <mergeCell ref="E698:O698"/>
-    <mergeCell ref="L700:O700"/>
-    <mergeCell ref="L701:O701"/>
-    <mergeCell ref="L702:O702"/>
-    <mergeCell ref="A703:C703"/>
-    <mergeCell ref="D703:F703"/>
-    <mergeCell ref="L703:O703"/>
-    <mergeCell ref="A704:C707"/>
-    <mergeCell ref="D704:F707"/>
-    <mergeCell ref="L704:O704"/>
-    <mergeCell ref="L705:O705"/>
-    <mergeCell ref="G707:O707"/>
-    <mergeCell ref="A708:C711"/>
-    <mergeCell ref="D708:F711"/>
-    <mergeCell ref="G708:I708"/>
-    <mergeCell ref="J708:K708"/>
-    <mergeCell ref="L708:M708"/>
-    <mergeCell ref="N708:O708"/>
-    <mergeCell ref="G709:I709"/>
-    <mergeCell ref="J709:K709"/>
-    <mergeCell ref="L709:M709"/>
-    <mergeCell ref="N709:O709"/>
-    <mergeCell ref="G710:I710"/>
-    <mergeCell ref="J710:K710"/>
-    <mergeCell ref="L710:M710"/>
-    <mergeCell ref="N710:O710"/>
-    <mergeCell ref="G711:I711"/>
-    <mergeCell ref="J711:K711"/>
-    <mergeCell ref="L711:M711"/>
-    <mergeCell ref="A568:C571"/>
-    <mergeCell ref="D568:F571"/>
-    <mergeCell ref="L568:O568"/>
-    <mergeCell ref="L569:O569"/>
-    <mergeCell ref="G575:O575"/>
-    <mergeCell ref="A572:C575"/>
-    <mergeCell ref="D572:F575"/>
-    <mergeCell ref="A580:C583"/>
-    <mergeCell ref="D580:F583"/>
-    <mergeCell ref="N579:O579"/>
-    <mergeCell ref="A576:C579"/>
-    <mergeCell ref="D576:F579"/>
-    <mergeCell ref="G580:I580"/>
-    <mergeCell ref="J580:K580"/>
-    <mergeCell ref="L580:M580"/>
-    <mergeCell ref="N580:O580"/>
-    <mergeCell ref="G581:I581"/>
-    <mergeCell ref="J581:K581"/>
-    <mergeCell ref="L581:M581"/>
-    <mergeCell ref="N581:O581"/>
-    <mergeCell ref="G582:I582"/>
-    <mergeCell ref="J582:K582"/>
-    <mergeCell ref="L582:M582"/>
-    <mergeCell ref="N582:O582"/>
-    <mergeCell ref="G583:I583"/>
-    <mergeCell ref="J583:K583"/>
-    <mergeCell ref="L583:M583"/>
-    <mergeCell ref="N583:O583"/>
-    <mergeCell ref="G576:I576"/>
-    <mergeCell ref="J576:K576"/>
-    <mergeCell ref="L576:M576"/>
-    <mergeCell ref="N576:O576"/>
-    <mergeCell ref="A530:D538"/>
-    <mergeCell ref="E531:O534"/>
-    <mergeCell ref="E535:O535"/>
-    <mergeCell ref="E536:O536"/>
-    <mergeCell ref="L538:O538"/>
-    <mergeCell ref="L539:O539"/>
-    <mergeCell ref="L540:O540"/>
-    <mergeCell ref="A541:C541"/>
-    <mergeCell ref="D541:F541"/>
-    <mergeCell ref="A556:D564"/>
-    <mergeCell ref="E557:O560"/>
-    <mergeCell ref="E561:O561"/>
-    <mergeCell ref="E562:O562"/>
-    <mergeCell ref="L564:O564"/>
-    <mergeCell ref="L565:O565"/>
-    <mergeCell ref="L566:O566"/>
-    <mergeCell ref="A567:C567"/>
-    <mergeCell ref="D567:F567"/>
-    <mergeCell ref="L567:O567"/>
-    <mergeCell ref="D546:F549"/>
-    <mergeCell ref="G550:I550"/>
-    <mergeCell ref="J550:K550"/>
-    <mergeCell ref="L550:M550"/>
-    <mergeCell ref="N550:O550"/>
-    <mergeCell ref="G551:I551"/>
-    <mergeCell ref="J551:K551"/>
-    <mergeCell ref="L548:M548"/>
-    <mergeCell ref="N548:O548"/>
-    <mergeCell ref="G549:I549"/>
-    <mergeCell ref="J549:K549"/>
-    <mergeCell ref="L549:M549"/>
-    <mergeCell ref="N549:O549"/>
-    <mergeCell ref="A524:C527"/>
-    <mergeCell ref="D524:F527"/>
-    <mergeCell ref="G524:I524"/>
-    <mergeCell ref="J524:K524"/>
-    <mergeCell ref="L524:M524"/>
-    <mergeCell ref="N524:O524"/>
-    <mergeCell ref="G525:I525"/>
-    <mergeCell ref="J525:K525"/>
-    <mergeCell ref="L525:M525"/>
-    <mergeCell ref="N525:O525"/>
-    <mergeCell ref="G526:I526"/>
-    <mergeCell ref="J526:K526"/>
-    <mergeCell ref="L526:M526"/>
-    <mergeCell ref="N526:O526"/>
-    <mergeCell ref="G527:I527"/>
-    <mergeCell ref="J527:K527"/>
-    <mergeCell ref="L527:M527"/>
-    <mergeCell ref="N527:O527"/>
-    <mergeCell ref="A515:C515"/>
-    <mergeCell ref="D515:F515"/>
-    <mergeCell ref="L515:O515"/>
-    <mergeCell ref="A516:C519"/>
-    <mergeCell ref="D516:F519"/>
-    <mergeCell ref="L516:O516"/>
-    <mergeCell ref="L517:O517"/>
-    <mergeCell ref="G519:O519"/>
-    <mergeCell ref="A520:C523"/>
-    <mergeCell ref="D520:F523"/>
-    <mergeCell ref="G520:I520"/>
-    <mergeCell ref="J520:K520"/>
-    <mergeCell ref="L520:M520"/>
-    <mergeCell ref="N520:O520"/>
-    <mergeCell ref="G521:I521"/>
-    <mergeCell ref="J521:K521"/>
-    <mergeCell ref="L521:M521"/>
-    <mergeCell ref="N521:O521"/>
-    <mergeCell ref="G522:I522"/>
-    <mergeCell ref="J522:K522"/>
-    <mergeCell ref="L522:M522"/>
-    <mergeCell ref="N522:O522"/>
-    <mergeCell ref="G523:I523"/>
-    <mergeCell ref="J523:K523"/>
-    <mergeCell ref="L523:M523"/>
-    <mergeCell ref="N523:O523"/>
-    <mergeCell ref="A472:C475"/>
-    <mergeCell ref="D472:F475"/>
-    <mergeCell ref="G472:I472"/>
-    <mergeCell ref="J472:K472"/>
-    <mergeCell ref="L472:M472"/>
-    <mergeCell ref="N472:O472"/>
-    <mergeCell ref="G473:I473"/>
-    <mergeCell ref="J473:K473"/>
-    <mergeCell ref="L473:M473"/>
-    <mergeCell ref="N473:O473"/>
-    <mergeCell ref="G474:I474"/>
-    <mergeCell ref="J474:K474"/>
-    <mergeCell ref="L474:M474"/>
-    <mergeCell ref="N474:O474"/>
-    <mergeCell ref="G475:I475"/>
-    <mergeCell ref="J475:K475"/>
-    <mergeCell ref="L475:M475"/>
-    <mergeCell ref="N475:O475"/>
-    <mergeCell ref="L460:O460"/>
-    <mergeCell ref="L461:O461"/>
-    <mergeCell ref="L462:O462"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="D463:F463"/>
-    <mergeCell ref="L463:O463"/>
-    <mergeCell ref="A464:C467"/>
-    <mergeCell ref="D464:F467"/>
-    <mergeCell ref="L464:O464"/>
-    <mergeCell ref="L465:O465"/>
-    <mergeCell ref="G467:O467"/>
-    <mergeCell ref="A468:C471"/>
-    <mergeCell ref="D468:F471"/>
-    <mergeCell ref="G468:I468"/>
-    <mergeCell ref="J468:K468"/>
-    <mergeCell ref="L468:M468"/>
-    <mergeCell ref="N468:O468"/>
-    <mergeCell ref="G469:I469"/>
-    <mergeCell ref="J469:K469"/>
-    <mergeCell ref="L469:M469"/>
-    <mergeCell ref="N469:O469"/>
-    <mergeCell ref="G470:I470"/>
-    <mergeCell ref="J470:K470"/>
-    <mergeCell ref="L470:M470"/>
-    <mergeCell ref="N470:O470"/>
-    <mergeCell ref="G471:I471"/>
-    <mergeCell ref="J471:K471"/>
-    <mergeCell ref="L471:M471"/>
-    <mergeCell ref="N471:O471"/>
-    <mergeCell ref="N419:O419"/>
-    <mergeCell ref="A420:C423"/>
-    <mergeCell ref="D420:F423"/>
-    <mergeCell ref="G420:I420"/>
-    <mergeCell ref="J420:K420"/>
-    <mergeCell ref="L420:M420"/>
-    <mergeCell ref="N420:O420"/>
-    <mergeCell ref="G421:I421"/>
-    <mergeCell ref="J421:K421"/>
-    <mergeCell ref="L421:M421"/>
-    <mergeCell ref="N421:O421"/>
-    <mergeCell ref="G422:I422"/>
-    <mergeCell ref="J422:K422"/>
-    <mergeCell ref="L422:M422"/>
-    <mergeCell ref="N422:O422"/>
-    <mergeCell ref="G423:I423"/>
-    <mergeCell ref="J423:K423"/>
-    <mergeCell ref="L423:M423"/>
-    <mergeCell ref="N423:O423"/>
-    <mergeCell ref="A400:D408"/>
-    <mergeCell ref="E401:O404"/>
-    <mergeCell ref="E405:O405"/>
-    <mergeCell ref="E406:O406"/>
-    <mergeCell ref="L408:O408"/>
-    <mergeCell ref="L409:O409"/>
-    <mergeCell ref="L410:O410"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="D411:F411"/>
-    <mergeCell ref="L411:O411"/>
-    <mergeCell ref="A412:C415"/>
-    <mergeCell ref="D412:F415"/>
-    <mergeCell ref="L412:O412"/>
-    <mergeCell ref="L413:O413"/>
-    <mergeCell ref="G415:O415"/>
-    <mergeCell ref="A416:C419"/>
-    <mergeCell ref="D416:F419"/>
-    <mergeCell ref="G416:I416"/>
-    <mergeCell ref="J416:K416"/>
-    <mergeCell ref="L416:M416"/>
-    <mergeCell ref="N416:O416"/>
-    <mergeCell ref="G417:I417"/>
-    <mergeCell ref="J417:K417"/>
-    <mergeCell ref="L417:M417"/>
-    <mergeCell ref="N417:O417"/>
-    <mergeCell ref="G418:I418"/>
-    <mergeCell ref="J418:K418"/>
-    <mergeCell ref="L418:M418"/>
-    <mergeCell ref="N418:O418"/>
-    <mergeCell ref="G419:I419"/>
-    <mergeCell ref="J419:K419"/>
-    <mergeCell ref="L419:M419"/>
-    <mergeCell ref="A394:C397"/>
-    <mergeCell ref="D394:F397"/>
-    <mergeCell ref="G394:I394"/>
-    <mergeCell ref="J394:K394"/>
-    <mergeCell ref="L394:M394"/>
-    <mergeCell ref="N394:O394"/>
-    <mergeCell ref="G395:I395"/>
-    <mergeCell ref="J395:K395"/>
-    <mergeCell ref="L395:M395"/>
-    <mergeCell ref="N395:O395"/>
-    <mergeCell ref="G396:I396"/>
-    <mergeCell ref="J396:K396"/>
-    <mergeCell ref="L396:M396"/>
-    <mergeCell ref="N396:O396"/>
-    <mergeCell ref="G397:I397"/>
-    <mergeCell ref="J397:K397"/>
-    <mergeCell ref="L397:M397"/>
-    <mergeCell ref="N397:O397"/>
-    <mergeCell ref="L382:O382"/>
-    <mergeCell ref="L383:O383"/>
-    <mergeCell ref="L384:O384"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="D385:F385"/>
-    <mergeCell ref="L385:O385"/>
-    <mergeCell ref="A386:C389"/>
-    <mergeCell ref="D386:F389"/>
-    <mergeCell ref="L386:O386"/>
-    <mergeCell ref="L387:O387"/>
-    <mergeCell ref="G389:O389"/>
-    <mergeCell ref="A390:C393"/>
-    <mergeCell ref="D390:F393"/>
-    <mergeCell ref="G390:I390"/>
-    <mergeCell ref="J390:K390"/>
-    <mergeCell ref="L390:M390"/>
-    <mergeCell ref="N390:O390"/>
-    <mergeCell ref="G391:I391"/>
-    <mergeCell ref="J391:K391"/>
-    <mergeCell ref="L391:M391"/>
-    <mergeCell ref="N391:O391"/>
-    <mergeCell ref="G392:I392"/>
-    <mergeCell ref="J392:K392"/>
-    <mergeCell ref="L392:M392"/>
-    <mergeCell ref="N392:O392"/>
-    <mergeCell ref="G393:I393"/>
-    <mergeCell ref="J393:K393"/>
-    <mergeCell ref="L393:M393"/>
-    <mergeCell ref="N393:O393"/>
-    <mergeCell ref="A342:C345"/>
-    <mergeCell ref="D342:F345"/>
-    <mergeCell ref="G342:I342"/>
-    <mergeCell ref="J342:K342"/>
-    <mergeCell ref="L342:M342"/>
-    <mergeCell ref="N342:O342"/>
-    <mergeCell ref="G343:I343"/>
-    <mergeCell ref="J343:K343"/>
-    <mergeCell ref="L343:M343"/>
-    <mergeCell ref="N343:O343"/>
-    <mergeCell ref="G344:I344"/>
-    <mergeCell ref="J344:K344"/>
-    <mergeCell ref="L344:M344"/>
-    <mergeCell ref="N344:O344"/>
-    <mergeCell ref="G345:I345"/>
-    <mergeCell ref="J345:K345"/>
-    <mergeCell ref="L345:M345"/>
-    <mergeCell ref="N345:O345"/>
-    <mergeCell ref="L330:O330"/>
-    <mergeCell ref="L331:O331"/>
-    <mergeCell ref="L332:O332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="L333:O333"/>
-    <mergeCell ref="A334:C337"/>
-    <mergeCell ref="D334:F337"/>
-    <mergeCell ref="L334:O334"/>
-    <mergeCell ref="L335:O335"/>
-    <mergeCell ref="G337:O337"/>
-    <mergeCell ref="A338:C341"/>
-    <mergeCell ref="D338:F341"/>
-    <mergeCell ref="G338:I338"/>
-    <mergeCell ref="J338:K338"/>
-    <mergeCell ref="L338:M338"/>
-    <mergeCell ref="N338:O338"/>
-    <mergeCell ref="G339:I339"/>
-    <mergeCell ref="J339:K339"/>
-    <mergeCell ref="L339:M339"/>
-    <mergeCell ref="N339:O339"/>
-    <mergeCell ref="G340:I340"/>
-    <mergeCell ref="J340:K340"/>
-    <mergeCell ref="L340:M340"/>
-    <mergeCell ref="N340:O340"/>
-    <mergeCell ref="G341:I341"/>
-    <mergeCell ref="J341:K341"/>
-    <mergeCell ref="L341:M341"/>
-    <mergeCell ref="N341:O341"/>
-    <mergeCell ref="G289:I289"/>
-    <mergeCell ref="J289:K289"/>
-    <mergeCell ref="L289:M289"/>
-    <mergeCell ref="N289:O289"/>
-    <mergeCell ref="G290:I290"/>
-    <mergeCell ref="J290:K290"/>
-    <mergeCell ref="L290:M290"/>
-    <mergeCell ref="N290:O290"/>
-    <mergeCell ref="G291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="L291:M291"/>
-    <mergeCell ref="N291:O291"/>
-    <mergeCell ref="Q266:U267"/>
-    <mergeCell ref="Q269:U271"/>
-    <mergeCell ref="Q272:U274"/>
-    <mergeCell ref="Q275:U277"/>
-    <mergeCell ref="Q278:U280"/>
-    <mergeCell ref="Q281:U283"/>
-    <mergeCell ref="Q284:U286"/>
-    <mergeCell ref="Q287:U289"/>
-    <mergeCell ref="Q290:U291"/>
-    <mergeCell ref="L270:O270"/>
-    <mergeCell ref="L271:O271"/>
-    <mergeCell ref="L272:O272"/>
-    <mergeCell ref="A286:C289"/>
-    <mergeCell ref="D286:F289"/>
-    <mergeCell ref="A290:C293"/>
-    <mergeCell ref="D290:F293"/>
-    <mergeCell ref="G284:I284"/>
-    <mergeCell ref="J284:K284"/>
-    <mergeCell ref="L284:M284"/>
-    <mergeCell ref="N284:O284"/>
-    <mergeCell ref="G285:I285"/>
-    <mergeCell ref="J285:K285"/>
-    <mergeCell ref="L285:M285"/>
-    <mergeCell ref="N285:O285"/>
-    <mergeCell ref="G286:I286"/>
-    <mergeCell ref="J286:K286"/>
-    <mergeCell ref="L286:M286"/>
-    <mergeCell ref="N286:O286"/>
-    <mergeCell ref="G287:I287"/>
-    <mergeCell ref="J287:K287"/>
-    <mergeCell ref="L287:M287"/>
-    <mergeCell ref="N287:O287"/>
-    <mergeCell ref="G288:I288"/>
-    <mergeCell ref="J288:K288"/>
-    <mergeCell ref="L288:M288"/>
-    <mergeCell ref="N288:O288"/>
-    <mergeCell ref="G292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="L292:M292"/>
-    <mergeCell ref="N292:O292"/>
-    <mergeCell ref="G293:I293"/>
-    <mergeCell ref="J293:K293"/>
-    <mergeCell ref="L293:M293"/>
-    <mergeCell ref="N293:O293"/>
-    <mergeCell ref="A282:C285"/>
-    <mergeCell ref="D282:F285"/>
-    <mergeCell ref="G280:I280"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="L280:M280"/>
-    <mergeCell ref="N281:O281"/>
-    <mergeCell ref="G281:I281"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="L281:M281"/>
-    <mergeCell ref="N282:O282"/>
-    <mergeCell ref="G282:I282"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="L282:M282"/>
-    <mergeCell ref="G283:I283"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="L283:M283"/>
-    <mergeCell ref="N283:O283"/>
-    <mergeCell ref="N280:O280"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="D273:F273"/>
-    <mergeCell ref="L273:O273"/>
-    <mergeCell ref="A274:C277"/>
-    <mergeCell ref="D274:F277"/>
-    <mergeCell ref="L274:O274"/>
-    <mergeCell ref="L275:O275"/>
-    <mergeCell ref="G277:O277"/>
-    <mergeCell ref="A278:C281"/>
-    <mergeCell ref="D278:F281"/>
-    <mergeCell ref="G278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="L278:M278"/>
-    <mergeCell ref="N278:O278"/>
-    <mergeCell ref="G279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="L279:M279"/>
-    <mergeCell ref="N279:O279"/>
-    <mergeCell ref="G232:I232"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="L232:M232"/>
-    <mergeCell ref="N232:O232"/>
-    <mergeCell ref="G233:I233"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="L233:M233"/>
-    <mergeCell ref="N233:O233"/>
-    <mergeCell ref="A230:C233"/>
-    <mergeCell ref="D230:F233"/>
-    <mergeCell ref="G230:I230"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="L230:M230"/>
-    <mergeCell ref="N230:O230"/>
-    <mergeCell ref="G231:I231"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="L231:M231"/>
-    <mergeCell ref="N231:O231"/>
-    <mergeCell ref="L220:O220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="L221:O221"/>
-    <mergeCell ref="A222:C225"/>
-    <mergeCell ref="D222:F225"/>
-    <mergeCell ref="L222:O222"/>
-    <mergeCell ref="L223:O223"/>
-    <mergeCell ref="G225:O225"/>
-    <mergeCell ref="G228:I228"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="L228:M228"/>
-    <mergeCell ref="N228:O228"/>
-    <mergeCell ref="G229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="L229:M229"/>
-    <mergeCell ref="N229:O229"/>
-    <mergeCell ref="A226:C229"/>
-    <mergeCell ref="D226:F229"/>
-    <mergeCell ref="G226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="L226:M226"/>
-    <mergeCell ref="N226:O226"/>
-    <mergeCell ref="G227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="L227:M227"/>
-    <mergeCell ref="N227:O227"/>
-    <mergeCell ref="A210:D218"/>
-    <mergeCell ref="E211:O214"/>
-    <mergeCell ref="E215:O215"/>
-    <mergeCell ref="E216:O216"/>
-    <mergeCell ref="L218:O218"/>
-    <mergeCell ref="L219:O219"/>
-    <mergeCell ref="G206:I206"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="N206:O206"/>
-    <mergeCell ref="G207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="A204:C207"/>
-    <mergeCell ref="D204:F207"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="L204:M204"/>
-    <mergeCell ref="N204:O204"/>
-    <mergeCell ref="G205:I205"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="L205:M205"/>
-    <mergeCell ref="N205:O205"/>
-    <mergeCell ref="L194:O194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="L195:O195"/>
-    <mergeCell ref="A196:C199"/>
-    <mergeCell ref="D196:F199"/>
-    <mergeCell ref="L196:O196"/>
-    <mergeCell ref="L197:O197"/>
-    <mergeCell ref="G199:O199"/>
-    <mergeCell ref="G202:I202"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="L202:M202"/>
-    <mergeCell ref="N202:O202"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="L203:M203"/>
-    <mergeCell ref="N203:O203"/>
-    <mergeCell ref="A200:C203"/>
-    <mergeCell ref="D200:F203"/>
-    <mergeCell ref="G200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="L200:M200"/>
-    <mergeCell ref="N200:O200"/>
-    <mergeCell ref="G201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="L201:M201"/>
-    <mergeCell ref="N201:O201"/>
-    <mergeCell ref="A184:D192"/>
-    <mergeCell ref="E185:O188"/>
-    <mergeCell ref="E189:O189"/>
-    <mergeCell ref="E190:O190"/>
-    <mergeCell ref="L192:O192"/>
-    <mergeCell ref="L193:O193"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="G180:I180"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="L180:M180"/>
-    <mergeCell ref="N180:O180"/>
-    <mergeCell ref="A177:C180"/>
-    <mergeCell ref="D177:F180"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="L177:M177"/>
-    <mergeCell ref="N177:O177"/>
-    <mergeCell ref="G178:I178"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="L178:M178"/>
-    <mergeCell ref="N178:O178"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="A169:C172"/>
-    <mergeCell ref="D169:F172"/>
-    <mergeCell ref="L169:O169"/>
-    <mergeCell ref="L170:O170"/>
-    <mergeCell ref="G172:O172"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="L175:M175"/>
-    <mergeCell ref="N175:O175"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="L176:M176"/>
-    <mergeCell ref="N176:O176"/>
-    <mergeCell ref="A173:C176"/>
-    <mergeCell ref="D173:F176"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="L173:M173"/>
-    <mergeCell ref="N173:O173"/>
-    <mergeCell ref="G174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="L174:M174"/>
-    <mergeCell ref="N174:O174"/>
-    <mergeCell ref="A157:D165"/>
-    <mergeCell ref="E158:O161"/>
-    <mergeCell ref="E162:O162"/>
-    <mergeCell ref="E163:O163"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="L166:O166"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="A151:C154"/>
-    <mergeCell ref="D151:F154"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="L142:O142"/>
-    <mergeCell ref="A143:C146"/>
-    <mergeCell ref="D143:F146"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="G146:O146"/>
-    <mergeCell ref="G149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="G150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="A147:C150"/>
-    <mergeCell ref="D147:F150"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="L147:M147"/>
-    <mergeCell ref="N147:O147"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="L148:M148"/>
-    <mergeCell ref="N148:O148"/>
-    <mergeCell ref="A131:D139"/>
-    <mergeCell ref="E132:O135"/>
-    <mergeCell ref="E136:O136"/>
-    <mergeCell ref="E137:O137"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="L128:M128"/>
-    <mergeCell ref="N128:O128"/>
-    <mergeCell ref="A125:C128"/>
-    <mergeCell ref="D125:F128"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="L125:M125"/>
-    <mergeCell ref="N125:O125"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="L126:M126"/>
-    <mergeCell ref="N126:O126"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="A117:C120"/>
-    <mergeCell ref="D117:F120"/>
-    <mergeCell ref="L117:O117"/>
-    <mergeCell ref="L118:O118"/>
-    <mergeCell ref="G120:O120"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:M124"/>
-    <mergeCell ref="N124:O124"/>
-    <mergeCell ref="A121:C124"/>
-    <mergeCell ref="D121:F124"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="L121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="L122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="A105:D113"/>
-    <mergeCell ref="E106:O109"/>
-    <mergeCell ref="E110:O110"/>
-    <mergeCell ref="E111:O111"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="A99:C102"/>
-    <mergeCell ref="D99:F102"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="L89:O89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="A91:C94"/>
-    <mergeCell ref="D91:F94"/>
-    <mergeCell ref="L91:O91"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="G94:O94"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="A95:C98"/>
-    <mergeCell ref="D95:F98"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="A79:D87"/>
-    <mergeCell ref="E80:O83"/>
-    <mergeCell ref="E84:O84"/>
-    <mergeCell ref="E85:O85"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="A73:C76"/>
-    <mergeCell ref="D73:F76"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="A65:C68"/>
-    <mergeCell ref="D65:F68"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="G68:O68"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="A69:C72"/>
-    <mergeCell ref="D69:F72"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="A53:D61"/>
-    <mergeCell ref="E54:O57"/>
-    <mergeCell ref="E58:O58"/>
-    <mergeCell ref="E59:O59"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="A47:C50"/>
-    <mergeCell ref="D47:F50"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D21:F24"/>
-    <mergeCell ref="A43:C46"/>
-    <mergeCell ref="D43:F46"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="A39:C42"/>
-    <mergeCell ref="D39:F42"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="G42:O42"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A27:D35"/>
-    <mergeCell ref="E28:O31"/>
-    <mergeCell ref="E32:O32"/>
-    <mergeCell ref="E33:O33"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A236:D244"/>
-    <mergeCell ref="E237:O240"/>
-    <mergeCell ref="E241:O241"/>
-    <mergeCell ref="E242:O242"/>
-    <mergeCell ref="L244:O244"/>
-    <mergeCell ref="L245:O245"/>
-    <mergeCell ref="L246:O246"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="D247:F247"/>
-    <mergeCell ref="L247:O247"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="E6:O6"/>
-    <mergeCell ref="E7:O7"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="A1:D9"/>
-    <mergeCell ref="E2:O5"/>
-    <mergeCell ref="A13:C16"/>
-    <mergeCell ref="A17:C20"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="D17:F20"/>
-    <mergeCell ref="A21:C24"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A248:C251"/>
-    <mergeCell ref="D248:F251"/>
-    <mergeCell ref="L248:O248"/>
-    <mergeCell ref="L249:O249"/>
-    <mergeCell ref="G251:O251"/>
-    <mergeCell ref="A252:C255"/>
-    <mergeCell ref="D252:F255"/>
-    <mergeCell ref="G252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="L252:M252"/>
-    <mergeCell ref="N252:O252"/>
-    <mergeCell ref="G253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="L253:M253"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="G254:I254"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="L254:M254"/>
-    <mergeCell ref="N254:O254"/>
-    <mergeCell ref="G255:I255"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="L255:M255"/>
-    <mergeCell ref="N255:O255"/>
-    <mergeCell ref="A296:D304"/>
-    <mergeCell ref="E297:O300"/>
-    <mergeCell ref="E301:O301"/>
-    <mergeCell ref="E302:O302"/>
-    <mergeCell ref="L304:O304"/>
-    <mergeCell ref="L305:O305"/>
-    <mergeCell ref="L306:O306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="D307:F307"/>
-    <mergeCell ref="L307:O307"/>
-    <mergeCell ref="A256:C259"/>
-    <mergeCell ref="D256:F259"/>
-    <mergeCell ref="G256:I256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="L256:M256"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="G257:I257"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="L257:M257"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="G258:I258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="L258:M258"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="G259:I259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="L259:M259"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="A262:D270"/>
-    <mergeCell ref="E263:O266"/>
-    <mergeCell ref="E267:O267"/>
-    <mergeCell ref="E268:O268"/>
-    <mergeCell ref="A308:C311"/>
-    <mergeCell ref="D308:F311"/>
-    <mergeCell ref="L308:O308"/>
-    <mergeCell ref="L309:O309"/>
-    <mergeCell ref="G311:O311"/>
-    <mergeCell ref="A312:C315"/>
-    <mergeCell ref="D312:F315"/>
-    <mergeCell ref="G312:I312"/>
-    <mergeCell ref="J312:K312"/>
-    <mergeCell ref="L312:M312"/>
-    <mergeCell ref="N312:O312"/>
-    <mergeCell ref="G313:I313"/>
-    <mergeCell ref="J313:K313"/>
-    <mergeCell ref="L313:M313"/>
-    <mergeCell ref="N313:O313"/>
-    <mergeCell ref="G314:I314"/>
-    <mergeCell ref="J314:K314"/>
-    <mergeCell ref="L314:M314"/>
-    <mergeCell ref="N314:O314"/>
-    <mergeCell ref="G315:I315"/>
-    <mergeCell ref="J315:K315"/>
-    <mergeCell ref="L315:M315"/>
-    <mergeCell ref="N315:O315"/>
-    <mergeCell ref="A348:D356"/>
-    <mergeCell ref="E349:O352"/>
-    <mergeCell ref="E353:O353"/>
-    <mergeCell ref="E354:O354"/>
-    <mergeCell ref="L356:O356"/>
-    <mergeCell ref="L357:O357"/>
-    <mergeCell ref="L358:O358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="D359:F359"/>
-    <mergeCell ref="L359:O359"/>
-    <mergeCell ref="A316:C319"/>
-    <mergeCell ref="D316:F319"/>
-    <mergeCell ref="G316:I316"/>
-    <mergeCell ref="J316:K316"/>
-    <mergeCell ref="L316:M316"/>
-    <mergeCell ref="N316:O316"/>
-    <mergeCell ref="G317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="L317:M317"/>
-    <mergeCell ref="N317:O317"/>
-    <mergeCell ref="G318:I318"/>
-    <mergeCell ref="J318:K318"/>
-    <mergeCell ref="L318:M318"/>
-    <mergeCell ref="N318:O318"/>
-    <mergeCell ref="G319:I319"/>
-    <mergeCell ref="J319:K319"/>
-    <mergeCell ref="L319:M319"/>
-    <mergeCell ref="N319:O319"/>
-    <mergeCell ref="A322:D330"/>
-    <mergeCell ref="E323:O326"/>
-    <mergeCell ref="E327:O327"/>
-    <mergeCell ref="E328:O328"/>
-    <mergeCell ref="A360:C363"/>
-    <mergeCell ref="D360:F363"/>
-    <mergeCell ref="L360:O360"/>
-    <mergeCell ref="L361:O361"/>
-    <mergeCell ref="G363:O363"/>
-    <mergeCell ref="A364:C367"/>
-    <mergeCell ref="D364:F367"/>
-    <mergeCell ref="G364:I364"/>
-    <mergeCell ref="J364:K364"/>
-    <mergeCell ref="L364:M364"/>
-    <mergeCell ref="N364:O364"/>
-    <mergeCell ref="G365:I365"/>
-    <mergeCell ref="J365:K365"/>
-    <mergeCell ref="L365:M365"/>
-    <mergeCell ref="N365:O365"/>
-    <mergeCell ref="G366:I366"/>
-    <mergeCell ref="J366:K366"/>
-    <mergeCell ref="L366:M366"/>
-    <mergeCell ref="N366:O366"/>
-    <mergeCell ref="G367:I367"/>
-    <mergeCell ref="J367:K367"/>
-    <mergeCell ref="L367:M367"/>
-    <mergeCell ref="N367:O367"/>
-    <mergeCell ref="A426:D434"/>
-    <mergeCell ref="E427:O430"/>
-    <mergeCell ref="E431:O431"/>
-    <mergeCell ref="E432:O432"/>
-    <mergeCell ref="L434:O434"/>
-    <mergeCell ref="L435:O435"/>
-    <mergeCell ref="L436:O436"/>
-    <mergeCell ref="A437:C437"/>
-    <mergeCell ref="D437:F437"/>
-    <mergeCell ref="L437:O437"/>
-    <mergeCell ref="A368:C371"/>
-    <mergeCell ref="D368:F371"/>
-    <mergeCell ref="G368:I368"/>
-    <mergeCell ref="J368:K368"/>
-    <mergeCell ref="L368:M368"/>
-    <mergeCell ref="N368:O368"/>
-    <mergeCell ref="G369:I369"/>
-    <mergeCell ref="J369:K369"/>
-    <mergeCell ref="L369:M369"/>
-    <mergeCell ref="N369:O369"/>
-    <mergeCell ref="G370:I370"/>
-    <mergeCell ref="J370:K370"/>
-    <mergeCell ref="L370:M370"/>
-    <mergeCell ref="N370:O370"/>
-    <mergeCell ref="G371:I371"/>
-    <mergeCell ref="J371:K371"/>
-    <mergeCell ref="L371:M371"/>
-    <mergeCell ref="N371:O371"/>
-    <mergeCell ref="A374:D382"/>
-    <mergeCell ref="E375:O378"/>
-    <mergeCell ref="E379:O379"/>
-    <mergeCell ref="E380:O380"/>
-    <mergeCell ref="A438:C441"/>
-    <mergeCell ref="D438:F441"/>
-    <mergeCell ref="L438:O438"/>
-    <mergeCell ref="L439:O439"/>
-    <mergeCell ref="G441:O441"/>
-    <mergeCell ref="A442:C445"/>
-    <mergeCell ref="D442:F445"/>
-    <mergeCell ref="G442:I442"/>
-    <mergeCell ref="J442:K442"/>
-    <mergeCell ref="L442:M442"/>
-    <mergeCell ref="N442:O442"/>
-    <mergeCell ref="G443:I443"/>
-    <mergeCell ref="J443:K443"/>
-    <mergeCell ref="L443:M443"/>
-    <mergeCell ref="N443:O443"/>
-    <mergeCell ref="G444:I444"/>
-    <mergeCell ref="J444:K444"/>
-    <mergeCell ref="L444:M444"/>
-    <mergeCell ref="N444:O444"/>
-    <mergeCell ref="G445:I445"/>
-    <mergeCell ref="J445:K445"/>
-    <mergeCell ref="L445:M445"/>
-    <mergeCell ref="N445:O445"/>
-    <mergeCell ref="A478:D486"/>
-    <mergeCell ref="E479:O482"/>
-    <mergeCell ref="E483:O483"/>
-    <mergeCell ref="E484:O484"/>
-    <mergeCell ref="L486:O486"/>
-    <mergeCell ref="L487:O487"/>
-    <mergeCell ref="L488:O488"/>
-    <mergeCell ref="A489:C489"/>
-    <mergeCell ref="D489:F489"/>
-    <mergeCell ref="L489:O489"/>
-    <mergeCell ref="A446:C449"/>
-    <mergeCell ref="D446:F449"/>
-    <mergeCell ref="G446:I446"/>
-    <mergeCell ref="J446:K446"/>
-    <mergeCell ref="L446:M446"/>
-    <mergeCell ref="N446:O446"/>
-    <mergeCell ref="G447:I447"/>
-    <mergeCell ref="J447:K447"/>
-    <mergeCell ref="L447:M447"/>
-    <mergeCell ref="N447:O447"/>
-    <mergeCell ref="G448:I448"/>
-    <mergeCell ref="J448:K448"/>
-    <mergeCell ref="L448:M448"/>
-    <mergeCell ref="N448:O448"/>
-    <mergeCell ref="G449:I449"/>
-    <mergeCell ref="J449:K449"/>
-    <mergeCell ref="L449:M449"/>
-    <mergeCell ref="N449:O449"/>
-    <mergeCell ref="A452:D460"/>
-    <mergeCell ref="E453:O456"/>
-    <mergeCell ref="E457:O457"/>
-    <mergeCell ref="E458:O458"/>
-    <mergeCell ref="A490:C493"/>
-    <mergeCell ref="D490:F493"/>
-    <mergeCell ref="L490:O490"/>
-    <mergeCell ref="L491:O491"/>
-    <mergeCell ref="G493:O493"/>
-    <mergeCell ref="A494:C497"/>
-    <mergeCell ref="D494:F497"/>
-    <mergeCell ref="G494:I494"/>
-    <mergeCell ref="J494:K494"/>
-    <mergeCell ref="L494:M494"/>
-    <mergeCell ref="N494:O494"/>
-    <mergeCell ref="G495:I495"/>
-    <mergeCell ref="J495:K495"/>
-    <mergeCell ref="L495:M495"/>
-    <mergeCell ref="N495:O495"/>
-    <mergeCell ref="G496:I496"/>
-    <mergeCell ref="J496:K496"/>
-    <mergeCell ref="L496:M496"/>
-    <mergeCell ref="N496:O496"/>
-    <mergeCell ref="G497:I497"/>
-    <mergeCell ref="J497:K497"/>
-    <mergeCell ref="L497:M497"/>
-    <mergeCell ref="N497:O497"/>
-    <mergeCell ref="A498:C501"/>
-    <mergeCell ref="D498:F501"/>
-    <mergeCell ref="G498:I498"/>
-    <mergeCell ref="J498:K498"/>
-    <mergeCell ref="L498:M498"/>
-    <mergeCell ref="N498:O498"/>
-    <mergeCell ref="G499:I499"/>
-    <mergeCell ref="J499:K499"/>
-    <mergeCell ref="L499:M499"/>
-    <mergeCell ref="N499:O499"/>
-    <mergeCell ref="G500:I500"/>
-    <mergeCell ref="J500:K500"/>
-    <mergeCell ref="L500:M500"/>
-    <mergeCell ref="N500:O500"/>
-    <mergeCell ref="G501:I501"/>
-    <mergeCell ref="J501:K501"/>
-    <mergeCell ref="L501:M501"/>
-    <mergeCell ref="N501:O501"/>
-    <mergeCell ref="A504:D512"/>
-    <mergeCell ref="E505:O508"/>
-    <mergeCell ref="E509:O509"/>
-    <mergeCell ref="E510:O510"/>
-    <mergeCell ref="L512:O512"/>
-    <mergeCell ref="L513:O513"/>
-    <mergeCell ref="L514:O514"/>
-    <mergeCell ref="A586:D594"/>
-    <mergeCell ref="E587:O590"/>
-    <mergeCell ref="E591:O591"/>
-    <mergeCell ref="E592:O592"/>
-    <mergeCell ref="L594:O594"/>
-    <mergeCell ref="L595:O595"/>
-    <mergeCell ref="L596:O596"/>
-    <mergeCell ref="L541:O541"/>
-    <mergeCell ref="A542:C545"/>
-    <mergeCell ref="D542:F545"/>
-    <mergeCell ref="L542:O542"/>
-    <mergeCell ref="L543:O543"/>
-    <mergeCell ref="G545:O545"/>
-    <mergeCell ref="A546:C549"/>
-    <mergeCell ref="D550:F553"/>
-    <mergeCell ref="G546:I546"/>
-    <mergeCell ref="J546:K546"/>
-    <mergeCell ref="L546:M546"/>
-    <mergeCell ref="N546:O546"/>
-    <mergeCell ref="G547:I547"/>
-    <mergeCell ref="J547:K547"/>
-    <mergeCell ref="L547:M547"/>
-    <mergeCell ref="N547:O547"/>
-    <mergeCell ref="G548:I548"/>
-    <mergeCell ref="J548:K548"/>
-    <mergeCell ref="A550:C553"/>
-    <mergeCell ref="G603:I603"/>
-    <mergeCell ref="J603:K603"/>
-    <mergeCell ref="L603:M603"/>
-    <mergeCell ref="N603:O603"/>
-    <mergeCell ref="G604:I604"/>
-    <mergeCell ref="J604:K604"/>
-    <mergeCell ref="L604:M604"/>
-    <mergeCell ref="N604:O604"/>
-    <mergeCell ref="G605:I605"/>
-    <mergeCell ref="J605:K605"/>
-    <mergeCell ref="L605:M605"/>
-    <mergeCell ref="N605:O605"/>
-    <mergeCell ref="L551:M551"/>
-    <mergeCell ref="N551:O551"/>
-    <mergeCell ref="G552:I552"/>
-    <mergeCell ref="J552:K552"/>
-    <mergeCell ref="L552:M552"/>
-    <mergeCell ref="N552:O552"/>
-    <mergeCell ref="G553:I553"/>
-    <mergeCell ref="J553:K553"/>
-    <mergeCell ref="L553:M553"/>
-    <mergeCell ref="N553:O553"/>
-    <mergeCell ref="N578:O578"/>
-    <mergeCell ref="G579:I579"/>
-    <mergeCell ref="J579:K579"/>
-    <mergeCell ref="L579:M579"/>
-    <mergeCell ref="G577:I577"/>
-    <mergeCell ref="J577:K577"/>
-    <mergeCell ref="L577:M577"/>
-    <mergeCell ref="N577:O577"/>
-    <mergeCell ref="G578:I578"/>
-    <mergeCell ref="J578:K578"/>
-    <mergeCell ref="G606:I606"/>
-    <mergeCell ref="J606:K606"/>
-    <mergeCell ref="L606:M606"/>
-    <mergeCell ref="N606:O606"/>
-    <mergeCell ref="G607:I607"/>
-    <mergeCell ref="J607:K607"/>
-    <mergeCell ref="L607:M607"/>
-    <mergeCell ref="N607:O607"/>
-    <mergeCell ref="G608:I608"/>
-    <mergeCell ref="J608:K608"/>
-    <mergeCell ref="L608:M608"/>
-    <mergeCell ref="N608:O608"/>
-    <mergeCell ref="G609:I609"/>
-    <mergeCell ref="J609:K609"/>
-    <mergeCell ref="L609:M609"/>
-    <mergeCell ref="N609:O609"/>
-    <mergeCell ref="L578:M578"/>
-    <mergeCell ref="A597:C597"/>
-    <mergeCell ref="D597:F597"/>
-    <mergeCell ref="L597:O597"/>
-    <mergeCell ref="A598:C601"/>
-    <mergeCell ref="D598:F601"/>
-    <mergeCell ref="L598:O598"/>
-    <mergeCell ref="L599:O599"/>
-    <mergeCell ref="A602:C605"/>
-    <mergeCell ref="D602:F605"/>
-    <mergeCell ref="G601:O601"/>
-    <mergeCell ref="A606:C609"/>
-    <mergeCell ref="D606:F609"/>
-    <mergeCell ref="G602:I602"/>
-    <mergeCell ref="J602:K602"/>
-    <mergeCell ref="L602:M602"/>
-    <mergeCell ref="N602:O602"/>
-    <mergeCell ref="A612:D620"/>
-    <mergeCell ref="E613:O616"/>
-    <mergeCell ref="E617:O617"/>
-    <mergeCell ref="E618:O618"/>
-    <mergeCell ref="L620:O620"/>
-    <mergeCell ref="L621:O621"/>
-    <mergeCell ref="L622:O622"/>
-    <mergeCell ref="A623:C623"/>
-    <mergeCell ref="D623:F623"/>
-    <mergeCell ref="L623:O623"/>
-    <mergeCell ref="A624:C627"/>
-    <mergeCell ref="D624:F627"/>
-    <mergeCell ref="L624:O624"/>
-    <mergeCell ref="L625:O625"/>
-    <mergeCell ref="G627:O627"/>
-    <mergeCell ref="A628:C631"/>
-    <mergeCell ref="D628:F631"/>
-    <mergeCell ref="G628:I628"/>
-    <mergeCell ref="J628:K628"/>
-    <mergeCell ref="L628:M628"/>
-    <mergeCell ref="N628:O628"/>
-    <mergeCell ref="G629:I629"/>
-    <mergeCell ref="J629:K629"/>
-    <mergeCell ref="L629:M629"/>
-    <mergeCell ref="N629:O629"/>
-    <mergeCell ref="G630:I630"/>
-    <mergeCell ref="J630:K630"/>
-    <mergeCell ref="L630:M630"/>
-    <mergeCell ref="N630:O630"/>
-    <mergeCell ref="G631:I631"/>
-    <mergeCell ref="J631:K631"/>
-    <mergeCell ref="L631:M631"/>
-    <mergeCell ref="N631:O631"/>
-    <mergeCell ref="A632:C635"/>
-    <mergeCell ref="D632:F635"/>
-    <mergeCell ref="G632:I632"/>
-    <mergeCell ref="J632:K632"/>
-    <mergeCell ref="L632:M632"/>
-    <mergeCell ref="N632:O632"/>
-    <mergeCell ref="G633:I633"/>
-    <mergeCell ref="J633:K633"/>
-    <mergeCell ref="L633:M633"/>
-    <mergeCell ref="N633:O633"/>
-    <mergeCell ref="G634:I634"/>
-    <mergeCell ref="J634:K634"/>
-    <mergeCell ref="L634:M634"/>
-    <mergeCell ref="N634:O634"/>
-    <mergeCell ref="G635:I635"/>
-    <mergeCell ref="J635:K635"/>
-    <mergeCell ref="L635:M635"/>
-    <mergeCell ref="N635:O635"/>
-    <mergeCell ref="A664:D672"/>
-    <mergeCell ref="E665:O668"/>
-    <mergeCell ref="E669:O669"/>
-    <mergeCell ref="E670:O670"/>
-    <mergeCell ref="L672:O672"/>
-    <mergeCell ref="L673:O673"/>
-    <mergeCell ref="L674:O674"/>
-    <mergeCell ref="A675:C675"/>
-    <mergeCell ref="D675:F675"/>
-    <mergeCell ref="L675:O675"/>
-    <mergeCell ref="A676:C679"/>
-    <mergeCell ref="D676:F679"/>
-    <mergeCell ref="L676:O676"/>
-    <mergeCell ref="L677:O677"/>
-    <mergeCell ref="G679:O679"/>
-    <mergeCell ref="A680:C683"/>
-    <mergeCell ref="D680:F683"/>
-    <mergeCell ref="G680:I680"/>
-    <mergeCell ref="J680:K680"/>
-    <mergeCell ref="L680:M680"/>
-    <mergeCell ref="N680:O680"/>
-    <mergeCell ref="G681:I681"/>
-    <mergeCell ref="J681:K681"/>
-    <mergeCell ref="L681:M681"/>
-    <mergeCell ref="N681:O681"/>
-    <mergeCell ref="G682:I682"/>
-    <mergeCell ref="J682:K682"/>
-    <mergeCell ref="L682:M682"/>
-    <mergeCell ref="N682:O682"/>
-    <mergeCell ref="G683:I683"/>
-    <mergeCell ref="J683:K683"/>
-    <mergeCell ref="L683:M683"/>
-    <mergeCell ref="N683:O683"/>
-    <mergeCell ref="A684:C687"/>
-    <mergeCell ref="D684:F687"/>
-    <mergeCell ref="G684:I684"/>
-    <mergeCell ref="J684:K684"/>
-    <mergeCell ref="L684:M684"/>
-    <mergeCell ref="N684:O684"/>
-    <mergeCell ref="G685:I685"/>
-    <mergeCell ref="J685:K685"/>
-    <mergeCell ref="L685:M685"/>
-    <mergeCell ref="N685:O685"/>
-    <mergeCell ref="G686:I686"/>
-    <mergeCell ref="J686:K686"/>
-    <mergeCell ref="L686:M686"/>
-    <mergeCell ref="N686:O686"/>
-    <mergeCell ref="G687:I687"/>
-    <mergeCell ref="J687:K687"/>
-    <mergeCell ref="L687:M687"/>
-    <mergeCell ref="N687:O687"/>
-    <mergeCell ref="A638:D646"/>
-    <mergeCell ref="E639:O642"/>
-    <mergeCell ref="E643:O643"/>
-    <mergeCell ref="E644:O644"/>
-    <mergeCell ref="L646:O646"/>
-    <mergeCell ref="L647:O647"/>
-    <mergeCell ref="L648:O648"/>
-    <mergeCell ref="A649:C649"/>
-    <mergeCell ref="D649:F649"/>
-    <mergeCell ref="L649:O649"/>
-    <mergeCell ref="A650:C653"/>
-    <mergeCell ref="D650:F653"/>
-    <mergeCell ref="L650:O650"/>
-    <mergeCell ref="L651:O651"/>
-    <mergeCell ref="G653:O653"/>
-    <mergeCell ref="A654:C657"/>
-    <mergeCell ref="D654:F657"/>
-    <mergeCell ref="G654:I654"/>
-    <mergeCell ref="J654:K654"/>
-    <mergeCell ref="L654:M654"/>
-    <mergeCell ref="N654:O654"/>
-    <mergeCell ref="G655:I655"/>
-    <mergeCell ref="J655:K655"/>
-    <mergeCell ref="L655:M655"/>
-    <mergeCell ref="N655:O655"/>
-    <mergeCell ref="G656:I656"/>
-    <mergeCell ref="J656:K656"/>
-    <mergeCell ref="L656:M656"/>
-    <mergeCell ref="N656:O656"/>
-    <mergeCell ref="G657:I657"/>
-    <mergeCell ref="J657:K657"/>
-    <mergeCell ref="L657:M657"/>
-    <mergeCell ref="N657:O657"/>
-    <mergeCell ref="A658:C661"/>
-    <mergeCell ref="D658:F661"/>
-    <mergeCell ref="G658:I658"/>
-    <mergeCell ref="J658:K658"/>
-    <mergeCell ref="L658:M658"/>
-    <mergeCell ref="N658:O658"/>
-    <mergeCell ref="G659:I659"/>
-    <mergeCell ref="J659:K659"/>
-    <mergeCell ref="L659:M659"/>
-    <mergeCell ref="N659:O659"/>
-    <mergeCell ref="G660:I660"/>
-    <mergeCell ref="J660:K660"/>
-    <mergeCell ref="L660:M660"/>
-    <mergeCell ref="N660:O660"/>
-    <mergeCell ref="G661:I661"/>
-    <mergeCell ref="J661:K661"/>
-    <mergeCell ref="L661:M661"/>
-    <mergeCell ref="N661:O661"/>
-    <mergeCell ref="A748:D756"/>
-    <mergeCell ref="E749:O752"/>
-    <mergeCell ref="E753:O753"/>
-    <mergeCell ref="E754:O754"/>
-    <mergeCell ref="L756:O756"/>
-    <mergeCell ref="L757:O757"/>
-    <mergeCell ref="L758:O758"/>
-    <mergeCell ref="A759:C759"/>
-    <mergeCell ref="D759:F759"/>
-    <mergeCell ref="L759:O759"/>
-    <mergeCell ref="A760:C763"/>
-    <mergeCell ref="D760:F763"/>
-    <mergeCell ref="L760:O760"/>
-    <mergeCell ref="L761:O761"/>
-    <mergeCell ref="G763:O763"/>
-    <mergeCell ref="A764:C767"/>
-    <mergeCell ref="D764:F767"/>
-    <mergeCell ref="G764:I764"/>
-    <mergeCell ref="J764:K764"/>
-    <mergeCell ref="L764:M764"/>
-    <mergeCell ref="N764:O764"/>
-    <mergeCell ref="G765:I765"/>
-    <mergeCell ref="J765:K765"/>
-    <mergeCell ref="L765:M765"/>
-    <mergeCell ref="N765:O765"/>
-    <mergeCell ref="G766:I766"/>
-    <mergeCell ref="J766:K766"/>
-    <mergeCell ref="L766:M766"/>
-    <mergeCell ref="N766:O766"/>
-    <mergeCell ref="G767:I767"/>
-    <mergeCell ref="J767:K767"/>
-    <mergeCell ref="L767:M767"/>
-    <mergeCell ref="N767:O767"/>
-    <mergeCell ref="A768:C771"/>
-    <mergeCell ref="D768:F771"/>
-    <mergeCell ref="G768:I768"/>
-    <mergeCell ref="J768:K768"/>
-    <mergeCell ref="L768:M768"/>
-    <mergeCell ref="N768:O768"/>
-    <mergeCell ref="G769:I769"/>
-    <mergeCell ref="J769:K769"/>
-    <mergeCell ref="L769:M769"/>
-    <mergeCell ref="N769:O769"/>
-    <mergeCell ref="G770:I770"/>
-    <mergeCell ref="J770:K770"/>
-    <mergeCell ref="L770:M770"/>
-    <mergeCell ref="N770:O770"/>
-    <mergeCell ref="G771:I771"/>
-    <mergeCell ref="J771:K771"/>
-    <mergeCell ref="L771:M771"/>
-    <mergeCell ref="N771:O771"/>
+    <mergeCell ref="N739:O739"/>
+    <mergeCell ref="A740:C743"/>
+    <mergeCell ref="D740:F743"/>
+    <mergeCell ref="G740:I740"/>
+    <mergeCell ref="J740:K740"/>
+    <mergeCell ref="L740:M740"/>
+    <mergeCell ref="N740:O740"/>
+    <mergeCell ref="G741:I741"/>
+    <mergeCell ref="J741:K741"/>
+    <mergeCell ref="L741:M741"/>
+    <mergeCell ref="N741:O741"/>
+    <mergeCell ref="G742:I742"/>
+    <mergeCell ref="J742:K742"/>
+    <mergeCell ref="L742:M742"/>
+    <mergeCell ref="N742:O742"/>
+    <mergeCell ref="G743:I743"/>
+    <mergeCell ref="J743:K743"/>
+    <mergeCell ref="L743:M743"/>
+    <mergeCell ref="N743:O743"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21522,20 +22204,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21721,14 +22403,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A20BDE-ACAC-49A0-A051-6F5B010A8CC5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -21740,6 +22414,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documentacao/mechspot_ata.xlsx
+++ b/documentacao/mechspot_ata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\projeto-pi-sprint-2\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30A7BBE-BE1F-4C70-B204-CAC8FA591709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1BD09B-5903-4F08-B1EB-7F368A968492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4545F592-9151-46FC-8F7A-0131C129BBC9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="240">
   <si>
     <t>OK</t>
   </si>
@@ -1309,6 +1309,40 @@
   </si>
   <si>
     <t>Ajustes no site</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF32746D"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t>DATA:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  24/10/2024     |     LISTA DE PRESENÇA</t>
+    </r>
+  </si>
+  <si>
+    <t>Distribuímos as falas da apresentação</t>
+  </si>
+  <si>
+    <t>Segmento da Apresentação</t>
+  </si>
+  <si>
+    <t>Rotacionamos às tarefas</t>
+  </si>
+  <si>
+    <t>Definimos o novo PO e Scrum master da semana. PO: Robert, Scrum: Kenner</t>
   </si>
 </sst>
 </file>
@@ -1872,6 +1906,48 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1882,9 +1958,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1898,45 +1971,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3733,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5446F9-8A09-4B91-82C6-8FD7102DEAC7}">
   <dimension ref="A1:Y857"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A826" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E838" sqref="E838:O838"/>
+    <sheetView tabSelected="1" topLeftCell="A821" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G822" sqref="G822:I822"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9396,13 +9430,13 @@
       <c r="N269" s="7"/>
       <c r="O269" s="7"/>
       <c r="P269" s="5"/>
-      <c r="Q269" s="63" t="s">
+      <c r="Q269" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="R269" s="63"/>
-      <c r="S269" s="63"/>
-      <c r="T269" s="63"/>
-      <c r="U269" s="63"/>
+      <c r="R269" s="47"/>
+      <c r="S269" s="47"/>
+      <c r="T269" s="47"/>
+      <c r="U269" s="47"/>
       <c r="V269" s="1"/>
     </row>
     <row r="270" spans="1:22" ht="15">
@@ -9419,18 +9453,18 @@
       </c>
       <c r="J270" s="6"/>
       <c r="K270" s="6"/>
-      <c r="L270" s="57" t="s">
+      <c r="L270" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M270" s="57"/>
-      <c r="N270" s="57"/>
-      <c r="O270" s="57"/>
+      <c r="M270" s="50"/>
+      <c r="N270" s="50"/>
+      <c r="O270" s="50"/>
       <c r="P270" s="5"/>
-      <c r="Q270" s="64"/>
-      <c r="R270" s="64"/>
-      <c r="S270" s="64"/>
-      <c r="T270" s="64"/>
-      <c r="U270" s="64"/>
+      <c r="Q270" s="48"/>
+      <c r="R270" s="48"/>
+      <c r="S270" s="48"/>
+      <c r="T270" s="48"/>
+      <c r="U270" s="48"/>
       <c r="V270" s="1"/>
     </row>
     <row r="271" spans="1:22" ht="15">
@@ -9447,18 +9481,18 @@
       </c>
       <c r="J271" s="6"/>
       <c r="K271" s="6"/>
-      <c r="L271" s="57" t="s">
+      <c r="L271" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M271" s="57"/>
-      <c r="N271" s="57"/>
-      <c r="O271" s="57"/>
+      <c r="M271" s="50"/>
+      <c r="N271" s="50"/>
+      <c r="O271" s="50"/>
       <c r="P271" s="5"/>
-      <c r="Q271" s="64"/>
-      <c r="R271" s="64"/>
-      <c r="S271" s="64"/>
-      <c r="T271" s="64"/>
-      <c r="U271" s="64"/>
+      <c r="Q271" s="48"/>
+      <c r="R271" s="48"/>
+      <c r="S271" s="48"/>
+      <c r="T271" s="48"/>
+      <c r="U271" s="48"/>
       <c r="V271" s="1"/>
     </row>
     <row r="272" spans="1:22" ht="15">
@@ -9475,33 +9509,33 @@
       </c>
       <c r="J272" s="6"/>
       <c r="K272" s="6"/>
-      <c r="L272" s="55" t="s">
+      <c r="L272" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="M272" s="55"/>
-      <c r="N272" s="55"/>
-      <c r="O272" s="55"/>
+      <c r="M272" s="51"/>
+      <c r="N272" s="51"/>
+      <c r="O272" s="51"/>
       <c r="P272" s="5"/>
-      <c r="Q272" s="64" t="s">
+      <c r="Q272" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="R272" s="64"/>
-      <c r="S272" s="64"/>
-      <c r="T272" s="64"/>
-      <c r="U272" s="64"/>
+      <c r="R272" s="48"/>
+      <c r="S272" s="48"/>
+      <c r="T272" s="48"/>
+      <c r="U272" s="48"/>
       <c r="V272" s="1"/>
     </row>
     <row r="273" spans="1:22" ht="15">
-      <c r="A273" s="53" t="s">
+      <c r="A273" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B273" s="54"/>
-      <c r="C273" s="54"/>
-      <c r="D273" s="54" t="s">
+      <c r="B273" s="55"/>
+      <c r="C273" s="55"/>
+      <c r="D273" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="E273" s="54"/>
-      <c r="F273" s="54"/>
+      <c r="E273" s="55"/>
+      <c r="F273" s="55"/>
       <c r="G273" s="6"/>
       <c r="H273" s="6"/>
       <c r="I273" s="6" t="s">
@@ -9509,31 +9543,31 @@
       </c>
       <c r="J273" s="6"/>
       <c r="K273" s="6"/>
-      <c r="L273" s="55" t="s">
+      <c r="L273" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="M273" s="55"/>
-      <c r="N273" s="55"/>
-      <c r="O273" s="55"/>
+      <c r="M273" s="51"/>
+      <c r="N273" s="51"/>
+      <c r="O273" s="51"/>
       <c r="P273" s="5"/>
-      <c r="Q273" s="64"/>
-      <c r="R273" s="64"/>
-      <c r="S273" s="64"/>
-      <c r="T273" s="64"/>
-      <c r="U273" s="64"/>
+      <c r="Q273" s="48"/>
+      <c r="R273" s="48"/>
+      <c r="S273" s="48"/>
+      <c r="T273" s="48"/>
+      <c r="U273" s="48"/>
       <c r="V273" s="1"/>
     </row>
     <row r="274" spans="1:22" ht="15">
-      <c r="A274" s="56" t="s">
+      <c r="A274" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="B274" s="48"/>
-      <c r="C274" s="48"/>
-      <c r="D274" s="48" t="s">
+      <c r="B274" s="53"/>
+      <c r="C274" s="53"/>
+      <c r="D274" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="E274" s="48"/>
-      <c r="F274" s="48"/>
+      <c r="E274" s="53"/>
+      <c r="F274" s="53"/>
       <c r="G274" s="6"/>
       <c r="H274" s="6"/>
       <c r="I274" s="6" t="s">
@@ -9541,27 +9575,27 @@
       </c>
       <c r="J274" s="6"/>
       <c r="K274" s="6"/>
-      <c r="L274" s="55" t="s">
+      <c r="L274" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="M274" s="55"/>
-      <c r="N274" s="55"/>
-      <c r="O274" s="55"/>
+      <c r="M274" s="51"/>
+      <c r="N274" s="51"/>
+      <c r="O274" s="51"/>
       <c r="P274" s="5"/>
-      <c r="Q274" s="64"/>
-      <c r="R274" s="64"/>
-      <c r="S274" s="64"/>
-      <c r="T274" s="64"/>
-      <c r="U274" s="64"/>
+      <c r="Q274" s="48"/>
+      <c r="R274" s="48"/>
+      <c r="S274" s="48"/>
+      <c r="T274" s="48"/>
+      <c r="U274" s="48"/>
       <c r="V274" s="1"/>
     </row>
     <row r="275" spans="1:22" ht="15">
-      <c r="A275" s="56"/>
-      <c r="B275" s="48"/>
-      <c r="C275" s="48"/>
-      <c r="D275" s="48"/>
-      <c r="E275" s="48"/>
-      <c r="F275" s="48"/>
+      <c r="A275" s="52"/>
+      <c r="B275" s="53"/>
+      <c r="C275" s="53"/>
+      <c r="D275" s="53"/>
+      <c r="E275" s="53"/>
+      <c r="F275" s="53"/>
       <c r="G275" s="6"/>
       <c r="H275" s="6"/>
       <c r="I275" s="6" t="s">
@@ -9569,29 +9603,29 @@
       </c>
       <c r="J275" s="6"/>
       <c r="K275" s="6"/>
-      <c r="L275" s="57" t="s">
+      <c r="L275" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M275" s="57"/>
-      <c r="N275" s="57"/>
-      <c r="O275" s="57"/>
+      <c r="M275" s="50"/>
+      <c r="N275" s="50"/>
+      <c r="O275" s="50"/>
       <c r="P275" s="5"/>
-      <c r="Q275" s="64" t="s">
+      <c r="Q275" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="R275" s="64"/>
-      <c r="S275" s="64"/>
-      <c r="T275" s="64"/>
-      <c r="U275" s="64"/>
+      <c r="R275" s="48"/>
+      <c r="S275" s="48"/>
+      <c r="T275" s="48"/>
+      <c r="U275" s="48"/>
       <c r="V275" s="1"/>
     </row>
     <row r="276" spans="1:22" ht="15">
-      <c r="A276" s="56"/>
-      <c r="B276" s="48"/>
-      <c r="C276" s="48"/>
-      <c r="D276" s="48"/>
-      <c r="E276" s="48"/>
-      <c r="F276" s="48"/>
+      <c r="A276" s="52"/>
+      <c r="B276" s="53"/>
+      <c r="C276" s="53"/>
+      <c r="D276" s="53"/>
+      <c r="E276" s="53"/>
+      <c r="F276" s="53"/>
       <c r="G276" s="6"/>
       <c r="H276" s="6"/>
       <c r="I276" s="6"/>
@@ -9602,449 +9636,449 @@
       <c r="N276" s="6"/>
       <c r="O276" s="6"/>
       <c r="P276" s="5"/>
-      <c r="Q276" s="64"/>
-      <c r="R276" s="64"/>
-      <c r="S276" s="64"/>
-      <c r="T276" s="64"/>
-      <c r="U276" s="64"/>
+      <c r="Q276" s="48"/>
+      <c r="R276" s="48"/>
+      <c r="S276" s="48"/>
+      <c r="T276" s="48"/>
+      <c r="U276" s="48"/>
       <c r="V276" s="1"/>
     </row>
     <row r="277" spans="1:22">
-      <c r="A277" s="56"/>
-      <c r="B277" s="48"/>
-      <c r="C277" s="48"/>
-      <c r="D277" s="48"/>
-      <c r="E277" s="48"/>
-      <c r="F277" s="48"/>
-      <c r="G277" s="58" t="s">
+      <c r="A277" s="52"/>
+      <c r="B277" s="53"/>
+      <c r="C277" s="53"/>
+      <c r="D277" s="53"/>
+      <c r="E277" s="53"/>
+      <c r="F277" s="53"/>
+      <c r="G277" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="H277" s="58"/>
-      <c r="I277" s="58"/>
-      <c r="J277" s="58"/>
-      <c r="K277" s="58"/>
-      <c r="L277" s="58"/>
-      <c r="M277" s="58"/>
-      <c r="N277" s="58"/>
-      <c r="O277" s="58"/>
+      <c r="H277" s="56"/>
+      <c r="I277" s="56"/>
+      <c r="J277" s="56"/>
+      <c r="K277" s="56"/>
+      <c r="L277" s="56"/>
+      <c r="M277" s="56"/>
+      <c r="N277" s="56"/>
+      <c r="O277" s="56"/>
       <c r="P277" s="5"/>
-      <c r="Q277" s="64"/>
-      <c r="R277" s="64"/>
-      <c r="S277" s="64"/>
-      <c r="T277" s="64"/>
-      <c r="U277" s="64"/>
+      <c r="Q277" s="48"/>
+      <c r="R277" s="48"/>
+      <c r="S277" s="48"/>
+      <c r="T277" s="48"/>
+      <c r="U277" s="48"/>
       <c r="V277" s="1"/>
     </row>
     <row r="278" spans="1:22">
-      <c r="A278" s="56" t="s">
+      <c r="A278" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="B278" s="48"/>
-      <c r="C278" s="48"/>
-      <c r="D278" s="48" t="s">
+      <c r="B278" s="53"/>
+      <c r="C278" s="53"/>
+      <c r="D278" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E278" s="48"/>
-      <c r="F278" s="48"/>
-      <c r="G278" s="59" t="s">
+      <c r="E278" s="53"/>
+      <c r="F278" s="53"/>
+      <c r="G278" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H278" s="59"/>
-      <c r="I278" s="59"/>
-      <c r="J278" s="59" t="s">
+      <c r="H278" s="57"/>
+      <c r="I278" s="57"/>
+      <c r="J278" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="K278" s="59"/>
-      <c r="L278" s="59" t="s">
+      <c r="K278" s="57"/>
+      <c r="L278" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="M278" s="59"/>
-      <c r="N278" s="59" t="s">
+      <c r="M278" s="57"/>
+      <c r="N278" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="O278" s="59"/>
+      <c r="O278" s="57"/>
       <c r="P278" s="5"/>
-      <c r="Q278" s="64" t="s">
+      <c r="Q278" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="R278" s="64"/>
-      <c r="S278" s="64"/>
-      <c r="T278" s="64"/>
-      <c r="U278" s="64"/>
+      <c r="R278" s="48"/>
+      <c r="S278" s="48"/>
+      <c r="T278" s="48"/>
+      <c r="U278" s="48"/>
       <c r="V278" s="1"/>
     </row>
     <row r="279" spans="1:22">
-      <c r="A279" s="56"/>
-      <c r="B279" s="48"/>
-      <c r="C279" s="48"/>
-      <c r="D279" s="48"/>
-      <c r="E279" s="48"/>
-      <c r="F279" s="48"/>
-      <c r="G279" s="60" t="s">
+      <c r="A279" s="52"/>
+      <c r="B279" s="53"/>
+      <c r="C279" s="53"/>
+      <c r="D279" s="53"/>
+      <c r="E279" s="53"/>
+      <c r="F279" s="53"/>
+      <c r="G279" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H279" s="60"/>
-      <c r="I279" s="60"/>
-      <c r="J279" s="61">
+      <c r="H279" s="45"/>
+      <c r="I279" s="45"/>
+      <c r="J279" s="46">
         <v>45568</v>
       </c>
-      <c r="K279" s="60"/>
-      <c r="L279" s="60" t="s">
+      <c r="K279" s="45"/>
+      <c r="L279" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M279" s="60"/>
-      <c r="N279" s="60" t="s">
+      <c r="M279" s="45"/>
+      <c r="N279" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="O279" s="60"/>
+      <c r="O279" s="45"/>
       <c r="P279" s="5"/>
-      <c r="Q279" s="64"/>
-      <c r="R279" s="64"/>
-      <c r="S279" s="64"/>
-      <c r="T279" s="64"/>
-      <c r="U279" s="64"/>
+      <c r="Q279" s="48"/>
+      <c r="R279" s="48"/>
+      <c r="S279" s="48"/>
+      <c r="T279" s="48"/>
+      <c r="U279" s="48"/>
       <c r="V279" s="1"/>
     </row>
     <row r="280" spans="1:22">
-      <c r="A280" s="56"/>
-      <c r="B280" s="48"/>
-      <c r="C280" s="48"/>
-      <c r="D280" s="48"/>
-      <c r="E280" s="48"/>
-      <c r="F280" s="48"/>
-      <c r="G280" s="60" t="s">
+      <c r="A280" s="52"/>
+      <c r="B280" s="53"/>
+      <c r="C280" s="53"/>
+      <c r="D280" s="53"/>
+      <c r="E280" s="53"/>
+      <c r="F280" s="53"/>
+      <c r="G280" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="H280" s="60"/>
-      <c r="I280" s="60"/>
-      <c r="J280" s="61">
+      <c r="H280" s="45"/>
+      <c r="I280" s="45"/>
+      <c r="J280" s="46">
         <v>45568</v>
       </c>
-      <c r="K280" s="60"/>
-      <c r="L280" s="60" t="s">
+      <c r="K280" s="45"/>
+      <c r="L280" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="M280" s="60"/>
-      <c r="N280" s="60" t="s">
+      <c r="M280" s="45"/>
+      <c r="N280" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="O280" s="60"/>
+      <c r="O280" s="45"/>
       <c r="P280" s="5"/>
-      <c r="Q280" s="64"/>
-      <c r="R280" s="64"/>
-      <c r="S280" s="64"/>
-      <c r="T280" s="64"/>
-      <c r="U280" s="64"/>
+      <c r="Q280" s="48"/>
+      <c r="R280" s="48"/>
+      <c r="S280" s="48"/>
+      <c r="T280" s="48"/>
+      <c r="U280" s="48"/>
       <c r="V280" s="1"/>
     </row>
     <row r="281" spans="1:22">
-      <c r="A281" s="56"/>
-      <c r="B281" s="48"/>
-      <c r="C281" s="48"/>
-      <c r="D281" s="48"/>
-      <c r="E281" s="48"/>
-      <c r="F281" s="48"/>
-      <c r="G281" s="60" t="s">
+      <c r="A281" s="52"/>
+      <c r="B281" s="53"/>
+      <c r="C281" s="53"/>
+      <c r="D281" s="53"/>
+      <c r="E281" s="53"/>
+      <c r="F281" s="53"/>
+      <c r="G281" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="H281" s="60"/>
-      <c r="I281" s="60"/>
-      <c r="J281" s="61">
+      <c r="H281" s="45"/>
+      <c r="I281" s="45"/>
+      <c r="J281" s="46">
         <v>45568</v>
       </c>
-      <c r="K281" s="60"/>
-      <c r="L281" s="60" t="s">
+      <c r="K281" s="45"/>
+      <c r="L281" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="M281" s="60"/>
-      <c r="N281" s="60" t="s">
+      <c r="M281" s="45"/>
+      <c r="N281" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="O281" s="60"/>
+      <c r="O281" s="45"/>
       <c r="P281" s="5"/>
-      <c r="Q281" s="64"/>
-      <c r="R281" s="64"/>
-      <c r="S281" s="64"/>
-      <c r="T281" s="64"/>
-      <c r="U281" s="64"/>
+      <c r="Q281" s="48"/>
+      <c r="R281" s="48"/>
+      <c r="S281" s="48"/>
+      <c r="T281" s="48"/>
+      <c r="U281" s="48"/>
       <c r="V281" s="1"/>
     </row>
     <row r="282" spans="1:22">
-      <c r="A282" s="56" t="s">
+      <c r="A282" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="B282" s="48"/>
-      <c r="C282" s="48"/>
-      <c r="D282" s="48" t="s">
+      <c r="B282" s="53"/>
+      <c r="C282" s="53"/>
+      <c r="D282" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="E282" s="48"/>
-      <c r="F282" s="48"/>
-      <c r="G282" s="60" t="s">
+      <c r="E282" s="53"/>
+      <c r="F282" s="53"/>
+      <c r="G282" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="H282" s="60"/>
-      <c r="I282" s="60"/>
-      <c r="J282" s="61">
+      <c r="H282" s="45"/>
+      <c r="I282" s="45"/>
+      <c r="J282" s="46">
         <v>45568</v>
       </c>
-      <c r="K282" s="60"/>
-      <c r="L282" s="60" t="s">
+      <c r="K282" s="45"/>
+      <c r="L282" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="M282" s="60"/>
-      <c r="N282" s="60" t="s">
+      <c r="M282" s="45"/>
+      <c r="N282" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="O282" s="60"/>
+      <c r="O282" s="45"/>
       <c r="P282" s="5"/>
-      <c r="Q282" s="64"/>
-      <c r="R282" s="64"/>
-      <c r="S282" s="64"/>
-      <c r="T282" s="64"/>
-      <c r="U282" s="64"/>
+      <c r="Q282" s="48"/>
+      <c r="R282" s="48"/>
+      <c r="S282" s="48"/>
+      <c r="T282" s="48"/>
+      <c r="U282" s="48"/>
       <c r="V282" s="1"/>
     </row>
     <row r="283" spans="1:22" ht="15">
-      <c r="A283" s="56"/>
-      <c r="B283" s="48"/>
-      <c r="C283" s="48"/>
-      <c r="D283" s="48"/>
-      <c r="E283" s="48"/>
-      <c r="F283" s="48"/>
-      <c r="G283" s="62"/>
-      <c r="H283" s="62"/>
-      <c r="I283" s="62"/>
-      <c r="J283" s="60"/>
-      <c r="K283" s="60"/>
-      <c r="L283" s="60"/>
-      <c r="M283" s="60"/>
-      <c r="N283" s="60"/>
-      <c r="O283" s="60"/>
+      <c r="A283" s="52"/>
+      <c r="B283" s="53"/>
+      <c r="C283" s="53"/>
+      <c r="D283" s="53"/>
+      <c r="E283" s="53"/>
+      <c r="F283" s="53"/>
+      <c r="G283" s="44"/>
+      <c r="H283" s="44"/>
+      <c r="I283" s="44"/>
+      <c r="J283" s="45"/>
+      <c r="K283" s="45"/>
+      <c r="L283" s="45"/>
+      <c r="M283" s="45"/>
+      <c r="N283" s="45"/>
+      <c r="O283" s="45"/>
       <c r="P283" s="5"/>
-      <c r="Q283" s="64"/>
-      <c r="R283" s="64"/>
-      <c r="S283" s="64"/>
-      <c r="T283" s="64"/>
-      <c r="U283" s="64"/>
+      <c r="Q283" s="48"/>
+      <c r="R283" s="48"/>
+      <c r="S283" s="48"/>
+      <c r="T283" s="48"/>
+      <c r="U283" s="48"/>
       <c r="V283" s="1"/>
     </row>
     <row r="284" spans="1:22">
-      <c r="A284" s="56"/>
-      <c r="B284" s="48"/>
-      <c r="C284" s="48"/>
-      <c r="D284" s="48"/>
-      <c r="E284" s="48"/>
-      <c r="F284" s="48"/>
-      <c r="G284" s="60"/>
-      <c r="H284" s="60"/>
-      <c r="I284" s="60"/>
-      <c r="J284" s="61"/>
-      <c r="K284" s="60"/>
-      <c r="L284" s="60"/>
-      <c r="M284" s="60"/>
-      <c r="N284" s="60"/>
-      <c r="O284" s="60"/>
+      <c r="A284" s="52"/>
+      <c r="B284" s="53"/>
+      <c r="C284" s="53"/>
+      <c r="D284" s="53"/>
+      <c r="E284" s="53"/>
+      <c r="F284" s="53"/>
+      <c r="G284" s="45"/>
+      <c r="H284" s="45"/>
+      <c r="I284" s="45"/>
+      <c r="J284" s="46"/>
+      <c r="K284" s="45"/>
+      <c r="L284" s="45"/>
+      <c r="M284" s="45"/>
+      <c r="N284" s="45"/>
+      <c r="O284" s="45"/>
       <c r="P284" s="5"/>
-      <c r="Q284" s="64"/>
-      <c r="R284" s="64"/>
-      <c r="S284" s="64"/>
-      <c r="T284" s="64"/>
-      <c r="U284" s="64"/>
+      <c r="Q284" s="48"/>
+      <c r="R284" s="48"/>
+      <c r="S284" s="48"/>
+      <c r="T284" s="48"/>
+      <c r="U284" s="48"/>
       <c r="V284" s="1"/>
     </row>
     <row r="285" spans="1:22">
-      <c r="A285" s="56"/>
-      <c r="B285" s="48"/>
-      <c r="C285" s="48"/>
-      <c r="D285" s="48"/>
-      <c r="E285" s="48"/>
-      <c r="F285" s="48"/>
-      <c r="G285" s="60"/>
-      <c r="H285" s="60"/>
-      <c r="I285" s="60"/>
-      <c r="J285" s="61"/>
-      <c r="K285" s="60"/>
-      <c r="L285" s="60"/>
-      <c r="M285" s="60"/>
-      <c r="N285" s="60"/>
-      <c r="O285" s="60"/>
+      <c r="A285" s="52"/>
+      <c r="B285" s="53"/>
+      <c r="C285" s="53"/>
+      <c r="D285" s="53"/>
+      <c r="E285" s="53"/>
+      <c r="F285" s="53"/>
+      <c r="G285" s="45"/>
+      <c r="H285" s="45"/>
+      <c r="I285" s="45"/>
+      <c r="J285" s="46"/>
+      <c r="K285" s="45"/>
+      <c r="L285" s="45"/>
+      <c r="M285" s="45"/>
+      <c r="N285" s="45"/>
+      <c r="O285" s="45"/>
       <c r="P285" s="5"/>
-      <c r="Q285" s="64"/>
-      <c r="R285" s="64"/>
-      <c r="S285" s="64"/>
-      <c r="T285" s="64"/>
-      <c r="U285" s="64"/>
+      <c r="Q285" s="48"/>
+      <c r="R285" s="48"/>
+      <c r="S285" s="48"/>
+      <c r="T285" s="48"/>
+      <c r="U285" s="48"/>
       <c r="V285" s="1"/>
     </row>
     <row r="286" spans="1:22" ht="15">
-      <c r="A286" s="56" t="s">
+      <c r="A286" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="B286" s="48"/>
-      <c r="C286" s="48"/>
-      <c r="D286" s="48" t="s">
+      <c r="B286" s="53"/>
+      <c r="C286" s="53"/>
+      <c r="D286" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="E286" s="48"/>
-      <c r="F286" s="48"/>
-      <c r="G286" s="62"/>
-      <c r="H286" s="62"/>
-      <c r="I286" s="62"/>
-      <c r="J286" s="60"/>
-      <c r="K286" s="60"/>
-      <c r="L286" s="60"/>
-      <c r="M286" s="60"/>
-      <c r="N286" s="60"/>
-      <c r="O286" s="60"/>
+      <c r="E286" s="53"/>
+      <c r="F286" s="53"/>
+      <c r="G286" s="44"/>
+      <c r="H286" s="44"/>
+      <c r="I286" s="44"/>
+      <c r="J286" s="45"/>
+      <c r="K286" s="45"/>
+      <c r="L286" s="45"/>
+      <c r="M286" s="45"/>
+      <c r="N286" s="45"/>
+      <c r="O286" s="45"/>
       <c r="P286" s="5"/>
-      <c r="Q286" s="64"/>
-      <c r="R286" s="64"/>
-      <c r="S286" s="64"/>
-      <c r="T286" s="64"/>
-      <c r="U286" s="64"/>
+      <c r="Q286" s="48"/>
+      <c r="R286" s="48"/>
+      <c r="S286" s="48"/>
+      <c r="T286" s="48"/>
+      <c r="U286" s="48"/>
       <c r="V286" s="1"/>
     </row>
     <row r="287" spans="1:22">
-      <c r="A287" s="56"/>
-      <c r="B287" s="48"/>
-      <c r="C287" s="48"/>
-      <c r="D287" s="48"/>
-      <c r="E287" s="48"/>
-      <c r="F287" s="48"/>
-      <c r="G287" s="60"/>
-      <c r="H287" s="60"/>
-      <c r="I287" s="60"/>
-      <c r="J287" s="61"/>
-      <c r="K287" s="60"/>
-      <c r="L287" s="60"/>
-      <c r="M287" s="60"/>
-      <c r="N287" s="60"/>
-      <c r="O287" s="60"/>
+      <c r="A287" s="52"/>
+      <c r="B287" s="53"/>
+      <c r="C287" s="53"/>
+      <c r="D287" s="53"/>
+      <c r="E287" s="53"/>
+      <c r="F287" s="53"/>
+      <c r="G287" s="45"/>
+      <c r="H287" s="45"/>
+      <c r="I287" s="45"/>
+      <c r="J287" s="46"/>
+      <c r="K287" s="45"/>
+      <c r="L287" s="45"/>
+      <c r="M287" s="45"/>
+      <c r="N287" s="45"/>
+      <c r="O287" s="45"/>
       <c r="P287" s="5"/>
-      <c r="Q287" s="64"/>
-      <c r="R287" s="64"/>
-      <c r="S287" s="64"/>
-      <c r="T287" s="64"/>
-      <c r="U287" s="64"/>
+      <c r="Q287" s="48"/>
+      <c r="R287" s="48"/>
+      <c r="S287" s="48"/>
+      <c r="T287" s="48"/>
+      <c r="U287" s="48"/>
       <c r="V287" s="1"/>
     </row>
     <row r="288" spans="1:22">
-      <c r="A288" s="56"/>
-      <c r="B288" s="48"/>
-      <c r="C288" s="48"/>
-      <c r="D288" s="48"/>
-      <c r="E288" s="48"/>
-      <c r="F288" s="48"/>
-      <c r="G288" s="60"/>
-      <c r="H288" s="60"/>
-      <c r="I288" s="60"/>
-      <c r="J288" s="61"/>
-      <c r="K288" s="60"/>
-      <c r="L288" s="60"/>
-      <c r="M288" s="60"/>
-      <c r="N288" s="60"/>
-      <c r="O288" s="60"/>
+      <c r="A288" s="52"/>
+      <c r="B288" s="53"/>
+      <c r="C288" s="53"/>
+      <c r="D288" s="53"/>
+      <c r="E288" s="53"/>
+      <c r="F288" s="53"/>
+      <c r="G288" s="45"/>
+      <c r="H288" s="45"/>
+      <c r="I288" s="45"/>
+      <c r="J288" s="46"/>
+      <c r="K288" s="45"/>
+      <c r="L288" s="45"/>
+      <c r="M288" s="45"/>
+      <c r="N288" s="45"/>
+      <c r="O288" s="45"/>
       <c r="P288" s="5"/>
-      <c r="Q288" s="64"/>
-      <c r="R288" s="64"/>
-      <c r="S288" s="64"/>
-      <c r="T288" s="64"/>
-      <c r="U288" s="64"/>
+      <c r="Q288" s="48"/>
+      <c r="R288" s="48"/>
+      <c r="S288" s="48"/>
+      <c r="T288" s="48"/>
+      <c r="U288" s="48"/>
       <c r="V288" s="1"/>
     </row>
     <row r="289" spans="1:22" ht="15">
-      <c r="A289" s="56"/>
-      <c r="B289" s="48"/>
-      <c r="C289" s="48"/>
-      <c r="D289" s="48"/>
-      <c r="E289" s="48"/>
-      <c r="F289" s="48"/>
-      <c r="G289" s="62"/>
-      <c r="H289" s="62"/>
-      <c r="I289" s="62"/>
-      <c r="J289" s="60"/>
-      <c r="K289" s="60"/>
-      <c r="L289" s="60"/>
-      <c r="M289" s="60"/>
-      <c r="N289" s="60"/>
-      <c r="O289" s="60"/>
+      <c r="A289" s="52"/>
+      <c r="B289" s="53"/>
+      <c r="C289" s="53"/>
+      <c r="D289" s="53"/>
+      <c r="E289" s="53"/>
+      <c r="F289" s="53"/>
+      <c r="G289" s="44"/>
+      <c r="H289" s="44"/>
+      <c r="I289" s="44"/>
+      <c r="J289" s="45"/>
+      <c r="K289" s="45"/>
+      <c r="L289" s="45"/>
+      <c r="M289" s="45"/>
+      <c r="N289" s="45"/>
+      <c r="O289" s="45"/>
       <c r="P289" s="5"/>
-      <c r="Q289" s="64"/>
-      <c r="R289" s="64"/>
-      <c r="S289" s="64"/>
-      <c r="T289" s="64"/>
-      <c r="U289" s="64"/>
+      <c r="Q289" s="48"/>
+      <c r="R289" s="48"/>
+      <c r="S289" s="48"/>
+      <c r="T289" s="48"/>
+      <c r="U289" s="48"/>
       <c r="V289" s="1"/>
     </row>
     <row r="290" spans="1:22">
-      <c r="A290" s="56" t="s">
+      <c r="A290" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="B290" s="48"/>
-      <c r="C290" s="48"/>
-      <c r="D290" s="48" t="s">
+      <c r="B290" s="53"/>
+      <c r="C290" s="53"/>
+      <c r="D290" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="E290" s="48"/>
-      <c r="F290" s="48"/>
-      <c r="G290" s="60"/>
-      <c r="H290" s="60"/>
-      <c r="I290" s="60"/>
-      <c r="J290" s="61"/>
-      <c r="K290" s="60"/>
-      <c r="L290" s="60"/>
-      <c r="M290" s="60"/>
-      <c r="N290" s="60"/>
-      <c r="O290" s="60"/>
+      <c r="E290" s="53"/>
+      <c r="F290" s="53"/>
+      <c r="G290" s="45"/>
+      <c r="H290" s="45"/>
+      <c r="I290" s="45"/>
+      <c r="J290" s="46"/>
+      <c r="K290" s="45"/>
+      <c r="L290" s="45"/>
+      <c r="M290" s="45"/>
+      <c r="N290" s="45"/>
+      <c r="O290" s="45"/>
       <c r="P290" s="5"/>
-      <c r="Q290" s="64"/>
-      <c r="R290" s="64"/>
-      <c r="S290" s="64"/>
-      <c r="T290" s="64"/>
-      <c r="U290" s="64"/>
+      <c r="Q290" s="48"/>
+      <c r="R290" s="48"/>
+      <c r="S290" s="48"/>
+      <c r="T290" s="48"/>
+      <c r="U290" s="48"/>
       <c r="V290" s="1"/>
     </row>
     <row r="291" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A291" s="56"/>
-      <c r="B291" s="48"/>
-      <c r="C291" s="48"/>
-      <c r="D291" s="48"/>
-      <c r="E291" s="48"/>
-      <c r="F291" s="48"/>
-      <c r="G291" s="62"/>
-      <c r="H291" s="62"/>
-      <c r="I291" s="62"/>
-      <c r="J291" s="60"/>
-      <c r="K291" s="60"/>
-      <c r="L291" s="60"/>
-      <c r="M291" s="60"/>
-      <c r="N291" s="60"/>
-      <c r="O291" s="60"/>
+      <c r="A291" s="52"/>
+      <c r="B291" s="53"/>
+      <c r="C291" s="53"/>
+      <c r="D291" s="53"/>
+      <c r="E291" s="53"/>
+      <c r="F291" s="53"/>
+      <c r="G291" s="44"/>
+      <c r="H291" s="44"/>
+      <c r="I291" s="44"/>
+      <c r="J291" s="45"/>
+      <c r="K291" s="45"/>
+      <c r="L291" s="45"/>
+      <c r="M291" s="45"/>
+      <c r="N291" s="45"/>
+      <c r="O291" s="45"/>
       <c r="P291" s="5"/>
-      <c r="Q291" s="65"/>
-      <c r="R291" s="65"/>
-      <c r="S291" s="65"/>
-      <c r="T291" s="65"/>
-      <c r="U291" s="65"/>
+      <c r="Q291" s="49"/>
+      <c r="R291" s="49"/>
+      <c r="S291" s="49"/>
+      <c r="T291" s="49"/>
+      <c r="U291" s="49"/>
       <c r="V291" s="1"/>
     </row>
     <row r="292" spans="1:22">
-      <c r="A292" s="56"/>
-      <c r="B292" s="48"/>
-      <c r="C292" s="48"/>
-      <c r="D292" s="48"/>
-      <c r="E292" s="48"/>
-      <c r="F292" s="48"/>
-      <c r="G292" s="60"/>
-      <c r="H292" s="60"/>
-      <c r="I292" s="60"/>
-      <c r="J292" s="61"/>
-      <c r="K292" s="60"/>
-      <c r="L292" s="60"/>
-      <c r="M292" s="60"/>
-      <c r="N292" s="60"/>
-      <c r="O292" s="60"/>
+      <c r="A292" s="52"/>
+      <c r="B292" s="53"/>
+      <c r="C292" s="53"/>
+      <c r="D292" s="53"/>
+      <c r="E292" s="53"/>
+      <c r="F292" s="53"/>
+      <c r="G292" s="45"/>
+      <c r="H292" s="45"/>
+      <c r="I292" s="45"/>
+      <c r="J292" s="46"/>
+      <c r="K292" s="45"/>
+      <c r="L292" s="45"/>
+      <c r="M292" s="45"/>
+      <c r="N292" s="45"/>
+      <c r="O292" s="45"/>
       <c r="P292" s="5"/>
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
@@ -10054,21 +10088,21 @@
       <c r="V292" s="1"/>
     </row>
     <row r="293" spans="1:22" ht="15">
-      <c r="A293" s="56"/>
-      <c r="B293" s="48"/>
-      <c r="C293" s="48"/>
-      <c r="D293" s="48"/>
-      <c r="E293" s="48"/>
-      <c r="F293" s="48"/>
-      <c r="G293" s="62"/>
-      <c r="H293" s="62"/>
-      <c r="I293" s="62"/>
-      <c r="J293" s="60"/>
-      <c r="K293" s="60"/>
-      <c r="L293" s="60"/>
-      <c r="M293" s="60"/>
-      <c r="N293" s="60"/>
-      <c r="O293" s="60"/>
+      <c r="A293" s="52"/>
+      <c r="B293" s="53"/>
+      <c r="C293" s="53"/>
+      <c r="D293" s="53"/>
+      <c r="E293" s="53"/>
+      <c r="F293" s="53"/>
+      <c r="G293" s="44"/>
+      <c r="H293" s="44"/>
+      <c r="I293" s="44"/>
+      <c r="J293" s="45"/>
+      <c r="K293" s="45"/>
+      <c r="L293" s="45"/>
+      <c r="M293" s="45"/>
+      <c r="N293" s="45"/>
+      <c r="O293" s="45"/>
       <c r="P293" s="5"/>
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
@@ -15331,9 +15365,9 @@
       </c>
       <c r="B542" s="17"/>
       <c r="C542" s="17"/>
-      <c r="D542" s="44"/>
-      <c r="E542" s="45"/>
-      <c r="F542" s="46"/>
+      <c r="D542" s="58"/>
+      <c r="E542" s="59"/>
+      <c r="F542" s="60"/>
       <c r="G542" s="6"/>
       <c r="H542" s="6"/>
       <c r="I542" s="6" t="s">
@@ -15353,9 +15387,9 @@
       <c r="A543" s="16"/>
       <c r="B543" s="17"/>
       <c r="C543" s="17"/>
-      <c r="D543" s="47"/>
-      <c r="E543" s="48"/>
-      <c r="F543" s="49"/>
+      <c r="D543" s="61"/>
+      <c r="E543" s="53"/>
+      <c r="F543" s="62"/>
       <c r="G543" s="6"/>
       <c r="H543" s="6"/>
       <c r="I543" s="6" t="s">
@@ -15375,9 +15409,9 @@
       <c r="A544" s="16"/>
       <c r="B544" s="17"/>
       <c r="C544" s="17"/>
-      <c r="D544" s="47"/>
-      <c r="E544" s="48"/>
-      <c r="F544" s="49"/>
+      <c r="D544" s="61"/>
+      <c r="E544" s="53"/>
+      <c r="F544" s="62"/>
       <c r="G544" s="6"/>
       <c r="H544" s="6"/>
       <c r="I544" s="6"/>
@@ -15393,9 +15427,9 @@
       <c r="A545" s="16"/>
       <c r="B545" s="17"/>
       <c r="C545" s="17"/>
-      <c r="D545" s="50"/>
-      <c r="E545" s="51"/>
-      <c r="F545" s="52"/>
+      <c r="D545" s="63"/>
+      <c r="E545" s="64"/>
+      <c r="F545" s="65"/>
       <c r="G545" s="37" t="s">
         <v>10</v>
       </c>
@@ -21024,10 +21058,14 @@
       <c r="P815" s="5"/>
     </row>
     <row r="816" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A816" s="16"/>
+      <c r="A816" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="B816" s="17"/>
       <c r="C816" s="17"/>
-      <c r="D816" s="17"/>
+      <c r="D816" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="E816" s="17"/>
       <c r="F816" s="17"/>
       <c r="G816" s="6"/>
@@ -21106,10 +21144,14 @@
       <c r="P819" s="5"/>
     </row>
     <row r="820" spans="1:16" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A820" s="16"/>
+      <c r="A820" s="16" t="s">
+        <v>238</v>
+      </c>
       <c r="B820" s="17"/>
       <c r="C820" s="17"/>
-      <c r="D820" s="17"/>
+      <c r="D820" s="17" t="s">
+        <v>236</v>
+      </c>
       <c r="E820" s="17"/>
       <c r="F820" s="17"/>
       <c r="G820" s="38" t="s">
@@ -21138,14 +21180,22 @@
       <c r="D821" s="17"/>
       <c r="E821" s="17"/>
       <c r="F821" s="17"/>
-      <c r="G821" s="18"/>
+      <c r="G821" s="18" t="s">
+        <v>226</v>
+      </c>
       <c r="H821" s="19"/>
       <c r="I821" s="20"/>
-      <c r="J821" s="21"/>
+      <c r="J821" s="21">
+        <v>45593</v>
+      </c>
       <c r="K821" s="15"/>
-      <c r="L821" s="15"/>
+      <c r="L821" s="15" t="s">
+        <v>179</v>
+      </c>
       <c r="M821" s="15"/>
-      <c r="N821" s="15"/>
+      <c r="N821" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="O821" s="15"/>
       <c r="P821" s="5"/>
     </row>
@@ -21189,7 +21239,9 @@
       <c r="A824" s="16"/>
       <c r="B824" s="17"/>
       <c r="C824" s="17"/>
-      <c r="D824" s="17"/>
+      <c r="D824" s="17" t="s">
+        <v>239</v>
+      </c>
       <c r="E824" s="17"/>
       <c r="F824" s="17"/>
       <c r="G824" s="18"/>
@@ -21445,7 +21497,7 @@
       <c r="C838" s="28"/>
       <c r="D838" s="28"/>
       <c r="E838" s="31" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F838" s="31"/>
       <c r="G838" s="31"/>
@@ -21871,25 +21923,1634 @@
     </row>
   </sheetData>
   <mergeCells count="1679">
-    <mergeCell ref="N851:O851"/>
-    <mergeCell ref="A852:C855"/>
-    <mergeCell ref="D852:F855"/>
-    <mergeCell ref="G852:I852"/>
-    <mergeCell ref="J852:K852"/>
-    <mergeCell ref="L852:M852"/>
-    <mergeCell ref="N852:O852"/>
-    <mergeCell ref="G853:I853"/>
-    <mergeCell ref="J853:K853"/>
-    <mergeCell ref="L853:M853"/>
-    <mergeCell ref="N853:O853"/>
-    <mergeCell ref="G854:I854"/>
-    <mergeCell ref="J854:K854"/>
-    <mergeCell ref="L854:M854"/>
-    <mergeCell ref="N854:O854"/>
-    <mergeCell ref="G855:I855"/>
-    <mergeCell ref="J855:K855"/>
-    <mergeCell ref="L855:M855"/>
-    <mergeCell ref="N855:O855"/>
+    <mergeCell ref="N795:O795"/>
+    <mergeCell ref="A796:C799"/>
+    <mergeCell ref="D796:F799"/>
+    <mergeCell ref="G796:I796"/>
+    <mergeCell ref="J796:K796"/>
+    <mergeCell ref="L796:M796"/>
+    <mergeCell ref="N796:O796"/>
+    <mergeCell ref="G797:I797"/>
+    <mergeCell ref="J797:K797"/>
+    <mergeCell ref="L797:M797"/>
+    <mergeCell ref="N797:O797"/>
+    <mergeCell ref="G798:I798"/>
+    <mergeCell ref="J798:K798"/>
+    <mergeCell ref="L798:M798"/>
+    <mergeCell ref="N798:O798"/>
+    <mergeCell ref="G799:I799"/>
+    <mergeCell ref="J799:K799"/>
+    <mergeCell ref="L799:M799"/>
+    <mergeCell ref="N799:O799"/>
+    <mergeCell ref="A776:D784"/>
+    <mergeCell ref="E777:O780"/>
+    <mergeCell ref="E781:O781"/>
+    <mergeCell ref="E782:O782"/>
+    <mergeCell ref="L784:O784"/>
+    <mergeCell ref="L785:O785"/>
+    <mergeCell ref="L786:O786"/>
+    <mergeCell ref="A787:C787"/>
+    <mergeCell ref="D787:F787"/>
+    <mergeCell ref="L787:O787"/>
+    <mergeCell ref="A788:C791"/>
+    <mergeCell ref="D788:F791"/>
+    <mergeCell ref="L788:O788"/>
+    <mergeCell ref="L789:O789"/>
+    <mergeCell ref="G791:O791"/>
+    <mergeCell ref="A792:C795"/>
+    <mergeCell ref="D792:F795"/>
+    <mergeCell ref="G792:I792"/>
+    <mergeCell ref="J792:K792"/>
+    <mergeCell ref="L792:M792"/>
+    <mergeCell ref="N792:O792"/>
+    <mergeCell ref="G793:I793"/>
+    <mergeCell ref="J793:K793"/>
+    <mergeCell ref="L793:M793"/>
+    <mergeCell ref="N793:O793"/>
+    <mergeCell ref="G794:I794"/>
+    <mergeCell ref="J794:K794"/>
+    <mergeCell ref="L794:M794"/>
+    <mergeCell ref="N794:O794"/>
+    <mergeCell ref="G795:I795"/>
+    <mergeCell ref="J795:K795"/>
+    <mergeCell ref="L795:M795"/>
+    <mergeCell ref="N767:O767"/>
+    <mergeCell ref="A768:C771"/>
+    <mergeCell ref="D768:F771"/>
+    <mergeCell ref="G768:I768"/>
+    <mergeCell ref="J768:K768"/>
+    <mergeCell ref="L768:M768"/>
+    <mergeCell ref="N768:O768"/>
+    <mergeCell ref="G769:I769"/>
+    <mergeCell ref="J769:K769"/>
+    <mergeCell ref="L769:M769"/>
+    <mergeCell ref="N769:O769"/>
+    <mergeCell ref="G770:I770"/>
+    <mergeCell ref="J770:K770"/>
+    <mergeCell ref="L770:M770"/>
+    <mergeCell ref="N770:O770"/>
+    <mergeCell ref="G771:I771"/>
+    <mergeCell ref="J771:K771"/>
+    <mergeCell ref="L771:M771"/>
+    <mergeCell ref="N771:O771"/>
+    <mergeCell ref="A748:D756"/>
+    <mergeCell ref="E749:O752"/>
+    <mergeCell ref="E753:O753"/>
+    <mergeCell ref="E754:O754"/>
+    <mergeCell ref="L756:O756"/>
+    <mergeCell ref="L757:O757"/>
+    <mergeCell ref="L758:O758"/>
+    <mergeCell ref="A759:C759"/>
+    <mergeCell ref="D759:F759"/>
+    <mergeCell ref="L759:O759"/>
+    <mergeCell ref="A760:C763"/>
+    <mergeCell ref="D760:F763"/>
+    <mergeCell ref="L760:O760"/>
+    <mergeCell ref="L761:O761"/>
+    <mergeCell ref="G763:O763"/>
+    <mergeCell ref="A764:C767"/>
+    <mergeCell ref="D764:F767"/>
+    <mergeCell ref="G764:I764"/>
+    <mergeCell ref="J764:K764"/>
+    <mergeCell ref="L764:M764"/>
+    <mergeCell ref="N764:O764"/>
+    <mergeCell ref="G765:I765"/>
+    <mergeCell ref="J765:K765"/>
+    <mergeCell ref="L765:M765"/>
+    <mergeCell ref="N765:O765"/>
+    <mergeCell ref="G766:I766"/>
+    <mergeCell ref="J766:K766"/>
+    <mergeCell ref="L766:M766"/>
+    <mergeCell ref="N766:O766"/>
+    <mergeCell ref="G767:I767"/>
+    <mergeCell ref="J767:K767"/>
+    <mergeCell ref="L767:M767"/>
+    <mergeCell ref="N657:O657"/>
+    <mergeCell ref="A658:C661"/>
+    <mergeCell ref="D658:F661"/>
+    <mergeCell ref="G658:I658"/>
+    <mergeCell ref="J658:K658"/>
+    <mergeCell ref="L658:M658"/>
+    <mergeCell ref="N658:O658"/>
+    <mergeCell ref="G659:I659"/>
+    <mergeCell ref="J659:K659"/>
+    <mergeCell ref="L659:M659"/>
+    <mergeCell ref="N659:O659"/>
+    <mergeCell ref="G660:I660"/>
+    <mergeCell ref="J660:K660"/>
+    <mergeCell ref="L660:M660"/>
+    <mergeCell ref="N660:O660"/>
+    <mergeCell ref="G661:I661"/>
+    <mergeCell ref="J661:K661"/>
+    <mergeCell ref="L661:M661"/>
+    <mergeCell ref="N661:O661"/>
+    <mergeCell ref="A638:D646"/>
+    <mergeCell ref="E639:O642"/>
+    <mergeCell ref="E643:O643"/>
+    <mergeCell ref="E644:O644"/>
+    <mergeCell ref="L646:O646"/>
+    <mergeCell ref="L647:O647"/>
+    <mergeCell ref="L648:O648"/>
+    <mergeCell ref="A649:C649"/>
+    <mergeCell ref="D649:F649"/>
+    <mergeCell ref="L649:O649"/>
+    <mergeCell ref="A650:C653"/>
+    <mergeCell ref="D650:F653"/>
+    <mergeCell ref="L650:O650"/>
+    <mergeCell ref="L651:O651"/>
+    <mergeCell ref="G653:O653"/>
+    <mergeCell ref="A654:C657"/>
+    <mergeCell ref="D654:F657"/>
+    <mergeCell ref="G654:I654"/>
+    <mergeCell ref="J654:K654"/>
+    <mergeCell ref="L654:M654"/>
+    <mergeCell ref="N654:O654"/>
+    <mergeCell ref="G655:I655"/>
+    <mergeCell ref="J655:K655"/>
+    <mergeCell ref="L655:M655"/>
+    <mergeCell ref="N655:O655"/>
+    <mergeCell ref="G656:I656"/>
+    <mergeCell ref="J656:K656"/>
+    <mergeCell ref="L656:M656"/>
+    <mergeCell ref="N656:O656"/>
+    <mergeCell ref="G657:I657"/>
+    <mergeCell ref="J657:K657"/>
+    <mergeCell ref="L657:M657"/>
+    <mergeCell ref="N683:O683"/>
+    <mergeCell ref="A684:C687"/>
+    <mergeCell ref="D684:F687"/>
+    <mergeCell ref="G684:I684"/>
+    <mergeCell ref="J684:K684"/>
+    <mergeCell ref="L684:M684"/>
+    <mergeCell ref="N684:O684"/>
+    <mergeCell ref="G685:I685"/>
+    <mergeCell ref="J685:K685"/>
+    <mergeCell ref="L685:M685"/>
+    <mergeCell ref="N685:O685"/>
+    <mergeCell ref="G686:I686"/>
+    <mergeCell ref="J686:K686"/>
+    <mergeCell ref="L686:M686"/>
+    <mergeCell ref="N686:O686"/>
+    <mergeCell ref="G687:I687"/>
+    <mergeCell ref="J687:K687"/>
+    <mergeCell ref="L687:M687"/>
+    <mergeCell ref="N687:O687"/>
+    <mergeCell ref="A664:D672"/>
+    <mergeCell ref="E665:O668"/>
+    <mergeCell ref="E669:O669"/>
+    <mergeCell ref="E670:O670"/>
+    <mergeCell ref="L672:O672"/>
+    <mergeCell ref="L673:O673"/>
+    <mergeCell ref="L674:O674"/>
+    <mergeCell ref="A675:C675"/>
+    <mergeCell ref="D675:F675"/>
+    <mergeCell ref="L675:O675"/>
+    <mergeCell ref="A676:C679"/>
+    <mergeCell ref="D676:F679"/>
+    <mergeCell ref="L676:O676"/>
+    <mergeCell ref="L677:O677"/>
+    <mergeCell ref="G679:O679"/>
+    <mergeCell ref="A680:C683"/>
+    <mergeCell ref="D680:F683"/>
+    <mergeCell ref="G680:I680"/>
+    <mergeCell ref="J680:K680"/>
+    <mergeCell ref="L680:M680"/>
+    <mergeCell ref="N680:O680"/>
+    <mergeCell ref="G681:I681"/>
+    <mergeCell ref="J681:K681"/>
+    <mergeCell ref="L681:M681"/>
+    <mergeCell ref="N681:O681"/>
+    <mergeCell ref="G682:I682"/>
+    <mergeCell ref="J682:K682"/>
+    <mergeCell ref="L682:M682"/>
+    <mergeCell ref="N682:O682"/>
+    <mergeCell ref="G683:I683"/>
+    <mergeCell ref="J683:K683"/>
+    <mergeCell ref="L683:M683"/>
+    <mergeCell ref="A632:C635"/>
+    <mergeCell ref="D632:F635"/>
+    <mergeCell ref="G632:I632"/>
+    <mergeCell ref="J632:K632"/>
+    <mergeCell ref="L632:M632"/>
+    <mergeCell ref="N632:O632"/>
+    <mergeCell ref="G633:I633"/>
+    <mergeCell ref="J633:K633"/>
+    <mergeCell ref="L633:M633"/>
+    <mergeCell ref="N633:O633"/>
+    <mergeCell ref="G634:I634"/>
+    <mergeCell ref="J634:K634"/>
+    <mergeCell ref="L634:M634"/>
+    <mergeCell ref="N634:O634"/>
+    <mergeCell ref="G635:I635"/>
+    <mergeCell ref="J635:K635"/>
+    <mergeCell ref="L635:M635"/>
+    <mergeCell ref="N635:O635"/>
+    <mergeCell ref="L621:O621"/>
+    <mergeCell ref="L622:O622"/>
+    <mergeCell ref="A623:C623"/>
+    <mergeCell ref="D623:F623"/>
+    <mergeCell ref="L623:O623"/>
+    <mergeCell ref="A624:C627"/>
+    <mergeCell ref="D624:F627"/>
+    <mergeCell ref="L624:O624"/>
+    <mergeCell ref="L625:O625"/>
+    <mergeCell ref="G627:O627"/>
+    <mergeCell ref="A628:C631"/>
+    <mergeCell ref="D628:F631"/>
+    <mergeCell ref="G628:I628"/>
+    <mergeCell ref="J628:K628"/>
+    <mergeCell ref="L628:M628"/>
+    <mergeCell ref="N628:O628"/>
+    <mergeCell ref="G629:I629"/>
+    <mergeCell ref="J629:K629"/>
+    <mergeCell ref="L629:M629"/>
+    <mergeCell ref="N629:O629"/>
+    <mergeCell ref="G630:I630"/>
+    <mergeCell ref="J630:K630"/>
+    <mergeCell ref="L630:M630"/>
+    <mergeCell ref="N630:O630"/>
+    <mergeCell ref="G631:I631"/>
+    <mergeCell ref="J631:K631"/>
+    <mergeCell ref="L631:M631"/>
+    <mergeCell ref="N631:O631"/>
+    <mergeCell ref="A597:C597"/>
+    <mergeCell ref="D597:F597"/>
+    <mergeCell ref="L597:O597"/>
+    <mergeCell ref="A598:C601"/>
+    <mergeCell ref="D598:F601"/>
+    <mergeCell ref="L598:O598"/>
+    <mergeCell ref="L599:O599"/>
+    <mergeCell ref="A602:C605"/>
+    <mergeCell ref="D602:F605"/>
+    <mergeCell ref="G601:O601"/>
+    <mergeCell ref="A606:C609"/>
+    <mergeCell ref="D606:F609"/>
+    <mergeCell ref="G602:I602"/>
+    <mergeCell ref="J602:K602"/>
+    <mergeCell ref="L602:M602"/>
+    <mergeCell ref="N602:O602"/>
+    <mergeCell ref="A612:D620"/>
+    <mergeCell ref="E613:O616"/>
+    <mergeCell ref="E617:O617"/>
+    <mergeCell ref="E618:O618"/>
+    <mergeCell ref="L620:O620"/>
+    <mergeCell ref="J578:K578"/>
+    <mergeCell ref="G606:I606"/>
+    <mergeCell ref="J606:K606"/>
+    <mergeCell ref="L606:M606"/>
+    <mergeCell ref="N606:O606"/>
+    <mergeCell ref="G607:I607"/>
+    <mergeCell ref="J607:K607"/>
+    <mergeCell ref="L607:M607"/>
+    <mergeCell ref="N607:O607"/>
+    <mergeCell ref="G608:I608"/>
+    <mergeCell ref="J608:K608"/>
+    <mergeCell ref="L608:M608"/>
+    <mergeCell ref="N608:O608"/>
+    <mergeCell ref="G609:I609"/>
+    <mergeCell ref="J609:K609"/>
+    <mergeCell ref="L609:M609"/>
+    <mergeCell ref="N609:O609"/>
+    <mergeCell ref="L578:M578"/>
+    <mergeCell ref="A550:C553"/>
+    <mergeCell ref="G603:I603"/>
+    <mergeCell ref="J603:K603"/>
+    <mergeCell ref="L603:M603"/>
+    <mergeCell ref="N603:O603"/>
+    <mergeCell ref="G604:I604"/>
+    <mergeCell ref="J604:K604"/>
+    <mergeCell ref="L604:M604"/>
+    <mergeCell ref="N604:O604"/>
+    <mergeCell ref="G605:I605"/>
+    <mergeCell ref="J605:K605"/>
+    <mergeCell ref="L605:M605"/>
+    <mergeCell ref="N605:O605"/>
+    <mergeCell ref="L551:M551"/>
+    <mergeCell ref="N551:O551"/>
+    <mergeCell ref="G552:I552"/>
+    <mergeCell ref="J552:K552"/>
+    <mergeCell ref="L552:M552"/>
+    <mergeCell ref="N552:O552"/>
+    <mergeCell ref="G553:I553"/>
+    <mergeCell ref="J553:K553"/>
+    <mergeCell ref="L553:M553"/>
+    <mergeCell ref="N553:O553"/>
+    <mergeCell ref="N578:O578"/>
+    <mergeCell ref="G579:I579"/>
+    <mergeCell ref="J579:K579"/>
+    <mergeCell ref="L579:M579"/>
+    <mergeCell ref="G577:I577"/>
+    <mergeCell ref="J577:K577"/>
+    <mergeCell ref="L577:M577"/>
+    <mergeCell ref="N577:O577"/>
+    <mergeCell ref="G578:I578"/>
+    <mergeCell ref="A504:D512"/>
+    <mergeCell ref="E505:O508"/>
+    <mergeCell ref="E509:O509"/>
+    <mergeCell ref="E510:O510"/>
+    <mergeCell ref="L512:O512"/>
+    <mergeCell ref="L513:O513"/>
+    <mergeCell ref="L514:O514"/>
+    <mergeCell ref="A586:D594"/>
+    <mergeCell ref="E587:O590"/>
+    <mergeCell ref="E591:O591"/>
+    <mergeCell ref="E592:O592"/>
+    <mergeCell ref="L594:O594"/>
+    <mergeCell ref="L595:O595"/>
+    <mergeCell ref="L596:O596"/>
+    <mergeCell ref="L541:O541"/>
+    <mergeCell ref="A542:C545"/>
+    <mergeCell ref="D542:F545"/>
+    <mergeCell ref="L542:O542"/>
+    <mergeCell ref="L543:O543"/>
+    <mergeCell ref="G545:O545"/>
+    <mergeCell ref="A546:C549"/>
+    <mergeCell ref="D550:F553"/>
+    <mergeCell ref="G546:I546"/>
+    <mergeCell ref="J546:K546"/>
+    <mergeCell ref="L546:M546"/>
+    <mergeCell ref="N546:O546"/>
+    <mergeCell ref="G547:I547"/>
+    <mergeCell ref="J547:K547"/>
+    <mergeCell ref="L547:M547"/>
+    <mergeCell ref="N547:O547"/>
+    <mergeCell ref="G548:I548"/>
+    <mergeCell ref="J548:K548"/>
+    <mergeCell ref="A498:C501"/>
+    <mergeCell ref="D498:F501"/>
+    <mergeCell ref="G498:I498"/>
+    <mergeCell ref="J498:K498"/>
+    <mergeCell ref="L498:M498"/>
+    <mergeCell ref="N498:O498"/>
+    <mergeCell ref="G499:I499"/>
+    <mergeCell ref="J499:K499"/>
+    <mergeCell ref="L499:M499"/>
+    <mergeCell ref="N499:O499"/>
+    <mergeCell ref="G500:I500"/>
+    <mergeCell ref="J500:K500"/>
+    <mergeCell ref="L500:M500"/>
+    <mergeCell ref="N500:O500"/>
+    <mergeCell ref="G501:I501"/>
+    <mergeCell ref="J501:K501"/>
+    <mergeCell ref="L501:M501"/>
+    <mergeCell ref="N501:O501"/>
+    <mergeCell ref="A490:C493"/>
+    <mergeCell ref="D490:F493"/>
+    <mergeCell ref="L490:O490"/>
+    <mergeCell ref="L491:O491"/>
+    <mergeCell ref="G493:O493"/>
+    <mergeCell ref="A494:C497"/>
+    <mergeCell ref="D494:F497"/>
+    <mergeCell ref="G494:I494"/>
+    <mergeCell ref="J494:K494"/>
+    <mergeCell ref="L494:M494"/>
+    <mergeCell ref="N494:O494"/>
+    <mergeCell ref="G495:I495"/>
+    <mergeCell ref="J495:K495"/>
+    <mergeCell ref="L495:M495"/>
+    <mergeCell ref="N495:O495"/>
+    <mergeCell ref="G496:I496"/>
+    <mergeCell ref="J496:K496"/>
+    <mergeCell ref="L496:M496"/>
+    <mergeCell ref="N496:O496"/>
+    <mergeCell ref="G497:I497"/>
+    <mergeCell ref="J497:K497"/>
+    <mergeCell ref="L497:M497"/>
+    <mergeCell ref="N497:O497"/>
+    <mergeCell ref="A478:D486"/>
+    <mergeCell ref="E479:O482"/>
+    <mergeCell ref="E483:O483"/>
+    <mergeCell ref="E484:O484"/>
+    <mergeCell ref="L486:O486"/>
+    <mergeCell ref="L487:O487"/>
+    <mergeCell ref="L488:O488"/>
+    <mergeCell ref="A489:C489"/>
+    <mergeCell ref="D489:F489"/>
+    <mergeCell ref="L489:O489"/>
+    <mergeCell ref="A446:C449"/>
+    <mergeCell ref="D446:F449"/>
+    <mergeCell ref="G446:I446"/>
+    <mergeCell ref="J446:K446"/>
+    <mergeCell ref="L446:M446"/>
+    <mergeCell ref="N446:O446"/>
+    <mergeCell ref="G447:I447"/>
+    <mergeCell ref="J447:K447"/>
+    <mergeCell ref="L447:M447"/>
+    <mergeCell ref="N447:O447"/>
+    <mergeCell ref="G448:I448"/>
+    <mergeCell ref="J448:K448"/>
+    <mergeCell ref="L448:M448"/>
+    <mergeCell ref="N448:O448"/>
+    <mergeCell ref="G449:I449"/>
+    <mergeCell ref="J449:K449"/>
+    <mergeCell ref="L449:M449"/>
+    <mergeCell ref="N449:O449"/>
+    <mergeCell ref="A452:D460"/>
+    <mergeCell ref="E453:O456"/>
+    <mergeCell ref="E457:O457"/>
+    <mergeCell ref="E458:O458"/>
+    <mergeCell ref="A438:C441"/>
+    <mergeCell ref="D438:F441"/>
+    <mergeCell ref="L438:O438"/>
+    <mergeCell ref="L439:O439"/>
+    <mergeCell ref="G441:O441"/>
+    <mergeCell ref="A442:C445"/>
+    <mergeCell ref="D442:F445"/>
+    <mergeCell ref="G442:I442"/>
+    <mergeCell ref="J442:K442"/>
+    <mergeCell ref="L442:M442"/>
+    <mergeCell ref="N442:O442"/>
+    <mergeCell ref="G443:I443"/>
+    <mergeCell ref="J443:K443"/>
+    <mergeCell ref="L443:M443"/>
+    <mergeCell ref="N443:O443"/>
+    <mergeCell ref="G444:I444"/>
+    <mergeCell ref="J444:K444"/>
+    <mergeCell ref="L444:M444"/>
+    <mergeCell ref="N444:O444"/>
+    <mergeCell ref="G445:I445"/>
+    <mergeCell ref="J445:K445"/>
+    <mergeCell ref="L445:M445"/>
+    <mergeCell ref="N445:O445"/>
+    <mergeCell ref="A426:D434"/>
+    <mergeCell ref="E427:O430"/>
+    <mergeCell ref="E431:O431"/>
+    <mergeCell ref="E432:O432"/>
+    <mergeCell ref="L434:O434"/>
+    <mergeCell ref="L435:O435"/>
+    <mergeCell ref="L436:O436"/>
+    <mergeCell ref="A437:C437"/>
+    <mergeCell ref="D437:F437"/>
+    <mergeCell ref="L437:O437"/>
+    <mergeCell ref="A368:C371"/>
+    <mergeCell ref="D368:F371"/>
+    <mergeCell ref="G368:I368"/>
+    <mergeCell ref="J368:K368"/>
+    <mergeCell ref="L368:M368"/>
+    <mergeCell ref="N368:O368"/>
+    <mergeCell ref="G369:I369"/>
+    <mergeCell ref="J369:K369"/>
+    <mergeCell ref="L369:M369"/>
+    <mergeCell ref="N369:O369"/>
+    <mergeCell ref="G370:I370"/>
+    <mergeCell ref="J370:K370"/>
+    <mergeCell ref="L370:M370"/>
+    <mergeCell ref="N370:O370"/>
+    <mergeCell ref="G371:I371"/>
+    <mergeCell ref="J371:K371"/>
+    <mergeCell ref="L371:M371"/>
+    <mergeCell ref="N371:O371"/>
+    <mergeCell ref="A374:D382"/>
+    <mergeCell ref="E375:O378"/>
+    <mergeCell ref="E379:O379"/>
+    <mergeCell ref="E380:O380"/>
+    <mergeCell ref="A360:C363"/>
+    <mergeCell ref="D360:F363"/>
+    <mergeCell ref="L360:O360"/>
+    <mergeCell ref="L361:O361"/>
+    <mergeCell ref="G363:O363"/>
+    <mergeCell ref="A364:C367"/>
+    <mergeCell ref="D364:F367"/>
+    <mergeCell ref="G364:I364"/>
+    <mergeCell ref="J364:K364"/>
+    <mergeCell ref="L364:M364"/>
+    <mergeCell ref="N364:O364"/>
+    <mergeCell ref="G365:I365"/>
+    <mergeCell ref="J365:K365"/>
+    <mergeCell ref="L365:M365"/>
+    <mergeCell ref="N365:O365"/>
+    <mergeCell ref="G366:I366"/>
+    <mergeCell ref="J366:K366"/>
+    <mergeCell ref="L366:M366"/>
+    <mergeCell ref="N366:O366"/>
+    <mergeCell ref="G367:I367"/>
+    <mergeCell ref="J367:K367"/>
+    <mergeCell ref="L367:M367"/>
+    <mergeCell ref="N367:O367"/>
+    <mergeCell ref="A348:D356"/>
+    <mergeCell ref="E349:O352"/>
+    <mergeCell ref="E353:O353"/>
+    <mergeCell ref="E354:O354"/>
+    <mergeCell ref="L356:O356"/>
+    <mergeCell ref="L357:O357"/>
+    <mergeCell ref="L358:O358"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="D359:F359"/>
+    <mergeCell ref="L359:O359"/>
+    <mergeCell ref="A316:C319"/>
+    <mergeCell ref="D316:F319"/>
+    <mergeCell ref="G316:I316"/>
+    <mergeCell ref="J316:K316"/>
+    <mergeCell ref="L316:M316"/>
+    <mergeCell ref="N316:O316"/>
+    <mergeCell ref="G317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="L317:M317"/>
+    <mergeCell ref="N317:O317"/>
+    <mergeCell ref="G318:I318"/>
+    <mergeCell ref="J318:K318"/>
+    <mergeCell ref="L318:M318"/>
+    <mergeCell ref="N318:O318"/>
+    <mergeCell ref="G319:I319"/>
+    <mergeCell ref="J319:K319"/>
+    <mergeCell ref="L319:M319"/>
+    <mergeCell ref="N319:O319"/>
+    <mergeCell ref="A322:D330"/>
+    <mergeCell ref="E323:O326"/>
+    <mergeCell ref="E327:O327"/>
+    <mergeCell ref="E328:O328"/>
+    <mergeCell ref="A308:C311"/>
+    <mergeCell ref="D308:F311"/>
+    <mergeCell ref="L308:O308"/>
+    <mergeCell ref="L309:O309"/>
+    <mergeCell ref="G311:O311"/>
+    <mergeCell ref="A312:C315"/>
+    <mergeCell ref="D312:F315"/>
+    <mergeCell ref="G312:I312"/>
+    <mergeCell ref="J312:K312"/>
+    <mergeCell ref="L312:M312"/>
+    <mergeCell ref="N312:O312"/>
+    <mergeCell ref="G313:I313"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="L313:M313"/>
+    <mergeCell ref="N313:O313"/>
+    <mergeCell ref="G314:I314"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="L314:M314"/>
+    <mergeCell ref="N314:O314"/>
+    <mergeCell ref="G315:I315"/>
+    <mergeCell ref="J315:K315"/>
+    <mergeCell ref="L315:M315"/>
+    <mergeCell ref="N315:O315"/>
+    <mergeCell ref="A296:D304"/>
+    <mergeCell ref="E297:O300"/>
+    <mergeCell ref="E301:O301"/>
+    <mergeCell ref="E302:O302"/>
+    <mergeCell ref="L304:O304"/>
+    <mergeCell ref="L305:O305"/>
+    <mergeCell ref="L306:O306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="D307:F307"/>
+    <mergeCell ref="L307:O307"/>
+    <mergeCell ref="A256:C259"/>
+    <mergeCell ref="D256:F259"/>
+    <mergeCell ref="G256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="L256:M256"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="G257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="L257:M257"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="G258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="L258:M258"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="G259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="L259:M259"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="A262:D270"/>
+    <mergeCell ref="E263:O266"/>
+    <mergeCell ref="E267:O267"/>
+    <mergeCell ref="E268:O268"/>
+    <mergeCell ref="A248:C251"/>
+    <mergeCell ref="D248:F251"/>
+    <mergeCell ref="L248:O248"/>
+    <mergeCell ref="L249:O249"/>
+    <mergeCell ref="G251:O251"/>
+    <mergeCell ref="A252:C255"/>
+    <mergeCell ref="D252:F255"/>
+    <mergeCell ref="G252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="L252:M252"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="G253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="L253:M253"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="G254:I254"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="L254:M254"/>
+    <mergeCell ref="N254:O254"/>
+    <mergeCell ref="G255:I255"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="L255:M255"/>
+    <mergeCell ref="N255:O255"/>
+    <mergeCell ref="A236:D244"/>
+    <mergeCell ref="E237:O240"/>
+    <mergeCell ref="E241:O241"/>
+    <mergeCell ref="E242:O242"/>
+    <mergeCell ref="L244:O244"/>
+    <mergeCell ref="L245:O245"/>
+    <mergeCell ref="L246:O246"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="D247:F247"/>
+    <mergeCell ref="L247:O247"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="E6:O6"/>
+    <mergeCell ref="E7:O7"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="A1:D9"/>
+    <mergeCell ref="E2:O5"/>
+    <mergeCell ref="A13:C16"/>
+    <mergeCell ref="A17:C20"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="D17:F20"/>
+    <mergeCell ref="A21:C24"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A27:D35"/>
+    <mergeCell ref="E28:O31"/>
+    <mergeCell ref="E32:O32"/>
+    <mergeCell ref="E33:O33"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A43:C46"/>
+    <mergeCell ref="D43:F46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="A39:C42"/>
+    <mergeCell ref="D39:F42"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A53:D61"/>
+    <mergeCell ref="E54:O57"/>
+    <mergeCell ref="E58:O58"/>
+    <mergeCell ref="E59:O59"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="A47:C50"/>
+    <mergeCell ref="D47:F50"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D21:F24"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="A65:C68"/>
+    <mergeCell ref="D65:F68"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="G68:O68"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A69:C72"/>
+    <mergeCell ref="D69:F72"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A79:D87"/>
+    <mergeCell ref="E80:O83"/>
+    <mergeCell ref="E84:O84"/>
+    <mergeCell ref="E85:O85"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A73:C76"/>
+    <mergeCell ref="D73:F76"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="A91:C94"/>
+    <mergeCell ref="D91:F94"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="G94:O94"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A95:C98"/>
+    <mergeCell ref="D95:F98"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A105:D113"/>
+    <mergeCell ref="E106:O109"/>
+    <mergeCell ref="E110:O110"/>
+    <mergeCell ref="E111:O111"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A99:C102"/>
+    <mergeCell ref="D99:F102"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="L115:O115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="L116:O116"/>
+    <mergeCell ref="A117:C120"/>
+    <mergeCell ref="D117:F120"/>
+    <mergeCell ref="L117:O117"/>
+    <mergeCell ref="L118:O118"/>
+    <mergeCell ref="G120:O120"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A121:C124"/>
+    <mergeCell ref="D121:F124"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A131:D139"/>
+    <mergeCell ref="E132:O135"/>
+    <mergeCell ref="E136:O136"/>
+    <mergeCell ref="E137:O137"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A125:C128"/>
+    <mergeCell ref="D125:F128"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="L141:O141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="L142:O142"/>
+    <mergeCell ref="A143:C146"/>
+    <mergeCell ref="D143:F146"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="G146:O146"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="G150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="A147:C150"/>
+    <mergeCell ref="D147:F150"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A157:D165"/>
+    <mergeCell ref="E158:O161"/>
+    <mergeCell ref="E162:O162"/>
+    <mergeCell ref="E163:O163"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="L166:O166"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="A151:C154"/>
+    <mergeCell ref="D151:F154"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="L167:O167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="L168:O168"/>
+    <mergeCell ref="A169:C172"/>
+    <mergeCell ref="D169:F172"/>
+    <mergeCell ref="L169:O169"/>
+    <mergeCell ref="L170:O170"/>
+    <mergeCell ref="G172:O172"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="L175:M175"/>
+    <mergeCell ref="N175:O175"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="L176:M176"/>
+    <mergeCell ref="N176:O176"/>
+    <mergeCell ref="A173:C176"/>
+    <mergeCell ref="D173:F176"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="N173:O173"/>
+    <mergeCell ref="G174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="L174:M174"/>
+    <mergeCell ref="N174:O174"/>
+    <mergeCell ref="A184:D192"/>
+    <mergeCell ref="E185:O188"/>
+    <mergeCell ref="E189:O189"/>
+    <mergeCell ref="E190:O190"/>
+    <mergeCell ref="L192:O192"/>
+    <mergeCell ref="L193:O193"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="G180:I180"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="L180:M180"/>
+    <mergeCell ref="N180:O180"/>
+    <mergeCell ref="A177:C180"/>
+    <mergeCell ref="D177:F180"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="L177:M177"/>
+    <mergeCell ref="N177:O177"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="L178:M178"/>
+    <mergeCell ref="N178:O178"/>
+    <mergeCell ref="L194:O194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="L195:O195"/>
+    <mergeCell ref="A196:C199"/>
+    <mergeCell ref="D196:F199"/>
+    <mergeCell ref="L196:O196"/>
+    <mergeCell ref="L197:O197"/>
+    <mergeCell ref="G199:O199"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="L202:M202"/>
+    <mergeCell ref="N202:O202"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="L203:M203"/>
+    <mergeCell ref="N203:O203"/>
+    <mergeCell ref="A200:C203"/>
+    <mergeCell ref="D200:F203"/>
+    <mergeCell ref="G200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="L200:M200"/>
+    <mergeCell ref="N200:O200"/>
+    <mergeCell ref="G201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="L201:M201"/>
+    <mergeCell ref="N201:O201"/>
+    <mergeCell ref="A210:D218"/>
+    <mergeCell ref="E211:O214"/>
+    <mergeCell ref="E215:O215"/>
+    <mergeCell ref="E216:O216"/>
+    <mergeCell ref="L218:O218"/>
+    <mergeCell ref="L219:O219"/>
+    <mergeCell ref="G206:I206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="N206:O206"/>
+    <mergeCell ref="G207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="N207:O207"/>
+    <mergeCell ref="A204:C207"/>
+    <mergeCell ref="D204:F207"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="L204:M204"/>
+    <mergeCell ref="N204:O204"/>
+    <mergeCell ref="G205:I205"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="L205:M205"/>
+    <mergeCell ref="N205:O205"/>
+    <mergeCell ref="L220:O220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="L221:O221"/>
+    <mergeCell ref="A222:C225"/>
+    <mergeCell ref="D222:F225"/>
+    <mergeCell ref="L222:O222"/>
+    <mergeCell ref="L223:O223"/>
+    <mergeCell ref="G225:O225"/>
+    <mergeCell ref="G228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="L228:M228"/>
+    <mergeCell ref="N228:O228"/>
+    <mergeCell ref="G229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="L229:M229"/>
+    <mergeCell ref="N229:O229"/>
+    <mergeCell ref="A226:C229"/>
+    <mergeCell ref="D226:F229"/>
+    <mergeCell ref="G226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="L226:M226"/>
+    <mergeCell ref="N226:O226"/>
+    <mergeCell ref="G227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="L227:M227"/>
+    <mergeCell ref="N227:O227"/>
+    <mergeCell ref="G232:I232"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="L232:M232"/>
+    <mergeCell ref="N232:O232"/>
+    <mergeCell ref="G233:I233"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="L233:M233"/>
+    <mergeCell ref="N233:O233"/>
+    <mergeCell ref="A230:C233"/>
+    <mergeCell ref="D230:F233"/>
+    <mergeCell ref="G230:I230"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="L230:M230"/>
+    <mergeCell ref="N230:O230"/>
+    <mergeCell ref="G231:I231"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="L231:M231"/>
+    <mergeCell ref="N231:O231"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="D273:F273"/>
+    <mergeCell ref="L273:O273"/>
+    <mergeCell ref="A274:C277"/>
+    <mergeCell ref="D274:F277"/>
+    <mergeCell ref="L274:O274"/>
+    <mergeCell ref="L275:O275"/>
+    <mergeCell ref="G277:O277"/>
+    <mergeCell ref="A278:C281"/>
+    <mergeCell ref="D278:F281"/>
+    <mergeCell ref="G278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="L278:M278"/>
+    <mergeCell ref="N278:O278"/>
+    <mergeCell ref="G279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="L279:M279"/>
+    <mergeCell ref="N279:O279"/>
+    <mergeCell ref="A282:C285"/>
+    <mergeCell ref="D282:F285"/>
+    <mergeCell ref="G280:I280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="L280:M280"/>
+    <mergeCell ref="N281:O281"/>
+    <mergeCell ref="G281:I281"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="L281:M281"/>
+    <mergeCell ref="N282:O282"/>
+    <mergeCell ref="G282:I282"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="L282:M282"/>
+    <mergeCell ref="G283:I283"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="L283:M283"/>
+    <mergeCell ref="N283:O283"/>
+    <mergeCell ref="N280:O280"/>
+    <mergeCell ref="A286:C289"/>
+    <mergeCell ref="D286:F289"/>
+    <mergeCell ref="A290:C293"/>
+    <mergeCell ref="D290:F293"/>
+    <mergeCell ref="G284:I284"/>
+    <mergeCell ref="J284:K284"/>
+    <mergeCell ref="L284:M284"/>
+    <mergeCell ref="N284:O284"/>
+    <mergeCell ref="G285:I285"/>
+    <mergeCell ref="J285:K285"/>
+    <mergeCell ref="L285:M285"/>
+    <mergeCell ref="N285:O285"/>
+    <mergeCell ref="G286:I286"/>
+    <mergeCell ref="J286:K286"/>
+    <mergeCell ref="L286:M286"/>
+    <mergeCell ref="N286:O286"/>
+    <mergeCell ref="G287:I287"/>
+    <mergeCell ref="J287:K287"/>
+    <mergeCell ref="L287:M287"/>
+    <mergeCell ref="N287:O287"/>
+    <mergeCell ref="G288:I288"/>
+    <mergeCell ref="J288:K288"/>
+    <mergeCell ref="L288:M288"/>
+    <mergeCell ref="N288:O288"/>
+    <mergeCell ref="G292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="L292:M292"/>
+    <mergeCell ref="N292:O292"/>
+    <mergeCell ref="G293:I293"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="L293:M293"/>
+    <mergeCell ref="N293:O293"/>
+    <mergeCell ref="G289:I289"/>
+    <mergeCell ref="J289:K289"/>
+    <mergeCell ref="L289:M289"/>
+    <mergeCell ref="N289:O289"/>
+    <mergeCell ref="G290:I290"/>
+    <mergeCell ref="J290:K290"/>
+    <mergeCell ref="L290:M290"/>
+    <mergeCell ref="N290:O290"/>
+    <mergeCell ref="G291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="L291:M291"/>
+    <mergeCell ref="N291:O291"/>
+    <mergeCell ref="Q266:U267"/>
+    <mergeCell ref="Q269:U271"/>
+    <mergeCell ref="Q272:U274"/>
+    <mergeCell ref="Q275:U277"/>
+    <mergeCell ref="Q278:U280"/>
+    <mergeCell ref="Q281:U283"/>
+    <mergeCell ref="Q284:U286"/>
+    <mergeCell ref="Q287:U289"/>
+    <mergeCell ref="Q290:U291"/>
+    <mergeCell ref="L270:O270"/>
+    <mergeCell ref="L271:O271"/>
+    <mergeCell ref="L272:O272"/>
+    <mergeCell ref="L330:O330"/>
+    <mergeCell ref="L331:O331"/>
+    <mergeCell ref="L332:O332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="L333:O333"/>
+    <mergeCell ref="A334:C337"/>
+    <mergeCell ref="D334:F337"/>
+    <mergeCell ref="L334:O334"/>
+    <mergeCell ref="L335:O335"/>
+    <mergeCell ref="G337:O337"/>
+    <mergeCell ref="A338:C341"/>
+    <mergeCell ref="D338:F341"/>
+    <mergeCell ref="G338:I338"/>
+    <mergeCell ref="J338:K338"/>
+    <mergeCell ref="L338:M338"/>
+    <mergeCell ref="N338:O338"/>
+    <mergeCell ref="G339:I339"/>
+    <mergeCell ref="J339:K339"/>
+    <mergeCell ref="L339:M339"/>
+    <mergeCell ref="N339:O339"/>
+    <mergeCell ref="G340:I340"/>
+    <mergeCell ref="J340:K340"/>
+    <mergeCell ref="L340:M340"/>
+    <mergeCell ref="N340:O340"/>
+    <mergeCell ref="G341:I341"/>
+    <mergeCell ref="J341:K341"/>
+    <mergeCell ref="L341:M341"/>
+    <mergeCell ref="N341:O341"/>
+    <mergeCell ref="A342:C345"/>
+    <mergeCell ref="D342:F345"/>
+    <mergeCell ref="G342:I342"/>
+    <mergeCell ref="J342:K342"/>
+    <mergeCell ref="L342:M342"/>
+    <mergeCell ref="N342:O342"/>
+    <mergeCell ref="G343:I343"/>
+    <mergeCell ref="J343:K343"/>
+    <mergeCell ref="L343:M343"/>
+    <mergeCell ref="N343:O343"/>
+    <mergeCell ref="G344:I344"/>
+    <mergeCell ref="J344:K344"/>
+    <mergeCell ref="L344:M344"/>
+    <mergeCell ref="N344:O344"/>
+    <mergeCell ref="G345:I345"/>
+    <mergeCell ref="J345:K345"/>
+    <mergeCell ref="L345:M345"/>
+    <mergeCell ref="N345:O345"/>
+    <mergeCell ref="L382:O382"/>
+    <mergeCell ref="L383:O383"/>
+    <mergeCell ref="L384:O384"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="D385:F385"/>
+    <mergeCell ref="L385:O385"/>
+    <mergeCell ref="A386:C389"/>
+    <mergeCell ref="D386:F389"/>
+    <mergeCell ref="L386:O386"/>
+    <mergeCell ref="L387:O387"/>
+    <mergeCell ref="G389:O389"/>
+    <mergeCell ref="A390:C393"/>
+    <mergeCell ref="D390:F393"/>
+    <mergeCell ref="G390:I390"/>
+    <mergeCell ref="J390:K390"/>
+    <mergeCell ref="L390:M390"/>
+    <mergeCell ref="N390:O390"/>
+    <mergeCell ref="G391:I391"/>
+    <mergeCell ref="J391:K391"/>
+    <mergeCell ref="L391:M391"/>
+    <mergeCell ref="N391:O391"/>
+    <mergeCell ref="G392:I392"/>
+    <mergeCell ref="J392:K392"/>
+    <mergeCell ref="L392:M392"/>
+    <mergeCell ref="N392:O392"/>
+    <mergeCell ref="G393:I393"/>
+    <mergeCell ref="J393:K393"/>
+    <mergeCell ref="L393:M393"/>
+    <mergeCell ref="N393:O393"/>
+    <mergeCell ref="A394:C397"/>
+    <mergeCell ref="D394:F397"/>
+    <mergeCell ref="G394:I394"/>
+    <mergeCell ref="J394:K394"/>
+    <mergeCell ref="L394:M394"/>
+    <mergeCell ref="N394:O394"/>
+    <mergeCell ref="G395:I395"/>
+    <mergeCell ref="J395:K395"/>
+    <mergeCell ref="L395:M395"/>
+    <mergeCell ref="N395:O395"/>
+    <mergeCell ref="G396:I396"/>
+    <mergeCell ref="J396:K396"/>
+    <mergeCell ref="L396:M396"/>
+    <mergeCell ref="N396:O396"/>
+    <mergeCell ref="G397:I397"/>
+    <mergeCell ref="J397:K397"/>
+    <mergeCell ref="L397:M397"/>
+    <mergeCell ref="N397:O397"/>
+    <mergeCell ref="A400:D408"/>
+    <mergeCell ref="E401:O404"/>
+    <mergeCell ref="E405:O405"/>
+    <mergeCell ref="E406:O406"/>
+    <mergeCell ref="L408:O408"/>
+    <mergeCell ref="L409:O409"/>
+    <mergeCell ref="L410:O410"/>
+    <mergeCell ref="A411:C411"/>
+    <mergeCell ref="D411:F411"/>
+    <mergeCell ref="L411:O411"/>
+    <mergeCell ref="A412:C415"/>
+    <mergeCell ref="D412:F415"/>
+    <mergeCell ref="L412:O412"/>
+    <mergeCell ref="L413:O413"/>
+    <mergeCell ref="G415:O415"/>
+    <mergeCell ref="A416:C419"/>
+    <mergeCell ref="D416:F419"/>
+    <mergeCell ref="G416:I416"/>
+    <mergeCell ref="J416:K416"/>
+    <mergeCell ref="L416:M416"/>
+    <mergeCell ref="N416:O416"/>
+    <mergeCell ref="G417:I417"/>
+    <mergeCell ref="J417:K417"/>
+    <mergeCell ref="L417:M417"/>
+    <mergeCell ref="N417:O417"/>
+    <mergeCell ref="G418:I418"/>
+    <mergeCell ref="J418:K418"/>
+    <mergeCell ref="L418:M418"/>
+    <mergeCell ref="N418:O418"/>
+    <mergeCell ref="G419:I419"/>
+    <mergeCell ref="J419:K419"/>
+    <mergeCell ref="L419:M419"/>
+    <mergeCell ref="N419:O419"/>
+    <mergeCell ref="A420:C423"/>
+    <mergeCell ref="D420:F423"/>
+    <mergeCell ref="G420:I420"/>
+    <mergeCell ref="J420:K420"/>
+    <mergeCell ref="L420:M420"/>
+    <mergeCell ref="N420:O420"/>
+    <mergeCell ref="G421:I421"/>
+    <mergeCell ref="J421:K421"/>
+    <mergeCell ref="L421:M421"/>
+    <mergeCell ref="N421:O421"/>
+    <mergeCell ref="G422:I422"/>
+    <mergeCell ref="J422:K422"/>
+    <mergeCell ref="L422:M422"/>
+    <mergeCell ref="N422:O422"/>
+    <mergeCell ref="G423:I423"/>
+    <mergeCell ref="J423:K423"/>
+    <mergeCell ref="L423:M423"/>
+    <mergeCell ref="N423:O423"/>
+    <mergeCell ref="L460:O460"/>
+    <mergeCell ref="L461:O461"/>
+    <mergeCell ref="L462:O462"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="D463:F463"/>
+    <mergeCell ref="L463:O463"/>
+    <mergeCell ref="A464:C467"/>
+    <mergeCell ref="D464:F467"/>
+    <mergeCell ref="L464:O464"/>
+    <mergeCell ref="L465:O465"/>
+    <mergeCell ref="G467:O467"/>
+    <mergeCell ref="A468:C471"/>
+    <mergeCell ref="D468:F471"/>
+    <mergeCell ref="G468:I468"/>
+    <mergeCell ref="J468:K468"/>
+    <mergeCell ref="L468:M468"/>
+    <mergeCell ref="N468:O468"/>
+    <mergeCell ref="G469:I469"/>
+    <mergeCell ref="J469:K469"/>
+    <mergeCell ref="L469:M469"/>
+    <mergeCell ref="N469:O469"/>
+    <mergeCell ref="G470:I470"/>
+    <mergeCell ref="J470:K470"/>
+    <mergeCell ref="L470:M470"/>
+    <mergeCell ref="N470:O470"/>
+    <mergeCell ref="G471:I471"/>
+    <mergeCell ref="J471:K471"/>
+    <mergeCell ref="L471:M471"/>
+    <mergeCell ref="N471:O471"/>
+    <mergeCell ref="A472:C475"/>
+    <mergeCell ref="D472:F475"/>
+    <mergeCell ref="G472:I472"/>
+    <mergeCell ref="J472:K472"/>
+    <mergeCell ref="L472:M472"/>
+    <mergeCell ref="N472:O472"/>
+    <mergeCell ref="G473:I473"/>
+    <mergeCell ref="J473:K473"/>
+    <mergeCell ref="L473:M473"/>
+    <mergeCell ref="N473:O473"/>
+    <mergeCell ref="G474:I474"/>
+    <mergeCell ref="J474:K474"/>
+    <mergeCell ref="L474:M474"/>
+    <mergeCell ref="N474:O474"/>
+    <mergeCell ref="G475:I475"/>
+    <mergeCell ref="J475:K475"/>
+    <mergeCell ref="L475:M475"/>
+    <mergeCell ref="N475:O475"/>
+    <mergeCell ref="A515:C515"/>
+    <mergeCell ref="D515:F515"/>
+    <mergeCell ref="L515:O515"/>
+    <mergeCell ref="A516:C519"/>
+    <mergeCell ref="D516:F519"/>
+    <mergeCell ref="L516:O516"/>
+    <mergeCell ref="L517:O517"/>
+    <mergeCell ref="G519:O519"/>
+    <mergeCell ref="A520:C523"/>
+    <mergeCell ref="D520:F523"/>
+    <mergeCell ref="G520:I520"/>
+    <mergeCell ref="J520:K520"/>
+    <mergeCell ref="L520:M520"/>
+    <mergeCell ref="N520:O520"/>
+    <mergeCell ref="G521:I521"/>
+    <mergeCell ref="J521:K521"/>
+    <mergeCell ref="L521:M521"/>
+    <mergeCell ref="N521:O521"/>
+    <mergeCell ref="G522:I522"/>
+    <mergeCell ref="J522:K522"/>
+    <mergeCell ref="L522:M522"/>
+    <mergeCell ref="N522:O522"/>
+    <mergeCell ref="G523:I523"/>
+    <mergeCell ref="J523:K523"/>
+    <mergeCell ref="L523:M523"/>
+    <mergeCell ref="N523:O523"/>
+    <mergeCell ref="A524:C527"/>
+    <mergeCell ref="D524:F527"/>
+    <mergeCell ref="G524:I524"/>
+    <mergeCell ref="J524:K524"/>
+    <mergeCell ref="L524:M524"/>
+    <mergeCell ref="N524:O524"/>
+    <mergeCell ref="G525:I525"/>
+    <mergeCell ref="J525:K525"/>
+    <mergeCell ref="L525:M525"/>
+    <mergeCell ref="N525:O525"/>
+    <mergeCell ref="G526:I526"/>
+    <mergeCell ref="J526:K526"/>
+    <mergeCell ref="L526:M526"/>
+    <mergeCell ref="N526:O526"/>
+    <mergeCell ref="G527:I527"/>
+    <mergeCell ref="J527:K527"/>
+    <mergeCell ref="L527:M527"/>
+    <mergeCell ref="N527:O527"/>
+    <mergeCell ref="A530:D538"/>
+    <mergeCell ref="E531:O534"/>
+    <mergeCell ref="E535:O535"/>
+    <mergeCell ref="E536:O536"/>
+    <mergeCell ref="L538:O538"/>
+    <mergeCell ref="L539:O539"/>
+    <mergeCell ref="L540:O540"/>
+    <mergeCell ref="A541:C541"/>
+    <mergeCell ref="D541:F541"/>
+    <mergeCell ref="A556:D564"/>
+    <mergeCell ref="E557:O560"/>
+    <mergeCell ref="E561:O561"/>
+    <mergeCell ref="E562:O562"/>
+    <mergeCell ref="L564:O564"/>
+    <mergeCell ref="L565:O565"/>
+    <mergeCell ref="L566:O566"/>
+    <mergeCell ref="A567:C567"/>
+    <mergeCell ref="D567:F567"/>
+    <mergeCell ref="L567:O567"/>
+    <mergeCell ref="D546:F549"/>
+    <mergeCell ref="G550:I550"/>
+    <mergeCell ref="J550:K550"/>
+    <mergeCell ref="L550:M550"/>
+    <mergeCell ref="N550:O550"/>
+    <mergeCell ref="G551:I551"/>
+    <mergeCell ref="J551:K551"/>
+    <mergeCell ref="L548:M548"/>
+    <mergeCell ref="N548:O548"/>
+    <mergeCell ref="G549:I549"/>
+    <mergeCell ref="J549:K549"/>
+    <mergeCell ref="L549:M549"/>
+    <mergeCell ref="N549:O549"/>
+    <mergeCell ref="A568:C571"/>
+    <mergeCell ref="D568:F571"/>
+    <mergeCell ref="L568:O568"/>
+    <mergeCell ref="L569:O569"/>
+    <mergeCell ref="G575:O575"/>
+    <mergeCell ref="A572:C575"/>
+    <mergeCell ref="D572:F575"/>
+    <mergeCell ref="A580:C583"/>
+    <mergeCell ref="D580:F583"/>
+    <mergeCell ref="N579:O579"/>
+    <mergeCell ref="A576:C579"/>
+    <mergeCell ref="D576:F579"/>
+    <mergeCell ref="G580:I580"/>
+    <mergeCell ref="J580:K580"/>
+    <mergeCell ref="L580:M580"/>
+    <mergeCell ref="N580:O580"/>
+    <mergeCell ref="G581:I581"/>
+    <mergeCell ref="J581:K581"/>
+    <mergeCell ref="L581:M581"/>
+    <mergeCell ref="N581:O581"/>
+    <mergeCell ref="G582:I582"/>
+    <mergeCell ref="J582:K582"/>
+    <mergeCell ref="L582:M582"/>
+    <mergeCell ref="N582:O582"/>
+    <mergeCell ref="G583:I583"/>
+    <mergeCell ref="J583:K583"/>
+    <mergeCell ref="L583:M583"/>
+    <mergeCell ref="N583:O583"/>
+    <mergeCell ref="G576:I576"/>
+    <mergeCell ref="J576:K576"/>
+    <mergeCell ref="L576:M576"/>
+    <mergeCell ref="N576:O576"/>
+    <mergeCell ref="A692:D700"/>
+    <mergeCell ref="E693:O696"/>
+    <mergeCell ref="E697:O697"/>
+    <mergeCell ref="E698:O698"/>
+    <mergeCell ref="L700:O700"/>
+    <mergeCell ref="L701:O701"/>
+    <mergeCell ref="L702:O702"/>
+    <mergeCell ref="A703:C703"/>
+    <mergeCell ref="D703:F703"/>
+    <mergeCell ref="L703:O703"/>
+    <mergeCell ref="A704:C707"/>
+    <mergeCell ref="D704:F707"/>
+    <mergeCell ref="L704:O704"/>
+    <mergeCell ref="L705:O705"/>
+    <mergeCell ref="G707:O707"/>
+    <mergeCell ref="A708:C711"/>
+    <mergeCell ref="D708:F711"/>
+    <mergeCell ref="G708:I708"/>
+    <mergeCell ref="J708:K708"/>
+    <mergeCell ref="L708:M708"/>
+    <mergeCell ref="N708:O708"/>
+    <mergeCell ref="G709:I709"/>
+    <mergeCell ref="J709:K709"/>
+    <mergeCell ref="L709:M709"/>
+    <mergeCell ref="N709:O709"/>
+    <mergeCell ref="G710:I710"/>
+    <mergeCell ref="J710:K710"/>
+    <mergeCell ref="L710:M710"/>
+    <mergeCell ref="N710:O710"/>
+    <mergeCell ref="G711:I711"/>
+    <mergeCell ref="J711:K711"/>
+    <mergeCell ref="L711:M711"/>
+    <mergeCell ref="N711:O711"/>
+    <mergeCell ref="A712:C715"/>
+    <mergeCell ref="D712:F715"/>
+    <mergeCell ref="G712:I712"/>
+    <mergeCell ref="J712:K712"/>
+    <mergeCell ref="L712:M712"/>
+    <mergeCell ref="N712:O712"/>
+    <mergeCell ref="G713:I713"/>
+    <mergeCell ref="J713:K713"/>
+    <mergeCell ref="L713:M713"/>
+    <mergeCell ref="N713:O713"/>
+    <mergeCell ref="G714:I714"/>
+    <mergeCell ref="J714:K714"/>
+    <mergeCell ref="L714:M714"/>
+    <mergeCell ref="N714:O714"/>
+    <mergeCell ref="G715:I715"/>
+    <mergeCell ref="J715:K715"/>
+    <mergeCell ref="L715:M715"/>
+    <mergeCell ref="N715:O715"/>
+    <mergeCell ref="A720:D728"/>
+    <mergeCell ref="E721:O724"/>
+    <mergeCell ref="E725:O725"/>
+    <mergeCell ref="E726:O726"/>
+    <mergeCell ref="L728:O728"/>
+    <mergeCell ref="L729:O729"/>
+    <mergeCell ref="L730:O730"/>
+    <mergeCell ref="A731:C731"/>
+    <mergeCell ref="D731:F731"/>
+    <mergeCell ref="L731:O731"/>
+    <mergeCell ref="A732:C735"/>
+    <mergeCell ref="D732:F735"/>
+    <mergeCell ref="L732:O732"/>
+    <mergeCell ref="L733:O733"/>
+    <mergeCell ref="G735:O735"/>
+    <mergeCell ref="A736:C739"/>
+    <mergeCell ref="D736:F739"/>
+    <mergeCell ref="G736:I736"/>
+    <mergeCell ref="J736:K736"/>
+    <mergeCell ref="L736:M736"/>
+    <mergeCell ref="N736:O736"/>
+    <mergeCell ref="G737:I737"/>
+    <mergeCell ref="J737:K737"/>
+    <mergeCell ref="L737:M737"/>
+    <mergeCell ref="N737:O737"/>
+    <mergeCell ref="G738:I738"/>
+    <mergeCell ref="J738:K738"/>
+    <mergeCell ref="L738:M738"/>
+    <mergeCell ref="N738:O738"/>
+    <mergeCell ref="G739:I739"/>
+    <mergeCell ref="J739:K739"/>
+    <mergeCell ref="L739:M739"/>
+    <mergeCell ref="N739:O739"/>
+    <mergeCell ref="A740:C743"/>
+    <mergeCell ref="D740:F743"/>
+    <mergeCell ref="G740:I740"/>
+    <mergeCell ref="J740:K740"/>
+    <mergeCell ref="L740:M740"/>
+    <mergeCell ref="N740:O740"/>
+    <mergeCell ref="G741:I741"/>
+    <mergeCell ref="J741:K741"/>
+    <mergeCell ref="L741:M741"/>
+    <mergeCell ref="N741:O741"/>
+    <mergeCell ref="G742:I742"/>
+    <mergeCell ref="J742:K742"/>
+    <mergeCell ref="L742:M742"/>
+    <mergeCell ref="N742:O742"/>
+    <mergeCell ref="G743:I743"/>
+    <mergeCell ref="J743:K743"/>
+    <mergeCell ref="L743:M743"/>
+    <mergeCell ref="N743:O743"/>
+    <mergeCell ref="A804:D812"/>
+    <mergeCell ref="E805:O808"/>
+    <mergeCell ref="E809:O809"/>
+    <mergeCell ref="E810:O810"/>
+    <mergeCell ref="L812:O812"/>
+    <mergeCell ref="L813:O813"/>
+    <mergeCell ref="L814:O814"/>
+    <mergeCell ref="A815:C815"/>
+    <mergeCell ref="D815:F815"/>
+    <mergeCell ref="L815:O815"/>
+    <mergeCell ref="A816:C819"/>
+    <mergeCell ref="D816:F819"/>
+    <mergeCell ref="L816:O816"/>
+    <mergeCell ref="L817:O817"/>
+    <mergeCell ref="G819:O819"/>
+    <mergeCell ref="A820:C823"/>
+    <mergeCell ref="D820:F823"/>
+    <mergeCell ref="G820:I820"/>
+    <mergeCell ref="J820:K820"/>
+    <mergeCell ref="L820:M820"/>
+    <mergeCell ref="N820:O820"/>
+    <mergeCell ref="G821:I821"/>
+    <mergeCell ref="J821:K821"/>
+    <mergeCell ref="L821:M821"/>
+    <mergeCell ref="N821:O821"/>
+    <mergeCell ref="G822:I822"/>
+    <mergeCell ref="J822:K822"/>
+    <mergeCell ref="L822:M822"/>
+    <mergeCell ref="N822:O822"/>
+    <mergeCell ref="G823:I823"/>
+    <mergeCell ref="J823:K823"/>
+    <mergeCell ref="L823:M823"/>
+    <mergeCell ref="N823:O823"/>
+    <mergeCell ref="A824:C827"/>
+    <mergeCell ref="D824:F827"/>
+    <mergeCell ref="G824:I824"/>
+    <mergeCell ref="J824:K824"/>
+    <mergeCell ref="L824:M824"/>
+    <mergeCell ref="N824:O824"/>
+    <mergeCell ref="G825:I825"/>
+    <mergeCell ref="J825:K825"/>
+    <mergeCell ref="L825:M825"/>
+    <mergeCell ref="N825:O825"/>
+    <mergeCell ref="G826:I826"/>
+    <mergeCell ref="J826:K826"/>
+    <mergeCell ref="L826:M826"/>
+    <mergeCell ref="N826:O826"/>
+    <mergeCell ref="G827:I827"/>
+    <mergeCell ref="J827:K827"/>
+    <mergeCell ref="L827:M827"/>
+    <mergeCell ref="N827:O827"/>
     <mergeCell ref="A832:D840"/>
     <mergeCell ref="E833:O836"/>
     <mergeCell ref="E837:O837"/>
@@ -21922,1634 +23583,25 @@
     <mergeCell ref="G851:I851"/>
     <mergeCell ref="J851:K851"/>
     <mergeCell ref="L851:M851"/>
-    <mergeCell ref="N823:O823"/>
-    <mergeCell ref="A824:C827"/>
-    <mergeCell ref="D824:F827"/>
-    <mergeCell ref="G824:I824"/>
-    <mergeCell ref="J824:K824"/>
-    <mergeCell ref="L824:M824"/>
-    <mergeCell ref="N824:O824"/>
-    <mergeCell ref="G825:I825"/>
-    <mergeCell ref="J825:K825"/>
-    <mergeCell ref="L825:M825"/>
-    <mergeCell ref="N825:O825"/>
-    <mergeCell ref="G826:I826"/>
-    <mergeCell ref="J826:K826"/>
-    <mergeCell ref="L826:M826"/>
-    <mergeCell ref="N826:O826"/>
-    <mergeCell ref="G827:I827"/>
-    <mergeCell ref="J827:K827"/>
-    <mergeCell ref="L827:M827"/>
-    <mergeCell ref="N827:O827"/>
-    <mergeCell ref="A804:D812"/>
-    <mergeCell ref="E805:O808"/>
-    <mergeCell ref="E809:O809"/>
-    <mergeCell ref="E810:O810"/>
-    <mergeCell ref="L812:O812"/>
-    <mergeCell ref="L813:O813"/>
-    <mergeCell ref="L814:O814"/>
-    <mergeCell ref="A815:C815"/>
-    <mergeCell ref="D815:F815"/>
-    <mergeCell ref="L815:O815"/>
-    <mergeCell ref="A816:C819"/>
-    <mergeCell ref="D816:F819"/>
-    <mergeCell ref="L816:O816"/>
-    <mergeCell ref="L817:O817"/>
-    <mergeCell ref="G819:O819"/>
-    <mergeCell ref="A820:C823"/>
-    <mergeCell ref="D820:F823"/>
-    <mergeCell ref="G820:I820"/>
-    <mergeCell ref="J820:K820"/>
-    <mergeCell ref="L820:M820"/>
-    <mergeCell ref="N820:O820"/>
-    <mergeCell ref="G821:I821"/>
-    <mergeCell ref="J821:K821"/>
-    <mergeCell ref="L821:M821"/>
-    <mergeCell ref="N821:O821"/>
-    <mergeCell ref="G822:I822"/>
-    <mergeCell ref="J822:K822"/>
-    <mergeCell ref="L822:M822"/>
-    <mergeCell ref="N822:O822"/>
-    <mergeCell ref="G823:I823"/>
-    <mergeCell ref="J823:K823"/>
-    <mergeCell ref="L823:M823"/>
-    <mergeCell ref="N739:O739"/>
-    <mergeCell ref="A740:C743"/>
-    <mergeCell ref="D740:F743"/>
-    <mergeCell ref="G740:I740"/>
-    <mergeCell ref="J740:K740"/>
-    <mergeCell ref="L740:M740"/>
-    <mergeCell ref="N740:O740"/>
-    <mergeCell ref="G741:I741"/>
-    <mergeCell ref="J741:K741"/>
-    <mergeCell ref="L741:M741"/>
-    <mergeCell ref="N741:O741"/>
-    <mergeCell ref="G742:I742"/>
-    <mergeCell ref="J742:K742"/>
-    <mergeCell ref="L742:M742"/>
-    <mergeCell ref="N742:O742"/>
-    <mergeCell ref="G743:I743"/>
-    <mergeCell ref="J743:K743"/>
-    <mergeCell ref="L743:M743"/>
-    <mergeCell ref="N743:O743"/>
-    <mergeCell ref="A720:D728"/>
-    <mergeCell ref="E721:O724"/>
-    <mergeCell ref="E725:O725"/>
-    <mergeCell ref="E726:O726"/>
-    <mergeCell ref="L728:O728"/>
-    <mergeCell ref="L729:O729"/>
-    <mergeCell ref="L730:O730"/>
-    <mergeCell ref="A731:C731"/>
-    <mergeCell ref="D731:F731"/>
-    <mergeCell ref="L731:O731"/>
-    <mergeCell ref="A732:C735"/>
-    <mergeCell ref="D732:F735"/>
-    <mergeCell ref="L732:O732"/>
-    <mergeCell ref="L733:O733"/>
-    <mergeCell ref="G735:O735"/>
-    <mergeCell ref="A736:C739"/>
-    <mergeCell ref="D736:F739"/>
-    <mergeCell ref="G736:I736"/>
-    <mergeCell ref="J736:K736"/>
-    <mergeCell ref="L736:M736"/>
-    <mergeCell ref="N736:O736"/>
-    <mergeCell ref="G737:I737"/>
-    <mergeCell ref="J737:K737"/>
-    <mergeCell ref="L737:M737"/>
-    <mergeCell ref="N737:O737"/>
-    <mergeCell ref="G738:I738"/>
-    <mergeCell ref="J738:K738"/>
-    <mergeCell ref="L738:M738"/>
-    <mergeCell ref="N738:O738"/>
-    <mergeCell ref="G739:I739"/>
-    <mergeCell ref="J739:K739"/>
-    <mergeCell ref="L739:M739"/>
-    <mergeCell ref="N711:O711"/>
-    <mergeCell ref="A712:C715"/>
-    <mergeCell ref="D712:F715"/>
-    <mergeCell ref="G712:I712"/>
-    <mergeCell ref="J712:K712"/>
-    <mergeCell ref="L712:M712"/>
-    <mergeCell ref="N712:O712"/>
-    <mergeCell ref="G713:I713"/>
-    <mergeCell ref="J713:K713"/>
-    <mergeCell ref="L713:M713"/>
-    <mergeCell ref="N713:O713"/>
-    <mergeCell ref="G714:I714"/>
-    <mergeCell ref="J714:K714"/>
-    <mergeCell ref="L714:M714"/>
-    <mergeCell ref="N714:O714"/>
-    <mergeCell ref="G715:I715"/>
-    <mergeCell ref="J715:K715"/>
-    <mergeCell ref="L715:M715"/>
-    <mergeCell ref="N715:O715"/>
-    <mergeCell ref="A692:D700"/>
-    <mergeCell ref="E693:O696"/>
-    <mergeCell ref="E697:O697"/>
-    <mergeCell ref="E698:O698"/>
-    <mergeCell ref="L700:O700"/>
-    <mergeCell ref="L701:O701"/>
-    <mergeCell ref="L702:O702"/>
-    <mergeCell ref="A703:C703"/>
-    <mergeCell ref="D703:F703"/>
-    <mergeCell ref="L703:O703"/>
-    <mergeCell ref="A704:C707"/>
-    <mergeCell ref="D704:F707"/>
-    <mergeCell ref="L704:O704"/>
-    <mergeCell ref="L705:O705"/>
-    <mergeCell ref="G707:O707"/>
-    <mergeCell ref="A708:C711"/>
-    <mergeCell ref="D708:F711"/>
-    <mergeCell ref="G708:I708"/>
-    <mergeCell ref="J708:K708"/>
-    <mergeCell ref="L708:M708"/>
-    <mergeCell ref="N708:O708"/>
-    <mergeCell ref="G709:I709"/>
-    <mergeCell ref="J709:K709"/>
-    <mergeCell ref="L709:M709"/>
-    <mergeCell ref="N709:O709"/>
-    <mergeCell ref="G710:I710"/>
-    <mergeCell ref="J710:K710"/>
-    <mergeCell ref="L710:M710"/>
-    <mergeCell ref="N710:O710"/>
-    <mergeCell ref="G711:I711"/>
-    <mergeCell ref="J711:K711"/>
-    <mergeCell ref="L711:M711"/>
-    <mergeCell ref="A568:C571"/>
-    <mergeCell ref="D568:F571"/>
-    <mergeCell ref="L568:O568"/>
-    <mergeCell ref="L569:O569"/>
-    <mergeCell ref="G575:O575"/>
-    <mergeCell ref="A572:C575"/>
-    <mergeCell ref="D572:F575"/>
-    <mergeCell ref="A580:C583"/>
-    <mergeCell ref="D580:F583"/>
-    <mergeCell ref="N579:O579"/>
-    <mergeCell ref="A576:C579"/>
-    <mergeCell ref="D576:F579"/>
-    <mergeCell ref="G580:I580"/>
-    <mergeCell ref="J580:K580"/>
-    <mergeCell ref="L580:M580"/>
-    <mergeCell ref="N580:O580"/>
-    <mergeCell ref="G581:I581"/>
-    <mergeCell ref="J581:K581"/>
-    <mergeCell ref="L581:M581"/>
-    <mergeCell ref="N581:O581"/>
-    <mergeCell ref="G582:I582"/>
-    <mergeCell ref="J582:K582"/>
-    <mergeCell ref="L582:M582"/>
-    <mergeCell ref="N582:O582"/>
-    <mergeCell ref="G583:I583"/>
-    <mergeCell ref="J583:K583"/>
-    <mergeCell ref="L583:M583"/>
-    <mergeCell ref="N583:O583"/>
-    <mergeCell ref="G576:I576"/>
-    <mergeCell ref="J576:K576"/>
-    <mergeCell ref="L576:M576"/>
-    <mergeCell ref="N576:O576"/>
-    <mergeCell ref="A530:D538"/>
-    <mergeCell ref="E531:O534"/>
-    <mergeCell ref="E535:O535"/>
-    <mergeCell ref="E536:O536"/>
-    <mergeCell ref="L538:O538"/>
-    <mergeCell ref="L539:O539"/>
-    <mergeCell ref="L540:O540"/>
-    <mergeCell ref="A541:C541"/>
-    <mergeCell ref="D541:F541"/>
-    <mergeCell ref="A556:D564"/>
-    <mergeCell ref="E557:O560"/>
-    <mergeCell ref="E561:O561"/>
-    <mergeCell ref="E562:O562"/>
-    <mergeCell ref="L564:O564"/>
-    <mergeCell ref="L565:O565"/>
-    <mergeCell ref="L566:O566"/>
-    <mergeCell ref="A567:C567"/>
-    <mergeCell ref="D567:F567"/>
-    <mergeCell ref="L567:O567"/>
-    <mergeCell ref="D546:F549"/>
-    <mergeCell ref="G550:I550"/>
-    <mergeCell ref="J550:K550"/>
-    <mergeCell ref="L550:M550"/>
-    <mergeCell ref="N550:O550"/>
-    <mergeCell ref="G551:I551"/>
-    <mergeCell ref="J551:K551"/>
-    <mergeCell ref="L548:M548"/>
-    <mergeCell ref="N548:O548"/>
-    <mergeCell ref="G549:I549"/>
-    <mergeCell ref="J549:K549"/>
-    <mergeCell ref="L549:M549"/>
-    <mergeCell ref="N549:O549"/>
-    <mergeCell ref="A524:C527"/>
-    <mergeCell ref="D524:F527"/>
-    <mergeCell ref="G524:I524"/>
-    <mergeCell ref="J524:K524"/>
-    <mergeCell ref="L524:M524"/>
-    <mergeCell ref="N524:O524"/>
-    <mergeCell ref="G525:I525"/>
-    <mergeCell ref="J525:K525"/>
-    <mergeCell ref="L525:M525"/>
-    <mergeCell ref="N525:O525"/>
-    <mergeCell ref="G526:I526"/>
-    <mergeCell ref="J526:K526"/>
-    <mergeCell ref="L526:M526"/>
-    <mergeCell ref="N526:O526"/>
-    <mergeCell ref="G527:I527"/>
-    <mergeCell ref="J527:K527"/>
-    <mergeCell ref="L527:M527"/>
-    <mergeCell ref="N527:O527"/>
-    <mergeCell ref="A515:C515"/>
-    <mergeCell ref="D515:F515"/>
-    <mergeCell ref="L515:O515"/>
-    <mergeCell ref="A516:C519"/>
-    <mergeCell ref="D516:F519"/>
-    <mergeCell ref="L516:O516"/>
-    <mergeCell ref="L517:O517"/>
-    <mergeCell ref="G519:O519"/>
-    <mergeCell ref="A520:C523"/>
-    <mergeCell ref="D520:F523"/>
-    <mergeCell ref="G520:I520"/>
-    <mergeCell ref="J520:K520"/>
-    <mergeCell ref="L520:M520"/>
-    <mergeCell ref="N520:O520"/>
-    <mergeCell ref="G521:I521"/>
-    <mergeCell ref="J521:K521"/>
-    <mergeCell ref="L521:M521"/>
-    <mergeCell ref="N521:O521"/>
-    <mergeCell ref="G522:I522"/>
-    <mergeCell ref="J522:K522"/>
-    <mergeCell ref="L522:M522"/>
-    <mergeCell ref="N522:O522"/>
-    <mergeCell ref="G523:I523"/>
-    <mergeCell ref="J523:K523"/>
-    <mergeCell ref="L523:M523"/>
-    <mergeCell ref="N523:O523"/>
-    <mergeCell ref="A472:C475"/>
-    <mergeCell ref="D472:F475"/>
-    <mergeCell ref="G472:I472"/>
-    <mergeCell ref="J472:K472"/>
-    <mergeCell ref="L472:M472"/>
-    <mergeCell ref="N472:O472"/>
-    <mergeCell ref="G473:I473"/>
-    <mergeCell ref="J473:K473"/>
-    <mergeCell ref="L473:M473"/>
-    <mergeCell ref="N473:O473"/>
-    <mergeCell ref="G474:I474"/>
-    <mergeCell ref="J474:K474"/>
-    <mergeCell ref="L474:M474"/>
-    <mergeCell ref="N474:O474"/>
-    <mergeCell ref="G475:I475"/>
-    <mergeCell ref="J475:K475"/>
-    <mergeCell ref="L475:M475"/>
-    <mergeCell ref="N475:O475"/>
-    <mergeCell ref="L460:O460"/>
-    <mergeCell ref="L461:O461"/>
-    <mergeCell ref="L462:O462"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="D463:F463"/>
-    <mergeCell ref="L463:O463"/>
-    <mergeCell ref="A464:C467"/>
-    <mergeCell ref="D464:F467"/>
-    <mergeCell ref="L464:O464"/>
-    <mergeCell ref="L465:O465"/>
-    <mergeCell ref="G467:O467"/>
-    <mergeCell ref="A468:C471"/>
-    <mergeCell ref="D468:F471"/>
-    <mergeCell ref="G468:I468"/>
-    <mergeCell ref="J468:K468"/>
-    <mergeCell ref="L468:M468"/>
-    <mergeCell ref="N468:O468"/>
-    <mergeCell ref="G469:I469"/>
-    <mergeCell ref="J469:K469"/>
-    <mergeCell ref="L469:M469"/>
-    <mergeCell ref="N469:O469"/>
-    <mergeCell ref="G470:I470"/>
-    <mergeCell ref="J470:K470"/>
-    <mergeCell ref="L470:M470"/>
-    <mergeCell ref="N470:O470"/>
-    <mergeCell ref="G471:I471"/>
-    <mergeCell ref="J471:K471"/>
-    <mergeCell ref="L471:M471"/>
-    <mergeCell ref="N471:O471"/>
-    <mergeCell ref="N419:O419"/>
-    <mergeCell ref="A420:C423"/>
-    <mergeCell ref="D420:F423"/>
-    <mergeCell ref="G420:I420"/>
-    <mergeCell ref="J420:K420"/>
-    <mergeCell ref="L420:M420"/>
-    <mergeCell ref="N420:O420"/>
-    <mergeCell ref="G421:I421"/>
-    <mergeCell ref="J421:K421"/>
-    <mergeCell ref="L421:M421"/>
-    <mergeCell ref="N421:O421"/>
-    <mergeCell ref="G422:I422"/>
-    <mergeCell ref="J422:K422"/>
-    <mergeCell ref="L422:M422"/>
-    <mergeCell ref="N422:O422"/>
-    <mergeCell ref="G423:I423"/>
-    <mergeCell ref="J423:K423"/>
-    <mergeCell ref="L423:M423"/>
-    <mergeCell ref="N423:O423"/>
-    <mergeCell ref="A400:D408"/>
-    <mergeCell ref="E401:O404"/>
-    <mergeCell ref="E405:O405"/>
-    <mergeCell ref="E406:O406"/>
-    <mergeCell ref="L408:O408"/>
-    <mergeCell ref="L409:O409"/>
-    <mergeCell ref="L410:O410"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="D411:F411"/>
-    <mergeCell ref="L411:O411"/>
-    <mergeCell ref="A412:C415"/>
-    <mergeCell ref="D412:F415"/>
-    <mergeCell ref="L412:O412"/>
-    <mergeCell ref="L413:O413"/>
-    <mergeCell ref="G415:O415"/>
-    <mergeCell ref="A416:C419"/>
-    <mergeCell ref="D416:F419"/>
-    <mergeCell ref="G416:I416"/>
-    <mergeCell ref="J416:K416"/>
-    <mergeCell ref="L416:M416"/>
-    <mergeCell ref="N416:O416"/>
-    <mergeCell ref="G417:I417"/>
-    <mergeCell ref="J417:K417"/>
-    <mergeCell ref="L417:M417"/>
-    <mergeCell ref="N417:O417"/>
-    <mergeCell ref="G418:I418"/>
-    <mergeCell ref="J418:K418"/>
-    <mergeCell ref="L418:M418"/>
-    <mergeCell ref="N418:O418"/>
-    <mergeCell ref="G419:I419"/>
-    <mergeCell ref="J419:K419"/>
-    <mergeCell ref="L419:M419"/>
-    <mergeCell ref="A394:C397"/>
-    <mergeCell ref="D394:F397"/>
-    <mergeCell ref="G394:I394"/>
-    <mergeCell ref="J394:K394"/>
-    <mergeCell ref="L394:M394"/>
-    <mergeCell ref="N394:O394"/>
-    <mergeCell ref="G395:I395"/>
-    <mergeCell ref="J395:K395"/>
-    <mergeCell ref="L395:M395"/>
-    <mergeCell ref="N395:O395"/>
-    <mergeCell ref="G396:I396"/>
-    <mergeCell ref="J396:K396"/>
-    <mergeCell ref="L396:M396"/>
-    <mergeCell ref="N396:O396"/>
-    <mergeCell ref="G397:I397"/>
-    <mergeCell ref="J397:K397"/>
-    <mergeCell ref="L397:M397"/>
-    <mergeCell ref="N397:O397"/>
-    <mergeCell ref="L382:O382"/>
-    <mergeCell ref="L383:O383"/>
-    <mergeCell ref="L384:O384"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="D385:F385"/>
-    <mergeCell ref="L385:O385"/>
-    <mergeCell ref="A386:C389"/>
-    <mergeCell ref="D386:F389"/>
-    <mergeCell ref="L386:O386"/>
-    <mergeCell ref="L387:O387"/>
-    <mergeCell ref="G389:O389"/>
-    <mergeCell ref="A390:C393"/>
-    <mergeCell ref="D390:F393"/>
-    <mergeCell ref="G390:I390"/>
-    <mergeCell ref="J390:K390"/>
-    <mergeCell ref="L390:M390"/>
-    <mergeCell ref="N390:O390"/>
-    <mergeCell ref="G391:I391"/>
-    <mergeCell ref="J391:K391"/>
-    <mergeCell ref="L391:M391"/>
-    <mergeCell ref="N391:O391"/>
-    <mergeCell ref="G392:I392"/>
-    <mergeCell ref="J392:K392"/>
-    <mergeCell ref="L392:M392"/>
-    <mergeCell ref="N392:O392"/>
-    <mergeCell ref="G393:I393"/>
-    <mergeCell ref="J393:K393"/>
-    <mergeCell ref="L393:M393"/>
-    <mergeCell ref="N393:O393"/>
-    <mergeCell ref="A342:C345"/>
-    <mergeCell ref="D342:F345"/>
-    <mergeCell ref="G342:I342"/>
-    <mergeCell ref="J342:K342"/>
-    <mergeCell ref="L342:M342"/>
-    <mergeCell ref="N342:O342"/>
-    <mergeCell ref="G343:I343"/>
-    <mergeCell ref="J343:K343"/>
-    <mergeCell ref="L343:M343"/>
-    <mergeCell ref="N343:O343"/>
-    <mergeCell ref="G344:I344"/>
-    <mergeCell ref="J344:K344"/>
-    <mergeCell ref="L344:M344"/>
-    <mergeCell ref="N344:O344"/>
-    <mergeCell ref="G345:I345"/>
-    <mergeCell ref="J345:K345"/>
-    <mergeCell ref="L345:M345"/>
-    <mergeCell ref="N345:O345"/>
-    <mergeCell ref="L330:O330"/>
-    <mergeCell ref="L331:O331"/>
-    <mergeCell ref="L332:O332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="L333:O333"/>
-    <mergeCell ref="A334:C337"/>
-    <mergeCell ref="D334:F337"/>
-    <mergeCell ref="L334:O334"/>
-    <mergeCell ref="L335:O335"/>
-    <mergeCell ref="G337:O337"/>
-    <mergeCell ref="A338:C341"/>
-    <mergeCell ref="D338:F341"/>
-    <mergeCell ref="G338:I338"/>
-    <mergeCell ref="J338:K338"/>
-    <mergeCell ref="L338:M338"/>
-    <mergeCell ref="N338:O338"/>
-    <mergeCell ref="G339:I339"/>
-    <mergeCell ref="J339:K339"/>
-    <mergeCell ref="L339:M339"/>
-    <mergeCell ref="N339:O339"/>
-    <mergeCell ref="G340:I340"/>
-    <mergeCell ref="J340:K340"/>
-    <mergeCell ref="L340:M340"/>
-    <mergeCell ref="N340:O340"/>
-    <mergeCell ref="G341:I341"/>
-    <mergeCell ref="J341:K341"/>
-    <mergeCell ref="L341:M341"/>
-    <mergeCell ref="N341:O341"/>
-    <mergeCell ref="G289:I289"/>
-    <mergeCell ref="J289:K289"/>
-    <mergeCell ref="L289:M289"/>
-    <mergeCell ref="N289:O289"/>
-    <mergeCell ref="G290:I290"/>
-    <mergeCell ref="J290:K290"/>
-    <mergeCell ref="L290:M290"/>
-    <mergeCell ref="N290:O290"/>
-    <mergeCell ref="G291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="L291:M291"/>
-    <mergeCell ref="N291:O291"/>
-    <mergeCell ref="Q266:U267"/>
-    <mergeCell ref="Q269:U271"/>
-    <mergeCell ref="Q272:U274"/>
-    <mergeCell ref="Q275:U277"/>
-    <mergeCell ref="Q278:U280"/>
-    <mergeCell ref="Q281:U283"/>
-    <mergeCell ref="Q284:U286"/>
-    <mergeCell ref="Q287:U289"/>
-    <mergeCell ref="Q290:U291"/>
-    <mergeCell ref="L270:O270"/>
-    <mergeCell ref="L271:O271"/>
-    <mergeCell ref="L272:O272"/>
-    <mergeCell ref="A286:C289"/>
-    <mergeCell ref="D286:F289"/>
-    <mergeCell ref="A290:C293"/>
-    <mergeCell ref="D290:F293"/>
-    <mergeCell ref="G284:I284"/>
-    <mergeCell ref="J284:K284"/>
-    <mergeCell ref="L284:M284"/>
-    <mergeCell ref="N284:O284"/>
-    <mergeCell ref="G285:I285"/>
-    <mergeCell ref="J285:K285"/>
-    <mergeCell ref="L285:M285"/>
-    <mergeCell ref="N285:O285"/>
-    <mergeCell ref="G286:I286"/>
-    <mergeCell ref="J286:K286"/>
-    <mergeCell ref="L286:M286"/>
-    <mergeCell ref="N286:O286"/>
-    <mergeCell ref="G287:I287"/>
-    <mergeCell ref="J287:K287"/>
-    <mergeCell ref="L287:M287"/>
-    <mergeCell ref="N287:O287"/>
-    <mergeCell ref="G288:I288"/>
-    <mergeCell ref="J288:K288"/>
-    <mergeCell ref="L288:M288"/>
-    <mergeCell ref="N288:O288"/>
-    <mergeCell ref="G292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="L292:M292"/>
-    <mergeCell ref="N292:O292"/>
-    <mergeCell ref="G293:I293"/>
-    <mergeCell ref="J293:K293"/>
-    <mergeCell ref="L293:M293"/>
-    <mergeCell ref="N293:O293"/>
-    <mergeCell ref="A282:C285"/>
-    <mergeCell ref="D282:F285"/>
-    <mergeCell ref="G280:I280"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="L280:M280"/>
-    <mergeCell ref="N281:O281"/>
-    <mergeCell ref="G281:I281"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="L281:M281"/>
-    <mergeCell ref="N282:O282"/>
-    <mergeCell ref="G282:I282"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="L282:M282"/>
-    <mergeCell ref="G283:I283"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="L283:M283"/>
-    <mergeCell ref="N283:O283"/>
-    <mergeCell ref="N280:O280"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="D273:F273"/>
-    <mergeCell ref="L273:O273"/>
-    <mergeCell ref="A274:C277"/>
-    <mergeCell ref="D274:F277"/>
-    <mergeCell ref="L274:O274"/>
-    <mergeCell ref="L275:O275"/>
-    <mergeCell ref="G277:O277"/>
-    <mergeCell ref="A278:C281"/>
-    <mergeCell ref="D278:F281"/>
-    <mergeCell ref="G278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="L278:M278"/>
-    <mergeCell ref="N278:O278"/>
-    <mergeCell ref="G279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="L279:M279"/>
-    <mergeCell ref="N279:O279"/>
-    <mergeCell ref="G232:I232"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="L232:M232"/>
-    <mergeCell ref="N232:O232"/>
-    <mergeCell ref="G233:I233"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="L233:M233"/>
-    <mergeCell ref="N233:O233"/>
-    <mergeCell ref="A230:C233"/>
-    <mergeCell ref="D230:F233"/>
-    <mergeCell ref="G230:I230"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="L230:M230"/>
-    <mergeCell ref="N230:O230"/>
-    <mergeCell ref="G231:I231"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="L231:M231"/>
-    <mergeCell ref="N231:O231"/>
-    <mergeCell ref="L220:O220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="L221:O221"/>
-    <mergeCell ref="A222:C225"/>
-    <mergeCell ref="D222:F225"/>
-    <mergeCell ref="L222:O222"/>
-    <mergeCell ref="L223:O223"/>
-    <mergeCell ref="G225:O225"/>
-    <mergeCell ref="G228:I228"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="L228:M228"/>
-    <mergeCell ref="N228:O228"/>
-    <mergeCell ref="G229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="L229:M229"/>
-    <mergeCell ref="N229:O229"/>
-    <mergeCell ref="A226:C229"/>
-    <mergeCell ref="D226:F229"/>
-    <mergeCell ref="G226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="L226:M226"/>
-    <mergeCell ref="N226:O226"/>
-    <mergeCell ref="G227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="L227:M227"/>
-    <mergeCell ref="N227:O227"/>
-    <mergeCell ref="A210:D218"/>
-    <mergeCell ref="E211:O214"/>
-    <mergeCell ref="E215:O215"/>
-    <mergeCell ref="E216:O216"/>
-    <mergeCell ref="L218:O218"/>
-    <mergeCell ref="L219:O219"/>
-    <mergeCell ref="G206:I206"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="N206:O206"/>
-    <mergeCell ref="G207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="A204:C207"/>
-    <mergeCell ref="D204:F207"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="L204:M204"/>
-    <mergeCell ref="N204:O204"/>
-    <mergeCell ref="G205:I205"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="L205:M205"/>
-    <mergeCell ref="N205:O205"/>
-    <mergeCell ref="L194:O194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="L195:O195"/>
-    <mergeCell ref="A196:C199"/>
-    <mergeCell ref="D196:F199"/>
-    <mergeCell ref="L196:O196"/>
-    <mergeCell ref="L197:O197"/>
-    <mergeCell ref="G199:O199"/>
-    <mergeCell ref="G202:I202"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="L202:M202"/>
-    <mergeCell ref="N202:O202"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="L203:M203"/>
-    <mergeCell ref="N203:O203"/>
-    <mergeCell ref="A200:C203"/>
-    <mergeCell ref="D200:F203"/>
-    <mergeCell ref="G200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="L200:M200"/>
-    <mergeCell ref="N200:O200"/>
-    <mergeCell ref="G201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="L201:M201"/>
-    <mergeCell ref="N201:O201"/>
-    <mergeCell ref="A184:D192"/>
-    <mergeCell ref="E185:O188"/>
-    <mergeCell ref="E189:O189"/>
-    <mergeCell ref="E190:O190"/>
-    <mergeCell ref="L192:O192"/>
-    <mergeCell ref="L193:O193"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="G180:I180"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="L180:M180"/>
-    <mergeCell ref="N180:O180"/>
-    <mergeCell ref="A177:C180"/>
-    <mergeCell ref="D177:F180"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="L177:M177"/>
-    <mergeCell ref="N177:O177"/>
-    <mergeCell ref="G178:I178"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="L178:M178"/>
-    <mergeCell ref="N178:O178"/>
-    <mergeCell ref="L167:O167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="L168:O168"/>
-    <mergeCell ref="A169:C172"/>
-    <mergeCell ref="D169:F172"/>
-    <mergeCell ref="L169:O169"/>
-    <mergeCell ref="L170:O170"/>
-    <mergeCell ref="G172:O172"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="L175:M175"/>
-    <mergeCell ref="N175:O175"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="L176:M176"/>
-    <mergeCell ref="N176:O176"/>
-    <mergeCell ref="A173:C176"/>
-    <mergeCell ref="D173:F176"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="L173:M173"/>
-    <mergeCell ref="N173:O173"/>
-    <mergeCell ref="G174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="L174:M174"/>
-    <mergeCell ref="N174:O174"/>
-    <mergeCell ref="A157:D165"/>
-    <mergeCell ref="E158:O161"/>
-    <mergeCell ref="E162:O162"/>
-    <mergeCell ref="E163:O163"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="L166:O166"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="A151:C154"/>
-    <mergeCell ref="D151:F154"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="L141:O141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="L142:O142"/>
-    <mergeCell ref="A143:C146"/>
-    <mergeCell ref="D143:F146"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="G146:O146"/>
-    <mergeCell ref="G149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="G150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="A147:C150"/>
-    <mergeCell ref="D147:F150"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="L147:M147"/>
-    <mergeCell ref="N147:O147"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="L148:M148"/>
-    <mergeCell ref="N148:O148"/>
-    <mergeCell ref="A131:D139"/>
-    <mergeCell ref="E132:O135"/>
-    <mergeCell ref="E136:O136"/>
-    <mergeCell ref="E137:O137"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="L127:M127"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="L128:M128"/>
-    <mergeCell ref="N128:O128"/>
-    <mergeCell ref="A125:C128"/>
-    <mergeCell ref="D125:F128"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="L125:M125"/>
-    <mergeCell ref="N125:O125"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="L126:M126"/>
-    <mergeCell ref="N126:O126"/>
-    <mergeCell ref="L115:O115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="L116:O116"/>
-    <mergeCell ref="A117:C120"/>
-    <mergeCell ref="D117:F120"/>
-    <mergeCell ref="L117:O117"/>
-    <mergeCell ref="L118:O118"/>
-    <mergeCell ref="G120:O120"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:M124"/>
-    <mergeCell ref="N124:O124"/>
-    <mergeCell ref="A121:C124"/>
-    <mergeCell ref="D121:F124"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="L121:M121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="L122:M122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="A105:D113"/>
-    <mergeCell ref="E106:O109"/>
-    <mergeCell ref="E110:O110"/>
-    <mergeCell ref="E111:O111"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="A99:C102"/>
-    <mergeCell ref="D99:F102"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="L100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="L89:O89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="A91:C94"/>
-    <mergeCell ref="D91:F94"/>
-    <mergeCell ref="L91:O91"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="G94:O94"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="A95:C98"/>
-    <mergeCell ref="D95:F98"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="A79:D87"/>
-    <mergeCell ref="E80:O83"/>
-    <mergeCell ref="E84:O84"/>
-    <mergeCell ref="E85:O85"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="A73:C76"/>
-    <mergeCell ref="D73:F76"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="A65:C68"/>
-    <mergeCell ref="D65:F68"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="G68:O68"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="A69:C72"/>
-    <mergeCell ref="D69:F72"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="A53:D61"/>
-    <mergeCell ref="E54:O57"/>
-    <mergeCell ref="E58:O58"/>
-    <mergeCell ref="E59:O59"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="A47:C50"/>
-    <mergeCell ref="D47:F50"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D21:F24"/>
-    <mergeCell ref="A43:C46"/>
-    <mergeCell ref="D43:F46"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="A39:C42"/>
-    <mergeCell ref="D39:F42"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="G42:O42"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A27:D35"/>
-    <mergeCell ref="E28:O31"/>
-    <mergeCell ref="E32:O32"/>
-    <mergeCell ref="E33:O33"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A236:D244"/>
-    <mergeCell ref="E237:O240"/>
-    <mergeCell ref="E241:O241"/>
-    <mergeCell ref="E242:O242"/>
-    <mergeCell ref="L244:O244"/>
-    <mergeCell ref="L245:O245"/>
-    <mergeCell ref="L246:O246"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="D247:F247"/>
-    <mergeCell ref="L247:O247"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="E6:O6"/>
-    <mergeCell ref="E7:O7"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="A1:D9"/>
-    <mergeCell ref="E2:O5"/>
-    <mergeCell ref="A13:C16"/>
-    <mergeCell ref="A17:C20"/>
-    <mergeCell ref="D13:F16"/>
-    <mergeCell ref="D17:F20"/>
-    <mergeCell ref="A21:C24"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A248:C251"/>
-    <mergeCell ref="D248:F251"/>
-    <mergeCell ref="L248:O248"/>
-    <mergeCell ref="L249:O249"/>
-    <mergeCell ref="G251:O251"/>
-    <mergeCell ref="A252:C255"/>
-    <mergeCell ref="D252:F255"/>
-    <mergeCell ref="G252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="L252:M252"/>
-    <mergeCell ref="N252:O252"/>
-    <mergeCell ref="G253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="L253:M253"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="G254:I254"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="L254:M254"/>
-    <mergeCell ref="N254:O254"/>
-    <mergeCell ref="G255:I255"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="L255:M255"/>
-    <mergeCell ref="N255:O255"/>
-    <mergeCell ref="A296:D304"/>
-    <mergeCell ref="E297:O300"/>
-    <mergeCell ref="E301:O301"/>
-    <mergeCell ref="E302:O302"/>
-    <mergeCell ref="L304:O304"/>
-    <mergeCell ref="L305:O305"/>
-    <mergeCell ref="L306:O306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="D307:F307"/>
-    <mergeCell ref="L307:O307"/>
-    <mergeCell ref="A256:C259"/>
-    <mergeCell ref="D256:F259"/>
-    <mergeCell ref="G256:I256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="L256:M256"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="G257:I257"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="L257:M257"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="G258:I258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="L258:M258"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="G259:I259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="L259:M259"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="A262:D270"/>
-    <mergeCell ref="E263:O266"/>
-    <mergeCell ref="E267:O267"/>
-    <mergeCell ref="E268:O268"/>
-    <mergeCell ref="A308:C311"/>
-    <mergeCell ref="D308:F311"/>
-    <mergeCell ref="L308:O308"/>
-    <mergeCell ref="L309:O309"/>
-    <mergeCell ref="G311:O311"/>
-    <mergeCell ref="A312:C315"/>
-    <mergeCell ref="D312:F315"/>
-    <mergeCell ref="G312:I312"/>
-    <mergeCell ref="J312:K312"/>
-    <mergeCell ref="L312:M312"/>
-    <mergeCell ref="N312:O312"/>
-    <mergeCell ref="G313:I313"/>
-    <mergeCell ref="J313:K313"/>
-    <mergeCell ref="L313:M313"/>
-    <mergeCell ref="N313:O313"/>
-    <mergeCell ref="G314:I314"/>
-    <mergeCell ref="J314:K314"/>
-    <mergeCell ref="L314:M314"/>
-    <mergeCell ref="N314:O314"/>
-    <mergeCell ref="G315:I315"/>
-    <mergeCell ref="J315:K315"/>
-    <mergeCell ref="L315:M315"/>
-    <mergeCell ref="N315:O315"/>
-    <mergeCell ref="A348:D356"/>
-    <mergeCell ref="E349:O352"/>
-    <mergeCell ref="E353:O353"/>
-    <mergeCell ref="E354:O354"/>
-    <mergeCell ref="L356:O356"/>
-    <mergeCell ref="L357:O357"/>
-    <mergeCell ref="L358:O358"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="D359:F359"/>
-    <mergeCell ref="L359:O359"/>
-    <mergeCell ref="A316:C319"/>
-    <mergeCell ref="D316:F319"/>
-    <mergeCell ref="G316:I316"/>
-    <mergeCell ref="J316:K316"/>
-    <mergeCell ref="L316:M316"/>
-    <mergeCell ref="N316:O316"/>
-    <mergeCell ref="G317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="L317:M317"/>
-    <mergeCell ref="N317:O317"/>
-    <mergeCell ref="G318:I318"/>
-    <mergeCell ref="J318:K318"/>
-    <mergeCell ref="L318:M318"/>
-    <mergeCell ref="N318:O318"/>
-    <mergeCell ref="G319:I319"/>
-    <mergeCell ref="J319:K319"/>
-    <mergeCell ref="L319:M319"/>
-    <mergeCell ref="N319:O319"/>
-    <mergeCell ref="A322:D330"/>
-    <mergeCell ref="E323:O326"/>
-    <mergeCell ref="E327:O327"/>
-    <mergeCell ref="E328:O328"/>
-    <mergeCell ref="A360:C363"/>
-    <mergeCell ref="D360:F363"/>
-    <mergeCell ref="L360:O360"/>
-    <mergeCell ref="L361:O361"/>
-    <mergeCell ref="G363:O363"/>
-    <mergeCell ref="A364:C367"/>
-    <mergeCell ref="D364:F367"/>
-    <mergeCell ref="G364:I364"/>
-    <mergeCell ref="J364:K364"/>
-    <mergeCell ref="L364:M364"/>
-    <mergeCell ref="N364:O364"/>
-    <mergeCell ref="G365:I365"/>
-    <mergeCell ref="J365:K365"/>
-    <mergeCell ref="L365:M365"/>
-    <mergeCell ref="N365:O365"/>
-    <mergeCell ref="G366:I366"/>
-    <mergeCell ref="J366:K366"/>
-    <mergeCell ref="L366:M366"/>
-    <mergeCell ref="N366:O366"/>
-    <mergeCell ref="G367:I367"/>
-    <mergeCell ref="J367:K367"/>
-    <mergeCell ref="L367:M367"/>
-    <mergeCell ref="N367:O367"/>
-    <mergeCell ref="A426:D434"/>
-    <mergeCell ref="E427:O430"/>
-    <mergeCell ref="E431:O431"/>
-    <mergeCell ref="E432:O432"/>
-    <mergeCell ref="L434:O434"/>
-    <mergeCell ref="L435:O435"/>
-    <mergeCell ref="L436:O436"/>
-    <mergeCell ref="A437:C437"/>
-    <mergeCell ref="D437:F437"/>
-    <mergeCell ref="L437:O437"/>
-    <mergeCell ref="A368:C371"/>
-    <mergeCell ref="D368:F371"/>
-    <mergeCell ref="G368:I368"/>
-    <mergeCell ref="J368:K368"/>
-    <mergeCell ref="L368:M368"/>
-    <mergeCell ref="N368:O368"/>
-    <mergeCell ref="G369:I369"/>
-    <mergeCell ref="J369:K369"/>
-    <mergeCell ref="L369:M369"/>
-    <mergeCell ref="N369:O369"/>
-    <mergeCell ref="G370:I370"/>
-    <mergeCell ref="J370:K370"/>
-    <mergeCell ref="L370:M370"/>
-    <mergeCell ref="N370:O370"/>
-    <mergeCell ref="G371:I371"/>
-    <mergeCell ref="J371:K371"/>
-    <mergeCell ref="L371:M371"/>
-    <mergeCell ref="N371:O371"/>
-    <mergeCell ref="A374:D382"/>
-    <mergeCell ref="E375:O378"/>
-    <mergeCell ref="E379:O379"/>
-    <mergeCell ref="E380:O380"/>
-    <mergeCell ref="A438:C441"/>
-    <mergeCell ref="D438:F441"/>
-    <mergeCell ref="L438:O438"/>
-    <mergeCell ref="L439:O439"/>
-    <mergeCell ref="G441:O441"/>
-    <mergeCell ref="A442:C445"/>
-    <mergeCell ref="D442:F445"/>
-    <mergeCell ref="G442:I442"/>
-    <mergeCell ref="J442:K442"/>
-    <mergeCell ref="L442:M442"/>
-    <mergeCell ref="N442:O442"/>
-    <mergeCell ref="G443:I443"/>
-    <mergeCell ref="J443:K443"/>
-    <mergeCell ref="L443:M443"/>
-    <mergeCell ref="N443:O443"/>
-    <mergeCell ref="G444:I444"/>
-    <mergeCell ref="J444:K444"/>
-    <mergeCell ref="L444:M444"/>
-    <mergeCell ref="N444:O444"/>
-    <mergeCell ref="G445:I445"/>
-    <mergeCell ref="J445:K445"/>
-    <mergeCell ref="L445:M445"/>
-    <mergeCell ref="N445:O445"/>
-    <mergeCell ref="A478:D486"/>
-    <mergeCell ref="E479:O482"/>
-    <mergeCell ref="E483:O483"/>
-    <mergeCell ref="E484:O484"/>
-    <mergeCell ref="L486:O486"/>
-    <mergeCell ref="L487:O487"/>
-    <mergeCell ref="L488:O488"/>
-    <mergeCell ref="A489:C489"/>
-    <mergeCell ref="D489:F489"/>
-    <mergeCell ref="L489:O489"/>
-    <mergeCell ref="A446:C449"/>
-    <mergeCell ref="D446:F449"/>
-    <mergeCell ref="G446:I446"/>
-    <mergeCell ref="J446:K446"/>
-    <mergeCell ref="L446:M446"/>
-    <mergeCell ref="N446:O446"/>
-    <mergeCell ref="G447:I447"/>
-    <mergeCell ref="J447:K447"/>
-    <mergeCell ref="L447:M447"/>
-    <mergeCell ref="N447:O447"/>
-    <mergeCell ref="G448:I448"/>
-    <mergeCell ref="J448:K448"/>
-    <mergeCell ref="L448:M448"/>
-    <mergeCell ref="N448:O448"/>
-    <mergeCell ref="G449:I449"/>
-    <mergeCell ref="J449:K449"/>
-    <mergeCell ref="L449:M449"/>
-    <mergeCell ref="N449:O449"/>
-    <mergeCell ref="A452:D460"/>
-    <mergeCell ref="E453:O456"/>
-    <mergeCell ref="E457:O457"/>
-    <mergeCell ref="E458:O458"/>
-    <mergeCell ref="A490:C493"/>
-    <mergeCell ref="D490:F493"/>
-    <mergeCell ref="L490:O490"/>
-    <mergeCell ref="L491:O491"/>
-    <mergeCell ref="G493:O493"/>
-    <mergeCell ref="A494:C497"/>
-    <mergeCell ref="D494:F497"/>
-    <mergeCell ref="G494:I494"/>
-    <mergeCell ref="J494:K494"/>
-    <mergeCell ref="L494:M494"/>
-    <mergeCell ref="N494:O494"/>
-    <mergeCell ref="G495:I495"/>
-    <mergeCell ref="J495:K495"/>
-    <mergeCell ref="L495:M495"/>
-    <mergeCell ref="N495:O495"/>
-    <mergeCell ref="G496:I496"/>
-    <mergeCell ref="J496:K496"/>
-    <mergeCell ref="L496:M496"/>
-    <mergeCell ref="N496:O496"/>
-    <mergeCell ref="G497:I497"/>
-    <mergeCell ref="J497:K497"/>
-    <mergeCell ref="L497:M497"/>
-    <mergeCell ref="N497:O497"/>
-    <mergeCell ref="A498:C501"/>
-    <mergeCell ref="D498:F501"/>
-    <mergeCell ref="G498:I498"/>
-    <mergeCell ref="J498:K498"/>
-    <mergeCell ref="L498:M498"/>
-    <mergeCell ref="N498:O498"/>
-    <mergeCell ref="G499:I499"/>
-    <mergeCell ref="J499:K499"/>
-    <mergeCell ref="L499:M499"/>
-    <mergeCell ref="N499:O499"/>
-    <mergeCell ref="G500:I500"/>
-    <mergeCell ref="J500:K500"/>
-    <mergeCell ref="L500:M500"/>
-    <mergeCell ref="N500:O500"/>
-    <mergeCell ref="G501:I501"/>
-    <mergeCell ref="J501:K501"/>
-    <mergeCell ref="L501:M501"/>
-    <mergeCell ref="N501:O501"/>
-    <mergeCell ref="A504:D512"/>
-    <mergeCell ref="E505:O508"/>
-    <mergeCell ref="E509:O509"/>
-    <mergeCell ref="E510:O510"/>
-    <mergeCell ref="L512:O512"/>
-    <mergeCell ref="L513:O513"/>
-    <mergeCell ref="L514:O514"/>
-    <mergeCell ref="A586:D594"/>
-    <mergeCell ref="E587:O590"/>
-    <mergeCell ref="E591:O591"/>
-    <mergeCell ref="E592:O592"/>
-    <mergeCell ref="L594:O594"/>
-    <mergeCell ref="L595:O595"/>
-    <mergeCell ref="L596:O596"/>
-    <mergeCell ref="L541:O541"/>
-    <mergeCell ref="A542:C545"/>
-    <mergeCell ref="D542:F545"/>
-    <mergeCell ref="L542:O542"/>
-    <mergeCell ref="L543:O543"/>
-    <mergeCell ref="G545:O545"/>
-    <mergeCell ref="A546:C549"/>
-    <mergeCell ref="D550:F553"/>
-    <mergeCell ref="G546:I546"/>
-    <mergeCell ref="J546:K546"/>
-    <mergeCell ref="L546:M546"/>
-    <mergeCell ref="N546:O546"/>
-    <mergeCell ref="G547:I547"/>
-    <mergeCell ref="J547:K547"/>
-    <mergeCell ref="L547:M547"/>
-    <mergeCell ref="N547:O547"/>
-    <mergeCell ref="G548:I548"/>
-    <mergeCell ref="J548:K548"/>
-    <mergeCell ref="A550:C553"/>
-    <mergeCell ref="G603:I603"/>
-    <mergeCell ref="J603:K603"/>
-    <mergeCell ref="L603:M603"/>
-    <mergeCell ref="N603:O603"/>
-    <mergeCell ref="G604:I604"/>
-    <mergeCell ref="J604:K604"/>
-    <mergeCell ref="L604:M604"/>
-    <mergeCell ref="N604:O604"/>
-    <mergeCell ref="G605:I605"/>
-    <mergeCell ref="J605:K605"/>
-    <mergeCell ref="L605:M605"/>
-    <mergeCell ref="N605:O605"/>
-    <mergeCell ref="L551:M551"/>
-    <mergeCell ref="N551:O551"/>
-    <mergeCell ref="G552:I552"/>
-    <mergeCell ref="J552:K552"/>
-    <mergeCell ref="L552:M552"/>
-    <mergeCell ref="N552:O552"/>
-    <mergeCell ref="G553:I553"/>
-    <mergeCell ref="J553:K553"/>
-    <mergeCell ref="L553:M553"/>
-    <mergeCell ref="N553:O553"/>
-    <mergeCell ref="N578:O578"/>
-    <mergeCell ref="G579:I579"/>
-    <mergeCell ref="J579:K579"/>
-    <mergeCell ref="L579:M579"/>
-    <mergeCell ref="G577:I577"/>
-    <mergeCell ref="J577:K577"/>
-    <mergeCell ref="L577:M577"/>
-    <mergeCell ref="N577:O577"/>
-    <mergeCell ref="G578:I578"/>
-    <mergeCell ref="J578:K578"/>
-    <mergeCell ref="G606:I606"/>
-    <mergeCell ref="J606:K606"/>
-    <mergeCell ref="L606:M606"/>
-    <mergeCell ref="N606:O606"/>
-    <mergeCell ref="G607:I607"/>
-    <mergeCell ref="J607:K607"/>
-    <mergeCell ref="L607:M607"/>
-    <mergeCell ref="N607:O607"/>
-    <mergeCell ref="G608:I608"/>
-    <mergeCell ref="J608:K608"/>
-    <mergeCell ref="L608:M608"/>
-    <mergeCell ref="N608:O608"/>
-    <mergeCell ref="G609:I609"/>
-    <mergeCell ref="J609:K609"/>
-    <mergeCell ref="L609:M609"/>
-    <mergeCell ref="N609:O609"/>
-    <mergeCell ref="L578:M578"/>
-    <mergeCell ref="A597:C597"/>
-    <mergeCell ref="D597:F597"/>
-    <mergeCell ref="L597:O597"/>
-    <mergeCell ref="A598:C601"/>
-    <mergeCell ref="D598:F601"/>
-    <mergeCell ref="L598:O598"/>
-    <mergeCell ref="L599:O599"/>
-    <mergeCell ref="A602:C605"/>
-    <mergeCell ref="D602:F605"/>
-    <mergeCell ref="G601:O601"/>
-    <mergeCell ref="A606:C609"/>
-    <mergeCell ref="D606:F609"/>
-    <mergeCell ref="G602:I602"/>
-    <mergeCell ref="J602:K602"/>
-    <mergeCell ref="L602:M602"/>
-    <mergeCell ref="N602:O602"/>
-    <mergeCell ref="A612:D620"/>
-    <mergeCell ref="E613:O616"/>
-    <mergeCell ref="E617:O617"/>
-    <mergeCell ref="E618:O618"/>
-    <mergeCell ref="L620:O620"/>
-    <mergeCell ref="L621:O621"/>
-    <mergeCell ref="L622:O622"/>
-    <mergeCell ref="A623:C623"/>
-    <mergeCell ref="D623:F623"/>
-    <mergeCell ref="L623:O623"/>
-    <mergeCell ref="A624:C627"/>
-    <mergeCell ref="D624:F627"/>
-    <mergeCell ref="L624:O624"/>
-    <mergeCell ref="L625:O625"/>
-    <mergeCell ref="G627:O627"/>
-    <mergeCell ref="A628:C631"/>
-    <mergeCell ref="D628:F631"/>
-    <mergeCell ref="G628:I628"/>
-    <mergeCell ref="J628:K628"/>
-    <mergeCell ref="L628:M628"/>
-    <mergeCell ref="N628:O628"/>
-    <mergeCell ref="G629:I629"/>
-    <mergeCell ref="J629:K629"/>
-    <mergeCell ref="L629:M629"/>
-    <mergeCell ref="N629:O629"/>
-    <mergeCell ref="G630:I630"/>
-    <mergeCell ref="J630:K630"/>
-    <mergeCell ref="L630:M630"/>
-    <mergeCell ref="N630:O630"/>
-    <mergeCell ref="G631:I631"/>
-    <mergeCell ref="J631:K631"/>
-    <mergeCell ref="L631:M631"/>
-    <mergeCell ref="N631:O631"/>
-    <mergeCell ref="A632:C635"/>
-    <mergeCell ref="D632:F635"/>
-    <mergeCell ref="G632:I632"/>
-    <mergeCell ref="J632:K632"/>
-    <mergeCell ref="L632:M632"/>
-    <mergeCell ref="N632:O632"/>
-    <mergeCell ref="G633:I633"/>
-    <mergeCell ref="J633:K633"/>
-    <mergeCell ref="L633:M633"/>
-    <mergeCell ref="N633:O633"/>
-    <mergeCell ref="G634:I634"/>
-    <mergeCell ref="J634:K634"/>
-    <mergeCell ref="L634:M634"/>
-    <mergeCell ref="N634:O634"/>
-    <mergeCell ref="G635:I635"/>
-    <mergeCell ref="J635:K635"/>
-    <mergeCell ref="L635:M635"/>
-    <mergeCell ref="N635:O635"/>
-    <mergeCell ref="A664:D672"/>
-    <mergeCell ref="E665:O668"/>
-    <mergeCell ref="E669:O669"/>
-    <mergeCell ref="E670:O670"/>
-    <mergeCell ref="L672:O672"/>
-    <mergeCell ref="L673:O673"/>
-    <mergeCell ref="L674:O674"/>
-    <mergeCell ref="A675:C675"/>
-    <mergeCell ref="D675:F675"/>
-    <mergeCell ref="L675:O675"/>
-    <mergeCell ref="A676:C679"/>
-    <mergeCell ref="D676:F679"/>
-    <mergeCell ref="L676:O676"/>
-    <mergeCell ref="L677:O677"/>
-    <mergeCell ref="G679:O679"/>
-    <mergeCell ref="A680:C683"/>
-    <mergeCell ref="D680:F683"/>
-    <mergeCell ref="G680:I680"/>
-    <mergeCell ref="J680:K680"/>
-    <mergeCell ref="L680:M680"/>
-    <mergeCell ref="N680:O680"/>
-    <mergeCell ref="G681:I681"/>
-    <mergeCell ref="J681:K681"/>
-    <mergeCell ref="L681:M681"/>
-    <mergeCell ref="N681:O681"/>
-    <mergeCell ref="G682:I682"/>
-    <mergeCell ref="J682:K682"/>
-    <mergeCell ref="L682:M682"/>
-    <mergeCell ref="N682:O682"/>
-    <mergeCell ref="G683:I683"/>
-    <mergeCell ref="J683:K683"/>
-    <mergeCell ref="L683:M683"/>
-    <mergeCell ref="N683:O683"/>
-    <mergeCell ref="A684:C687"/>
-    <mergeCell ref="D684:F687"/>
-    <mergeCell ref="G684:I684"/>
-    <mergeCell ref="J684:K684"/>
-    <mergeCell ref="L684:M684"/>
-    <mergeCell ref="N684:O684"/>
-    <mergeCell ref="G685:I685"/>
-    <mergeCell ref="J685:K685"/>
-    <mergeCell ref="L685:M685"/>
-    <mergeCell ref="N685:O685"/>
-    <mergeCell ref="G686:I686"/>
-    <mergeCell ref="J686:K686"/>
-    <mergeCell ref="L686:M686"/>
-    <mergeCell ref="N686:O686"/>
-    <mergeCell ref="G687:I687"/>
-    <mergeCell ref="J687:K687"/>
-    <mergeCell ref="L687:M687"/>
-    <mergeCell ref="N687:O687"/>
-    <mergeCell ref="A638:D646"/>
-    <mergeCell ref="E639:O642"/>
-    <mergeCell ref="E643:O643"/>
-    <mergeCell ref="E644:O644"/>
-    <mergeCell ref="L646:O646"/>
-    <mergeCell ref="L647:O647"/>
-    <mergeCell ref="L648:O648"/>
-    <mergeCell ref="A649:C649"/>
-    <mergeCell ref="D649:F649"/>
-    <mergeCell ref="L649:O649"/>
-    <mergeCell ref="A650:C653"/>
-    <mergeCell ref="D650:F653"/>
-    <mergeCell ref="L650:O650"/>
-    <mergeCell ref="L651:O651"/>
-    <mergeCell ref="G653:O653"/>
-    <mergeCell ref="A654:C657"/>
-    <mergeCell ref="D654:F657"/>
-    <mergeCell ref="G654:I654"/>
-    <mergeCell ref="J654:K654"/>
-    <mergeCell ref="L654:M654"/>
-    <mergeCell ref="N654:O654"/>
-    <mergeCell ref="G655:I655"/>
-    <mergeCell ref="J655:K655"/>
-    <mergeCell ref="L655:M655"/>
-    <mergeCell ref="N655:O655"/>
-    <mergeCell ref="G656:I656"/>
-    <mergeCell ref="J656:K656"/>
-    <mergeCell ref="L656:M656"/>
-    <mergeCell ref="N656:O656"/>
-    <mergeCell ref="G657:I657"/>
-    <mergeCell ref="J657:K657"/>
-    <mergeCell ref="L657:M657"/>
-    <mergeCell ref="N657:O657"/>
-    <mergeCell ref="A658:C661"/>
-    <mergeCell ref="D658:F661"/>
-    <mergeCell ref="G658:I658"/>
-    <mergeCell ref="J658:K658"/>
-    <mergeCell ref="L658:M658"/>
-    <mergeCell ref="N658:O658"/>
-    <mergeCell ref="G659:I659"/>
-    <mergeCell ref="J659:K659"/>
-    <mergeCell ref="L659:M659"/>
-    <mergeCell ref="N659:O659"/>
-    <mergeCell ref="G660:I660"/>
-    <mergeCell ref="J660:K660"/>
-    <mergeCell ref="L660:M660"/>
-    <mergeCell ref="N660:O660"/>
-    <mergeCell ref="G661:I661"/>
-    <mergeCell ref="J661:K661"/>
-    <mergeCell ref="L661:M661"/>
-    <mergeCell ref="N661:O661"/>
-    <mergeCell ref="A748:D756"/>
-    <mergeCell ref="E749:O752"/>
-    <mergeCell ref="E753:O753"/>
-    <mergeCell ref="E754:O754"/>
-    <mergeCell ref="L756:O756"/>
-    <mergeCell ref="L757:O757"/>
-    <mergeCell ref="L758:O758"/>
-    <mergeCell ref="A759:C759"/>
-    <mergeCell ref="D759:F759"/>
-    <mergeCell ref="L759:O759"/>
-    <mergeCell ref="A760:C763"/>
-    <mergeCell ref="D760:F763"/>
-    <mergeCell ref="L760:O760"/>
-    <mergeCell ref="L761:O761"/>
-    <mergeCell ref="G763:O763"/>
-    <mergeCell ref="A764:C767"/>
-    <mergeCell ref="D764:F767"/>
-    <mergeCell ref="G764:I764"/>
-    <mergeCell ref="J764:K764"/>
-    <mergeCell ref="L764:M764"/>
-    <mergeCell ref="N764:O764"/>
-    <mergeCell ref="G765:I765"/>
-    <mergeCell ref="J765:K765"/>
-    <mergeCell ref="L765:M765"/>
-    <mergeCell ref="N765:O765"/>
-    <mergeCell ref="G766:I766"/>
-    <mergeCell ref="J766:K766"/>
-    <mergeCell ref="L766:M766"/>
-    <mergeCell ref="N766:O766"/>
-    <mergeCell ref="G767:I767"/>
-    <mergeCell ref="J767:K767"/>
-    <mergeCell ref="L767:M767"/>
-    <mergeCell ref="N767:O767"/>
-    <mergeCell ref="A768:C771"/>
-    <mergeCell ref="D768:F771"/>
-    <mergeCell ref="G768:I768"/>
-    <mergeCell ref="J768:K768"/>
-    <mergeCell ref="L768:M768"/>
-    <mergeCell ref="N768:O768"/>
-    <mergeCell ref="G769:I769"/>
-    <mergeCell ref="J769:K769"/>
-    <mergeCell ref="L769:M769"/>
-    <mergeCell ref="N769:O769"/>
-    <mergeCell ref="G770:I770"/>
-    <mergeCell ref="J770:K770"/>
-    <mergeCell ref="L770:M770"/>
-    <mergeCell ref="N770:O770"/>
-    <mergeCell ref="G771:I771"/>
-    <mergeCell ref="J771:K771"/>
-    <mergeCell ref="L771:M771"/>
-    <mergeCell ref="N771:O771"/>
-    <mergeCell ref="A776:D784"/>
-    <mergeCell ref="E777:O780"/>
-    <mergeCell ref="E781:O781"/>
-    <mergeCell ref="E782:O782"/>
-    <mergeCell ref="L784:O784"/>
-    <mergeCell ref="L785:O785"/>
-    <mergeCell ref="L786:O786"/>
-    <mergeCell ref="A787:C787"/>
-    <mergeCell ref="D787:F787"/>
-    <mergeCell ref="L787:O787"/>
-    <mergeCell ref="A788:C791"/>
-    <mergeCell ref="D788:F791"/>
-    <mergeCell ref="L788:O788"/>
-    <mergeCell ref="L789:O789"/>
-    <mergeCell ref="G791:O791"/>
-    <mergeCell ref="A792:C795"/>
-    <mergeCell ref="D792:F795"/>
-    <mergeCell ref="G792:I792"/>
-    <mergeCell ref="J792:K792"/>
-    <mergeCell ref="L792:M792"/>
-    <mergeCell ref="N792:O792"/>
-    <mergeCell ref="G793:I793"/>
-    <mergeCell ref="J793:K793"/>
-    <mergeCell ref="L793:M793"/>
-    <mergeCell ref="N793:O793"/>
-    <mergeCell ref="G794:I794"/>
-    <mergeCell ref="J794:K794"/>
-    <mergeCell ref="L794:M794"/>
-    <mergeCell ref="N794:O794"/>
-    <mergeCell ref="G795:I795"/>
-    <mergeCell ref="J795:K795"/>
-    <mergeCell ref="L795:M795"/>
-    <mergeCell ref="N795:O795"/>
-    <mergeCell ref="A796:C799"/>
-    <mergeCell ref="D796:F799"/>
-    <mergeCell ref="G796:I796"/>
-    <mergeCell ref="J796:K796"/>
-    <mergeCell ref="L796:M796"/>
-    <mergeCell ref="N796:O796"/>
-    <mergeCell ref="G797:I797"/>
-    <mergeCell ref="J797:K797"/>
-    <mergeCell ref="L797:M797"/>
-    <mergeCell ref="N797:O797"/>
-    <mergeCell ref="G798:I798"/>
-    <mergeCell ref="J798:K798"/>
-    <mergeCell ref="L798:M798"/>
-    <mergeCell ref="N798:O798"/>
-    <mergeCell ref="G799:I799"/>
-    <mergeCell ref="J799:K799"/>
-    <mergeCell ref="L799:M799"/>
-    <mergeCell ref="N799:O799"/>
+    <mergeCell ref="N851:O851"/>
+    <mergeCell ref="A852:C855"/>
+    <mergeCell ref="D852:F855"/>
+    <mergeCell ref="G852:I852"/>
+    <mergeCell ref="J852:K852"/>
+    <mergeCell ref="L852:M852"/>
+    <mergeCell ref="N852:O852"/>
+    <mergeCell ref="G853:I853"/>
+    <mergeCell ref="J853:K853"/>
+    <mergeCell ref="L853:M853"/>
+    <mergeCell ref="N853:O853"/>
+    <mergeCell ref="G854:I854"/>
+    <mergeCell ref="J854:K854"/>
+    <mergeCell ref="L854:M854"/>
+    <mergeCell ref="N854:O854"/>
+    <mergeCell ref="G855:I855"/>
+    <mergeCell ref="J855:K855"/>
+    <mergeCell ref="L855:M855"/>
+    <mergeCell ref="N855:O855"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23558,20 +23610,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23757,14 +23809,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58A20BDE-ACAC-49A0-A051-6F5B010A8CC5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -23776,6 +23820,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CFFD5C-4326-4267-9F18-D6A7FCFC5475}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
